--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931F1A15-21C3-4BD2-A406-C952DB315985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2B15CB-BF40-424C-9BC4-8A3ED80761E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="2145" windowWidth="23940" windowHeight="14925" activeTab="1" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
+    <workbookView xWindow="29835" yWindow="0" windowWidth="26460" windowHeight="20880" activeTab="1" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="116">
   <si>
     <t>Price</t>
   </si>
@@ -370,6 +370,57 @@
   </si>
   <si>
     <t>Upside</t>
+  </si>
+  <si>
+    <t>F2013</t>
+  </si>
+  <si>
+    <t>F2012</t>
+  </si>
+  <si>
+    <t>F2011</t>
+  </si>
+  <si>
+    <t>F2010</t>
+  </si>
+  <si>
+    <t>F2008</t>
+  </si>
+  <si>
+    <t>F2009</t>
+  </si>
+  <si>
+    <t>F2007</t>
+  </si>
+  <si>
+    <t>F2006</t>
+  </si>
+  <si>
+    <t>F2005</t>
+  </si>
+  <si>
+    <t>F2004</t>
+  </si>
+  <si>
+    <t>F2003</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>F2002</t>
+  </si>
+  <si>
+    <t>F2001</t>
+  </si>
+  <si>
+    <t>F2000</t>
+  </si>
+  <si>
+    <t>F1999</t>
+  </si>
+  <si>
+    <t>F1998</t>
   </si>
 </sst>
 </file>
@@ -380,7 +431,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -413,6 +464,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -435,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -453,19 +512,14 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -488,16 +542,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>36479</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>12667</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>53579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>36479</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>44585</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>12667</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>136922</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -512,8 +566,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8114490" y="0"/>
-          <a:ext cx="0" cy="5232670"/>
+          <a:off x="14157292" y="53579"/>
+          <a:ext cx="0" cy="8280796"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -538,14 +592,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>25208</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>54974</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>25208</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>54974</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>44585</xdr:rowOff>
     </xdr:to>
@@ -562,8 +616,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14809867" y="0"/>
-          <a:ext cx="0" cy="5898975"/>
+          <a:off x="22093443" y="0"/>
+          <a:ext cx="0" cy="6313226"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -908,7 +962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDB42F4-D3F6-42E5-97CD-AE20E0C5C6C6}">
   <dimension ref="N2:P7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -919,8 +975,8 @@
       <c r="N2" t="s">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>170.03</v>
+      <c r="O2" s="6">
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="14:16" x14ac:dyDescent="0.2">
@@ -940,7 +996,7 @@
       </c>
       <c r="O4" s="2">
         <f>+O2*O3</f>
-        <v>2732509.9625599999</v>
+        <v>2474895.8080000002</v>
       </c>
     </row>
     <row r="5" spans="14:16" x14ac:dyDescent="0.2">
@@ -973,7 +1029,7 @@
       </c>
       <c r="O7" s="2">
         <f>+O4-O5+O6</f>
-        <v>2672892.9625599999</v>
+        <v>2415278.8080000002</v>
       </c>
     </row>
   </sheetData>
@@ -984,13 +1040,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EB6088-6F7F-4776-A4C2-8340505BB8E8}">
-  <dimension ref="A1:FJ37"/>
+  <dimension ref="A1:FZ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AV19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BE20" sqref="BE20"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1000,17 +1056,17 @@
     <col min="15" max="15" width="9.140625" customWidth="1"/>
     <col min="19" max="19" width="9.140625" customWidth="1"/>
     <col min="21" max="21" width="9.140625" customWidth="1"/>
-    <col min="37" max="37" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.5703125" customWidth="1"/>
-    <col min="57" max="57" width="10.85546875" customWidth="1"/>
+    <col min="53" max="53" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.5703125" customWidth="1"/>
+    <col min="73" max="73" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="C2" s="11">
         <v>43099</v>
@@ -1078,8 +1134,17 @@
         <f>+R2+365</f>
         <v>44829</v>
       </c>
+      <c r="W2" s="11">
+        <v>44926</v>
+      </c>
+      <c r="AY2" s="11">
+        <v>44464</v>
+      </c>
+      <c r="AZ2" s="11">
+        <v>44828</v>
+      </c>
     </row>
-    <row r="3" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>89</v>
       </c>
@@ -1153,88 +1218,136 @@
         <v>47</v>
       </c>
       <c r="AB3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:70" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -1285,107 +1398,154 @@
         <v>40665</v>
       </c>
       <c r="V4" s="7">
-        <f>+V5*V6/1000</f>
-        <v>38770.83</v>
-      </c>
-      <c r="AD4" s="7">
+        <v>42626</v>
+      </c>
+      <c r="W4" s="7">
+        <v>65775</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>123</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>6742</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>13033</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>25179</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>45998</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>78692</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>91279</v>
+      </c>
+      <c r="AR4" s="7">
+        <v>101991</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>155041</v>
+      </c>
+      <c r="AT4" s="7">
         <v>136700</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AU4" s="7">
         <v>141319</v>
       </c>
-      <c r="AF4" s="13">
+      <c r="AV4" s="7">
         <v>164888</v>
       </c>
-      <c r="AG4" s="13">
+      <c r="AW4" s="7">
         <v>142381</v>
       </c>
-      <c r="AH4" s="13">
+      <c r="AX4" s="7">
         <f>SUM(K4:N4)</f>
         <v>137781</v>
       </c>
-      <c r="AI4" s="13">
+      <c r="AY4" s="7">
         <f>SUM(O4:R4)</f>
         <v>191973</v>
       </c>
-      <c r="AJ4" s="13">
+      <c r="AZ4" s="7">
         <f>SUM(S4:V4)</f>
-        <v>201633.83000000002</v>
-      </c>
-      <c r="AK4" s="13">
-        <f>+AK5*AK6/1000</f>
-        <v>215102.96984400004</v>
-      </c>
-      <c r="AL4" s="13">
-        <f t="shared" ref="AL4:BB4" si="0">+AL5*AL6/1000</f>
-        <v>229471.84822957925</v>
-      </c>
-      <c r="AM4" s="13">
+        <v>205489</v>
+      </c>
+      <c r="BA4" s="7">
+        <f>+BA5*BA6/1000</f>
+        <v>219215.66520000002</v>
+      </c>
+      <c r="BB4" s="7">
+        <f t="shared" ref="BB4:BR4" si="0">+BB5*BB6/1000</f>
+        <v>233859.27163536</v>
+      </c>
+      <c r="BC4" s="7">
         <f t="shared" si="0"/>
-        <v>244800.56769131517</v>
-      </c>
-      <c r="AN4" s="13">
+        <v>249481.07098060206</v>
+      </c>
+      <c r="BD4" s="7">
         <f t="shared" si="0"/>
-        <v>258666.07184535131</v>
-      </c>
-      <c r="AO4" s="13">
+        <v>263611.67884094338</v>
+      </c>
+      <c r="BE4" s="7">
         <f t="shared" si="0"/>
-        <v>273316.91815467202</v>
-      </c>
-      <c r="AP4" s="13">
+        <v>278542.64433049446</v>
+      </c>
+      <c r="BF4" s="7">
         <f t="shared" si="0"/>
-        <v>288797.58839895268</v>
-      </c>
-      <c r="AQ4" s="13">
+        <v>294319.29970537365</v>
+      </c>
+      <c r="BG4" s="7">
         <f t="shared" si="0"/>
-        <v>305155.08380586939</v>
-      </c>
-      <c r="AR4" s="13">
+        <v>310989.54484068602</v>
+      </c>
+      <c r="BH4" s="7">
         <f t="shared" si="0"/>
-        <v>319338.69210116618</v>
-      </c>
-      <c r="AS4" s="13">
+        <v>325444.33888488112</v>
+      </c>
+      <c r="BI4" s="7">
         <f t="shared" si="0"/>
-        <v>334181.55451002845</v>
-      </c>
-      <c r="AT4" s="13">
+        <v>340570.99175625044</v>
+      </c>
+      <c r="BJ4" s="7">
         <f t="shared" si="0"/>
-        <v>349714.31316365459</v>
-      </c>
-      <c r="AU4" s="13">
+        <v>356400.73145308101</v>
+      </c>
+      <c r="BK4" s="7">
         <f t="shared" si="0"/>
-        <v>365969.03443950129</v>
-      </c>
-      <c r="AV4" s="13">
+        <v>372966.23745102022</v>
+      </c>
+      <c r="BL4" s="7">
         <f t="shared" si="0"/>
-        <v>379261.02977034403</v>
-      </c>
-      <c r="AW4" s="13">
+        <v>386512.37119524134</v>
+      </c>
+      <c r="BM4" s="7">
         <f t="shared" si="0"/>
-        <v>393035.79037160281</v>
-      </c>
-      <c r="AX4" s="13">
+        <v>400550.50051705254</v>
+      </c>
+      <c r="BN4" s="7">
         <f t="shared" si="0"/>
-        <v>407310.85027789953</v>
-      </c>
-      <c r="AY4" s="13">
+        <v>415098.49469583185</v>
+      </c>
+      <c r="BO4" s="7">
         <f t="shared" si="0"/>
-        <v>422104.38035999279</v>
-      </c>
-      <c r="AZ4" s="13">
+        <v>430174.87202318443</v>
+      </c>
+      <c r="BP4" s="7">
         <f t="shared" si="0"/>
-        <v>437435.21145466779</v>
-      </c>
-      <c r="BA4" s="13">
+        <v>445798.82337506651</v>
+      </c>
+      <c r="BQ4" s="7">
         <f t="shared" si="0"/>
-        <v>453322.85833470133</v>
-      </c>
-      <c r="BB4" s="13">
+        <v>461990.23664004891</v>
+      </c>
+      <c r="BR4" s="7">
         <f t="shared" si="0"/>
-        <v>469787.5445494178</v>
+        <v>478769.72203481552</v>
       </c>
     </row>
-    <row r="5" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>85</v>
       </c>
@@ -1448,104 +1608,127 @@
         <f>+U4/U6*1000</f>
         <v>43260.117693779554</v>
       </c>
-      <c r="V5" s="7">
-        <f>+R5*0.95</f>
-        <v>47880</v>
-      </c>
-      <c r="AF5" s="13">
+      <c r="AM5" s="7">
+        <v>20731</v>
+      </c>
+      <c r="AN5" s="7">
+        <v>39989</v>
+      </c>
+      <c r="AO5" s="7">
+        <v>72293</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>125046</v>
+      </c>
+      <c r="AQ5" s="7">
+        <v>150257</v>
+      </c>
+      <c r="AR5" s="7">
+        <v>169219</v>
+      </c>
+      <c r="AS5" s="7">
+        <v>231218</v>
+      </c>
+      <c r="AT5" s="7">
+        <v>211884</v>
+      </c>
+      <c r="AU5" s="7">
+        <v>216756</v>
+      </c>
+      <c r="AV5" s="7">
         <f>SUM(C5:F5)</f>
         <v>217722</v>
       </c>
-      <c r="AG5" s="13">
+      <c r="AW5" s="7">
         <f>SUM(G5:J5)</f>
         <v>185200</v>
       </c>
-      <c r="AH5" s="13">
+      <c r="AX5" s="7">
         <f>SUM(K5:N5)</f>
         <v>189800</v>
       </c>
-      <c r="AI5" s="13">
+      <c r="AY5" s="7">
         <f>SUM(O5:R5)</f>
         <v>239900</v>
       </c>
-      <c r="AJ5" s="13">
+      <c r="AZ5" s="7">
         <f>SUM(S5:V5)</f>
-        <v>231740.11769377955</v>
-      </c>
-      <c r="AK5" s="7">
-        <f>+AJ5*1.016</f>
-        <v>235447.95957688004</v>
-      </c>
-      <c r="AL5" s="7">
-        <f t="shared" ref="AL5:BB5" si="1">+AK5*1.016</f>
-        <v>239215.12693011013</v>
-      </c>
-      <c r="AM5" s="7">
+        <v>183860.11769377955</v>
+      </c>
+      <c r="BA5" s="7">
+        <f>+AZ5*1.016</f>
+        <v>186801.87957688002</v>
+      </c>
+      <c r="BB5" s="7">
+        <f t="shared" ref="BB5:BR5" si="1">+BA5*1.016</f>
+        <v>189790.7096501101</v>
+      </c>
+      <c r="BC5" s="7">
         <f t="shared" si="1"/>
-        <v>243042.56896099189</v>
-      </c>
-      <c r="AN5" s="7">
+        <v>192827.36100451185</v>
+      </c>
+      <c r="BD5" s="7">
         <f t="shared" si="1"/>
-        <v>246931.25006436778</v>
-      </c>
-      <c r="AO5" s="7">
+        <v>195912.59878058406</v>
+      </c>
+      <c r="BE5" s="7">
         <f t="shared" si="1"/>
-        <v>250882.15006539767</v>
-      </c>
-      <c r="AP5" s="7">
+        <v>199047.2003610734</v>
+      </c>
+      <c r="BF5" s="7">
         <f t="shared" si="1"/>
-        <v>254896.26446644403</v>
-      </c>
-      <c r="AQ5" s="7">
+        <v>202231.95556685058</v>
+      </c>
+      <c r="BG5" s="7">
         <f t="shared" si="1"/>
-        <v>258974.60469790714</v>
-      </c>
-      <c r="AR5" s="7">
+        <v>205467.66685592019</v>
+      </c>
+      <c r="BH5" s="7">
         <f t="shared" si="1"/>
-        <v>263118.19837307365</v>
-      </c>
-      <c r="AS5" s="7">
+        <v>208755.14952561492</v>
+      </c>
+      <c r="BI5" s="7">
         <f t="shared" si="1"/>
-        <v>267328.08954704285</v>
-      </c>
-      <c r="AT5" s="7">
+        <v>212095.23191802477</v>
+      </c>
+      <c r="BJ5" s="7">
         <f t="shared" si="1"/>
-        <v>271605.33897979552</v>
-      </c>
-      <c r="AU5" s="7">
+        <v>215488.75562871317</v>
+      </c>
+      <c r="BK5" s="7">
         <f t="shared" si="1"/>
-        <v>275951.02440347226</v>
-      </c>
-      <c r="AV5" s="7">
+        <v>218936.5757187726</v>
+      </c>
+      <c r="BL5" s="7">
         <f t="shared" si="1"/>
-        <v>280366.24079392781</v>
-      </c>
-      <c r="AW5" s="7">
+        <v>222439.56093027297</v>
+      </c>
+      <c r="BM5" s="7">
         <f t="shared" si="1"/>
-        <v>284852.10064663063</v>
-      </c>
-      <c r="AX5" s="7">
+        <v>225998.59390515735</v>
+      </c>
+      <c r="BN5" s="7">
         <f t="shared" si="1"/>
-        <v>289409.73425697675</v>
-      </c>
-      <c r="AY5" s="7">
+        <v>229614.57140763986</v>
+      </c>
+      <c r="BO5" s="7">
         <f t="shared" si="1"/>
-        <v>294040.29000508838</v>
-      </c>
-      <c r="AZ5" s="7">
+        <v>233288.40455016209</v>
+      </c>
+      <c r="BP5" s="7">
         <f t="shared" si="1"/>
-        <v>298744.93464516982</v>
-      </c>
-      <c r="BA5" s="7">
+        <v>237021.01902296467</v>
+      </c>
+      <c r="BQ5" s="7">
         <f t="shared" si="1"/>
-        <v>303524.85359949252</v>
-      </c>
-      <c r="BB5" s="7">
+        <v>240813.3553273321</v>
+      </c>
+      <c r="BR5" s="7">
         <f t="shared" si="1"/>
-        <v>308381.25125708443</v>
+        <v>244666.36901256943</v>
       </c>
     </row>
-    <row r="6" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>86</v>
       </c>
@@ -1605,116 +1788,144 @@
         <f t="shared" si="2"/>
         <v>895.04424778761063</v>
       </c>
-      <c r="U6" s="18">
+      <c r="U6" s="14">
         <f>+Q6*1.05</f>
         <v>940.01131221719459</v>
       </c>
-      <c r="V6" s="18">
-        <f>+R6*1.05</f>
-        <v>809.75</v>
-      </c>
-      <c r="AF6" s="13">
-        <f>+AF4*1000/AF5</f>
+      <c r="V6" s="14"/>
+      <c r="AM6" s="7">
+        <f>+AM4*1000/AM5</f>
+        <v>628.67203704596977</v>
+      </c>
+      <c r="AN6" s="7">
+        <f>+AN4*1000/AN5</f>
+        <v>629.64815324214157</v>
+      </c>
+      <c r="AO6" s="7">
+        <f>+AO4*1000/AO5</f>
+        <v>636.27183821393498</v>
+      </c>
+      <c r="AP6" s="7">
+        <f>+AP4*1000/AP5</f>
+        <v>629.3044159749212</v>
+      </c>
+      <c r="AQ6" s="7">
+        <f t="shared" ref="AQ6:AU6" si="3">+AQ4*1000/AQ5</f>
+        <v>607.48584092588032</v>
+      </c>
+      <c r="AR6" s="7">
+        <f t="shared" si="3"/>
+        <v>602.71600706776428</v>
+      </c>
+      <c r="AS6" s="7">
+        <f t="shared" si="3"/>
+        <v>670.54035585464794</v>
+      </c>
+      <c r="AT6" s="7">
+        <f t="shared" si="3"/>
+        <v>645.16433520228054</v>
+      </c>
+      <c r="AU6" s="7">
+        <f t="shared" si="3"/>
+        <v>651.97272509180834</v>
+      </c>
+      <c r="AV6" s="7">
+        <f>+AV4*1000/AV5</f>
         <v>757.33274542765548</v>
       </c>
-      <c r="AG6" s="13">
-        <f>+AG4*1000/AG5</f>
+      <c r="AW6" s="7">
+        <f>+AW4*1000/AW5</f>
         <v>768.79589632829379</v>
       </c>
-      <c r="AH6" s="13">
-        <f>+AH4*1000/AH5</f>
+      <c r="AX6" s="7">
+        <f>+AX4*1000/AX5</f>
         <v>725.92729188619603</v>
       </c>
-      <c r="AI6" s="13">
-        <f>+AI4*1000/AI5</f>
+      <c r="AY6" s="7">
+        <f>+AY4*1000/AY5</f>
         <v>800.22092538557729</v>
       </c>
-      <c r="AJ6" s="13">
-        <f>+AJ4*1000/AJ5</f>
-        <v>870.085991181027</v>
-      </c>
-      <c r="AK6" s="7">
-        <f>+AJ6*1.05</f>
-        <v>913.59029074007833</v>
-      </c>
-      <c r="AL6" s="7">
-        <f t="shared" ref="AL6:AM6" si="3">+AK6*1.05</f>
-        <v>959.26980527708224</v>
-      </c>
-      <c r="AM6" s="13">
-        <f t="shared" si="3"/>
-        <v>1007.2332955409364</v>
-      </c>
-      <c r="AN6" s="7">
-        <f>+AM6*1.04</f>
-        <v>1047.522627362574</v>
-      </c>
-      <c r="AO6" s="7">
-        <f>+AN6*1.04</f>
-        <v>1089.423532457077</v>
-      </c>
-      <c r="AP6" s="7">
-        <f>+AO6*1.04</f>
-        <v>1133.0004737553602</v>
-      </c>
-      <c r="AQ6" s="7">
-        <f>+AP6*1.04</f>
-        <v>1178.3204927055747</v>
-      </c>
-      <c r="AR6" s="7">
-        <f>+AQ6*1.03</f>
-        <v>1213.6701074867419</v>
-      </c>
-      <c r="AS6" s="7">
-        <f>+AR6*1.03</f>
-        <v>1250.0802107113443</v>
-      </c>
-      <c r="AT6" s="7">
-        <f t="shared" ref="AT6:AU6" si="4">+AS6*1.03</f>
-        <v>1287.5826170326848</v>
-      </c>
-      <c r="AU6" s="7">
+      <c r="AZ6" s="7">
+        <f>+AZ4*1000/AZ5</f>
+        <v>1117.6377051071158</v>
+      </c>
+      <c r="BA6" s="7">
+        <f>+AZ6*1.05</f>
+        <v>1173.5195903624717</v>
+      </c>
+      <c r="BB6" s="7">
+        <f t="shared" ref="BB6:BC6" si="4">+BA6*1.05</f>
+        <v>1232.1955698805953</v>
+      </c>
+      <c r="BC6" s="7">
         <f t="shared" si="4"/>
-        <v>1326.2100955436654</v>
-      </c>
-      <c r="AV6" s="7">
-        <f>+AU6*1.02</f>
-        <v>1352.7342974545388</v>
-      </c>
-      <c r="AW6" s="7">
-        <f t="shared" ref="AW6:BB6" si="5">+AV6*1.02</f>
-        <v>1379.7889834036296</v>
-      </c>
-      <c r="AX6" s="7">
+        <v>1293.8053483746251</v>
+      </c>
+      <c r="BD6" s="7">
+        <f>+BC6*1.04</f>
+        <v>1345.5575623096101</v>
+      </c>
+      <c r="BE6" s="7">
+        <f>+BD6*1.04</f>
+        <v>1399.3798648019947</v>
+      </c>
+      <c r="BF6" s="7">
+        <f>+BE6*1.04</f>
+        <v>1455.3550593940745</v>
+      </c>
+      <c r="BG6" s="7">
+        <f>+BF6*1.04</f>
+        <v>1513.5692617698376</v>
+      </c>
+      <c r="BH6" s="7">
+        <f>+BG6*1.03</f>
+        <v>1558.9763396229328</v>
+      </c>
+      <c r="BI6" s="7">
+        <f>+BH6*1.03</f>
+        <v>1605.7456298116208</v>
+      </c>
+      <c r="BJ6" s="7">
+        <f t="shared" ref="BJ6:BK6" si="5">+BI6*1.03</f>
+        <v>1653.9179987059695</v>
+      </c>
+      <c r="BK6" s="7">
         <f t="shared" si="5"/>
-        <v>1407.3847630717021</v>
-      </c>
-      <c r="AY6" s="7">
-        <f t="shared" si="5"/>
-        <v>1435.5324583331362</v>
-      </c>
-      <c r="AZ6" s="7">
-        <f t="shared" si="5"/>
-        <v>1464.243107499799</v>
-      </c>
-      <c r="BA6" s="7">
-        <f t="shared" si="5"/>
-        <v>1493.5279696497951</v>
-      </c>
-      <c r="BB6" s="7">
-        <f t="shared" si="5"/>
-        <v>1523.3985290427911</v>
+        <v>1703.5355386671486</v>
+      </c>
+      <c r="BL6" s="7">
+        <f>+BK6*1.02</f>
+        <v>1737.6062494404916</v>
+      </c>
+      <c r="BM6" s="7">
+        <f t="shared" ref="BM6:BR6" si="6">+BL6*1.02</f>
+        <v>1772.3583744293014</v>
+      </c>
+      <c r="BN6" s="7">
+        <f t="shared" si="6"/>
+        <v>1807.8055419178875</v>
+      </c>
+      <c r="BO6" s="7">
+        <f t="shared" si="6"/>
+        <v>1843.9616527562453</v>
+      </c>
+      <c r="BP6" s="7">
+        <f t="shared" si="6"/>
+        <v>1880.8408858113703</v>
+      </c>
+      <c r="BQ6" s="7">
+        <f t="shared" si="6"/>
+        <v>1918.4577035275977</v>
+      </c>
+      <c r="BR6" s="7">
+        <f t="shared" si="6"/>
+        <v>1956.8268575981497</v>
       </c>
     </row>
-    <row r="7" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:70" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
     </row>
-    <row r="8" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:70" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1765,107 +1976,158 @@
         <v>7382</v>
       </c>
       <c r="V8" s="7">
-        <f>+R8*0.95</f>
-        <v>8719.1</v>
+        <v>11508</v>
+      </c>
+      <c r="W8" s="7">
+        <v>7735</v>
       </c>
       <c r="AD8" s="7">
+        <f>2747+948+2381</f>
+        <v>6076</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>4403</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>4534</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>4491</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>4923</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>6275</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>7375</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>10314</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>14354</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>13859</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>17479</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>21783</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>23221</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>21483</v>
+      </c>
+      <c r="AR8" s="7">
+        <v>24079</v>
+      </c>
+      <c r="AS8" s="7">
+        <v>25471</v>
+      </c>
+      <c r="AT8" s="7">
         <v>22831</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AU8" s="7">
         <v>25850</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="AV8" s="7">
         <v>25198</v>
       </c>
-      <c r="AG8" s="7">
+      <c r="AW8" s="7">
         <v>25740</v>
       </c>
-      <c r="AH8" s="7">
-        <f t="shared" ref="AH8:AH9" si="6">SUM(K8:N8)</f>
+      <c r="AX8" s="7">
+        <f t="shared" ref="AX8:AX9" si="7">SUM(K8:N8)</f>
         <v>28622</v>
       </c>
-      <c r="AI8" s="7">
-        <f t="shared" ref="AI8:AI9" si="7">SUM(O8:R8)</f>
+      <c r="AY8" s="7">
+        <f t="shared" ref="AY8:AY9" si="8">SUM(O8:R8)</f>
         <v>35190</v>
       </c>
-      <c r="AJ8" s="7">
-        <f t="shared" ref="AJ8:AJ9" si="8">SUM(S8:V8)</f>
-        <v>37388.1</v>
-      </c>
-      <c r="AK8" s="7">
-        <f>+AJ8*1.07</f>
-        <v>40005.267</v>
-      </c>
-      <c r="AL8" s="7">
-        <f t="shared" ref="AL8:AQ8" si="9">+AK8*1.07</f>
-        <v>42805.635690000003</v>
-      </c>
-      <c r="AM8" s="7">
+      <c r="AZ8" s="7">
+        <f>SUM(S8:V8)</f>
+        <v>40177</v>
+      </c>
+      <c r="BA8" s="7">
+        <f>+AZ8*1.07</f>
+        <v>42989.39</v>
+      </c>
+      <c r="BB8" s="7">
+        <f t="shared" ref="BB8:BG8" si="9">+BA8*1.07</f>
+        <v>45998.647300000004</v>
+      </c>
+      <c r="BC8" s="7">
         <f t="shared" si="9"/>
-        <v>45802.030188300007</v>
-      </c>
-      <c r="AN8" s="7">
+        <v>49218.552611000006</v>
+      </c>
+      <c r="BD8" s="7">
         <f t="shared" si="9"/>
-        <v>49008.172301481012</v>
-      </c>
-      <c r="AO8" s="7">
+        <v>52663.851293770007</v>
+      </c>
+      <c r="BE8" s="7">
         <f t="shared" si="9"/>
-        <v>52438.744362584686</v>
-      </c>
-      <c r="AP8" s="7">
+        <v>56350.320884333909</v>
+      </c>
+      <c r="BF8" s="7">
         <f t="shared" si="9"/>
-        <v>56109.456467965618</v>
-      </c>
-      <c r="AQ8" s="7">
+        <v>60294.843346237285</v>
+      </c>
+      <c r="BG8" s="7">
         <f t="shared" si="9"/>
-        <v>60037.118420723215</v>
-      </c>
-      <c r="AR8" s="7">
-        <f>+AQ8*1.06</f>
-        <v>63639.345525966608</v>
-      </c>
-      <c r="AS8" s="7">
-        <f t="shared" ref="AS8:AV8" si="10">+AR8*1.06</f>
-        <v>67457.706257524609</v>
-      </c>
-      <c r="AT8" s="7">
+        <v>64515.482380473899</v>
+      </c>
+      <c r="BH8" s="7">
+        <f>+BG8*1.06</f>
+        <v>68386.411323302338</v>
+      </c>
+      <c r="BI8" s="7">
+        <f t="shared" ref="BI8:BL8" si="10">+BH8*1.06</f>
+        <v>72489.596002700477</v>
+      </c>
+      <c r="BJ8" s="7">
         <f t="shared" si="10"/>
-        <v>71505.168632976085</v>
-      </c>
-      <c r="AU8" s="7">
+        <v>76838.971762862508</v>
+      </c>
+      <c r="BK8" s="7">
         <f t="shared" si="10"/>
-        <v>75795.478750954659</v>
-      </c>
-      <c r="AV8" s="7">
+        <v>81449.310068634266</v>
+      </c>
+      <c r="BL8" s="7">
         <f t="shared" si="10"/>
-        <v>80343.207476011943</v>
-      </c>
-      <c r="AW8" s="7">
-        <f>+AV8*1.05</f>
-        <v>84360.367849812537</v>
-      </c>
-      <c r="AX8" s="7">
-        <f t="shared" ref="AX8:BB8" si="11">+AW8*1.05</f>
-        <v>88578.386242303168</v>
-      </c>
-      <c r="AY8" s="7">
+        <v>86336.268672752325</v>
+      </c>
+      <c r="BM8" s="7">
+        <f>+BL8*1.05</f>
+        <v>90653.082106389949</v>
+      </c>
+      <c r="BN8" s="7">
+        <f t="shared" ref="BN8:BR8" si="11">+BM8*1.05</f>
+        <v>95185.736211709445</v>
+      </c>
+      <c r="BO8" s="7">
         <f t="shared" si="11"/>
-        <v>93007.30555441833</v>
-      </c>
-      <c r="AZ8" s="7">
+        <v>99945.023022294918</v>
+      </c>
+      <c r="BP8" s="7">
         <f t="shared" si="11"/>
-        <v>97657.670832139251</v>
-      </c>
-      <c r="BA8" s="7">
+        <v>104942.27417340966</v>
+      </c>
+      <c r="BQ8" s="7">
         <f t="shared" si="11"/>
-        <v>102540.55437374621</v>
-      </c>
-      <c r="BB8" s="7">
+        <v>110189.38788208015</v>
+      </c>
+      <c r="BR8" s="7">
         <f t="shared" si="11"/>
-        <v>107667.58209243353</v>
+        <v>115698.85727618416</v>
       </c>
     </row>
-    <row r="9" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -1916,107 +2178,157 @@
         <v>7224</v>
       </c>
       <c r="V9" s="7">
-        <f>+R9*0.95</f>
-        <v>7839.4</v>
+        <v>7174</v>
+      </c>
+      <c r="W9" s="7">
+        <v>9396</v>
       </c>
       <c r="AD9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="7">
+        <v>4958</v>
+      </c>
+      <c r="AO9" s="7">
+        <v>19168</v>
+      </c>
+      <c r="AP9" s="7">
+        <v>30945</v>
+      </c>
+      <c r="AQ9" s="7">
+        <v>31980</v>
+      </c>
+      <c r="AR9" s="7">
+        <v>30283</v>
+      </c>
+      <c r="AS9" s="7">
+        <v>23227</v>
+      </c>
+      <c r="AT9" s="7">
         <v>20628</v>
       </c>
-      <c r="AE9" s="7">
+      <c r="AU9" s="7">
         <v>19222</v>
       </c>
-      <c r="AF9" s="7">
+      <c r="AV9" s="7">
         <v>18380</v>
       </c>
-      <c r="AG9" s="7">
+      <c r="AW9" s="7">
         <v>21280</v>
       </c>
-      <c r="AH9" s="7">
-        <f t="shared" si="6"/>
+      <c r="AX9" s="7">
+        <f t="shared" si="7"/>
         <v>23724</v>
       </c>
-      <c r="AI9" s="7">
-        <f t="shared" si="7"/>
+      <c r="AY9" s="7">
+        <f t="shared" si="8"/>
         <v>31862</v>
       </c>
-      <c r="AJ9" s="7">
-        <f t="shared" si="8"/>
-        <v>29957.4</v>
-      </c>
-      <c r="AK9" s="7">
-        <f>+AJ9*1.04</f>
-        <v>31155.696000000004</v>
-      </c>
-      <c r="AL9" s="7">
-        <f t="shared" ref="AL9:BB9" si="12">+AK9*1.04</f>
-        <v>32401.923840000003</v>
-      </c>
-      <c r="AM9" s="7">
+      <c r="AZ9" s="7">
+        <f>SUM(S9:V9)</f>
+        <v>29292</v>
+      </c>
+      <c r="BA9" s="7">
+        <f>+AZ9*1.04</f>
+        <v>30463.68</v>
+      </c>
+      <c r="BB9" s="7">
+        <f t="shared" ref="BB9:BR9" si="12">+BA9*1.04</f>
+        <v>31682.227200000001</v>
+      </c>
+      <c r="BC9" s="7">
         <f t="shared" si="12"/>
-        <v>33698.000793600004</v>
-      </c>
-      <c r="AN9" s="7">
+        <v>32949.516287999999</v>
+      </c>
+      <c r="BD9" s="7">
         <f t="shared" si="12"/>
-        <v>35045.920825344008</v>
-      </c>
-      <c r="AO9" s="7">
+        <v>34267.496939520002</v>
+      </c>
+      <c r="BE9" s="7">
         <f t="shared" si="12"/>
-        <v>36447.757658357768</v>
-      </c>
-      <c r="AP9" s="7">
+        <v>35638.196817100805</v>
+      </c>
+      <c r="BF9" s="7">
         <f t="shared" si="12"/>
-        <v>37905.667964692082</v>
-      </c>
-      <c r="AQ9" s="7">
+        <v>37063.724689784838</v>
+      </c>
+      <c r="BG9" s="7">
         <f t="shared" si="12"/>
-        <v>39421.894683279766</v>
-      </c>
-      <c r="AR9" s="7">
+        <v>38546.27367737623</v>
+      </c>
+      <c r="BH9" s="7">
         <f t="shared" si="12"/>
-        <v>40998.770470610958</v>
-      </c>
-      <c r="AS9" s="7">
+        <v>40088.124624471282</v>
+      </c>
+      <c r="BI9" s="7">
         <f t="shared" si="12"/>
-        <v>42638.721289435394</v>
-      </c>
-      <c r="AT9" s="7">
+        <v>41691.649609450134</v>
+      </c>
+      <c r="BJ9" s="7">
         <f t="shared" si="12"/>
-        <v>44344.270141012814</v>
-      </c>
-      <c r="AU9" s="7">
+        <v>43359.315593828142</v>
+      </c>
+      <c r="BK9" s="7">
         <f t="shared" si="12"/>
-        <v>46118.040946653331</v>
-      </c>
-      <c r="AV9" s="7">
+        <v>45093.688217581272</v>
+      </c>
+      <c r="BL9" s="7">
         <f t="shared" si="12"/>
-        <v>47962.762584519463</v>
-      </c>
-      <c r="AW9" s="7">
+        <v>46897.435746284522</v>
+      </c>
+      <c r="BM9" s="7">
         <f t="shared" si="12"/>
-        <v>49881.273087900241</v>
-      </c>
-      <c r="AX9" s="7">
+        <v>48773.333176135908</v>
+      </c>
+      <c r="BN9" s="7">
         <f t="shared" si="12"/>
-        <v>51876.524011416252</v>
-      </c>
-      <c r="AY9" s="7">
+        <v>50724.266503181345</v>
+      </c>
+      <c r="BO9" s="7">
         <f t="shared" si="12"/>
-        <v>53951.5849718729</v>
-      </c>
-      <c r="AZ9" s="7">
+        <v>52753.2371633086</v>
+      </c>
+      <c r="BP9" s="7">
         <f t="shared" si="12"/>
-        <v>56109.648370747818</v>
-      </c>
-      <c r="BA9" s="7">
+        <v>54863.366649840944</v>
+      </c>
+      <c r="BQ9" s="7">
         <f t="shared" si="12"/>
-        <v>58354.034305577734</v>
-      </c>
-      <c r="BB9" s="7">
+        <v>57057.901315834584</v>
+      </c>
+      <c r="BR9" s="7">
         <f t="shared" si="12"/>
-        <v>60688.195677800846</v>
+        <v>59340.217368467973</v>
       </c>
     </row>
-    <row r="10" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:70" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -2067,110 +2379,173 @@
         <v>8084</v>
       </c>
       <c r="V10" s="7">
-        <f>+R10*0.95</f>
-        <v>8345.75</v>
+        <v>9650</v>
+      </c>
+      <c r="W10" s="7">
+        <v>13482</v>
       </c>
       <c r="AD10" s="7">
+        <v>809</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>387</v>
+      </c>
+      <c r="AF10" s="7">
+        <f>143+4+527</f>
+        <v>674</v>
+      </c>
+      <c r="AG10" s="7">
+        <f>345+691</f>
+        <v>1036</v>
+      </c>
+      <c r="AH10" s="7">
+        <f>1306+951</f>
+        <v>2257</v>
+      </c>
+      <c r="AI10" s="7">
+        <f>4540+1126</f>
+        <v>5666</v>
+      </c>
+      <c r="AJ10" s="7">
+        <f>7676+1100</f>
+        <v>8776</v>
+      </c>
+      <c r="AK10" s="7">
+        <f>8305+1260</f>
+        <v>9565</v>
+      </c>
+      <c r="AL10" s="7">
+        <f>9153+1694</f>
+        <v>10847</v>
+      </c>
+      <c r="AM10" s="7">
+        <f>1475+8091</f>
+        <v>9566</v>
+      </c>
+      <c r="AN10" s="7">
+        <f>1814+8274</f>
+        <v>10088</v>
+      </c>
+      <c r="AO10" s="7">
+        <f>7453+4474</f>
+        <v>11927</v>
+      </c>
+      <c r="AP10" s="7">
+        <f>5145+5615</f>
+        <v>10760</v>
+      </c>
+      <c r="AQ10" s="7">
+        <f>4411+5706</f>
+        <v>10117</v>
+      </c>
+      <c r="AR10" s="7">
+        <f>6093+2286</f>
+        <v>8379</v>
+      </c>
+      <c r="AS10" s="7">
+        <v>10067</v>
+      </c>
+      <c r="AT10" s="7">
         <v>11132</v>
       </c>
-      <c r="AE10" s="7">
+      <c r="AU10" s="7">
         <v>12863</v>
       </c>
-      <c r="AF10" s="7">
+      <c r="AV10" s="7">
         <v>17381</v>
       </c>
-      <c r="AG10" s="7">
+      <c r="AW10" s="7">
         <v>24482</v>
       </c>
-      <c r="AH10" s="7">
-        <f t="shared" ref="AH10" si="13">SUM(K10:N10)</f>
+      <c r="AX10" s="7">
+        <f t="shared" ref="AX10" si="13">SUM(K10:N10)</f>
         <v>30620</v>
       </c>
-      <c r="AI10" s="7">
-        <f t="shared" ref="AI10" si="14">SUM(O10:R10)</f>
+      <c r="AY10" s="7">
+        <f t="shared" ref="AY10" si="14">SUM(O10:R10)</f>
         <v>38367</v>
       </c>
-      <c r="AJ10" s="7">
-        <f t="shared" ref="AJ10" si="15">SUM(S10:V10)</f>
-        <v>39936.75</v>
-      </c>
-      <c r="AK10" s="7">
-        <f>+AJ10*1.04</f>
-        <v>41534.22</v>
-      </c>
-      <c r="AL10" s="7">
-        <f t="shared" ref="AL10:BB10" si="16">+AK10*1.04</f>
-        <v>43195.588800000005</v>
-      </c>
-      <c r="AM10" s="7">
-        <f t="shared" si="16"/>
-        <v>44923.412352000007</v>
-      </c>
-      <c r="AN10" s="7">
-        <f t="shared" si="16"/>
-        <v>46720.348846080007</v>
-      </c>
-      <c r="AO10" s="7">
-        <f t="shared" si="16"/>
-        <v>48589.162799923208</v>
-      </c>
-      <c r="AP10" s="7">
-        <f t="shared" si="16"/>
-        <v>50532.729311920135</v>
-      </c>
-      <c r="AQ10" s="7">
-        <f t="shared" si="16"/>
-        <v>52554.038484396944</v>
-      </c>
-      <c r="AR10" s="7">
-        <f t="shared" si="16"/>
-        <v>54656.200023772821</v>
-      </c>
-      <c r="AS10" s="7">
-        <f t="shared" si="16"/>
-        <v>56842.448024723737</v>
-      </c>
-      <c r="AT10" s="7">
-        <f t="shared" si="16"/>
-        <v>59116.145945712691</v>
-      </c>
-      <c r="AU10" s="7">
-        <f t="shared" si="16"/>
-        <v>61480.791783541201</v>
-      </c>
-      <c r="AV10" s="7">
-        <f t="shared" si="16"/>
-        <v>63940.023454882852</v>
-      </c>
-      <c r="AW10" s="7">
-        <f t="shared" si="16"/>
-        <v>66497.624393078164</v>
-      </c>
-      <c r="AX10" s="7">
-        <f t="shared" si="16"/>
-        <v>69157.52936880129</v>
-      </c>
-      <c r="AY10" s="7">
-        <f t="shared" si="16"/>
-        <v>71923.83054355334</v>
-      </c>
       <c r="AZ10" s="7">
-        <f t="shared" si="16"/>
-        <v>74800.783765295477</v>
+        <f>SUM(S10:V10)</f>
+        <v>41241</v>
       </c>
       <c r="BA10" s="7">
-        <f t="shared" si="16"/>
-        <v>77792.815115907302</v>
+        <f>+AZ10*1.04</f>
+        <v>42890.64</v>
       </c>
       <c r="BB10" s="7">
-        <f t="shared" si="16"/>
-        <v>80904.5277205436</v>
+        <f t="shared" ref="BB10:BR10" si="15">+BA10*1.04</f>
+        <v>44606.265599999999</v>
+      </c>
+      <c r="BC10" s="7">
+        <f t="shared" si="15"/>
+        <v>46390.516223999999</v>
+      </c>
+      <c r="BD10" s="7">
+        <f t="shared" si="15"/>
+        <v>48246.13687296</v>
+      </c>
+      <c r="BE10" s="7">
+        <f t="shared" si="15"/>
+        <v>50175.982347878402</v>
+      </c>
+      <c r="BF10" s="7">
+        <f t="shared" si="15"/>
+        <v>52183.021641793537</v>
+      </c>
+      <c r="BG10" s="7">
+        <f t="shared" si="15"/>
+        <v>54270.342507465277</v>
+      </c>
+      <c r="BH10" s="7">
+        <f t="shared" si="15"/>
+        <v>56441.156207763888</v>
+      </c>
+      <c r="BI10" s="7">
+        <f t="shared" si="15"/>
+        <v>58698.802456074445</v>
+      </c>
+      <c r="BJ10" s="7">
+        <f t="shared" si="15"/>
+        <v>61046.754554317427</v>
+      </c>
+      <c r="BK10" s="7">
+        <f t="shared" si="15"/>
+        <v>63488.624736490128</v>
+      </c>
+      <c r="BL10" s="7">
+        <f t="shared" si="15"/>
+        <v>66028.16972594973</v>
+      </c>
+      <c r="BM10" s="7">
+        <f t="shared" si="15"/>
+        <v>68669.296514987727</v>
+      </c>
+      <c r="BN10" s="7">
+        <f t="shared" si="15"/>
+        <v>71416.068375587245</v>
+      </c>
+      <c r="BO10" s="7">
+        <f t="shared" si="15"/>
+        <v>74272.711110610733</v>
+      </c>
+      <c r="BP10" s="7">
+        <f t="shared" si="15"/>
+        <v>77243.619555035169</v>
+      </c>
+      <c r="BQ10" s="7">
+        <f t="shared" si="15"/>
+        <v>80333.364337236577</v>
+      </c>
+      <c r="BR10" s="7">
+        <f t="shared" si="15"/>
+        <v>83546.698910726045</v>
       </c>
     </row>
-    <row r="11" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:70" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:70" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -2191,155 +2566,222 @@
         <v>52919</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" ref="K12:V12" si="17">SUM(K8:K10)+K4</f>
+        <f t="shared" ref="K12:R12" si="16">SUM(K8:K10)+K4</f>
         <v>79104</v>
       </c>
       <c r="L12" s="2">
+        <f t="shared" si="16"/>
+        <v>44965</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="16"/>
+        <v>46529</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="16"/>
+        <v>50149</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="16"/>
+        <v>95678</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="16"/>
+        <v>72683</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="16"/>
+        <v>63948</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="16"/>
+        <v>65083</v>
+      </c>
+      <c r="S12" s="2">
+        <f>SUM(S8:S10)+S4</f>
+        <v>104429</v>
+      </c>
+      <c r="T12" s="2">
+        <f>SUM(T8:T10)+T4</f>
+        <v>77457</v>
+      </c>
+      <c r="U12" s="2">
+        <f>SUM(U8:U10)+U4</f>
+        <v>63355</v>
+      </c>
+      <c r="V12" s="2">
+        <f>SUM(V8:V10)+V4</f>
+        <v>70958</v>
+      </c>
+      <c r="W12" s="2">
+        <v>96388</v>
+      </c>
+      <c r="AD12" s="2">
+        <f>SUM(AD8:AD10)+AD4</f>
+        <v>6885</v>
+      </c>
+      <c r="AE12" s="2">
+        <f>SUM(AE8:AE10)+AE4</f>
+        <v>4790</v>
+      </c>
+      <c r="AF12" s="2">
+        <f>SUM(AF8:AF10)+AF4</f>
+        <v>5208</v>
+      </c>
+      <c r="AG12" s="2">
+        <f>SUM(AG8:AG10)+AG4</f>
+        <v>5527</v>
+      </c>
+      <c r="AH12" s="2">
+        <f>SUM(AH8:AH10)+AH4</f>
+        <v>7180</v>
+      </c>
+      <c r="AI12" s="2">
+        <f>SUM(AI8:AI10)+AI4</f>
+        <v>11941</v>
+      </c>
+      <c r="AJ12" s="2">
+        <f>SUM(AJ8:AJ10)+AJ4</f>
+        <v>16151</v>
+      </c>
+      <c r="AK12" s="2">
+        <f>SUM(AK8:AK10)+AK4</f>
+        <v>20002</v>
+      </c>
+      <c r="AL12" s="2">
+        <f>SUM(AL8:AL10)+AL4</f>
+        <v>31943</v>
+      </c>
+      <c r="AM12" s="2">
+        <f>SUM(AM8:AM10)+AM4</f>
+        <v>36458</v>
+      </c>
+      <c r="AN12" s="2">
+        <f t="shared" ref="AN12:AY12" si="17">SUM(AN8:AN10)+AN4</f>
+        <v>57704</v>
+      </c>
+      <c r="AO12" s="2">
         <f t="shared" si="17"/>
-        <v>44965</v>
-      </c>
-      <c r="M12" s="2">
+        <v>98876</v>
+      </c>
+      <c r="AP12" s="2">
         <f t="shared" si="17"/>
-        <v>46529</v>
-      </c>
-      <c r="N12" s="2">
+        <v>143618</v>
+      </c>
+      <c r="AQ12" s="2">
         <f t="shared" si="17"/>
-        <v>50149</v>
-      </c>
-      <c r="O12" s="2">
+        <v>154859</v>
+      </c>
+      <c r="AR12" s="2">
         <f t="shared" si="17"/>
-        <v>95678</v>
-      </c>
-      <c r="P12" s="2">
+        <v>164732</v>
+      </c>
+      <c r="AS12" s="2">
         <f t="shared" si="17"/>
-        <v>72683</v>
-      </c>
-      <c r="Q12" s="2">
+        <v>213806</v>
+      </c>
+      <c r="AT12" s="2">
         <f t="shared" si="17"/>
-        <v>63948</v>
-      </c>
-      <c r="R12" s="2">
+        <v>191291</v>
+      </c>
+      <c r="AU12" s="2">
         <f t="shared" si="17"/>
-        <v>65083</v>
-      </c>
-      <c r="S12" s="2">
+        <v>199254</v>
+      </c>
+      <c r="AV12" s="2">
         <f t="shared" si="17"/>
-        <v>104429</v>
-      </c>
-      <c r="T12" s="2">
+        <v>225847</v>
+      </c>
+      <c r="AW12" s="2">
         <f t="shared" si="17"/>
-        <v>77457</v>
-      </c>
-      <c r="U12" s="2">
+        <v>213883</v>
+      </c>
+      <c r="AX12" s="2">
         <f t="shared" si="17"/>
-        <v>63355</v>
-      </c>
-      <c r="V12" s="2">
+        <v>220747</v>
+      </c>
+      <c r="AY12" s="2">
         <f t="shared" si="17"/>
-        <v>63675.08</v>
-      </c>
-      <c r="AD12" s="2">
-        <f t="shared" ref="AD12:AJ12" si="18">SUM(AD8:AD10)+AD4</f>
-        <v>191291</v>
-      </c>
-      <c r="AE12" s="2">
+        <v>297392</v>
+      </c>
+      <c r="AZ12" s="2">
+        <f>SUM(AZ8:AZ10)+AZ4</f>
+        <v>316199</v>
+      </c>
+      <c r="BA12" s="2">
+        <f t="shared" ref="BA12:BR12" si="18">SUM(BA8:BA10)+BA4</f>
+        <v>335559.37520000001</v>
+      </c>
+      <c r="BB12" s="2">
         <f t="shared" si="18"/>
-        <v>199254</v>
-      </c>
-      <c r="AF12" s="2">
+        <v>356146.41173535999</v>
+      </c>
+      <c r="BC12" s="2">
         <f t="shared" si="18"/>
-        <v>225847</v>
-      </c>
-      <c r="AG12" s="2">
+        <v>378039.65610360203</v>
+      </c>
+      <c r="BD12" s="2">
         <f t="shared" si="18"/>
-        <v>213883</v>
-      </c>
-      <c r="AH12" s="2">
+        <v>398789.16394719342</v>
+      </c>
+      <c r="BE12" s="2">
         <f t="shared" si="18"/>
-        <v>220747</v>
-      </c>
-      <c r="AI12" s="2">
+        <v>420707.14437980758</v>
+      </c>
+      <c r="BF12" s="2">
         <f t="shared" si="18"/>
-        <v>297392</v>
-      </c>
-      <c r="AJ12" s="2">
+        <v>443860.88938318932</v>
+      </c>
+      <c r="BG12" s="2">
         <f t="shared" si="18"/>
-        <v>308916.08</v>
-      </c>
-      <c r="AK12" s="2">
-        <f t="shared" ref="AK12:BB12" si="19">SUM(AK8:AK10)+AK4</f>
-        <v>327798.15284400003</v>
-      </c>
-      <c r="AL12" s="2">
-        <f t="shared" si="19"/>
-        <v>347874.99655957927</v>
-      </c>
-      <c r="AM12" s="2">
-        <f t="shared" si="19"/>
-        <v>369224.01102521515</v>
-      </c>
-      <c r="AN12" s="2">
-        <f t="shared" si="19"/>
-        <v>389440.51381825632</v>
-      </c>
-      <c r="AO12" s="2">
-        <f t="shared" si="19"/>
-        <v>410792.58297553769</v>
-      </c>
-      <c r="AP12" s="2">
-        <f t="shared" si="19"/>
-        <v>433345.44214353053</v>
-      </c>
-      <c r="AQ12" s="2">
-        <f t="shared" si="19"/>
-        <v>457168.13539426931</v>
-      </c>
-      <c r="AR12" s="2">
-        <f t="shared" si="19"/>
-        <v>478633.00812151656</v>
-      </c>
-      <c r="AS12" s="2">
-        <f t="shared" si="19"/>
-        <v>501120.4300817122</v>
-      </c>
-      <c r="AT12" s="2">
-        <f t="shared" si="19"/>
-        <v>524679.8978833562</v>
-      </c>
-      <c r="AU12" s="2">
-        <f t="shared" si="19"/>
-        <v>549363.34592065052</v>
-      </c>
-      <c r="AV12" s="2">
-        <f t="shared" si="19"/>
-        <v>571507.02328575822</v>
-      </c>
-      <c r="AW12" s="2">
-        <f t="shared" si="19"/>
-        <v>593775.05570239376</v>
-      </c>
-      <c r="AX12" s="2">
-        <f t="shared" si="19"/>
-        <v>616923.28990042023</v>
-      </c>
-      <c r="AY12" s="2">
-        <f t="shared" si="19"/>
-        <v>640987.10142983729</v>
-      </c>
-      <c r="AZ12" s="2">
-        <f t="shared" si="19"/>
-        <v>666003.31442285026</v>
-      </c>
-      <c r="BA12" s="2">
-        <f t="shared" si="19"/>
-        <v>692010.26212993264</v>
-      </c>
-      <c r="BB12" s="2">
-        <f t="shared" si="19"/>
-        <v>719047.85004019574</v>
+        <v>468321.64340600144</v>
+      </c>
+      <c r="BH12" s="2">
+        <f t="shared" si="18"/>
+        <v>490360.03104041866</v>
+      </c>
+      <c r="BI12" s="2">
+        <f t="shared" si="18"/>
+        <v>513451.03982447553</v>
+      </c>
+      <c r="BJ12" s="2">
+        <f t="shared" si="18"/>
+        <v>537645.77336408908</v>
+      </c>
+      <c r="BK12" s="2">
+        <f t="shared" si="18"/>
+        <v>562997.86047372594</v>
+      </c>
+      <c r="BL12" s="2">
+        <f t="shared" si="18"/>
+        <v>585774.24534022796</v>
+      </c>
+      <c r="BM12" s="2">
+        <f t="shared" si="18"/>
+        <v>608646.21231456613</v>
+      </c>
+      <c r="BN12" s="2">
+        <f t="shared" si="18"/>
+        <v>632424.56578630989</v>
+      </c>
+      <c r="BO12" s="2">
+        <f t="shared" si="18"/>
+        <v>657145.8433193987</v>
+      </c>
+      <c r="BP12" s="2">
+        <f t="shared" si="18"/>
+        <v>682848.08375335229</v>
+      </c>
+      <c r="BQ12" s="2">
+        <f t="shared" si="18"/>
+        <v>709570.8901752003</v>
+      </c>
+      <c r="BR12" s="2">
+        <f t="shared" si="18"/>
+        <v>737355.49559019366</v>
       </c>
     </row>
-    <row r="13" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:70" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -2390,140 +2832,200 @@
         <v>19604</v>
       </c>
       <c r="V13" s="2">
-        <f>+R13*1.1</f>
-        <v>20104.7</v>
+        <v>19188</v>
+      </c>
+      <c r="W13" s="2">
+        <v>20766</v>
       </c>
       <c r="AD13" s="2">
+        <v>1098</v>
+      </c>
+      <c r="AE13" s="2">
+        <f>343+230</f>
+        <v>573</v>
+      </c>
+      <c r="AF13" s="2">
+        <f>307+227</f>
+        <v>534</v>
+      </c>
+      <c r="AG13" s="2">
+        <f>644+36</f>
+        <v>680</v>
+      </c>
+      <c r="AH13" s="2">
+        <f>821+278</f>
+        <v>1099</v>
+      </c>
+      <c r="AI13" s="2">
+        <f>899+1091</f>
+        <v>1990</v>
+      </c>
+      <c r="AJ13" s="2">
+        <f>1885+1279</f>
+        <v>3164</v>
+      </c>
+      <c r="AK13" s="2">
+        <f>2496+1508</f>
+        <v>4004</v>
+      </c>
+      <c r="AL13" s="2">
+        <f>2208+3340</f>
+        <v>5548</v>
+      </c>
+      <c r="AM13" s="2">
+        <f>2411+4036</f>
+        <v>6447</v>
+      </c>
+      <c r="AN13" s="2">
+        <f>2573+4948</f>
+        <v>7521</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>9373</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>12890</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>16051</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>18063</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>19909</v>
+      </c>
+      <c r="AT13" s="2">
         <v>24348</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AU13" s="2">
         <v>29980</v>
       </c>
-      <c r="AF13" s="7">
+      <c r="AV13" s="7">
         <v>39748</v>
       </c>
-      <c r="AG13" s="7">
+      <c r="AW13" s="7">
         <v>46291</v>
       </c>
-      <c r="AH13" s="7">
+      <c r="AX13" s="7">
         <f>SUM(K13:N13)</f>
         <v>53768</v>
       </c>
-      <c r="AI13" s="7">
-        <f t="shared" ref="AI13" si="20">SUM(O13:R13)</f>
+      <c r="AY13" s="7">
+        <f t="shared" ref="AY13" si="19">SUM(O13:R13)</f>
         <v>68425</v>
       </c>
-      <c r="AJ13" s="7">
-        <f t="shared" ref="AJ13" si="21">SUM(S13:V13)</f>
-        <v>79045.7</v>
-      </c>
-      <c r="AK13" s="7">
-        <f>+AJ13*1.15</f>
-        <v>90902.554999999993</v>
-      </c>
-      <c r="AL13" s="7">
-        <f>+AK13*1.15</f>
-        <v>104537.93824999998</v>
-      </c>
-      <c r="AM13" s="7">
-        <f>+AL13*1.15</f>
-        <v>120218.62898749996</v>
-      </c>
-      <c r="AN13" s="7">
-        <f>+AM13*1.1</f>
-        <v>132240.49188624998</v>
-      </c>
-      <c r="AO13" s="7">
-        <f>+AN13*1.1</f>
-        <v>145464.54107487499</v>
-      </c>
-      <c r="AP13" s="7">
-        <f>+AO13*1.1</f>
-        <v>160010.9951823625</v>
-      </c>
-      <c r="AQ13" s="7">
-        <f>+AP13*1.05</f>
-        <v>168011.54494148062</v>
-      </c>
-      <c r="AR13" s="7">
-        <f t="shared" ref="AR13:BB13" si="22">+AQ13*1.05</f>
-        <v>176412.12218855467</v>
-      </c>
-      <c r="AS13" s="7">
-        <f t="shared" si="22"/>
-        <v>185232.72829798242</v>
-      </c>
-      <c r="AT13" s="7">
-        <f t="shared" si="22"/>
-        <v>194494.36471288156</v>
-      </c>
-      <c r="AU13" s="7">
-        <f t="shared" si="22"/>
-        <v>204219.08294852564</v>
-      </c>
-      <c r="AV13" s="7">
-        <f t="shared" si="22"/>
-        <v>214430.03709595194</v>
-      </c>
-      <c r="AW13" s="7">
-        <f t="shared" si="22"/>
-        <v>225151.53895074953</v>
-      </c>
-      <c r="AX13" s="7">
-        <f t="shared" si="22"/>
-        <v>236409.11589828701</v>
-      </c>
-      <c r="AY13" s="7">
-        <f t="shared" si="22"/>
-        <v>248229.57169320137</v>
-      </c>
       <c r="AZ13" s="7">
-        <f t="shared" si="22"/>
-        <v>260641.05027786145</v>
+        <f>SUM(S13:V13)</f>
+        <v>78129</v>
       </c>
       <c r="BA13" s="7">
-        <f t="shared" si="22"/>
-        <v>273673.10279175453</v>
+        <f>+AZ13*1.15</f>
+        <v>89848.349999999991</v>
       </c>
       <c r="BB13" s="7">
-        <f t="shared" si="22"/>
-        <v>287356.75793134229</v>
+        <f>+BA13*1.15</f>
+        <v>103325.60249999998</v>
+      </c>
+      <c r="BC13" s="7">
+        <f>+BB13*1.15</f>
+        <v>118824.44287499996</v>
+      </c>
+      <c r="BD13" s="7">
+        <f>+BC13*1.1</f>
+        <v>130706.88716249997</v>
+      </c>
+      <c r="BE13" s="7">
+        <f>+BD13*1.1</f>
+        <v>143777.57587874998</v>
+      </c>
+      <c r="BF13" s="7">
+        <f>+BE13*1.1</f>
+        <v>158155.33346662499</v>
+      </c>
+      <c r="BG13" s="7">
+        <f>+BF13*1.05</f>
+        <v>166063.10013995625</v>
+      </c>
+      <c r="BH13" s="7">
+        <f t="shared" ref="BH13:BR13" si="20">+BG13*1.05</f>
+        <v>174366.25514695406</v>
+      </c>
+      <c r="BI13" s="7">
+        <f t="shared" si="20"/>
+        <v>183084.56790430177</v>
+      </c>
+      <c r="BJ13" s="7">
+        <f t="shared" si="20"/>
+        <v>192238.79629951686</v>
+      </c>
+      <c r="BK13" s="7">
+        <f t="shared" si="20"/>
+        <v>201850.73611449273</v>
+      </c>
+      <c r="BL13" s="7">
+        <f t="shared" si="20"/>
+        <v>211943.27292021737</v>
+      </c>
+      <c r="BM13" s="7">
+        <f t="shared" si="20"/>
+        <v>222540.43656622825</v>
+      </c>
+      <c r="BN13" s="7">
+        <f t="shared" si="20"/>
+        <v>233667.45839453966</v>
+      </c>
+      <c r="BO13" s="7">
+        <f t="shared" si="20"/>
+        <v>245350.83131426666</v>
+      </c>
+      <c r="BP13" s="7">
+        <f t="shared" si="20"/>
+        <v>257618.37287998002</v>
+      </c>
+      <c r="BQ13" s="7">
+        <f t="shared" si="20"/>
+        <v>270499.29152397905</v>
+      </c>
+      <c r="BR13" s="7">
+        <f t="shared" si="20"/>
+        <v>284024.256100178</v>
       </c>
     </row>
-    <row r="14" spans="1:54" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:70" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" ref="C14:F14" si="23">+C12+C13</f>
+        <f t="shared" ref="C14:F14" si="21">+C12+C13</f>
         <v>88293</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>61137</v>
       </c>
       <c r="E14" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>53265</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>62900</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" ref="K14:N14" si="24">+K12+K13</f>
+        <f t="shared" ref="K14:N14" si="22">+K12+K13</f>
         <v>91819</v>
       </c>
       <c r="L14" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>58313</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>59685</v>
       </c>
       <c r="N14" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>64698</v>
       </c>
       <c r="O14" s="8">
@@ -2539,11 +3041,11 @@
         <v>81434</v>
       </c>
       <c r="R14" s="8">
-        <f t="shared" ref="R14" si="25">+R12+R13</f>
+        <f t="shared" ref="R14" si="23">+R12+R13</f>
         <v>83360</v>
       </c>
       <c r="S14" s="8">
-        <f t="shared" ref="S14" si="26">+S12+S13</f>
+        <f t="shared" ref="S14" si="24">+S12+S13</f>
         <v>123945</v>
       </c>
       <c r="T14" s="8">
@@ -2551,121 +3053,201 @@
         <v>97278</v>
       </c>
       <c r="U14" s="8">
-        <f t="shared" ref="U14:V14" si="27">+U12+U13</f>
+        <f t="shared" ref="U14" si="25">+U12+U13</f>
         <v>82959</v>
       </c>
       <c r="V14" s="8">
-        <f t="shared" si="27"/>
-        <v>83779.78</v>
+        <f>+V12+V13</f>
+        <v>90146</v>
+      </c>
+      <c r="W14" s="8">
+        <f>+W13+W12</f>
+        <v>117154</v>
+      </c>
+      <c r="X14" s="8">
+        <f t="shared" ref="X14:Z14" si="26">+X13+X12</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="8">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="8">
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AB14" s="8">
-        <v>182795</v>
+        <v>5941</v>
       </c>
       <c r="AC14" s="8">
-        <v>233715</v>
+        <v>6134</v>
       </c>
       <c r="AD14" s="8">
-        <f t="shared" ref="AD14:AG14" si="28">+AD12+AD13</f>
-        <v>215639</v>
+        <f>+AD12+AD13</f>
+        <v>7983</v>
       </c>
       <c r="AE14" s="8">
-        <f t="shared" si="28"/>
-        <v>229234</v>
+        <f>+AE12+AE13</f>
+        <v>5363</v>
       </c>
       <c r="AF14" s="8">
-        <f t="shared" si="28"/>
-        <v>265595</v>
+        <f>+AF12+AF13</f>
+        <v>5742</v>
       </c>
       <c r="AG14" s="8">
-        <f t="shared" si="28"/>
-        <v>260174</v>
+        <f>+AG12+AG13</f>
+        <v>6207</v>
       </c>
       <c r="AH14" s="8">
         <f>+AH12+AH13</f>
-        <v>274515</v>
+        <v>8279</v>
       </c>
       <c r="AI14" s="8">
         <f>+AI12+AI13</f>
-        <v>365817</v>
+        <v>13931</v>
       </c>
       <c r="AJ14" s="8">
         <f>+AJ12+AJ13</f>
-        <v>387961.78</v>
-      </c>
-      <c r="AK14" s="8">
-        <f t="shared" ref="AK14:BB14" si="29">+AK12+AK13</f>
-        <v>418700.70784400002</v>
+        <v>19315</v>
+      </c>
+      <c r="AK14" s="16">
+        <f>+AK12+AK13</f>
+        <v>24006</v>
       </c>
       <c r="AL14" s="8">
-        <f t="shared" si="29"/>
-        <v>452412.93480957928</v>
+        <f>+AL12+AL13</f>
+        <v>37491</v>
       </c>
       <c r="AM14" s="8">
-        <f t="shared" si="29"/>
-        <v>489442.64001271513</v>
+        <f>+AM12+AM13</f>
+        <v>42905</v>
       </c>
       <c r="AN14" s="8">
-        <f t="shared" si="29"/>
-        <v>521681.0057045063</v>
+        <f>+AN12+AN13</f>
+        <v>65225</v>
       </c>
       <c r="AO14" s="8">
-        <f t="shared" si="29"/>
-        <v>556257.12405041268</v>
+        <f>+AO12+AO13</f>
+        <v>108249</v>
       </c>
       <c r="AP14" s="8">
-        <f t="shared" si="29"/>
-        <v>593356.43732589297</v>
+        <f>+AP12+AP13</f>
+        <v>156508</v>
       </c>
       <c r="AQ14" s="8">
-        <f t="shared" si="29"/>
-        <v>625179.68033574987</v>
+        <f>+AQ12+AQ13</f>
+        <v>170910</v>
       </c>
       <c r="AR14" s="8">
-        <f t="shared" si="29"/>
-        <v>655045.13031007117</v>
+        <f>+AR12+AR13</f>
+        <v>182795</v>
       </c>
       <c r="AS14" s="8">
-        <f t="shared" si="29"/>
-        <v>686353.15837969468</v>
+        <f>+AS12+AS13</f>
+        <v>233715</v>
       </c>
       <c r="AT14" s="8">
-        <f t="shared" si="29"/>
-        <v>719174.26259623771</v>
+        <f>+AT12+AT13</f>
+        <v>215639</v>
       </c>
       <c r="AU14" s="8">
-        <f t="shared" si="29"/>
-        <v>753582.42886917619</v>
+        <f>+AU12+AU13</f>
+        <v>229234</v>
       </c>
       <c r="AV14" s="8">
-        <f t="shared" si="29"/>
-        <v>785937.06038171018</v>
+        <f>+AV12+AV13</f>
+        <v>265595</v>
       </c>
       <c r="AW14" s="8">
-        <f t="shared" si="29"/>
-        <v>818926.59465314331</v>
+        <f t="shared" ref="AW14" si="27">+AW12+AW13</f>
+        <v>260174</v>
       </c>
       <c r="AX14" s="8">
-        <f t="shared" si="29"/>
-        <v>853332.40579870727</v>
+        <f>+AX12+AX13</f>
+        <v>274515</v>
       </c>
       <c r="AY14" s="8">
-        <f t="shared" si="29"/>
-        <v>889216.67312303861</v>
+        <f>+AY12+AY13</f>
+        <v>365817</v>
       </c>
       <c r="AZ14" s="8">
-        <f t="shared" si="29"/>
-        <v>926644.36470071168</v>
+        <f>+AZ12+AZ13</f>
+        <v>394328</v>
       </c>
       <c r="BA14" s="8">
-        <f t="shared" si="29"/>
-        <v>965683.36492168717</v>
+        <f>+BA12+BA13</f>
+        <v>425407.72519999999</v>
       </c>
       <c r="BB14" s="8">
-        <f t="shared" si="29"/>
-        <v>1006404.6079715381</v>
+        <f t="shared" ref="BB14:BR14" si="28">+BB12+BB13</f>
+        <v>459472.01423535997</v>
+      </c>
+      <c r="BC14" s="8">
+        <f t="shared" si="28"/>
+        <v>496864.09897860198</v>
+      </c>
+      <c r="BD14" s="8">
+        <f t="shared" si="28"/>
+        <v>529496.05110969336</v>
+      </c>
+      <c r="BE14" s="8">
+        <f t="shared" si="28"/>
+        <v>564484.72025855759</v>
+      </c>
+      <c r="BF14" s="8">
+        <f t="shared" si="28"/>
+        <v>602016.22284981434</v>
+      </c>
+      <c r="BG14" s="8">
+        <f t="shared" si="28"/>
+        <v>634384.74354595772</v>
+      </c>
+      <c r="BH14" s="8">
+        <f t="shared" si="28"/>
+        <v>664726.28618737275</v>
+      </c>
+      <c r="BI14" s="8">
+        <f t="shared" si="28"/>
+        <v>696535.60772877734</v>
+      </c>
+      <c r="BJ14" s="8">
+        <f t="shared" si="28"/>
+        <v>729884.56966360589</v>
+      </c>
+      <c r="BK14" s="8">
+        <f t="shared" si="28"/>
+        <v>764848.5965882187</v>
+      </c>
+      <c r="BL14" s="8">
+        <f t="shared" si="28"/>
+        <v>797717.51826044533</v>
+      </c>
+      <c r="BM14" s="8">
+        <f t="shared" si="28"/>
+        <v>831186.64888079441</v>
+      </c>
+      <c r="BN14" s="8">
+        <f t="shared" si="28"/>
+        <v>866092.02418084955</v>
+      </c>
+      <c r="BO14" s="8">
+        <f t="shared" si="28"/>
+        <v>902496.67463366536</v>
+      </c>
+      <c r="BP14" s="8">
+        <f t="shared" si="28"/>
+        <v>940466.4566333323</v>
+      </c>
+      <c r="BQ14" s="8">
+        <f t="shared" si="28"/>
+        <v>980070.18169917935</v>
+      </c>
+      <c r="BR14" s="8">
+        <f t="shared" si="28"/>
+        <v>1021379.7516903717</v>
       </c>
     </row>
-    <row r="15" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:70" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
@@ -2703,101 +3285,103 @@
         <v>41485</v>
       </c>
       <c r="V15" s="2">
-        <f>+V12*0.65</f>
-        <v>41388.802000000003</v>
-      </c>
-      <c r="AF15" s="7">
+        <v>46387</v>
+      </c>
+      <c r="W15" s="2">
+        <v>60765</v>
+      </c>
+      <c r="AV15" s="7">
         <v>148164</v>
       </c>
-      <c r="AG15" s="7">
+      <c r="AW15" s="7">
         <v>144996</v>
       </c>
-      <c r="AH15" s="7">
+      <c r="AX15" s="7">
         <f>SUM(K15:N15)</f>
         <v>151286</v>
       </c>
-      <c r="AI15" s="7">
-        <f t="shared" ref="AI15:AI16" si="30">SUM(O15:R15)</f>
+      <c r="AY15" s="7">
+        <f t="shared" ref="AY15:AY16" si="29">SUM(O15:R15)</f>
         <v>192266</v>
       </c>
-      <c r="AJ15" s="7">
-        <f t="shared" ref="AJ15:AJ16" si="31">SUM(S15:V15)</f>
-        <v>196472.802</v>
-      </c>
-      <c r="AK15" s="2">
-        <f>+AK12*0.64</f>
-        <v>209790.81782016001</v>
-      </c>
-      <c r="AL15" s="2">
-        <f t="shared" ref="AL15:BB15" si="32">+AL12*0.64</f>
-        <v>222639.99779813073</v>
-      </c>
-      <c r="AM15" s="2">
-        <f t="shared" si="32"/>
-        <v>236303.36705613771</v>
-      </c>
-      <c r="AN15" s="2">
-        <f t="shared" si="32"/>
-        <v>249241.92884368406</v>
-      </c>
-      <c r="AO15" s="2">
-        <f t="shared" si="32"/>
-        <v>262907.25310434413</v>
-      </c>
-      <c r="AP15" s="2">
-        <f t="shared" si="32"/>
-        <v>277341.08297185955</v>
-      </c>
-      <c r="AQ15" s="2">
-        <f t="shared" si="32"/>
-        <v>292587.60665233235</v>
-      </c>
-      <c r="AR15" s="2">
-        <f t="shared" si="32"/>
-        <v>306325.1251977706</v>
-      </c>
-      <c r="AS15" s="2">
-        <f t="shared" si="32"/>
-        <v>320717.07525229582</v>
-      </c>
-      <c r="AT15" s="2">
-        <f t="shared" si="32"/>
-        <v>335795.13464534795</v>
-      </c>
-      <c r="AU15" s="2">
-        <f t="shared" si="32"/>
-        <v>351592.54138921632</v>
-      </c>
-      <c r="AV15" s="2">
-        <f t="shared" si="32"/>
-        <v>365764.49490288529</v>
-      </c>
-      <c r="AW15" s="2">
-        <f t="shared" si="32"/>
-        <v>380016.03564953199</v>
-      </c>
-      <c r="AX15" s="2">
-        <f t="shared" si="32"/>
-        <v>394830.90553626895</v>
-      </c>
-      <c r="AY15" s="2">
-        <f t="shared" si="32"/>
-        <v>410231.74491509586</v>
-      </c>
-      <c r="AZ15" s="2">
-        <f t="shared" si="32"/>
-        <v>426242.12123062415</v>
+      <c r="AZ15" s="7">
+        <f t="shared" ref="AZ15:AZ16" si="30">SUM(S15:V15)</f>
+        <v>201471</v>
       </c>
       <c r="BA15" s="2">
-        <f t="shared" si="32"/>
-        <v>442886.5677631569</v>
+        <f>+BA12*0.64</f>
+        <v>214758.00012800001</v>
       </c>
       <c r="BB15" s="2">
-        <f t="shared" si="32"/>
-        <v>460190.62402572529</v>
+        <f t="shared" ref="BB15:BR15" si="31">+BB12*0.64</f>
+        <v>227933.70351063041</v>
+      </c>
+      <c r="BC15" s="2">
+        <f t="shared" si="31"/>
+        <v>241945.37990630532</v>
+      </c>
+      <c r="BD15" s="2">
+        <f t="shared" si="31"/>
+        <v>255225.06492620381</v>
+      </c>
+      <c r="BE15" s="2">
+        <f t="shared" si="31"/>
+        <v>269252.57240307686</v>
+      </c>
+      <c r="BF15" s="2">
+        <f t="shared" si="31"/>
+        <v>284070.96920524118</v>
+      </c>
+      <c r="BG15" s="2">
+        <f t="shared" si="31"/>
+        <v>299725.85177984094</v>
+      </c>
+      <c r="BH15" s="2">
+        <f t="shared" si="31"/>
+        <v>313830.41986586794</v>
+      </c>
+      <c r="BI15" s="2">
+        <f t="shared" si="31"/>
+        <v>328608.66548766434</v>
+      </c>
+      <c r="BJ15" s="2">
+        <f t="shared" si="31"/>
+        <v>344093.29495301703</v>
+      </c>
+      <c r="BK15" s="2">
+        <f t="shared" si="31"/>
+        <v>360318.63070318464</v>
+      </c>
+      <c r="BL15" s="2">
+        <f t="shared" si="31"/>
+        <v>374895.51701774588</v>
+      </c>
+      <c r="BM15" s="2">
+        <f t="shared" si="31"/>
+        <v>389533.57588132232</v>
+      </c>
+      <c r="BN15" s="2">
+        <f t="shared" si="31"/>
+        <v>404751.72210323834</v>
+      </c>
+      <c r="BO15" s="2">
+        <f t="shared" si="31"/>
+        <v>420573.33972441516</v>
+      </c>
+      <c r="BP15" s="2">
+        <f t="shared" si="31"/>
+        <v>437022.77360214549</v>
+      </c>
+      <c r="BQ15" s="2">
+        <f t="shared" si="31"/>
+        <v>454125.36971212819</v>
+      </c>
+      <c r="BR15" s="2">
+        <f t="shared" si="31"/>
+        <v>471907.51717772393</v>
       </c>
     </row>
-    <row r="16" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:70" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -2835,101 +3419,103 @@
         <v>5589</v>
       </c>
       <c r="V16" s="2">
-        <f>+V13*0.3</f>
-        <v>6031.41</v>
-      </c>
-      <c r="AF16" s="7">
+        <v>5664</v>
+      </c>
+      <c r="W16" s="2">
+        <v>6057</v>
+      </c>
+      <c r="AV16" s="7">
         <v>15592</v>
       </c>
-      <c r="AG16" s="7">
+      <c r="AW16" s="7">
         <v>16786</v>
       </c>
-      <c r="AH16" s="7">
+      <c r="AX16" s="7">
         <f>SUM(K16:N16)</f>
         <v>18273</v>
       </c>
-      <c r="AI16" s="7">
+      <c r="AY16" s="7">
+        <f t="shared" si="29"/>
+        <v>20715</v>
+      </c>
+      <c r="AZ16" s="7">
         <f t="shared" si="30"/>
-        <v>20715</v>
-      </c>
-      <c r="AJ16" s="7">
-        <f t="shared" si="31"/>
-        <v>22442.41</v>
-      </c>
-      <c r="AK16" s="2">
-        <f>+AK13*0.27</f>
-        <v>24543.689849999999</v>
-      </c>
-      <c r="AL16" s="2">
-        <f t="shared" ref="AL16:BB16" si="33">+AL13*0.27</f>
-        <v>28225.243327499997</v>
-      </c>
-      <c r="AM16" s="2">
-        <f t="shared" si="33"/>
-        <v>32459.029826624992</v>
-      </c>
-      <c r="AN16" s="2">
-        <f t="shared" si="33"/>
-        <v>35704.932809287493</v>
-      </c>
-      <c r="AO16" s="2">
-        <f t="shared" si="33"/>
-        <v>39275.42609021625</v>
-      </c>
-      <c r="AP16" s="2">
-        <f t="shared" si="33"/>
-        <v>43202.968699237877</v>
-      </c>
-      <c r="AQ16" s="2">
-        <f t="shared" si="33"/>
-        <v>45363.117134199769</v>
-      </c>
-      <c r="AR16" s="2">
-        <f t="shared" si="33"/>
-        <v>47631.272990909762</v>
-      </c>
-      <c r="AS16" s="2">
-        <f t="shared" si="33"/>
-        <v>50012.836640455258</v>
-      </c>
-      <c r="AT16" s="2">
-        <f t="shared" si="33"/>
-        <v>52513.478472478026</v>
-      </c>
-      <c r="AU16" s="2">
-        <f t="shared" si="33"/>
-        <v>55139.152396101927</v>
-      </c>
-      <c r="AV16" s="2">
-        <f t="shared" si="33"/>
-        <v>57896.110015907027</v>
-      </c>
-      <c r="AW16" s="2">
-        <f t="shared" si="33"/>
-        <v>60790.915516702378</v>
-      </c>
-      <c r="AX16" s="2">
-        <f t="shared" si="33"/>
-        <v>63830.461292537497</v>
-      </c>
-      <c r="AY16" s="2">
-        <f t="shared" si="33"/>
-        <v>67021.984357164372</v>
-      </c>
-      <c r="AZ16" s="2">
-        <f t="shared" si="33"/>
-        <v>70373.083575022596</v>
+        <v>22075</v>
       </c>
       <c r="BA16" s="2">
-        <f t="shared" si="33"/>
-        <v>73891.737753773734</v>
+        <f>+BA13*0.27</f>
+        <v>24259.054499999998</v>
       </c>
       <c r="BB16" s="2">
-        <f t="shared" si="33"/>
-        <v>77586.32464146243</v>
+        <f t="shared" ref="BB16:BR16" si="32">+BB13*0.27</f>
+        <v>27897.912674999996</v>
+      </c>
+      <c r="BC16" s="2">
+        <f t="shared" si="32"/>
+        <v>32082.599576249992</v>
+      </c>
+      <c r="BD16" s="2">
+        <f t="shared" si="32"/>
+        <v>35290.859533874995</v>
+      </c>
+      <c r="BE16" s="2">
+        <f t="shared" si="32"/>
+        <v>38819.945487262499</v>
+      </c>
+      <c r="BF16" s="2">
+        <f t="shared" si="32"/>
+        <v>42701.940035988751</v>
+      </c>
+      <c r="BG16" s="2">
+        <f t="shared" si="32"/>
+        <v>44837.037037788192</v>
+      </c>
+      <c r="BH16" s="2">
+        <f t="shared" si="32"/>
+        <v>47078.888889677597</v>
+      </c>
+      <c r="BI16" s="2">
+        <f t="shared" si="32"/>
+        <v>49432.833334161485</v>
+      </c>
+      <c r="BJ16" s="2">
+        <f t="shared" si="32"/>
+        <v>51904.475000869556</v>
+      </c>
+      <c r="BK16" s="2">
+        <f t="shared" si="32"/>
+        <v>54499.698750913041</v>
+      </c>
+      <c r="BL16" s="2">
+        <f t="shared" si="32"/>
+        <v>57224.683688458696</v>
+      </c>
+      <c r="BM16" s="2">
+        <f t="shared" si="32"/>
+        <v>60085.917872881633</v>
+      </c>
+      <c r="BN16" s="2">
+        <f t="shared" si="32"/>
+        <v>63090.213766525711</v>
+      </c>
+      <c r="BO16" s="2">
+        <f t="shared" si="32"/>
+        <v>66244.724454851996</v>
+      </c>
+      <c r="BP16" s="2">
+        <f t="shared" si="32"/>
+        <v>69556.960677594616</v>
+      </c>
+      <c r="BQ16" s="2">
+        <f t="shared" si="32"/>
+        <v>73034.808711474354</v>
+      </c>
+      <c r="BR16" s="2">
+        <f t="shared" si="32"/>
+        <v>76686.549147048063</v>
       </c>
     </row>
-    <row r="17" spans="2:166" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:182" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
@@ -2947,19 +3533,19 @@
         <v>38816</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" ref="K17:N17" si="34">+K15+K16</f>
+        <f t="shared" ref="K17:N17" si="33">+K15+K16</f>
         <v>56602</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>35943</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>37005</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>40009</v>
       </c>
       <c r="O17" s="2">
@@ -2975,11 +3561,11 @@
         <v>46179</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" ref="R17" si="35">+R15+R16</f>
+        <f t="shared" ref="R17" si="34">+R15+R16</f>
         <v>48186</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" ref="S17" si="36">+S15+S16</f>
+        <f t="shared" ref="S17" si="35">+S15+S16</f>
         <v>69702</v>
       </c>
       <c r="T17" s="2">
@@ -2987,140 +3573,198 @@
         <v>54719</v>
       </c>
       <c r="U17" s="2">
-        <f t="shared" ref="U17" si="37">+U15+U16</f>
+        <f t="shared" ref="U17" si="36">+U15+U16</f>
         <v>47074</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" ref="V17" si="38">+V15+V16</f>
-        <v>47420.212</v>
+        <f t="shared" ref="V17" si="37">+V15+V16</f>
+        <v>52051</v>
+      </c>
+      <c r="W17" s="2">
+        <f>+W15+W16</f>
+        <v>66822</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>5817</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>4128</v>
       </c>
       <c r="AF17" s="2">
-        <f t="shared" ref="AF17:AG17" si="39">+AF15+AF16</f>
+        <v>4139</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>4499</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>6020</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>9888</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>13717</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>15852</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>24294</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>25683</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>39541</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>64431</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>87846</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>106606</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>112258</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>140089</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>131376</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>141048</v>
+      </c>
+      <c r="AV17" s="2">
+        <f t="shared" ref="AV17:AW17" si="38">+AV15+AV16</f>
         <v>163756</v>
       </c>
-      <c r="AG17" s="2">
+      <c r="AW17" s="2">
+        <f t="shared" si="38"/>
+        <v>161782</v>
+      </c>
+      <c r="AX17" s="2">
+        <f>+AX15+AX16</f>
+        <v>169559</v>
+      </c>
+      <c r="AY17" s="2">
+        <f>+AY15+AY16</f>
+        <v>212981</v>
+      </c>
+      <c r="AZ17" s="2">
+        <f>+AZ15+AZ16</f>
+        <v>223546</v>
+      </c>
+      <c r="BA17" s="2">
+        <f t="shared" ref="BA17:BR17" si="39">+BA15+BA16</f>
+        <v>239017.05462800001</v>
+      </c>
+      <c r="BB17" s="2">
         <f t="shared" si="39"/>
-        <v>161782</v>
-      </c>
-      <c r="AH17" s="2">
-        <f>+AH15+AH16</f>
-        <v>169559</v>
-      </c>
-      <c r="AI17" s="2">
-        <f>+AI15+AI16</f>
-        <v>212981</v>
-      </c>
-      <c r="AJ17" s="2">
-        <f>+AJ15+AJ16</f>
-        <v>218915.212</v>
-      </c>
-      <c r="AK17" s="2">
-        <f t="shared" ref="AK17:BB17" si="40">+AK15+AK16</f>
-        <v>234334.50767016</v>
-      </c>
-      <c r="AL17" s="2">
-        <f t="shared" si="40"/>
-        <v>250865.24112563074</v>
-      </c>
-      <c r="AM17" s="2">
-        <f t="shared" si="40"/>
-        <v>268762.39688276272</v>
-      </c>
-      <c r="AN17" s="2">
-        <f t="shared" si="40"/>
-        <v>284946.86165297154</v>
-      </c>
-      <c r="AO17" s="2">
-        <f t="shared" si="40"/>
-        <v>302182.67919456039</v>
-      </c>
-      <c r="AP17" s="2">
-        <f t="shared" si="40"/>
-        <v>320544.0516710974</v>
-      </c>
-      <c r="AQ17" s="2">
-        <f t="shared" si="40"/>
-        <v>337950.72378653212</v>
-      </c>
-      <c r="AR17" s="2">
-        <f t="shared" si="40"/>
-        <v>353956.39818868035</v>
-      </c>
-      <c r="AS17" s="2">
-        <f t="shared" si="40"/>
-        <v>370729.91189275106</v>
-      </c>
-      <c r="AT17" s="2">
-        <f t="shared" si="40"/>
-        <v>388308.613117826</v>
-      </c>
-      <c r="AU17" s="2">
-        <f t="shared" si="40"/>
-        <v>406731.69378531823</v>
-      </c>
-      <c r="AV17" s="2">
-        <f t="shared" si="40"/>
-        <v>423660.60491879232</v>
-      </c>
-      <c r="AW17" s="2">
-        <f t="shared" si="40"/>
-        <v>440806.95116623439</v>
-      </c>
-      <c r="AX17" s="2">
-        <f t="shared" si="40"/>
-        <v>458661.36682880647</v>
-      </c>
-      <c r="AY17" s="2">
-        <f t="shared" si="40"/>
-        <v>477253.72927226021</v>
-      </c>
-      <c r="AZ17" s="2">
-        <f t="shared" si="40"/>
-        <v>496615.20480564673</v>
-      </c>
-      <c r="BA17" s="2">
-        <f t="shared" si="40"/>
-        <v>516778.30551693065</v>
-      </c>
-      <c r="BB17" s="2">
-        <f t="shared" si="40"/>
-        <v>537776.94866718771</v>
+        <v>255831.61618563041</v>
+      </c>
+      <c r="BC17" s="2">
+        <f t="shared" si="39"/>
+        <v>274027.9794825553</v>
+      </c>
+      <c r="BD17" s="2">
+        <f t="shared" si="39"/>
+        <v>290515.92446007882</v>
+      </c>
+      <c r="BE17" s="2">
+        <f t="shared" si="39"/>
+        <v>308072.51789033937</v>
+      </c>
+      <c r="BF17" s="2">
+        <f t="shared" si="39"/>
+        <v>326772.90924122994</v>
+      </c>
+      <c r="BG17" s="2">
+        <f t="shared" si="39"/>
+        <v>344562.88881762914</v>
+      </c>
+      <c r="BH17" s="2">
+        <f t="shared" si="39"/>
+        <v>360909.30875554553</v>
+      </c>
+      <c r="BI17" s="2">
+        <f t="shared" si="39"/>
+        <v>378041.49882182584</v>
+      </c>
+      <c r="BJ17" s="2">
+        <f t="shared" si="39"/>
+        <v>395997.76995388657</v>
+      </c>
+      <c r="BK17" s="2">
+        <f t="shared" si="39"/>
+        <v>414818.32945409766</v>
+      </c>
+      <c r="BL17" s="2">
+        <f t="shared" si="39"/>
+        <v>432120.20070620457</v>
+      </c>
+      <c r="BM17" s="2">
+        <f t="shared" si="39"/>
+        <v>449619.49375420396</v>
+      </c>
+      <c r="BN17" s="2">
+        <f t="shared" si="39"/>
+        <v>467841.93586976407</v>
+      </c>
+      <c r="BO17" s="2">
+        <f t="shared" si="39"/>
+        <v>486818.06417926715</v>
+      </c>
+      <c r="BP17" s="2">
+        <f t="shared" si="39"/>
+        <v>506579.73427974014</v>
+      </c>
+      <c r="BQ17" s="2">
+        <f t="shared" si="39"/>
+        <v>527160.1784236026</v>
+      </c>
+      <c r="BR17" s="2">
+        <f t="shared" si="39"/>
+        <v>548594.06632477196</v>
       </c>
     </row>
-    <row r="18" spans="2:166" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:182" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18" si="41">+C14-C17</f>
+        <f t="shared" ref="C18" si="40">+C14-C17</f>
         <v>33912</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" ref="D18:F18" si="42">+D14-D17</f>
+        <f t="shared" ref="D18:F18" si="41">+D14-D17</f>
         <v>23422</v>
       </c>
       <c r="E18" s="2">
+        <f t="shared" si="41"/>
+        <v>20421</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="41"/>
+        <v>24084</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" ref="K18:N18" si="42">+K14-K17</f>
+        <v>35217</v>
+      </c>
+      <c r="L18" s="2">
         <f t="shared" si="42"/>
-        <v>20421</v>
-      </c>
-      <c r="F18" s="2">
+        <v>22370</v>
+      </c>
+      <c r="M18" s="2">
         <f t="shared" si="42"/>
-        <v>24084</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" ref="K18:N18" si="43">+K14-K17</f>
-        <v>35217</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" si="43"/>
-        <v>22370</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="43"/>
         <v>22680</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>24689</v>
       </c>
       <c r="O18" s="2">
@@ -3136,11 +3780,11 @@
         <v>35255</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" ref="R18" si="44">+R14-R17</f>
+        <f t="shared" ref="R18" si="43">+R14-R17</f>
         <v>35174</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" ref="S18" si="45">+S14-S17</f>
+        <f t="shared" ref="S18" si="44">+S14-S17</f>
         <v>54243</v>
       </c>
       <c r="T18" s="2">
@@ -3148,107 +3792,183 @@
         <v>42559</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" ref="U18" si="46">+U14-U17</f>
+        <f t="shared" ref="U18" si="45">+U14-U17</f>
         <v>35885</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" ref="V18" si="47">+V14-V17</f>
-        <v>36359.567999999999</v>
+        <f t="shared" ref="V18" si="46">+V14-V17</f>
+        <v>38095</v>
+      </c>
+      <c r="W18" s="2">
+        <f>+W14-W17</f>
+        <v>50332</v>
+      </c>
+      <c r="AD18" s="2">
+        <f t="shared" ref="AD18:AE18" si="47">+AD14-AD17</f>
+        <v>2166</v>
+      </c>
+      <c r="AE18" s="2">
+        <f t="shared" si="47"/>
+        <v>1235</v>
       </c>
       <c r="AF18" s="2">
-        <f t="shared" ref="AF18:AG18" si="48">+AF14-AF17</f>
+        <f>+AF14-AF17</f>
+        <v>1603</v>
+      </c>
+      <c r="AG18" s="2">
+        <f t="shared" ref="AG18:AH18" si="48">+AG14-AG17</f>
+        <v>1708</v>
+      </c>
+      <c r="AH18" s="2">
+        <f t="shared" si="48"/>
+        <v>2259</v>
+      </c>
+      <c r="AI18" s="2">
+        <f t="shared" ref="AI18:AJ18" si="49">+AI14-AI17</f>
+        <v>4043</v>
+      </c>
+      <c r="AJ18" s="2">
+        <f t="shared" si="49"/>
+        <v>5598</v>
+      </c>
+      <c r="AK18" s="2">
+        <f t="shared" ref="AK18:AL18" si="50">+AK14-AK17</f>
+        <v>8154</v>
+      </c>
+      <c r="AL18" s="2">
+        <f t="shared" si="50"/>
+        <v>13197</v>
+      </c>
+      <c r="AM18" s="2">
+        <f t="shared" ref="AM18:AO18" si="51">+AM14-AM17</f>
+        <v>17222</v>
+      </c>
+      <c r="AN18" s="2">
+        <f t="shared" si="51"/>
+        <v>25684</v>
+      </c>
+      <c r="AO18" s="2">
+        <f t="shared" si="51"/>
+        <v>43818</v>
+      </c>
+      <c r="AP18" s="2">
+        <f>+AP14-AP17</f>
+        <v>68662</v>
+      </c>
+      <c r="AQ18" s="2">
+        <f>+AQ14-AQ17</f>
+        <v>64304</v>
+      </c>
+      <c r="AR18" s="2">
+        <f>+AR14-AR17</f>
+        <v>70537</v>
+      </c>
+      <c r="AS18" s="2">
+        <f>+AS14-AS17</f>
+        <v>93626</v>
+      </c>
+      <c r="AT18" s="2">
+        <f>+AT14-AT17</f>
+        <v>84263</v>
+      </c>
+      <c r="AU18" s="2">
+        <f>+AU14-AU17</f>
+        <v>88186</v>
+      </c>
+      <c r="AV18" s="2">
+        <f t="shared" ref="AV18:AW18" si="52">+AV14-AV17</f>
         <v>101839</v>
       </c>
-      <c r="AG18" s="2">
-        <f t="shared" si="48"/>
+      <c r="AW18" s="2">
+        <f t="shared" si="52"/>
         <v>98392</v>
       </c>
-      <c r="AH18" s="2">
-        <f>+AH14-AH17</f>
+      <c r="AX18" s="2">
+        <f>+AX14-AX17</f>
         <v>104956</v>
       </c>
-      <c r="AI18" s="2">
-        <f>+AI14-AI17</f>
+      <c r="AY18" s="2">
+        <f>+AY14-AY17</f>
         <v>152836</v>
       </c>
-      <c r="AJ18" s="2">
-        <f>+AJ14-AJ17</f>
-        <v>169046.56800000003</v>
-      </c>
-      <c r="AK18" s="2">
-        <f t="shared" ref="AK18:BB18" si="49">+AK14-AK17</f>
-        <v>184366.20017384001</v>
-      </c>
-      <c r="AL18" s="2">
-        <f t="shared" si="49"/>
-        <v>201547.69368394854</v>
-      </c>
-      <c r="AM18" s="2">
-        <f t="shared" si="49"/>
-        <v>220680.2431299524</v>
-      </c>
-      <c r="AN18" s="2">
-        <f t="shared" si="49"/>
-        <v>236734.14405153476</v>
-      </c>
-      <c r="AO18" s="2">
-        <f t="shared" si="49"/>
-        <v>254074.44485585229</v>
-      </c>
-      <c r="AP18" s="2">
-        <f t="shared" si="49"/>
-        <v>272812.38565479557</v>
-      </c>
-      <c r="AQ18" s="2">
-        <f t="shared" si="49"/>
-        <v>287228.95654921775</v>
-      </c>
-      <c r="AR18" s="2">
-        <f t="shared" si="49"/>
-        <v>301088.73212139081</v>
-      </c>
-      <c r="AS18" s="2">
-        <f t="shared" si="49"/>
-        <v>315623.24648694362</v>
-      </c>
-      <c r="AT18" s="2">
-        <f t="shared" si="49"/>
-        <v>330865.64947841171</v>
-      </c>
-      <c r="AU18" s="2">
-        <f t="shared" si="49"/>
-        <v>346850.73508385796</v>
-      </c>
-      <c r="AV18" s="2">
-        <f t="shared" si="49"/>
-        <v>362276.45546291786</v>
-      </c>
-      <c r="AW18" s="2">
-        <f t="shared" si="49"/>
-        <v>378119.64348690893</v>
-      </c>
-      <c r="AX18" s="2">
-        <f t="shared" si="49"/>
-        <v>394671.03896990081</v>
-      </c>
-      <c r="AY18" s="2">
-        <f t="shared" si="49"/>
-        <v>411962.94385077839</v>
-      </c>
       <c r="AZ18" s="2">
-        <f t="shared" si="49"/>
-        <v>430029.15989506495</v>
+        <f>+AZ14-AZ17</f>
+        <v>170782</v>
       </c>
       <c r="BA18" s="2">
-        <f t="shared" si="49"/>
-        <v>448905.05940475652</v>
+        <f t="shared" ref="BA18:BR18" si="53">+BA14-BA17</f>
+        <v>186390.67057199997</v>
       </c>
       <c r="BB18" s="2">
-        <f t="shared" si="49"/>
-        <v>468627.65930435038</v>
+        <f t="shared" si="53"/>
+        <v>203640.39804972956</v>
+      </c>
+      <c r="BC18" s="2">
+        <f t="shared" si="53"/>
+        <v>222836.11949604668</v>
+      </c>
+      <c r="BD18" s="2">
+        <f t="shared" si="53"/>
+        <v>238980.12664961454</v>
+      </c>
+      <c r="BE18" s="2">
+        <f t="shared" si="53"/>
+        <v>256412.20236821822</v>
+      </c>
+      <c r="BF18" s="2">
+        <f t="shared" si="53"/>
+        <v>275243.3136085844</v>
+      </c>
+      <c r="BG18" s="2">
+        <f t="shared" si="53"/>
+        <v>289821.85472832859</v>
+      </c>
+      <c r="BH18" s="2">
+        <f t="shared" si="53"/>
+        <v>303816.97743182722</v>
+      </c>
+      <c r="BI18" s="2">
+        <f t="shared" si="53"/>
+        <v>318494.1089069515</v>
+      </c>
+      <c r="BJ18" s="2">
+        <f t="shared" si="53"/>
+        <v>333886.79970971931</v>
+      </c>
+      <c r="BK18" s="2">
+        <f t="shared" si="53"/>
+        <v>350030.26713412104</v>
+      </c>
+      <c r="BL18" s="2">
+        <f t="shared" si="53"/>
+        <v>365597.31755424076</v>
+      </c>
+      <c r="BM18" s="2">
+        <f t="shared" si="53"/>
+        <v>381567.15512659046</v>
+      </c>
+      <c r="BN18" s="2">
+        <f t="shared" si="53"/>
+        <v>398250.08831108548</v>
+      </c>
+      <c r="BO18" s="2">
+        <f t="shared" si="53"/>
+        <v>415678.61045439821</v>
+      </c>
+      <c r="BP18" s="2">
+        <f t="shared" si="53"/>
+        <v>433886.72235359217</v>
+      </c>
+      <c r="BQ18" s="2">
+        <f t="shared" si="53"/>
+        <v>452910.00327557675</v>
+      </c>
+      <c r="BR18" s="2">
+        <f t="shared" si="53"/>
+        <v>472785.6853655997</v>
       </c>
     </row>
-    <row r="19" spans="2:166" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:182" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -3299,101 +4019,157 @@
         <v>6797</v>
       </c>
       <c r="V19" s="2">
-        <f>+R19*1.1</f>
-        <v>6349.2000000000007</v>
-      </c>
-      <c r="AF19" s="7">
+        <v>6761</v>
+      </c>
+      <c r="W19" s="2">
+        <v>7709</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>380</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>430</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>471</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>489</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>534</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>712</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>782</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>1109</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>1333</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>1782</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>2429</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>3381</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>4475</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>6041</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>8067</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>10045</v>
+      </c>
+      <c r="AU19" s="2">
+        <v>11581</v>
+      </c>
+      <c r="AV19" s="7">
         <v>14236</v>
       </c>
-      <c r="AG19" s="7">
+      <c r="AW19" s="7">
         <v>16217</v>
       </c>
-      <c r="AH19" s="7">
+      <c r="AX19" s="7">
         <f>SUM(K19:N19)</f>
         <v>18752</v>
       </c>
-      <c r="AI19" s="7">
-        <f t="shared" ref="AI19:AI20" si="50">SUM(O19:R19)</f>
+      <c r="AY19" s="7">
+        <f t="shared" ref="AY19:AY20" si="54">SUM(O19:R19)</f>
         <v>21914</v>
       </c>
-      <c r="AJ19" s="7">
-        <f t="shared" ref="AJ19:AJ20" si="51">SUM(S19:V19)</f>
-        <v>25839.200000000001</v>
-      </c>
-      <c r="AK19" s="2">
-        <f>+AJ19*1.03</f>
-        <v>26614.376</v>
-      </c>
-      <c r="AL19" s="2">
-        <f t="shared" ref="AL19:BB19" si="52">+AK19*1.03</f>
-        <v>27412.807280000001</v>
-      </c>
-      <c r="AM19" s="2">
-        <f t="shared" si="52"/>
-        <v>28235.191498400003</v>
-      </c>
-      <c r="AN19" s="2">
-        <f t="shared" si="52"/>
-        <v>29082.247243352005</v>
-      </c>
-      <c r="AO19" s="2">
-        <f t="shared" si="52"/>
-        <v>29954.714660652568</v>
-      </c>
-      <c r="AP19" s="2">
-        <f t="shared" si="52"/>
-        <v>30853.356100472145</v>
-      </c>
-      <c r="AQ19" s="2">
-        <f t="shared" si="52"/>
-        <v>31778.956783486312</v>
-      </c>
-      <c r="AR19" s="2">
-        <f t="shared" si="52"/>
-        <v>32732.325486990903</v>
-      </c>
-      <c r="AS19" s="2">
-        <f t="shared" si="52"/>
-        <v>33714.295251600633</v>
-      </c>
-      <c r="AT19" s="2">
-        <f t="shared" si="52"/>
-        <v>34725.72410914865</v>
-      </c>
-      <c r="AU19" s="2">
-        <f t="shared" si="52"/>
-        <v>35767.495832423112</v>
-      </c>
-      <c r="AV19" s="2">
-        <f t="shared" si="52"/>
-        <v>36840.520707395808</v>
-      </c>
-      <c r="AW19" s="2">
-        <f t="shared" si="52"/>
-        <v>37945.736328617684</v>
-      </c>
-      <c r="AX19" s="2">
-        <f t="shared" si="52"/>
-        <v>39084.108418476215</v>
-      </c>
-      <c r="AY19" s="2">
-        <f t="shared" si="52"/>
-        <v>40256.631671030504</v>
-      </c>
-      <c r="AZ19" s="2">
-        <f t="shared" si="52"/>
-        <v>41464.330621161418</v>
+      <c r="AZ19" s="7">
+        <f t="shared" ref="AZ19:AZ20" si="55">SUM(S19:V19)</f>
+        <v>26251</v>
       </c>
       <c r="BA19" s="2">
-        <f t="shared" si="52"/>
-        <v>42708.260539796262</v>
+        <f>+AZ19*1.03</f>
+        <v>27038.530000000002</v>
       </c>
       <c r="BB19" s="2">
-        <f t="shared" si="52"/>
-        <v>43989.508355990154</v>
+        <f t="shared" ref="BB19:BR19" si="56">+BA19*1.03</f>
+        <v>27849.685900000004</v>
+      </c>
+      <c r="BC19" s="2">
+        <f t="shared" si="56"/>
+        <v>28685.176477000005</v>
+      </c>
+      <c r="BD19" s="2">
+        <f t="shared" si="56"/>
+        <v>29545.731771310006</v>
+      </c>
+      <c r="BE19" s="2">
+        <f t="shared" si="56"/>
+        <v>30432.103724449305</v>
+      </c>
+      <c r="BF19" s="2">
+        <f t="shared" si="56"/>
+        <v>31345.066836182785</v>
+      </c>
+      <c r="BG19" s="2">
+        <f t="shared" si="56"/>
+        <v>32285.418841268271</v>
+      </c>
+      <c r="BH19" s="2">
+        <f t="shared" si="56"/>
+        <v>33253.981406506318</v>
+      </c>
+      <c r="BI19" s="2">
+        <f t="shared" si="56"/>
+        <v>34251.600848701506</v>
+      </c>
+      <c r="BJ19" s="2">
+        <f t="shared" si="56"/>
+        <v>35279.148874162551</v>
+      </c>
+      <c r="BK19" s="2">
+        <f t="shared" si="56"/>
+        <v>36337.52334038743</v>
+      </c>
+      <c r="BL19" s="2">
+        <f t="shared" si="56"/>
+        <v>37427.649040599055</v>
+      </c>
+      <c r="BM19" s="2">
+        <f t="shared" si="56"/>
+        <v>38550.478511817026</v>
+      </c>
+      <c r="BN19" s="2">
+        <f t="shared" si="56"/>
+        <v>39706.992867171539</v>
+      </c>
+      <c r="BO19" s="2">
+        <f t="shared" si="56"/>
+        <v>40898.202653186687</v>
+      </c>
+      <c r="BP19" s="2">
+        <f t="shared" si="56"/>
+        <v>42125.148732782291</v>
+      </c>
+      <c r="BQ19" s="2">
+        <f t="shared" si="56"/>
+        <v>43388.903194765764</v>
+      </c>
+      <c r="BR19" s="2">
+        <f t="shared" si="56"/>
+        <v>44690.570290608739</v>
       </c>
     </row>
-    <row r="20" spans="2:166" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:182" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -3444,134 +4220,190 @@
         <v>6012</v>
       </c>
       <c r="V20" s="2">
-        <f>+R20*1.1</f>
-        <v>6177.6</v>
-      </c>
-      <c r="AF20" s="7">
+        <v>6440</v>
+      </c>
+      <c r="W20" s="2">
+        <v>6607</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>1166</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>1138</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>1109</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>1212</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>1421</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>1859</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>2433</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>2963</v>
+      </c>
+      <c r="AL20" s="2">
+        <v>3761</v>
+      </c>
+      <c r="AM20" s="2">
+        <v>4149</v>
+      </c>
+      <c r="AN20" s="2">
+        <v>5517</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>7599</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>10040</v>
+      </c>
+      <c r="AQ20" s="2">
+        <v>10830</v>
+      </c>
+      <c r="AR20" s="2">
+        <v>11993</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>14329</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>14194</v>
+      </c>
+      <c r="AU20" s="2">
+        <v>15261</v>
+      </c>
+      <c r="AV20" s="7">
         <v>16705</v>
       </c>
-      <c r="AG20" s="7">
+      <c r="AW20" s="7">
         <v>18245</v>
       </c>
-      <c r="AH20" s="7">
+      <c r="AX20" s="7">
         <f>SUM(K20:N20)</f>
         <v>19916</v>
       </c>
-      <c r="AI20" s="7">
-        <f t="shared" si="50"/>
+      <c r="AY20" s="7">
+        <f t="shared" si="54"/>
         <v>21973</v>
       </c>
-      <c r="AJ20" s="7">
-        <f t="shared" si="51"/>
-        <v>24831.599999999999</v>
-      </c>
-      <c r="AK20" s="2">
-        <f t="shared" ref="AK20:BB20" si="53">+AJ20*1.03</f>
-        <v>25576.547999999999</v>
-      </c>
-      <c r="AL20" s="2">
-        <f t="shared" si="53"/>
-        <v>26343.844440000001</v>
-      </c>
-      <c r="AM20" s="2">
-        <f t="shared" si="53"/>
-        <v>27134.159773200001</v>
-      </c>
-      <c r="AN20" s="2">
-        <f t="shared" si="53"/>
-        <v>27948.184566396001</v>
-      </c>
-      <c r="AO20" s="2">
-        <f t="shared" si="53"/>
-        <v>28786.630103387881</v>
-      </c>
-      <c r="AP20" s="2">
-        <f t="shared" si="53"/>
-        <v>29650.229006489517</v>
-      </c>
-      <c r="AQ20" s="2">
-        <f t="shared" si="53"/>
-        <v>30539.735876684204</v>
-      </c>
-      <c r="AR20" s="2">
-        <f t="shared" si="53"/>
-        <v>31455.92795298473</v>
-      </c>
-      <c r="AS20" s="2">
-        <f t="shared" si="53"/>
-        <v>32399.605791574271</v>
-      </c>
-      <c r="AT20" s="2">
-        <f t="shared" si="53"/>
-        <v>33371.593965321503</v>
-      </c>
-      <c r="AU20" s="2">
-        <f t="shared" si="53"/>
-        <v>34372.741784281148</v>
-      </c>
-      <c r="AV20" s="2">
-        <f t="shared" si="53"/>
-        <v>35403.924037809586</v>
-      </c>
-      <c r="AW20" s="2">
-        <f t="shared" si="53"/>
-        <v>36466.041758943873</v>
-      </c>
-      <c r="AX20" s="2">
-        <f t="shared" si="53"/>
-        <v>37560.02301171219</v>
-      </c>
-      <c r="AY20" s="2">
-        <f t="shared" si="53"/>
-        <v>38686.823702063557</v>
-      </c>
-      <c r="AZ20" s="2">
-        <f t="shared" si="53"/>
-        <v>39847.428413125468</v>
+      <c r="AZ20" s="7">
+        <f t="shared" si="55"/>
+        <v>25094</v>
       </c>
       <c r="BA20" s="2">
-        <f t="shared" si="53"/>
-        <v>41042.851265519232</v>
+        <f t="shared" ref="BA20:BR20" si="57">+AZ20*1.03</f>
+        <v>25846.82</v>
       </c>
       <c r="BB20" s="2">
-        <f t="shared" si="53"/>
-        <v>42274.136803484813</v>
+        <f t="shared" si="57"/>
+        <v>26622.224600000001</v>
+      </c>
+      <c r="BC20" s="2">
+        <f t="shared" si="57"/>
+        <v>27420.891338000001</v>
+      </c>
+      <c r="BD20" s="2">
+        <f t="shared" si="57"/>
+        <v>28243.518078140001</v>
+      </c>
+      <c r="BE20" s="2">
+        <f t="shared" si="57"/>
+        <v>29090.823620484203</v>
+      </c>
+      <c r="BF20" s="2">
+        <f t="shared" si="57"/>
+        <v>29963.548329098729</v>
+      </c>
+      <c r="BG20" s="2">
+        <f t="shared" si="57"/>
+        <v>30862.454778971693</v>
+      </c>
+      <c r="BH20" s="2">
+        <f t="shared" si="57"/>
+        <v>31788.328422340845</v>
+      </c>
+      <c r="BI20" s="2">
+        <f t="shared" si="57"/>
+        <v>32741.978275011072</v>
+      </c>
+      <c r="BJ20" s="2">
+        <f t="shared" si="57"/>
+        <v>33724.237623261404</v>
+      </c>
+      <c r="BK20" s="2">
+        <f t="shared" si="57"/>
+        <v>34735.964751959247</v>
+      </c>
+      <c r="BL20" s="2">
+        <f t="shared" si="57"/>
+        <v>35778.043694518026</v>
+      </c>
+      <c r="BM20" s="2">
+        <f t="shared" si="57"/>
+        <v>36851.385005353572</v>
+      </c>
+      <c r="BN20" s="2">
+        <f t="shared" si="57"/>
+        <v>37956.926555514183</v>
+      </c>
+      <c r="BO20" s="2">
+        <f t="shared" si="57"/>
+        <v>39095.634352179608</v>
+      </c>
+      <c r="BP20" s="2">
+        <f t="shared" si="57"/>
+        <v>40268.503382744995</v>
+      </c>
+      <c r="BQ20" s="2">
+        <f t="shared" si="57"/>
+        <v>41476.558484227346</v>
+      </c>
+      <c r="BR20" s="2">
+        <f t="shared" si="57"/>
+        <v>42720.855238754164</v>
       </c>
     </row>
-    <row r="21" spans="2:166" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:182" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ref="C21" si="54">+C19+C20</f>
+        <f t="shared" ref="C21" si="58">+C19+C20</f>
         <v>7638</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" ref="D21:F21" si="55">+D19+D20</f>
+        <f t="shared" ref="D21:F21" si="59">+D19+D20</f>
         <v>7528</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>7809</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>7966</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" ref="K21:N21" si="56">+K19+K20</f>
+        <f t="shared" ref="K21:N21" si="60">+K19+K20</f>
         <v>9648</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>9517</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>9589</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>9914</v>
       </c>
       <c r="O21" s="2">
@@ -3587,11 +4419,11 @@
         <v>11129</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" ref="R21" si="57">+R19+R20</f>
+        <f t="shared" ref="R21" si="61">+R19+R20</f>
         <v>11388</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" ref="S21" si="58">+S19+S20</f>
+        <f t="shared" ref="S21" si="62">+S19+S20</f>
         <v>12755</v>
       </c>
       <c r="T21" s="2">
@@ -3599,140 +4431,216 @@
         <v>12580</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" ref="U21" si="59">+U19+U20</f>
+        <f t="shared" ref="U21" si="63">+U19+U20</f>
         <v>12809</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" ref="V21" si="60">+V19+V20</f>
-        <v>12526.800000000001</v>
+        <f t="shared" ref="V21:W21" si="64">+V19+V20</f>
+        <v>13201</v>
+      </c>
+      <c r="W21" s="2">
+        <f t="shared" si="64"/>
+        <v>14316</v>
+      </c>
+      <c r="AD21" s="2">
+        <f t="shared" ref="AD21:AE21" si="65">+AD19+AD20</f>
+        <v>1546</v>
+      </c>
+      <c r="AE21" s="2">
+        <f t="shared" si="65"/>
+        <v>1568</v>
       </c>
       <c r="AF21" s="2">
-        <f t="shared" ref="AF21:AG21" si="61">+AF19+AF20</f>
+        <f t="shared" ref="AF21:AH21" si="66">+AF19+AF20</f>
+        <v>1555</v>
+      </c>
+      <c r="AG21" s="2">
+        <f t="shared" si="66"/>
+        <v>1683</v>
+      </c>
+      <c r="AH21" s="2">
+        <f t="shared" si="66"/>
+        <v>1910</v>
+      </c>
+      <c r="AI21" s="2">
+        <f t="shared" ref="AI21:AJ21" si="67">+AI19+AI20</f>
+        <v>2393</v>
+      </c>
+      <c r="AJ21" s="2">
+        <f t="shared" si="67"/>
+        <v>3145</v>
+      </c>
+      <c r="AK21" s="2">
+        <f t="shared" ref="AK21:AL21" si="68">+AK19+AK20</f>
+        <v>3745</v>
+      </c>
+      <c r="AL21" s="2">
+        <f t="shared" si="68"/>
+        <v>4870</v>
+      </c>
+      <c r="AM21" s="2">
+        <f t="shared" ref="AM21:AO21" si="69">+AM19+AM20</f>
+        <v>5482</v>
+      </c>
+      <c r="AN21" s="2">
+        <f t="shared" si="69"/>
+        <v>7299</v>
+      </c>
+      <c r="AO21" s="2">
+        <f t="shared" si="69"/>
+        <v>10028</v>
+      </c>
+      <c r="AP21" s="2">
+        <f>+AP19+AP20</f>
+        <v>13421</v>
+      </c>
+      <c r="AQ21" s="2">
+        <f>+AQ19+AQ20</f>
+        <v>15305</v>
+      </c>
+      <c r="AR21" s="2">
+        <f>+AR19+AR20</f>
+        <v>18034</v>
+      </c>
+      <c r="AS21" s="2">
+        <f>+AS19+AS20</f>
+        <v>22396</v>
+      </c>
+      <c r="AT21" s="2">
+        <f>+AT19+AT20</f>
+        <v>24239</v>
+      </c>
+      <c r="AU21" s="2">
+        <f>+AU19+AU20</f>
+        <v>26842</v>
+      </c>
+      <c r="AV21" s="2">
+        <f t="shared" ref="AV21:AW21" si="70">+AV19+AV20</f>
         <v>30941</v>
       </c>
-      <c r="AG21" s="2">
-        <f t="shared" si="61"/>
+      <c r="AW21" s="2">
+        <f t="shared" si="70"/>
         <v>34462</v>
       </c>
-      <c r="AH21" s="2">
-        <f>+AH19+AH20</f>
+      <c r="AX21" s="2">
+        <f>+AX19+AX20</f>
         <v>38668</v>
       </c>
-      <c r="AI21" s="2">
-        <f>+AI19+AI20</f>
+      <c r="AY21" s="2">
+        <f>+AY19+AY20</f>
         <v>43887</v>
       </c>
-      <c r="AJ21" s="2">
-        <f>+AJ19+AJ20</f>
-        <v>50670.8</v>
-      </c>
-      <c r="AK21" s="2">
-        <f t="shared" ref="AK21:BB21" si="62">+AK19+AK20</f>
-        <v>52190.923999999999</v>
-      </c>
-      <c r="AL21" s="2">
-        <f t="shared" si="62"/>
-        <v>53756.651720000002</v>
-      </c>
-      <c r="AM21" s="2">
-        <f t="shared" si="62"/>
-        <v>55369.351271600004</v>
-      </c>
-      <c r="AN21" s="2">
-        <f t="shared" si="62"/>
-        <v>57030.431809748006</v>
-      </c>
-      <c r="AO21" s="2">
-        <f t="shared" si="62"/>
-        <v>58741.344764040448</v>
-      </c>
-      <c r="AP21" s="2">
-        <f t="shared" si="62"/>
-        <v>60503.585106961662</v>
-      </c>
-      <c r="AQ21" s="2">
-        <f t="shared" si="62"/>
-        <v>62318.69266017052</v>
-      </c>
-      <c r="AR21" s="2">
-        <f t="shared" si="62"/>
-        <v>64188.253439975633</v>
-      </c>
-      <c r="AS21" s="2">
-        <f t="shared" si="62"/>
-        <v>66113.901043174905</v>
-      </c>
-      <c r="AT21" s="2">
-        <f t="shared" si="62"/>
-        <v>68097.318074470153</v>
-      </c>
-      <c r="AU21" s="2">
-        <f t="shared" si="62"/>
-        <v>70140.237616704253</v>
-      </c>
-      <c r="AV21" s="2">
-        <f t="shared" si="62"/>
-        <v>72244.444745205401</v>
-      </c>
-      <c r="AW21" s="2">
-        <f t="shared" si="62"/>
-        <v>74411.778087561557</v>
-      </c>
-      <c r="AX21" s="2">
-        <f t="shared" si="62"/>
-        <v>76644.131430188398</v>
-      </c>
-      <c r="AY21" s="2">
-        <f t="shared" si="62"/>
-        <v>78943.455373094068</v>
-      </c>
       <c r="AZ21" s="2">
-        <f t="shared" si="62"/>
-        <v>81311.759034286893</v>
+        <f>+AZ19+AZ20</f>
+        <v>51345</v>
       </c>
       <c r="BA21" s="2">
-        <f t="shared" si="62"/>
-        <v>83751.111805315493</v>
+        <f t="shared" ref="BA21:BR21" si="71">+BA19+BA20</f>
+        <v>52885.350000000006</v>
       </c>
       <c r="BB21" s="2">
-        <f t="shared" si="62"/>
-        <v>86263.645159474967</v>
+        <f t="shared" si="71"/>
+        <v>54471.910500000005</v>
+      </c>
+      <c r="BC21" s="2">
+        <f t="shared" si="71"/>
+        <v>56106.067815000002</v>
+      </c>
+      <c r="BD21" s="2">
+        <f t="shared" si="71"/>
+        <v>57789.249849450003</v>
+      </c>
+      <c r="BE21" s="2">
+        <f t="shared" si="71"/>
+        <v>59522.927344933509</v>
+      </c>
+      <c r="BF21" s="2">
+        <f t="shared" si="71"/>
+        <v>61308.615165281517</v>
+      </c>
+      <c r="BG21" s="2">
+        <f t="shared" si="71"/>
+        <v>63147.87362023996</v>
+      </c>
+      <c r="BH21" s="2">
+        <f t="shared" si="71"/>
+        <v>65042.309828847167</v>
+      </c>
+      <c r="BI21" s="2">
+        <f t="shared" si="71"/>
+        <v>66993.579123712581</v>
+      </c>
+      <c r="BJ21" s="2">
+        <f t="shared" si="71"/>
+        <v>69003.386497423955</v>
+      </c>
+      <c r="BK21" s="2">
+        <f t="shared" si="71"/>
+        <v>71073.48809234667</v>
+      </c>
+      <c r="BL21" s="2">
+        <f t="shared" si="71"/>
+        <v>73205.692735117074</v>
+      </c>
+      <c r="BM21" s="2">
+        <f t="shared" si="71"/>
+        <v>75401.863517170597</v>
+      </c>
+      <c r="BN21" s="2">
+        <f t="shared" si="71"/>
+        <v>77663.919422685722</v>
+      </c>
+      <c r="BO21" s="2">
+        <f t="shared" si="71"/>
+        <v>79993.837005366295</v>
+      </c>
+      <c r="BP21" s="2">
+        <f t="shared" si="71"/>
+        <v>82393.652115527279</v>
+      </c>
+      <c r="BQ21" s="2">
+        <f t="shared" si="71"/>
+        <v>84865.461678993102</v>
+      </c>
+      <c r="BR21" s="2">
+        <f t="shared" si="71"/>
+        <v>87411.425529362896</v>
       </c>
     </row>
-    <row r="22" spans="2:166" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:182" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ref="C22" si="63">+C18-C21</f>
+        <f t="shared" ref="C22" si="72">+C18-C21</f>
         <v>26274</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" ref="D22:F22" si="64">+D18-D21</f>
+        <f t="shared" ref="D22:F22" si="73">+D18-D21</f>
         <v>15894</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>12612</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>16118</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" ref="K22:N22" si="65">+K18-K21</f>
+        <f t="shared" ref="K22:N22" si="74">+K18-K21</f>
         <v>25569</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>12853</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>13091</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>14775</v>
       </c>
       <c r="O22" s="2">
@@ -3748,11 +4656,11 @@
         <v>24126</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" ref="R22" si="66">+R18-R21</f>
+        <f t="shared" ref="R22" si="75">+R18-R21</f>
         <v>23786</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" ref="S22" si="67">+S18-S21</f>
+        <f t="shared" ref="S22" si="76">+S18-S21</f>
         <v>41488</v>
       </c>
       <c r="T22" s="2">
@@ -3760,107 +4668,183 @@
         <v>29979</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" ref="U22" si="68">+U18-U21</f>
+        <f t="shared" ref="U22" si="77">+U18-U21</f>
         <v>23076</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" ref="V22" si="69">+V18-V21</f>
-        <v>23832.767999999996</v>
+        <f t="shared" ref="V22:W22" si="78">+V18-V21</f>
+        <v>24894</v>
+      </c>
+      <c r="W22" s="2">
+        <f t="shared" si="78"/>
+        <v>36016</v>
+      </c>
+      <c r="AD22" s="2">
+        <f t="shared" ref="AD22:AE22" si="79">+AD18-AD21</f>
+        <v>620</v>
+      </c>
+      <c r="AE22" s="2">
+        <f t="shared" si="79"/>
+        <v>-333</v>
       </c>
       <c r="AF22" s="2">
-        <f t="shared" ref="AF22:AG22" si="70">+AF18-AF21</f>
+        <f t="shared" ref="AF22:AH22" si="80">+AF18-AF21</f>
+        <v>48</v>
+      </c>
+      <c r="AG22" s="2">
+        <f t="shared" si="80"/>
+        <v>25</v>
+      </c>
+      <c r="AH22" s="2">
+        <f t="shared" si="80"/>
+        <v>349</v>
+      </c>
+      <c r="AI22" s="2">
+        <f t="shared" ref="AI22:AJ22" si="81">+AI18-AI21</f>
+        <v>1650</v>
+      </c>
+      <c r="AJ22" s="2">
+        <f t="shared" si="81"/>
+        <v>2453</v>
+      </c>
+      <c r="AK22" s="2">
+        <f t="shared" ref="AK22:AL22" si="82">+AK18-AK21</f>
+        <v>4409</v>
+      </c>
+      <c r="AL22" s="2">
+        <f t="shared" si="82"/>
+        <v>8327</v>
+      </c>
+      <c r="AM22" s="2">
+        <f t="shared" ref="AM22:AO22" si="83">+AM18-AM21</f>
+        <v>11740</v>
+      </c>
+      <c r="AN22" s="2">
+        <f t="shared" si="83"/>
+        <v>18385</v>
+      </c>
+      <c r="AO22" s="2">
+        <f t="shared" si="83"/>
+        <v>33790</v>
+      </c>
+      <c r="AP22" s="2">
+        <f>+AP18-AP21</f>
+        <v>55241</v>
+      </c>
+      <c r="AQ22" s="2">
+        <f>+AQ18-AQ21</f>
+        <v>48999</v>
+      </c>
+      <c r="AR22" s="2">
+        <f>+AR18-AR21</f>
+        <v>52503</v>
+      </c>
+      <c r="AS22" s="2">
+        <f>+AS18-AS21</f>
+        <v>71230</v>
+      </c>
+      <c r="AT22" s="2">
+        <f>+AT18-AT21</f>
+        <v>60024</v>
+      </c>
+      <c r="AU22" s="2">
+        <f>+AU18-AU21</f>
+        <v>61344</v>
+      </c>
+      <c r="AV22" s="2">
+        <f t="shared" ref="AV22:AW22" si="84">+AV18-AV21</f>
         <v>70898</v>
       </c>
-      <c r="AG22" s="2">
-        <f t="shared" si="70"/>
+      <c r="AW22" s="2">
+        <f t="shared" si="84"/>
         <v>63930</v>
       </c>
-      <c r="AH22" s="2">
-        <f>+AH18-AH21</f>
+      <c r="AX22" s="2">
+        <f>+AX18-AX21</f>
         <v>66288</v>
       </c>
-      <c r="AI22" s="2">
-        <f>+AI18-AI21</f>
+      <c r="AY22" s="2">
+        <f>+AY18-AY21</f>
         <v>108949</v>
       </c>
-      <c r="AJ22" s="2">
-        <f>+AJ18-AJ21</f>
-        <v>118375.76800000003</v>
-      </c>
-      <c r="AK22" s="2">
-        <f t="shared" ref="AK22:BB22" si="71">+AK18-AK21</f>
-        <v>132175.27617384001</v>
-      </c>
-      <c r="AL22" s="2">
-        <f t="shared" si="71"/>
-        <v>147791.04196394855</v>
-      </c>
-      <c r="AM22" s="2">
-        <f t="shared" si="71"/>
-        <v>165310.89185835241</v>
-      </c>
-      <c r="AN22" s="2">
-        <f t="shared" si="71"/>
-        <v>179703.71224178676</v>
-      </c>
-      <c r="AO22" s="2">
-        <f t="shared" si="71"/>
-        <v>195333.10009181185</v>
-      </c>
-      <c r="AP22" s="2">
-        <f t="shared" si="71"/>
-        <v>212308.8005478339</v>
-      </c>
-      <c r="AQ22" s="2">
-        <f t="shared" si="71"/>
-        <v>224910.26388904723</v>
-      </c>
-      <c r="AR22" s="2">
-        <f t="shared" si="71"/>
-        <v>236900.47868141517</v>
-      </c>
-      <c r="AS22" s="2">
-        <f t="shared" si="71"/>
-        <v>249509.34544376872</v>
-      </c>
-      <c r="AT22" s="2">
-        <f t="shared" si="71"/>
-        <v>262768.33140394156</v>
-      </c>
-      <c r="AU22" s="2">
-        <f t="shared" si="71"/>
-        <v>276710.49746715371</v>
-      </c>
-      <c r="AV22" s="2">
-        <f t="shared" si="71"/>
-        <v>290032.01071771246</v>
-      </c>
-      <c r="AW22" s="2">
-        <f t="shared" si="71"/>
-        <v>303707.86539934739</v>
-      </c>
-      <c r="AX22" s="2">
-        <f t="shared" si="71"/>
-        <v>318026.90753971238</v>
-      </c>
-      <c r="AY22" s="2">
-        <f t="shared" si="71"/>
-        <v>333019.48847768432</v>
-      </c>
       <c r="AZ22" s="2">
-        <f t="shared" si="71"/>
-        <v>348717.40086077806</v>
+        <f>+AZ18-AZ21</f>
+        <v>119437</v>
       </c>
       <c r="BA22" s="2">
-        <f t="shared" si="71"/>
-        <v>365153.94759944105</v>
+        <f t="shared" ref="BA22:BR22" si="85">+BA18-BA21</f>
+        <v>133505.32057199997</v>
       </c>
       <c r="BB22" s="2">
-        <f t="shared" si="71"/>
-        <v>382364.0141448754</v>
+        <f t="shared" si="85"/>
+        <v>149168.48754972956</v>
+      </c>
+      <c r="BC22" s="2">
+        <f t="shared" si="85"/>
+        <v>166730.05168104667</v>
+      </c>
+      <c r="BD22" s="2">
+        <f t="shared" si="85"/>
+        <v>181190.87680016452</v>
+      </c>
+      <c r="BE22" s="2">
+        <f t="shared" si="85"/>
+        <v>196889.27502328472</v>
+      </c>
+      <c r="BF22" s="2">
+        <f t="shared" si="85"/>
+        <v>213934.69844330288</v>
+      </c>
+      <c r="BG22" s="2">
+        <f t="shared" si="85"/>
+        <v>226673.98110808863</v>
+      </c>
+      <c r="BH22" s="2">
+        <f t="shared" si="85"/>
+        <v>238774.66760298004</v>
+      </c>
+      <c r="BI22" s="2">
+        <f t="shared" si="85"/>
+        <v>251500.52978323892</v>
+      </c>
+      <c r="BJ22" s="2">
+        <f t="shared" si="85"/>
+        <v>264883.41321229539</v>
+      </c>
+      <c r="BK22" s="2">
+        <f t="shared" si="85"/>
+        <v>278956.77904177434</v>
+      </c>
+      <c r="BL22" s="2">
+        <f t="shared" si="85"/>
+        <v>292391.62481912365</v>
+      </c>
+      <c r="BM22" s="2">
+        <f t="shared" si="85"/>
+        <v>306165.29160941986</v>
+      </c>
+      <c r="BN22" s="2">
+        <f t="shared" si="85"/>
+        <v>320586.16888839973</v>
+      </c>
+      <c r="BO22" s="2">
+        <f t="shared" si="85"/>
+        <v>335684.77344903193</v>
+      </c>
+      <c r="BP22" s="2">
+        <f t="shared" si="85"/>
+        <v>351493.07023806486</v>
+      </c>
+      <c r="BQ22" s="2">
+        <f t="shared" si="85"/>
+        <v>368044.54159658367</v>
+      </c>
+      <c r="BR22" s="2">
+        <f t="shared" si="85"/>
+        <v>385374.25983623683</v>
       </c>
     </row>
-    <row r="23" spans="2:166" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:182" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
@@ -3911,61 +4895,118 @@
         <v>-10</v>
       </c>
       <c r="V23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="7">
+        <v>-237</v>
+      </c>
+      <c r="W23" s="2">
+        <v>-393</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>203</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>57</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>165</v>
+      </c>
+      <c r="AJ23" s="2">
+        <v>365</v>
+      </c>
+      <c r="AK23" s="2">
+        <v>599</v>
+      </c>
+      <c r="AL23" s="2">
+        <v>620</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN23" s="2">
+        <v>155</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>415</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>522</v>
+      </c>
+      <c r="AQ23" s="2">
+        <v>1156</v>
+      </c>
+      <c r="AR23" s="2">
+        <v>980</v>
+      </c>
+      <c r="AS23" s="2">
+        <v>1285</v>
+      </c>
+      <c r="AT23" s="2">
+        <v>1348</v>
+      </c>
+      <c r="AU23" s="2">
+        <v>2745</v>
+      </c>
+      <c r="AV23" s="7">
         <v>2005</v>
       </c>
-      <c r="AG23" s="7">
+      <c r="AW23" s="7">
         <v>1807</v>
       </c>
-      <c r="AH23" s="7">
+      <c r="AX23" s="7">
         <f>SUM(K23:N23)</f>
         <v>803</v>
       </c>
-      <c r="AI23" s="7">
-        <f t="shared" ref="AI23" si="72">SUM(O23:R23)</f>
+      <c r="AY23" s="7">
+        <f t="shared" ref="AY23" si="86">SUM(O23:R23)</f>
         <v>258</v>
       </c>
-      <c r="AJ23" s="7">
-        <f t="shared" ref="AJ23" si="73">SUM(S23:V23)</f>
-        <v>-97</v>
+      <c r="AZ23" s="7">
+        <f t="shared" ref="AZ23" si="87">SUM(S23:V23)</f>
+        <v>-334</v>
       </c>
     </row>
-    <row r="24" spans="2:166" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:182" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ref="C24" si="74">+C22+C23</f>
+        <f t="shared" ref="C24" si="88">+C22+C23</f>
         <v>27030</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ref="D24:F24" si="75">+D22+D23</f>
+        <f t="shared" ref="D24:F24" si="89">+D22+D23</f>
         <v>16168</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="89"/>
         <v>13284</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="89"/>
         <v>16421</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" ref="K24:N24" si="76">+K22+K23</f>
+        <f t="shared" ref="K24:N24" si="90">+K22+K23</f>
         <v>25918</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="90"/>
         <v>13135</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="90"/>
         <v>13137</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="90"/>
         <v>14901</v>
       </c>
       <c r="O24" s="2">
@@ -3981,11 +5022,11 @@
         <v>24369</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" ref="R24" si="77">+R22+R23</f>
+        <f t="shared" ref="R24" si="91">+R22+R23</f>
         <v>23248</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" ref="S24" si="78">+S22+S23</f>
+        <f t="shared" ref="S24" si="92">+S22+S23</f>
         <v>41241</v>
       </c>
       <c r="T24" s="2">
@@ -3993,107 +5034,183 @@
         <v>30139</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" ref="U24:V24" si="79">+U22+U23</f>
+        <f t="shared" ref="U24:W24" si="93">+U22+U23</f>
         <v>23066</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="79"/>
-        <v>23832.767999999996</v>
+        <f t="shared" si="93"/>
+        <v>24657</v>
+      </c>
+      <c r="W24" s="2">
+        <f t="shared" si="93"/>
+        <v>35623</v>
+      </c>
+      <c r="AD24" s="2">
+        <f t="shared" ref="AD24:AE24" si="94">+AD22+AD23</f>
+        <v>823</v>
+      </c>
+      <c r="AE24" s="2">
+        <f t="shared" si="94"/>
+        <v>-116</v>
       </c>
       <c r="AF24" s="2">
-        <f t="shared" ref="AF24:AG24" si="80">+AF22+AF23</f>
+        <f t="shared" ref="AF24:AH24" si="95">+AF22+AF23</f>
+        <v>118</v>
+      </c>
+      <c r="AG24" s="2">
+        <f t="shared" si="95"/>
+        <v>118</v>
+      </c>
+      <c r="AH24" s="2">
+        <f t="shared" si="95"/>
+        <v>406</v>
+      </c>
+      <c r="AI24" s="2">
+        <f t="shared" ref="AI24:AJ24" si="96">+AI22+AI23</f>
+        <v>1815</v>
+      </c>
+      <c r="AJ24" s="2">
+        <f t="shared" si="96"/>
+        <v>2818</v>
+      </c>
+      <c r="AK24" s="2">
+        <f t="shared" ref="AK24:AL24" si="97">+AK22+AK23</f>
+        <v>5008</v>
+      </c>
+      <c r="AL24" s="2">
+        <f t="shared" si="97"/>
+        <v>8947</v>
+      </c>
+      <c r="AM24" s="2">
+        <f t="shared" ref="AM24:AO24" si="98">+AM22+AM23</f>
+        <v>12066</v>
+      </c>
+      <c r="AN24" s="2">
+        <f t="shared" si="98"/>
+        <v>18540</v>
+      </c>
+      <c r="AO24" s="2">
+        <f t="shared" si="98"/>
+        <v>34205</v>
+      </c>
+      <c r="AP24" s="2">
+        <f>+AP22+AP23</f>
+        <v>55763</v>
+      </c>
+      <c r="AQ24" s="2">
+        <f>+AQ22+AQ23</f>
+        <v>50155</v>
+      </c>
+      <c r="AR24" s="2">
+        <f>+AR22+AR23</f>
+        <v>53483</v>
+      </c>
+      <c r="AS24" s="2">
+        <f>+AS22+AS23</f>
+        <v>72515</v>
+      </c>
+      <c r="AT24" s="2">
+        <f>+AT22+AT23</f>
+        <v>61372</v>
+      </c>
+      <c r="AU24" s="2">
+        <f>+AU22+AU23</f>
+        <v>64089</v>
+      </c>
+      <c r="AV24" s="2">
+        <f t="shared" ref="AV24:AW24" si="99">+AV22+AV23</f>
         <v>72903</v>
       </c>
-      <c r="AG24" s="2">
-        <f t="shared" si="80"/>
+      <c r="AW24" s="2">
+        <f t="shared" si="99"/>
         <v>65737</v>
       </c>
-      <c r="AH24" s="2">
-        <f>+AH22+AH23</f>
+      <c r="AX24" s="2">
+        <f>+AX22+AX23</f>
         <v>67091</v>
       </c>
-      <c r="AI24" s="2">
-        <f>+AI22+AI23</f>
+      <c r="AY24" s="2">
+        <f>+AY22+AY23</f>
         <v>109207</v>
       </c>
-      <c r="AJ24" s="2">
-        <f>+AJ22+AJ23</f>
-        <v>118278.76800000003</v>
-      </c>
-      <c r="AK24" s="2">
-        <f t="shared" ref="AK24:BB24" si="81">+AK22+AK23</f>
-        <v>132175.27617384001</v>
-      </c>
-      <c r="AL24" s="2">
-        <f t="shared" si="81"/>
-        <v>147791.04196394855</v>
-      </c>
-      <c r="AM24" s="2">
-        <f t="shared" si="81"/>
-        <v>165310.89185835241</v>
-      </c>
-      <c r="AN24" s="2">
-        <f t="shared" si="81"/>
-        <v>179703.71224178676</v>
-      </c>
-      <c r="AO24" s="2">
-        <f t="shared" si="81"/>
-        <v>195333.10009181185</v>
-      </c>
-      <c r="AP24" s="2">
-        <f t="shared" si="81"/>
-        <v>212308.8005478339</v>
-      </c>
-      <c r="AQ24" s="2">
-        <f t="shared" si="81"/>
-        <v>224910.26388904723</v>
-      </c>
-      <c r="AR24" s="2">
-        <f t="shared" si="81"/>
-        <v>236900.47868141517</v>
-      </c>
-      <c r="AS24" s="2">
-        <f t="shared" si="81"/>
-        <v>249509.34544376872</v>
-      </c>
-      <c r="AT24" s="2">
-        <f t="shared" si="81"/>
-        <v>262768.33140394156</v>
-      </c>
-      <c r="AU24" s="2">
-        <f t="shared" si="81"/>
-        <v>276710.49746715371</v>
-      </c>
-      <c r="AV24" s="2">
-        <f t="shared" si="81"/>
-        <v>290032.01071771246</v>
-      </c>
-      <c r="AW24" s="2">
-        <f t="shared" si="81"/>
-        <v>303707.86539934739</v>
-      </c>
-      <c r="AX24" s="2">
-        <f t="shared" si="81"/>
-        <v>318026.90753971238</v>
-      </c>
-      <c r="AY24" s="2">
-        <f t="shared" si="81"/>
-        <v>333019.48847768432</v>
-      </c>
       <c r="AZ24" s="2">
-        <f t="shared" si="81"/>
-        <v>348717.40086077806</v>
+        <f>+AZ22+AZ23</f>
+        <v>119103</v>
       </c>
       <c r="BA24" s="2">
-        <f t="shared" si="81"/>
-        <v>365153.94759944105</v>
+        <f t="shared" ref="BA24:BR24" si="100">+BA22+BA23</f>
+        <v>133505.32057199997</v>
       </c>
       <c r="BB24" s="2">
-        <f t="shared" si="81"/>
-        <v>382364.0141448754</v>
+        <f t="shared" si="100"/>
+        <v>149168.48754972956</v>
+      </c>
+      <c r="BC24" s="2">
+        <f t="shared" si="100"/>
+        <v>166730.05168104667</v>
+      </c>
+      <c r="BD24" s="2">
+        <f t="shared" si="100"/>
+        <v>181190.87680016452</v>
+      </c>
+      <c r="BE24" s="2">
+        <f t="shared" si="100"/>
+        <v>196889.27502328472</v>
+      </c>
+      <c r="BF24" s="2">
+        <f t="shared" si="100"/>
+        <v>213934.69844330288</v>
+      </c>
+      <c r="BG24" s="2">
+        <f t="shared" si="100"/>
+        <v>226673.98110808863</v>
+      </c>
+      <c r="BH24" s="2">
+        <f t="shared" si="100"/>
+        <v>238774.66760298004</v>
+      </c>
+      <c r="BI24" s="2">
+        <f t="shared" si="100"/>
+        <v>251500.52978323892</v>
+      </c>
+      <c r="BJ24" s="2">
+        <f t="shared" si="100"/>
+        <v>264883.41321229539</v>
+      </c>
+      <c r="BK24" s="2">
+        <f t="shared" si="100"/>
+        <v>278956.77904177434</v>
+      </c>
+      <c r="BL24" s="2">
+        <f t="shared" si="100"/>
+        <v>292391.62481912365</v>
+      </c>
+      <c r="BM24" s="2">
+        <f t="shared" si="100"/>
+        <v>306165.29160941986</v>
+      </c>
+      <c r="BN24" s="2">
+        <f t="shared" si="100"/>
+        <v>320586.16888839973</v>
+      </c>
+      <c r="BO24" s="2">
+        <f t="shared" si="100"/>
+        <v>335684.77344903193</v>
+      </c>
+      <c r="BP24" s="2">
+        <f t="shared" si="100"/>
+        <v>351493.07023806486</v>
+      </c>
+      <c r="BQ24" s="2">
+        <f t="shared" si="100"/>
+        <v>368044.54159658367</v>
+      </c>
+      <c r="BR24" s="2">
+        <f t="shared" si="100"/>
+        <v>385374.25983623683</v>
       </c>
     </row>
-    <row r="25" spans="2:166" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:182" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
@@ -4144,134 +5261,190 @@
         <v>3624</v>
       </c>
       <c r="V25" s="2">
-        <f>+V24*0.15</f>
-        <v>3574.9151999999995</v>
-      </c>
-      <c r="AF25" s="7">
+        <v>3936</v>
+      </c>
+      <c r="W25" s="2">
+        <v>5625</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>306</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>24</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>107</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>480</v>
+      </c>
+      <c r="AJ25" s="2">
+        <v>829</v>
+      </c>
+      <c r="AK25" s="2">
+        <v>1512</v>
+      </c>
+      <c r="AL25" s="2">
+        <v>2828</v>
+      </c>
+      <c r="AM25" s="2">
+        <v>3831</v>
+      </c>
+      <c r="AN25" s="2">
+        <v>4527</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>8283</v>
+      </c>
+      <c r="AP25" s="2">
+        <v>14030</v>
+      </c>
+      <c r="AQ25" s="2">
+        <v>13118</v>
+      </c>
+      <c r="AR25" s="2">
+        <v>13973</v>
+      </c>
+      <c r="AS25" s="2">
+        <v>19121</v>
+      </c>
+      <c r="AT25" s="2">
+        <v>15685</v>
+      </c>
+      <c r="AU25" s="2">
+        <v>15738</v>
+      </c>
+      <c r="AV25" s="7">
         <v>13372</v>
       </c>
-      <c r="AG25" s="7">
+      <c r="AW25" s="7">
         <v>10481</v>
       </c>
-      <c r="AH25" s="7">
+      <c r="AX25" s="7">
         <f>SUM(K25:N25)</f>
         <v>9680</v>
       </c>
-      <c r="AI25" s="7">
-        <f t="shared" ref="AI25" si="82">SUM(O25:R25)</f>
+      <c r="AY25" s="7">
+        <f t="shared" ref="AY25" si="101">SUM(O25:R25)</f>
         <v>14527</v>
       </c>
-      <c r="AJ25" s="7">
-        <f t="shared" ref="AJ25" si="83">SUM(S25:V25)</f>
-        <v>18938.915199999999</v>
-      </c>
-      <c r="AK25" s="2">
-        <f>+AK24*0.2</f>
-        <v>26435.055234768006</v>
-      </c>
-      <c r="AL25" s="2">
-        <f t="shared" ref="AL25:BB25" si="84">+AL24*0.2</f>
-        <v>29558.208392789711</v>
-      </c>
-      <c r="AM25" s="2">
-        <f t="shared" si="84"/>
-        <v>33062.178371670481</v>
-      </c>
-      <c r="AN25" s="2">
-        <f t="shared" si="84"/>
-        <v>35940.742448357356</v>
-      </c>
-      <c r="AO25" s="2">
-        <f t="shared" si="84"/>
-        <v>39066.620018362373</v>
-      </c>
-      <c r="AP25" s="2">
-        <f t="shared" si="84"/>
-        <v>42461.760109566785</v>
-      </c>
-      <c r="AQ25" s="2">
-        <f t="shared" si="84"/>
-        <v>44982.052777809447</v>
-      </c>
-      <c r="AR25" s="2">
-        <f t="shared" si="84"/>
-        <v>47380.095736283038</v>
-      </c>
-      <c r="AS25" s="2">
-        <f t="shared" si="84"/>
-        <v>49901.869088753745</v>
-      </c>
-      <c r="AT25" s="2">
-        <f t="shared" si="84"/>
-        <v>52553.666280788311</v>
-      </c>
-      <c r="AU25" s="2">
-        <f t="shared" si="84"/>
-        <v>55342.099493430745</v>
-      </c>
-      <c r="AV25" s="2">
-        <f t="shared" si="84"/>
-        <v>58006.402143542495</v>
-      </c>
-      <c r="AW25" s="2">
-        <f t="shared" si="84"/>
-        <v>60741.573079869479</v>
-      </c>
-      <c r="AX25" s="2">
-        <f t="shared" si="84"/>
-        <v>63605.381507942482</v>
-      </c>
-      <c r="AY25" s="2">
-        <f t="shared" si="84"/>
-        <v>66603.897695536871</v>
-      </c>
-      <c r="AZ25" s="2">
-        <f t="shared" si="84"/>
-        <v>69743.480172155614</v>
+      <c r="AZ25" s="7">
+        <f t="shared" ref="AZ25" si="102">SUM(S25:V25)</f>
+        <v>19300</v>
       </c>
       <c r="BA25" s="2">
-        <f t="shared" si="84"/>
-        <v>73030.789519888218</v>
+        <f>+BA24*0.2</f>
+        <v>26701.064114399996</v>
       </c>
       <c r="BB25" s="2">
-        <f t="shared" si="84"/>
-        <v>76472.80282897508</v>
+        <f t="shared" ref="BB25:BR25" si="103">+BB24*0.2</f>
+        <v>29833.697509945912</v>
+      </c>
+      <c r="BC25" s="2">
+        <f t="shared" si="103"/>
+        <v>33346.010336209336</v>
+      </c>
+      <c r="BD25" s="2">
+        <f t="shared" si="103"/>
+        <v>36238.175360032903</v>
+      </c>
+      <c r="BE25" s="2">
+        <f t="shared" si="103"/>
+        <v>39377.855004656943</v>
+      </c>
+      <c r="BF25" s="2">
+        <f t="shared" si="103"/>
+        <v>42786.939688660583</v>
+      </c>
+      <c r="BG25" s="2">
+        <f t="shared" si="103"/>
+        <v>45334.796221617726</v>
+      </c>
+      <c r="BH25" s="2">
+        <f t="shared" si="103"/>
+        <v>47754.933520596009</v>
+      </c>
+      <c r="BI25" s="2">
+        <f t="shared" si="103"/>
+        <v>50300.105956647785</v>
+      </c>
+      <c r="BJ25" s="2">
+        <f t="shared" si="103"/>
+        <v>52976.682642459084</v>
+      </c>
+      <c r="BK25" s="2">
+        <f t="shared" si="103"/>
+        <v>55791.355808354871</v>
+      </c>
+      <c r="BL25" s="2">
+        <f t="shared" si="103"/>
+        <v>58478.324963824736</v>
+      </c>
+      <c r="BM25" s="2">
+        <f t="shared" si="103"/>
+        <v>61233.058321883975</v>
+      </c>
+      <c r="BN25" s="2">
+        <f t="shared" si="103"/>
+        <v>64117.233777679947</v>
+      </c>
+      <c r="BO25" s="2">
+        <f t="shared" si="103"/>
+        <v>67136.954689806385</v>
+      </c>
+      <c r="BP25" s="2">
+        <f t="shared" si="103"/>
+        <v>70298.61404761298</v>
+      </c>
+      <c r="BQ25" s="2">
+        <f t="shared" si="103"/>
+        <v>73608.908319316732</v>
+      </c>
+      <c r="BR25" s="2">
+        <f t="shared" si="103"/>
+        <v>77074.851967247363</v>
       </c>
     </row>
-    <row r="26" spans="2:166" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:182" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" ref="C26" si="85">+C24-C25</f>
+        <f t="shared" ref="C26" si="104">+C24-C25</f>
         <v>20065</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" ref="D26:F26" si="86">+D24-D25</f>
+        <f t="shared" ref="D26:F26" si="105">+D24-D25</f>
         <v>13822</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>11519</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>14125</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" ref="K26:N26" si="87">+K24-K25</f>
+        <f t="shared" ref="K26:N26" si="106">+K24-K25</f>
         <v>22236</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="106"/>
         <v>11249</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="106"/>
         <v>11253</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="106"/>
         <v>12673</v>
       </c>
       <c r="O26" s="2">
@@ -4287,11 +5460,11 @@
         <v>21744</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" ref="R26" si="88">+R24-R25</f>
+        <f t="shared" ref="R26" si="107">+R24-R25</f>
         <v>20551</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" ref="S26" si="89">+S24-S25</f>
+        <f t="shared" ref="S26" si="108">+S24-S25</f>
         <v>34630</v>
       </c>
       <c r="T26" s="2">
@@ -4299,572 +5472,648 @@
         <v>25010</v>
       </c>
       <c r="U26" s="2">
-        <f t="shared" ref="U26:V26" si="90">+U24-U25</f>
+        <f t="shared" ref="U26:W26" si="109">+U24-U25</f>
         <v>19442</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="90"/>
-        <v>20257.852799999997</v>
+        <f t="shared" si="109"/>
+        <v>20721</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="109"/>
+        <v>29998</v>
+      </c>
+      <c r="AD26" s="2">
+        <f t="shared" ref="AD26:AE26" si="110">+AD24-AD25</f>
+        <v>517</v>
+      </c>
+      <c r="AE26" s="2">
+        <f t="shared" si="110"/>
+        <v>-116</v>
       </c>
       <c r="AF26" s="2">
-        <f t="shared" ref="AF26:AG26" si="91">+AF24-AF25</f>
+        <f t="shared" ref="AF26:AH26" si="111">+AF24-AF25</f>
+        <v>96</v>
+      </c>
+      <c r="AG26" s="2">
+        <f t="shared" si="111"/>
+        <v>94</v>
+      </c>
+      <c r="AH26" s="2">
+        <f t="shared" si="111"/>
+        <v>299</v>
+      </c>
+      <c r="AI26" s="2">
+        <f t="shared" ref="AI26:AJ26" si="112">+AI24-AI25</f>
+        <v>1335</v>
+      </c>
+      <c r="AJ26" s="2">
+        <f t="shared" si="112"/>
+        <v>1989</v>
+      </c>
+      <c r="AK26" s="2">
+        <f t="shared" ref="AK26:AL26" si="113">+AK24-AK25</f>
+        <v>3496</v>
+      </c>
+      <c r="AL26" s="2">
+        <f t="shared" si="113"/>
+        <v>6119</v>
+      </c>
+      <c r="AM26" s="2">
+        <f t="shared" ref="AM26:AO26" si="114">+AM24-AM25</f>
+        <v>8235</v>
+      </c>
+      <c r="AN26" s="2">
+        <f t="shared" si="114"/>
+        <v>14013</v>
+      </c>
+      <c r="AO26" s="2">
+        <f t="shared" si="114"/>
+        <v>25922</v>
+      </c>
+      <c r="AP26" s="2">
+        <f>+AP24-AP25</f>
+        <v>41733</v>
+      </c>
+      <c r="AQ26" s="2">
+        <f>+AQ24-AQ25</f>
+        <v>37037</v>
+      </c>
+      <c r="AR26" s="2">
+        <f>+AR24-AR25</f>
+        <v>39510</v>
+      </c>
+      <c r="AS26" s="2">
+        <f>+AS24-AS25</f>
+        <v>53394</v>
+      </c>
+      <c r="AT26" s="2">
+        <f>+AT24-AT25</f>
+        <v>45687</v>
+      </c>
+      <c r="AU26" s="2">
+        <f>+AU24-AU25</f>
+        <v>48351</v>
+      </c>
+      <c r="AV26" s="2">
+        <f t="shared" ref="AV26:AW26" si="115">+AV24-AV25</f>
         <v>59531</v>
       </c>
-      <c r="AG26" s="2">
-        <f t="shared" si="91"/>
+      <c r="AW26" s="2">
+        <f t="shared" si="115"/>
         <v>55256</v>
       </c>
-      <c r="AH26" s="2">
-        <f>+AH24-AH25</f>
+      <c r="AX26" s="2">
+        <f>+AX24-AX25</f>
         <v>57411</v>
       </c>
-      <c r="AI26" s="2">
-        <f>+AI24-AI25</f>
+      <c r="AY26" s="2">
+        <f>+AY24-AY25</f>
         <v>94680</v>
       </c>
-      <c r="AJ26" s="2">
-        <f>+AJ24-AJ25</f>
-        <v>99339.852800000022</v>
-      </c>
-      <c r="AK26" s="2">
-        <f>+AK24-AK25</f>
-        <v>105740.22093907201</v>
-      </c>
-      <c r="AL26" s="2">
-        <f t="shared" ref="AL26:BB26" si="92">+AL24-AL25</f>
-        <v>118232.83357115884</v>
-      </c>
-      <c r="AM26" s="2">
-        <f t="shared" si="92"/>
-        <v>132248.71348668193</v>
-      </c>
-      <c r="AN26" s="2">
-        <f t="shared" si="92"/>
-        <v>143762.96979342942</v>
-      </c>
-      <c r="AO26" s="2">
-        <f t="shared" si="92"/>
-        <v>156266.48007344949</v>
-      </c>
-      <c r="AP26" s="2">
-        <f t="shared" si="92"/>
-        <v>169847.04043826711</v>
-      </c>
-      <c r="AQ26" s="2">
-        <f t="shared" si="92"/>
-        <v>179928.21111123779</v>
-      </c>
-      <c r="AR26" s="2">
-        <f t="shared" si="92"/>
-        <v>189520.38294513215</v>
-      </c>
-      <c r="AS26" s="2">
-        <f t="shared" si="92"/>
-        <v>199607.47635501498</v>
-      </c>
-      <c r="AT26" s="2">
-        <f t="shared" si="92"/>
-        <v>210214.66512315325</v>
-      </c>
-      <c r="AU26" s="2">
-        <f t="shared" si="92"/>
-        <v>221368.39797372295</v>
-      </c>
-      <c r="AV26" s="2">
-        <f t="shared" si="92"/>
-        <v>232025.60857416998</v>
-      </c>
-      <c r="AW26" s="2">
-        <f t="shared" si="92"/>
-        <v>242966.29231947791</v>
-      </c>
-      <c r="AX26" s="2">
-        <f t="shared" si="92"/>
-        <v>254421.5260317699</v>
-      </c>
-      <c r="AY26" s="2">
-        <f t="shared" si="92"/>
-        <v>266415.59078214748</v>
-      </c>
       <c r="AZ26" s="2">
-        <f t="shared" si="92"/>
-        <v>278973.92068862246</v>
+        <f>+AZ24-AZ25</f>
+        <v>99803</v>
       </c>
       <c r="BA26" s="2">
-        <f t="shared" si="92"/>
-        <v>292123.15807955281</v>
+        <f>+BA24-BA25</f>
+        <v>106804.25645759997</v>
       </c>
       <c r="BB26" s="2">
-        <f t="shared" si="92"/>
-        <v>305891.21131590032</v>
+        <f t="shared" ref="BB26:BR26" si="116">+BB24-BB25</f>
+        <v>119334.79003978365</v>
       </c>
       <c r="BC26" s="2">
-        <f>+BB26*(1+$BE$31)</f>
-        <v>302832.2992027413</v>
+        <f t="shared" si="116"/>
+        <v>133384.04134483734</v>
       </c>
       <c r="BD26" s="2">
-        <f t="shared" ref="BD26:DO26" si="93">+BC26*(1+$BE$31)</f>
-        <v>299803.97621071391</v>
+        <f t="shared" si="116"/>
+        <v>144952.70144013161</v>
       </c>
       <c r="BE26" s="2">
-        <f t="shared" si="93"/>
-        <v>296805.93644860678</v>
+        <f t="shared" si="116"/>
+        <v>157511.42001862777</v>
       </c>
       <c r="BF26" s="2">
-        <f t="shared" si="93"/>
-        <v>293837.8770841207</v>
+        <f t="shared" si="116"/>
+        <v>171147.7587546423</v>
       </c>
       <c r="BG26" s="2">
-        <f t="shared" si="93"/>
-        <v>290899.49831327947</v>
+        <f t="shared" si="116"/>
+        <v>181339.1848864709</v>
       </c>
       <c r="BH26" s="2">
-        <f t="shared" si="93"/>
-        <v>287990.50333014666</v>
+        <f t="shared" si="116"/>
+        <v>191019.73408238403</v>
       </c>
       <c r="BI26" s="2">
-        <f t="shared" si="93"/>
-        <v>285110.59829684522</v>
+        <f t="shared" si="116"/>
+        <v>201200.42382659114</v>
       </c>
       <c r="BJ26" s="2">
-        <f t="shared" si="93"/>
-        <v>282259.49231387675</v>
+        <f t="shared" si="116"/>
+        <v>211906.73056983631</v>
       </c>
       <c r="BK26" s="2">
-        <f t="shared" si="93"/>
-        <v>279436.89739073795</v>
+        <f t="shared" si="116"/>
+        <v>223165.42323341948</v>
       </c>
       <c r="BL26" s="2">
-        <f t="shared" si="93"/>
-        <v>276642.52841683058</v>
+        <f t="shared" si="116"/>
+        <v>233913.29985529892</v>
       </c>
       <c r="BM26" s="2">
-        <f t="shared" si="93"/>
-        <v>273876.10313266225</v>
+        <f t="shared" si="116"/>
+        <v>244932.2332875359</v>
       </c>
       <c r="BN26" s="2">
-        <f t="shared" si="93"/>
-        <v>271137.34210133564</v>
+        <f t="shared" si="116"/>
+        <v>256468.93511071979</v>
       </c>
       <c r="BO26" s="2">
-        <f t="shared" si="93"/>
-        <v>268425.96868032229</v>
+        <f t="shared" si="116"/>
+        <v>268547.81875922554</v>
       </c>
       <c r="BP26" s="2">
-        <f t="shared" si="93"/>
-        <v>265741.70899351907</v>
+        <f t="shared" si="116"/>
+        <v>281194.45619045186</v>
       </c>
       <c r="BQ26" s="2">
-        <f t="shared" si="93"/>
-        <v>263084.29190358386</v>
+        <f t="shared" si="116"/>
+        <v>294435.63327726693</v>
       </c>
       <c r="BR26" s="2">
-        <f t="shared" si="93"/>
-        <v>260453.44898454801</v>
+        <f t="shared" si="116"/>
+        <v>308299.40786898945</v>
       </c>
       <c r="BS26" s="2">
-        <f t="shared" si="93"/>
-        <v>257848.91449470253</v>
+        <f>+BR26*(1+$BU$31)</f>
+        <v>305216.41379029956</v>
       </c>
       <c r="BT26" s="2">
-        <f t="shared" si="93"/>
-        <v>255270.4253497555</v>
+        <f t="shared" ref="BT26:EE26" si="117">+BS26*(1+$BU$31)</f>
+        <v>302164.24965239654</v>
       </c>
       <c r="BU26" s="2">
-        <f t="shared" si="93"/>
-        <v>252717.72109625794</v>
+        <f t="shared" si="117"/>
+        <v>299142.60715587257</v>
       </c>
       <c r="BV26" s="2">
-        <f t="shared" si="93"/>
-        <v>250190.54388529537</v>
+        <f t="shared" si="117"/>
+        <v>296151.18108431384</v>
       </c>
       <c r="BW26" s="2">
-        <f t="shared" si="93"/>
-        <v>247688.6384464424</v>
+        <f t="shared" si="117"/>
+        <v>293189.6692734707</v>
       </c>
       <c r="BX26" s="2">
-        <f t="shared" si="93"/>
-        <v>245211.75206197798</v>
+        <f t="shared" si="117"/>
+        <v>290257.77258073597</v>
       </c>
       <c r="BY26" s="2">
-        <f t="shared" si="93"/>
-        <v>242759.63454135819</v>
+        <f t="shared" si="117"/>
+        <v>287355.19485492859</v>
       </c>
       <c r="BZ26" s="2">
-        <f t="shared" si="93"/>
-        <v>240332.03819594459</v>
+        <f t="shared" si="117"/>
+        <v>284481.6429063793</v>
       </c>
       <c r="CA26" s="2">
-        <f t="shared" si="93"/>
-        <v>237928.71781398516</v>
+        <f t="shared" si="117"/>
+        <v>281636.82647731551</v>
       </c>
       <c r="CB26" s="2">
-        <f t="shared" si="93"/>
-        <v>235549.43063584532</v>
+        <f t="shared" si="117"/>
+        <v>278820.45821254235</v>
       </c>
       <c r="CC26" s="2">
-        <f t="shared" si="93"/>
-        <v>233193.93632948687</v>
+        <f t="shared" si="117"/>
+        <v>276032.25363041693</v>
       </c>
       <c r="CD26" s="2">
-        <f t="shared" si="93"/>
-        <v>230861.996966192</v>
+        <f t="shared" si="117"/>
+        <v>273271.93109411275</v>
       </c>
       <c r="CE26" s="2">
-        <f t="shared" si="93"/>
-        <v>228553.37699653007</v>
+        <f t="shared" si="117"/>
+        <v>270539.21178317163</v>
       </c>
       <c r="CF26" s="2">
-        <f t="shared" si="93"/>
-        <v>226267.84322656479</v>
+        <f t="shared" si="117"/>
+        <v>267833.81966533989</v>
       </c>
       <c r="CG26" s="2">
-        <f t="shared" si="93"/>
-        <v>224005.16479429914</v>
+        <f t="shared" si="117"/>
+        <v>265155.48146868648</v>
       </c>
       <c r="CH26" s="2">
-        <f t="shared" si="93"/>
-        <v>221765.11314635616</v>
+        <f t="shared" si="117"/>
+        <v>262503.9266539996</v>
       </c>
       <c r="CI26" s="2">
-        <f t="shared" si="93"/>
-        <v>219547.4620148926</v>
+        <f t="shared" si="117"/>
+        <v>259878.8873874596</v>
       </c>
       <c r="CJ26" s="2">
-        <f t="shared" si="93"/>
-        <v>217351.98739474369</v>
+        <f t="shared" si="117"/>
+        <v>257280.09851358499</v>
       </c>
       <c r="CK26" s="2">
-        <f t="shared" si="93"/>
-        <v>215178.46752079626</v>
+        <f t="shared" si="117"/>
+        <v>254707.29752844913</v>
       </c>
       <c r="CL26" s="2">
-        <f t="shared" si="93"/>
-        <v>213026.68284558828</v>
+        <f t="shared" si="117"/>
+        <v>252160.22455316462</v>
       </c>
       <c r="CM26" s="2">
-        <f t="shared" si="93"/>
-        <v>210896.4160171324</v>
+        <f t="shared" si="117"/>
+        <v>249638.62230763296</v>
       </c>
       <c r="CN26" s="2">
-        <f t="shared" si="93"/>
-        <v>208787.45185696107</v>
+        <f t="shared" si="117"/>
+        <v>247142.23608455664</v>
       </c>
       <c r="CO26" s="2">
-        <f t="shared" si="93"/>
-        <v>206699.57733839145</v>
+        <f t="shared" si="117"/>
+        <v>244670.81372371106</v>
       </c>
       <c r="CP26" s="2">
-        <f t="shared" si="93"/>
-        <v>204632.58156500754</v>
+        <f t="shared" si="117"/>
+        <v>242224.10558647395</v>
       </c>
       <c r="CQ26" s="2">
-        <f t="shared" si="93"/>
-        <v>202586.25574935746</v>
+        <f t="shared" si="117"/>
+        <v>239801.86453060919</v>
       </c>
       <c r="CR26" s="2">
-        <f t="shared" si="93"/>
-        <v>200560.39319186387</v>
+        <f t="shared" si="117"/>
+        <v>237403.8458853031</v>
       </c>
       <c r="CS26" s="2">
-        <f t="shared" si="93"/>
-        <v>198554.78925994522</v>
+        <f t="shared" si="117"/>
+        <v>235029.80742645008</v>
       </c>
       <c r="CT26" s="2">
-        <f t="shared" si="93"/>
-        <v>196569.24136734576</v>
+        <f t="shared" si="117"/>
+        <v>232679.50935218556</v>
       </c>
       <c r="CU26" s="2">
-        <f t="shared" si="93"/>
-        <v>194603.54895367232</v>
+        <f t="shared" si="117"/>
+        <v>230352.71425866371</v>
       </c>
       <c r="CV26" s="2">
-        <f t="shared" si="93"/>
-        <v>192657.51346413558</v>
+        <f t="shared" si="117"/>
+        <v>228049.18711607705</v>
       </c>
       <c r="CW26" s="2">
-        <f t="shared" si="93"/>
-        <v>190730.93832949424</v>
+        <f t="shared" si="117"/>
+        <v>225768.69524491628</v>
       </c>
       <c r="CX26" s="2">
-        <f t="shared" si="93"/>
-        <v>188823.62894619929</v>
+        <f t="shared" si="117"/>
+        <v>223511.0082924671</v>
       </c>
       <c r="CY26" s="2">
-        <f t="shared" si="93"/>
-        <v>186935.3926567373</v>
+        <f t="shared" si="117"/>
+        <v>221275.89820954241</v>
       </c>
       <c r="CZ26" s="2">
-        <f t="shared" si="93"/>
-        <v>185066.03873016994</v>
+        <f t="shared" si="117"/>
+        <v>219063.13922744698</v>
       </c>
       <c r="DA26" s="2">
-        <f t="shared" si="93"/>
-        <v>183215.37834286824</v>
+        <f t="shared" si="117"/>
+        <v>216872.50783517252</v>
       </c>
       <c r="DB26" s="2">
-        <f t="shared" si="93"/>
-        <v>181383.22455943955</v>
+        <f t="shared" si="117"/>
+        <v>214703.78275682079</v>
       </c>
       <c r="DC26" s="2">
-        <f t="shared" si="93"/>
-        <v>179569.39231384516</v>
+        <f t="shared" si="117"/>
+        <v>212556.74492925257</v>
       </c>
       <c r="DD26" s="2">
-        <f t="shared" si="93"/>
-        <v>177773.6983907067</v>
+        <f t="shared" si="117"/>
+        <v>210431.17747996005</v>
       </c>
       <c r="DE26" s="2">
-        <f t="shared" si="93"/>
-        <v>175995.96140679964</v>
+        <f t="shared" si="117"/>
+        <v>208326.86570516045</v>
       </c>
       <c r="DF26" s="2">
-        <f t="shared" si="93"/>
-        <v>174236.00179273164</v>
+        <f t="shared" si="117"/>
+        <v>206243.59704810884</v>
       </c>
       <c r="DG26" s="2">
-        <f t="shared" si="93"/>
-        <v>172493.64177480433</v>
+        <f t="shared" si="117"/>
+        <v>204181.16107762777</v>
       </c>
       <c r="DH26" s="2">
-        <f t="shared" si="93"/>
-        <v>170768.70535705629</v>
+        <f t="shared" si="117"/>
+        <v>202139.34946685148</v>
       </c>
       <c r="DI26" s="2">
-        <f t="shared" si="93"/>
-        <v>169061.01830348573</v>
+        <f t="shared" si="117"/>
+        <v>200117.95597218297</v>
       </c>
       <c r="DJ26" s="2">
-        <f t="shared" si="93"/>
-        <v>167370.40812045088</v>
+        <f t="shared" si="117"/>
+        <v>198116.77641246113</v>
       </c>
       <c r="DK26" s="2">
-        <f t="shared" si="93"/>
-        <v>165696.70403924637</v>
+        <f t="shared" si="117"/>
+        <v>196135.60864833652</v>
       </c>
       <c r="DL26" s="2">
-        <f t="shared" si="93"/>
-        <v>164039.73699885391</v>
+        <f t="shared" si="117"/>
+        <v>194174.25256185315</v>
       </c>
       <c r="DM26" s="2">
-        <f t="shared" si="93"/>
-        <v>162399.33962886536</v>
+        <f t="shared" si="117"/>
+        <v>192232.51003623463</v>
       </c>
       <c r="DN26" s="2">
-        <f t="shared" si="93"/>
-        <v>160775.3462325767</v>
+        <f t="shared" si="117"/>
+        <v>190310.18493587227</v>
       </c>
       <c r="DO26" s="2">
-        <f t="shared" si="93"/>
-        <v>159167.59277025092</v>
+        <f t="shared" si="117"/>
+        <v>188407.08308651354</v>
       </c>
       <c r="DP26" s="2">
-        <f t="shared" ref="DP26:FJ26" si="94">+DO26*(1+$BE$31)</f>
-        <v>157575.91684254841</v>
+        <f t="shared" si="117"/>
+        <v>186523.01225564841</v>
       </c>
       <c r="DQ26" s="2">
-        <f t="shared" si="94"/>
-        <v>156000.15767412292</v>
+        <f t="shared" si="117"/>
+        <v>184657.78213309194</v>
       </c>
       <c r="DR26" s="2">
-        <f t="shared" si="94"/>
-        <v>154440.1560973817</v>
+        <f t="shared" si="117"/>
+        <v>182811.20431176102</v>
       </c>
       <c r="DS26" s="2">
-        <f t="shared" si="94"/>
-        <v>152895.75453640788</v>
+        <f t="shared" si="117"/>
+        <v>180983.09226864341</v>
       </c>
       <c r="DT26" s="2">
-        <f t="shared" si="94"/>
-        <v>151366.79699104381</v>
+        <f t="shared" si="117"/>
+        <v>179173.26134595697</v>
       </c>
       <c r="DU26" s="2">
-        <f t="shared" si="94"/>
-        <v>149853.12902113338</v>
+        <f t="shared" si="117"/>
+        <v>177381.52873249739</v>
       </c>
       <c r="DV26" s="2">
-        <f t="shared" si="94"/>
-        <v>148354.59773092205</v>
+        <f t="shared" si="117"/>
+        <v>175607.71344517241</v>
       </c>
       <c r="DW26" s="2">
-        <f t="shared" si="94"/>
-        <v>146871.05175361282</v>
+        <f t="shared" si="117"/>
+        <v>173851.6363107207</v>
       </c>
       <c r="DX26" s="2">
-        <f t="shared" si="94"/>
-        <v>145402.3412360767</v>
+        <f t="shared" si="117"/>
+        <v>172113.11994761348</v>
       </c>
       <c r="DY26" s="2">
-        <f t="shared" si="94"/>
-        <v>143948.31782371592</v>
+        <f t="shared" si="117"/>
+        <v>170391.98874813734</v>
       </c>
       <c r="DZ26" s="2">
-        <f t="shared" si="94"/>
-        <v>142508.83464547875</v>
+        <f t="shared" si="117"/>
+        <v>168688.06886065597</v>
       </c>
       <c r="EA26" s="2">
-        <f t="shared" si="94"/>
-        <v>141083.74629902397</v>
+        <f t="shared" si="117"/>
+        <v>167001.18817204941</v>
       </c>
       <c r="EB26" s="2">
-        <f t="shared" si="94"/>
-        <v>139672.90883603372</v>
+        <f t="shared" si="117"/>
+        <v>165331.17629032891</v>
       </c>
       <c r="EC26" s="2">
-        <f t="shared" si="94"/>
-        <v>138276.17974767339</v>
+        <f t="shared" si="117"/>
+        <v>163677.86452742561</v>
       </c>
       <c r="ED26" s="2">
-        <f t="shared" si="94"/>
-        <v>136893.41795019666</v>
+        <f t="shared" si="117"/>
+        <v>162041.08588215135</v>
       </c>
       <c r="EE26" s="2">
-        <f t="shared" si="94"/>
-        <v>135524.4837706947</v>
+        <f t="shared" si="117"/>
+        <v>160420.67502332985</v>
       </c>
       <c r="EF26" s="2">
-        <f t="shared" si="94"/>
-        <v>134169.23893298776</v>
+        <f t="shared" ref="EF26:FZ26" si="118">+EE26*(1+$BU$31)</f>
+        <v>158816.46827309654</v>
       </c>
       <c r="EG26" s="2">
-        <f t="shared" si="94"/>
-        <v>132827.5465436579</v>
+        <f t="shared" si="118"/>
+        <v>157228.30359036557</v>
       </c>
       <c r="EH26" s="2">
-        <f t="shared" si="94"/>
-        <v>131499.27107822133</v>
+        <f t="shared" si="118"/>
+        <v>155656.02055446192</v>
       </c>
       <c r="EI26" s="2">
-        <f t="shared" si="94"/>
-        <v>130184.27836743911</v>
+        <f t="shared" si="118"/>
+        <v>154099.46034891732</v>
       </c>
       <c r="EJ26" s="2">
-        <f t="shared" si="94"/>
-        <v>128882.43558376472</v>
+        <f t="shared" si="118"/>
+        <v>152558.46574542814</v>
       </c>
       <c r="EK26" s="2">
-        <f t="shared" si="94"/>
-        <v>127593.61122792707</v>
+        <f t="shared" si="118"/>
+        <v>151032.88108797386</v>
       </c>
       <c r="EL26" s="2">
-        <f t="shared" si="94"/>
-        <v>126317.6751156478</v>
+        <f t="shared" si="118"/>
+        <v>149522.55227709413</v>
       </c>
       <c r="EM26" s="2">
-        <f t="shared" si="94"/>
-        <v>125054.49836449132</v>
+        <f t="shared" si="118"/>
+        <v>148027.32675432318</v>
       </c>
       <c r="EN26" s="2">
-        <f t="shared" si="94"/>
-        <v>123803.9533808464</v>
+        <f t="shared" si="118"/>
+        <v>146547.05348677994</v>
       </c>
       <c r="EO26" s="2">
-        <f t="shared" si="94"/>
-        <v>122565.91384703794</v>
+        <f t="shared" si="118"/>
+        <v>145081.58295191213</v>
       </c>
       <c r="EP26" s="2">
-        <f t="shared" si="94"/>
-        <v>121340.25470856756</v>
+        <f t="shared" si="118"/>
+        <v>143630.76712239301</v>
       </c>
       <c r="EQ26" s="2">
-        <f t="shared" si="94"/>
-        <v>120126.85216148189</v>
+        <f t="shared" si="118"/>
+        <v>142194.45945116907</v>
       </c>
       <c r="ER26" s="2">
-        <f t="shared" si="94"/>
-        <v>118925.58363986707</v>
+        <f t="shared" si="118"/>
+        <v>140772.51485665736</v>
       </c>
       <c r="ES26" s="2">
-        <f t="shared" si="94"/>
-        <v>117736.32780346839</v>
+        <f t="shared" si="118"/>
+        <v>139364.7897080908</v>
       </c>
       <c r="ET26" s="2">
-        <f t="shared" si="94"/>
-        <v>116558.96452543371</v>
+        <f t="shared" si="118"/>
+        <v>137971.1418110099</v>
       </c>
       <c r="EU26" s="2">
-        <f t="shared" si="94"/>
-        <v>115393.37488017937</v>
+        <f t="shared" si="118"/>
+        <v>136591.43039289981</v>
       </c>
       <c r="EV26" s="2">
-        <f t="shared" si="94"/>
-        <v>114239.44113137758</v>
+        <f t="shared" si="118"/>
+        <v>135225.51608897082</v>
       </c>
       <c r="EW26" s="2">
-        <f t="shared" si="94"/>
-        <v>113097.04672006381</v>
+        <f t="shared" si="118"/>
+        <v>133873.26092808112</v>
       </c>
       <c r="EX26" s="2">
-        <f t="shared" si="94"/>
-        <v>111966.07625286317</v>
+        <f t="shared" si="118"/>
+        <v>132534.52831880029</v>
       </c>
       <c r="EY26" s="2">
-        <f t="shared" si="94"/>
-        <v>110846.41549033455</v>
+        <f t="shared" si="118"/>
+        <v>131209.18303561228</v>
       </c>
       <c r="EZ26" s="2">
-        <f t="shared" si="94"/>
-        <v>109737.95133543121</v>
+        <f t="shared" si="118"/>
+        <v>129897.09120525616</v>
       </c>
       <c r="FA26" s="2">
-        <f t="shared" si="94"/>
-        <v>108640.57182207689</v>
+        <f t="shared" si="118"/>
+        <v>128598.1202932036</v>
       </c>
       <c r="FB26" s="2">
-        <f t="shared" si="94"/>
-        <v>107554.16610385611</v>
+        <f t="shared" si="118"/>
+        <v>127312.13909027156</v>
       </c>
       <c r="FC26" s="2">
-        <f t="shared" si="94"/>
-        <v>106478.62444281756</v>
+        <f t="shared" si="118"/>
+        <v>126039.01769936885</v>
       </c>
       <c r="FD26" s="2">
-        <f t="shared" si="94"/>
-        <v>105413.83819838938</v>
+        <f t="shared" si="118"/>
+        <v>124778.62752237516</v>
       </c>
       <c r="FE26" s="2">
-        <f t="shared" si="94"/>
-        <v>104359.69981640548</v>
+        <f t="shared" si="118"/>
+        <v>123530.8412471514</v>
       </c>
       <c r="FF26" s="2">
-        <f t="shared" si="94"/>
-        <v>103316.10281824143</v>
+        <f t="shared" si="118"/>
+        <v>122295.53283467989</v>
       </c>
       <c r="FG26" s="2">
-        <f t="shared" si="94"/>
-        <v>102282.94179005902</v>
+        <f t="shared" si="118"/>
+        <v>121072.57750633309</v>
       </c>
       <c r="FH26" s="2">
-        <f t="shared" si="94"/>
-        <v>101260.11237215843</v>
+        <f t="shared" si="118"/>
+        <v>119861.85173126977</v>
       </c>
       <c r="FI26" s="2">
-        <f t="shared" si="94"/>
-        <v>100247.51124843684</v>
+        <f t="shared" si="118"/>
+        <v>118663.23321395706</v>
       </c>
       <c r="FJ26" s="2">
-        <f t="shared" si="94"/>
-        <v>99245.036135952469</v>
+        <f t="shared" si="118"/>
+        <v>117476.60088181749</v>
+      </c>
+      <c r="FK26" s="2">
+        <f t="shared" si="118"/>
+        <v>116301.83487299932</v>
+      </c>
+      <c r="FL26" s="2">
+        <f t="shared" si="118"/>
+        <v>115138.81652426932</v>
+      </c>
+      <c r="FM26" s="2">
+        <f t="shared" si="118"/>
+        <v>113987.42835902663</v>
+      </c>
+      <c r="FN26" s="2">
+        <f t="shared" si="118"/>
+        <v>112847.55407543636</v>
+      </c>
+      <c r="FO26" s="2">
+        <f t="shared" si="118"/>
+        <v>111719.07853468199</v>
+      </c>
+      <c r="FP26" s="2">
+        <f t="shared" si="118"/>
+        <v>110601.88774933518</v>
+      </c>
+      <c r="FQ26" s="2">
+        <f t="shared" si="118"/>
+        <v>109495.86887184183</v>
+      </c>
+      <c r="FR26" s="2">
+        <f t="shared" si="118"/>
+        <v>108400.91018312341</v>
+      </c>
+      <c r="FS26" s="2">
+        <f t="shared" si="118"/>
+        <v>107316.90108129218</v>
+      </c>
+      <c r="FT26" s="2">
+        <f t="shared" si="118"/>
+        <v>106243.73207047925</v>
+      </c>
+      <c r="FU26" s="2">
+        <f t="shared" si="118"/>
+        <v>105181.29474977446</v>
+      </c>
+      <c r="FV26" s="2">
+        <f t="shared" si="118"/>
+        <v>104129.48180227671</v>
+      </c>
+      <c r="FW26" s="2">
+        <f t="shared" si="118"/>
+        <v>103088.18698425395</v>
+      </c>
+      <c r="FX26" s="2">
+        <f t="shared" si="118"/>
+        <v>102057.3051144114</v>
+      </c>
+      <c r="FY26" s="2">
+        <f t="shared" si="118"/>
+        <v>101036.73206326728</v>
+      </c>
+      <c r="FZ26" s="2">
+        <f t="shared" si="118"/>
+        <v>100026.3647426346</v>
       </c>
     </row>
-    <row r="27" spans="2:166" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="12">
-        <f t="shared" ref="C27" si="95">+C26/C28</f>
+        <f t="shared" ref="C27" si="119">+C26/C28</f>
         <v>0.97255857987156114</v>
       </c>
       <c r="D27" s="12">
-        <f t="shared" ref="D27:F27" si="96">+D26/D28</f>
+        <f t="shared" ref="D27:F27" si="120">+D26/D28</f>
         <v>0.68176083107937602</v>
       </c>
       <c r="E27" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>0.58452984598534197</v>
       </c>
       <c r="F27" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>0.70623460408563088</v>
       </c>
       <c r="G27" s="12"/>
@@ -4872,19 +6121,19 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12">
-        <f t="shared" ref="K27:N27" si="97">+K26/K28</f>
+        <f t="shared" ref="K27:N27" si="121">+K26/K28</f>
         <v>1.2479223042091785</v>
       </c>
       <c r="L27" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="121"/>
         <v>0.63846699811252383</v>
       </c>
       <c r="M27" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="121"/>
         <v>0.64601300384622584</v>
       </c>
       <c r="N27" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="121"/>
         <v>0.73438904632051849</v>
       </c>
       <c r="O27" s="12">
@@ -4900,11 +6149,11 @@
         <v>1.2956943963183782</v>
       </c>
       <c r="R27" s="12">
-        <f t="shared" ref="R27" si="98">+R26/R28</f>
+        <f t="shared" ref="R27" si="122">+R26/R28</f>
         <v>1.2354000701047909</v>
       </c>
       <c r="S27" s="12">
-        <f t="shared" ref="S27" si="99">+S26/S28</f>
+        <f t="shared" ref="S27" si="123">+S26/S28</f>
         <v>2.0963369432743812</v>
       </c>
       <c r="T27" s="12">
@@ -4912,107 +6161,183 @@
         <v>1.5246917147727936</v>
       </c>
       <c r="U27" s="12">
-        <f t="shared" ref="U27:V27" si="100">+U26/U28</f>
+        <f t="shared" ref="U27:W27" si="124">+U26/U28</f>
         <v>1.1955329791418789</v>
       </c>
       <c r="V27" s="12">
-        <f t="shared" si="100"/>
-        <v>1.2495434951067415</v>
+        <f t="shared" si="124"/>
+        <v>1.2855442500262897</v>
+      </c>
+      <c r="W27" s="12">
+        <f t="shared" si="124"/>
+        <v>1.8800783518485347</v>
+      </c>
+      <c r="AD27" s="12">
+        <f t="shared" ref="AD27:AE27" si="125">+AD26/AD28</f>
+        <v>1.4348197733151276</v>
+      </c>
+      <c r="AE27" s="12">
+        <f t="shared" si="125"/>
+        <v>-0.33563552296933274</v>
       </c>
       <c r="AF27" s="12">
-        <f t="shared" ref="AF27:AG27" si="101">+AF26/AF28</f>
+        <f t="shared" ref="AF27:AH27" si="126">+AF26/AF28</f>
+        <v>0.26535096811642273</v>
+      </c>
+      <c r="AG27" s="12">
+        <f t="shared" si="126"/>
+        <v>0.12931058200767059</v>
+      </c>
+      <c r="AH27" s="12">
+        <f t="shared" si="126"/>
+        <v>0.38599471742346592</v>
+      </c>
+      <c r="AI27" s="12">
+        <f t="shared" ref="AI27:AJ27" si="127">+AI26/AI28</f>
+        <v>1.5581596209061837</v>
+      </c>
+      <c r="AJ27" s="12">
+        <f t="shared" si="127"/>
+        <v>2.266599508162721</v>
+      </c>
+      <c r="AK27" s="12">
+        <f t="shared" ref="AK27:AL27" si="128">+AK26/AK28</f>
+        <v>3.9312171930029729</v>
+      </c>
+      <c r="AL27" s="12">
+        <f t="shared" si="128"/>
+        <v>6.7827685090656757</v>
+      </c>
+      <c r="AM27" s="12">
+        <f t="shared" ref="AM27:AO27" si="129">+AM26/AM28</f>
+        <v>9.0793325284866118</v>
+      </c>
+      <c r="AN27" s="12">
+        <f t="shared" si="129"/>
+        <v>15.15390737872981</v>
+      </c>
+      <c r="AO27" s="12">
+        <f t="shared" si="129"/>
+        <v>27.675373273759003</v>
+      </c>
+      <c r="AP27" s="12">
+        <f>+AP26/AP28</f>
+        <v>6.3064763445557777</v>
+      </c>
+      <c r="AQ27" s="12">
+        <f>+AQ26/AQ28</f>
+        <v>5.6790982137298718</v>
+      </c>
+      <c r="AR27" s="12">
+        <f>+AR26/AR28</f>
+        <v>6.4530744220284548</v>
+      </c>
+      <c r="AS27" s="12">
+        <f>+AS26/AS28</f>
+        <v>9.216876236067618</v>
+      </c>
+      <c r="AT27" s="12">
+        <f>+AT26/AT28</f>
+        <v>8.3063028961611227</v>
+      </c>
+      <c r="AU27" s="12">
+        <f>+AU26/AU28</f>
+        <v>9.2067470826545037</v>
+      </c>
+      <c r="AV27" s="12">
+        <f t="shared" ref="AV27:AW27" si="130">+AV26/AV28</f>
         <v>2.9764851126245446</v>
       </c>
-      <c r="AG27" s="12">
-        <f t="shared" si="101"/>
+      <c r="AW27" s="12">
+        <f t="shared" si="130"/>
         <v>2.9714474637107351</v>
       </c>
-      <c r="AH27" s="12">
-        <f>+AH26/AH28</f>
+      <c r="AX27" s="12">
+        <f>+AX26/AX28</f>
         <v>3.2753479151477172</v>
       </c>
-      <c r="AI27" s="12">
-        <f>+AI26/AI28</f>
+      <c r="AY27" s="12">
+        <f>+AY26/AY28</f>
         <v>5.6140203576723327</v>
       </c>
-      <c r="AJ27" s="12">
-        <f>+AJ26/AJ28</f>
-        <v>6.0761094883645539</v>
-      </c>
-      <c r="AK27" s="12">
-        <f>+AK26/AK28</f>
-        <v>6.4675871932604627</v>
-      </c>
-      <c r="AL27" s="12">
-        <f t="shared" ref="AL27:BB27" si="102">+AL26/AL28</f>
-        <v>7.2316962593480429</v>
-      </c>
-      <c r="AM27" s="12">
-        <f t="shared" si="102"/>
-        <v>8.088975775494939</v>
-      </c>
-      <c r="AN27" s="12">
-        <f t="shared" si="102"/>
-        <v>8.7932438011154677</v>
-      </c>
-      <c r="AO27" s="12">
-        <f t="shared" si="102"/>
-        <v>9.5580194204557625</v>
-      </c>
-      <c r="AP27" s="12">
-        <f t="shared" si="102"/>
-        <v>10.388672671534223</v>
-      </c>
-      <c r="AQ27" s="12">
-        <f t="shared" si="102"/>
-        <v>11.00528619625106</v>
-      </c>
-      <c r="AR27" s="12">
-        <f t="shared" si="102"/>
-        <v>11.591990169039196</v>
-      </c>
-      <c r="AS27" s="12">
-        <f t="shared" si="102"/>
-        <v>12.208965957207553</v>
-      </c>
-      <c r="AT27" s="12">
-        <f t="shared" si="102"/>
-        <v>12.85775331195345</v>
-      </c>
-      <c r="AU27" s="12">
-        <f t="shared" si="102"/>
-        <v>13.53996996613426</v>
-      </c>
-      <c r="AV27" s="12">
-        <f t="shared" si="102"/>
-        <v>14.191816899904584</v>
-      </c>
-      <c r="AW27" s="12">
-        <f t="shared" si="102"/>
-        <v>14.861002432602106</v>
-      </c>
-      <c r="AX27" s="12">
-        <f t="shared" si="102"/>
-        <v>15.561660348723871</v>
-      </c>
-      <c r="AY27" s="12">
-        <f t="shared" si="102"/>
-        <v>16.295275796902068</v>
-      </c>
       <c r="AZ27" s="12">
-        <f t="shared" si="102"/>
-        <v>17.063404451736805</v>
+        <f>+AZ26/AZ28</f>
+        <v>6.1132002950847406</v>
       </c>
       <c r="BA27" s="12">
-        <f t="shared" si="102"/>
-        <v>17.867675887860674</v>
+        <f>+BA26/BA28</f>
+        <v>6.5420459514534279</v>
       </c>
       <c r="BB27" s="12">
-        <f t="shared" si="102"/>
-        <v>18.709797116629794</v>
+        <f t="shared" ref="BB27:BR27" si="131">+BB26/BB28</f>
+        <v>7.3095745988104657</v>
+      </c>
+      <c r="BC27" s="12">
+        <f t="shared" si="131"/>
+        <v>8.1701287627511689</v>
+      </c>
+      <c r="BD27" s="12">
+        <f t="shared" si="131"/>
+        <v>8.8787400901490212</v>
+      </c>
+      <c r="BE27" s="12">
+        <f t="shared" si="131"/>
+        <v>9.6479951438042129</v>
+      </c>
+      <c r="BF27" s="12">
+        <f t="shared" si="131"/>
+        <v>10.483257310120651</v>
+      </c>
+      <c r="BG27" s="12">
+        <f t="shared" si="131"/>
+        <v>11.107509379060751</v>
+      </c>
+      <c r="BH27" s="12">
+        <f t="shared" si="131"/>
+        <v>11.700468871270791</v>
+      </c>
+      <c r="BI27" s="12">
+        <f t="shared" si="131"/>
+        <v>12.324063307795274</v>
+      </c>
+      <c r="BJ27" s="12">
+        <f t="shared" si="131"/>
+        <v>12.979853189282546</v>
+      </c>
+      <c r="BK27" s="12">
+        <f t="shared" si="131"/>
+        <v>13.669478183654308</v>
+      </c>
+      <c r="BL27" s="12">
+        <f t="shared" si="131"/>
+        <v>14.327814331229108</v>
+      </c>
+      <c r="BM27" s="12">
+        <f t="shared" si="131"/>
+        <v>15.002753432353025</v>
+      </c>
+      <c r="BN27" s="12">
+        <f t="shared" si="131"/>
+        <v>15.709407230232772</v>
+      </c>
+      <c r="BO27" s="12">
+        <f t="shared" si="131"/>
+        <v>16.449271112925071</v>
+      </c>
+      <c r="BP27" s="12">
+        <f t="shared" si="131"/>
+        <v>17.223911431115933</v>
+      </c>
+      <c r="BQ27" s="12">
+        <f t="shared" si="131"/>
+        <v>18.034968891055886</v>
+      </c>
+      <c r="BR27" s="12">
+        <f t="shared" si="131"/>
+        <v>18.884162110950143</v>
       </c>
     </row>
-    <row r="28" spans="2:166" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:182" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
@@ -5066,102 +6391,158 @@
         <v>16262.203</v>
       </c>
       <c r="V28" s="2">
-        <f>+U28-50</f>
-        <v>16212.203</v>
+        <v>16118.465</v>
+      </c>
+      <c r="W28" s="2">
+        <v>15955.718000000001</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>360.32400000000001</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>345.613</v>
       </c>
       <c r="AF28" s="2">
+        <v>361.78500000000003</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>726.93200000000002</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>774.62199999999996</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>856.78</v>
+      </c>
+      <c r="AJ28" s="2">
+        <v>877.52599999999995</v>
+      </c>
+      <c r="AK28" s="2">
+        <v>889.29200000000003</v>
+      </c>
+      <c r="AL28" s="2">
+        <v>902.13900000000001</v>
+      </c>
+      <c r="AM28" s="2">
+        <v>907.005</v>
+      </c>
+      <c r="AN28" s="2">
+        <v>924.71199999999999</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>936.64499999999998</v>
+      </c>
+      <c r="AP28" s="2">
+        <v>6617.4830000000002</v>
+      </c>
+      <c r="AQ28" s="2">
+        <v>6521.634</v>
+      </c>
+      <c r="AR28" s="2">
+        <v>6122.6629999999996</v>
+      </c>
+      <c r="AS28" s="2">
+        <v>5793.0690000000004</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>5500.2809999999999</v>
+      </c>
+      <c r="AU28" s="2">
+        <v>5251.692</v>
+      </c>
+      <c r="AV28" s="2">
         <f>5000.109*4</f>
         <v>20000.436000000002</v>
       </c>
-      <c r="AG28" s="2">
+      <c r="AW28" s="2">
         <v>18595.651000000002</v>
       </c>
-      <c r="AH28" s="2">
+      <c r="AX28" s="2">
         <f>AVERAGE(K28:N28)</f>
         <v>17528.214249999997</v>
       </c>
-      <c r="AI28" s="2">
+      <c r="AY28" s="2">
         <f>AVERAGE(O28:R28)</f>
         <v>16864.919249999999</v>
       </c>
-      <c r="AJ28" s="2">
+      <c r="AZ28" s="2">
         <f>AVERAGE(S28:V28)</f>
-        <v>16349.253250000002</v>
-      </c>
-      <c r="AK28" s="2">
-        <f>+AJ28</f>
-        <v>16349.253250000002</v>
-      </c>
-      <c r="AL28" s="2">
-        <f t="shared" ref="AL28:BB28" si="103">+AK28</f>
-        <v>16349.253250000002</v>
-      </c>
-      <c r="AM28" s="2">
-        <f t="shared" si="103"/>
-        <v>16349.253250000002</v>
-      </c>
-      <c r="AN28" s="2">
-        <f t="shared" si="103"/>
-        <v>16349.253250000002</v>
-      </c>
-      <c r="AO28" s="2">
-        <f t="shared" si="103"/>
-        <v>16349.253250000002</v>
-      </c>
-      <c r="AP28" s="2">
-        <f t="shared" si="103"/>
-        <v>16349.253250000002</v>
-      </c>
-      <c r="AQ28" s="2">
-        <f t="shared" si="103"/>
-        <v>16349.253250000002</v>
-      </c>
-      <c r="AR28" s="2">
-        <f t="shared" si="103"/>
-        <v>16349.253250000002</v>
-      </c>
-      <c r="AS28" s="2">
-        <f t="shared" si="103"/>
-        <v>16349.253250000002</v>
-      </c>
-      <c r="AT28" s="2">
-        <f t="shared" si="103"/>
-        <v>16349.253250000002</v>
-      </c>
-      <c r="AU28" s="2">
-        <f t="shared" si="103"/>
-        <v>16349.253250000002</v>
-      </c>
-      <c r="AV28" s="2">
-        <f t="shared" si="103"/>
-        <v>16349.253250000002</v>
-      </c>
-      <c r="AW28" s="2">
-        <f t="shared" si="103"/>
-        <v>16349.253250000002</v>
-      </c>
-      <c r="AX28" s="2">
-        <f t="shared" si="103"/>
-        <v>16349.253250000002</v>
-      </c>
-      <c r="AY28" s="2">
-        <f t="shared" si="103"/>
-        <v>16349.253250000002</v>
-      </c>
-      <c r="AZ28" s="2">
-        <f t="shared" si="103"/>
-        <v>16349.253250000002</v>
+        <v>16325.818750000002</v>
       </c>
       <c r="BA28" s="2">
-        <f t="shared" si="103"/>
-        <v>16349.253250000002</v>
+        <f>+AZ28</f>
+        <v>16325.818750000002</v>
       </c>
       <c r="BB28" s="2">
-        <f t="shared" si="103"/>
-        <v>16349.253250000002</v>
+        <f t="shared" ref="BB28:BR28" si="132">+BA28</f>
+        <v>16325.818750000002</v>
+      </c>
+      <c r="BC28" s="2">
+        <f t="shared" si="132"/>
+        <v>16325.818750000002</v>
+      </c>
+      <c r="BD28" s="2">
+        <f t="shared" si="132"/>
+        <v>16325.818750000002</v>
+      </c>
+      <c r="BE28" s="2">
+        <f t="shared" si="132"/>
+        <v>16325.818750000002</v>
+      </c>
+      <c r="BF28" s="2">
+        <f t="shared" si="132"/>
+        <v>16325.818750000002</v>
+      </c>
+      <c r="BG28" s="2">
+        <f t="shared" si="132"/>
+        <v>16325.818750000002</v>
+      </c>
+      <c r="BH28" s="2">
+        <f t="shared" si="132"/>
+        <v>16325.818750000002</v>
+      </c>
+      <c r="BI28" s="2">
+        <f t="shared" si="132"/>
+        <v>16325.818750000002</v>
+      </c>
+      <c r="BJ28" s="2">
+        <f t="shared" si="132"/>
+        <v>16325.818750000002</v>
+      </c>
+      <c r="BK28" s="2">
+        <f t="shared" si="132"/>
+        <v>16325.818750000002</v>
+      </c>
+      <c r="BL28" s="2">
+        <f t="shared" si="132"/>
+        <v>16325.818750000002</v>
+      </c>
+      <c r="BM28" s="2">
+        <f t="shared" si="132"/>
+        <v>16325.818750000002</v>
+      </c>
+      <c r="BN28" s="2">
+        <f t="shared" si="132"/>
+        <v>16325.818750000002</v>
+      </c>
+      <c r="BO28" s="2">
+        <f t="shared" si="132"/>
+        <v>16325.818750000002</v>
+      </c>
+      <c r="BP28" s="2">
+        <f t="shared" si="132"/>
+        <v>16325.818750000002</v>
+      </c>
+      <c r="BQ28" s="2">
+        <f t="shared" si="132"/>
+        <v>16325.818750000002</v>
+      </c>
+      <c r="BR28" s="2">
+        <f t="shared" si="132"/>
+        <v>16325.818750000002</v>
       </c>
     </row>
-    <row r="30" spans="2:166" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
         <v>42</v>
       </c>
@@ -5173,15 +6554,15 @@
         <v>0.21368126422635836</v>
       </c>
       <c r="P30" s="9">
-        <f t="shared" ref="P30" si="104">P14/L14-1</f>
+        <f t="shared" ref="P30" si="133">P14/L14-1</f>
         <v>0.53626121105070901</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" ref="Q30" si="105">Q14/M14-1</f>
+        <f t="shared" ref="Q30" si="134">Q14/M14-1</f>
         <v>0.36439641450950822</v>
       </c>
       <c r="R30" s="9">
-        <f t="shared" ref="R30" si="106">R14/N14-1</f>
+        <f t="shared" ref="R30" si="135">R14/N14-1</f>
         <v>0.28844786546724777</v>
       </c>
       <c r="S30" s="9">
@@ -5198,120 +6579,196 @@
       </c>
       <c r="V30" s="9">
         <f>V14/R14-1</f>
-        <v>5.0357485604606289E-3</v>
-      </c>
-      <c r="AC30" s="9">
-        <f t="shared" ref="AC30:AF30" si="107">+AC14/AB14-1</f>
+        <v>8.1405950095969182E-2</v>
+      </c>
+      <c r="W30" s="9">
+        <f t="shared" ref="W30:Z30" si="136">W14/S14-1</f>
+        <v>-5.4790431239662762E-2</v>
+      </c>
+      <c r="X30" s="9">
+        <f t="shared" si="136"/>
+        <v>-1</v>
+      </c>
+      <c r="Y30" s="9">
+        <f t="shared" si="136"/>
+        <v>-1</v>
+      </c>
+      <c r="Z30" s="9">
+        <f t="shared" si="136"/>
+        <v>-1</v>
+      </c>
+      <c r="AD30" s="9">
+        <f t="shared" ref="AD30:AK30" si="137">+AD14/AC14-1</f>
+        <v>0.30143462667101395</v>
+      </c>
+      <c r="AE30" s="9">
+        <f t="shared" si="137"/>
+        <v>-0.32819741951647252</v>
+      </c>
+      <c r="AF30" s="9">
+        <f t="shared" si="137"/>
+        <v>7.0669401454409808E-2</v>
+      </c>
+      <c r="AG30" s="9">
+        <f t="shared" si="137"/>
+        <v>8.0982236154649945E-2</v>
+      </c>
+      <c r="AH30" s="9">
+        <f t="shared" si="137"/>
+        <v>0.33381665861124543</v>
+      </c>
+      <c r="AI30" s="9">
+        <f t="shared" si="137"/>
+        <v>0.68269114627370464</v>
+      </c>
+      <c r="AJ30" s="9">
+        <f t="shared" si="137"/>
+        <v>0.38647620414902017</v>
+      </c>
+      <c r="AK30" s="9">
+        <f t="shared" ref="AK30:AM30" si="138">+AK14/AJ14-1</f>
+        <v>0.24286823712140815</v>
+      </c>
+      <c r="AL30" s="9">
+        <f t="shared" si="138"/>
+        <v>0.56173456635841035</v>
+      </c>
+      <c r="AM30" s="9">
+        <f>+AM14/AL14-1</f>
+        <v>0.14440799125123371</v>
+      </c>
+      <c r="AN30" s="9">
+        <f>+AN14/AM14-1</f>
+        <v>0.52021908868430256</v>
+      </c>
+      <c r="AO30" s="9">
+        <f>+AO14/AN14-1</f>
+        <v>0.65962437715599842</v>
+      </c>
+      <c r="AP30" s="9">
+        <f>+AP14/AO14-1</f>
+        <v>0.44581474193756976</v>
+      </c>
+      <c r="AQ30" s="9">
+        <f>+AQ14/AP14-1</f>
+        <v>9.2020855163953197E-2</v>
+      </c>
+      <c r="AR30" s="9">
+        <f>+AR14/AQ14-1</f>
+        <v>6.9539523725937524E-2</v>
+      </c>
+      <c r="AS30" s="9">
+        <f t="shared" ref="AS30:AV30" si="139">+AS14/AR14-1</f>
         <v>0.27856341803659834</v>
       </c>
-      <c r="AD30" s="9">
-        <f t="shared" si="107"/>
+      <c r="AT30" s="9">
+        <f t="shared" si="139"/>
         <v>-7.7342061913013738E-2</v>
       </c>
-      <c r="AE30" s="9">
-        <f t="shared" si="107"/>
+      <c r="AU30" s="9">
+        <f t="shared" si="139"/>
         <v>6.304518199398057E-2</v>
       </c>
-      <c r="AF30" s="9">
-        <f t="shared" si="107"/>
+      <c r="AV30" s="9">
+        <f t="shared" si="139"/>
         <v>0.15861957650261305</v>
       </c>
-      <c r="AG30" s="9">
-        <f>+AG14/AF14-1</f>
+      <c r="AW30" s="9">
+        <f>+AW14/AV14-1</f>
         <v>-2.04107758052674E-2</v>
       </c>
-      <c r="AH30" s="9">
-        <f>+AH14/AG14-1</f>
+      <c r="AX30" s="9">
+        <f>+AX14/AW14-1</f>
         <v>5.5120803769784787E-2</v>
       </c>
-      <c r="AI30" s="9">
-        <f t="shared" ref="AI30:BB30" si="108">+AI14/AH14-1</f>
+      <c r="AY30" s="9">
+        <f t="shared" ref="AY30:BR30" si="140">+AY14/AX14-1</f>
         <v>0.33259384733074704</v>
       </c>
-      <c r="AJ30" s="9">
-        <f t="shared" si="108"/>
-        <v>6.0535130953454974E-2</v>
-      </c>
-      <c r="AK30" s="9">
-        <f t="shared" si="108"/>
-        <v>7.9231845580252758E-2</v>
-      </c>
-      <c r="AL30" s="9">
-        <f t="shared" si="108"/>
-        <v>8.0516288446638606E-2</v>
-      </c>
-      <c r="AM30" s="9">
-        <f t="shared" si="108"/>
-        <v>8.1849351232014644E-2</v>
-      </c>
-      <c r="AN30" s="9">
-        <f t="shared" si="108"/>
-        <v>6.5867505313704777E-2</v>
-      </c>
-      <c r="AO30" s="9">
-        <f t="shared" si="108"/>
-        <v>6.6278277276384578E-2</v>
-      </c>
-      <c r="AP30" s="9">
-        <f t="shared" si="108"/>
-        <v>6.6694540476785136E-2</v>
-      </c>
-      <c r="AQ30" s="9">
-        <f t="shared" si="108"/>
-        <v>5.3632590813838865E-2</v>
-      </c>
-      <c r="AR30" s="9">
-        <f t="shared" si="108"/>
-        <v>4.7770986347928313E-2</v>
-      </c>
-      <c r="AS30" s="9">
-        <f t="shared" si="108"/>
-        <v>4.7795222986855235E-2</v>
-      </c>
-      <c r="AT30" s="9">
-        <f t="shared" si="108"/>
-        <v>4.7819557345704311E-2</v>
-      </c>
-      <c r="AU30" s="9">
-        <f t="shared" si="108"/>
-        <v>4.7843990062608865E-2</v>
-      </c>
-      <c r="AV30" s="9">
-        <f t="shared" si="108"/>
-        <v>4.2934429298046695E-2</v>
-      </c>
-      <c r="AW30" s="9">
-        <f t="shared" si="108"/>
-        <v>4.1974778814235947E-2</v>
-      </c>
-      <c r="AX30" s="9">
-        <f t="shared" si="108"/>
-        <v>4.2013302987353285E-2</v>
-      </c>
-      <c r="AY30" s="9">
-        <f t="shared" si="108"/>
-        <v>4.2051921479231869E-2</v>
-      </c>
       <c r="AZ30" s="9">
-        <f t="shared" si="108"/>
-        <v>4.2090631798684663E-2</v>
+        <f t="shared" si="140"/>
+        <v>7.7937876041846099E-2</v>
       </c>
       <c r="BA30" s="9">
-        <f t="shared" si="108"/>
-        <v>4.2129431428187925E-2</v>
+        <f t="shared" si="140"/>
+        <v>7.8816937169057244E-2</v>
       </c>
       <c r="BB30" s="9">
-        <f t="shared" si="108"/>
-        <v>4.2168317824500701E-2</v>
-      </c>
-      <c r="BD30" s="4" t="s">
+        <f t="shared" si="140"/>
+        <v>8.0074448623012495E-2</v>
+      </c>
+      <c r="BC30" s="9">
+        <f t="shared" si="140"/>
+        <v>8.1380548944790077E-2</v>
+      </c>
+      <c r="BD30" s="9">
+        <f t="shared" si="140"/>
+        <v>6.5675809941133867E-2</v>
+      </c>
+      <c r="BE30" s="9">
+        <f t="shared" si="140"/>
+        <v>6.6079188079942508E-2</v>
+      </c>
+      <c r="BF30" s="9">
+        <f t="shared" si="140"/>
+        <v>6.6488075308868799E-2</v>
+      </c>
+      <c r="BG30" s="9">
+        <f t="shared" si="140"/>
+        <v>5.3766857881200947E-2</v>
+      </c>
+      <c r="BH30" s="9">
+        <f t="shared" si="140"/>
+        <v>4.7828298126808555E-2</v>
+      </c>
+      <c r="BI30" s="9">
+        <f t="shared" si="140"/>
+        <v>4.7853262617086001E-2</v>
+      </c>
+      <c r="BJ30" s="9">
+        <f t="shared" si="140"/>
+        <v>4.7878330360698884E-2</v>
+      </c>
+      <c r="BK30" s="9">
+        <f t="shared" si="140"/>
+        <v>4.7903501975288032E-2</v>
+      </c>
+      <c r="BL30" s="9">
+        <f t="shared" si="140"/>
+        <v>4.2974415876352534E-2</v>
+      </c>
+      <c r="BM30" s="9">
+        <f t="shared" si="140"/>
+        <v>4.1956118367983297E-2</v>
+      </c>
+      <c r="BN30" s="9">
+        <f t="shared" si="140"/>
+        <v>4.1994629421749918E-2</v>
+      </c>
+      <c r="BO30" s="9">
+        <f t="shared" si="140"/>
+        <v>4.2033236003122587E-2</v>
+      </c>
+      <c r="BP30" s="9">
+        <f t="shared" si="140"/>
+        <v>4.2071935627994828E-2</v>
+      </c>
+      <c r="BQ30" s="9">
+        <f t="shared" si="140"/>
+        <v>4.2110725785606373E-2</v>
+      </c>
+      <c r="BR30" s="9">
+        <f t="shared" si="140"/>
+        <v>4.2149603939151126E-2</v>
+      </c>
+      <c r="BT30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="BE30" s="19">
+      <c r="BU30" s="15">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:166" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
         <v>43</v>
       </c>
@@ -5319,142 +6776,182 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9">
-        <f t="shared" ref="O31:V31" si="109">+O4/K4-1</f>
+        <f t="shared" ref="O31:W31" si="141">+O4/K4-1</f>
         <v>0.1722751398395197</v>
       </c>
       <c r="P31" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="141"/>
         <v>0.65520336993301576</v>
       </c>
       <c r="Q31" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="141"/>
         <v>0.49784238019532134</v>
       </c>
       <c r="R31" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="141"/>
         <v>0.46982302223566785</v>
       </c>
       <c r="S31" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="141"/>
         <v>9.1940180191167231E-2</v>
       </c>
       <c r="T31" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="141"/>
         <v>5.4904251324627618E-2</v>
       </c>
       <c r="U31" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="141"/>
         <v>2.7672479150871787E-2</v>
       </c>
       <c r="V31" s="9">
-        <f t="shared" si="109"/>
-        <v>-2.4999999999999467E-3</v>
-      </c>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9">
-        <f t="shared" ref="AE31:AJ31" si="110">+AE4/AD4-1</f>
+        <f t="shared" si="141"/>
+        <v>9.6686220026757308E-2</v>
+      </c>
+      <c r="W31" s="9">
+        <f t="shared" si="141"/>
+        <v>-8.1713854917071505E-2</v>
+      </c>
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="9">
+        <f t="shared" ref="AL31" si="142">+AL4/AK4-1</f>
+        <v>53.8130081300813</v>
+      </c>
+      <c r="AM31" s="9">
+        <f t="shared" ref="AM31:AT31" si="143">+AM4/AL4-1</f>
+        <v>0.93310590329279153</v>
+      </c>
+      <c r="AN31" s="9">
+        <f t="shared" si="143"/>
+        <v>0.93194199340136574</v>
+      </c>
+      <c r="AO31" s="9">
+        <f t="shared" si="143"/>
+        <v>0.82683982683982693</v>
+      </c>
+      <c r="AP31" s="9">
+        <f t="shared" si="143"/>
+        <v>0.71077003347971646</v>
+      </c>
+      <c r="AQ31" s="9">
+        <f t="shared" si="143"/>
+        <v>0.15995272708788688</v>
+      </c>
+      <c r="AR31" s="9">
+        <f t="shared" si="143"/>
+        <v>0.11735448460215392</v>
+      </c>
+      <c r="AS31" s="9">
+        <f t="shared" si="143"/>
+        <v>0.52014393426870997</v>
+      </c>
+      <c r="AT31" s="9">
+        <f t="shared" si="143"/>
+        <v>-0.11829774059764842</v>
+      </c>
+      <c r="AU31" s="9">
+        <f t="shared" ref="AU31:AY31" si="144">+AU4/AT4-1</f>
         <v>3.3789319678127372E-2</v>
       </c>
-      <c r="AF31" s="9">
-        <f t="shared" si="110"/>
+      <c r="AV31" s="9">
+        <f t="shared" si="144"/>
         <v>0.16677870633106662</v>
       </c>
-      <c r="AG31" s="9">
-        <f t="shared" si="110"/>
+      <c r="AW31" s="9">
+        <f>+AW4/AV4-1</f>
         <v>-0.13649871427878313</v>
       </c>
-      <c r="AH31" s="9">
-        <f t="shared" si="110"/>
+      <c r="AX31" s="9">
+        <f>+AX4/AW4-1</f>
         <v>-3.2307681502447672E-2</v>
       </c>
-      <c r="AI31" s="9">
-        <f t="shared" si="110"/>
+      <c r="AY31" s="9">
+        <f t="shared" si="144"/>
         <v>0.39331983364905176</v>
       </c>
-      <c r="AJ31" s="9">
-        <f t="shared" si="110"/>
-        <v>5.0323899715064124E-2</v>
-      </c>
-      <c r="AK31" s="9">
-        <f t="shared" ref="AK31:BB31" si="111">+AK4/AJ4-1</f>
+      <c r="AZ31" s="9">
+        <f>+AZ4/AY4-1</f>
+        <v>7.0405734139696641E-2</v>
+      </c>
+      <c r="BA31" s="9">
+        <f>+BA4/AZ4-1</f>
         <v>6.6800000000000193E-2</v>
       </c>
-      <c r="AL31" s="9">
-        <f t="shared" si="111"/>
+      <c r="BB31" s="9">
+        <f t="shared" ref="BB31:BR31" si="145">+BB4/BA4-1</f>
         <v>6.6799999999999971E-2</v>
       </c>
-      <c r="AM31" s="9">
-        <f t="shared" si="111"/>
-        <v>6.6800000000000193E-2</v>
-      </c>
-      <c r="AN31" s="9">
-        <f t="shared" si="111"/>
+      <c r="BC31" s="9">
+        <f t="shared" si="145"/>
+        <v>6.6799999999999971E-2</v>
+      </c>
+      <c r="BD31" s="9">
+        <f t="shared" si="145"/>
+        <v>5.6640000000000024E-2</v>
+      </c>
+      <c r="BE31" s="9">
+        <f t="shared" si="145"/>
         <v>5.6640000000000246E-2</v>
       </c>
-      <c r="AO31" s="9">
-        <f t="shared" si="111"/>
+      <c r="BF31" s="9">
+        <f t="shared" si="145"/>
         <v>5.6640000000000024E-2</v>
       </c>
-      <c r="AP31" s="9">
-        <f t="shared" si="111"/>
+      <c r="BG31" s="9">
+        <f t="shared" si="145"/>
         <v>5.6640000000000024E-2</v>
       </c>
-      <c r="AQ31" s="9">
-        <f t="shared" si="111"/>
-        <v>5.6640000000000024E-2</v>
-      </c>
-      <c r="AR31" s="9">
-        <f t="shared" si="111"/>
-        <v>4.6479999999999855E-2</v>
-      </c>
-      <c r="AS31" s="9">
-        <f t="shared" si="111"/>
-        <v>4.6480000000000299E-2</v>
-      </c>
-      <c r="AT31" s="9">
-        <f t="shared" si="111"/>
+      <c r="BH31" s="9">
+        <f t="shared" si="145"/>
         <v>4.6480000000000077E-2</v>
       </c>
-      <c r="AU31" s="9">
-        <f t="shared" si="111"/>
+      <c r="BI31" s="9">
+        <f t="shared" si="145"/>
         <v>4.6480000000000077E-2</v>
       </c>
-      <c r="AV31" s="9">
-        <f t="shared" si="111"/>
+      <c r="BJ31" s="9">
+        <f t="shared" si="145"/>
+        <v>4.6480000000000077E-2</v>
+      </c>
+      <c r="BK31" s="9">
+        <f t="shared" si="145"/>
+        <v>4.6480000000000077E-2</v>
+      </c>
+      <c r="BL31" s="9">
+        <f t="shared" si="145"/>
         <v>3.632000000000013E-2</v>
       </c>
-      <c r="AW31" s="9">
-        <f t="shared" si="111"/>
-        <v>3.6319999999999686E-2</v>
-      </c>
-      <c r="AX31" s="9">
-        <f t="shared" si="111"/>
-        <v>3.6320000000000352E-2</v>
-      </c>
-      <c r="AY31" s="9">
-        <f t="shared" si="111"/>
+      <c r="BM31" s="9">
+        <f t="shared" si="145"/>
+        <v>3.632000000000013E-2</v>
+      </c>
+      <c r="BN31" s="9">
+        <f t="shared" si="145"/>
         <v>3.6319999999999908E-2</v>
       </c>
-      <c r="AZ31" s="9">
-        <f t="shared" si="111"/>
+      <c r="BO31" s="9">
+        <f t="shared" si="145"/>
+        <v>3.6319999999999908E-2</v>
+      </c>
+      <c r="BP31" s="9">
+        <f t="shared" si="145"/>
         <v>3.632000000000013E-2</v>
       </c>
-      <c r="BA31" s="9">
-        <f t="shared" si="111"/>
+      <c r="BQ31" s="9">
+        <f t="shared" si="145"/>
         <v>3.6319999999999908E-2</v>
       </c>
-      <c r="BB31" s="9">
-        <f t="shared" si="111"/>
-        <v>3.6320000000000352E-2</v>
-      </c>
-      <c r="BD31" s="4" t="s">
+      <c r="BR31" s="9">
+        <f t="shared" si="145"/>
+        <v>3.632000000000013E-2</v>
+      </c>
+      <c r="BT31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="BE31" s="19">
+      <c r="BU31" s="15">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="32" spans="2:166" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
         <v>73</v>
       </c>
@@ -5466,97 +6963,173 @@
         <v>0.23955957530475813</v>
       </c>
       <c r="P32" s="9">
-        <f t="shared" ref="P32:V32" si="112">+P13/L13-1</f>
+        <f t="shared" ref="P32:W32" si="146">+P13/L13-1</f>
         <v>0.26618219958046141</v>
       </c>
       <c r="Q32" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="146"/>
         <v>0.32912739434478566</v>
       </c>
       <c r="R32" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="146"/>
         <v>0.25623754209911342</v>
       </c>
       <c r="S32" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="146"/>
         <v>0.23824630416851722</v>
       </c>
       <c r="T32" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="146"/>
         <v>0.17277084196201398</v>
       </c>
       <c r="U32" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="146"/>
         <v>0.12112547180601618</v>
       </c>
       <c r="V32" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="146"/>
+        <v>4.984406631285232E-2</v>
+      </c>
+      <c r="W32" s="9">
+        <f t="shared" si="146"/>
+        <v>6.4050010248001721E-2</v>
+      </c>
+      <c r="AW32" s="9">
+        <f>+AW13/AV13-1</f>
+        <v>0.16461205595250084</v>
+      </c>
+      <c r="AX32" s="9">
+        <f t="shared" ref="AX32:AZ32" si="147">+AX13/AW13-1</f>
+        <v>0.16152167807997242</v>
+      </c>
+      <c r="AY32" s="9">
+        <f t="shared" si="147"/>
+        <v>0.27259708376729663</v>
+      </c>
+      <c r="AZ32" s="9">
+        <f t="shared" si="147"/>
+        <v>0.14181951041286078</v>
+      </c>
+      <c r="BA32" s="9">
+        <f>+BA13/AZ13-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="BB32" s="9">
+        <f t="shared" ref="BB32:BR32" si="148">+BB13/BA13-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="BC32" s="9">
+        <f t="shared" si="148"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="BD32" s="9">
+        <f t="shared" si="148"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AG32" s="9">
-        <f>+AG13/AF13-1</f>
-        <v>0.16461205595250084</v>
-      </c>
-      <c r="AH32" s="9">
-        <f t="shared" ref="AH32:AJ32" si="113">+AH13/AG13-1</f>
-        <v>0.16152167807997242</v>
-      </c>
-      <c r="AI32" s="9">
-        <f t="shared" si="113"/>
-        <v>0.27259708376729663</v>
-      </c>
-      <c r="AJ32" s="9">
-        <f t="shared" si="113"/>
-        <v>0.15521666057727423</v>
-      </c>
-      <c r="BD32" s="4" t="s">
+      <c r="BE32" s="9">
+        <f t="shared" si="148"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="BF32" s="9">
+        <f t="shared" si="148"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="BG32" s="9">
+        <f t="shared" si="148"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BH32" s="9">
+        <f t="shared" si="148"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BI32" s="9">
+        <f t="shared" si="148"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BJ32" s="9">
+        <f t="shared" si="148"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BK32" s="9">
+        <f t="shared" si="148"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BL32" s="9">
+        <f t="shared" si="148"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BM32" s="9">
+        <f t="shared" si="148"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BN32" s="9">
+        <f t="shared" si="148"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BO32" s="9">
+        <f t="shared" si="148"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BP32" s="9">
+        <f t="shared" si="148"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BQ32" s="9">
+        <f t="shared" si="148"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BR32" s="9">
+        <f t="shared" si="148"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BT32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="BE32" s="8">
-        <f>NPV(BE30,AK26:FJ26)+Main!O5-Main!O6</f>
-        <v>2814319.3601911175</v>
+      <c r="BU32" s="8">
+        <f>NPV(BU30,BA26:FZ26)+Main!O5-Main!O6</f>
+        <v>2836615.7386412835</v>
       </c>
     </row>
-    <row r="33" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5">
-        <f t="shared" ref="E33" si="114">+E18/E14</f>
+        <f t="shared" ref="E33" si="149">+E18/E14</f>
         <v>0.38338496198254013</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" ref="K33" si="115">+K18/K14</f>
+        <f t="shared" ref="K33" si="150">+K18/K14</f>
         <v>0.38354806739345887</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" ref="L33:N33" si="116">+L18/L14</f>
+        <f t="shared" ref="L33:N33" si="151">+L18/L14</f>
         <v>0.38361943305952362</v>
       </c>
       <c r="M33" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="151"/>
         <v>0.37999497361146017</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="151"/>
         <v>0.38160375900336951</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" ref="O33:Q33" si="117">+O18/O14</f>
+        <f t="shared" ref="O33:Q33" si="152">+O18/O14</f>
         <v>0.39777815665969724</v>
       </c>
       <c r="P33" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="152"/>
         <v>0.42506474370423292</v>
       </c>
       <c r="Q33" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="152"/>
         <v>0.43292727853230839</v>
       </c>
       <c r="R33" s="5">
-        <f t="shared" ref="R33" si="118">+R18/R14</f>
+        <f t="shared" ref="R33" si="153">+R18/R14</f>
         <v>0.42195297504798462</v>
       </c>
       <c r="S33" s="5">
@@ -5572,240 +7145,684 @@
         <v>0.43256307332537758</v>
       </c>
       <c r="V33" s="5">
-        <f t="shared" ref="V33" si="119">+V18/V14</f>
-        <v>0.43398977653080495</v>
+        <f t="shared" ref="V33:W33" si="154">+V18/V14</f>
+        <v>0.4225922392563175</v>
+      </c>
+      <c r="W33" s="5">
+        <f t="shared" si="154"/>
+        <v>0.42962254809908323</v>
+      </c>
+      <c r="AD33" s="5">
+        <f t="shared" ref="AD33:AF33" si="155">+AD18/AD14</f>
+        <v>0.27132656895903795</v>
+      </c>
+      <c r="AE33" s="5">
+        <f t="shared" si="155"/>
+        <v>0.23028155882901361</v>
       </c>
       <c r="AF33" s="5">
-        <f t="shared" ref="AF33:AJ33" si="120">+AF18/AF14</f>
+        <f t="shared" ref="AF33:AJ33" si="156">+AF18/AF14</f>
+        <v>0.27917102055033088</v>
+      </c>
+      <c r="AG33" s="5">
+        <f t="shared" si="156"/>
+        <v>0.27517319155791847</v>
+      </c>
+      <c r="AH33" s="5">
+        <f t="shared" si="156"/>
+        <v>0.27285904094697427</v>
+      </c>
+      <c r="AI33" s="5">
+        <f t="shared" si="156"/>
+        <v>0.29021606489124974</v>
+      </c>
+      <c r="AJ33" s="5">
+        <f t="shared" ref="AJ33:AL33" si="157">+AJ18/AJ14</f>
+        <v>0.28982655966865128</v>
+      </c>
+      <c r="AK33" s="5">
+        <f t="shared" si="157"/>
+        <v>0.33966508372906773</v>
+      </c>
+      <c r="AL33" s="5">
+        <f t="shared" si="157"/>
+        <v>0.35200448107545812</v>
+      </c>
+      <c r="AM33" s="5">
+        <f t="shared" ref="AM33:AN33" si="158">+AM18/AM14</f>
+        <v>0.40139843841044165</v>
+      </c>
+      <c r="AN33" s="5">
+        <f t="shared" si="158"/>
+        <v>0.39377539287083174</v>
+      </c>
+      <c r="AO33" s="5">
+        <f t="shared" ref="AO33:AR33" si="159">+AO18/AO14</f>
+        <v>0.40478895878945764</v>
+      </c>
+      <c r="AP33" s="5">
+        <f t="shared" si="159"/>
+        <v>0.43871239808827661</v>
+      </c>
+      <c r="AQ33" s="5">
+        <f t="shared" si="159"/>
+        <v>0.37624480720847231</v>
+      </c>
+      <c r="AR33" s="5">
+        <f t="shared" si="159"/>
+        <v>0.38588035777783858</v>
+      </c>
+      <c r="AS33" s="5">
+        <f>+AS18/AS14</f>
+        <v>0.40059902017414373</v>
+      </c>
+      <c r="AT33" s="5">
+        <f>+AT18/AT14</f>
+        <v>0.39075955648097049</v>
+      </c>
+      <c r="AU33" s="5">
+        <f>+AU18/AU14</f>
+        <v>0.38469860491899105</v>
+      </c>
+      <c r="AV33" s="5">
+        <f t="shared" ref="AV33:AZ33" si="160">+AV18/AV14</f>
         <v>0.38343718820007905</v>
       </c>
-      <c r="AG33" s="5">
-        <f t="shared" si="120"/>
+      <c r="AW33" s="5">
+        <f t="shared" si="160"/>
         <v>0.37817768109034722</v>
       </c>
-      <c r="AH33" s="5">
-        <f t="shared" si="120"/>
+      <c r="AX33" s="5">
+        <f t="shared" si="160"/>
         <v>0.38233247727810865</v>
       </c>
-      <c r="AI33" s="5">
-        <f t="shared" si="120"/>
+      <c r="AY33" s="5">
+        <f t="shared" si="160"/>
         <v>0.41779359625167778</v>
       </c>
-      <c r="AJ33" s="5">
-        <f t="shared" si="120"/>
-        <v>0.43572995257419433</v>
-      </c>
-      <c r="BD33" s="4" t="s">
+      <c r="AZ33" s="5">
+        <f t="shared" si="160"/>
+        <v>0.43309630561360085</v>
+      </c>
+      <c r="BA33" s="5">
+        <f>+BA18/BA14</f>
+        <v>0.43814594688982383</v>
+      </c>
+      <c r="BB33" s="5">
+        <f t="shared" ref="BB33:BK33" si="161">+BB18/BB14</f>
+        <v>0.44320522630441817</v>
+      </c>
+      <c r="BC33" s="5">
+        <f t="shared" si="161"/>
+        <v>0.44848504843503167</v>
+      </c>
+      <c r="BD33" s="5">
+        <f t="shared" si="161"/>
+        <v>0.45133504990031753</v>
+      </c>
+      <c r="BE33" s="5">
+        <f t="shared" si="161"/>
+        <v>0.4542411745897581</v>
+      </c>
+      <c r="BF33" s="5">
+        <f t="shared" si="161"/>
+        <v>0.45720248584937162</v>
+      </c>
+      <c r="BG33" s="5">
+        <f t="shared" si="161"/>
+        <v>0.45685502004405087</v>
+      </c>
+      <c r="BH33" s="5">
+        <f t="shared" si="161"/>
+        <v>0.4570557592575592</v>
+      </c>
+      <c r="BI33" s="5">
+        <f t="shared" si="161"/>
+        <v>0.45725459742895053</v>
+      </c>
+      <c r="BJ33" s="5">
+        <f t="shared" si="161"/>
+        <v>0.45745151163231645</v>
+      </c>
+      <c r="BK33" s="5">
+        <f t="shared" si="161"/>
+        <v>0.45764647891819471</v>
+      </c>
+      <c r="BL33" s="5">
+        <f t="shared" ref="BL33:BR33" si="162">+BL18/BL14</f>
+        <v>0.45830423575438839</v>
+      </c>
+      <c r="BM33" s="5">
+        <f t="shared" si="162"/>
+        <v>0.45906314260506531</v>
+      </c>
+      <c r="BN33" s="5">
+        <f t="shared" si="162"/>
+        <v>0.45982421866515938</v>
+      </c>
+      <c r="BO33" s="5">
+        <f t="shared" si="162"/>
+        <v>0.46058741504297213</v>
+      </c>
+      <c r="BP33" s="5">
+        <f t="shared" si="162"/>
+        <v>0.46135268227089493</v>
+      </c>
+      <c r="BQ33" s="5">
+        <f t="shared" si="162"/>
+        <v>0.46211997031717877</v>
+      </c>
+      <c r="BR33" s="5">
+        <f t="shared" si="162"/>
+        <v>0.46288922859802623</v>
+      </c>
+      <c r="BT33" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BE33" s="6">
-        <f>BE32/Main!O3</f>
-        <v>175.12057682124131</v>
+      <c r="BU33" s="6">
+        <f>BU32/Main!O3</f>
+        <v>176.50796544189615</v>
       </c>
     </row>
-    <row r="34" spans="2:57" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="15" t="s">
+    <row r="34" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17" t="s">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="5">
         <f>(K13-K16)/K13</f>
         <v>0.64396382225717652</v>
       </c>
-      <c r="L34" s="16">
-        <f t="shared" ref="L34:U34" si="121">(L13-L16)/L13</f>
+      <c r="L34" s="5">
+        <f t="shared" ref="L34:U34" si="163">(L13-L16)/L13</f>
         <v>0.65373089601438417</v>
       </c>
-      <c r="M34" s="16">
-        <f t="shared" si="121"/>
+      <c r="M34" s="5">
+        <f t="shared" si="163"/>
         <v>0.67224080267558528</v>
       </c>
-      <c r="N34" s="16">
-        <f t="shared" si="121"/>
+      <c r="N34" s="5">
+        <f t="shared" si="163"/>
         <v>0.66925561894288266</v>
       </c>
-      <c r="O34" s="16">
-        <f t="shared" si="121"/>
+      <c r="O34" s="5">
+        <f t="shared" si="163"/>
         <v>0.6839667533785927</v>
       </c>
-      <c r="P34" s="16">
-        <f t="shared" si="121"/>
+      <c r="P34" s="5">
+        <f t="shared" si="163"/>
         <v>0.70072776758771671</v>
       </c>
-      <c r="Q34" s="16">
-        <f t="shared" si="121"/>
+      <c r="Q34" s="5">
+        <f t="shared" si="163"/>
         <v>0.69804414960539862</v>
       </c>
-      <c r="R34" s="16">
-        <f t="shared" si="121"/>
+      <c r="R34" s="5">
+        <f t="shared" si="163"/>
         <v>0.704765552333534</v>
       </c>
-      <c r="S34" s="16">
-        <f t="shared" si="121"/>
+      <c r="S34" s="5">
+        <f t="shared" si="163"/>
         <v>0.72366263578602175</v>
       </c>
-      <c r="T34" s="16">
-        <f t="shared" si="121"/>
+      <c r="T34" s="5">
+        <f t="shared" si="163"/>
         <v>0.72609858231168967</v>
       </c>
-      <c r="U34" s="16">
-        <f t="shared" si="121"/>
+      <c r="U34" s="5">
+        <f t="shared" si="163"/>
         <v>0.71490512140379514</v>
       </c>
-      <c r="V34" s="16">
-        <f t="shared" ref="V34" si="122">(V13-V16)/V13</f>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="AF34" s="16">
-        <f t="shared" ref="AF34:AJ34" si="123">(AF13-AF16)/AF13</f>
+      <c r="V34" s="5">
+        <f t="shared" ref="V34:W34" si="164">(V13-V16)/V13</f>
+        <v>0.70481550969355844</v>
+      </c>
+      <c r="W34" s="5">
+        <f t="shared" si="164"/>
+        <v>0.70832129442357705</v>
+      </c>
+      <c r="AD34" s="5">
+        <f t="shared" ref="AD34:AF34" si="165">(AD13-AD16)/AD13</f>
+        <v>1</v>
+      </c>
+      <c r="AE34" s="5">
+        <f t="shared" si="165"/>
+        <v>1</v>
+      </c>
+      <c r="AF34" s="5">
+        <f t="shared" ref="AF34:AJ34" si="166">(AF13-AF16)/AF13</f>
+        <v>1</v>
+      </c>
+      <c r="AG34" s="5">
+        <f t="shared" si="166"/>
+        <v>1</v>
+      </c>
+      <c r="AH34" s="5">
+        <f t="shared" si="166"/>
+        <v>1</v>
+      </c>
+      <c r="AI34" s="5">
+        <f t="shared" si="166"/>
+        <v>1</v>
+      </c>
+      <c r="AJ34" s="5">
+        <f t="shared" ref="AJ34:AL34" si="167">(AJ13-AJ16)/AJ13</f>
+        <v>1</v>
+      </c>
+      <c r="AK34" s="5">
+        <f t="shared" si="167"/>
+        <v>1</v>
+      </c>
+      <c r="AL34" s="5">
+        <f t="shared" si="167"/>
+        <v>1</v>
+      </c>
+      <c r="AM34" s="5">
+        <f t="shared" ref="AM34:AN34" si="168">(AM13-AM16)/AM13</f>
+        <v>1</v>
+      </c>
+      <c r="AN34" s="5">
+        <f t="shared" si="168"/>
+        <v>1</v>
+      </c>
+      <c r="AO34" s="5">
+        <f t="shared" ref="AO34:AR34" si="169">(AO13-AO16)/AO13</f>
+        <v>1</v>
+      </c>
+      <c r="AP34" s="5">
+        <f t="shared" si="169"/>
+        <v>1</v>
+      </c>
+      <c r="AQ34" s="5">
+        <f t="shared" si="169"/>
+        <v>1</v>
+      </c>
+      <c r="AR34" s="5">
+        <f t="shared" si="169"/>
+        <v>1</v>
+      </c>
+      <c r="AS34" s="5">
+        <f>(AS13-AS16)/AS13</f>
+        <v>1</v>
+      </c>
+      <c r="AT34" s="5">
+        <f>(AT13-AT16)/AT13</f>
+        <v>1</v>
+      </c>
+      <c r="AU34" s="5">
+        <f>(AU13-AU16)/AU13</f>
+        <v>1</v>
+      </c>
+      <c r="AV34" s="5">
+        <f t="shared" ref="AV34:AZ34" si="170">(AV13-AV16)/AV13</f>
         <v>0.60772869075173597</v>
       </c>
-      <c r="AG34" s="16">
-        <f t="shared" si="123"/>
+      <c r="AW34" s="5">
+        <f t="shared" si="170"/>
         <v>0.63738091637683347</v>
       </c>
-      <c r="AH34" s="16">
-        <f t="shared" si="123"/>
+      <c r="AX34" s="5">
+        <f t="shared" si="170"/>
         <v>0.66015101919357233</v>
       </c>
-      <c r="AI34" s="16">
-        <f t="shared" si="123"/>
+      <c r="AY34" s="5">
+        <f t="shared" si="170"/>
         <v>0.69725977347460721</v>
       </c>
-      <c r="AJ34" s="16">
-        <f t="shared" si="123"/>
-        <v>0.71608310129456754</v>
-      </c>
-      <c r="BD34" s="4" t="s">
+      <c r="AZ34" s="5">
+        <f t="shared" si="170"/>
+        <v>0.71745446633132381</v>
+      </c>
+      <c r="BA34" s="5">
+        <f>(BA13-BA16)/BA13</f>
+        <v>0.73</v>
+      </c>
+      <c r="BB34" s="5">
+        <f t="shared" ref="BB34:BK34" si="171">(BB13-BB16)/BB13</f>
+        <v>0.73</v>
+      </c>
+      <c r="BC34" s="5">
+        <f t="shared" si="171"/>
+        <v>0.73</v>
+      </c>
+      <c r="BD34" s="5">
+        <f t="shared" si="171"/>
+        <v>0.73000000000000009</v>
+      </c>
+      <c r="BE34" s="5">
+        <f t="shared" si="171"/>
+        <v>0.72999999999999987</v>
+      </c>
+      <c r="BF34" s="5">
+        <f t="shared" si="171"/>
+        <v>0.73</v>
+      </c>
+      <c r="BG34" s="5">
+        <f t="shared" si="171"/>
+        <v>0.73</v>
+      </c>
+      <c r="BH34" s="5">
+        <f t="shared" si="171"/>
+        <v>0.73000000000000009</v>
+      </c>
+      <c r="BI34" s="5">
+        <f t="shared" si="171"/>
+        <v>0.72999999999999987</v>
+      </c>
+      <c r="BJ34" s="5">
+        <f t="shared" si="171"/>
+        <v>0.73000000000000009</v>
+      </c>
+      <c r="BK34" s="5">
+        <f t="shared" si="171"/>
+        <v>0.72999999999999987</v>
+      </c>
+      <c r="BL34" s="5">
+        <f t="shared" ref="BL34:BR34" si="172">(BL13-BL16)/BL13</f>
+        <v>0.73</v>
+      </c>
+      <c r="BM34" s="5">
+        <f t="shared" si="172"/>
+        <v>0.73</v>
+      </c>
+      <c r="BN34" s="5">
+        <f t="shared" si="172"/>
+        <v>0.73</v>
+      </c>
+      <c r="BO34" s="5">
+        <f t="shared" si="172"/>
+        <v>0.73</v>
+      </c>
+      <c r="BP34" s="5">
+        <f t="shared" si="172"/>
+        <v>0.73</v>
+      </c>
+      <c r="BQ34" s="5">
+        <f t="shared" si="172"/>
+        <v>0.73</v>
+      </c>
+      <c r="BR34" s="5">
+        <f t="shared" si="172"/>
+        <v>0.73</v>
+      </c>
+      <c r="BT34" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="BE34" s="16">
-        <f>BE33/Main!O2-1</f>
-        <v>2.9939286133278342E-2</v>
+      <c r="BU34" s="5">
+        <f>BU33/Main!O2-1</f>
+        <v>0.14615561975257241</v>
       </c>
     </row>
-    <row r="35" spans="2:57" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="15" t="s">
+    <row r="35" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17" t="s">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="5">
         <f>(K12-K15)/K12</f>
         <v>0.3416894215210356</v>
       </c>
-      <c r="L35" s="16">
-        <f t="shared" ref="L35:V35" si="124">(L12-L15)/L12</f>
+      <c r="L35" s="5">
+        <f t="shared" ref="L35:V35" si="173">(L12-L15)/L12</f>
         <v>0.30343600578227509</v>
       </c>
-      <c r="M35" s="16">
-        <f t="shared" si="124"/>
+      <c r="M35" s="5">
+        <f t="shared" si="173"/>
         <v>0.29736293494379851</v>
       </c>
-      <c r="N35" s="16">
-        <f t="shared" si="124"/>
+      <c r="N35" s="5">
+        <f t="shared" si="173"/>
         <v>0.2981515085046561</v>
       </c>
-      <c r="O35" s="16">
-        <f t="shared" si="124"/>
+      <c r="O35" s="5">
+        <f t="shared" si="173"/>
         <v>0.35063441961579467</v>
       </c>
-      <c r="P35" s="16">
-        <f t="shared" si="124"/>
+      <c r="P35" s="5">
+        <f t="shared" si="173"/>
         <v>0.3609647372838215</v>
       </c>
-      <c r="Q35" s="16">
-        <f t="shared" si="124"/>
+      <c r="Q35" s="5">
+        <f t="shared" si="173"/>
         <v>0.36043347720022517</v>
       </c>
-      <c r="R35" s="16">
-        <f t="shared" si="124"/>
+      <c r="R35" s="5">
+        <f t="shared" si="173"/>
         <v>0.34253184395310604</v>
       </c>
-      <c r="S35" s="16">
-        <f t="shared" si="124"/>
+      <c r="S35" s="5">
+        <f t="shared" si="173"/>
         <v>0.38418446983117716</v>
       </c>
-      <c r="T35" s="16">
-        <f t="shared" si="124"/>
+      <c r="T35" s="5">
+        <f t="shared" si="173"/>
         <v>0.36364692668190091</v>
       </c>
-      <c r="U35" s="16">
-        <f t="shared" si="124"/>
+      <c r="U35" s="5">
+        <f t="shared" si="173"/>
         <v>0.34519769552521506</v>
       </c>
-      <c r="V35" s="16">
-        <f t="shared" si="124"/>
-        <v>0.35</v>
-      </c>
-      <c r="AF35" s="16">
-        <f t="shared" ref="AF35:AJ35" si="125">(AF12-AF15)/AF12</f>
+      <c r="V35" s="5">
+        <f t="shared" si="173"/>
+        <v>0.34627526142224979</v>
+      </c>
+      <c r="W35" s="5">
+        <f t="shared" ref="W35" si="174">(W12-W15)/W12</f>
+        <v>0.36957920073038136</v>
+      </c>
+      <c r="AD35" s="5">
+        <f t="shared" ref="AD35:AF35" si="175">(AD12-AD15)/AD12</f>
+        <v>1</v>
+      </c>
+      <c r="AE35" s="5">
+        <f t="shared" si="175"/>
+        <v>1</v>
+      </c>
+      <c r="AF35" s="5">
+        <f t="shared" ref="AF35:AJ35" si="176">(AF12-AF15)/AF12</f>
+        <v>1</v>
+      </c>
+      <c r="AG35" s="5">
+        <f t="shared" si="176"/>
+        <v>1</v>
+      </c>
+      <c r="AH35" s="5">
+        <f t="shared" si="176"/>
+        <v>1</v>
+      </c>
+      <c r="AI35" s="5">
+        <f t="shared" si="176"/>
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="5">
+        <f t="shared" ref="AJ35:AL35" si="177">(AJ12-AJ15)/AJ12</f>
+        <v>1</v>
+      </c>
+      <c r="AK35" s="5">
+        <f t="shared" si="177"/>
+        <v>1</v>
+      </c>
+      <c r="AL35" s="5">
+        <f t="shared" si="177"/>
+        <v>1</v>
+      </c>
+      <c r="AM35" s="5">
+        <f t="shared" ref="AM35:AN35" si="178">(AM12-AM15)/AM12</f>
+        <v>1</v>
+      </c>
+      <c r="AN35" s="5">
+        <f t="shared" si="178"/>
+        <v>1</v>
+      </c>
+      <c r="AO35" s="5">
+        <f t="shared" ref="AO35:AR35" si="179">(AO12-AO15)/AO12</f>
+        <v>1</v>
+      </c>
+      <c r="AP35" s="5">
+        <f t="shared" si="179"/>
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="5">
+        <f t="shared" si="179"/>
+        <v>1</v>
+      </c>
+      <c r="AR35" s="5">
+        <f t="shared" si="179"/>
+        <v>1</v>
+      </c>
+      <c r="AS35" s="5">
+        <f>(AS12-AS15)/AS12</f>
+        <v>1</v>
+      </c>
+      <c r="AT35" s="5">
+        <f>(AT12-AT15)/AT12</f>
+        <v>1</v>
+      </c>
+      <c r="AU35" s="5">
+        <f>(AU12-AU15)/AU12</f>
+        <v>1</v>
+      </c>
+      <c r="AV35" s="5">
+        <f t="shared" ref="AV35:AZ35" si="180">(AV12-AV15)/AV12</f>
         <v>0.34396294836770025</v>
       </c>
-      <c r="AG35" s="16">
-        <f t="shared" si="125"/>
+      <c r="AW35" s="5">
+        <f t="shared" si="180"/>
         <v>0.32207795851002652</v>
       </c>
-      <c r="AH35" s="16">
-        <f t="shared" si="125"/>
+      <c r="AX35" s="5">
+        <f t="shared" si="180"/>
         <v>0.31466339293399231</v>
       </c>
-      <c r="AI35" s="16">
-        <f t="shared" si="125"/>
+      <c r="AY35" s="5">
+        <f t="shared" si="180"/>
         <v>0.35349303276483562</v>
       </c>
-      <c r="AJ35" s="16">
-        <f t="shared" si="125"/>
-        <v>0.3639929588644269</v>
+      <c r="AZ35" s="5">
+        <f t="shared" si="180"/>
+        <v>0.36283479707399452</v>
+      </c>
+      <c r="BA35" s="5">
+        <f>(BA12-BA15)/BA12</f>
+        <v>0.36</v>
+      </c>
+      <c r="BB35" s="5">
+        <f t="shared" ref="BB35:BK35" si="181">(BB12-BB15)/BB12</f>
+        <v>0.35999999999999993</v>
+      </c>
+      <c r="BC35" s="5">
+        <f t="shared" si="181"/>
+        <v>0.35999999999999993</v>
+      </c>
+      <c r="BD35" s="5">
+        <f t="shared" si="181"/>
+        <v>0.35999999999999993</v>
+      </c>
+      <c r="BE35" s="5">
+        <f t="shared" si="181"/>
+        <v>0.36</v>
+      </c>
+      <c r="BF35" s="5">
+        <f t="shared" si="181"/>
+        <v>0.35999999999999993</v>
+      </c>
+      <c r="BG35" s="5">
+        <f t="shared" si="181"/>
+        <v>0.35999999999999993</v>
+      </c>
+      <c r="BH35" s="5">
+        <f t="shared" si="181"/>
+        <v>0.36</v>
+      </c>
+      <c r="BI35" s="5">
+        <f t="shared" si="181"/>
+        <v>0.36</v>
+      </c>
+      <c r="BJ35" s="5">
+        <f t="shared" si="181"/>
+        <v>0.36</v>
+      </c>
+      <c r="BK35" s="5">
+        <f t="shared" si="181"/>
+        <v>0.35999999999999993</v>
+      </c>
+      <c r="BL35" s="5">
+        <f t="shared" ref="BL35:BR35" si="182">(BL12-BL15)/BL12</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="BM35" s="5">
+        <f t="shared" si="182"/>
+        <v>0.36</v>
+      </c>
+      <c r="BN35" s="5">
+        <f t="shared" si="182"/>
+        <v>0.36</v>
+      </c>
+      <c r="BO35" s="5">
+        <f t="shared" si="182"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="BP35" s="5">
+        <f t="shared" si="182"/>
+        <v>0.36</v>
+      </c>
+      <c r="BQ35" s="5">
+        <f t="shared" si="182"/>
+        <v>0.36</v>
+      </c>
+      <c r="BR35" s="5">
+        <f t="shared" si="182"/>
+        <v>0.36000000000000004</v>
       </c>
     </row>
-    <row r="36" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5">
-        <f t="shared" ref="E36" si="126">+E22/E14</f>
+        <f t="shared" ref="E36" si="183">+E22/E14</f>
         <v>0.23677837228949591</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" ref="K36" si="127">+K22/K14</f>
+        <f t="shared" ref="K36" si="184">+K22/K14</f>
         <v>0.2784717759940753</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" ref="L36:N36" si="128">+L22/L14</f>
+        <f t="shared" ref="L36:N36" si="185">+L22/L14</f>
         <v>0.22041397287054346</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="185"/>
         <v>0.21933484124989527</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="185"/>
         <v>0.2283687285542057</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" ref="O36:Q36" si="129">+O22/O14</f>
+        <f t="shared" ref="O36:Q36" si="186">+O22/O14</f>
         <v>0.30091799100853384</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="186"/>
         <v>0.30700794784782998</v>
       </c>
       <c r="Q36" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="186"/>
         <v>0.29626445956234498</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" ref="R36" si="130">+R22/R14</f>
+        <f t="shared" ref="R36" si="187">+R22/R14</f>
         <v>0.28534069097888676</v>
       </c>
       <c r="S36" s="5">
@@ -5821,31 +7838,179 @@
         <v>0.27816150146457891</v>
       </c>
       <c r="V36" s="5">
-        <f t="shared" ref="V36" si="131">+V22/V14</f>
-        <v>0.28446921202228026</v>
+        <f t="shared" ref="V36:W36" si="188">+V22/V14</f>
+        <v>0.27615202005635303</v>
+      </c>
+      <c r="W36" s="5">
+        <f t="shared" si="188"/>
+        <v>0.30742441572630896</v>
+      </c>
+      <c r="AD36" s="5">
+        <f t="shared" ref="AD36:AF36" si="189">+AD22/AD14</f>
+        <v>7.7665038206188156E-2</v>
+      </c>
+      <c r="AE36" s="5">
+        <f t="shared" si="189"/>
+        <v>-6.2092112623531606E-2</v>
       </c>
       <c r="AF36" s="5">
-        <f t="shared" ref="AF36:AJ36" si="132">+AF22/AF14</f>
+        <f t="shared" ref="AF36:AJ36" si="190">+AF22/AF14</f>
+        <v>8.3594566353187051E-3</v>
+      </c>
+      <c r="AG36" s="5">
+        <f t="shared" si="190"/>
+        <v>4.0277106492669565E-3</v>
+      </c>
+      <c r="AH36" s="5">
+        <f t="shared" si="190"/>
+        <v>4.2154849619519263E-2</v>
+      </c>
+      <c r="AI36" s="5">
+        <f t="shared" si="190"/>
+        <v>0.11844088722991888</v>
+      </c>
+      <c r="AJ36" s="5">
+        <f t="shared" ref="AJ36:AL36" si="191">+AJ22/AJ14</f>
+        <v>0.1269997411338338</v>
+      </c>
+      <c r="AK36" s="5">
+        <f t="shared" si="191"/>
+        <v>0.1836624177289011</v>
+      </c>
+      <c r="AL36" s="5">
+        <f t="shared" si="191"/>
+        <v>0.22210663892667573</v>
+      </c>
+      <c r="AM36" s="5">
+        <f t="shared" ref="AM36:AN36" si="192">+AM22/AM14</f>
+        <v>0.2736277823097541</v>
+      </c>
+      <c r="AN36" s="5">
+        <f t="shared" si="192"/>
+        <v>0.28187044844768111</v>
+      </c>
+      <c r="AO36" s="5">
+        <f t="shared" ref="AO36:AR36" si="193">+AO22/AO14</f>
+        <v>0.31215068961376086</v>
+      </c>
+      <c r="AP36" s="5">
+        <f t="shared" si="193"/>
+        <v>0.35295959311984054</v>
+      </c>
+      <c r="AQ36" s="5">
+        <f t="shared" si="193"/>
+        <v>0.28669475162366159</v>
+      </c>
+      <c r="AR36" s="5">
+        <f t="shared" si="193"/>
+        <v>0.28722339232473537</v>
+      </c>
+      <c r="AS36" s="5">
+        <f>+AS22/AS14</f>
+        <v>0.30477290717326661</v>
+      </c>
+      <c r="AT36" s="5">
+        <f>+AT22/AT14</f>
+        <v>0.27835410106706115</v>
+      </c>
+      <c r="AU36" s="5">
+        <f>+AU22/AU14</f>
+        <v>0.26760428208729942</v>
+      </c>
+      <c r="AV36" s="5">
+        <f t="shared" ref="AV36:AZ36" si="194">+AV22/AV14</f>
         <v>0.26694026619477024</v>
       </c>
-      <c r="AG36" s="5">
-        <f t="shared" si="132"/>
+      <c r="AW36" s="5">
+        <f t="shared" si="194"/>
         <v>0.24572017188496928</v>
       </c>
-      <c r="AH36" s="5">
-        <f t="shared" si="132"/>
+      <c r="AX36" s="5">
+        <f t="shared" si="194"/>
         <v>0.24147314354406862</v>
       </c>
-      <c r="AI36" s="5">
-        <f t="shared" si="132"/>
+      <c r="AY36" s="5">
+        <f t="shared" si="194"/>
         <v>0.29782377527561593</v>
       </c>
-      <c r="AJ36" s="5">
-        <f t="shared" si="132"/>
-        <v>0.30512224168061097</v>
+      <c r="AZ36" s="5">
+        <f t="shared" si="194"/>
+        <v>0.30288744395528594</v>
+      </c>
+      <c r="BA36" s="5">
+        <f>+BA22/BA14</f>
+        <v>0.3138290930406451</v>
+      </c>
+      <c r="BB36" s="5">
+        <f t="shared" ref="BB36:BK36" si="195">+BB22/BB14</f>
+        <v>0.32465195469624292</v>
+      </c>
+      <c r="BC36" s="5">
+        <f t="shared" si="195"/>
+        <v>0.33556469872504729</v>
+      </c>
+      <c r="BD36" s="5">
+        <f t="shared" si="195"/>
+        <v>0.34219495390085169</v>
+      </c>
+      <c r="BE36" s="5">
+        <f t="shared" si="195"/>
+        <v>0.348794693562478</v>
+      </c>
+      <c r="BF36" s="5">
+        <f t="shared" si="195"/>
+        <v>0.35536367679691816</v>
+      </c>
+      <c r="BG36" s="5">
+        <f t="shared" si="195"/>
+        <v>0.35731310283578299</v>
+      </c>
+      <c r="BH36" s="5">
+        <f t="shared" si="195"/>
+        <v>0.35920750023668291</v>
+      </c>
+      <c r="BI36" s="5">
+        <f t="shared" si="195"/>
+        <v>0.36107347132376644</v>
+      </c>
+      <c r="BJ36" s="5">
+        <f t="shared" si="195"/>
+        <v>0.36291137560885367</v>
+      </c>
+      <c r="BK36" s="5">
+        <f t="shared" si="195"/>
+        <v>0.36472156749208218</v>
+      </c>
+      <c r="BL36" s="5">
+        <f t="shared" ref="BL36:BR36" si="196">+BL22/BL14</f>
+        <v>0.36653529366727688</v>
+      </c>
+      <c r="BM36" s="5">
+        <f t="shared" si="196"/>
+        <v>0.36834722023227412</v>
+      </c>
+      <c r="BN36" s="5">
+        <f t="shared" si="196"/>
+        <v>0.3701525472326227</v>
+      </c>
+      <c r="BO36" s="5">
+        <f t="shared" si="196"/>
+        <v>0.3719512579758707</v>
+      </c>
+      <c r="BP36" s="5">
+        <f t="shared" si="196"/>
+        <v>0.37374333529803333</v>
+      </c>
+      <c r="BQ36" s="5">
+        <f t="shared" si="196"/>
+        <v>0.37552876158163789</v>
+      </c>
+      <c r="BR36" s="5">
+        <f t="shared" si="196"/>
+        <v>0.37730751877393975</v>
       </c>
     </row>
-    <row r="37" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>71</v>
       </c>
@@ -5860,78 +8025,253 @@
         <v>0.14206343082027933</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" ref="L37:U37" si="133">L25/L24</f>
+        <f t="shared" ref="L37:U37" si="197">L25/L24</f>
         <v>0.14358583936048724</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="197"/>
         <v>0.14341173783968944</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="197"/>
         <v>0.14952016643178309</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="197"/>
         <v>0.14366121683194855</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="197"/>
         <v>0.1564028417407447</v>
       </c>
       <c r="Q37" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="197"/>
         <v>0.10771882309491568</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="197"/>
         <v>0.11600997935306263</v>
       </c>
       <c r="S37" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="197"/>
         <v>0.16030164157028201</v>
       </c>
       <c r="T37" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="197"/>
         <v>0.17017817445834302</v>
       </c>
       <c r="U37" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="197"/>
         <v>0.15711436746726784</v>
       </c>
       <c r="V37" s="5">
-        <f t="shared" ref="V37" si="134">V25/V24</f>
-        <v>0.15</v>
+        <f t="shared" ref="V37:W37" si="198">V25/V24</f>
+        <v>0.15963012531938192</v>
+      </c>
+      <c r="W37" s="5">
+        <f t="shared" si="198"/>
+        <v>0.15790360160570419</v>
+      </c>
+      <c r="AD37" s="5">
+        <f t="shared" ref="AD37:AF37" si="199">AD25/AD24</f>
+        <v>0.37181044957472659</v>
+      </c>
+      <c r="AE37" s="5">
+        <f t="shared" si="199"/>
+        <v>0</v>
       </c>
       <c r="AF37" s="5">
-        <f t="shared" ref="AF37:AJ37" si="135">AF25/AF24</f>
+        <f t="shared" ref="AF37:AJ37" si="200">AF25/AF24</f>
+        <v>0.1864406779661017</v>
+      </c>
+      <c r="AG37" s="5">
+        <f t="shared" si="200"/>
+        <v>0.20338983050847459</v>
+      </c>
+      <c r="AH37" s="5">
+        <f t="shared" si="200"/>
+        <v>0.26354679802955666</v>
+      </c>
+      <c r="AI37" s="5">
+        <f t="shared" si="200"/>
+        <v>0.26446280991735538</v>
+      </c>
+      <c r="AJ37" s="5">
+        <f t="shared" ref="AJ37:AL37" si="201">AJ25/AJ24</f>
+        <v>0.29418026969481903</v>
+      </c>
+      <c r="AK37" s="5">
+        <f t="shared" si="201"/>
+        <v>0.30191693290734822</v>
+      </c>
+      <c r="AL37" s="5">
+        <f t="shared" si="201"/>
+        <v>0.3160836034424947</v>
+      </c>
+      <c r="AM37" s="5">
+        <f t="shared" ref="AM37:AN37" si="202">AM25/AM24</f>
+        <v>0.31750372948781702</v>
+      </c>
+      <c r="AN37" s="5">
+        <f t="shared" si="202"/>
+        <v>0.24417475728155341</v>
+      </c>
+      <c r="AO37" s="5">
+        <f t="shared" ref="AO37:AR37" si="203">AO25/AO24</f>
+        <v>0.24215757930127174</v>
+      </c>
+      <c r="AP37" s="5">
+        <f t="shared" si="203"/>
+        <v>0.25160052364471064</v>
+      </c>
+      <c r="AQ37" s="5">
+        <f t="shared" si="203"/>
+        <v>0.26154919748778788</v>
+      </c>
+      <c r="AR37" s="5">
+        <f t="shared" si="203"/>
+        <v>0.26126058747639436</v>
+      </c>
+      <c r="AS37" s="5">
+        <f t="shared" ref="AS37:AT37" si="204">AS25/AS24</f>
+        <v>0.26368337585327173</v>
+      </c>
+      <c r="AT37" s="5">
+        <f t="shared" si="204"/>
+        <v>0.25557257381216192</v>
+      </c>
+      <c r="AU37" s="5">
+        <f t="shared" ref="AU37" si="205">AU25/AU24</f>
+        <v>0.24556476150353415</v>
+      </c>
+      <c r="AV37" s="5">
+        <f t="shared" ref="AV37:AZ37" si="206">AV25/AV24</f>
         <v>0.18342180705869443</v>
       </c>
-      <c r="AG37" s="5">
-        <f t="shared" si="135"/>
+      <c r="AW37" s="5">
+        <f t="shared" si="206"/>
         <v>0.15943836804235059</v>
       </c>
-      <c r="AH37" s="5">
-        <f t="shared" si="135"/>
+      <c r="AX37" s="5">
+        <f t="shared" si="206"/>
         <v>0.14428164731484103</v>
       </c>
-      <c r="AI37" s="5">
-        <f t="shared" si="135"/>
+      <c r="AY37" s="5">
+        <f t="shared" si="206"/>
         <v>0.13302260844085087</v>
       </c>
-      <c r="AJ37" s="5">
-        <f t="shared" si="135"/>
-        <v>0.16012100498036971</v>
+      <c r="AZ37" s="5">
+        <f t="shared" si="206"/>
+        <v>0.16204461684424407</v>
+      </c>
+      <c r="BA37" s="5">
+        <f>BA25/BA24</f>
+        <v>0.2</v>
+      </c>
+      <c r="BB37" s="5">
+        <f t="shared" ref="BB37:BK37" si="207">BB25/BB24</f>
+        <v>0.2</v>
+      </c>
+      <c r="BC37" s="5">
+        <f t="shared" si="207"/>
+        <v>0.2</v>
+      </c>
+      <c r="BD37" s="5">
+        <f t="shared" si="207"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="BE37" s="5">
+        <f t="shared" si="207"/>
+        <v>0.2</v>
+      </c>
+      <c r="BF37" s="5">
+        <f t="shared" si="207"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="BG37" s="5">
+        <f t="shared" si="207"/>
+        <v>0.2</v>
+      </c>
+      <c r="BH37" s="5">
+        <f t="shared" si="207"/>
+        <v>0.2</v>
+      </c>
+      <c r="BI37" s="5">
+        <f t="shared" si="207"/>
+        <v>0.2</v>
+      </c>
+      <c r="BJ37" s="5">
+        <f t="shared" si="207"/>
+        <v>0.2</v>
+      </c>
+      <c r="BK37" s="5">
+        <f t="shared" si="207"/>
+        <v>0.2</v>
+      </c>
+      <c r="BL37" s="5">
+        <f t="shared" ref="BL37:BR37" si="208">BL25/BL24</f>
+        <v>0.2</v>
+      </c>
+      <c r="BM37" s="5">
+        <f t="shared" si="208"/>
+        <v>0.2</v>
+      </c>
+      <c r="BN37" s="5">
+        <f t="shared" si="208"/>
+        <v>0.2</v>
+      </c>
+      <c r="BO37" s="5">
+        <f t="shared" si="208"/>
+        <v>0.2</v>
+      </c>
+      <c r="BP37" s="5">
+        <f t="shared" si="208"/>
+        <v>0.2</v>
+      </c>
+      <c r="BQ37" s="5">
+        <f t="shared" si="208"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="BR37" s="5">
+        <f t="shared" si="208"/>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>10211</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>10912</v>
+      </c>
+      <c r="AH39" s="2">
+        <v>11695</v>
+      </c>
+      <c r="AI39" s="2">
+        <v>14800</v>
+      </c>
+      <c r="AJ39" s="2">
+        <v>17787</v>
+      </c>
+    </row>
+    <row r="41" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{8359FE81-84D5-48DA-AAE3-BF56C6A2A8A2}"/>
+    <hyperlink ref="AK14" r:id="rId1" display="https://www.sec.gov/Archives/edgar/data/320193/000119312509214859/d10k.htm" xr:uid="{1A2D57EA-F6B6-4F02-8D6C-CB632A8858FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2B15CB-BF40-424C-9BC4-8A3ED80761E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A668D58-BF59-49C0-84DE-B8AD5117791A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29835" yWindow="0" windowWidth="26460" windowHeight="20880" activeTab="1" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
+    <workbookView xWindow="22335" yWindow="3135" windowWidth="28005" windowHeight="15345" activeTab="1" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1043,10 +1043,10 @@
   <dimension ref="A1:FZ41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2617,91 +2617,91 @@
         <v>96388</v>
       </c>
       <c r="AD12" s="2">
-        <f>SUM(AD8:AD10)+AD4</f>
+        <f t="shared" ref="AD12:AM12" si="17">SUM(AD8:AD10)+AD4</f>
         <v>6885</v>
       </c>
       <c r="AE12" s="2">
-        <f>SUM(AE8:AE10)+AE4</f>
+        <f t="shared" si="17"/>
         <v>4790</v>
       </c>
       <c r="AF12" s="2">
-        <f>SUM(AF8:AF10)+AF4</f>
+        <f t="shared" si="17"/>
         <v>5208</v>
       </c>
       <c r="AG12" s="2">
-        <f>SUM(AG8:AG10)+AG4</f>
+        <f t="shared" si="17"/>
         <v>5527</v>
       </c>
       <c r="AH12" s="2">
-        <f>SUM(AH8:AH10)+AH4</f>
+        <f t="shared" si="17"/>
         <v>7180</v>
       </c>
       <c r="AI12" s="2">
-        <f>SUM(AI8:AI10)+AI4</f>
+        <f t="shared" si="17"/>
         <v>11941</v>
       </c>
       <c r="AJ12" s="2">
-        <f>SUM(AJ8:AJ10)+AJ4</f>
+        <f t="shared" si="17"/>
         <v>16151</v>
       </c>
       <c r="AK12" s="2">
-        <f>SUM(AK8:AK10)+AK4</f>
+        <f t="shared" si="17"/>
         <v>20002</v>
       </c>
       <c r="AL12" s="2">
-        <f>SUM(AL8:AL10)+AL4</f>
+        <f t="shared" si="17"/>
         <v>31943</v>
       </c>
       <c r="AM12" s="2">
-        <f>SUM(AM8:AM10)+AM4</f>
+        <f t="shared" si="17"/>
         <v>36458</v>
       </c>
       <c r="AN12" s="2">
-        <f t="shared" ref="AN12:AY12" si="17">SUM(AN8:AN10)+AN4</f>
+        <f t="shared" ref="AN12:AY12" si="18">SUM(AN8:AN10)+AN4</f>
         <v>57704</v>
       </c>
       <c r="AO12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>98876</v>
       </c>
       <c r="AP12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>143618</v>
       </c>
       <c r="AQ12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>154859</v>
       </c>
       <c r="AR12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>164732</v>
       </c>
       <c r="AS12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>213806</v>
       </c>
       <c r="AT12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>191291</v>
       </c>
       <c r="AU12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>199254</v>
       </c>
       <c r="AV12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>225847</v>
       </c>
       <c r="AW12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>213883</v>
       </c>
       <c r="AX12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>220747</v>
       </c>
       <c r="AY12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>297392</v>
       </c>
       <c r="AZ12" s="2">
@@ -2709,75 +2709,75 @@
         <v>316199</v>
       </c>
       <c r="BA12" s="2">
-        <f t="shared" ref="BA12:BR12" si="18">SUM(BA8:BA10)+BA4</f>
+        <f t="shared" ref="BA12:BR12" si="19">SUM(BA8:BA10)+BA4</f>
         <v>335559.37520000001</v>
       </c>
       <c r="BB12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>356146.41173535999</v>
       </c>
       <c r="BC12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>378039.65610360203</v>
       </c>
       <c r="BD12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>398789.16394719342</v>
       </c>
       <c r="BE12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>420707.14437980758</v>
       </c>
       <c r="BF12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>443860.88938318932</v>
       </c>
       <c r="BG12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>468321.64340600144</v>
       </c>
       <c r="BH12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>490360.03104041866</v>
       </c>
       <c r="BI12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>513451.03982447553</v>
       </c>
       <c r="BJ12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>537645.77336408908</v>
       </c>
       <c r="BK12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>562997.86047372594</v>
       </c>
       <c r="BL12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>585774.24534022796</v>
       </c>
       <c r="BM12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>608646.21231456613</v>
       </c>
       <c r="BN12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>632424.56578630989</v>
       </c>
       <c r="BO12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>657145.8433193987</v>
       </c>
       <c r="BP12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>682848.08375335229</v>
       </c>
       <c r="BQ12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>709570.8901752003</v>
       </c>
       <c r="BR12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>737355.49559019366</v>
       </c>
     </row>
@@ -2912,7 +2912,7 @@
         <v>53768</v>
       </c>
       <c r="AY13" s="7">
-        <f t="shared" ref="AY13" si="19">SUM(O13:R13)</f>
+        <f t="shared" ref="AY13" si="20">SUM(O13:R13)</f>
         <v>68425</v>
       </c>
       <c r="AZ13" s="7">
@@ -2948,47 +2948,47 @@
         <v>166063.10013995625</v>
       </c>
       <c r="BH13" s="7">
-        <f t="shared" ref="BH13:BR13" si="20">+BG13*1.05</f>
+        <f t="shared" ref="BH13:BR13" si="21">+BG13*1.05</f>
         <v>174366.25514695406</v>
       </c>
       <c r="BI13" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>183084.56790430177</v>
       </c>
       <c r="BJ13" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>192238.79629951686</v>
       </c>
       <c r="BK13" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>201850.73611449273</v>
       </c>
       <c r="BL13" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>211943.27292021737</v>
       </c>
       <c r="BM13" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>222540.43656622825</v>
       </c>
       <c r="BN13" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>233667.45839453966</v>
       </c>
       <c r="BO13" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>245350.83131426666</v>
       </c>
       <c r="BP13" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>257618.37287998002</v>
       </c>
       <c r="BQ13" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>270499.29152397905</v>
       </c>
       <c r="BR13" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>284024.256100178</v>
       </c>
     </row>
@@ -2997,35 +2997,35 @@
         <v>8</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" ref="C14:F14" si="21">+C12+C13</f>
+        <f t="shared" ref="C14:F14" si="22">+C12+C13</f>
         <v>88293</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>61137</v>
       </c>
       <c r="E14" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>53265</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>62900</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" ref="K14:N14" si="22">+K12+K13</f>
+        <f t="shared" ref="K14:N14" si="23">+K12+K13</f>
         <v>91819</v>
       </c>
       <c r="L14" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>58313</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>59685</v>
       </c>
       <c r="N14" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>64698</v>
       </c>
       <c r="O14" s="8">
@@ -3041,11 +3041,11 @@
         <v>81434</v>
       </c>
       <c r="R14" s="8">
-        <f t="shared" ref="R14" si="23">+R12+R13</f>
+        <f t="shared" ref="R14" si="24">+R12+R13</f>
         <v>83360</v>
       </c>
       <c r="S14" s="8">
-        <f t="shared" ref="S14" si="24">+S12+S13</f>
+        <f t="shared" ref="S14" si="25">+S12+S13</f>
         <v>123945</v>
       </c>
       <c r="T14" s="8">
@@ -3053,7 +3053,7 @@
         <v>97278</v>
       </c>
       <c r="U14" s="8">
-        <f t="shared" ref="U14" si="25">+U12+U13</f>
+        <f t="shared" ref="U14" si="26">+U12+U13</f>
         <v>82959</v>
       </c>
       <c r="V14" s="8">
@@ -3065,15 +3065,15 @@
         <v>117154</v>
       </c>
       <c r="X14" s="8">
-        <f t="shared" ref="X14:Z14" si="26">+X13+X12</f>
+        <f t="shared" ref="X14:Z14" si="27">+X13+X12</f>
         <v>0</v>
       </c>
       <c r="Y14" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Z14" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB14" s="8">
@@ -3083,83 +3083,83 @@
         <v>6134</v>
       </c>
       <c r="AD14" s="8">
-        <f>+AD12+AD13</f>
+        <f t="shared" ref="AD14:AV14" si="28">+AD12+AD13</f>
         <v>7983</v>
       </c>
       <c r="AE14" s="8">
-        <f>+AE12+AE13</f>
+        <f t="shared" si="28"/>
         <v>5363</v>
       </c>
       <c r="AF14" s="8">
-        <f>+AF12+AF13</f>
+        <f t="shared" si="28"/>
         <v>5742</v>
       </c>
       <c r="AG14" s="8">
-        <f>+AG12+AG13</f>
+        <f t="shared" si="28"/>
         <v>6207</v>
       </c>
       <c r="AH14" s="8">
-        <f>+AH12+AH13</f>
+        <f t="shared" si="28"/>
         <v>8279</v>
       </c>
       <c r="AI14" s="8">
-        <f>+AI12+AI13</f>
+        <f t="shared" si="28"/>
         <v>13931</v>
       </c>
       <c r="AJ14" s="8">
-        <f>+AJ12+AJ13</f>
+        <f t="shared" si="28"/>
         <v>19315</v>
       </c>
       <c r="AK14" s="16">
-        <f>+AK12+AK13</f>
+        <f t="shared" si="28"/>
         <v>24006</v>
       </c>
       <c r="AL14" s="8">
-        <f>+AL12+AL13</f>
+        <f t="shared" si="28"/>
         <v>37491</v>
       </c>
       <c r="AM14" s="8">
-        <f>+AM12+AM13</f>
+        <f t="shared" si="28"/>
         <v>42905</v>
       </c>
       <c r="AN14" s="8">
-        <f>+AN12+AN13</f>
+        <f t="shared" si="28"/>
         <v>65225</v>
       </c>
       <c r="AO14" s="8">
-        <f>+AO12+AO13</f>
+        <f t="shared" si="28"/>
         <v>108249</v>
       </c>
       <c r="AP14" s="8">
-        <f>+AP12+AP13</f>
+        <f t="shared" si="28"/>
         <v>156508</v>
       </c>
       <c r="AQ14" s="8">
-        <f>+AQ12+AQ13</f>
+        <f t="shared" si="28"/>
         <v>170910</v>
       </c>
       <c r="AR14" s="8">
-        <f>+AR12+AR13</f>
+        <f t="shared" si="28"/>
         <v>182795</v>
       </c>
       <c r="AS14" s="8">
-        <f>+AS12+AS13</f>
+        <f t="shared" si="28"/>
         <v>233715</v>
       </c>
       <c r="AT14" s="8">
-        <f>+AT12+AT13</f>
+        <f t="shared" si="28"/>
         <v>215639</v>
       </c>
       <c r="AU14" s="8">
-        <f>+AU12+AU13</f>
+        <f t="shared" si="28"/>
         <v>229234</v>
       </c>
       <c r="AV14" s="8">
-        <f>+AV12+AV13</f>
+        <f t="shared" si="28"/>
         <v>265595</v>
       </c>
       <c r="AW14" s="8">
-        <f t="shared" ref="AW14" si="27">+AW12+AW13</f>
+        <f t="shared" ref="AW14" si="29">+AW12+AW13</f>
         <v>260174</v>
       </c>
       <c r="AX14" s="8">
@@ -3179,71 +3179,71 @@
         <v>425407.72519999999</v>
       </c>
       <c r="BB14" s="8">
-        <f t="shared" ref="BB14:BR14" si="28">+BB12+BB13</f>
+        <f t="shared" ref="BB14:BR14" si="30">+BB12+BB13</f>
         <v>459472.01423535997</v>
       </c>
       <c r="BC14" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>496864.09897860198</v>
       </c>
       <c r="BD14" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>529496.05110969336</v>
       </c>
       <c r="BE14" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>564484.72025855759</v>
       </c>
       <c r="BF14" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>602016.22284981434</v>
       </c>
       <c r="BG14" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>634384.74354595772</v>
       </c>
       <c r="BH14" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>664726.28618737275</v>
       </c>
       <c r="BI14" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>696535.60772877734</v>
       </c>
       <c r="BJ14" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>729884.56966360589</v>
       </c>
       <c r="BK14" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>764848.5965882187</v>
       </c>
       <c r="BL14" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>797717.51826044533</v>
       </c>
       <c r="BM14" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>831186.64888079441</v>
       </c>
       <c r="BN14" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>866092.02418084955</v>
       </c>
       <c r="BO14" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>902496.67463366536</v>
       </c>
       <c r="BP14" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>940466.4566333323</v>
       </c>
       <c r="BQ14" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>980070.18169917935</v>
       </c>
       <c r="BR14" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1021379.7516903717</v>
       </c>
     </row>
@@ -3301,11 +3301,11 @@
         <v>151286</v>
       </c>
       <c r="AY15" s="7">
-        <f t="shared" ref="AY15:AY16" si="29">SUM(O15:R15)</f>
+        <f t="shared" ref="AY15:AY16" si="31">SUM(O15:R15)</f>
         <v>192266</v>
       </c>
       <c r="AZ15" s="7">
-        <f t="shared" ref="AZ15:AZ16" si="30">SUM(S15:V15)</f>
+        <f t="shared" ref="AZ15:AZ16" si="32">SUM(S15:V15)</f>
         <v>201471</v>
       </c>
       <c r="BA15" s="2">
@@ -3313,71 +3313,71 @@
         <v>214758.00012800001</v>
       </c>
       <c r="BB15" s="2">
-        <f t="shared" ref="BB15:BR15" si="31">+BB12*0.64</f>
+        <f t="shared" ref="BB15:BR15" si="33">+BB12*0.64</f>
         <v>227933.70351063041</v>
       </c>
       <c r="BC15" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>241945.37990630532</v>
       </c>
       <c r="BD15" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>255225.06492620381</v>
       </c>
       <c r="BE15" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>269252.57240307686</v>
       </c>
       <c r="BF15" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>284070.96920524118</v>
       </c>
       <c r="BG15" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>299725.85177984094</v>
       </c>
       <c r="BH15" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>313830.41986586794</v>
       </c>
       <c r="BI15" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>328608.66548766434</v>
       </c>
       <c r="BJ15" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>344093.29495301703</v>
       </c>
       <c r="BK15" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>360318.63070318464</v>
       </c>
       <c r="BL15" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>374895.51701774588</v>
       </c>
       <c r="BM15" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>389533.57588132232</v>
       </c>
       <c r="BN15" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>404751.72210323834</v>
       </c>
       <c r="BO15" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>420573.33972441516</v>
       </c>
       <c r="BP15" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>437022.77360214549</v>
       </c>
       <c r="BQ15" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>454125.36971212819</v>
       </c>
       <c r="BR15" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>471907.51717772393</v>
       </c>
     </row>
@@ -3435,11 +3435,11 @@
         <v>18273</v>
       </c>
       <c r="AY16" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>20715</v>
       </c>
       <c r="AZ16" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>22075</v>
       </c>
       <c r="BA16" s="2">
@@ -3447,71 +3447,71 @@
         <v>24259.054499999998</v>
       </c>
       <c r="BB16" s="2">
-        <f t="shared" ref="BB16:BR16" si="32">+BB13*0.27</f>
+        <f t="shared" ref="BB16:BR16" si="34">+BB13*0.27</f>
         <v>27897.912674999996</v>
       </c>
       <c r="BC16" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>32082.599576249992</v>
       </c>
       <c r="BD16" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>35290.859533874995</v>
       </c>
       <c r="BE16" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>38819.945487262499</v>
       </c>
       <c r="BF16" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>42701.940035988751</v>
       </c>
       <c r="BG16" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>44837.037037788192</v>
       </c>
       <c r="BH16" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>47078.888889677597</v>
       </c>
       <c r="BI16" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>49432.833334161485</v>
       </c>
       <c r="BJ16" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>51904.475000869556</v>
       </c>
       <c r="BK16" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>54499.698750913041</v>
       </c>
       <c r="BL16" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>57224.683688458696</v>
       </c>
       <c r="BM16" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>60085.917872881633</v>
       </c>
       <c r="BN16" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>63090.213766525711</v>
       </c>
       <c r="BO16" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>66244.724454851996</v>
       </c>
       <c r="BP16" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>69556.960677594616</v>
       </c>
       <c r="BQ16" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>73034.808711474354</v>
       </c>
       <c r="BR16" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>76686.549147048063</v>
       </c>
     </row>
@@ -3533,19 +3533,19 @@
         <v>38816</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" ref="K17:N17" si="33">+K15+K16</f>
+        <f t="shared" ref="K17:N17" si="35">+K15+K16</f>
         <v>56602</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>35943</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>37005</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>40009</v>
       </c>
       <c r="O17" s="2">
@@ -3561,11 +3561,11 @@
         <v>46179</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" ref="R17" si="34">+R15+R16</f>
+        <f t="shared" ref="R17" si="36">+R15+R16</f>
         <v>48186</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" ref="S17" si="35">+S15+S16</f>
+        <f t="shared" ref="S17" si="37">+S15+S16</f>
         <v>69702</v>
       </c>
       <c r="T17" s="2">
@@ -3573,11 +3573,11 @@
         <v>54719</v>
       </c>
       <c r="U17" s="2">
-        <f t="shared" ref="U17" si="36">+U15+U16</f>
+        <f t="shared" ref="U17" si="38">+U15+U16</f>
         <v>47074</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" ref="V17" si="37">+V15+V16</f>
+        <f t="shared" ref="V17" si="39">+V15+V16</f>
         <v>52051</v>
       </c>
       <c r="W17" s="2">
@@ -3639,11 +3639,11 @@
         <v>141048</v>
       </c>
       <c r="AV17" s="2">
-        <f t="shared" ref="AV17:AW17" si="38">+AV15+AV16</f>
+        <f t="shared" ref="AV17:AW17" si="40">+AV15+AV16</f>
         <v>163756</v>
       </c>
       <c r="AW17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>161782</v>
       </c>
       <c r="AX17" s="2">
@@ -3659,75 +3659,75 @@
         <v>223546</v>
       </c>
       <c r="BA17" s="2">
-        <f t="shared" ref="BA17:BR17" si="39">+BA15+BA16</f>
+        <f t="shared" ref="BA17:BR17" si="41">+BA15+BA16</f>
         <v>239017.05462800001</v>
       </c>
       <c r="BB17" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>255831.61618563041</v>
       </c>
       <c r="BC17" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>274027.9794825553</v>
       </c>
       <c r="BD17" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>290515.92446007882</v>
       </c>
       <c r="BE17" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>308072.51789033937</v>
       </c>
       <c r="BF17" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>326772.90924122994</v>
       </c>
       <c r="BG17" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>344562.88881762914</v>
       </c>
       <c r="BH17" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>360909.30875554553</v>
       </c>
       <c r="BI17" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>378041.49882182584</v>
       </c>
       <c r="BJ17" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>395997.76995388657</v>
       </c>
       <c r="BK17" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>414818.32945409766</v>
       </c>
       <c r="BL17" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>432120.20070620457</v>
       </c>
       <c r="BM17" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>449619.49375420396</v>
       </c>
       <c r="BN17" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>467841.93586976407</v>
       </c>
       <c r="BO17" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>486818.06417926715</v>
       </c>
       <c r="BP17" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>506579.73427974014</v>
       </c>
       <c r="BQ17" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>527160.1784236026</v>
       </c>
       <c r="BR17" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>548594.06632477196</v>
       </c>
     </row>
@@ -3736,35 +3736,35 @@
         <v>23</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18" si="40">+C14-C17</f>
+        <f t="shared" ref="C18" si="42">+C14-C17</f>
         <v>33912</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" ref="D18:F18" si="41">+D14-D17</f>
+        <f t="shared" ref="D18:F18" si="43">+D14-D17</f>
         <v>23422</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>20421</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>24084</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" ref="K18:N18" si="42">+K14-K17</f>
+        <f t="shared" ref="K18:N18" si="44">+K14-K17</f>
         <v>35217</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>22370</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>22680</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>24689</v>
       </c>
       <c r="O18" s="2">
@@ -3780,11 +3780,11 @@
         <v>35255</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" ref="R18" si="43">+R14-R17</f>
+        <f t="shared" ref="R18" si="45">+R14-R17</f>
         <v>35174</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" ref="S18" si="44">+S14-S17</f>
+        <f t="shared" ref="S18" si="46">+S14-S17</f>
         <v>54243</v>
       </c>
       <c r="T18" s="2">
@@ -3792,11 +3792,11 @@
         <v>42559</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" ref="U18" si="45">+U14-U17</f>
+        <f t="shared" ref="U18" si="47">+U14-U17</f>
         <v>35885</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" ref="V18" si="46">+V14-V17</f>
+        <f t="shared" ref="V18" si="48">+V14-V17</f>
         <v>38095</v>
       </c>
       <c r="W18" s="2">
@@ -3804,11 +3804,11 @@
         <v>50332</v>
       </c>
       <c r="AD18" s="2">
-        <f t="shared" ref="AD18:AE18" si="47">+AD14-AD17</f>
+        <f t="shared" ref="AD18:AE18" si="49">+AD14-AD17</f>
         <v>2166</v>
       </c>
       <c r="AE18" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1235</v>
       </c>
       <c r="AF18" s="2">
@@ -3816,71 +3816,71 @@
         <v>1603</v>
       </c>
       <c r="AG18" s="2">
-        <f t="shared" ref="AG18:AH18" si="48">+AG14-AG17</f>
+        <f t="shared" ref="AG18:AH18" si="50">+AG14-AG17</f>
         <v>1708</v>
       </c>
       <c r="AH18" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>2259</v>
       </c>
       <c r="AI18" s="2">
-        <f t="shared" ref="AI18:AJ18" si="49">+AI14-AI17</f>
+        <f t="shared" ref="AI18:AJ18" si="51">+AI14-AI17</f>
         <v>4043</v>
       </c>
       <c r="AJ18" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>5598</v>
       </c>
       <c r="AK18" s="2">
-        <f t="shared" ref="AK18:AL18" si="50">+AK14-AK17</f>
+        <f t="shared" ref="AK18:AL18" si="52">+AK14-AK17</f>
         <v>8154</v>
       </c>
       <c r="AL18" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>13197</v>
       </c>
       <c r="AM18" s="2">
-        <f t="shared" ref="AM18:AO18" si="51">+AM14-AM17</f>
+        <f t="shared" ref="AM18:AO18" si="53">+AM14-AM17</f>
         <v>17222</v>
       </c>
       <c r="AN18" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>25684</v>
       </c>
       <c r="AO18" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>43818</v>
       </c>
       <c r="AP18" s="2">
-        <f>+AP14-AP17</f>
+        <f t="shared" ref="AP18:AU18" si="54">+AP14-AP17</f>
         <v>68662</v>
       </c>
       <c r="AQ18" s="2">
-        <f>+AQ14-AQ17</f>
+        <f t="shared" si="54"/>
         <v>64304</v>
       </c>
       <c r="AR18" s="2">
-        <f>+AR14-AR17</f>
+        <f t="shared" si="54"/>
         <v>70537</v>
       </c>
       <c r="AS18" s="2">
-        <f>+AS14-AS17</f>
+        <f t="shared" si="54"/>
         <v>93626</v>
       </c>
       <c r="AT18" s="2">
-        <f>+AT14-AT17</f>
+        <f t="shared" si="54"/>
         <v>84263</v>
       </c>
       <c r="AU18" s="2">
-        <f>+AU14-AU17</f>
+        <f t="shared" si="54"/>
         <v>88186</v>
       </c>
       <c r="AV18" s="2">
-        <f t="shared" ref="AV18:AW18" si="52">+AV14-AV17</f>
+        <f t="shared" ref="AV18:AW18" si="55">+AV14-AV17</f>
         <v>101839</v>
       </c>
       <c r="AW18" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>98392</v>
       </c>
       <c r="AX18" s="2">
@@ -3896,75 +3896,75 @@
         <v>170782</v>
       </c>
       <c r="BA18" s="2">
-        <f t="shared" ref="BA18:BR18" si="53">+BA14-BA17</f>
+        <f t="shared" ref="BA18:BR18" si="56">+BA14-BA17</f>
         <v>186390.67057199997</v>
       </c>
       <c r="BB18" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>203640.39804972956</v>
       </c>
       <c r="BC18" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>222836.11949604668</v>
       </c>
       <c r="BD18" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>238980.12664961454</v>
       </c>
       <c r="BE18" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>256412.20236821822</v>
       </c>
       <c r="BF18" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>275243.3136085844</v>
       </c>
       <c r="BG18" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>289821.85472832859</v>
       </c>
       <c r="BH18" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>303816.97743182722</v>
       </c>
       <c r="BI18" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>318494.1089069515</v>
       </c>
       <c r="BJ18" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>333886.79970971931</v>
       </c>
       <c r="BK18" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>350030.26713412104</v>
       </c>
       <c r="BL18" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>365597.31755424076</v>
       </c>
       <c r="BM18" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>381567.15512659046</v>
       </c>
       <c r="BN18" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>398250.08831108548</v>
       </c>
       <c r="BO18" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>415678.61045439821</v>
       </c>
       <c r="BP18" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>433886.72235359217</v>
       </c>
       <c r="BQ18" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>452910.00327557675</v>
       </c>
       <c r="BR18" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>472785.6853655997</v>
       </c>
     </row>
@@ -4089,11 +4089,11 @@
         <v>18752</v>
       </c>
       <c r="AY19" s="7">
-        <f t="shared" ref="AY19:AY20" si="54">SUM(O19:R19)</f>
+        <f t="shared" ref="AY19:AY20" si="57">SUM(O19:R19)</f>
         <v>21914</v>
       </c>
       <c r="AZ19" s="7">
-        <f t="shared" ref="AZ19:AZ20" si="55">SUM(S19:V19)</f>
+        <f t="shared" ref="AZ19:AZ20" si="58">SUM(S19:V19)</f>
         <v>26251</v>
       </c>
       <c r="BA19" s="2">
@@ -4101,71 +4101,71 @@
         <v>27038.530000000002</v>
       </c>
       <c r="BB19" s="2">
-        <f t="shared" ref="BB19:BR19" si="56">+BA19*1.03</f>
+        <f t="shared" ref="BB19:BR19" si="59">+BA19*1.03</f>
         <v>27849.685900000004</v>
       </c>
       <c r="BC19" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>28685.176477000005</v>
       </c>
       <c r="BD19" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>29545.731771310006</v>
       </c>
       <c r="BE19" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>30432.103724449305</v>
       </c>
       <c r="BF19" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>31345.066836182785</v>
       </c>
       <c r="BG19" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>32285.418841268271</v>
       </c>
       <c r="BH19" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>33253.981406506318</v>
       </c>
       <c r="BI19" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>34251.600848701506</v>
       </c>
       <c r="BJ19" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>35279.148874162551</v>
       </c>
       <c r="BK19" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>36337.52334038743</v>
       </c>
       <c r="BL19" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>37427.649040599055</v>
       </c>
       <c r="BM19" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>38550.478511817026</v>
       </c>
       <c r="BN19" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>39706.992867171539</v>
       </c>
       <c r="BO19" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>40898.202653186687</v>
       </c>
       <c r="BP19" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>42125.148732782291</v>
       </c>
       <c r="BQ19" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>43388.903194765764</v>
       </c>
       <c r="BR19" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>44690.570290608739</v>
       </c>
     </row>
@@ -4290,83 +4290,83 @@
         <v>19916</v>
       </c>
       <c r="AY20" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>21973</v>
       </c>
       <c r="AZ20" s="7">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>25094</v>
       </c>
       <c r="BA20" s="2">
-        <f t="shared" ref="BA20:BR20" si="57">+AZ20*1.03</f>
+        <f t="shared" ref="BA20:BR20" si="60">+AZ20*1.03</f>
         <v>25846.82</v>
       </c>
       <c r="BB20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>26622.224600000001</v>
       </c>
       <c r="BC20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>27420.891338000001</v>
       </c>
       <c r="BD20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>28243.518078140001</v>
       </c>
       <c r="BE20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>29090.823620484203</v>
       </c>
       <c r="BF20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>29963.548329098729</v>
       </c>
       <c r="BG20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>30862.454778971693</v>
       </c>
       <c r="BH20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>31788.328422340845</v>
       </c>
       <c r="BI20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>32741.978275011072</v>
       </c>
       <c r="BJ20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>33724.237623261404</v>
       </c>
       <c r="BK20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>34735.964751959247</v>
       </c>
       <c r="BL20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>35778.043694518026</v>
       </c>
       <c r="BM20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>36851.385005353572</v>
       </c>
       <c r="BN20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>37956.926555514183</v>
       </c>
       <c r="BO20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>39095.634352179608</v>
       </c>
       <c r="BP20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>40268.503382744995</v>
       </c>
       <c r="BQ20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>41476.558484227346</v>
       </c>
       <c r="BR20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>42720.855238754164</v>
       </c>
     </row>
@@ -4375,35 +4375,35 @@
         <v>29</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ref="C21" si="58">+C19+C20</f>
+        <f t="shared" ref="C21" si="61">+C19+C20</f>
         <v>7638</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" ref="D21:F21" si="59">+D19+D20</f>
+        <f t="shared" ref="D21:F21" si="62">+D19+D20</f>
         <v>7528</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>7809</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>7966</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" ref="K21:N21" si="60">+K19+K20</f>
+        <f t="shared" ref="K21:N21" si="63">+K19+K20</f>
         <v>9648</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>9517</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>9589</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>9914</v>
       </c>
       <c r="O21" s="2">
@@ -4419,11 +4419,11 @@
         <v>11129</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" ref="R21" si="61">+R19+R20</f>
+        <f t="shared" ref="R21" si="64">+R19+R20</f>
         <v>11388</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" ref="S21" si="62">+S19+S20</f>
+        <f t="shared" ref="S21" si="65">+S19+S20</f>
         <v>12755</v>
       </c>
       <c r="T21" s="2">
@@ -4431,95 +4431,95 @@
         <v>12580</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" ref="U21" si="63">+U19+U20</f>
+        <f t="shared" ref="U21" si="66">+U19+U20</f>
         <v>12809</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" ref="V21:W21" si="64">+V19+V20</f>
+        <f t="shared" ref="V21:W21" si="67">+V19+V20</f>
         <v>13201</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>14316</v>
       </c>
       <c r="AD21" s="2">
-        <f t="shared" ref="AD21:AE21" si="65">+AD19+AD20</f>
+        <f t="shared" ref="AD21:AE21" si="68">+AD19+AD20</f>
         <v>1546</v>
       </c>
       <c r="AE21" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>1568</v>
       </c>
       <c r="AF21" s="2">
-        <f t="shared" ref="AF21:AH21" si="66">+AF19+AF20</f>
+        <f t="shared" ref="AF21:AH21" si="69">+AF19+AF20</f>
         <v>1555</v>
       </c>
       <c r="AG21" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>1683</v>
       </c>
       <c r="AH21" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>1910</v>
       </c>
       <c r="AI21" s="2">
-        <f t="shared" ref="AI21:AJ21" si="67">+AI19+AI20</f>
+        <f t="shared" ref="AI21:AJ21" si="70">+AI19+AI20</f>
         <v>2393</v>
       </c>
       <c r="AJ21" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>3145</v>
       </c>
       <c r="AK21" s="2">
-        <f t="shared" ref="AK21:AL21" si="68">+AK19+AK20</f>
+        <f t="shared" ref="AK21:AL21" si="71">+AK19+AK20</f>
         <v>3745</v>
       </c>
       <c r="AL21" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>4870</v>
       </c>
       <c r="AM21" s="2">
-        <f t="shared" ref="AM21:AO21" si="69">+AM19+AM20</f>
+        <f t="shared" ref="AM21:AO21" si="72">+AM19+AM20</f>
         <v>5482</v>
       </c>
       <c r="AN21" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>7299</v>
       </c>
       <c r="AO21" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>10028</v>
       </c>
       <c r="AP21" s="2">
-        <f>+AP19+AP20</f>
+        <f t="shared" ref="AP21:AU21" si="73">+AP19+AP20</f>
         <v>13421</v>
       </c>
       <c r="AQ21" s="2">
-        <f>+AQ19+AQ20</f>
+        <f t="shared" si="73"/>
         <v>15305</v>
       </c>
       <c r="AR21" s="2">
-        <f>+AR19+AR20</f>
+        <f t="shared" si="73"/>
         <v>18034</v>
       </c>
       <c r="AS21" s="2">
-        <f>+AS19+AS20</f>
+        <f t="shared" si="73"/>
         <v>22396</v>
       </c>
       <c r="AT21" s="2">
-        <f>+AT19+AT20</f>
+        <f t="shared" si="73"/>
         <v>24239</v>
       </c>
       <c r="AU21" s="2">
-        <f>+AU19+AU20</f>
+        <f t="shared" si="73"/>
         <v>26842</v>
       </c>
       <c r="AV21" s="2">
-        <f t="shared" ref="AV21:AW21" si="70">+AV19+AV20</f>
+        <f t="shared" ref="AV21:AW21" si="74">+AV19+AV20</f>
         <v>30941</v>
       </c>
       <c r="AW21" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>34462</v>
       </c>
       <c r="AX21" s="2">
@@ -4535,75 +4535,75 @@
         <v>51345</v>
       </c>
       <c r="BA21" s="2">
-        <f t="shared" ref="BA21:BR21" si="71">+BA19+BA20</f>
+        <f t="shared" ref="BA21:BR21" si="75">+BA19+BA20</f>
         <v>52885.350000000006</v>
       </c>
       <c r="BB21" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>54471.910500000005</v>
       </c>
       <c r="BC21" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>56106.067815000002</v>
       </c>
       <c r="BD21" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>57789.249849450003</v>
       </c>
       <c r="BE21" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>59522.927344933509</v>
       </c>
       <c r="BF21" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>61308.615165281517</v>
       </c>
       <c r="BG21" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>63147.87362023996</v>
       </c>
       <c r="BH21" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>65042.309828847167</v>
       </c>
       <c r="BI21" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>66993.579123712581</v>
       </c>
       <c r="BJ21" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>69003.386497423955</v>
       </c>
       <c r="BK21" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>71073.48809234667</v>
       </c>
       <c r="BL21" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>73205.692735117074</v>
       </c>
       <c r="BM21" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>75401.863517170597</v>
       </c>
       <c r="BN21" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>77663.919422685722</v>
       </c>
       <c r="BO21" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>79993.837005366295</v>
       </c>
       <c r="BP21" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>82393.652115527279</v>
       </c>
       <c r="BQ21" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>84865.461678993102</v>
       </c>
       <c r="BR21" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>87411.425529362896</v>
       </c>
     </row>
@@ -4612,35 +4612,35 @@
         <v>30</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ref="C22" si="72">+C18-C21</f>
+        <f t="shared" ref="C22" si="76">+C18-C21</f>
         <v>26274</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" ref="D22:F22" si="73">+D18-D21</f>
+        <f t="shared" ref="D22:F22" si="77">+D18-D21</f>
         <v>15894</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>12612</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>16118</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" ref="K22:N22" si="74">+K18-K21</f>
+        <f t="shared" ref="K22:N22" si="78">+K18-K21</f>
         <v>25569</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>12853</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>13091</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>14775</v>
       </c>
       <c r="O22" s="2">
@@ -4656,11 +4656,11 @@
         <v>24126</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" ref="R22" si="75">+R18-R21</f>
+        <f t="shared" ref="R22" si="79">+R18-R21</f>
         <v>23786</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" ref="S22" si="76">+S18-S21</f>
+        <f t="shared" ref="S22" si="80">+S18-S21</f>
         <v>41488</v>
       </c>
       <c r="T22" s="2">
@@ -4668,95 +4668,95 @@
         <v>29979</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" ref="U22" si="77">+U18-U21</f>
+        <f t="shared" ref="U22" si="81">+U18-U21</f>
         <v>23076</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" ref="V22:W22" si="78">+V18-V21</f>
+        <f t="shared" ref="V22:W22" si="82">+V18-V21</f>
         <v>24894</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>36016</v>
       </c>
       <c r="AD22" s="2">
-        <f t="shared" ref="AD22:AE22" si="79">+AD18-AD21</f>
+        <f t="shared" ref="AD22:AE22" si="83">+AD18-AD21</f>
         <v>620</v>
       </c>
       <c r="AE22" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>-333</v>
       </c>
       <c r="AF22" s="2">
-        <f t="shared" ref="AF22:AH22" si="80">+AF18-AF21</f>
+        <f t="shared" ref="AF22:AH22" si="84">+AF18-AF21</f>
         <v>48</v>
       </c>
       <c r="AG22" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>25</v>
       </c>
       <c r="AH22" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>349</v>
       </c>
       <c r="AI22" s="2">
-        <f t="shared" ref="AI22:AJ22" si="81">+AI18-AI21</f>
+        <f t="shared" ref="AI22:AJ22" si="85">+AI18-AI21</f>
         <v>1650</v>
       </c>
       <c r="AJ22" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>2453</v>
       </c>
       <c r="AK22" s="2">
-        <f t="shared" ref="AK22:AL22" si="82">+AK18-AK21</f>
+        <f t="shared" ref="AK22:AL22" si="86">+AK18-AK21</f>
         <v>4409</v>
       </c>
       <c r="AL22" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>8327</v>
       </c>
       <c r="AM22" s="2">
-        <f t="shared" ref="AM22:AO22" si="83">+AM18-AM21</f>
+        <f t="shared" ref="AM22:AO22" si="87">+AM18-AM21</f>
         <v>11740</v>
       </c>
       <c r="AN22" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>18385</v>
       </c>
       <c r="AO22" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>33790</v>
       </c>
       <c r="AP22" s="2">
-        <f>+AP18-AP21</f>
+        <f t="shared" ref="AP22:AU22" si="88">+AP18-AP21</f>
         <v>55241</v>
       </c>
       <c r="AQ22" s="2">
-        <f>+AQ18-AQ21</f>
+        <f t="shared" si="88"/>
         <v>48999</v>
       </c>
       <c r="AR22" s="2">
-        <f>+AR18-AR21</f>
+        <f t="shared" si="88"/>
         <v>52503</v>
       </c>
       <c r="AS22" s="2">
-        <f>+AS18-AS21</f>
+        <f t="shared" si="88"/>
         <v>71230</v>
       </c>
       <c r="AT22" s="2">
-        <f>+AT18-AT21</f>
+        <f t="shared" si="88"/>
         <v>60024</v>
       </c>
       <c r="AU22" s="2">
-        <f>+AU18-AU21</f>
+        <f t="shared" si="88"/>
         <v>61344</v>
       </c>
       <c r="AV22" s="2">
-        <f t="shared" ref="AV22:AW22" si="84">+AV18-AV21</f>
+        <f t="shared" ref="AV22:AW22" si="89">+AV18-AV21</f>
         <v>70898</v>
       </c>
       <c r="AW22" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>63930</v>
       </c>
       <c r="AX22" s="2">
@@ -4772,75 +4772,75 @@
         <v>119437</v>
       </c>
       <c r="BA22" s="2">
-        <f t="shared" ref="BA22:BR22" si="85">+BA18-BA21</f>
+        <f t="shared" ref="BA22:BR22" si="90">+BA18-BA21</f>
         <v>133505.32057199997</v>
       </c>
       <c r="BB22" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>149168.48754972956</v>
       </c>
       <c r="BC22" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>166730.05168104667</v>
       </c>
       <c r="BD22" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>181190.87680016452</v>
       </c>
       <c r="BE22" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>196889.27502328472</v>
       </c>
       <c r="BF22" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>213934.69844330288</v>
       </c>
       <c r="BG22" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>226673.98110808863</v>
       </c>
       <c r="BH22" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>238774.66760298004</v>
       </c>
       <c r="BI22" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>251500.52978323892</v>
       </c>
       <c r="BJ22" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>264883.41321229539</v>
       </c>
       <c r="BK22" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>278956.77904177434</v>
       </c>
       <c r="BL22" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>292391.62481912365</v>
       </c>
       <c r="BM22" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>306165.29160941986</v>
       </c>
       <c r="BN22" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>320586.16888839973</v>
       </c>
       <c r="BO22" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>335684.77344903193</v>
       </c>
       <c r="BP22" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>351493.07023806486</v>
       </c>
       <c r="BQ22" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>368044.54159658367</v>
       </c>
       <c r="BR22" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>385374.25983623683</v>
       </c>
     </row>
@@ -4965,11 +4965,11 @@
         <v>803</v>
       </c>
       <c r="AY23" s="7">
-        <f t="shared" ref="AY23" si="86">SUM(O23:R23)</f>
+        <f t="shared" ref="AY23" si="91">SUM(O23:R23)</f>
         <v>258</v>
       </c>
       <c r="AZ23" s="7">
-        <f t="shared" ref="AZ23" si="87">SUM(S23:V23)</f>
+        <f t="shared" ref="AZ23" si="92">SUM(S23:V23)</f>
         <v>-334</v>
       </c>
     </row>
@@ -4978,35 +4978,35 @@
         <v>35</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ref="C24" si="88">+C22+C23</f>
+        <f t="shared" ref="C24" si="93">+C22+C23</f>
         <v>27030</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ref="D24:F24" si="89">+D22+D23</f>
+        <f t="shared" ref="D24:F24" si="94">+D22+D23</f>
         <v>16168</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="94"/>
         <v>13284</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="94"/>
         <v>16421</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" ref="K24:N24" si="90">+K22+K23</f>
+        <f t="shared" ref="K24:N24" si="95">+K22+K23</f>
         <v>25918</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="95"/>
         <v>13135</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="95"/>
         <v>13137</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="95"/>
         <v>14901</v>
       </c>
       <c r="O24" s="2">
@@ -5022,11 +5022,11 @@
         <v>24369</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" ref="R24" si="91">+R22+R23</f>
+        <f t="shared" ref="R24" si="96">+R22+R23</f>
         <v>23248</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" ref="S24" si="92">+S22+S23</f>
+        <f t="shared" ref="S24" si="97">+S22+S23</f>
         <v>41241</v>
       </c>
       <c r="T24" s="2">
@@ -5034,95 +5034,95 @@
         <v>30139</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" ref="U24:W24" si="93">+U22+U23</f>
+        <f t="shared" ref="U24:W24" si="98">+U22+U23</f>
         <v>23066</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>24657</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>35623</v>
       </c>
       <c r="AD24" s="2">
-        <f t="shared" ref="AD24:AE24" si="94">+AD22+AD23</f>
+        <f t="shared" ref="AD24:AE24" si="99">+AD22+AD23</f>
         <v>823</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>-116</v>
       </c>
       <c r="AF24" s="2">
-        <f t="shared" ref="AF24:AH24" si="95">+AF22+AF23</f>
+        <f t="shared" ref="AF24:AH24" si="100">+AF22+AF23</f>
         <v>118</v>
       </c>
       <c r="AG24" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="100"/>
         <v>118</v>
       </c>
       <c r="AH24" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="100"/>
         <v>406</v>
       </c>
       <c r="AI24" s="2">
-        <f t="shared" ref="AI24:AJ24" si="96">+AI22+AI23</f>
+        <f t="shared" ref="AI24:AJ24" si="101">+AI22+AI23</f>
         <v>1815</v>
       </c>
       <c r="AJ24" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="101"/>
         <v>2818</v>
       </c>
       <c r="AK24" s="2">
-        <f t="shared" ref="AK24:AL24" si="97">+AK22+AK23</f>
+        <f t="shared" ref="AK24:AL24" si="102">+AK22+AK23</f>
         <v>5008</v>
       </c>
       <c r="AL24" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="102"/>
         <v>8947</v>
       </c>
       <c r="AM24" s="2">
-        <f t="shared" ref="AM24:AO24" si="98">+AM22+AM23</f>
+        <f t="shared" ref="AM24:AO24" si="103">+AM22+AM23</f>
         <v>12066</v>
       </c>
       <c r="AN24" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>18540</v>
       </c>
       <c r="AO24" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>34205</v>
       </c>
       <c r="AP24" s="2">
-        <f>+AP22+AP23</f>
+        <f t="shared" ref="AP24:AU24" si="104">+AP22+AP23</f>
         <v>55763</v>
       </c>
       <c r="AQ24" s="2">
-        <f>+AQ22+AQ23</f>
+        <f t="shared" si="104"/>
         <v>50155</v>
       </c>
       <c r="AR24" s="2">
-        <f>+AR22+AR23</f>
+        <f t="shared" si="104"/>
         <v>53483</v>
       </c>
       <c r="AS24" s="2">
-        <f>+AS22+AS23</f>
+        <f t="shared" si="104"/>
         <v>72515</v>
       </c>
       <c r="AT24" s="2">
-        <f>+AT22+AT23</f>
+        <f t="shared" si="104"/>
         <v>61372</v>
       </c>
       <c r="AU24" s="2">
-        <f>+AU22+AU23</f>
+        <f t="shared" si="104"/>
         <v>64089</v>
       </c>
       <c r="AV24" s="2">
-        <f t="shared" ref="AV24:AW24" si="99">+AV22+AV23</f>
+        <f t="shared" ref="AV24:AW24" si="105">+AV22+AV23</f>
         <v>72903</v>
       </c>
       <c r="AW24" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>65737</v>
       </c>
       <c r="AX24" s="2">
@@ -5138,75 +5138,75 @@
         <v>119103</v>
       </c>
       <c r="BA24" s="2">
-        <f t="shared" ref="BA24:BR24" si="100">+BA22+BA23</f>
+        <f t="shared" ref="BA24:BR24" si="106">+BA22+BA23</f>
         <v>133505.32057199997</v>
       </c>
       <c r="BB24" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>149168.48754972956</v>
       </c>
       <c r="BC24" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>166730.05168104667</v>
       </c>
       <c r="BD24" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>181190.87680016452</v>
       </c>
       <c r="BE24" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>196889.27502328472</v>
       </c>
       <c r="BF24" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>213934.69844330288</v>
       </c>
       <c r="BG24" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>226673.98110808863</v>
       </c>
       <c r="BH24" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>238774.66760298004</v>
       </c>
       <c r="BI24" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>251500.52978323892</v>
       </c>
       <c r="BJ24" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>264883.41321229539</v>
       </c>
       <c r="BK24" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>278956.77904177434</v>
       </c>
       <c r="BL24" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>292391.62481912365</v>
       </c>
       <c r="BM24" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>306165.29160941986</v>
       </c>
       <c r="BN24" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>320586.16888839973</v>
       </c>
       <c r="BO24" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>335684.77344903193</v>
       </c>
       <c r="BP24" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>351493.07023806486</v>
       </c>
       <c r="BQ24" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>368044.54159658367</v>
       </c>
       <c r="BR24" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>385374.25983623683</v>
       </c>
     </row>
@@ -5331,11 +5331,11 @@
         <v>9680</v>
       </c>
       <c r="AY25" s="7">
-        <f t="shared" ref="AY25" si="101">SUM(O25:R25)</f>
+        <f t="shared" ref="AY25" si="107">SUM(O25:R25)</f>
         <v>14527</v>
       </c>
       <c r="AZ25" s="7">
-        <f t="shared" ref="AZ25" si="102">SUM(S25:V25)</f>
+        <f t="shared" ref="AZ25" si="108">SUM(S25:V25)</f>
         <v>19300</v>
       </c>
       <c r="BA25" s="2">
@@ -5343,71 +5343,71 @@
         <v>26701.064114399996</v>
       </c>
       <c r="BB25" s="2">
-        <f t="shared" ref="BB25:BR25" si="103">+BB24*0.2</f>
+        <f t="shared" ref="BB25:BR25" si="109">+BB24*0.2</f>
         <v>29833.697509945912</v>
       </c>
       <c r="BC25" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>33346.010336209336</v>
       </c>
       <c r="BD25" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>36238.175360032903</v>
       </c>
       <c r="BE25" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>39377.855004656943</v>
       </c>
       <c r="BF25" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>42786.939688660583</v>
       </c>
       <c r="BG25" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>45334.796221617726</v>
       </c>
       <c r="BH25" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>47754.933520596009</v>
       </c>
       <c r="BI25" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>50300.105956647785</v>
       </c>
       <c r="BJ25" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>52976.682642459084</v>
       </c>
       <c r="BK25" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>55791.355808354871</v>
       </c>
       <c r="BL25" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>58478.324963824736</v>
       </c>
       <c r="BM25" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>61233.058321883975</v>
       </c>
       <c r="BN25" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>64117.233777679947</v>
       </c>
       <c r="BO25" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>67136.954689806385</v>
       </c>
       <c r="BP25" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>70298.61404761298</v>
       </c>
       <c r="BQ25" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>73608.908319316732</v>
       </c>
       <c r="BR25" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>77074.851967247363</v>
       </c>
     </row>
@@ -5416,35 +5416,35 @@
         <v>33</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" ref="C26" si="104">+C24-C25</f>
+        <f t="shared" ref="C26" si="110">+C24-C25</f>
         <v>20065</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" ref="D26:F26" si="105">+D24-D25</f>
+        <f t="shared" ref="D26:F26" si="111">+D24-D25</f>
         <v>13822</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>11519</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>14125</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" ref="K26:N26" si="106">+K24-K25</f>
+        <f t="shared" ref="K26:N26" si="112">+K24-K25</f>
         <v>22236</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>11249</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>11253</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>12673</v>
       </c>
       <c r="O26" s="2">
@@ -5460,11 +5460,11 @@
         <v>21744</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" ref="R26" si="107">+R24-R25</f>
+        <f t="shared" ref="R26" si="113">+R24-R25</f>
         <v>20551</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" ref="S26" si="108">+S24-S25</f>
+        <f t="shared" ref="S26" si="114">+S24-S25</f>
         <v>34630</v>
       </c>
       <c r="T26" s="2">
@@ -5472,95 +5472,95 @@
         <v>25010</v>
       </c>
       <c r="U26" s="2">
-        <f t="shared" ref="U26:W26" si="109">+U24-U25</f>
+        <f t="shared" ref="U26:W26" si="115">+U24-U25</f>
         <v>19442</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>20721</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>29998</v>
       </c>
       <c r="AD26" s="2">
-        <f t="shared" ref="AD26:AE26" si="110">+AD24-AD25</f>
+        <f t="shared" ref="AD26:AE26" si="116">+AD24-AD25</f>
         <v>517</v>
       </c>
       <c r="AE26" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>-116</v>
       </c>
       <c r="AF26" s="2">
-        <f t="shared" ref="AF26:AH26" si="111">+AF24-AF25</f>
+        <f t="shared" ref="AF26:AH26" si="117">+AF24-AF25</f>
         <v>96</v>
       </c>
       <c r="AG26" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>94</v>
       </c>
       <c r="AH26" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>299</v>
       </c>
       <c r="AI26" s="2">
-        <f t="shared" ref="AI26:AJ26" si="112">+AI24-AI25</f>
+        <f t="shared" ref="AI26:AJ26" si="118">+AI24-AI25</f>
         <v>1335</v>
       </c>
       <c r="AJ26" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>1989</v>
       </c>
       <c r="AK26" s="2">
-        <f t="shared" ref="AK26:AL26" si="113">+AK24-AK25</f>
+        <f t="shared" ref="AK26:AL26" si="119">+AK24-AK25</f>
         <v>3496</v>
       </c>
       <c r="AL26" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>6119</v>
       </c>
       <c r="AM26" s="2">
-        <f t="shared" ref="AM26:AO26" si="114">+AM24-AM25</f>
+        <f t="shared" ref="AM26:AO26" si="120">+AM24-AM25</f>
         <v>8235</v>
       </c>
       <c r="AN26" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>14013</v>
       </c>
       <c r="AO26" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>25922</v>
       </c>
       <c r="AP26" s="2">
-        <f>+AP24-AP25</f>
+        <f t="shared" ref="AP26:AU26" si="121">+AP24-AP25</f>
         <v>41733</v>
       </c>
       <c r="AQ26" s="2">
-        <f>+AQ24-AQ25</f>
+        <f t="shared" si="121"/>
         <v>37037</v>
       </c>
       <c r="AR26" s="2">
-        <f>+AR24-AR25</f>
+        <f t="shared" si="121"/>
         <v>39510</v>
       </c>
       <c r="AS26" s="2">
-        <f>+AS24-AS25</f>
+        <f t="shared" si="121"/>
         <v>53394</v>
       </c>
       <c r="AT26" s="2">
-        <f>+AT24-AT25</f>
+        <f t="shared" si="121"/>
         <v>45687</v>
       </c>
       <c r="AU26" s="2">
-        <f>+AU24-AU25</f>
+        <f t="shared" si="121"/>
         <v>48351</v>
       </c>
       <c r="AV26" s="2">
-        <f t="shared" ref="AV26:AW26" si="115">+AV24-AV25</f>
+        <f t="shared" ref="AV26:AW26" si="122">+AV24-AV25</f>
         <v>59531</v>
       </c>
       <c r="AW26" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="122"/>
         <v>55256</v>
       </c>
       <c r="AX26" s="2">
@@ -5580,71 +5580,71 @@
         <v>106804.25645759997</v>
       </c>
       <c r="BB26" s="2">
-        <f t="shared" ref="BB26:BR26" si="116">+BB24-BB25</f>
+        <f t="shared" ref="BB26:BR26" si="123">+BB24-BB25</f>
         <v>119334.79003978365</v>
       </c>
       <c r="BC26" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>133384.04134483734</v>
       </c>
       <c r="BD26" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>144952.70144013161</v>
       </c>
       <c r="BE26" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>157511.42001862777</v>
       </c>
       <c r="BF26" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>171147.7587546423</v>
       </c>
       <c r="BG26" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>181339.1848864709</v>
       </c>
       <c r="BH26" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>191019.73408238403</v>
       </c>
       <c r="BI26" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>201200.42382659114</v>
       </c>
       <c r="BJ26" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>211906.73056983631</v>
       </c>
       <c r="BK26" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>223165.42323341948</v>
       </c>
       <c r="BL26" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>233913.29985529892</v>
       </c>
       <c r="BM26" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>244932.2332875359</v>
       </c>
       <c r="BN26" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>256468.93511071979</v>
       </c>
       <c r="BO26" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>268547.81875922554</v>
       </c>
       <c r="BP26" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>281194.45619045186</v>
       </c>
       <c r="BQ26" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>294435.63327726693</v>
       </c>
       <c r="BR26" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>308299.40786898945</v>
       </c>
       <c r="BS26" s="2">
@@ -5652,447 +5652,447 @@
         <v>305216.41379029956</v>
       </c>
       <c r="BT26" s="2">
-        <f t="shared" ref="BT26:EE26" si="117">+BS26*(1+$BU$31)</f>
+        <f t="shared" ref="BT26:EE26" si="124">+BS26*(1+$BU$31)</f>
         <v>302164.24965239654</v>
       </c>
       <c r="BU26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>299142.60715587257</v>
       </c>
       <c r="BV26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>296151.18108431384</v>
       </c>
       <c r="BW26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>293189.6692734707</v>
       </c>
       <c r="BX26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>290257.77258073597</v>
       </c>
       <c r="BY26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>287355.19485492859</v>
       </c>
       <c r="BZ26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>284481.6429063793</v>
       </c>
       <c r="CA26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>281636.82647731551</v>
       </c>
       <c r="CB26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>278820.45821254235</v>
       </c>
       <c r="CC26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>276032.25363041693</v>
       </c>
       <c r="CD26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>273271.93109411275</v>
       </c>
       <c r="CE26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>270539.21178317163</v>
       </c>
       <c r="CF26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>267833.81966533989</v>
       </c>
       <c r="CG26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>265155.48146868648</v>
       </c>
       <c r="CH26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>262503.9266539996</v>
       </c>
       <c r="CI26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>259878.8873874596</v>
       </c>
       <c r="CJ26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>257280.09851358499</v>
       </c>
       <c r="CK26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>254707.29752844913</v>
       </c>
       <c r="CL26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>252160.22455316462</v>
       </c>
       <c r="CM26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>249638.62230763296</v>
       </c>
       <c r="CN26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>247142.23608455664</v>
       </c>
       <c r="CO26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>244670.81372371106</v>
       </c>
       <c r="CP26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>242224.10558647395</v>
       </c>
       <c r="CQ26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>239801.86453060919</v>
       </c>
       <c r="CR26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>237403.8458853031</v>
       </c>
       <c r="CS26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>235029.80742645008</v>
       </c>
       <c r="CT26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>232679.50935218556</v>
       </c>
       <c r="CU26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>230352.71425866371</v>
       </c>
       <c r="CV26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>228049.18711607705</v>
       </c>
       <c r="CW26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>225768.69524491628</v>
       </c>
       <c r="CX26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>223511.0082924671</v>
       </c>
       <c r="CY26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>221275.89820954241</v>
       </c>
       <c r="CZ26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>219063.13922744698</v>
       </c>
       <c r="DA26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>216872.50783517252</v>
       </c>
       <c r="DB26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>214703.78275682079</v>
       </c>
       <c r="DC26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>212556.74492925257</v>
       </c>
       <c r="DD26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>210431.17747996005</v>
       </c>
       <c r="DE26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>208326.86570516045</v>
       </c>
       <c r="DF26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>206243.59704810884</v>
       </c>
       <c r="DG26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>204181.16107762777</v>
       </c>
       <c r="DH26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>202139.34946685148</v>
       </c>
       <c r="DI26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>200117.95597218297</v>
       </c>
       <c r="DJ26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>198116.77641246113</v>
       </c>
       <c r="DK26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>196135.60864833652</v>
       </c>
       <c r="DL26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>194174.25256185315</v>
       </c>
       <c r="DM26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>192232.51003623463</v>
       </c>
       <c r="DN26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>190310.18493587227</v>
       </c>
       <c r="DO26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>188407.08308651354</v>
       </c>
       <c r="DP26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>186523.01225564841</v>
       </c>
       <c r="DQ26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>184657.78213309194</v>
       </c>
       <c r="DR26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>182811.20431176102</v>
       </c>
       <c r="DS26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>180983.09226864341</v>
       </c>
       <c r="DT26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>179173.26134595697</v>
       </c>
       <c r="DU26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>177381.52873249739</v>
       </c>
       <c r="DV26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>175607.71344517241</v>
       </c>
       <c r="DW26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>173851.6363107207</v>
       </c>
       <c r="DX26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>172113.11994761348</v>
       </c>
       <c r="DY26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>170391.98874813734</v>
       </c>
       <c r="DZ26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>168688.06886065597</v>
       </c>
       <c r="EA26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>167001.18817204941</v>
       </c>
       <c r="EB26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>165331.17629032891</v>
       </c>
       <c r="EC26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>163677.86452742561</v>
       </c>
       <c r="ED26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>162041.08588215135</v>
       </c>
       <c r="EE26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>160420.67502332985</v>
       </c>
       <c r="EF26" s="2">
-        <f t="shared" ref="EF26:FZ26" si="118">+EE26*(1+$BU$31)</f>
+        <f t="shared" ref="EF26:FZ26" si="125">+EE26*(1+$BU$31)</f>
         <v>158816.46827309654</v>
       </c>
       <c r="EG26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>157228.30359036557</v>
       </c>
       <c r="EH26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>155656.02055446192</v>
       </c>
       <c r="EI26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>154099.46034891732</v>
       </c>
       <c r="EJ26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>152558.46574542814</v>
       </c>
       <c r="EK26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>151032.88108797386</v>
       </c>
       <c r="EL26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>149522.55227709413</v>
       </c>
       <c r="EM26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>148027.32675432318</v>
       </c>
       <c r="EN26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>146547.05348677994</v>
       </c>
       <c r="EO26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>145081.58295191213</v>
       </c>
       <c r="EP26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>143630.76712239301</v>
       </c>
       <c r="EQ26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>142194.45945116907</v>
       </c>
       <c r="ER26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>140772.51485665736</v>
       </c>
       <c r="ES26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>139364.7897080908</v>
       </c>
       <c r="ET26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>137971.1418110099</v>
       </c>
       <c r="EU26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>136591.43039289981</v>
       </c>
       <c r="EV26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>135225.51608897082</v>
       </c>
       <c r="EW26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>133873.26092808112</v>
       </c>
       <c r="EX26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>132534.52831880029</v>
       </c>
       <c r="EY26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>131209.18303561228</v>
       </c>
       <c r="EZ26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>129897.09120525616</v>
       </c>
       <c r="FA26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>128598.1202932036</v>
       </c>
       <c r="FB26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>127312.13909027156</v>
       </c>
       <c r="FC26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>126039.01769936885</v>
       </c>
       <c r="FD26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>124778.62752237516</v>
       </c>
       <c r="FE26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>123530.8412471514</v>
       </c>
       <c r="FF26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>122295.53283467989</v>
       </c>
       <c r="FG26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>121072.57750633309</v>
       </c>
       <c r="FH26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>119861.85173126977</v>
       </c>
       <c r="FI26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>118663.23321395706</v>
       </c>
       <c r="FJ26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>117476.60088181749</v>
       </c>
       <c r="FK26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>116301.83487299932</v>
       </c>
       <c r="FL26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>115138.81652426932</v>
       </c>
       <c r="FM26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>113987.42835902663</v>
       </c>
       <c r="FN26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>112847.55407543636</v>
       </c>
       <c r="FO26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>111719.07853468199</v>
       </c>
       <c r="FP26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>110601.88774933518</v>
       </c>
       <c r="FQ26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>109495.86887184183</v>
       </c>
       <c r="FR26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>108400.91018312341</v>
       </c>
       <c r="FS26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>107316.90108129218</v>
       </c>
       <c r="FT26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>106243.73207047925</v>
       </c>
       <c r="FU26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>105181.29474977446</v>
       </c>
       <c r="FV26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>104129.48180227671</v>
       </c>
       <c r="FW26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>103088.18698425395</v>
       </c>
       <c r="FX26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>102057.3051144114</v>
       </c>
       <c r="FY26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>101036.73206326728</v>
       </c>
       <c r="FZ26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>100026.3647426346</v>
       </c>
     </row>
@@ -6101,19 +6101,19 @@
         <v>37</v>
       </c>
       <c r="C27" s="12">
-        <f t="shared" ref="C27" si="119">+C26/C28</f>
+        <f t="shared" ref="C27" si="126">+C26/C28</f>
         <v>0.97255857987156114</v>
       </c>
       <c r="D27" s="12">
-        <f t="shared" ref="D27:F27" si="120">+D26/D28</f>
+        <f t="shared" ref="D27:F27" si="127">+D26/D28</f>
         <v>0.68176083107937602</v>
       </c>
       <c r="E27" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>0.58452984598534197</v>
       </c>
       <c r="F27" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>0.70623460408563088</v>
       </c>
       <c r="G27" s="12"/>
@@ -6121,19 +6121,19 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12">
-        <f t="shared" ref="K27:N27" si="121">+K26/K28</f>
+        <f t="shared" ref="K27:N27" si="128">+K26/K28</f>
         <v>1.2479223042091785</v>
       </c>
       <c r="L27" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>0.63846699811252383</v>
       </c>
       <c r="M27" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>0.64601300384622584</v>
       </c>
       <c r="N27" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>0.73438904632051849</v>
       </c>
       <c r="O27" s="12">
@@ -6149,11 +6149,11 @@
         <v>1.2956943963183782</v>
       </c>
       <c r="R27" s="12">
-        <f t="shared" ref="R27" si="122">+R26/R28</f>
+        <f t="shared" ref="R27" si="129">+R26/R28</f>
         <v>1.2354000701047909</v>
       </c>
       <c r="S27" s="12">
-        <f t="shared" ref="S27" si="123">+S26/S28</f>
+        <f t="shared" ref="S27" si="130">+S26/S28</f>
         <v>2.0963369432743812</v>
       </c>
       <c r="T27" s="12">
@@ -6161,95 +6161,95 @@
         <v>1.5246917147727936</v>
       </c>
       <c r="U27" s="12">
-        <f t="shared" ref="U27:W27" si="124">+U26/U28</f>
+        <f t="shared" ref="U27:W27" si="131">+U26/U28</f>
         <v>1.1955329791418789</v>
       </c>
       <c r="V27" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>1.2855442500262897</v>
       </c>
       <c r="W27" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>1.8800783518485347</v>
       </c>
       <c r="AD27" s="12">
-        <f t="shared" ref="AD27:AE27" si="125">+AD26/AD28</f>
+        <f t="shared" ref="AD27:AE27" si="132">+AD26/AD28</f>
         <v>1.4348197733151276</v>
       </c>
       <c r="AE27" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>-0.33563552296933274</v>
       </c>
       <c r="AF27" s="12">
-        <f t="shared" ref="AF27:AH27" si="126">+AF26/AF28</f>
+        <f t="shared" ref="AF27:AH27" si="133">+AF26/AF28</f>
         <v>0.26535096811642273</v>
       </c>
       <c r="AG27" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.12931058200767059</v>
       </c>
       <c r="AH27" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.38599471742346592</v>
       </c>
       <c r="AI27" s="12">
-        <f t="shared" ref="AI27:AJ27" si="127">+AI26/AI28</f>
+        <f t="shared" ref="AI27:AJ27" si="134">+AI26/AI28</f>
         <v>1.5581596209061837</v>
       </c>
       <c r="AJ27" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>2.266599508162721</v>
       </c>
       <c r="AK27" s="12">
-        <f t="shared" ref="AK27:AL27" si="128">+AK26/AK28</f>
+        <f t="shared" ref="AK27:AL27" si="135">+AK26/AK28</f>
         <v>3.9312171930029729</v>
       </c>
       <c r="AL27" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>6.7827685090656757</v>
       </c>
       <c r="AM27" s="12">
-        <f t="shared" ref="AM27:AO27" si="129">+AM26/AM28</f>
+        <f t="shared" ref="AM27:AO27" si="136">+AM26/AM28</f>
         <v>9.0793325284866118</v>
       </c>
       <c r="AN27" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>15.15390737872981</v>
       </c>
       <c r="AO27" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>27.675373273759003</v>
       </c>
       <c r="AP27" s="12">
-        <f>+AP26/AP28</f>
+        <f t="shared" ref="AP27:AU27" si="137">+AP26/AP28</f>
         <v>6.3064763445557777</v>
       </c>
       <c r="AQ27" s="12">
-        <f>+AQ26/AQ28</f>
+        <f t="shared" si="137"/>
         <v>5.6790982137298718</v>
       </c>
       <c r="AR27" s="12">
-        <f>+AR26/AR28</f>
+        <f t="shared" si="137"/>
         <v>6.4530744220284548</v>
       </c>
       <c r="AS27" s="12">
-        <f>+AS26/AS28</f>
+        <f t="shared" si="137"/>
         <v>9.216876236067618</v>
       </c>
       <c r="AT27" s="12">
-        <f>+AT26/AT28</f>
+        <f t="shared" si="137"/>
         <v>8.3063028961611227</v>
       </c>
       <c r="AU27" s="12">
-        <f>+AU26/AU28</f>
+        <f t="shared" si="137"/>
         <v>9.2067470826545037</v>
       </c>
       <c r="AV27" s="12">
-        <f t="shared" ref="AV27:AW27" si="130">+AV26/AV28</f>
+        <f t="shared" ref="AV27:AW27" si="138">+AV26/AV28</f>
         <v>2.9764851126245446</v>
       </c>
       <c r="AW27" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="138"/>
         <v>2.9714474637107351</v>
       </c>
       <c r="AX27" s="12">
@@ -6269,71 +6269,71 @@
         <v>6.5420459514534279</v>
       </c>
       <c r="BB27" s="12">
-        <f t="shared" ref="BB27:BR27" si="131">+BB26/BB28</f>
+        <f t="shared" ref="BB27:BR27" si="139">+BB26/BB28</f>
         <v>7.3095745988104657</v>
       </c>
       <c r="BC27" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>8.1701287627511689</v>
       </c>
       <c r="BD27" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>8.8787400901490212</v>
       </c>
       <c r="BE27" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>9.6479951438042129</v>
       </c>
       <c r="BF27" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>10.483257310120651</v>
       </c>
       <c r="BG27" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>11.107509379060751</v>
       </c>
       <c r="BH27" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>11.700468871270791</v>
       </c>
       <c r="BI27" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>12.324063307795274</v>
       </c>
       <c r="BJ27" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>12.979853189282546</v>
       </c>
       <c r="BK27" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>13.669478183654308</v>
       </c>
       <c r="BL27" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>14.327814331229108</v>
       </c>
       <c r="BM27" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>15.002753432353025</v>
       </c>
       <c r="BN27" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>15.709407230232772</v>
       </c>
       <c r="BO27" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>16.449271112925071</v>
       </c>
       <c r="BP27" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>17.223911431115933</v>
       </c>
       <c r="BQ27" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>18.034968891055886</v>
       </c>
       <c r="BR27" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>18.884162110950143</v>
       </c>
     </row>
@@ -6474,71 +6474,71 @@
         <v>16325.818750000002</v>
       </c>
       <c r="BB28" s="2">
-        <f t="shared" ref="BB28:BR28" si="132">+BA28</f>
+        <f t="shared" ref="BB28:BR28" si="140">+BA28</f>
         <v>16325.818750000002</v>
       </c>
       <c r="BC28" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>16325.818750000002</v>
       </c>
       <c r="BD28" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>16325.818750000002</v>
       </c>
       <c r="BE28" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>16325.818750000002</v>
       </c>
       <c r="BF28" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>16325.818750000002</v>
       </c>
       <c r="BG28" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>16325.818750000002</v>
       </c>
       <c r="BH28" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>16325.818750000002</v>
       </c>
       <c r="BI28" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>16325.818750000002</v>
       </c>
       <c r="BJ28" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>16325.818750000002</v>
       </c>
       <c r="BK28" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>16325.818750000002</v>
       </c>
       <c r="BL28" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>16325.818750000002</v>
       </c>
       <c r="BM28" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>16325.818750000002</v>
       </c>
       <c r="BN28" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>16325.818750000002</v>
       </c>
       <c r="BO28" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>16325.818750000002</v>
       </c>
       <c r="BP28" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>16325.818750000002</v>
       </c>
       <c r="BQ28" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>16325.818750000002</v>
       </c>
       <c r="BR28" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>16325.818750000002</v>
       </c>
     </row>
@@ -6554,15 +6554,15 @@
         <v>0.21368126422635836</v>
       </c>
       <c r="P30" s="9">
-        <f t="shared" ref="P30" si="133">P14/L14-1</f>
+        <f t="shared" ref="P30" si="141">P14/L14-1</f>
         <v>0.53626121105070901</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" ref="Q30" si="134">Q14/M14-1</f>
+        <f t="shared" ref="Q30" si="142">Q14/M14-1</f>
         <v>0.36439641450950822</v>
       </c>
       <c r="R30" s="9">
-        <f t="shared" ref="R30" si="135">R14/N14-1</f>
+        <f t="shared" ref="R30" si="143">R14/N14-1</f>
         <v>0.28844786546724777</v>
       </c>
       <c r="S30" s="9">
@@ -6582,95 +6582,95 @@
         <v>8.1405950095969182E-2</v>
       </c>
       <c r="W30" s="9">
-        <f t="shared" ref="W30:Z30" si="136">W14/S14-1</f>
+        <f t="shared" ref="W30:Z30" si="144">W14/S14-1</f>
         <v>-5.4790431239662762E-2</v>
       </c>
       <c r="X30" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="144"/>
         <v>-1</v>
       </c>
       <c r="Y30" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="144"/>
         <v>-1</v>
       </c>
       <c r="Z30" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="144"/>
         <v>-1</v>
       </c>
       <c r="AD30" s="9">
-        <f t="shared" ref="AD30:AK30" si="137">+AD14/AC14-1</f>
+        <f t="shared" ref="AD30:AJ30" si="145">+AD14/AC14-1</f>
         <v>0.30143462667101395</v>
       </c>
       <c r="AE30" s="9">
-        <f t="shared" si="137"/>
+        <f t="shared" si="145"/>
         <v>-0.32819741951647252</v>
       </c>
       <c r="AF30" s="9">
-        <f t="shared" si="137"/>
+        <f t="shared" si="145"/>
         <v>7.0669401454409808E-2</v>
       </c>
       <c r="AG30" s="9">
-        <f t="shared" si="137"/>
+        <f t="shared" si="145"/>
         <v>8.0982236154649945E-2</v>
       </c>
       <c r="AH30" s="9">
-        <f t="shared" si="137"/>
+        <f t="shared" si="145"/>
         <v>0.33381665861124543</v>
       </c>
       <c r="AI30" s="9">
-        <f t="shared" si="137"/>
+        <f t="shared" si="145"/>
         <v>0.68269114627370464</v>
       </c>
       <c r="AJ30" s="9">
-        <f t="shared" si="137"/>
+        <f t="shared" si="145"/>
         <v>0.38647620414902017</v>
       </c>
       <c r="AK30" s="9">
-        <f t="shared" ref="AK30:AM30" si="138">+AK14/AJ14-1</f>
+        <f t="shared" ref="AK30:AL30" si="146">+AK14/AJ14-1</f>
         <v>0.24286823712140815</v>
       </c>
       <c r="AL30" s="9">
-        <f t="shared" si="138"/>
+        <f t="shared" si="146"/>
         <v>0.56173456635841035</v>
       </c>
       <c r="AM30" s="9">
-        <f>+AM14/AL14-1</f>
+        <f t="shared" ref="AM30:AR30" si="147">+AM14/AL14-1</f>
         <v>0.14440799125123371</v>
       </c>
       <c r="AN30" s="9">
-        <f>+AN14/AM14-1</f>
+        <f t="shared" si="147"/>
         <v>0.52021908868430256</v>
       </c>
       <c r="AO30" s="9">
-        <f>+AO14/AN14-1</f>
+        <f t="shared" si="147"/>
         <v>0.65962437715599842</v>
       </c>
       <c r="AP30" s="9">
-        <f>+AP14/AO14-1</f>
+        <f t="shared" si="147"/>
         <v>0.44581474193756976</v>
       </c>
       <c r="AQ30" s="9">
-        <f>+AQ14/AP14-1</f>
+        <f t="shared" si="147"/>
         <v>9.2020855163953197E-2</v>
       </c>
       <c r="AR30" s="9">
-        <f>+AR14/AQ14-1</f>
+        <f t="shared" si="147"/>
         <v>6.9539523725937524E-2</v>
       </c>
       <c r="AS30" s="9">
-        <f t="shared" ref="AS30:AV30" si="139">+AS14/AR14-1</f>
+        <f t="shared" ref="AS30:AV30" si="148">+AS14/AR14-1</f>
         <v>0.27856341803659834</v>
       </c>
       <c r="AT30" s="9">
-        <f t="shared" si="139"/>
+        <f t="shared" si="148"/>
         <v>-7.7342061913013738E-2</v>
       </c>
       <c r="AU30" s="9">
-        <f t="shared" si="139"/>
+        <f t="shared" si="148"/>
         <v>6.304518199398057E-2</v>
       </c>
       <c r="AV30" s="9">
-        <f t="shared" si="139"/>
+        <f t="shared" si="148"/>
         <v>0.15861957650261305</v>
       </c>
       <c r="AW30" s="9">
@@ -6682,83 +6682,83 @@
         <v>5.5120803769784787E-2</v>
       </c>
       <c r="AY30" s="9">
-        <f t="shared" ref="AY30:BR30" si="140">+AY14/AX14-1</f>
+        <f t="shared" ref="AY30:BR30" si="149">+AY14/AX14-1</f>
         <v>0.33259384733074704</v>
       </c>
       <c r="AZ30" s="9">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>7.7937876041846099E-2</v>
       </c>
       <c r="BA30" s="9">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>7.8816937169057244E-2</v>
       </c>
       <c r="BB30" s="9">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>8.0074448623012495E-2</v>
       </c>
       <c r="BC30" s="9">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>8.1380548944790077E-2</v>
       </c>
       <c r="BD30" s="9">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>6.5675809941133867E-2</v>
       </c>
       <c r="BE30" s="9">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>6.6079188079942508E-2</v>
       </c>
       <c r="BF30" s="9">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>6.6488075308868799E-2</v>
       </c>
       <c r="BG30" s="9">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>5.3766857881200947E-2</v>
       </c>
       <c r="BH30" s="9">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>4.7828298126808555E-2</v>
       </c>
       <c r="BI30" s="9">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>4.7853262617086001E-2</v>
       </c>
       <c r="BJ30" s="9">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>4.7878330360698884E-2</v>
       </c>
       <c r="BK30" s="9">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>4.7903501975288032E-2</v>
       </c>
       <c r="BL30" s="9">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>4.2974415876352534E-2</v>
       </c>
       <c r="BM30" s="9">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>4.1956118367983297E-2</v>
       </c>
       <c r="BN30" s="9">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>4.1994629421749918E-2</v>
       </c>
       <c r="BO30" s="9">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>4.2033236003122587E-2</v>
       </c>
       <c r="BP30" s="9">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>4.2071935627994828E-2</v>
       </c>
       <c r="BQ30" s="9">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>4.2110725785606373E-2</v>
       </c>
       <c r="BR30" s="9">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>4.2149603939151126E-2</v>
       </c>
       <c r="BT30" s="4" t="s">
@@ -6776,84 +6776,84 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9">
-        <f t="shared" ref="O31:W31" si="141">+O4/K4-1</f>
+        <f t="shared" ref="O31:W31" si="150">+O4/K4-1</f>
         <v>0.1722751398395197</v>
       </c>
       <c r="P31" s="9">
-        <f t="shared" si="141"/>
+        <f t="shared" si="150"/>
         <v>0.65520336993301576</v>
       </c>
       <c r="Q31" s="9">
-        <f t="shared" si="141"/>
+        <f t="shared" si="150"/>
         <v>0.49784238019532134</v>
       </c>
       <c r="R31" s="9">
-        <f t="shared" si="141"/>
+        <f t="shared" si="150"/>
         <v>0.46982302223566785</v>
       </c>
       <c r="S31" s="9">
-        <f t="shared" si="141"/>
+        <f t="shared" si="150"/>
         <v>9.1940180191167231E-2</v>
       </c>
       <c r="T31" s="9">
-        <f t="shared" si="141"/>
+        <f t="shared" si="150"/>
         <v>5.4904251324627618E-2</v>
       </c>
       <c r="U31" s="9">
-        <f t="shared" si="141"/>
+        <f t="shared" si="150"/>
         <v>2.7672479150871787E-2</v>
       </c>
       <c r="V31" s="9">
-        <f t="shared" si="141"/>
+        <f t="shared" si="150"/>
         <v>9.6686220026757308E-2</v>
       </c>
       <c r="W31" s="9">
-        <f t="shared" si="141"/>
+        <f t="shared" si="150"/>
         <v>-8.1713854917071505E-2</v>
       </c>
       <c r="AK31" s="9"/>
       <c r="AL31" s="9">
-        <f t="shared" ref="AL31" si="142">+AL4/AK4-1</f>
+        <f t="shared" ref="AL31" si="151">+AL4/AK4-1</f>
         <v>53.8130081300813</v>
       </c>
       <c r="AM31" s="9">
-        <f t="shared" ref="AM31:AT31" si="143">+AM4/AL4-1</f>
+        <f t="shared" ref="AM31:AT31" si="152">+AM4/AL4-1</f>
         <v>0.93310590329279153</v>
       </c>
       <c r="AN31" s="9">
-        <f t="shared" si="143"/>
+        <f t="shared" si="152"/>
         <v>0.93194199340136574</v>
       </c>
       <c r="AO31" s="9">
-        <f t="shared" si="143"/>
+        <f t="shared" si="152"/>
         <v>0.82683982683982693</v>
       </c>
       <c r="AP31" s="9">
-        <f t="shared" si="143"/>
+        <f t="shared" si="152"/>
         <v>0.71077003347971646</v>
       </c>
       <c r="AQ31" s="9">
-        <f t="shared" si="143"/>
+        <f t="shared" si="152"/>
         <v>0.15995272708788688</v>
       </c>
       <c r="AR31" s="9">
-        <f t="shared" si="143"/>
+        <f t="shared" si="152"/>
         <v>0.11735448460215392</v>
       </c>
       <c r="AS31" s="9">
-        <f t="shared" si="143"/>
+        <f t="shared" si="152"/>
         <v>0.52014393426870997</v>
       </c>
       <c r="AT31" s="9">
-        <f t="shared" si="143"/>
+        <f t="shared" si="152"/>
         <v>-0.11829774059764842</v>
       </c>
       <c r="AU31" s="9">
-        <f t="shared" ref="AU31:AY31" si="144">+AU4/AT4-1</f>
+        <f t="shared" ref="AU31:AY31" si="153">+AU4/AT4-1</f>
         <v>3.3789319678127372E-2</v>
       </c>
       <c r="AV31" s="9">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>0.16677870633106662</v>
       </c>
       <c r="AW31" s="9">
@@ -6865,7 +6865,7 @@
         <v>-3.2307681502447672E-2</v>
       </c>
       <c r="AY31" s="9">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>0.39331983364905176</v>
       </c>
       <c r="AZ31" s="9">
@@ -6877,71 +6877,71 @@
         <v>6.6800000000000193E-2</v>
       </c>
       <c r="BB31" s="9">
-        <f t="shared" ref="BB31:BR31" si="145">+BB4/BA4-1</f>
+        <f t="shared" ref="BB31:BR31" si="154">+BB4/BA4-1</f>
         <v>6.6799999999999971E-2</v>
       </c>
       <c r="BC31" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="154"/>
         <v>6.6799999999999971E-2</v>
       </c>
       <c r="BD31" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="154"/>
         <v>5.6640000000000024E-2</v>
       </c>
       <c r="BE31" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="154"/>
         <v>5.6640000000000246E-2</v>
       </c>
       <c r="BF31" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="154"/>
         <v>5.6640000000000024E-2</v>
       </c>
       <c r="BG31" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="154"/>
         <v>5.6640000000000024E-2</v>
       </c>
       <c r="BH31" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="154"/>
         <v>4.6480000000000077E-2</v>
       </c>
       <c r="BI31" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="154"/>
         <v>4.6480000000000077E-2</v>
       </c>
       <c r="BJ31" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="154"/>
         <v>4.6480000000000077E-2</v>
       </c>
       <c r="BK31" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="154"/>
         <v>4.6480000000000077E-2</v>
       </c>
       <c r="BL31" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="154"/>
         <v>3.632000000000013E-2</v>
       </c>
       <c r="BM31" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="154"/>
         <v>3.632000000000013E-2</v>
       </c>
       <c r="BN31" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="154"/>
         <v>3.6319999999999908E-2</v>
       </c>
       <c r="BO31" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="154"/>
         <v>3.6319999999999908E-2</v>
       </c>
       <c r="BP31" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="154"/>
         <v>3.632000000000013E-2</v>
       </c>
       <c r="BQ31" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="154"/>
         <v>3.6319999999999908E-2</v>
       </c>
       <c r="BR31" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="154"/>
         <v>3.632000000000013E-2</v>
       </c>
       <c r="BT31" s="4" t="s">
@@ -6963,35 +6963,35 @@
         <v>0.23955957530475813</v>
       </c>
       <c r="P32" s="9">
-        <f t="shared" ref="P32:W32" si="146">+P13/L13-1</f>
+        <f t="shared" ref="P32:W32" si="155">+P13/L13-1</f>
         <v>0.26618219958046141</v>
       </c>
       <c r="Q32" s="9">
-        <f t="shared" si="146"/>
+        <f t="shared" si="155"/>
         <v>0.32912739434478566</v>
       </c>
       <c r="R32" s="9">
-        <f t="shared" si="146"/>
+        <f t="shared" si="155"/>
         <v>0.25623754209911342</v>
       </c>
       <c r="S32" s="9">
-        <f t="shared" si="146"/>
+        <f t="shared" si="155"/>
         <v>0.23824630416851722</v>
       </c>
       <c r="T32" s="9">
-        <f t="shared" si="146"/>
+        <f t="shared" si="155"/>
         <v>0.17277084196201398</v>
       </c>
       <c r="U32" s="9">
-        <f t="shared" si="146"/>
+        <f t="shared" si="155"/>
         <v>0.12112547180601618</v>
       </c>
       <c r="V32" s="9">
-        <f t="shared" si="146"/>
+        <f t="shared" si="155"/>
         <v>4.984406631285232E-2</v>
       </c>
       <c r="W32" s="9">
-        <f t="shared" si="146"/>
+        <f t="shared" si="155"/>
         <v>6.4050010248001721E-2</v>
       </c>
       <c r="AW32" s="9">
@@ -6999,15 +6999,15 @@
         <v>0.16461205595250084</v>
       </c>
       <c r="AX32" s="9">
-        <f t="shared" ref="AX32:AZ32" si="147">+AX13/AW13-1</f>
+        <f t="shared" ref="AX32:AZ32" si="156">+AX13/AW13-1</f>
         <v>0.16152167807997242</v>
       </c>
       <c r="AY32" s="9">
-        <f t="shared" si="147"/>
+        <f t="shared" si="156"/>
         <v>0.27259708376729663</v>
       </c>
       <c r="AZ32" s="9">
-        <f t="shared" si="147"/>
+        <f t="shared" si="156"/>
         <v>0.14181951041286078</v>
       </c>
       <c r="BA32" s="9">
@@ -7015,71 +7015,71 @@
         <v>0.14999999999999991</v>
       </c>
       <c r="BB32" s="9">
-        <f t="shared" ref="BB32:BR32" si="148">+BB13/BA13-1</f>
+        <f t="shared" ref="BB32:BR32" si="157">+BB13/BA13-1</f>
         <v>0.14999999999999991</v>
       </c>
       <c r="BC32" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="157"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="BD32" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="157"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BE32" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="157"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BF32" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="157"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BG32" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="157"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BH32" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="157"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BI32" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="157"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BJ32" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="157"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BK32" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="157"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BL32" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="157"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BM32" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="157"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BN32" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="157"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BO32" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="157"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BP32" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="157"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BQ32" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="157"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BR32" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="157"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BT32" s="4" t="s">
@@ -7097,39 +7097,39 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5">
-        <f t="shared" ref="E33" si="149">+E18/E14</f>
+        <f t="shared" ref="E33" si="158">+E18/E14</f>
         <v>0.38338496198254013</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" ref="K33" si="150">+K18/K14</f>
+        <f t="shared" ref="K33" si="159">+K18/K14</f>
         <v>0.38354806739345887</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" ref="L33:N33" si="151">+L18/L14</f>
+        <f t="shared" ref="L33:N33" si="160">+L18/L14</f>
         <v>0.38361943305952362</v>
       </c>
       <c r="M33" s="5">
-        <f t="shared" si="151"/>
+        <f t="shared" si="160"/>
         <v>0.37999497361146017</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" si="151"/>
+        <f t="shared" si="160"/>
         <v>0.38160375900336951</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" ref="O33:Q33" si="152">+O18/O14</f>
+        <f t="shared" ref="O33:Q33" si="161">+O18/O14</f>
         <v>0.39777815665969724</v>
       </c>
       <c r="P33" s="5">
-        <f t="shared" si="152"/>
+        <f t="shared" si="161"/>
         <v>0.42506474370423292</v>
       </c>
       <c r="Q33" s="5">
-        <f t="shared" si="152"/>
+        <f t="shared" si="161"/>
         <v>0.43292727853230839</v>
       </c>
       <c r="R33" s="5">
-        <f t="shared" ref="R33" si="153">+R18/R14</f>
+        <f t="shared" ref="R33" si="162">+R18/R14</f>
         <v>0.42195297504798462</v>
       </c>
       <c r="S33" s="5">
@@ -7145,71 +7145,71 @@
         <v>0.43256307332537758</v>
       </c>
       <c r="V33" s="5">
-        <f t="shared" ref="V33:W33" si="154">+V18/V14</f>
+        <f t="shared" ref="V33:W33" si="163">+V18/V14</f>
         <v>0.4225922392563175</v>
       </c>
       <c r="W33" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="163"/>
         <v>0.42962254809908323</v>
       </c>
       <c r="AD33" s="5">
-        <f t="shared" ref="AD33:AF33" si="155">+AD18/AD14</f>
+        <f t="shared" ref="AD33:AE33" si="164">+AD18/AD14</f>
         <v>0.27132656895903795</v>
       </c>
       <c r="AE33" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="164"/>
         <v>0.23028155882901361</v>
       </c>
       <c r="AF33" s="5">
-        <f t="shared" ref="AF33:AJ33" si="156">+AF18/AF14</f>
+        <f t="shared" ref="AF33:AI33" si="165">+AF18/AF14</f>
         <v>0.27917102055033088</v>
       </c>
       <c r="AG33" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="165"/>
         <v>0.27517319155791847</v>
       </c>
       <c r="AH33" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="165"/>
         <v>0.27285904094697427</v>
       </c>
       <c r="AI33" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="165"/>
         <v>0.29021606489124974</v>
       </c>
       <c r="AJ33" s="5">
-        <f t="shared" ref="AJ33:AL33" si="157">+AJ18/AJ14</f>
+        <f t="shared" ref="AJ33:AL33" si="166">+AJ18/AJ14</f>
         <v>0.28982655966865128</v>
       </c>
       <c r="AK33" s="5">
-        <f t="shared" si="157"/>
+        <f t="shared" si="166"/>
         <v>0.33966508372906773</v>
       </c>
       <c r="AL33" s="5">
-        <f t="shared" si="157"/>
+        <f t="shared" si="166"/>
         <v>0.35200448107545812</v>
       </c>
       <c r="AM33" s="5">
-        <f t="shared" ref="AM33:AN33" si="158">+AM18/AM14</f>
+        <f t="shared" ref="AM33:AN33" si="167">+AM18/AM14</f>
         <v>0.40139843841044165</v>
       </c>
       <c r="AN33" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="167"/>
         <v>0.39377539287083174</v>
       </c>
       <c r="AO33" s="5">
-        <f t="shared" ref="AO33:AR33" si="159">+AO18/AO14</f>
+        <f t="shared" ref="AO33:AR33" si="168">+AO18/AO14</f>
         <v>0.40478895878945764</v>
       </c>
       <c r="AP33" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="168"/>
         <v>0.43871239808827661</v>
       </c>
       <c r="AQ33" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="168"/>
         <v>0.37624480720847231</v>
       </c>
       <c r="AR33" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="168"/>
         <v>0.38588035777783858</v>
       </c>
       <c r="AS33" s="5">
@@ -7225,23 +7225,23 @@
         <v>0.38469860491899105</v>
       </c>
       <c r="AV33" s="5">
-        <f t="shared" ref="AV33:AZ33" si="160">+AV18/AV14</f>
+        <f t="shared" ref="AV33:AZ33" si="169">+AV18/AV14</f>
         <v>0.38343718820007905</v>
       </c>
       <c r="AW33" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="169"/>
         <v>0.37817768109034722</v>
       </c>
       <c r="AX33" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="169"/>
         <v>0.38233247727810865</v>
       </c>
       <c r="AY33" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="169"/>
         <v>0.41779359625167778</v>
       </c>
       <c r="AZ33" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="169"/>
         <v>0.43309630561360085</v>
       </c>
       <c r="BA33" s="5">
@@ -7249,71 +7249,71 @@
         <v>0.43814594688982383</v>
       </c>
       <c r="BB33" s="5">
-        <f t="shared" ref="BB33:BK33" si="161">+BB18/BB14</f>
+        <f t="shared" ref="BB33:BK33" si="170">+BB18/BB14</f>
         <v>0.44320522630441817</v>
       </c>
       <c r="BC33" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="170"/>
         <v>0.44848504843503167</v>
       </c>
       <c r="BD33" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="170"/>
         <v>0.45133504990031753</v>
       </c>
       <c r="BE33" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="170"/>
         <v>0.4542411745897581</v>
       </c>
       <c r="BF33" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="170"/>
         <v>0.45720248584937162</v>
       </c>
       <c r="BG33" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="170"/>
         <v>0.45685502004405087</v>
       </c>
       <c r="BH33" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="170"/>
         <v>0.4570557592575592</v>
       </c>
       <c r="BI33" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="170"/>
         <v>0.45725459742895053</v>
       </c>
       <c r="BJ33" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="170"/>
         <v>0.45745151163231645</v>
       </c>
       <c r="BK33" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="170"/>
         <v>0.45764647891819471</v>
       </c>
       <c r="BL33" s="5">
-        <f t="shared" ref="BL33:BR33" si="162">+BL18/BL14</f>
+        <f t="shared" ref="BL33:BR33" si="171">+BL18/BL14</f>
         <v>0.45830423575438839</v>
       </c>
       <c r="BM33" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="171"/>
         <v>0.45906314260506531</v>
       </c>
       <c r="BN33" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="171"/>
         <v>0.45982421866515938</v>
       </c>
       <c r="BO33" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="171"/>
         <v>0.46058741504297213</v>
       </c>
       <c r="BP33" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="171"/>
         <v>0.46135268227089493</v>
       </c>
       <c r="BQ33" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="171"/>
         <v>0.46211997031717877</v>
       </c>
       <c r="BR33" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="171"/>
         <v>0.46288922859802623</v>
       </c>
       <c r="BT33" s="4" t="s">
@@ -7338,111 +7338,111 @@
         <v>0.64396382225717652</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" ref="L34:U34" si="163">(L13-L16)/L13</f>
+        <f t="shared" ref="L34:U34" si="172">(L13-L16)/L13</f>
         <v>0.65373089601438417</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>0.67224080267558528</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>0.66925561894288266</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>0.6839667533785927</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>0.70072776758771671</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>0.69804414960539862</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>0.704765552333534</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>0.72366263578602175</v>
       </c>
       <c r="T34" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>0.72609858231168967</v>
       </c>
       <c r="U34" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>0.71490512140379514</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" ref="V34:W34" si="164">(V13-V16)/V13</f>
+        <f t="shared" ref="V34:W34" si="173">(V13-V16)/V13</f>
         <v>0.70481550969355844</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" si="164"/>
+        <f t="shared" si="173"/>
         <v>0.70832129442357705</v>
       </c>
       <c r="AD34" s="5">
-        <f t="shared" ref="AD34:AF34" si="165">(AD13-AD16)/AD13</f>
+        <f t="shared" ref="AD34:AE34" si="174">(AD13-AD16)/AD13</f>
         <v>1</v>
       </c>
       <c r="AE34" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="174"/>
         <v>1</v>
       </c>
       <c r="AF34" s="5">
-        <f t="shared" ref="AF34:AJ34" si="166">(AF13-AF16)/AF13</f>
+        <f t="shared" ref="AF34:AI34" si="175">(AF13-AF16)/AF13</f>
         <v>1</v>
       </c>
       <c r="AG34" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="175"/>
         <v>1</v>
       </c>
       <c r="AH34" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="175"/>
         <v>1</v>
       </c>
       <c r="AI34" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="175"/>
         <v>1</v>
       </c>
       <c r="AJ34" s="5">
-        <f t="shared" ref="AJ34:AL34" si="167">(AJ13-AJ16)/AJ13</f>
+        <f t="shared" ref="AJ34:AL34" si="176">(AJ13-AJ16)/AJ13</f>
         <v>1</v>
       </c>
       <c r="AK34" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="176"/>
         <v>1</v>
       </c>
       <c r="AL34" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="176"/>
         <v>1</v>
       </c>
       <c r="AM34" s="5">
-        <f t="shared" ref="AM34:AN34" si="168">(AM13-AM16)/AM13</f>
+        <f t="shared" ref="AM34:AN34" si="177">(AM13-AM16)/AM13</f>
         <v>1</v>
       </c>
       <c r="AN34" s="5">
-        <f t="shared" si="168"/>
+        <f t="shared" si="177"/>
         <v>1</v>
       </c>
       <c r="AO34" s="5">
-        <f t="shared" ref="AO34:AR34" si="169">(AO13-AO16)/AO13</f>
+        <f t="shared" ref="AO34:AR34" si="178">(AO13-AO16)/AO13</f>
         <v>1</v>
       </c>
       <c r="AP34" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="178"/>
         <v>1</v>
       </c>
       <c r="AQ34" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="178"/>
         <v>1</v>
       </c>
       <c r="AR34" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="178"/>
         <v>1</v>
       </c>
       <c r="AS34" s="5">
@@ -7458,23 +7458,23 @@
         <v>1</v>
       </c>
       <c r="AV34" s="5">
-        <f t="shared" ref="AV34:AZ34" si="170">(AV13-AV16)/AV13</f>
+        <f t="shared" ref="AV34:AZ34" si="179">(AV13-AV16)/AV13</f>
         <v>0.60772869075173597</v>
       </c>
       <c r="AW34" s="5">
-        <f t="shared" si="170"/>
+        <f t="shared" si="179"/>
         <v>0.63738091637683347</v>
       </c>
       <c r="AX34" s="5">
-        <f t="shared" si="170"/>
+        <f t="shared" si="179"/>
         <v>0.66015101919357233</v>
       </c>
       <c r="AY34" s="5">
-        <f t="shared" si="170"/>
+        <f t="shared" si="179"/>
         <v>0.69725977347460721</v>
       </c>
       <c r="AZ34" s="5">
-        <f t="shared" si="170"/>
+        <f t="shared" si="179"/>
         <v>0.71745446633132381</v>
       </c>
       <c r="BA34" s="5">
@@ -7482,71 +7482,71 @@
         <v>0.73</v>
       </c>
       <c r="BB34" s="5">
-        <f t="shared" ref="BB34:BK34" si="171">(BB13-BB16)/BB13</f>
+        <f t="shared" ref="BB34:BK34" si="180">(BB13-BB16)/BB13</f>
         <v>0.73</v>
       </c>
       <c r="BC34" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="180"/>
         <v>0.73</v>
       </c>
       <c r="BD34" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="180"/>
         <v>0.73000000000000009</v>
       </c>
       <c r="BE34" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="180"/>
         <v>0.72999999999999987</v>
       </c>
       <c r="BF34" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="180"/>
         <v>0.73</v>
       </c>
       <c r="BG34" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="180"/>
         <v>0.73</v>
       </c>
       <c r="BH34" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="180"/>
         <v>0.73000000000000009</v>
       </c>
       <c r="BI34" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="180"/>
         <v>0.72999999999999987</v>
       </c>
       <c r="BJ34" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="180"/>
         <v>0.73000000000000009</v>
       </c>
       <c r="BK34" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="180"/>
         <v>0.72999999999999987</v>
       </c>
       <c r="BL34" s="5">
-        <f t="shared" ref="BL34:BR34" si="172">(BL13-BL16)/BL13</f>
+        <f t="shared" ref="BL34:BR34" si="181">(BL13-BL16)/BL13</f>
         <v>0.73</v>
       </c>
       <c r="BM34" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="181"/>
         <v>0.73</v>
       </c>
       <c r="BN34" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="181"/>
         <v>0.73</v>
       </c>
       <c r="BO34" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="181"/>
         <v>0.73</v>
       </c>
       <c r="BP34" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="181"/>
         <v>0.73</v>
       </c>
       <c r="BQ34" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="181"/>
         <v>0.73</v>
       </c>
       <c r="BR34" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="181"/>
         <v>0.73</v>
       </c>
       <c r="BT34" s="4" t="s">
@@ -7571,111 +7571,111 @@
         <v>0.3416894215210356</v>
       </c>
       <c r="L35" s="5">
-        <f t="shared" ref="L35:V35" si="173">(L12-L15)/L12</f>
+        <f t="shared" ref="L35:V35" si="182">(L12-L15)/L12</f>
         <v>0.30343600578227509</v>
       </c>
       <c r="M35" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="182"/>
         <v>0.29736293494379851</v>
       </c>
       <c r="N35" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="182"/>
         <v>0.2981515085046561</v>
       </c>
       <c r="O35" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="182"/>
         <v>0.35063441961579467</v>
       </c>
       <c r="P35" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="182"/>
         <v>0.3609647372838215</v>
       </c>
       <c r="Q35" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="182"/>
         <v>0.36043347720022517</v>
       </c>
       <c r="R35" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="182"/>
         <v>0.34253184395310604</v>
       </c>
       <c r="S35" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="182"/>
         <v>0.38418446983117716</v>
       </c>
       <c r="T35" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="182"/>
         <v>0.36364692668190091</v>
       </c>
       <c r="U35" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="182"/>
         <v>0.34519769552521506</v>
       </c>
       <c r="V35" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="182"/>
         <v>0.34627526142224979</v>
       </c>
       <c r="W35" s="5">
-        <f t="shared" ref="W35" si="174">(W12-W15)/W12</f>
+        <f t="shared" ref="W35" si="183">(W12-W15)/W12</f>
         <v>0.36957920073038136</v>
       </c>
       <c r="AD35" s="5">
-        <f t="shared" ref="AD35:AF35" si="175">(AD12-AD15)/AD12</f>
+        <f t="shared" ref="AD35:AE35" si="184">(AD12-AD15)/AD12</f>
         <v>1</v>
       </c>
       <c r="AE35" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="184"/>
         <v>1</v>
       </c>
       <c r="AF35" s="5">
-        <f t="shared" ref="AF35:AJ35" si="176">(AF12-AF15)/AF12</f>
+        <f t="shared" ref="AF35:AI35" si="185">(AF12-AF15)/AF12</f>
         <v>1</v>
       </c>
       <c r="AG35" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="185"/>
         <v>1</v>
       </c>
       <c r="AH35" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="185"/>
         <v>1</v>
       </c>
       <c r="AI35" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="185"/>
         <v>1</v>
       </c>
       <c r="AJ35" s="5">
-        <f t="shared" ref="AJ35:AL35" si="177">(AJ12-AJ15)/AJ12</f>
+        <f t="shared" ref="AJ35:AL35" si="186">(AJ12-AJ15)/AJ12</f>
         <v>1</v>
       </c>
       <c r="AK35" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>1</v>
       </c>
       <c r="AL35" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>1</v>
       </c>
       <c r="AM35" s="5">
-        <f t="shared" ref="AM35:AN35" si="178">(AM12-AM15)/AM12</f>
+        <f t="shared" ref="AM35:AN35" si="187">(AM12-AM15)/AM12</f>
         <v>1</v>
       </c>
       <c r="AN35" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="187"/>
         <v>1</v>
       </c>
       <c r="AO35" s="5">
-        <f t="shared" ref="AO35:AR35" si="179">(AO12-AO15)/AO12</f>
+        <f t="shared" ref="AO35:AR35" si="188">(AO12-AO15)/AO12</f>
         <v>1</v>
       </c>
       <c r="AP35" s="5">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>1</v>
       </c>
       <c r="AQ35" s="5">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>1</v>
       </c>
       <c r="AR35" s="5">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>1</v>
       </c>
       <c r="AS35" s="5">
@@ -7691,23 +7691,23 @@
         <v>1</v>
       </c>
       <c r="AV35" s="5">
-        <f t="shared" ref="AV35:AZ35" si="180">(AV12-AV15)/AV12</f>
+        <f t="shared" ref="AV35:AZ35" si="189">(AV12-AV15)/AV12</f>
         <v>0.34396294836770025</v>
       </c>
       <c r="AW35" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="189"/>
         <v>0.32207795851002652</v>
       </c>
       <c r="AX35" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="189"/>
         <v>0.31466339293399231</v>
       </c>
       <c r="AY35" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="189"/>
         <v>0.35349303276483562</v>
       </c>
       <c r="AZ35" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="189"/>
         <v>0.36283479707399452</v>
       </c>
       <c r="BA35" s="5">
@@ -7715,71 +7715,71 @@
         <v>0.36</v>
       </c>
       <c r="BB35" s="5">
-        <f t="shared" ref="BB35:BK35" si="181">(BB12-BB15)/BB12</f>
+        <f t="shared" ref="BB35:BK35" si="190">(BB12-BB15)/BB12</f>
         <v>0.35999999999999993</v>
       </c>
       <c r="BC35" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="190"/>
         <v>0.35999999999999993</v>
       </c>
       <c r="BD35" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="190"/>
         <v>0.35999999999999993</v>
       </c>
       <c r="BE35" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="190"/>
         <v>0.36</v>
       </c>
       <c r="BF35" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="190"/>
         <v>0.35999999999999993</v>
       </c>
       <c r="BG35" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="190"/>
         <v>0.35999999999999993</v>
       </c>
       <c r="BH35" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="190"/>
         <v>0.36</v>
       </c>
       <c r="BI35" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="190"/>
         <v>0.36</v>
       </c>
       <c r="BJ35" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="190"/>
         <v>0.36</v>
       </c>
       <c r="BK35" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="190"/>
         <v>0.35999999999999993</v>
       </c>
       <c r="BL35" s="5">
-        <f t="shared" ref="BL35:BR35" si="182">(BL12-BL15)/BL12</f>
+        <f t="shared" ref="BL35:BR35" si="191">(BL12-BL15)/BL12</f>
         <v>0.36000000000000004</v>
       </c>
       <c r="BM35" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="191"/>
         <v>0.36</v>
       </c>
       <c r="BN35" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="191"/>
         <v>0.36</v>
       </c>
       <c r="BO35" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="191"/>
         <v>0.36000000000000004</v>
       </c>
       <c r="BP35" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="191"/>
         <v>0.36</v>
       </c>
       <c r="BQ35" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="191"/>
         <v>0.36</v>
       </c>
       <c r="BR35" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="191"/>
         <v>0.36000000000000004</v>
       </c>
     </row>
@@ -7790,39 +7790,39 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5">
-        <f t="shared" ref="E36" si="183">+E22/E14</f>
+        <f t="shared" ref="E36" si="192">+E22/E14</f>
         <v>0.23677837228949591</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" ref="K36" si="184">+K22/K14</f>
+        <f t="shared" ref="K36" si="193">+K22/K14</f>
         <v>0.2784717759940753</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" ref="L36:N36" si="185">+L22/L14</f>
+        <f t="shared" ref="L36:N36" si="194">+L22/L14</f>
         <v>0.22041397287054346</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" si="185"/>
+        <f t="shared" si="194"/>
         <v>0.21933484124989527</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="185"/>
+        <f t="shared" si="194"/>
         <v>0.2283687285542057</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" ref="O36:Q36" si="186">+O22/O14</f>
+        <f t="shared" ref="O36:Q36" si="195">+O22/O14</f>
         <v>0.30091799100853384</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="186"/>
+        <f t="shared" si="195"/>
         <v>0.30700794784782998</v>
       </c>
       <c r="Q36" s="5">
-        <f t="shared" si="186"/>
+        <f t="shared" si="195"/>
         <v>0.29626445956234498</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" ref="R36" si="187">+R22/R14</f>
+        <f t="shared" ref="R36" si="196">+R22/R14</f>
         <v>0.28534069097888676</v>
       </c>
       <c r="S36" s="5">
@@ -7838,71 +7838,71 @@
         <v>0.27816150146457891</v>
       </c>
       <c r="V36" s="5">
-        <f t="shared" ref="V36:W36" si="188">+V22/V14</f>
+        <f t="shared" ref="V36:W36" si="197">+V22/V14</f>
         <v>0.27615202005635303</v>
       </c>
       <c r="W36" s="5">
-        <f t="shared" si="188"/>
+        <f t="shared" si="197"/>
         <v>0.30742441572630896</v>
       </c>
       <c r="AD36" s="5">
-        <f t="shared" ref="AD36:AF36" si="189">+AD22/AD14</f>
+        <f t="shared" ref="AD36:AE36" si="198">+AD22/AD14</f>
         <v>7.7665038206188156E-2</v>
       </c>
       <c r="AE36" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="198"/>
         <v>-6.2092112623531606E-2</v>
       </c>
       <c r="AF36" s="5">
-        <f t="shared" ref="AF36:AJ36" si="190">+AF22/AF14</f>
+        <f t="shared" ref="AF36:AI36" si="199">+AF22/AF14</f>
         <v>8.3594566353187051E-3</v>
       </c>
       <c r="AG36" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="199"/>
         <v>4.0277106492669565E-3</v>
       </c>
       <c r="AH36" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="199"/>
         <v>4.2154849619519263E-2</v>
       </c>
       <c r="AI36" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="199"/>
         <v>0.11844088722991888</v>
       </c>
       <c r="AJ36" s="5">
-        <f t="shared" ref="AJ36:AL36" si="191">+AJ22/AJ14</f>
+        <f t="shared" ref="AJ36:AL36" si="200">+AJ22/AJ14</f>
         <v>0.1269997411338338</v>
       </c>
       <c r="AK36" s="5">
-        <f t="shared" si="191"/>
+        <f t="shared" si="200"/>
         <v>0.1836624177289011</v>
       </c>
       <c r="AL36" s="5">
-        <f t="shared" si="191"/>
+        <f t="shared" si="200"/>
         <v>0.22210663892667573</v>
       </c>
       <c r="AM36" s="5">
-        <f t="shared" ref="AM36:AN36" si="192">+AM22/AM14</f>
+        <f t="shared" ref="AM36:AN36" si="201">+AM22/AM14</f>
         <v>0.2736277823097541</v>
       </c>
       <c r="AN36" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="201"/>
         <v>0.28187044844768111</v>
       </c>
       <c r="AO36" s="5">
-        <f t="shared" ref="AO36:AR36" si="193">+AO22/AO14</f>
+        <f t="shared" ref="AO36:AR36" si="202">+AO22/AO14</f>
         <v>0.31215068961376086</v>
       </c>
       <c r="AP36" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="202"/>
         <v>0.35295959311984054</v>
       </c>
       <c r="AQ36" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="202"/>
         <v>0.28669475162366159</v>
       </c>
       <c r="AR36" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="202"/>
         <v>0.28722339232473537</v>
       </c>
       <c r="AS36" s="5">
@@ -7918,23 +7918,23 @@
         <v>0.26760428208729942</v>
       </c>
       <c r="AV36" s="5">
-        <f t="shared" ref="AV36:AZ36" si="194">+AV22/AV14</f>
+        <f t="shared" ref="AV36:AZ36" si="203">+AV22/AV14</f>
         <v>0.26694026619477024</v>
       </c>
       <c r="AW36" s="5">
-        <f t="shared" si="194"/>
+        <f t="shared" si="203"/>
         <v>0.24572017188496928</v>
       </c>
       <c r="AX36" s="5">
-        <f t="shared" si="194"/>
+        <f t="shared" si="203"/>
         <v>0.24147314354406862</v>
       </c>
       <c r="AY36" s="5">
-        <f t="shared" si="194"/>
+        <f t="shared" si="203"/>
         <v>0.29782377527561593</v>
       </c>
       <c r="AZ36" s="5">
-        <f t="shared" si="194"/>
+        <f t="shared" si="203"/>
         <v>0.30288744395528594</v>
       </c>
       <c r="BA36" s="5">
@@ -7942,71 +7942,71 @@
         <v>0.3138290930406451</v>
       </c>
       <c r="BB36" s="5">
-        <f t="shared" ref="BB36:BK36" si="195">+BB22/BB14</f>
+        <f t="shared" ref="BB36:BK36" si="204">+BB22/BB14</f>
         <v>0.32465195469624292</v>
       </c>
       <c r="BC36" s="5">
-        <f t="shared" si="195"/>
+        <f t="shared" si="204"/>
         <v>0.33556469872504729</v>
       </c>
       <c r="BD36" s="5">
-        <f t="shared" si="195"/>
+        <f t="shared" si="204"/>
         <v>0.34219495390085169</v>
       </c>
       <c r="BE36" s="5">
-        <f t="shared" si="195"/>
+        <f t="shared" si="204"/>
         <v>0.348794693562478</v>
       </c>
       <c r="BF36" s="5">
-        <f t="shared" si="195"/>
+        <f t="shared" si="204"/>
         <v>0.35536367679691816</v>
       </c>
       <c r="BG36" s="5">
-        <f t="shared" si="195"/>
+        <f t="shared" si="204"/>
         <v>0.35731310283578299</v>
       </c>
       <c r="BH36" s="5">
-        <f t="shared" si="195"/>
+        <f t="shared" si="204"/>
         <v>0.35920750023668291</v>
       </c>
       <c r="BI36" s="5">
-        <f t="shared" si="195"/>
+        <f t="shared" si="204"/>
         <v>0.36107347132376644</v>
       </c>
       <c r="BJ36" s="5">
-        <f t="shared" si="195"/>
+        <f t="shared" si="204"/>
         <v>0.36291137560885367</v>
       </c>
       <c r="BK36" s="5">
-        <f t="shared" si="195"/>
+        <f t="shared" si="204"/>
         <v>0.36472156749208218</v>
       </c>
       <c r="BL36" s="5">
-        <f t="shared" ref="BL36:BR36" si="196">+BL22/BL14</f>
+        <f t="shared" ref="BL36:BR36" si="205">+BL22/BL14</f>
         <v>0.36653529366727688</v>
       </c>
       <c r="BM36" s="5">
-        <f t="shared" si="196"/>
+        <f t="shared" si="205"/>
         <v>0.36834722023227412</v>
       </c>
       <c r="BN36" s="5">
-        <f t="shared" si="196"/>
+        <f t="shared" si="205"/>
         <v>0.3701525472326227</v>
       </c>
       <c r="BO36" s="5">
-        <f t="shared" si="196"/>
+        <f t="shared" si="205"/>
         <v>0.3719512579758707</v>
       </c>
       <c r="BP36" s="5">
-        <f t="shared" si="196"/>
+        <f t="shared" si="205"/>
         <v>0.37374333529803333</v>
       </c>
       <c r="BQ36" s="5">
-        <f t="shared" si="196"/>
+        <f t="shared" si="205"/>
         <v>0.37552876158163789</v>
       </c>
       <c r="BR36" s="5">
-        <f t="shared" si="196"/>
+        <f t="shared" si="205"/>
         <v>0.37730751877393975</v>
       </c>
     </row>
@@ -8025,143 +8025,143 @@
         <v>0.14206343082027933</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" ref="L37:U37" si="197">L25/L24</f>
+        <f t="shared" ref="L37:U37" si="206">L25/L24</f>
         <v>0.14358583936048724</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="197"/>
+        <f t="shared" si="206"/>
         <v>0.14341173783968944</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="197"/>
+        <f t="shared" si="206"/>
         <v>0.14952016643178309</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="197"/>
+        <f t="shared" si="206"/>
         <v>0.14366121683194855</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="197"/>
+        <f t="shared" si="206"/>
         <v>0.1564028417407447</v>
       </c>
       <c r="Q37" s="5">
-        <f t="shared" si="197"/>
+        <f t="shared" si="206"/>
         <v>0.10771882309491568</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" si="197"/>
+        <f t="shared" si="206"/>
         <v>0.11600997935306263</v>
       </c>
       <c r="S37" s="5">
-        <f t="shared" si="197"/>
+        <f t="shared" si="206"/>
         <v>0.16030164157028201</v>
       </c>
       <c r="T37" s="5">
-        <f t="shared" si="197"/>
+        <f t="shared" si="206"/>
         <v>0.17017817445834302</v>
       </c>
       <c r="U37" s="5">
-        <f t="shared" si="197"/>
+        <f t="shared" si="206"/>
         <v>0.15711436746726784</v>
       </c>
       <c r="V37" s="5">
-        <f t="shared" ref="V37:W37" si="198">V25/V24</f>
+        <f t="shared" ref="V37:W37" si="207">V25/V24</f>
         <v>0.15963012531938192</v>
       </c>
       <c r="W37" s="5">
-        <f t="shared" si="198"/>
+        <f t="shared" si="207"/>
         <v>0.15790360160570419</v>
       </c>
       <c r="AD37" s="5">
-        <f t="shared" ref="AD37:AF37" si="199">AD25/AD24</f>
+        <f t="shared" ref="AD37:AE37" si="208">AD25/AD24</f>
         <v>0.37181044957472659</v>
       </c>
       <c r="AE37" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="AF37" s="5">
-        <f t="shared" ref="AF37:AJ37" si="200">AF25/AF24</f>
+        <f t="shared" ref="AF37:AI37" si="209">AF25/AF24</f>
         <v>0.1864406779661017</v>
       </c>
       <c r="AG37" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="209"/>
         <v>0.20338983050847459</v>
       </c>
       <c r="AH37" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="209"/>
         <v>0.26354679802955666</v>
       </c>
       <c r="AI37" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="209"/>
         <v>0.26446280991735538</v>
       </c>
       <c r="AJ37" s="5">
-        <f t="shared" ref="AJ37:AL37" si="201">AJ25/AJ24</f>
+        <f t="shared" ref="AJ37:AL37" si="210">AJ25/AJ24</f>
         <v>0.29418026969481903</v>
       </c>
       <c r="AK37" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="210"/>
         <v>0.30191693290734822</v>
       </c>
       <c r="AL37" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="210"/>
         <v>0.3160836034424947</v>
       </c>
       <c r="AM37" s="5">
-        <f t="shared" ref="AM37:AN37" si="202">AM25/AM24</f>
+        <f t="shared" ref="AM37:AN37" si="211">AM25/AM24</f>
         <v>0.31750372948781702</v>
       </c>
       <c r="AN37" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="211"/>
         <v>0.24417475728155341</v>
       </c>
       <c r="AO37" s="5">
-        <f t="shared" ref="AO37:AR37" si="203">AO25/AO24</f>
+        <f t="shared" ref="AO37:AR37" si="212">AO25/AO24</f>
         <v>0.24215757930127174</v>
       </c>
       <c r="AP37" s="5">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>0.25160052364471064</v>
       </c>
       <c r="AQ37" s="5">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>0.26154919748778788</v>
       </c>
       <c r="AR37" s="5">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>0.26126058747639436</v>
       </c>
       <c r="AS37" s="5">
-        <f t="shared" ref="AS37:AT37" si="204">AS25/AS24</f>
+        <f t="shared" ref="AS37:AT37" si="213">AS25/AS24</f>
         <v>0.26368337585327173</v>
       </c>
       <c r="AT37" s="5">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v>0.25557257381216192</v>
       </c>
       <c r="AU37" s="5">
-        <f t="shared" ref="AU37" si="205">AU25/AU24</f>
+        <f t="shared" ref="AU37" si="214">AU25/AU24</f>
         <v>0.24556476150353415</v>
       </c>
       <c r="AV37" s="5">
-        <f t="shared" ref="AV37:AZ37" si="206">AV25/AV24</f>
+        <f t="shared" ref="AV37:AZ37" si="215">AV25/AV24</f>
         <v>0.18342180705869443</v>
       </c>
       <c r="AW37" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="215"/>
         <v>0.15943836804235059</v>
       </c>
       <c r="AX37" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="215"/>
         <v>0.14428164731484103</v>
       </c>
       <c r="AY37" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="215"/>
         <v>0.13302260844085087</v>
       </c>
       <c r="AZ37" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="215"/>
         <v>0.16204461684424407</v>
       </c>
       <c r="BA37" s="5">
@@ -8169,71 +8169,71 @@
         <v>0.2</v>
       </c>
       <c r="BB37" s="5">
-        <f t="shared" ref="BB37:BK37" si="207">BB25/BB24</f>
+        <f t="shared" ref="BB37:BK37" si="216">BB25/BB24</f>
         <v>0.2</v>
       </c>
       <c r="BC37" s="5">
-        <f t="shared" si="207"/>
+        <f t="shared" si="216"/>
         <v>0.2</v>
       </c>
       <c r="BD37" s="5">
-        <f t="shared" si="207"/>
+        <f t="shared" si="216"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="BE37" s="5">
-        <f t="shared" si="207"/>
+        <f t="shared" si="216"/>
         <v>0.2</v>
       </c>
       <c r="BF37" s="5">
-        <f t="shared" si="207"/>
+        <f t="shared" si="216"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="BG37" s="5">
-        <f t="shared" si="207"/>
+        <f t="shared" si="216"/>
         <v>0.2</v>
       </c>
       <c r="BH37" s="5">
-        <f t="shared" si="207"/>
+        <f t="shared" si="216"/>
         <v>0.2</v>
       </c>
       <c r="BI37" s="5">
-        <f t="shared" si="207"/>
+        <f t="shared" si="216"/>
         <v>0.2</v>
       </c>
       <c r="BJ37" s="5">
-        <f t="shared" si="207"/>
+        <f t="shared" si="216"/>
         <v>0.2</v>
       </c>
       <c r="BK37" s="5">
-        <f t="shared" si="207"/>
+        <f t="shared" si="216"/>
         <v>0.2</v>
       </c>
       <c r="BL37" s="5">
-        <f t="shared" ref="BL37:BR37" si="208">BL25/BL24</f>
+        <f t="shared" ref="BL37:BR37" si="217">BL25/BL24</f>
         <v>0.2</v>
       </c>
       <c r="BM37" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="217"/>
         <v>0.2</v>
       </c>
       <c r="BN37" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="217"/>
         <v>0.2</v>
       </c>
       <c r="BO37" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="217"/>
         <v>0.2</v>
       </c>
       <c r="BP37" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="217"/>
         <v>0.2</v>
       </c>
       <c r="BQ37" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="217"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="BR37" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="217"/>
         <v>0.19999999999999998</v>
       </c>
     </row>

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76318FCF-FBD1-4F24-84B5-D601C004EDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6A922C-CB87-43AE-A755-D55D78045052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-52155" yWindow="1815" windowWidth="26610" windowHeight="13410" activeTab="1" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
+    <workbookView xWindow="-36855" yWindow="1245" windowWidth="27570" windowHeight="16515" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="162">
   <si>
     <t>Price</t>
   </si>
@@ -580,6 +580,12 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>EPS y/y</t>
+  </si>
+  <si>
+    <t>FCF</t>
   </si>
 </sst>
 </file>
@@ -590,7 +596,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -629,12 +635,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -720,7 +720,7 @@
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>27704</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>59120</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -770,8 +770,8 @@
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>48404</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>44585</xdr:rowOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>118242</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -787,7 +787,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="39363663" y="0"/>
-          <a:ext cx="0" cy="7598895"/>
+          <a:ext cx="0" cy="16047983"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDB42F4-D3F6-42E5-97CD-AE20E0C5C6C6}">
   <dimension ref="N2:P10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="6">
-        <v>238</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="14:16" x14ac:dyDescent="0.2">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="O4" s="2">
         <f>+O2*O3</f>
-        <v>3605938</v>
+        <v>3075653</v>
       </c>
     </row>
     <row r="5" spans="14:16" x14ac:dyDescent="0.2">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="O7" s="2">
         <f>+O4-O5+O6</f>
-        <v>3561369</v>
+        <v>3031084</v>
       </c>
     </row>
     <row r="10" spans="14:16" x14ac:dyDescent="0.2">
@@ -1225,13 +1225,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EB6088-6F7F-4776-A4C2-8340505BB8E8}">
-  <dimension ref="A1:GJ85"/>
+  <dimension ref="A1:GJ90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AY12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="BC54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BL16" sqref="BL14:BL16"/>
+      <selection pane="bottomRight" activeCell="BL67" sqref="BL67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1365,6 +1365,18 @@
         <f t="shared" si="0"/>
         <v>45929</v>
       </c>
+      <c r="BE2" s="11">
+        <v>43008</v>
+      </c>
+      <c r="BF2" s="11">
+        <v>43372</v>
+      </c>
+      <c r="BG2" s="11">
+        <v>43736</v>
+      </c>
+      <c r="BH2" s="11">
+        <v>44100</v>
+      </c>
       <c r="BI2" s="11">
         <v>44464</v>
       </c>
@@ -1877,12 +1889,10 @@
         <v>205489</v>
       </c>
       <c r="BK10" s="7">
-        <f>+BK11*BK12/1000</f>
-        <v>209619.32889999999</v>
+        <v>200583</v>
       </c>
       <c r="BL10" s="7">
-        <f>+BL11*BL12/1000</f>
-        <v>213832.67741089</v>
+        <v>201183</v>
       </c>
       <c r="BM10" s="7">
         <f t="shared" ref="BM10:CB10" si="1">+BM11*BM12/1000</f>
@@ -2468,76 +2478,74 @@
         <v>40177</v>
       </c>
       <c r="BK14" s="7">
-        <f t="shared" ref="BK14:BL16" si="10">+BJ14*1.03</f>
-        <v>41382.31</v>
+        <v>29357</v>
       </c>
       <c r="BL14" s="7">
+        <v>29984</v>
+      </c>
+      <c r="BM14" s="7">
+        <f t="shared" ref="BM14:BQ14" si="10">+BL14*1.07</f>
+        <v>32082.880000000001</v>
+      </c>
+      <c r="BN14" s="7">
         <f t="shared" si="10"/>
-        <v>42623.779300000002</v>
-      </c>
-      <c r="BM14" s="7">
-        <f t="shared" ref="BM14:BQ14" si="11">+BL14*1.07</f>
-        <v>45607.443851000004</v>
-      </c>
-      <c r="BN14" s="7">
-        <f t="shared" si="11"/>
-        <v>48799.964920570004</v>
+        <v>34328.681600000004</v>
       </c>
       <c r="BO14" s="7">
-        <f t="shared" si="11"/>
-        <v>52215.962465009907</v>
+        <f t="shared" si="10"/>
+        <v>36731.68931200001</v>
       </c>
       <c r="BP14" s="7">
-        <f t="shared" si="11"/>
-        <v>55871.079837560603</v>
+        <f t="shared" si="10"/>
+        <v>39302.90756384001</v>
       </c>
       <c r="BQ14" s="7">
-        <f t="shared" si="11"/>
-        <v>59782.055426189851</v>
+        <f t="shared" si="10"/>
+        <v>42054.111093308813</v>
       </c>
       <c r="BR14" s="7">
         <f>+BQ14*1.06</f>
-        <v>63368.978751761242</v>
+        <v>44577.357758907347</v>
       </c>
       <c r="BS14" s="7">
-        <f t="shared" ref="BS14:BV14" si="12">+BR14*1.06</f>
-        <v>67171.117476866915</v>
+        <f t="shared" ref="BS14:BV14" si="11">+BR14*1.06</f>
+        <v>47251.999224441788</v>
       </c>
       <c r="BT14" s="7">
-        <f t="shared" si="12"/>
-        <v>71201.384525478934</v>
+        <f t="shared" si="11"/>
+        <v>50087.119177908295</v>
       </c>
       <c r="BU14" s="7">
-        <f t="shared" si="12"/>
-        <v>75473.467597007679</v>
+        <f t="shared" si="11"/>
+        <v>53092.346328582797</v>
       </c>
       <c r="BV14" s="7">
-        <f t="shared" si="12"/>
-        <v>80001.875652828137</v>
+        <f t="shared" si="11"/>
+        <v>56277.887108297764</v>
       </c>
       <c r="BW14" s="7">
         <f>+BV14*1.05</f>
-        <v>84001.969435469553</v>
+        <v>59091.781463712658</v>
       </c>
       <c r="BX14" s="7">
-        <f t="shared" ref="BX14:CB14" si="13">+BW14*1.05</f>
-        <v>88202.067907243036</v>
+        <f t="shared" ref="BX14:CB14" si="12">+BW14*1.05</f>
+        <v>62046.370536898292</v>
       </c>
       <c r="BY14" s="7">
-        <f t="shared" si="13"/>
-        <v>92612.171302605188</v>
+        <f t="shared" si="12"/>
+        <v>65148.689063743208</v>
       </c>
       <c r="BZ14" s="7">
-        <f t="shared" si="13"/>
-        <v>97242.779867735444</v>
+        <f t="shared" si="12"/>
+        <v>68406.123516930369</v>
       </c>
       <c r="CA14" s="7">
-        <f t="shared" si="13"/>
-        <v>102104.91886112222</v>
+        <f t="shared" si="12"/>
+        <v>71826.429692776888</v>
       </c>
       <c r="CB14" s="7">
-        <f t="shared" si="13"/>
-        <v>107210.16480417833</v>
+        <f t="shared" si="12"/>
+        <v>75417.751177415732</v>
       </c>
     </row>
     <row r="15" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2678,76 +2686,74 @@
         <v>29292</v>
       </c>
       <c r="BK15" s="7">
-        <f t="shared" si="10"/>
-        <v>30170.760000000002</v>
+        <v>28300</v>
       </c>
       <c r="BL15" s="7">
-        <f t="shared" si="10"/>
-        <v>31075.882800000003</v>
+        <v>26694</v>
       </c>
       <c r="BM15" s="7">
-        <f t="shared" ref="BM15:CB15" si="14">+BL15*1.04</f>
-        <v>32318.918112000003</v>
+        <f t="shared" ref="BM15:CB15" si="13">+BL15*1.04</f>
+        <v>27761.760000000002</v>
       </c>
       <c r="BN15" s="7">
-        <f t="shared" si="14"/>
-        <v>33611.674836480008</v>
+        <f t="shared" si="13"/>
+        <v>28872.230400000004</v>
       </c>
       <c r="BO15" s="7">
-        <f t="shared" si="14"/>
-        <v>34956.14182993921</v>
+        <f t="shared" si="13"/>
+        <v>30027.119616000004</v>
       </c>
       <c r="BP15" s="7">
-        <f t="shared" si="14"/>
-        <v>36354.387503136779</v>
+        <f t="shared" si="13"/>
+        <v>31228.204400640006</v>
       </c>
       <c r="BQ15" s="7">
-        <f t="shared" si="14"/>
-        <v>37808.56300326225</v>
+        <f t="shared" si="13"/>
+        <v>32477.332576665609</v>
       </c>
       <c r="BR15" s="7">
-        <f t="shared" si="14"/>
-        <v>39320.905523392743</v>
+        <f t="shared" si="13"/>
+        <v>33776.425879732233</v>
       </c>
       <c r="BS15" s="7">
-        <f t="shared" si="14"/>
-        <v>40893.741744328458</v>
+        <f t="shared" si="13"/>
+        <v>35127.482914921522</v>
       </c>
       <c r="BT15" s="7">
-        <f t="shared" si="14"/>
-        <v>42529.491414101598</v>
+        <f t="shared" si="13"/>
+        <v>36532.582231518383</v>
       </c>
       <c r="BU15" s="7">
-        <f t="shared" si="14"/>
-        <v>44230.671070665667</v>
+        <f t="shared" si="13"/>
+        <v>37993.88552077912</v>
       </c>
       <c r="BV15" s="7">
-        <f t="shared" si="14"/>
-        <v>45999.897913492292</v>
+        <f t="shared" si="13"/>
+        <v>39513.640941610283</v>
       </c>
       <c r="BW15" s="7">
-        <f t="shared" si="14"/>
-        <v>47839.893830031986</v>
+        <f t="shared" si="13"/>
+        <v>41094.186579274698</v>
       </c>
       <c r="BX15" s="7">
-        <f t="shared" si="14"/>
-        <v>49753.48958323327</v>
+        <f t="shared" si="13"/>
+        <v>42737.954042445686</v>
       </c>
       <c r="BY15" s="7">
-        <f t="shared" si="14"/>
-        <v>51743.629166562605</v>
+        <f t="shared" si="13"/>
+        <v>44447.472204143516</v>
       </c>
       <c r="BZ15" s="7">
-        <f t="shared" si="14"/>
-        <v>53813.374333225111</v>
+        <f t="shared" si="13"/>
+        <v>46225.371092309259</v>
       </c>
       <c r="CA15" s="7">
-        <f t="shared" si="14"/>
-        <v>55965.909306554116</v>
+        <f t="shared" si="13"/>
+        <v>48074.385936001629</v>
       </c>
       <c r="CB15" s="7">
-        <f t="shared" si="14"/>
-        <v>58204.545678816285</v>
+        <f t="shared" si="13"/>
+        <v>49997.361373441694</v>
       </c>
     </row>
     <row r="16" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2889,11 +2895,11 @@
         <v>24482</v>
       </c>
       <c r="BH16" s="7">
-        <f t="shared" ref="BH16" si="15">SUM(K16:N16)</f>
+        <f t="shared" ref="BH16" si="14">SUM(K16:N16)</f>
         <v>30620</v>
       </c>
       <c r="BI16" s="7">
-        <f t="shared" ref="BI16" si="16">SUM(O16:R16)</f>
+        <f t="shared" ref="BI16" si="15">SUM(O16:R16)</f>
         <v>38367</v>
       </c>
       <c r="BJ16" s="7">
@@ -2901,76 +2907,74 @@
         <v>41241</v>
       </c>
       <c r="BK16" s="7">
-        <f t="shared" si="10"/>
-        <v>42478.23</v>
+        <v>39845</v>
       </c>
       <c r="BL16" s="7">
-        <f t="shared" si="10"/>
-        <v>43752.576900000007</v>
+        <v>37005</v>
       </c>
       <c r="BM16" s="7">
-        <f t="shared" ref="BM16:CB16" si="17">+BL16*1.04</f>
-        <v>45502.679976000007</v>
+        <f t="shared" ref="BM16:CB16" si="16">+BL16*1.04</f>
+        <v>38485.200000000004</v>
       </c>
       <c r="BN16" s="7">
-        <f t="shared" si="17"/>
-        <v>47322.787175040008</v>
+        <f t="shared" si="16"/>
+        <v>40024.608000000007</v>
       </c>
       <c r="BO16" s="7">
-        <f t="shared" si="17"/>
-        <v>49215.698662041614</v>
+        <f t="shared" si="16"/>
+        <v>41625.592320000011</v>
       </c>
       <c r="BP16" s="7">
-        <f t="shared" si="17"/>
-        <v>51184.326608523283</v>
+        <f t="shared" si="16"/>
+        <v>43290.616012800012</v>
       </c>
       <c r="BQ16" s="7">
-        <f t="shared" si="17"/>
-        <v>53231.699672864219</v>
+        <f t="shared" si="16"/>
+        <v>45022.240653312016</v>
       </c>
       <c r="BR16" s="7">
-        <f t="shared" si="17"/>
-        <v>55360.967659778791</v>
+        <f t="shared" si="16"/>
+        <v>46823.1302794445</v>
       </c>
       <c r="BS16" s="7">
-        <f t="shared" si="17"/>
-        <v>57575.406366169947</v>
+        <f t="shared" si="16"/>
+        <v>48696.055490622282</v>
       </c>
       <c r="BT16" s="7">
-        <f t="shared" si="17"/>
-        <v>59878.422620816746</v>
+        <f t="shared" si="16"/>
+        <v>50643.897710247176</v>
       </c>
       <c r="BU16" s="7">
-        <f t="shared" si="17"/>
-        <v>62273.55952564942</v>
+        <f t="shared" si="16"/>
+        <v>52669.653618657067</v>
       </c>
       <c r="BV16" s="7">
-        <f t="shared" si="17"/>
-        <v>64764.501906675396</v>
+        <f t="shared" si="16"/>
+        <v>54776.439763403352</v>
       </c>
       <c r="BW16" s="7">
-        <f t="shared" si="17"/>
-        <v>67355.081982942414</v>
+        <f t="shared" si="16"/>
+        <v>56967.497353939485</v>
       </c>
       <c r="BX16" s="7">
-        <f t="shared" si="17"/>
-        <v>70049.28526226012</v>
+        <f t="shared" si="16"/>
+        <v>59246.197248097065</v>
       </c>
       <c r="BY16" s="7">
-        <f t="shared" si="17"/>
-        <v>72851.256672750533</v>
+        <f t="shared" si="16"/>
+        <v>61616.045138020949</v>
       </c>
       <c r="BZ16" s="7">
-        <f t="shared" si="17"/>
-        <v>75765.306939660557</v>
+        <f t="shared" si="16"/>
+        <v>64080.68694354179</v>
       </c>
       <c r="CA16" s="7">
-        <f t="shared" si="17"/>
-        <v>78795.919217246977</v>
+        <f t="shared" si="16"/>
+        <v>66643.914421283465</v>
       </c>
       <c r="CB16" s="7">
-        <f t="shared" si="17"/>
-        <v>81947.755985936863</v>
+        <f t="shared" si="16"/>
+        <v>69309.67099813481</v>
       </c>
     </row>
     <row r="17" spans="2:192" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2997,35 +3001,35 @@
         <v>52919</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" ref="K18:R18" si="18">SUM(K14:K16)+K10</f>
+        <f t="shared" ref="K18:R18" si="17">SUM(K14:K16)+K10</f>
         <v>79104</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>44965</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>46529</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>50149</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>95678</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>72683</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>63948</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>65083</v>
       </c>
       <c r="S18" s="2">
@@ -3076,99 +3080,99 @@
         <v>67554.86</v>
       </c>
       <c r="AG18" s="2">
-        <f t="shared" ref="AG18:AH18" si="19">+AC18*1.01</f>
+        <f t="shared" ref="AG18:AH18" si="18">+AC18*1.01</f>
         <v>62179.64</v>
       </c>
       <c r="AH18" s="2">
+        <f t="shared" si="18"/>
+        <v>70657.58</v>
+      </c>
+      <c r="AN18" s="2">
+        <f t="shared" ref="AN18:AW18" si="19">SUM(AN14:AN16)+AN10</f>
+        <v>6885</v>
+      </c>
+      <c r="AO18" s="2">
         <f t="shared" si="19"/>
-        <v>70657.58</v>
-      </c>
-      <c r="AN18" s="2">
-        <f t="shared" ref="AN18:AW18" si="20">SUM(AN14:AN16)+AN10</f>
-        <v>6885</v>
-      </c>
-      <c r="AO18" s="2">
+        <v>4790</v>
+      </c>
+      <c r="AP18" s="2">
+        <f t="shared" si="19"/>
+        <v>5208</v>
+      </c>
+      <c r="AQ18" s="2">
+        <f t="shared" si="19"/>
+        <v>5527</v>
+      </c>
+      <c r="AR18" s="2">
+        <f t="shared" si="19"/>
+        <v>7180</v>
+      </c>
+      <c r="AS18" s="2">
+        <f t="shared" si="19"/>
+        <v>11941</v>
+      </c>
+      <c r="AT18" s="2">
+        <f t="shared" si="19"/>
+        <v>16151</v>
+      </c>
+      <c r="AU18" s="2">
+        <f t="shared" si="19"/>
+        <v>20002</v>
+      </c>
+      <c r="AV18" s="2">
+        <f t="shared" si="19"/>
+        <v>31943</v>
+      </c>
+      <c r="AW18" s="2">
+        <f t="shared" si="19"/>
+        <v>36458</v>
+      </c>
+      <c r="AX18" s="2">
+        <f t="shared" ref="AX18:BI18" si="20">SUM(AX14:AX16)+AX10</f>
+        <v>57704</v>
+      </c>
+      <c r="AY18" s="2">
         <f t="shared" si="20"/>
-        <v>4790</v>
-      </c>
-      <c r="AP18" s="2">
+        <v>98876</v>
+      </c>
+      <c r="AZ18" s="2">
         <f t="shared" si="20"/>
-        <v>5208</v>
-      </c>
-      <c r="AQ18" s="2">
+        <v>143618</v>
+      </c>
+      <c r="BA18" s="2">
         <f t="shared" si="20"/>
-        <v>5527</v>
-      </c>
-      <c r="AR18" s="2">
+        <v>154859</v>
+      </c>
+      <c r="BB18" s="2">
         <f t="shared" si="20"/>
-        <v>7180</v>
-      </c>
-      <c r="AS18" s="2">
+        <v>164732</v>
+      </c>
+      <c r="BC18" s="2">
         <f t="shared" si="20"/>
-        <v>11941</v>
-      </c>
-      <c r="AT18" s="2">
+        <v>213806</v>
+      </c>
+      <c r="BD18" s="2">
         <f t="shared" si="20"/>
-        <v>16151</v>
-      </c>
-      <c r="AU18" s="2">
+        <v>191291</v>
+      </c>
+      <c r="BE18" s="2">
         <f t="shared" si="20"/>
-        <v>20002</v>
-      </c>
-      <c r="AV18" s="2">
+        <v>199254</v>
+      </c>
+      <c r="BF18" s="2">
         <f t="shared" si="20"/>
-        <v>31943</v>
-      </c>
-      <c r="AW18" s="2">
+        <v>225847</v>
+      </c>
+      <c r="BG18" s="2">
         <f t="shared" si="20"/>
-        <v>36458</v>
-      </c>
-      <c r="AX18" s="2">
-        <f t="shared" ref="AX18:BI18" si="21">SUM(AX14:AX16)+AX10</f>
-        <v>57704</v>
-      </c>
-      <c r="AY18" s="2">
-        <f t="shared" si="21"/>
-        <v>98876</v>
-      </c>
-      <c r="AZ18" s="2">
-        <f t="shared" si="21"/>
-        <v>143618</v>
-      </c>
-      <c r="BA18" s="2">
-        <f t="shared" si="21"/>
-        <v>154859</v>
-      </c>
-      <c r="BB18" s="2">
-        <f t="shared" si="21"/>
-        <v>164732</v>
-      </c>
-      <c r="BC18" s="2">
-        <f t="shared" si="21"/>
-        <v>213806</v>
-      </c>
-      <c r="BD18" s="2">
-        <f t="shared" si="21"/>
-        <v>191291</v>
-      </c>
-      <c r="BE18" s="2">
-        <f t="shared" si="21"/>
-        <v>199254</v>
-      </c>
-      <c r="BF18" s="2">
-        <f t="shared" si="21"/>
-        <v>225847</v>
-      </c>
-      <c r="BG18" s="2">
-        <f t="shared" si="21"/>
         <v>213883</v>
       </c>
       <c r="BH18" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>220747</v>
       </c>
       <c r="BI18" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>297392</v>
       </c>
       <c r="BJ18" s="2">
@@ -3184,68 +3188,68 @@
         <v>294866</v>
       </c>
       <c r="BM18" s="2">
-        <f t="shared" ref="BL18:CB18" si="22">SUM(BM14:BM16)+BM10</f>
-        <v>351545.74220093753</v>
+        <f t="shared" ref="BM18:CB18" si="21">SUM(BM14:BM16)+BM10</f>
+        <v>326446.54026193754</v>
       </c>
       <c r="BN18" s="2">
-        <f t="shared" si="22"/>
-        <v>370771.65709686367</v>
+        <f t="shared" si="21"/>
+        <v>344262.75016477366</v>
       </c>
       <c r="BO18" s="2">
-        <f t="shared" si="22"/>
-        <v>391077.38183829712</v>
+        <f t="shared" si="21"/>
+        <v>363073.98012930644</v>
       </c>
       <c r="BP18" s="2">
-        <f t="shared" si="22"/>
-        <v>412524.99057836435</v>
+        <f t="shared" si="21"/>
+        <v>382936.92460642371</v>
       </c>
       <c r="BQ18" s="2">
-        <f t="shared" si="22"/>
-        <v>435180.19946853467</v>
+        <f t="shared" si="21"/>
+        <v>403911.56568950473</v>
       </c>
       <c r="BR18" s="2">
-        <f t="shared" si="22"/>
-        <v>455625.68762705289</v>
+        <f t="shared" si="21"/>
+        <v>422751.74961020425</v>
       </c>
       <c r="BS18" s="2">
-        <f t="shared" si="22"/>
-        <v>477046.37964245526</v>
+        <f t="shared" si="21"/>
+        <v>442481.65168507554</v>
       </c>
       <c r="BT18" s="2">
-        <f t="shared" si="22"/>
-        <v>499489.56879676774</v>
+        <f t="shared" si="21"/>
+        <v>463143.86935604434</v>
       </c>
       <c r="BU18" s="2">
-        <f t="shared" si="22"/>
-        <v>523004.88339027978</v>
+        <f t="shared" si="21"/>
+        <v>484783.07066497603</v>
       </c>
       <c r="BV18" s="2">
-        <f t="shared" si="22"/>
-        <v>544179.56803630642</v>
+        <f t="shared" si="21"/>
+        <v>503981.26037662197</v>
       </c>
       <c r="BW18" s="2">
-        <f t="shared" si="22"/>
-        <v>565446.20859765401</v>
+        <f t="shared" si="21"/>
+        <v>523402.72874613688</v>
       </c>
       <c r="BX18" s="2">
-        <f t="shared" si="22"/>
-        <v>587556.2793467897</v>
+        <f t="shared" si="21"/>
+        <v>543581.95842149435</v>
       </c>
       <c r="BY18" s="2">
-        <f t="shared" si="22"/>
-        <v>610543.8019130677</v>
+        <f t="shared" si="21"/>
+        <v>564548.951177057</v>
       </c>
       <c r="BZ18" s="2">
-        <f t="shared" si="22"/>
-        <v>634444.19648185861</v>
+        <f t="shared" si="21"/>
+        <v>586334.916894019</v>
       </c>
       <c r="CA18" s="2">
-        <f t="shared" si="22"/>
-        <v>659294.34047375456</v>
+        <f t="shared" si="21"/>
+        <v>608972.32313889323</v>
       </c>
       <c r="CB18" s="2">
-        <f t="shared" si="22"/>
-        <v>685132.62973874912</v>
+        <f t="shared" si="21"/>
+        <v>632494.94681880996</v>
       </c>
     </row>
     <row r="19" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3333,11 +3337,11 @@
         <v>26492.370000000003</v>
       </c>
       <c r="AG19" s="2">
-        <f t="shared" ref="AG19:AH19" si="23">+AC19*1.05</f>
+        <f t="shared" ref="AG19:AH19" si="22">+AC19*1.05</f>
         <v>25423.65</v>
       </c>
       <c r="AH19" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>26220.600000000002</v>
       </c>
       <c r="AN19" s="2">
@@ -3415,7 +3419,7 @@
         <v>53768</v>
       </c>
       <c r="BI19" s="7">
-        <f t="shared" ref="BI19" si="24">SUM(O19:R19)</f>
+        <f t="shared" ref="BI19" si="23">SUM(O19:R19)</f>
         <v>68425</v>
       </c>
       <c r="BJ19" s="7">
@@ -3451,47 +3455,47 @@
         <v>154561.13384250004</v>
       </c>
       <c r="BR19" s="7">
-        <f t="shared" ref="BR19:CB19" si="25">+BQ19*1.05</f>
+        <f t="shared" ref="BR19:CB19" si="24">+BQ19*1.05</f>
         <v>162289.19053462506</v>
       </c>
       <c r="BS19" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>170403.65006135631</v>
       </c>
       <c r="BT19" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>178923.83256442414</v>
       </c>
       <c r="BU19" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>187870.02419264536</v>
       </c>
       <c r="BV19" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>197263.52540227765</v>
       </c>
       <c r="BW19" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>207126.70167239153</v>
       </c>
       <c r="BX19" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>217483.0367560111</v>
       </c>
       <c r="BY19" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>228357.18859381168</v>
       </c>
       <c r="BZ19" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>239775.04802350226</v>
       </c>
       <c r="CA19" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>251763.80042467738</v>
       </c>
       <c r="CB19" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>264351.99044591124</v>
       </c>
     </row>
@@ -3500,35 +3504,35 @@
         <v>7</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" ref="C20:F20" si="26">+C18+C19</f>
+        <f t="shared" ref="C20:F20" si="25">+C18+C19</f>
         <v>88293</v>
       </c>
       <c r="D20" s="8">
+        <f t="shared" si="25"/>
+        <v>61137</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="25"/>
+        <v>53265</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="25"/>
+        <v>62900</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" ref="K20:N20" si="26">+K18+K19</f>
+        <v>91819</v>
+      </c>
+      <c r="L20" s="8">
         <f t="shared" si="26"/>
-        <v>61137</v>
-      </c>
-      <c r="E20" s="8">
+        <v>58313</v>
+      </c>
+      <c r="M20" s="8">
         <f t="shared" si="26"/>
-        <v>53265</v>
-      </c>
-      <c r="F20" s="8">
+        <v>59685</v>
+      </c>
+      <c r="N20" s="8">
         <f t="shared" si="26"/>
-        <v>62900</v>
-      </c>
-      <c r="K20" s="8">
-        <f t="shared" ref="K20:N20" si="27">+K18+K19</f>
-        <v>91819</v>
-      </c>
-      <c r="L20" s="8">
-        <f t="shared" si="27"/>
-        <v>58313</v>
-      </c>
-      <c r="M20" s="8">
-        <f t="shared" si="27"/>
-        <v>59685</v>
-      </c>
-      <c r="N20" s="8">
-        <f t="shared" si="27"/>
         <v>64698</v>
       </c>
       <c r="O20" s="8">
@@ -3544,11 +3548,11 @@
         <v>81434</v>
       </c>
       <c r="R20" s="8">
-        <f t="shared" ref="R20" si="28">+R18+R19</f>
+        <f t="shared" ref="R20" si="27">+R18+R19</f>
         <v>83360</v>
       </c>
       <c r="S20" s="8">
-        <f t="shared" ref="S20" si="29">+S18+S19</f>
+        <f t="shared" ref="S20" si="28">+S18+S19</f>
         <v>123945</v>
       </c>
       <c r="T20" s="8">
@@ -3556,7 +3560,7 @@
         <v>97278</v>
       </c>
       <c r="U20" s="8">
-        <f t="shared" ref="U20" si="30">+U18+U19</f>
+        <f t="shared" ref="U20" si="29">+U18+U19</f>
         <v>82959</v>
       </c>
       <c r="V20" s="8">
@@ -3568,47 +3572,47 @@
         <v>117154</v>
       </c>
       <c r="X20" s="8">
-        <f t="shared" ref="X20:Z20" si="31">+X19+X18</f>
+        <f t="shared" ref="X20:Z20" si="30">+X19+X18</f>
         <v>94836</v>
       </c>
       <c r="Y20" s="8">
+        <f t="shared" si="30"/>
+        <v>81797</v>
+      </c>
+      <c r="Z20" s="8">
+        <f t="shared" si="30"/>
+        <v>89498</v>
+      </c>
+      <c r="AA20" s="8">
+        <f t="shared" ref="AA20:AB20" si="31">+AA19+AA18</f>
+        <v>119575</v>
+      </c>
+      <c r="AB20" s="8">
         <f t="shared" si="31"/>
-        <v>81797</v>
-      </c>
-      <c r="Z20" s="8">
-        <f t="shared" si="31"/>
-        <v>89498</v>
-      </c>
-      <c r="AA20" s="8">
-        <f t="shared" ref="AA20:AB20" si="32">+AA19+AA18</f>
-        <v>119575</v>
-      </c>
-      <c r="AB20" s="8">
+        <v>90753</v>
+      </c>
+      <c r="AC20" s="8">
+        <f t="shared" ref="AC20:AF20" si="32">+AC19+AC18</f>
+        <v>85777</v>
+      </c>
+      <c r="AD20" s="8">
         <f t="shared" si="32"/>
-        <v>90753</v>
-      </c>
-      <c r="AC20" s="8">
-        <f t="shared" ref="AC20:AF20" si="33">+AC19+AC18</f>
-        <v>85777</v>
-      </c>
-      <c r="AD20" s="8">
+        <v>94930</v>
+      </c>
+      <c r="AE20" s="8">
+        <f t="shared" si="32"/>
+        <v>124300</v>
+      </c>
+      <c r="AF20" s="8">
+        <f t="shared" si="32"/>
+        <v>94047.23000000001</v>
+      </c>
+      <c r="AG20" s="8">
+        <f t="shared" ref="AG20:AH20" si="33">+AG19+AG18</f>
+        <v>87603.290000000008</v>
+      </c>
+      <c r="AH20" s="8">
         <f t="shared" si="33"/>
-        <v>94930</v>
-      </c>
-      <c r="AE20" s="8">
-        <f t="shared" si="33"/>
-        <v>124300</v>
-      </c>
-      <c r="AF20" s="8">
-        <f t="shared" si="33"/>
-        <v>94047.23000000001</v>
-      </c>
-      <c r="AG20" s="8">
-        <f t="shared" ref="AG20:AH20" si="34">+AG19+AG18</f>
-        <v>87603.290000000008</v>
-      </c>
-      <c r="AH20" s="8">
-        <f t="shared" si="34"/>
         <v>96878.180000000008</v>
       </c>
       <c r="AL20" s="8">
@@ -3618,83 +3622,83 @@
         <v>6134</v>
       </c>
       <c r="AN20" s="8">
-        <f t="shared" ref="AN20:BF20" si="35">+AN18+AN19</f>
+        <f t="shared" ref="AN20:BF20" si="34">+AN18+AN19</f>
         <v>7983</v>
       </c>
       <c r="AO20" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>5363</v>
       </c>
       <c r="AP20" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>5742</v>
       </c>
       <c r="AQ20" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>6207</v>
       </c>
       <c r="AR20" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>8279</v>
       </c>
       <c r="AS20" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>13931</v>
       </c>
       <c r="AT20" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>19315</v>
       </c>
       <c r="AU20" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>24006</v>
       </c>
       <c r="AV20" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>37491</v>
       </c>
       <c r="AW20" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>42905</v>
       </c>
       <c r="AX20" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>65225</v>
       </c>
       <c r="AY20" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>108249</v>
       </c>
       <c r="AZ20" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>156508</v>
       </c>
       <c r="BA20" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>170910</v>
       </c>
       <c r="BB20" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>182795</v>
       </c>
       <c r="BC20" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>233715</v>
       </c>
       <c r="BD20" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>215639</v>
       </c>
       <c r="BE20" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>229234</v>
       </c>
       <c r="BF20" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>265595</v>
       </c>
       <c r="BG20" s="8">
-        <f t="shared" ref="BG20" si="36">+BG18+BG19</f>
+        <f t="shared" ref="BG20" si="35">+BG18+BG19</f>
         <v>260174</v>
       </c>
       <c r="BH20" s="8">
@@ -3714,72 +3718,72 @@
         <v>383285</v>
       </c>
       <c r="BL20" s="8">
-        <f t="shared" ref="BL20:CB20" si="37">+BL18+BL19</f>
+        <f t="shared" ref="BL20:CB20" si="36">+BL18+BL19</f>
         <v>391035</v>
       </c>
       <c r="BM20" s="8">
-        <f t="shared" si="37"/>
-        <v>462140.09220093751</v>
+        <f t="shared" si="36"/>
+        <v>437040.89026193751</v>
       </c>
       <c r="BN20" s="8">
-        <f t="shared" si="37"/>
-        <v>492425.44209686364</v>
+        <f t="shared" si="36"/>
+        <v>465916.5351647737</v>
       </c>
       <c r="BO20" s="8">
-        <f t="shared" si="37"/>
-        <v>524896.54533829715</v>
+        <f t="shared" si="36"/>
+        <v>496893.14362930646</v>
       </c>
       <c r="BP20" s="8">
-        <f t="shared" si="37"/>
-        <v>559726.07042836444</v>
+        <f t="shared" si="36"/>
+        <v>530138.00445642369</v>
       </c>
       <c r="BQ20" s="8">
-        <f t="shared" si="37"/>
-        <v>589741.33331103472</v>
+        <f t="shared" si="36"/>
+        <v>558472.69953200477</v>
       </c>
       <c r="BR20" s="8">
-        <f t="shared" si="37"/>
-        <v>617914.87816167797</v>
+        <f t="shared" si="36"/>
+        <v>585040.94014482934</v>
       </c>
       <c r="BS20" s="8">
-        <f t="shared" si="37"/>
-        <v>647450.02970381151</v>
+        <f t="shared" si="36"/>
+        <v>612885.30174643185</v>
       </c>
       <c r="BT20" s="8">
-        <f t="shared" si="37"/>
-        <v>678413.40136119188</v>
+        <f t="shared" si="36"/>
+        <v>642067.70192046848</v>
       </c>
       <c r="BU20" s="8">
-        <f t="shared" si="37"/>
-        <v>710874.90758292517</v>
+        <f t="shared" si="36"/>
+        <v>672653.09485762136</v>
       </c>
       <c r="BV20" s="8">
-        <f t="shared" si="37"/>
-        <v>741443.09343858412</v>
+        <f t="shared" si="36"/>
+        <v>701244.78577889968</v>
       </c>
       <c r="BW20" s="8">
-        <f t="shared" si="37"/>
-        <v>772572.91027004551</v>
+        <f t="shared" si="36"/>
+        <v>730529.43041852838</v>
       </c>
       <c r="BX20" s="8">
-        <f t="shared" si="37"/>
-        <v>805039.31610280077</v>
+        <f t="shared" si="36"/>
+        <v>761064.99517750542</v>
       </c>
       <c r="BY20" s="8">
-        <f t="shared" si="37"/>
-        <v>838900.9905068794</v>
+        <f t="shared" si="36"/>
+        <v>792906.1397708687</v>
       </c>
       <c r="BZ20" s="8">
-        <f t="shared" si="37"/>
-        <v>874219.24450536084</v>
+        <f t="shared" si="36"/>
+        <v>826109.96491752123</v>
       </c>
       <c r="CA20" s="8">
-        <f t="shared" si="37"/>
-        <v>911058.14089843188</v>
+        <f t="shared" si="36"/>
+        <v>860736.12356357067</v>
       </c>
       <c r="CB20" s="8">
-        <f t="shared" si="37"/>
-        <v>949484.62018466042</v>
+        <f t="shared" si="36"/>
+        <v>896846.93726472114</v>
       </c>
     </row>
     <row r="21" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3860,11 +3864,11 @@
         <v>151286</v>
       </c>
       <c r="BI21" s="7">
-        <f t="shared" ref="BI21:BI22" si="38">SUM(O21:R21)</f>
+        <f t="shared" ref="BI21:BI22" si="37">SUM(O21:R21)</f>
         <v>192266</v>
       </c>
       <c r="BJ21" s="7">
-        <f t="shared" ref="BJ21:BJ22" si="39">SUM(S21:V21)</f>
+        <f t="shared" ref="BJ21:BJ22" si="38">SUM(S21:V21)</f>
         <v>201471</v>
       </c>
       <c r="BK21" s="2">
@@ -3872,72 +3876,72 @@
         <v>189282</v>
       </c>
       <c r="BL21" s="2">
-        <f t="shared" ref="BL21:BL22" si="40">SUM(AA21:AD21)</f>
+        <f t="shared" ref="BL21:BL22" si="39">SUM(AA21:AD21)</f>
         <v>185233</v>
       </c>
       <c r="BM21" s="2">
-        <f t="shared" ref="BL21:CB21" si="41">+BM18*0.64</f>
-        <v>224989.27500860003</v>
+        <f t="shared" ref="BM21:CB21" si="40">+BM18*0.64</f>
+        <v>208925.78576764002</v>
       </c>
       <c r="BN21" s="2">
-        <f t="shared" si="41"/>
-        <v>237293.86054199276</v>
+        <f t="shared" si="40"/>
+        <v>220328.16010545514</v>
       </c>
       <c r="BO21" s="2">
-        <f t="shared" si="41"/>
-        <v>250289.52437651018</v>
+        <f t="shared" si="40"/>
+        <v>232367.34728275612</v>
       </c>
       <c r="BP21" s="2">
-        <f t="shared" si="41"/>
-        <v>264015.99397015321</v>
+        <f t="shared" si="40"/>
+        <v>245079.63174811119</v>
       </c>
       <c r="BQ21" s="2">
-        <f t="shared" si="41"/>
-        <v>278515.32765986217</v>
+        <f t="shared" si="40"/>
+        <v>258503.40204128303</v>
       </c>
       <c r="BR21" s="2">
-        <f t="shared" si="41"/>
-        <v>291600.44008131383</v>
+        <f t="shared" si="40"/>
+        <v>270561.11975053075</v>
       </c>
       <c r="BS21" s="2">
-        <f t="shared" si="41"/>
-        <v>305309.68297117139</v>
+        <f t="shared" si="40"/>
+        <v>283188.25707844837</v>
       </c>
       <c r="BT21" s="2">
-        <f t="shared" si="41"/>
-        <v>319673.32402993133</v>
+        <f t="shared" si="40"/>
+        <v>296412.07638786838</v>
       </c>
       <c r="BU21" s="2">
-        <f t="shared" si="41"/>
-        <v>334723.12536977907</v>
+        <f t="shared" si="40"/>
+        <v>310261.16522558464</v>
       </c>
       <c r="BV21" s="2">
-        <f t="shared" si="41"/>
-        <v>348274.9235432361</v>
+        <f t="shared" si="40"/>
+        <v>322548.00664103805</v>
       </c>
       <c r="BW21" s="2">
-        <f t="shared" si="41"/>
-        <v>361885.57350249856</v>
+        <f t="shared" si="40"/>
+        <v>334977.74639752763</v>
       </c>
       <c r="BX21" s="2">
-        <f t="shared" si="41"/>
-        <v>376036.0187819454</v>
+        <f t="shared" si="40"/>
+        <v>347892.45338975638</v>
       </c>
       <c r="BY21" s="2">
-        <f t="shared" si="41"/>
-        <v>390748.03322436335</v>
+        <f t="shared" si="40"/>
+        <v>361311.32875331648</v>
       </c>
       <c r="BZ21" s="2">
-        <f t="shared" si="41"/>
-        <v>406044.28574838955</v>
+        <f t="shared" si="40"/>
+        <v>375254.34681217215</v>
       </c>
       <c r="CA21" s="2">
-        <f t="shared" si="41"/>
-        <v>421948.37790320296</v>
+        <f t="shared" si="40"/>
+        <v>389742.28680889169</v>
       </c>
       <c r="CB21" s="2">
-        <f t="shared" si="41"/>
-        <v>438484.88303279947</v>
+        <f t="shared" si="40"/>
+        <v>404796.76596403838</v>
       </c>
     </row>
     <row r="22" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4018,11 +4022,11 @@
         <v>18273</v>
       </c>
       <c r="BI22" s="7">
+        <f t="shared" si="37"/>
+        <v>20715</v>
+      </c>
+      <c r="BJ22" s="7">
         <f t="shared" si="38"/>
-        <v>20715</v>
-      </c>
-      <c r="BJ22" s="7">
-        <f t="shared" si="39"/>
         <v>22075</v>
       </c>
       <c r="BK22" s="2">
@@ -4030,71 +4034,71 @@
         <v>24855</v>
       </c>
       <c r="BL22" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>25119</v>
       </c>
       <c r="BM22" s="2">
-        <f t="shared" ref="BL22:CB22" si="42">+BM19*0.27</f>
+        <f t="shared" ref="BM22:CB22" si="41">+BM19*0.27</f>
         <v>29860.4745</v>
       </c>
       <c r="BN22" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>32846.521950000002</v>
       </c>
       <c r="BO22" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>36131.174145000012</v>
       </c>
       <c r="BP22" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>39744.291559500016</v>
       </c>
       <c r="BQ22" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>41731.506137475015</v>
       </c>
       <c r="BR22" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>43818.081444348769</v>
       </c>
       <c r="BS22" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>46008.985516566208</v>
       </c>
       <c r="BT22" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>48309.434792394524</v>
       </c>
       <c r="BU22" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>50724.906532014247</v>
       </c>
       <c r="BV22" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>53261.151858614969</v>
       </c>
       <c r="BW22" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>55924.209451545714</v>
       </c>
       <c r="BX22" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>58720.419924123002</v>
       </c>
       <c r="BY22" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>61656.440920329158</v>
       </c>
       <c r="BZ22" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>64739.26296634561</v>
       </c>
       <c r="CA22" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>67976.226114662903</v>
       </c>
       <c r="CB22" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>71375.037420396038</v>
       </c>
     </row>
@@ -4116,19 +4120,19 @@
         <v>38816</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" ref="K23:N23" si="43">+K21+K22</f>
+        <f t="shared" ref="K23:N23" si="42">+K21+K22</f>
         <v>56602</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>35943</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>37005</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>40009</v>
       </c>
       <c r="O23" s="2">
@@ -4144,11 +4148,11 @@
         <v>46179</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" ref="R23" si="44">+R21+R22</f>
+        <f t="shared" ref="R23" si="43">+R21+R22</f>
         <v>48186</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" ref="S23" si="45">+S21+S22</f>
+        <f t="shared" ref="S23" si="44">+S21+S22</f>
         <v>69702</v>
       </c>
       <c r="T23" s="2">
@@ -4156,47 +4160,47 @@
         <v>54719</v>
       </c>
       <c r="U23" s="2">
-        <f t="shared" ref="U23" si="46">+U21+U22</f>
+        <f t="shared" ref="U23" si="45">+U21+U22</f>
         <v>47074</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" ref="V23" si="47">+V21+V22</f>
+        <f t="shared" ref="V23" si="46">+V21+V22</f>
         <v>52051</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" ref="W23:AE23" si="48">+W21+W22</f>
+        <f t="shared" ref="W23:AE23" si="47">+W21+W22</f>
         <v>66822</v>
       </c>
       <c r="X23" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>52860</v>
       </c>
       <c r="Y23" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>45384</v>
       </c>
       <c r="Z23" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>49071</v>
       </c>
       <c r="AA23" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>64720</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>48482</v>
       </c>
       <c r="AC23" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>46099</v>
       </c>
       <c r="AD23" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>51051</v>
       </c>
       <c r="AE23" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>66025</v>
       </c>
       <c r="AN23" s="2">
@@ -4254,11 +4258,11 @@
         <v>141048</v>
       </c>
       <c r="BF23" s="2">
-        <f t="shared" ref="BF23:BG23" si="49">+BF21+BF22</f>
+        <f t="shared" ref="BF23:BG23" si="48">+BF21+BF22</f>
         <v>163756</v>
       </c>
       <c r="BG23" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>161782</v>
       </c>
       <c r="BH23" s="2">
@@ -4274,76 +4278,76 @@
         <v>223546</v>
       </c>
       <c r="BK23" s="2">
-        <f t="shared" ref="BK23:CB23" si="50">+BK21+BK22</f>
+        <f t="shared" ref="BK23:CB23" si="49">+BK21+BK22</f>
         <v>214137</v>
       </c>
       <c r="BL23" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>210352</v>
       </c>
       <c r="BM23" s="2">
-        <f t="shared" si="50"/>
-        <v>254849.74950860004</v>
+        <f t="shared" si="49"/>
+        <v>238786.26026764003</v>
       </c>
       <c r="BN23" s="2">
-        <f t="shared" si="50"/>
-        <v>270140.38249199279</v>
+        <f t="shared" si="49"/>
+        <v>253174.68205545514</v>
       </c>
       <c r="BO23" s="2">
-        <f t="shared" si="50"/>
-        <v>286420.69852151017</v>
+        <f t="shared" si="49"/>
+        <v>268498.52142775612</v>
       </c>
       <c r="BP23" s="2">
-        <f t="shared" si="50"/>
-        <v>303760.28552965325</v>
+        <f t="shared" si="49"/>
+        <v>284823.9233076112</v>
       </c>
       <c r="BQ23" s="2">
-        <f t="shared" si="50"/>
-        <v>320246.8337973372</v>
+        <f t="shared" si="49"/>
+        <v>300234.90817875805</v>
       </c>
       <c r="BR23" s="2">
-        <f t="shared" si="50"/>
-        <v>335418.52152566263</v>
+        <f t="shared" si="49"/>
+        <v>314379.20119487954</v>
       </c>
       <c r="BS23" s="2">
-        <f t="shared" si="50"/>
-        <v>351318.6684877376</v>
+        <f t="shared" si="49"/>
+        <v>329197.24259501457</v>
       </c>
       <c r="BT23" s="2">
-        <f t="shared" si="50"/>
-        <v>367982.75882232585</v>
+        <f t="shared" si="49"/>
+        <v>344721.5111802629</v>
       </c>
       <c r="BU23" s="2">
-        <f t="shared" si="50"/>
-        <v>385448.03190179332</v>
+        <f t="shared" si="49"/>
+        <v>360986.0717575989</v>
       </c>
       <c r="BV23" s="2">
-        <f t="shared" si="50"/>
-        <v>401536.07540185109</v>
+        <f t="shared" si="49"/>
+        <v>375809.15849965304</v>
       </c>
       <c r="BW23" s="2">
-        <f t="shared" si="50"/>
-        <v>417809.78295404429</v>
+        <f t="shared" si="49"/>
+        <v>390901.95584907336</v>
       </c>
       <c r="BX23" s="2">
-        <f t="shared" si="50"/>
-        <v>434756.43870606838</v>
+        <f t="shared" si="49"/>
+        <v>406612.87331387936</v>
       </c>
       <c r="BY23" s="2">
-        <f t="shared" si="50"/>
-        <v>452404.47414469253</v>
+        <f t="shared" si="49"/>
+        <v>422967.76967364561</v>
       </c>
       <c r="BZ23" s="2">
-        <f t="shared" si="50"/>
-        <v>470783.54871473514</v>
+        <f t="shared" si="49"/>
+        <v>439993.60977851774</v>
       </c>
       <c r="CA23" s="2">
-        <f t="shared" si="50"/>
-        <v>489924.60401786584</v>
+        <f t="shared" si="49"/>
+        <v>457718.51292355458</v>
       </c>
       <c r="CB23" s="2">
-        <f t="shared" si="50"/>
-        <v>509859.92045319552</v>
+        <f t="shared" si="49"/>
+        <v>476171.80338443443</v>
       </c>
     </row>
     <row r="24" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4351,35 +4355,35 @@
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ref="C24" si="51">+C20-C23</f>
+        <f t="shared" ref="C24" si="50">+C20-C23</f>
         <v>33912</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ref="D24:F24" si="52">+D20-D23</f>
+        <f t="shared" ref="D24:F24" si="51">+D20-D23</f>
         <v>23422</v>
       </c>
       <c r="E24" s="2">
+        <f t="shared" si="51"/>
+        <v>20421</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="51"/>
+        <v>24084</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" ref="K24:N24" si="52">+K20-K23</f>
+        <v>35217</v>
+      </c>
+      <c r="L24" s="2">
         <f t="shared" si="52"/>
-        <v>20421</v>
-      </c>
-      <c r="F24" s="2">
+        <v>22370</v>
+      </c>
+      <c r="M24" s="2">
         <f t="shared" si="52"/>
-        <v>24084</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" ref="K24:N24" si="53">+K20-K23</f>
-        <v>35217</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" si="53"/>
-        <v>22370</v>
-      </c>
-      <c r="M24" s="2">
-        <f t="shared" si="53"/>
         <v>22680</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>24689</v>
       </c>
       <c r="O24" s="2">
@@ -4395,11 +4399,11 @@
         <v>35255</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" ref="R24" si="54">+R20-R23</f>
+        <f t="shared" ref="R24" si="53">+R20-R23</f>
         <v>35174</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" ref="S24" si="55">+S20-S23</f>
+        <f t="shared" ref="S24" si="54">+S20-S23</f>
         <v>54243</v>
       </c>
       <c r="T24" s="2">
@@ -4407,47 +4411,47 @@
         <v>42559</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" ref="U24" si="56">+U20-U23</f>
+        <f t="shared" ref="U24" si="55">+U20-U23</f>
         <v>35885</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" ref="V24" si="57">+V20-V23</f>
+        <f t="shared" ref="V24" si="56">+V20-V23</f>
         <v>38095</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" ref="W24:AE24" si="58">+W20-W23</f>
+        <f t="shared" ref="W24:AE24" si="57">+W20-W23</f>
         <v>50332</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>41976</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>36413</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>40427</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>54855</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>42271</v>
       </c>
       <c r="AC24" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>39678</v>
       </c>
       <c r="AD24" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>43879</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>58275</v>
       </c>
       <c r="AF24" s="2">
@@ -4463,11 +4467,11 @@
         <v>45532.744599999998</v>
       </c>
       <c r="AN24" s="2">
-        <f t="shared" ref="AN24:AO24" si="59">+AN20-AN23</f>
+        <f t="shared" ref="AN24:AO24" si="58">+AN20-AN23</f>
         <v>2166</v>
       </c>
       <c r="AO24" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1235</v>
       </c>
       <c r="AP24" s="2">
@@ -4475,71 +4479,71 @@
         <v>1603</v>
       </c>
       <c r="AQ24" s="2">
-        <f t="shared" ref="AQ24:AR24" si="60">+AQ20-AQ23</f>
+        <f t="shared" ref="AQ24:AR24" si="59">+AQ20-AQ23</f>
         <v>1708</v>
       </c>
       <c r="AR24" s="2">
+        <f t="shared" si="59"/>
+        <v>2259</v>
+      </c>
+      <c r="AS24" s="2">
+        <f t="shared" ref="AS24:AT24" si="60">+AS20-AS23</f>
+        <v>4043</v>
+      </c>
+      <c r="AT24" s="2">
         <f t="shared" si="60"/>
-        <v>2259</v>
-      </c>
-      <c r="AS24" s="2">
-        <f t="shared" ref="AS24:AT24" si="61">+AS20-AS23</f>
-        <v>4043</v>
-      </c>
-      <c r="AT24" s="2">
+        <v>5598</v>
+      </c>
+      <c r="AU24" s="2">
+        <f t="shared" ref="AU24:AV24" si="61">+AU20-AU23</f>
+        <v>8154</v>
+      </c>
+      <c r="AV24" s="2">
         <f t="shared" si="61"/>
-        <v>5598</v>
-      </c>
-      <c r="AU24" s="2">
-        <f t="shared" ref="AU24:AV24" si="62">+AU20-AU23</f>
-        <v>8154</v>
-      </c>
-      <c r="AV24" s="2">
+        <v>13197</v>
+      </c>
+      <c r="AW24" s="2">
+        <f t="shared" ref="AW24:AY24" si="62">+AW20-AW23</f>
+        <v>17222</v>
+      </c>
+      <c r="AX24" s="2">
         <f t="shared" si="62"/>
-        <v>13197</v>
-      </c>
-      <c r="AW24" s="2">
-        <f t="shared" ref="AW24:AY24" si="63">+AW20-AW23</f>
-        <v>17222</v>
-      </c>
-      <c r="AX24" s="2">
+        <v>25684</v>
+      </c>
+      <c r="AY24" s="2">
+        <f t="shared" si="62"/>
+        <v>43818</v>
+      </c>
+      <c r="AZ24" s="2">
+        <f t="shared" ref="AZ24:BE24" si="63">+AZ20-AZ23</f>
+        <v>68662</v>
+      </c>
+      <c r="BA24" s="2">
         <f t="shared" si="63"/>
-        <v>25684</v>
-      </c>
-      <c r="AY24" s="2">
+        <v>64304</v>
+      </c>
+      <c r="BB24" s="2">
         <f t="shared" si="63"/>
-        <v>43818</v>
-      </c>
-      <c r="AZ24" s="2">
-        <f t="shared" ref="AZ24:BE24" si="64">+AZ20-AZ23</f>
-        <v>68662</v>
-      </c>
-      <c r="BA24" s="2">
+        <v>70537</v>
+      </c>
+      <c r="BC24" s="2">
+        <f t="shared" si="63"/>
+        <v>93626</v>
+      </c>
+      <c r="BD24" s="2">
+        <f t="shared" si="63"/>
+        <v>84263</v>
+      </c>
+      <c r="BE24" s="2">
+        <f t="shared" si="63"/>
+        <v>88186</v>
+      </c>
+      <c r="BF24" s="2">
+        <f t="shared" ref="BF24:BG24" si="64">+BF20-BF23</f>
+        <v>101839</v>
+      </c>
+      <c r="BG24" s="2">
         <f t="shared" si="64"/>
-        <v>64304</v>
-      </c>
-      <c r="BB24" s="2">
-        <f t="shared" si="64"/>
-        <v>70537</v>
-      </c>
-      <c r="BC24" s="2">
-        <f t="shared" si="64"/>
-        <v>93626</v>
-      </c>
-      <c r="BD24" s="2">
-        <f t="shared" si="64"/>
-        <v>84263</v>
-      </c>
-      <c r="BE24" s="2">
-        <f t="shared" si="64"/>
-        <v>88186</v>
-      </c>
-      <c r="BF24" s="2">
-        <f t="shared" ref="BF24:BG24" si="65">+BF20-BF23</f>
-        <v>101839</v>
-      </c>
-      <c r="BG24" s="2">
-        <f t="shared" si="65"/>
         <v>98392</v>
       </c>
       <c r="BH24" s="2">
@@ -4555,76 +4559,76 @@
         <v>170782</v>
       </c>
       <c r="BK24" s="2">
-        <f t="shared" ref="BK24:CB24" si="66">+BK20-BK23</f>
+        <f t="shared" ref="BK24:CB24" si="65">+BK20-BK23</f>
         <v>169148</v>
       </c>
       <c r="BL24" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>180683</v>
       </c>
       <c r="BM24" s="2">
-        <f t="shared" si="66"/>
-        <v>207290.34269233746</v>
+        <f t="shared" si="65"/>
+        <v>198254.62999429749</v>
       </c>
       <c r="BN24" s="2">
-        <f t="shared" si="66"/>
-        <v>222285.05960487085</v>
+        <f t="shared" si="65"/>
+        <v>212741.85310931856</v>
       </c>
       <c r="BO24" s="2">
-        <f t="shared" si="66"/>
-        <v>238475.84681678697</v>
+        <f t="shared" si="65"/>
+        <v>228394.62220155034</v>
       </c>
       <c r="BP24" s="2">
-        <f t="shared" si="66"/>
-        <v>255965.78489871119</v>
+        <f t="shared" si="65"/>
+        <v>245314.08114881249</v>
       </c>
       <c r="BQ24" s="2">
-        <f t="shared" si="66"/>
-        <v>269494.49951369752</v>
+        <f t="shared" si="65"/>
+        <v>258237.79135324672</v>
       </c>
       <c r="BR24" s="2">
-        <f t="shared" si="66"/>
-        <v>282496.35663601535</v>
+        <f t="shared" si="65"/>
+        <v>270661.73894994979</v>
       </c>
       <c r="BS24" s="2">
-        <f t="shared" si="66"/>
-        <v>296131.36121607391</v>
+        <f t="shared" si="65"/>
+        <v>283688.05915141728</v>
       </c>
       <c r="BT24" s="2">
-        <f t="shared" si="66"/>
-        <v>310430.64253886603</v>
+        <f t="shared" si="65"/>
+        <v>297346.19074020558</v>
       </c>
       <c r="BU24" s="2">
-        <f t="shared" si="66"/>
-        <v>325426.87568113185</v>
+        <f t="shared" si="65"/>
+        <v>311667.02310002246</v>
       </c>
       <c r="BV24" s="2">
-        <f t="shared" si="66"/>
-        <v>339907.01803673303</v>
+        <f t="shared" si="65"/>
+        <v>325435.62727924663</v>
       </c>
       <c r="BW24" s="2">
-        <f t="shared" si="66"/>
-        <v>354763.12731600122</v>
+        <f t="shared" si="65"/>
+        <v>339627.47456945502</v>
       </c>
       <c r="BX24" s="2">
-        <f t="shared" si="66"/>
-        <v>370282.87739673239</v>
+        <f t="shared" si="65"/>
+        <v>354452.12186362606</v>
       </c>
       <c r="BY24" s="2">
-        <f t="shared" si="66"/>
-        <v>386496.51636218687</v>
+        <f t="shared" si="65"/>
+        <v>369938.37009722309</v>
       </c>
       <c r="BZ24" s="2">
-        <f t="shared" si="66"/>
-        <v>403435.6957906257</v>
+        <f t="shared" si="65"/>
+        <v>386116.35513900348</v>
       </c>
       <c r="CA24" s="2">
-        <f t="shared" si="66"/>
-        <v>421133.53688056604</v>
+        <f t="shared" si="65"/>
+        <v>403017.61064001609</v>
       </c>
       <c r="CB24" s="2">
-        <f t="shared" si="66"/>
-        <v>439624.69973146491</v>
+        <f t="shared" si="65"/>
+        <v>420675.13388028671</v>
       </c>
     </row>
     <row r="25" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4712,11 +4716,11 @@
         <v>7903</v>
       </c>
       <c r="AG25" s="2">
-        <f t="shared" ref="AG25:AG26" si="67">+AC25</f>
+        <f t="shared" ref="AG25:AG26" si="66">+AC25</f>
         <v>8006</v>
       </c>
       <c r="AH25" s="2">
-        <f t="shared" ref="AH25:AH26" si="68">+AD25</f>
+        <f t="shared" ref="AH25:AH26" si="67">+AD25</f>
         <v>7765</v>
       </c>
       <c r="AN25" s="2">
@@ -4784,11 +4788,11 @@
         <v>18752</v>
       </c>
       <c r="BI25" s="7">
-        <f t="shared" ref="BI25:BI26" si="69">SUM(O25:R25)</f>
+        <f t="shared" ref="BI25:BI26" si="68">SUM(O25:R25)</f>
         <v>21914</v>
       </c>
       <c r="BJ25" s="7">
-        <f t="shared" ref="BJ25:BJ26" si="70">SUM(S25:V25)</f>
+        <f t="shared" ref="BJ25:BJ26" si="69">SUM(S25:V25)</f>
         <v>26251</v>
       </c>
       <c r="BK25" s="2">
@@ -4796,71 +4800,71 @@
         <v>29915</v>
       </c>
       <c r="BL25" s="2">
-        <f t="shared" ref="BL25:BL26" si="71">SUM(AA25:AD25)</f>
+        <f t="shared" ref="BL25:BL26" si="70">SUM(AA25:AD25)</f>
         <v>31370</v>
       </c>
       <c r="BM25" s="2">
-        <f t="shared" ref="BL25:CB25" si="72">+BL25*1.03</f>
+        <f t="shared" ref="BM25:CB25" si="71">+BL25*1.03</f>
         <v>32311.100000000002</v>
       </c>
       <c r="BN25" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>33280.433000000005</v>
       </c>
       <c r="BO25" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>34278.845990000009</v>
       </c>
       <c r="BP25" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>35307.21136970001</v>
       </c>
       <c r="BQ25" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>36366.427710791009</v>
       </c>
       <c r="BR25" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>37457.420542114742</v>
       </c>
       <c r="BS25" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>38581.143158378181</v>
       </c>
       <c r="BT25" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>39738.577453129525</v>
       </c>
       <c r="BU25" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>40930.73477672341</v>
       </c>
       <c r="BV25" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>42158.656820025113</v>
       </c>
       <c r="BW25" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>43423.416524625871</v>
       </c>
       <c r="BX25" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>44726.119020364647</v>
       </c>
       <c r="BY25" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>46067.902590975587</v>
       </c>
       <c r="BZ25" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>47449.939668704857</v>
       </c>
       <c r="CA25" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>48873.437858766003</v>
       </c>
       <c r="CB25" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>50339.640994528985</v>
       </c>
     </row>
@@ -4945,15 +4949,15 @@
         <v>7175</v>
       </c>
       <c r="AF26" s="2">
-        <f t="shared" ref="AF26" si="73">+AB26</f>
+        <f t="shared" ref="AF26" si="72">+AB26</f>
         <v>6468</v>
       </c>
       <c r="AG26" s="2">
+        <f t="shared" si="66"/>
+        <v>6320</v>
+      </c>
+      <c r="AH26" s="2">
         <f t="shared" si="67"/>
-        <v>6320</v>
-      </c>
-      <c r="AH26" s="2">
-        <f t="shared" si="68"/>
         <v>6523</v>
       </c>
       <c r="AN26" s="2">
@@ -5021,11 +5025,11 @@
         <v>19916</v>
       </c>
       <c r="BI26" s="7">
+        <f t="shared" si="68"/>
+        <v>21973</v>
+      </c>
+      <c r="BJ26" s="7">
         <f t="shared" si="69"/>
-        <v>21973</v>
-      </c>
-      <c r="BJ26" s="7">
-        <f t="shared" si="70"/>
         <v>25094</v>
       </c>
       <c r="BK26" s="2">
@@ -5033,71 +5037,71 @@
         <v>24932</v>
       </c>
       <c r="BL26" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>26097</v>
       </c>
       <c r="BM26" s="2">
-        <f t="shared" ref="BK26:CB26" si="74">+BL26*1.03</f>
+        <f t="shared" ref="BM26:CB26" si="73">+BL26*1.03</f>
         <v>26879.91</v>
       </c>
       <c r="BN26" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>27686.3073</v>
       </c>
       <c r="BO26" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>28516.896519000002</v>
       </c>
       <c r="BP26" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>29372.403414570002</v>
       </c>
       <c r="BQ26" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>30253.575517007102</v>
       </c>
       <c r="BR26" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>31161.182782517317</v>
       </c>
       <c r="BS26" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>32096.018265992836</v>
       </c>
       <c r="BT26" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>33058.898813972621</v>
       </c>
       <c r="BU26" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>34050.665778391798</v>
       </c>
       <c r="BV26" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>35072.185751743556</v>
       </c>
       <c r="BW26" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>36124.351324295865</v>
       </c>
       <c r="BX26" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>37208.081864024745</v>
       </c>
       <c r="BY26" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>38324.324319945488</v>
       </c>
       <c r="BZ26" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>39474.054049543854</v>
       </c>
       <c r="CA26" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>40658.275671030169</v>
       </c>
       <c r="CB26" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>41878.023941161075</v>
       </c>
     </row>
@@ -5106,35 +5110,35 @@
         <v>28</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ref="C27" si="75">+C25+C26</f>
+        <f t="shared" ref="C27" si="74">+C25+C26</f>
         <v>7638</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ref="D27:F27" si="76">+D25+D26</f>
+        <f t="shared" ref="D27:F27" si="75">+D25+D26</f>
         <v>7528</v>
       </c>
       <c r="E27" s="2">
+        <f t="shared" si="75"/>
+        <v>7809</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="75"/>
+        <v>7966</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" ref="K27:N27" si="76">+K25+K26</f>
+        <v>9648</v>
+      </c>
+      <c r="L27" s="2">
         <f t="shared" si="76"/>
-        <v>7809</v>
-      </c>
-      <c r="F27" s="2">
+        <v>9517</v>
+      </c>
+      <c r="M27" s="2">
         <f t="shared" si="76"/>
-        <v>7966</v>
-      </c>
-      <c r="K27" s="2">
-        <f t="shared" ref="K27:N27" si="77">+K25+K26</f>
-        <v>9648</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" si="77"/>
-        <v>9517</v>
-      </c>
-      <c r="M27" s="2">
-        <f t="shared" si="77"/>
         <v>9589</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>9914</v>
       </c>
       <c r="O27" s="2">
@@ -5150,11 +5154,11 @@
         <v>11129</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" ref="R27" si="78">+R25+R26</f>
+        <f t="shared" ref="R27" si="77">+R25+R26</f>
         <v>11388</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" ref="S27" si="79">+S25+S26</f>
+        <f t="shared" ref="S27" si="78">+S25+S26</f>
         <v>12755</v>
       </c>
       <c r="T27" s="2">
@@ -5162,139 +5166,139 @@
         <v>12580</v>
       </c>
       <c r="U27" s="2">
-        <f t="shared" ref="U27" si="80">+U25+U26</f>
+        <f t="shared" ref="U27" si="79">+U25+U26</f>
         <v>12809</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" ref="V27:Z27" si="81">+V25+V26</f>
+        <f t="shared" ref="V27:Z27" si="80">+V25+V26</f>
         <v>13201</v>
       </c>
       <c r="W27" s="2">
+        <f t="shared" si="80"/>
+        <v>14316</v>
+      </c>
+      <c r="X27" s="2">
+        <f t="shared" si="80"/>
+        <v>13658</v>
+      </c>
+      <c r="Y27" s="2">
+        <f t="shared" si="80"/>
+        <v>13415</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="80"/>
+        <v>13458</v>
+      </c>
+      <c r="AA27" s="2">
+        <f t="shared" ref="AA27:AB27" si="81">+AA25+AA26</f>
+        <v>14482</v>
+      </c>
+      <c r="AB27" s="2">
         <f t="shared" si="81"/>
-        <v>14316</v>
-      </c>
-      <c r="X27" s="2">
-        <f t="shared" si="81"/>
-        <v>13658</v>
-      </c>
-      <c r="Y27" s="2">
-        <f t="shared" si="81"/>
-        <v>13415</v>
-      </c>
-      <c r="Z27" s="2">
-        <f t="shared" si="81"/>
-        <v>13458</v>
-      </c>
-      <c r="AA27" s="2">
-        <f t="shared" ref="AA27:AB27" si="82">+AA25+AA26</f>
-        <v>14482</v>
-      </c>
-      <c r="AB27" s="2">
+        <v>14371</v>
+      </c>
+      <c r="AC27" s="2">
+        <f t="shared" ref="AC27:AD27" si="82">+AC25+AC26</f>
+        <v>14326</v>
+      </c>
+      <c r="AD27" s="2">
         <f t="shared" si="82"/>
+        <v>14288</v>
+      </c>
+      <c r="AE27" s="2">
+        <f t="shared" ref="AE27:AH27" si="83">+AE25+AE26</f>
+        <v>15443</v>
+      </c>
+      <c r="AF27" s="2">
+        <f t="shared" si="83"/>
         <v>14371</v>
       </c>
-      <c r="AC27" s="2">
-        <f t="shared" ref="AC27:AD27" si="83">+AC25+AC26</f>
+      <c r="AG27" s="2">
+        <f t="shared" si="83"/>
         <v>14326</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AH27" s="2">
         <f t="shared" si="83"/>
         <v>14288</v>
       </c>
-      <c r="AE27" s="2">
-        <f t="shared" ref="AE27:AH27" si="84">+AE25+AE26</f>
-        <v>15443</v>
-      </c>
-      <c r="AF27" s="2">
+      <c r="AN27" s="2">
+        <f t="shared" ref="AN27:AO27" si="84">+AN25+AN26</f>
+        <v>1546</v>
+      </c>
+      <c r="AO27" s="2">
         <f t="shared" si="84"/>
-        <v>14371</v>
-      </c>
-      <c r="AG27" s="2">
-        <f t="shared" si="84"/>
-        <v>14326</v>
-      </c>
-      <c r="AH27" s="2">
-        <f t="shared" si="84"/>
-        <v>14288</v>
-      </c>
-      <c r="AN27" s="2">
-        <f t="shared" ref="AN27:AO27" si="85">+AN25+AN26</f>
-        <v>1546</v>
-      </c>
-      <c r="AO27" s="2">
+        <v>1568</v>
+      </c>
+      <c r="AP27" s="2">
+        <f t="shared" ref="AP27:AR27" si="85">+AP25+AP26</f>
+        <v>1555</v>
+      </c>
+      <c r="AQ27" s="2">
         <f t="shared" si="85"/>
-        <v>1568</v>
-      </c>
-      <c r="AP27" s="2">
-        <f t="shared" ref="AP27:AR27" si="86">+AP25+AP26</f>
-        <v>1555</v>
-      </c>
-      <c r="AQ27" s="2">
+        <v>1683</v>
+      </c>
+      <c r="AR27" s="2">
+        <f t="shared" si="85"/>
+        <v>1910</v>
+      </c>
+      <c r="AS27" s="2">
+        <f t="shared" ref="AS27:AT27" si="86">+AS25+AS26</f>
+        <v>2393</v>
+      </c>
+      <c r="AT27" s="2">
         <f t="shared" si="86"/>
-        <v>1683</v>
-      </c>
-      <c r="AR27" s="2">
-        <f t="shared" si="86"/>
-        <v>1910</v>
-      </c>
-      <c r="AS27" s="2">
-        <f t="shared" ref="AS27:AT27" si="87">+AS25+AS26</f>
-        <v>2393</v>
-      </c>
-      <c r="AT27" s="2">
+        <v>3145</v>
+      </c>
+      <c r="AU27" s="2">
+        <f t="shared" ref="AU27:AV27" si="87">+AU25+AU26</f>
+        <v>3745</v>
+      </c>
+      <c r="AV27" s="2">
         <f t="shared" si="87"/>
-        <v>3145</v>
-      </c>
-      <c r="AU27" s="2">
-        <f t="shared" ref="AU27:AV27" si="88">+AU25+AU26</f>
-        <v>3745</v>
-      </c>
-      <c r="AV27" s="2">
+        <v>4870</v>
+      </c>
+      <c r="AW27" s="2">
+        <f t="shared" ref="AW27:AY27" si="88">+AW25+AW26</f>
+        <v>5482</v>
+      </c>
+      <c r="AX27" s="2">
         <f t="shared" si="88"/>
-        <v>4870</v>
-      </c>
-      <c r="AW27" s="2">
-        <f t="shared" ref="AW27:AY27" si="89">+AW25+AW26</f>
-        <v>5482</v>
-      </c>
-      <c r="AX27" s="2">
+        <v>7299</v>
+      </c>
+      <c r="AY27" s="2">
+        <f t="shared" si="88"/>
+        <v>10028</v>
+      </c>
+      <c r="AZ27" s="2">
+        <f t="shared" ref="AZ27:BE27" si="89">+AZ25+AZ26</f>
+        <v>13421</v>
+      </c>
+      <c r="BA27" s="2">
         <f t="shared" si="89"/>
-        <v>7299</v>
-      </c>
-      <c r="AY27" s="2">
+        <v>15305</v>
+      </c>
+      <c r="BB27" s="2">
         <f t="shared" si="89"/>
-        <v>10028</v>
-      </c>
-      <c r="AZ27" s="2">
-        <f t="shared" ref="AZ27:BE27" si="90">+AZ25+AZ26</f>
-        <v>13421</v>
-      </c>
-      <c r="BA27" s="2">
+        <v>18034</v>
+      </c>
+      <c r="BC27" s="2">
+        <f t="shared" si="89"/>
+        <v>22396</v>
+      </c>
+      <c r="BD27" s="2">
+        <f t="shared" si="89"/>
+        <v>24239</v>
+      </c>
+      <c r="BE27" s="2">
+        <f t="shared" si="89"/>
+        <v>26842</v>
+      </c>
+      <c r="BF27" s="2">
+        <f t="shared" ref="BF27:BG27" si="90">+BF25+BF26</f>
+        <v>30941</v>
+      </c>
+      <c r="BG27" s="2">
         <f t="shared" si="90"/>
-        <v>15305</v>
-      </c>
-      <c r="BB27" s="2">
-        <f t="shared" si="90"/>
-        <v>18034</v>
-      </c>
-      <c r="BC27" s="2">
-        <f t="shared" si="90"/>
-        <v>22396</v>
-      </c>
-      <c r="BD27" s="2">
-        <f t="shared" si="90"/>
-        <v>24239</v>
-      </c>
-      <c r="BE27" s="2">
-        <f t="shared" si="90"/>
-        <v>26842</v>
-      </c>
-      <c r="BF27" s="2">
-        <f t="shared" ref="BF27:BG27" si="91">+BF25+BF26</f>
-        <v>30941</v>
-      </c>
-      <c r="BG27" s="2">
-        <f t="shared" si="91"/>
         <v>34462</v>
       </c>
       <c r="BH27" s="2">
@@ -5310,75 +5314,75 @@
         <v>51345</v>
       </c>
       <c r="BK27" s="2">
-        <f t="shared" ref="BK27:CB27" si="92">+BK25+BK26</f>
+        <f t="shared" ref="BK27:CB27" si="91">+BK25+BK26</f>
         <v>54847</v>
       </c>
       <c r="BL27" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>57467</v>
       </c>
       <c r="BM27" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>59191.01</v>
       </c>
       <c r="BN27" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>60966.740300000005</v>
       </c>
       <c r="BO27" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>62795.742509000011</v>
       </c>
       <c r="BP27" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>64679.614784270016</v>
       </c>
       <c r="BQ27" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>66620.003227798108</v>
       </c>
       <c r="BR27" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>68618.603324632059</v>
       </c>
       <c r="BS27" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>70677.161424371021</v>
       </c>
       <c r="BT27" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>72797.476267102145</v>
       </c>
       <c r="BU27" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>74981.400555115208</v>
       </c>
       <c r="BV27" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>77230.842571768677</v>
       </c>
       <c r="BW27" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>79547.767848921736</v>
       </c>
       <c r="BX27" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>81934.2008843894</v>
       </c>
       <c r="BY27" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>84392.226910921076</v>
       </c>
       <c r="BZ27" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>86923.993718248705</v>
       </c>
       <c r="CA27" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>89531.713529796165</v>
       </c>
       <c r="CB27" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>92217.66493569006</v>
       </c>
     </row>
@@ -5387,35 +5391,35 @@
         <v>29</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ref="C28" si="93">+C24-C27</f>
+        <f t="shared" ref="C28" si="92">+C24-C27</f>
         <v>26274</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" ref="D28:F28" si="94">+D24-D27</f>
+        <f t="shared" ref="D28:F28" si="93">+D24-D27</f>
         <v>15894</v>
       </c>
       <c r="E28" s="2">
+        <f t="shared" si="93"/>
+        <v>12612</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="93"/>
+        <v>16118</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" ref="K28:N28" si="94">+K24-K27</f>
+        <v>25569</v>
+      </c>
+      <c r="L28" s="2">
         <f t="shared" si="94"/>
-        <v>12612</v>
-      </c>
-      <c r="F28" s="2">
+        <v>12853</v>
+      </c>
+      <c r="M28" s="2">
         <f t="shared" si="94"/>
-        <v>16118</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" ref="K28:N28" si="95">+K24-K27</f>
-        <v>25569</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="95"/>
-        <v>12853</v>
-      </c>
-      <c r="M28" s="2">
-        <f t="shared" si="95"/>
         <v>13091</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>14775</v>
       </c>
       <c r="O28" s="2">
@@ -5431,11 +5435,11 @@
         <v>24126</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" ref="R28" si="96">+R24-R27</f>
+        <f t="shared" ref="R28" si="95">+R24-R27</f>
         <v>23786</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" ref="S28" si="97">+S24-S27</f>
+        <f t="shared" ref="S28" si="96">+S24-S27</f>
         <v>41488</v>
       </c>
       <c r="T28" s="2">
@@ -5443,139 +5447,139 @@
         <v>29979</v>
       </c>
       <c r="U28" s="2">
-        <f t="shared" ref="U28" si="98">+U24-U27</f>
+        <f t="shared" ref="U28" si="97">+U24-U27</f>
         <v>23076</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" ref="V28:Z28" si="99">+V24-V27</f>
+        <f t="shared" ref="V28:Z28" si="98">+V24-V27</f>
         <v>24894</v>
       </c>
       <c r="W28" s="2">
+        <f t="shared" si="98"/>
+        <v>36016</v>
+      </c>
+      <c r="X28" s="2">
+        <f t="shared" si="98"/>
+        <v>28318</v>
+      </c>
+      <c r="Y28" s="2">
+        <f t="shared" si="98"/>
+        <v>22998</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" si="98"/>
+        <v>26969</v>
+      </c>
+      <c r="AA28" s="2">
+        <f t="shared" ref="AA28:AB28" si="99">+AA24-AA27</f>
+        <v>40373</v>
+      </c>
+      <c r="AB28" s="2">
         <f t="shared" si="99"/>
-        <v>36016</v>
-      </c>
-      <c r="X28" s="2">
-        <f t="shared" si="99"/>
-        <v>28318</v>
-      </c>
-      <c r="Y28" s="2">
-        <f t="shared" si="99"/>
-        <v>22998</v>
-      </c>
-      <c r="Z28" s="2">
-        <f t="shared" si="99"/>
-        <v>26969</v>
-      </c>
-      <c r="AA28" s="2">
-        <f t="shared" ref="AA28:AB28" si="100">+AA24-AA27</f>
-        <v>40373</v>
-      </c>
-      <c r="AB28" s="2">
+        <v>27900</v>
+      </c>
+      <c r="AC28" s="2">
+        <f t="shared" ref="AC28:AD28" si="100">+AC24-AC27</f>
+        <v>25352</v>
+      </c>
+      <c r="AD28" s="2">
         <f t="shared" si="100"/>
-        <v>27900</v>
-      </c>
-      <c r="AC28" s="2">
-        <f t="shared" ref="AC28:AD28" si="101">+AC24-AC27</f>
-        <v>25352</v>
-      </c>
-      <c r="AD28" s="2">
+        <v>29591</v>
+      </c>
+      <c r="AE28" s="2">
+        <f t="shared" ref="AE28:AH28" si="101">+AE24-AE27</f>
+        <v>42832</v>
+      </c>
+      <c r="AF28" s="2">
         <f t="shared" si="101"/>
-        <v>29591</v>
-      </c>
-      <c r="AE28" s="2">
-        <f t="shared" ref="AE28:AH28" si="102">+AE24-AE27</f>
-        <v>42832</v>
-      </c>
-      <c r="AF28" s="2">
+        <v>29831.198100000001</v>
+      </c>
+      <c r="AG28" s="2">
+        <f t="shared" si="101"/>
+        <v>26847.546300000002</v>
+      </c>
+      <c r="AH28" s="2">
+        <f t="shared" si="101"/>
+        <v>31244.744599999998</v>
+      </c>
+      <c r="AN28" s="2">
+        <f t="shared" ref="AN28:AO28" si="102">+AN24-AN27</f>
+        <v>620</v>
+      </c>
+      <c r="AO28" s="2">
         <f t="shared" si="102"/>
-        <v>29831.198100000001</v>
-      </c>
-      <c r="AG28" s="2">
-        <f t="shared" si="102"/>
-        <v>26847.546300000002</v>
-      </c>
-      <c r="AH28" s="2">
-        <f t="shared" si="102"/>
-        <v>31244.744599999998</v>
-      </c>
-      <c r="AN28" s="2">
-        <f t="shared" ref="AN28:AO28" si="103">+AN24-AN27</f>
-        <v>620</v>
-      </c>
-      <c r="AO28" s="2">
+        <v>-333</v>
+      </c>
+      <c r="AP28" s="2">
+        <f t="shared" ref="AP28:AR28" si="103">+AP24-AP27</f>
+        <v>48</v>
+      </c>
+      <c r="AQ28" s="2">
         <f t="shared" si="103"/>
-        <v>-333</v>
-      </c>
-      <c r="AP28" s="2">
-        <f t="shared" ref="AP28:AR28" si="104">+AP24-AP27</f>
-        <v>48</v>
-      </c>
-      <c r="AQ28" s="2">
+        <v>25</v>
+      </c>
+      <c r="AR28" s="2">
+        <f t="shared" si="103"/>
+        <v>349</v>
+      </c>
+      <c r="AS28" s="2">
+        <f t="shared" ref="AS28:AT28" si="104">+AS24-AS27</f>
+        <v>1650</v>
+      </c>
+      <c r="AT28" s="2">
         <f t="shared" si="104"/>
-        <v>25</v>
-      </c>
-      <c r="AR28" s="2">
-        <f t="shared" si="104"/>
-        <v>349</v>
-      </c>
-      <c r="AS28" s="2">
-        <f t="shared" ref="AS28:AT28" si="105">+AS24-AS27</f>
-        <v>1650</v>
-      </c>
-      <c r="AT28" s="2">
+        <v>2453</v>
+      </c>
+      <c r="AU28" s="2">
+        <f t="shared" ref="AU28:AV28" si="105">+AU24-AU27</f>
+        <v>4409</v>
+      </c>
+      <c r="AV28" s="2">
         <f t="shared" si="105"/>
-        <v>2453</v>
-      </c>
-      <c r="AU28" s="2">
-        <f t="shared" ref="AU28:AV28" si="106">+AU24-AU27</f>
-        <v>4409</v>
-      </c>
-      <c r="AV28" s="2">
+        <v>8327</v>
+      </c>
+      <c r="AW28" s="2">
+        <f t="shared" ref="AW28:AY28" si="106">+AW24-AW27</f>
+        <v>11740</v>
+      </c>
+      <c r="AX28" s="2">
         <f t="shared" si="106"/>
-        <v>8327</v>
-      </c>
-      <c r="AW28" s="2">
-        <f t="shared" ref="AW28:AY28" si="107">+AW24-AW27</f>
-        <v>11740</v>
-      </c>
-      <c r="AX28" s="2">
+        <v>18385</v>
+      </c>
+      <c r="AY28" s="2">
+        <f t="shared" si="106"/>
+        <v>33790</v>
+      </c>
+      <c r="AZ28" s="2">
+        <f t="shared" ref="AZ28:BE28" si="107">+AZ24-AZ27</f>
+        <v>55241</v>
+      </c>
+      <c r="BA28" s="2">
         <f t="shared" si="107"/>
-        <v>18385</v>
-      </c>
-      <c r="AY28" s="2">
+        <v>48999</v>
+      </c>
+      <c r="BB28" s="2">
         <f t="shared" si="107"/>
-        <v>33790</v>
-      </c>
-      <c r="AZ28" s="2">
-        <f t="shared" ref="AZ28:BE28" si="108">+AZ24-AZ27</f>
-        <v>55241</v>
-      </c>
-      <c r="BA28" s="2">
+        <v>52503</v>
+      </c>
+      <c r="BC28" s="2">
+        <f t="shared" si="107"/>
+        <v>71230</v>
+      </c>
+      <c r="BD28" s="2">
+        <f t="shared" si="107"/>
+        <v>60024</v>
+      </c>
+      <c r="BE28" s="2">
+        <f t="shared" si="107"/>
+        <v>61344</v>
+      </c>
+      <c r="BF28" s="2">
+        <f t="shared" ref="BF28:BG28" si="108">+BF24-BF27</f>
+        <v>70898</v>
+      </c>
+      <c r="BG28" s="2">
         <f t="shared" si="108"/>
-        <v>48999</v>
-      </c>
-      <c r="BB28" s="2">
-        <f t="shared" si="108"/>
-        <v>52503</v>
-      </c>
-      <c r="BC28" s="2">
-        <f t="shared" si="108"/>
-        <v>71230</v>
-      </c>
-      <c r="BD28" s="2">
-        <f t="shared" si="108"/>
-        <v>60024</v>
-      </c>
-      <c r="BE28" s="2">
-        <f t="shared" si="108"/>
-        <v>61344</v>
-      </c>
-      <c r="BF28" s="2">
-        <f t="shared" ref="BF28:BG28" si="109">+BF24-BF27</f>
-        <v>70898</v>
-      </c>
-      <c r="BG28" s="2">
-        <f t="shared" si="109"/>
         <v>63930</v>
       </c>
       <c r="BH28" s="2">
@@ -5591,76 +5595,76 @@
         <v>119437</v>
       </c>
       <c r="BK28" s="2">
-        <f t="shared" ref="BK28:CB28" si="110">+BK24-BK27</f>
+        <f t="shared" ref="BK28:CB28" si="109">+BK24-BK27</f>
         <v>114301</v>
       </c>
       <c r="BL28" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>123216</v>
       </c>
       <c r="BM28" s="2">
-        <f t="shared" si="110"/>
-        <v>148099.33269233746</v>
+        <f t="shared" si="109"/>
+        <v>139063.61999429748</v>
       </c>
       <c r="BN28" s="2">
-        <f t="shared" si="110"/>
-        <v>161318.31930487085</v>
+        <f t="shared" si="109"/>
+        <v>151775.11280931855</v>
       </c>
       <c r="BO28" s="2">
-        <f t="shared" si="110"/>
-        <v>175680.10430778697</v>
+        <f t="shared" si="109"/>
+        <v>165598.87969255034</v>
       </c>
       <c r="BP28" s="2">
-        <f t="shared" si="110"/>
-        <v>191286.17011444119</v>
+        <f t="shared" si="109"/>
+        <v>180634.46636454249</v>
       </c>
       <c r="BQ28" s="2">
-        <f t="shared" si="110"/>
-        <v>202874.49628589943</v>
+        <f t="shared" si="109"/>
+        <v>191617.78812544863</v>
       </c>
       <c r="BR28" s="2">
-        <f t="shared" si="110"/>
-        <v>213877.75331138331</v>
+        <f t="shared" si="109"/>
+        <v>202043.13562531775</v>
       </c>
       <c r="BS28" s="2">
-        <f t="shared" si="110"/>
-        <v>225454.19979170291</v>
+        <f t="shared" si="109"/>
+        <v>213010.89772704628</v>
       </c>
       <c r="BT28" s="2">
-        <f t="shared" si="110"/>
-        <v>237633.16627176388</v>
+        <f t="shared" si="109"/>
+        <v>224548.71447310344</v>
       </c>
       <c r="BU28" s="2">
-        <f t="shared" si="110"/>
-        <v>250445.47512601665</v>
+        <f t="shared" si="109"/>
+        <v>236685.62254490727</v>
       </c>
       <c r="BV28" s="2">
-        <f t="shared" si="110"/>
-        <v>262676.17546496436</v>
+        <f t="shared" si="109"/>
+        <v>248204.78470747796</v>
       </c>
       <c r="BW28" s="2">
-        <f t="shared" si="110"/>
-        <v>275215.35946707951</v>
+        <f t="shared" si="109"/>
+        <v>260079.70672053329</v>
       </c>
       <c r="BX28" s="2">
-        <f t="shared" si="110"/>
-        <v>288348.67651234299</v>
+        <f t="shared" si="109"/>
+        <v>272517.92097923666</v>
       </c>
       <c r="BY28" s="2">
-        <f t="shared" si="110"/>
-        <v>302104.28945126582</v>
+        <f t="shared" si="109"/>
+        <v>285546.14318630204</v>
       </c>
       <c r="BZ28" s="2">
-        <f t="shared" si="110"/>
-        <v>316511.70207237697</v>
+        <f t="shared" si="109"/>
+        <v>299192.36142075481</v>
       </c>
       <c r="CA28" s="2">
-        <f t="shared" si="110"/>
-        <v>331601.82335076988</v>
+        <f t="shared" si="109"/>
+        <v>313485.89711021993</v>
       </c>
       <c r="CB28" s="2">
-        <f t="shared" si="110"/>
-        <v>347407.03479577485</v>
+        <f t="shared" si="109"/>
+        <v>328457.46894459665</v>
       </c>
     </row>
     <row r="29" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5808,11 +5812,11 @@
         <v>803</v>
       </c>
       <c r="BI29" s="7">
-        <f t="shared" ref="BI29" si="111">SUM(O29:R29)</f>
+        <f t="shared" ref="BI29" si="110">SUM(O29:R29)</f>
         <v>258</v>
       </c>
       <c r="BJ29" s="7">
-        <f t="shared" ref="BJ29" si="112">SUM(S29:V29)</f>
+        <f t="shared" ref="BJ29" si="111">SUM(S29:V29)</f>
         <v>-334</v>
       </c>
       <c r="BK29" s="2">
@@ -5820,7 +5824,7 @@
         <v>-565</v>
       </c>
       <c r="BL29" s="2">
-        <f t="shared" ref="BL29:BL31" si="113">SUM(AA29:AD29)</f>
+        <f t="shared" ref="BL29:BL31" si="112">SUM(AA29:AD29)</f>
         <v>269</v>
       </c>
     </row>
@@ -5829,35 +5833,35 @@
         <v>34</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ref="C30" si="114">+C28+C29</f>
+        <f t="shared" ref="C30" si="113">+C28+C29</f>
         <v>27030</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" ref="D30:F30" si="115">+D28+D29</f>
+        <f t="shared" ref="D30:F30" si="114">+D28+D29</f>
         <v>16168</v>
       </c>
       <c r="E30" s="2">
+        <f t="shared" si="114"/>
+        <v>13284</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="114"/>
+        <v>16421</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" ref="K30:N30" si="115">+K28+K29</f>
+        <v>25918</v>
+      </c>
+      <c r="L30" s="2">
         <f t="shared" si="115"/>
-        <v>13284</v>
-      </c>
-      <c r="F30" s="2">
+        <v>13135</v>
+      </c>
+      <c r="M30" s="2">
         <f t="shared" si="115"/>
-        <v>16421</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" ref="K30:N30" si="116">+K28+K29</f>
-        <v>25918</v>
-      </c>
-      <c r="L30" s="2">
-        <f t="shared" si="116"/>
-        <v>13135</v>
-      </c>
-      <c r="M30" s="2">
-        <f t="shared" si="116"/>
         <v>13137</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>14901</v>
       </c>
       <c r="O30" s="2">
@@ -5873,11 +5877,11 @@
         <v>24369</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" ref="R30" si="117">+R28+R29</f>
+        <f t="shared" ref="R30" si="116">+R28+R29</f>
         <v>23248</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" ref="S30" si="118">+S28+S29</f>
+        <f t="shared" ref="S30" si="117">+S28+S29</f>
         <v>41241</v>
       </c>
       <c r="T30" s="2">
@@ -5885,139 +5889,139 @@
         <v>30139</v>
       </c>
       <c r="U30" s="2">
-        <f t="shared" ref="U30:Z30" si="119">+U28+U29</f>
+        <f t="shared" ref="U30:Z30" si="118">+U28+U29</f>
         <v>23066</v>
       </c>
       <c r="V30" s="2">
+        <f t="shared" si="118"/>
+        <v>24657</v>
+      </c>
+      <c r="W30" s="2">
+        <f t="shared" si="118"/>
+        <v>35623</v>
+      </c>
+      <c r="X30" s="2">
+        <f t="shared" si="118"/>
+        <v>28382</v>
+      </c>
+      <c r="Y30" s="2">
+        <f t="shared" si="118"/>
+        <v>22733</v>
+      </c>
+      <c r="Z30" s="2">
+        <f t="shared" si="118"/>
+        <v>26998</v>
+      </c>
+      <c r="AA30" s="2">
+        <f t="shared" ref="AA30:AB30" si="119">+AA28+AA29</f>
+        <v>40323</v>
+      </c>
+      <c r="AB30" s="2">
         <f t="shared" si="119"/>
-        <v>24657</v>
-      </c>
-      <c r="W30" s="2">
-        <f t="shared" si="119"/>
-        <v>35623</v>
-      </c>
-      <c r="X30" s="2">
-        <f t="shared" si="119"/>
-        <v>28382</v>
-      </c>
-      <c r="Y30" s="2">
-        <f t="shared" si="119"/>
-        <v>22733</v>
-      </c>
-      <c r="Z30" s="2">
-        <f t="shared" si="119"/>
-        <v>26998</v>
-      </c>
-      <c r="AA30" s="2">
-        <f t="shared" ref="AA30:AB30" si="120">+AA28+AA29</f>
-        <v>40323</v>
-      </c>
-      <c r="AB30" s="2">
+        <v>28058</v>
+      </c>
+      <c r="AC30" s="2">
+        <f t="shared" ref="AC30:AD30" si="120">+AC28+AC29</f>
+        <v>25494</v>
+      </c>
+      <c r="AD30" s="2">
         <f t="shared" si="120"/>
-        <v>28058</v>
-      </c>
-      <c r="AC30" s="2">
-        <f t="shared" ref="AC30:AD30" si="121">+AC28+AC29</f>
-        <v>25494</v>
-      </c>
-      <c r="AD30" s="2">
+        <v>29610</v>
+      </c>
+      <c r="AE30" s="2">
+        <f t="shared" ref="AE30:AH30" si="121">+AE28+AE29</f>
+        <v>42584</v>
+      </c>
+      <c r="AF30" s="2">
         <f t="shared" si="121"/>
-        <v>29610</v>
-      </c>
-      <c r="AE30" s="2">
-        <f t="shared" ref="AE30:AH30" si="122">+AE28+AE29</f>
-        <v>42584</v>
-      </c>
-      <c r="AF30" s="2">
+        <v>29831.198100000001</v>
+      </c>
+      <c r="AG30" s="2">
+        <f t="shared" si="121"/>
+        <v>26847.546300000002</v>
+      </c>
+      <c r="AH30" s="2">
+        <f t="shared" si="121"/>
+        <v>31244.744599999998</v>
+      </c>
+      <c r="AN30" s="2">
+        <f t="shared" ref="AN30:AO30" si="122">+AN28+AN29</f>
+        <v>823</v>
+      </c>
+      <c r="AO30" s="2">
         <f t="shared" si="122"/>
-        <v>29831.198100000001</v>
-      </c>
-      <c r="AG30" s="2">
-        <f t="shared" si="122"/>
-        <v>26847.546300000002</v>
-      </c>
-      <c r="AH30" s="2">
-        <f t="shared" si="122"/>
-        <v>31244.744599999998</v>
-      </c>
-      <c r="AN30" s="2">
-        <f t="shared" ref="AN30:AO30" si="123">+AN28+AN29</f>
-        <v>823</v>
-      </c>
-      <c r="AO30" s="2">
+        <v>-116</v>
+      </c>
+      <c r="AP30" s="2">
+        <f t="shared" ref="AP30:AR30" si="123">+AP28+AP29</f>
+        <v>118</v>
+      </c>
+      <c r="AQ30" s="2">
         <f t="shared" si="123"/>
-        <v>-116</v>
-      </c>
-      <c r="AP30" s="2">
-        <f t="shared" ref="AP30:AR30" si="124">+AP28+AP29</f>
         <v>118</v>
       </c>
-      <c r="AQ30" s="2">
+      <c r="AR30" s="2">
+        <f t="shared" si="123"/>
+        <v>406</v>
+      </c>
+      <c r="AS30" s="2">
+        <f t="shared" ref="AS30:AT30" si="124">+AS28+AS29</f>
+        <v>1815</v>
+      </c>
+      <c r="AT30" s="2">
         <f t="shared" si="124"/>
-        <v>118</v>
-      </c>
-      <c r="AR30" s="2">
-        <f t="shared" si="124"/>
-        <v>406</v>
-      </c>
-      <c r="AS30" s="2">
-        <f t="shared" ref="AS30:AT30" si="125">+AS28+AS29</f>
-        <v>1815</v>
-      </c>
-      <c r="AT30" s="2">
+        <v>2818</v>
+      </c>
+      <c r="AU30" s="2">
+        <f t="shared" ref="AU30:AV30" si="125">+AU28+AU29</f>
+        <v>5008</v>
+      </c>
+      <c r="AV30" s="2">
         <f t="shared" si="125"/>
-        <v>2818</v>
-      </c>
-      <c r="AU30" s="2">
-        <f t="shared" ref="AU30:AV30" si="126">+AU28+AU29</f>
-        <v>5008</v>
-      </c>
-      <c r="AV30" s="2">
+        <v>8947</v>
+      </c>
+      <c r="AW30" s="2">
+        <f t="shared" ref="AW30:AY30" si="126">+AW28+AW29</f>
+        <v>12066</v>
+      </c>
+      <c r="AX30" s="2">
         <f t="shared" si="126"/>
-        <v>8947</v>
-      </c>
-      <c r="AW30" s="2">
-        <f t="shared" ref="AW30:AY30" si="127">+AW28+AW29</f>
-        <v>12066</v>
-      </c>
-      <c r="AX30" s="2">
+        <v>18540</v>
+      </c>
+      <c r="AY30" s="2">
+        <f t="shared" si="126"/>
+        <v>34205</v>
+      </c>
+      <c r="AZ30" s="2">
+        <f t="shared" ref="AZ30:BE30" si="127">+AZ28+AZ29</f>
+        <v>55763</v>
+      </c>
+      <c r="BA30" s="2">
         <f t="shared" si="127"/>
-        <v>18540</v>
-      </c>
-      <c r="AY30" s="2">
+        <v>50155</v>
+      </c>
+      <c r="BB30" s="2">
         <f t="shared" si="127"/>
-        <v>34205</v>
-      </c>
-      <c r="AZ30" s="2">
-        <f t="shared" ref="AZ30:BE30" si="128">+AZ28+AZ29</f>
-        <v>55763</v>
-      </c>
-      <c r="BA30" s="2">
+        <v>53483</v>
+      </c>
+      <c r="BC30" s="2">
+        <f t="shared" si="127"/>
+        <v>72515</v>
+      </c>
+      <c r="BD30" s="2">
+        <f t="shared" si="127"/>
+        <v>61372</v>
+      </c>
+      <c r="BE30" s="2">
+        <f t="shared" si="127"/>
+        <v>64089</v>
+      </c>
+      <c r="BF30" s="2">
+        <f t="shared" ref="BF30:BG30" si="128">+BF28+BF29</f>
+        <v>72903</v>
+      </c>
+      <c r="BG30" s="2">
         <f t="shared" si="128"/>
-        <v>50155</v>
-      </c>
-      <c r="BB30" s="2">
-        <f t="shared" si="128"/>
-        <v>53483</v>
-      </c>
-      <c r="BC30" s="2">
-        <f t="shared" si="128"/>
-        <v>72515</v>
-      </c>
-      <c r="BD30" s="2">
-        <f t="shared" si="128"/>
-        <v>61372</v>
-      </c>
-      <c r="BE30" s="2">
-        <f t="shared" si="128"/>
-        <v>64089</v>
-      </c>
-      <c r="BF30" s="2">
-        <f t="shared" ref="BF30:BG30" si="129">+BF28+BF29</f>
-        <v>72903</v>
-      </c>
-      <c r="BG30" s="2">
-        <f t="shared" si="129"/>
         <v>65737</v>
       </c>
       <c r="BH30" s="2">
@@ -6033,76 +6037,76 @@
         <v>119103</v>
       </c>
       <c r="BK30" s="2">
-        <f t="shared" ref="BK30:CB30" si="130">+BK28+BK29</f>
+        <f t="shared" ref="BK30:CB30" si="129">+BK28+BK29</f>
         <v>113736</v>
       </c>
       <c r="BL30" s="2">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>123485</v>
       </c>
       <c r="BM30" s="2">
-        <f t="shared" si="130"/>
-        <v>148099.33269233746</v>
+        <f t="shared" si="129"/>
+        <v>139063.61999429748</v>
       </c>
       <c r="BN30" s="2">
-        <f t="shared" si="130"/>
-        <v>161318.31930487085</v>
+        <f t="shared" si="129"/>
+        <v>151775.11280931855</v>
       </c>
       <c r="BO30" s="2">
-        <f t="shared" si="130"/>
-        <v>175680.10430778697</v>
+        <f t="shared" si="129"/>
+        <v>165598.87969255034</v>
       </c>
       <c r="BP30" s="2">
-        <f t="shared" si="130"/>
-        <v>191286.17011444119</v>
+        <f t="shared" si="129"/>
+        <v>180634.46636454249</v>
       </c>
       <c r="BQ30" s="2">
-        <f t="shared" si="130"/>
-        <v>202874.49628589943</v>
+        <f t="shared" si="129"/>
+        <v>191617.78812544863</v>
       </c>
       <c r="BR30" s="2">
-        <f t="shared" si="130"/>
-        <v>213877.75331138331</v>
+        <f t="shared" si="129"/>
+        <v>202043.13562531775</v>
       </c>
       <c r="BS30" s="2">
-        <f t="shared" si="130"/>
-        <v>225454.19979170291</v>
+        <f t="shared" si="129"/>
+        <v>213010.89772704628</v>
       </c>
       <c r="BT30" s="2">
-        <f t="shared" si="130"/>
-        <v>237633.16627176388</v>
+        <f t="shared" si="129"/>
+        <v>224548.71447310344</v>
       </c>
       <c r="BU30" s="2">
-        <f t="shared" si="130"/>
-        <v>250445.47512601665</v>
+        <f t="shared" si="129"/>
+        <v>236685.62254490727</v>
       </c>
       <c r="BV30" s="2">
-        <f t="shared" si="130"/>
-        <v>262676.17546496436</v>
+        <f t="shared" si="129"/>
+        <v>248204.78470747796</v>
       </c>
       <c r="BW30" s="2">
-        <f t="shared" si="130"/>
-        <v>275215.35946707951</v>
+        <f t="shared" si="129"/>
+        <v>260079.70672053329</v>
       </c>
       <c r="BX30" s="2">
-        <f t="shared" si="130"/>
-        <v>288348.67651234299</v>
+        <f t="shared" si="129"/>
+        <v>272517.92097923666</v>
       </c>
       <c r="BY30" s="2">
-        <f t="shared" si="130"/>
-        <v>302104.28945126582</v>
+        <f t="shared" si="129"/>
+        <v>285546.14318630204</v>
       </c>
       <c r="BZ30" s="2">
-        <f t="shared" si="130"/>
-        <v>316511.70207237697</v>
+        <f t="shared" si="129"/>
+        <v>299192.36142075481</v>
       </c>
       <c r="CA30" s="2">
-        <f t="shared" si="130"/>
-        <v>331601.82335076988</v>
+        <f t="shared" si="129"/>
+        <v>313485.89711021993</v>
       </c>
       <c r="CB30" s="2">
-        <f t="shared" si="130"/>
-        <v>347407.03479577485</v>
+        <f t="shared" si="129"/>
+        <v>328457.46894459665</v>
       </c>
     </row>
     <row r="31" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6262,11 +6266,11 @@
         <v>9680</v>
       </c>
       <c r="BI31" s="7">
-        <f t="shared" ref="BI31" si="131">SUM(O31:R31)</f>
+        <f t="shared" ref="BI31" si="130">SUM(O31:R31)</f>
         <v>14527</v>
       </c>
       <c r="BJ31" s="7">
-        <f t="shared" ref="BJ31" si="132">SUM(S31:V31)</f>
+        <f t="shared" ref="BJ31" si="131">SUM(S31:V31)</f>
         <v>19300</v>
       </c>
       <c r="BK31" s="2">
@@ -6274,72 +6278,72 @@
         <v>16741</v>
       </c>
       <c r="BL31" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>29749</v>
       </c>
       <c r="BM31" s="2">
-        <f t="shared" ref="BL31:CB31" si="133">+BM30*0.2</f>
-        <v>29619.866538467493</v>
+        <f t="shared" ref="BM31:CB31" si="132">+BM30*0.2</f>
+        <v>27812.723998859496</v>
       </c>
       <c r="BN31" s="2">
-        <f t="shared" si="133"/>
-        <v>32263.663860974171</v>
+        <f t="shared" si="132"/>
+        <v>30355.022561863712</v>
       </c>
       <c r="BO31" s="2">
-        <f t="shared" si="133"/>
-        <v>35136.020861557394</v>
+        <f t="shared" si="132"/>
+        <v>33119.775938510073</v>
       </c>
       <c r="BP31" s="2">
-        <f t="shared" si="133"/>
-        <v>38257.234022888239</v>
+        <f t="shared" si="132"/>
+        <v>36126.893272908499</v>
       </c>
       <c r="BQ31" s="2">
-        <f t="shared" si="133"/>
-        <v>40574.899257179888</v>
+        <f t="shared" si="132"/>
+        <v>38323.557625089728</v>
       </c>
       <c r="BR31" s="2">
-        <f t="shared" si="133"/>
-        <v>42775.550662276662</v>
+        <f t="shared" si="132"/>
+        <v>40408.627125063555</v>
       </c>
       <c r="BS31" s="2">
-        <f t="shared" si="133"/>
-        <v>45090.839958340584</v>
+        <f t="shared" si="132"/>
+        <v>42602.179545409257</v>
       </c>
       <c r="BT31" s="2">
-        <f t="shared" si="133"/>
-        <v>47526.633254352782</v>
+        <f t="shared" si="132"/>
+        <v>44909.742894620693</v>
       </c>
       <c r="BU31" s="2">
-        <f t="shared" si="133"/>
-        <v>50089.095025203336</v>
+        <f t="shared" si="132"/>
+        <v>47337.124508981455</v>
       </c>
       <c r="BV31" s="2">
-        <f t="shared" si="133"/>
-        <v>52535.235092992873</v>
+        <f t="shared" si="132"/>
+        <v>49640.956941495591</v>
       </c>
       <c r="BW31" s="2">
-        <f t="shared" si="133"/>
-        <v>55043.071893415909</v>
+        <f t="shared" si="132"/>
+        <v>52015.941344106657</v>
       </c>
       <c r="BX31" s="2">
-        <f t="shared" si="133"/>
-        <v>57669.735302468602</v>
+        <f t="shared" si="132"/>
+        <v>54503.584195847332</v>
       </c>
       <c r="BY31" s="2">
-        <f t="shared" si="133"/>
-        <v>60420.857890253166</v>
+        <f t="shared" si="132"/>
+        <v>57109.228637260414</v>
       </c>
       <c r="BZ31" s="2">
-        <f t="shared" si="133"/>
-        <v>63302.340414475395</v>
+        <f t="shared" si="132"/>
+        <v>59838.472284150965</v>
       </c>
       <c r="CA31" s="2">
-        <f t="shared" si="133"/>
-        <v>66320.364670153984</v>
+        <f t="shared" si="132"/>
+        <v>62697.179422043992</v>
       </c>
       <c r="CB31" s="2">
-        <f t="shared" si="133"/>
-        <v>69481.406959154978</v>
+        <f t="shared" si="132"/>
+        <v>65691.493788919339</v>
       </c>
     </row>
     <row r="32" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6347,35 +6351,35 @@
         <v>32</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ref="C32" si="134">+C30-C31</f>
+        <f t="shared" ref="C32" si="133">+C30-C31</f>
         <v>20065</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" ref="D32:F32" si="135">+D30-D31</f>
+        <f t="shared" ref="D32:F32" si="134">+D30-D31</f>
         <v>13822</v>
       </c>
       <c r="E32" s="2">
+        <f t="shared" si="134"/>
+        <v>11519</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="134"/>
+        <v>14125</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" ref="K32:N32" si="135">+K30-K31</f>
+        <v>22236</v>
+      </c>
+      <c r="L32" s="2">
         <f t="shared" si="135"/>
-        <v>11519</v>
-      </c>
-      <c r="F32" s="2">
+        <v>11249</v>
+      </c>
+      <c r="M32" s="2">
         <f t="shared" si="135"/>
-        <v>14125</v>
-      </c>
-      <c r="K32" s="2">
-        <f t="shared" ref="K32:N32" si="136">+K30-K31</f>
-        <v>22236</v>
-      </c>
-      <c r="L32" s="2">
-        <f t="shared" si="136"/>
-        <v>11249</v>
-      </c>
-      <c r="M32" s="2">
-        <f t="shared" si="136"/>
         <v>11253</v>
       </c>
       <c r="N32" s="2">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>12673</v>
       </c>
       <c r="O32" s="2">
@@ -6391,11 +6395,11 @@
         <v>21744</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" ref="R32" si="137">+R30-R31</f>
+        <f t="shared" ref="R32" si="136">+R30-R31</f>
         <v>20551</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" ref="S32" si="138">+S30-S31</f>
+        <f t="shared" ref="S32" si="137">+S30-S31</f>
         <v>34630</v>
       </c>
       <c r="T32" s="2">
@@ -6403,139 +6407,139 @@
         <v>25010</v>
       </c>
       <c r="U32" s="2">
-        <f t="shared" ref="U32:AA32" si="139">+U30-U31</f>
+        <f t="shared" ref="U32:AA32" si="138">+U30-U31</f>
         <v>19442</v>
       </c>
       <c r="V32" s="2">
+        <f t="shared" si="138"/>
+        <v>20721</v>
+      </c>
+      <c r="W32" s="2">
+        <f t="shared" si="138"/>
+        <v>29998</v>
+      </c>
+      <c r="X32" s="2">
+        <f t="shared" si="138"/>
+        <v>24160</v>
+      </c>
+      <c r="Y32" s="2">
+        <f t="shared" si="138"/>
+        <v>19881</v>
+      </c>
+      <c r="Z32" s="2">
+        <f t="shared" si="138"/>
+        <v>22956</v>
+      </c>
+      <c r="AA32" s="2">
+        <f t="shared" si="138"/>
+        <v>33916</v>
+      </c>
+      <c r="AB32" s="2">
+        <f t="shared" ref="AB32:AC32" si="139">+AB30-AB31</f>
+        <v>23636</v>
+      </c>
+      <c r="AC32" s="2">
         <f t="shared" si="139"/>
-        <v>20721</v>
-      </c>
-      <c r="W32" s="2">
-        <f t="shared" si="139"/>
-        <v>29998</v>
-      </c>
-      <c r="X32" s="2">
-        <f t="shared" si="139"/>
-        <v>24160</v>
-      </c>
-      <c r="Y32" s="2">
-        <f t="shared" si="139"/>
-        <v>19881</v>
-      </c>
-      <c r="Z32" s="2">
-        <f t="shared" si="139"/>
-        <v>22956</v>
-      </c>
-      <c r="AA32" s="2">
-        <f t="shared" si="139"/>
-        <v>33916</v>
-      </c>
-      <c r="AB32" s="2">
-        <f t="shared" ref="AB32:AC32" si="140">+AB30-AB31</f>
-        <v>23636</v>
-      </c>
-      <c r="AC32" s="2">
+        <v>21448</v>
+      </c>
+      <c r="AD32" s="2">
+        <f t="shared" ref="AD32:AH32" si="140">+AD30-AD31</f>
+        <v>14736</v>
+      </c>
+      <c r="AE32" s="2">
         <f t="shared" si="140"/>
-        <v>21448</v>
-      </c>
-      <c r="AD32" s="2">
-        <f t="shared" ref="AD32:AH32" si="141">+AD30-AD31</f>
-        <v>14736</v>
-      </c>
-      <c r="AE32" s="2">
+        <v>36330</v>
+      </c>
+      <c r="AF32" s="2">
+        <f t="shared" si="140"/>
+        <v>25356.518385000003</v>
+      </c>
+      <c r="AG32" s="2">
+        <f t="shared" si="140"/>
+        <v>22820.414355000001</v>
+      </c>
+      <c r="AH32" s="2">
+        <f t="shared" si="140"/>
+        <v>26558.032909999998</v>
+      </c>
+      <c r="AN32" s="2">
+        <f t="shared" ref="AN32:AO32" si="141">+AN30-AN31</f>
+        <v>517</v>
+      </c>
+      <c r="AO32" s="2">
         <f t="shared" si="141"/>
-        <v>36330</v>
-      </c>
-      <c r="AF32" s="2">
-        <f t="shared" si="141"/>
-        <v>25356.518385000003</v>
-      </c>
-      <c r="AG32" s="2">
-        <f t="shared" si="141"/>
-        <v>22820.414355000001</v>
-      </c>
-      <c r="AH32" s="2">
-        <f t="shared" si="141"/>
-        <v>26558.032909999998</v>
-      </c>
-      <c r="AN32" s="2">
-        <f t="shared" ref="AN32:AO32" si="142">+AN30-AN31</f>
-        <v>517</v>
-      </c>
-      <c r="AO32" s="2">
+        <v>-116</v>
+      </c>
+      <c r="AP32" s="2">
+        <f t="shared" ref="AP32:AR32" si="142">+AP30-AP31</f>
+        <v>96</v>
+      </c>
+      <c r="AQ32" s="2">
         <f t="shared" si="142"/>
-        <v>-116</v>
-      </c>
-      <c r="AP32" s="2">
-        <f t="shared" ref="AP32:AR32" si="143">+AP30-AP31</f>
-        <v>96</v>
-      </c>
-      <c r="AQ32" s="2">
+        <v>94</v>
+      </c>
+      <c r="AR32" s="2">
+        <f t="shared" si="142"/>
+        <v>299</v>
+      </c>
+      <c r="AS32" s="2">
+        <f t="shared" ref="AS32:AT32" si="143">+AS30-AS31</f>
+        <v>1335</v>
+      </c>
+      <c r="AT32" s="2">
         <f t="shared" si="143"/>
-        <v>94</v>
-      </c>
-      <c r="AR32" s="2">
-        <f t="shared" si="143"/>
-        <v>299</v>
-      </c>
-      <c r="AS32" s="2">
-        <f t="shared" ref="AS32:AT32" si="144">+AS30-AS31</f>
-        <v>1335</v>
-      </c>
-      <c r="AT32" s="2">
+        <v>1989</v>
+      </c>
+      <c r="AU32" s="2">
+        <f t="shared" ref="AU32:AV32" si="144">+AU30-AU31</f>
+        <v>3496</v>
+      </c>
+      <c r="AV32" s="2">
         <f t="shared" si="144"/>
-        <v>1989</v>
-      </c>
-      <c r="AU32" s="2">
-        <f t="shared" ref="AU32:AV32" si="145">+AU30-AU31</f>
-        <v>3496</v>
-      </c>
-      <c r="AV32" s="2">
+        <v>6119</v>
+      </c>
+      <c r="AW32" s="2">
+        <f t="shared" ref="AW32:AY32" si="145">+AW30-AW31</f>
+        <v>8235</v>
+      </c>
+      <c r="AX32" s="2">
         <f t="shared" si="145"/>
-        <v>6119</v>
-      </c>
-      <c r="AW32" s="2">
-        <f t="shared" ref="AW32:AY32" si="146">+AW30-AW31</f>
-        <v>8235</v>
-      </c>
-      <c r="AX32" s="2">
+        <v>14013</v>
+      </c>
+      <c r="AY32" s="2">
+        <f t="shared" si="145"/>
+        <v>25922</v>
+      </c>
+      <c r="AZ32" s="2">
+        <f t="shared" ref="AZ32:BE32" si="146">+AZ30-AZ31</f>
+        <v>41733</v>
+      </c>
+      <c r="BA32" s="2">
         <f t="shared" si="146"/>
-        <v>14013</v>
-      </c>
-      <c r="AY32" s="2">
+        <v>37037</v>
+      </c>
+      <c r="BB32" s="2">
         <f t="shared" si="146"/>
-        <v>25922</v>
-      </c>
-      <c r="AZ32" s="2">
-        <f t="shared" ref="AZ32:BE32" si="147">+AZ30-AZ31</f>
-        <v>41733</v>
-      </c>
-      <c r="BA32" s="2">
+        <v>39510</v>
+      </c>
+      <c r="BC32" s="2">
+        <f t="shared" si="146"/>
+        <v>53394</v>
+      </c>
+      <c r="BD32" s="2">
+        <f t="shared" si="146"/>
+        <v>45687</v>
+      </c>
+      <c r="BE32" s="2">
+        <f t="shared" si="146"/>
+        <v>48351</v>
+      </c>
+      <c r="BF32" s="2">
+        <f t="shared" ref="BF32:BG32" si="147">+BF30-BF31</f>
+        <v>59531</v>
+      </c>
+      <c r="BG32" s="2">
         <f t="shared" si="147"/>
-        <v>37037</v>
-      </c>
-      <c r="BB32" s="2">
-        <f t="shared" si="147"/>
-        <v>39510</v>
-      </c>
-      <c r="BC32" s="2">
-        <f t="shared" si="147"/>
-        <v>53394</v>
-      </c>
-      <c r="BD32" s="2">
-        <f t="shared" si="147"/>
-        <v>45687</v>
-      </c>
-      <c r="BE32" s="2">
-        <f t="shared" si="147"/>
-        <v>48351</v>
-      </c>
-      <c r="BF32" s="2">
-        <f t="shared" ref="BF32:BG32" si="148">+BF30-BF31</f>
-        <v>59531</v>
-      </c>
-      <c r="BG32" s="2">
-        <f t="shared" si="148"/>
         <v>55256</v>
       </c>
       <c r="BH32" s="2">
@@ -6555,520 +6559,520 @@
         <v>96995</v>
       </c>
       <c r="BL32" s="2">
-        <f t="shared" ref="BL32:CB32" si="149">+BL30-BL31</f>
+        <f t="shared" ref="BL32:CB32" si="148">+BL30-BL31</f>
         <v>93736</v>
       </c>
       <c r="BM32" s="2">
-        <f t="shared" si="149"/>
-        <v>118479.46615386996</v>
+        <f t="shared" si="148"/>
+        <v>111250.89599543798</v>
       </c>
       <c r="BN32" s="2">
-        <f t="shared" si="149"/>
-        <v>129054.65544389669</v>
+        <f t="shared" si="148"/>
+        <v>121420.09024745485</v>
       </c>
       <c r="BO32" s="2">
-        <f t="shared" si="149"/>
-        <v>140544.08344622958</v>
+        <f t="shared" si="148"/>
+        <v>132479.10375404026</v>
       </c>
       <c r="BP32" s="2">
-        <f t="shared" si="149"/>
-        <v>153028.93609155295</v>
+        <f t="shared" si="148"/>
+        <v>144507.573091634</v>
       </c>
       <c r="BQ32" s="2">
-        <f t="shared" si="149"/>
-        <v>162299.59702871955</v>
+        <f t="shared" si="148"/>
+        <v>153294.23050035891</v>
       </c>
       <c r="BR32" s="2">
-        <f t="shared" si="149"/>
-        <v>171102.20264910665</v>
+        <f t="shared" si="148"/>
+        <v>161634.50850025419</v>
       </c>
       <c r="BS32" s="2">
-        <f t="shared" si="149"/>
-        <v>180363.35983336234</v>
+        <f t="shared" si="148"/>
+        <v>170408.71818163703</v>
       </c>
       <c r="BT32" s="2">
-        <f t="shared" si="149"/>
-        <v>190106.5330174111</v>
+        <f t="shared" si="148"/>
+        <v>179638.97157848274</v>
       </c>
       <c r="BU32" s="2">
-        <f t="shared" si="149"/>
-        <v>200356.38010081332</v>
+        <f t="shared" si="148"/>
+        <v>189348.49803592582</v>
       </c>
       <c r="BV32" s="2">
-        <f t="shared" si="149"/>
-        <v>210140.94037197149</v>
+        <f t="shared" si="148"/>
+        <v>198563.82776598237</v>
       </c>
       <c r="BW32" s="2">
-        <f t="shared" si="149"/>
-        <v>220172.28757366361</v>
+        <f t="shared" si="148"/>
+        <v>208063.76537642663</v>
       </c>
       <c r="BX32" s="2">
-        <f t="shared" si="149"/>
-        <v>230678.94120987441</v>
+        <f t="shared" si="148"/>
+        <v>218014.33678338933</v>
       </c>
       <c r="BY32" s="2">
-        <f t="shared" si="149"/>
-        <v>241683.43156101267</v>
+        <f t="shared" si="148"/>
+        <v>228436.91454904163</v>
       </c>
       <c r="BZ32" s="2">
-        <f t="shared" si="149"/>
-        <v>253209.36165790158</v>
+        <f t="shared" si="148"/>
+        <v>239353.88913660386</v>
       </c>
       <c r="CA32" s="2">
-        <f t="shared" si="149"/>
-        <v>265281.45868061588</v>
+        <f t="shared" si="148"/>
+        <v>250788.71768817594</v>
       </c>
       <c r="CB32" s="2">
-        <f t="shared" si="149"/>
-        <v>277925.62783661985</v>
+        <f t="shared" si="148"/>
+        <v>262765.9751556773</v>
       </c>
       <c r="CC32" s="2">
         <f>+CB32*(1+$CE$37)</f>
-        <v>275146.37155825365</v>
+        <v>260138.31540412051</v>
       </c>
       <c r="CD32" s="2">
-        <f t="shared" ref="CD32:EO32" si="150">+CC32*(1+$CE$37)</f>
-        <v>272394.90784267109</v>
+        <f t="shared" ref="CD32:EO32" si="149">+CC32*(1+$CE$37)</f>
+        <v>257536.93225007929</v>
       </c>
       <c r="CE32" s="2">
+        <f t="shared" si="149"/>
+        <v>254961.56292757849</v>
+      </c>
+      <c r="CF32" s="2">
+        <f t="shared" si="149"/>
+        <v>252411.94729830269</v>
+      </c>
+      <c r="CG32" s="2">
+        <f t="shared" si="149"/>
+        <v>249887.82782531966</v>
+      </c>
+      <c r="CH32" s="2">
+        <f t="shared" si="149"/>
+        <v>247388.94954706647</v>
+      </c>
+      <c r="CI32" s="2">
+        <f t="shared" si="149"/>
+        <v>244915.06005159579</v>
+      </c>
+      <c r="CJ32" s="2">
+        <f t="shared" si="149"/>
+        <v>242465.90945107985</v>
+      </c>
+      <c r="CK32" s="2">
+        <f t="shared" si="149"/>
+        <v>240041.25035656904</v>
+      </c>
+      <c r="CL32" s="2">
+        <f t="shared" si="149"/>
+        <v>237640.83785300335</v>
+      </c>
+      <c r="CM32" s="2">
+        <f t="shared" si="149"/>
+        <v>235264.42947447332</v>
+      </c>
+      <c r="CN32" s="2">
+        <f t="shared" si="149"/>
+        <v>232911.78517972858</v>
+      </c>
+      <c r="CO32" s="2">
+        <f t="shared" si="149"/>
+        <v>230582.6673279313</v>
+      </c>
+      <c r="CP32" s="2">
+        <f t="shared" si="149"/>
+        <v>228276.84065465198</v>
+      </c>
+      <c r="CQ32" s="2">
+        <f t="shared" si="149"/>
+        <v>225994.07224810545</v>
+      </c>
+      <c r="CR32" s="2">
+        <f t="shared" si="149"/>
+        <v>223734.1315256244</v>
+      </c>
+      <c r="CS32" s="2">
+        <f t="shared" si="149"/>
+        <v>221496.79021036814</v>
+      </c>
+      <c r="CT32" s="2">
+        <f t="shared" si="149"/>
+        <v>219281.82230826447</v>
+      </c>
+      <c r="CU32" s="2">
+        <f t="shared" si="149"/>
+        <v>217089.00408518183</v>
+      </c>
+      <c r="CV32" s="2">
+        <f t="shared" si="149"/>
+        <v>214918.11404433002</v>
+      </c>
+      <c r="CW32" s="2">
+        <f t="shared" si="149"/>
+        <v>212768.93290388671</v>
+      </c>
+      <c r="CX32" s="2">
+        <f t="shared" si="149"/>
+        <v>210641.24357484785</v>
+      </c>
+      <c r="CY32" s="2">
+        <f t="shared" si="149"/>
+        <v>208534.83113909938</v>
+      </c>
+      <c r="CZ32" s="2">
+        <f t="shared" si="149"/>
+        <v>206449.48282770839</v>
+      </c>
+      <c r="DA32" s="2">
+        <f t="shared" si="149"/>
+        <v>204384.98799943129</v>
+      </c>
+      <c r="DB32" s="2">
+        <f t="shared" si="149"/>
+        <v>202341.13811943698</v>
+      </c>
+      <c r="DC32" s="2">
+        <f t="shared" si="149"/>
+        <v>200317.72673824261</v>
+      </c>
+      <c r="DD32" s="2">
+        <f t="shared" si="149"/>
+        <v>198314.54947086019</v>
+      </c>
+      <c r="DE32" s="2">
+        <f t="shared" si="149"/>
+        <v>196331.40397615157</v>
+      </c>
+      <c r="DF32" s="2">
+        <f t="shared" si="149"/>
+        <v>194368.08993639005</v>
+      </c>
+      <c r="DG32" s="2">
+        <f t="shared" si="149"/>
+        <v>192424.40903702614</v>
+      </c>
+      <c r="DH32" s="2">
+        <f t="shared" si="149"/>
+        <v>190500.16494665589</v>
+      </c>
+      <c r="DI32" s="2">
+        <f t="shared" si="149"/>
+        <v>188595.16329718934</v>
+      </c>
+      <c r="DJ32" s="2">
+        <f t="shared" si="149"/>
+        <v>186709.21166421744</v>
+      </c>
+      <c r="DK32" s="2">
+        <f t="shared" si="149"/>
+        <v>184842.11954757525</v>
+      </c>
+      <c r="DL32" s="2">
+        <f t="shared" si="149"/>
+        <v>182993.69835209948</v>
+      </c>
+      <c r="DM32" s="2">
+        <f t="shared" si="149"/>
+        <v>181163.76136857847</v>
+      </c>
+      <c r="DN32" s="2">
+        <f t="shared" si="149"/>
+        <v>179352.1237548927</v>
+      </c>
+      <c r="DO32" s="2">
+        <f t="shared" si="149"/>
+        <v>177558.60251734377</v>
+      </c>
+      <c r="DP32" s="2">
+        <f t="shared" si="149"/>
+        <v>175783.01649217034</v>
+      </c>
+      <c r="DQ32" s="2">
+        <f t="shared" si="149"/>
+        <v>174025.18632724864</v>
+      </c>
+      <c r="DR32" s="2">
+        <f t="shared" si="149"/>
+        <v>172284.93446397615</v>
+      </c>
+      <c r="DS32" s="2">
+        <f t="shared" si="149"/>
+        <v>170562.08511933638</v>
+      </c>
+      <c r="DT32" s="2">
+        <f t="shared" si="149"/>
+        <v>168856.46426814303</v>
+      </c>
+      <c r="DU32" s="2">
+        <f t="shared" si="149"/>
+        <v>167167.89962546161</v>
+      </c>
+      <c r="DV32" s="2">
+        <f t="shared" si="149"/>
+        <v>165496.22062920697</v>
+      </c>
+      <c r="DW32" s="2">
+        <f t="shared" si="149"/>
+        <v>163841.25842291489</v>
+      </c>
+      <c r="DX32" s="2">
+        <f t="shared" si="149"/>
+        <v>162202.84583868575</v>
+      </c>
+      <c r="DY32" s="2">
+        <f t="shared" si="149"/>
+        <v>160580.81738029889</v>
+      </c>
+      <c r="DZ32" s="2">
+        <f t="shared" si="149"/>
+        <v>158975.00920649589</v>
+      </c>
+      <c r="EA32" s="2">
+        <f t="shared" si="149"/>
+        <v>157385.25911443093</v>
+      </c>
+      <c r="EB32" s="2">
+        <f t="shared" si="149"/>
+        <v>155811.40652328663</v>
+      </c>
+      <c r="EC32" s="2">
+        <f t="shared" si="149"/>
+        <v>154253.29245805377</v>
+      </c>
+      <c r="ED32" s="2">
+        <f t="shared" si="149"/>
+        <v>152710.75953347323</v>
+      </c>
+      <c r="EE32" s="2">
+        <f t="shared" si="149"/>
+        <v>151183.6519381385</v>
+      </c>
+      <c r="EF32" s="2">
+        <f t="shared" si="149"/>
+        <v>149671.81541875712</v>
+      </c>
+      <c r="EG32" s="2">
+        <f t="shared" si="149"/>
+        <v>148175.09726456954</v>
+      </c>
+      <c r="EH32" s="2">
+        <f t="shared" si="149"/>
+        <v>146693.34629192384</v>
+      </c>
+      <c r="EI32" s="2">
+        <f t="shared" si="149"/>
+        <v>145226.41282900461</v>
+      </c>
+      <c r="EJ32" s="2">
+        <f t="shared" si="149"/>
+        <v>143774.14870071455</v>
+      </c>
+      <c r="EK32" s="2">
+        <f t="shared" si="149"/>
+        <v>142336.4072137074</v>
+      </c>
+      <c r="EL32" s="2">
+        <f t="shared" si="149"/>
+        <v>140913.04314157032</v>
+      </c>
+      <c r="EM32" s="2">
+        <f t="shared" si="149"/>
+        <v>139503.9127101546</v>
+      </c>
+      <c r="EN32" s="2">
+        <f t="shared" si="149"/>
+        <v>138108.87358305306</v>
+      </c>
+      <c r="EO32" s="2">
+        <f t="shared" si="149"/>
+        <v>136727.78484722253</v>
+      </c>
+      <c r="EP32" s="2">
+        <f t="shared" ref="EP32:GJ32" si="150">+EO32*(1+$CE$37)</f>
+        <v>135360.50699875029</v>
+      </c>
+      <c r="EQ32" s="2">
         <f t="shared" si="150"/>
-        <v>269670.95876424439</v>
-      </c>
-      <c r="CF32" s="2">
+        <v>134006.90192876279</v>
+      </c>
+      <c r="ER32" s="2">
         <f t="shared" si="150"/>
-        <v>266974.24917660194</v>
-      </c>
-      <c r="CG32" s="2">
+        <v>132666.83290947517</v>
+      </c>
+      <c r="ES32" s="2">
         <f t="shared" si="150"/>
-        <v>264304.50668483594</v>
-      </c>
-      <c r="CH32" s="2">
+        <v>131340.16458038043</v>
+      </c>
+      <c r="ET32" s="2">
         <f t="shared" si="150"/>
-        <v>261661.46161798757</v>
-      </c>
-      <c r="CI32" s="2">
+        <v>130026.76293457662</v>
+      </c>
+      <c r="EU32" s="2">
         <f t="shared" si="150"/>
-        <v>259044.84700180771</v>
-      </c>
-      <c r="CJ32" s="2">
+        <v>128726.49530523086</v>
+      </c>
+      <c r="EV32" s="2">
         <f t="shared" si="150"/>
-        <v>256454.39853178963</v>
-      </c>
-      <c r="CK32" s="2">
+        <v>127439.23035217855</v>
+      </c>
+      <c r="EW32" s="2">
         <f t="shared" si="150"/>
-        <v>253889.85454647173</v>
-      </c>
-      <c r="CL32" s="2">
+        <v>126164.83804865676</v>
+      </c>
+      <c r="EX32" s="2">
         <f t="shared" si="150"/>
-        <v>251350.956001007</v>
-      </c>
-      <c r="CM32" s="2">
+        <v>124903.18966817019</v>
+      </c>
+      <c r="EY32" s="2">
         <f t="shared" si="150"/>
-        <v>248837.44644099692</v>
-      </c>
-      <c r="CN32" s="2">
+        <v>123654.15777148849</v>
+      </c>
+      <c r="EZ32" s="2">
         <f t="shared" si="150"/>
-        <v>246349.07197658694</v>
-      </c>
-      <c r="CO32" s="2">
+        <v>122417.6161937736</v>
+      </c>
+      <c r="FA32" s="2">
         <f t="shared" si="150"/>
-        <v>243885.58125682108</v>
-      </c>
-      <c r="CP32" s="2">
+        <v>121193.44003183587</v>
+      </c>
+      <c r="FB32" s="2">
         <f t="shared" si="150"/>
-        <v>241446.72544425286</v>
-      </c>
-      <c r="CQ32" s="2">
+        <v>119981.5056315175</v>
+      </c>
+      <c r="FC32" s="2">
         <f t="shared" si="150"/>
-        <v>239032.25818981032</v>
-      </c>
-      <c r="CR32" s="2">
+        <v>118781.69057520233</v>
+      </c>
+      <c r="FD32" s="2">
         <f t="shared" si="150"/>
-        <v>236641.93560791222</v>
-      </c>
-      <c r="CS32" s="2">
+        <v>117593.8736694503</v>
+      </c>
+      <c r="FE32" s="2">
         <f t="shared" si="150"/>
-        <v>234275.51625183309</v>
-      </c>
-      <c r="CT32" s="2">
+        <v>116417.9349327558</v>
+      </c>
+      <c r="FF32" s="2">
         <f t="shared" si="150"/>
-        <v>231932.76108931476</v>
-      </c>
-      <c r="CU32" s="2">
+        <v>115253.75558342824</v>
+      </c>
+      <c r="FG32" s="2">
         <f t="shared" si="150"/>
-        <v>229613.43347842162</v>
-      </c>
-      <c r="CV32" s="2">
+        <v>114101.21802759396</v>
+      </c>
+      <c r="FH32" s="2">
         <f t="shared" si="150"/>
-        <v>227317.29914363741</v>
-      </c>
-      <c r="CW32" s="2">
+        <v>112960.20584731802</v>
+      </c>
+      <c r="FI32" s="2">
         <f t="shared" si="150"/>
-        <v>225044.12615220103</v>
-      </c>
-      <c r="CX32" s="2">
+        <v>111830.60378884485</v>
+      </c>
+      <c r="FJ32" s="2">
         <f t="shared" si="150"/>
-        <v>222793.68489067903</v>
-      </c>
-      <c r="CY32" s="2">
+        <v>110712.29775095639</v>
+      </c>
+      <c r="FK32" s="2">
         <f t="shared" si="150"/>
-        <v>220565.74804177223</v>
-      </c>
-      <c r="CZ32" s="2">
+        <v>109605.17477344682</v>
+      </c>
+      <c r="FL32" s="2">
         <f t="shared" si="150"/>
-        <v>218360.0905613545</v>
-      </c>
-      <c r="DA32" s="2">
+        <v>108509.12302571235</v>
+      </c>
+      <c r="FM32" s="2">
         <f t="shared" si="150"/>
-        <v>216176.48965574097</v>
-      </c>
-      <c r="DB32" s="2">
+        <v>107424.03179545523</v>
+      </c>
+      <c r="FN32" s="2">
         <f t="shared" si="150"/>
-        <v>214014.72475918356</v>
-      </c>
-      <c r="DC32" s="2">
+        <v>106349.79147750068</v>
+      </c>
+      <c r="FO32" s="2">
         <f t="shared" si="150"/>
-        <v>211874.57751159172</v>
-      </c>
-      <c r="DD32" s="2">
+        <v>105286.29356272567</v>
+      </c>
+      <c r="FP32" s="2">
         <f t="shared" si="150"/>
-        <v>209755.83173647581</v>
-      </c>
-      <c r="DE32" s="2">
+        <v>104233.43062709841</v>
+      </c>
+      <c r="FQ32" s="2">
         <f t="shared" si="150"/>
-        <v>207658.27341911106</v>
-      </c>
-      <c r="DF32" s="2">
+        <v>103191.09632082742</v>
+      </c>
+      <c r="FR32" s="2">
         <f t="shared" si="150"/>
-        <v>205581.69068491994</v>
-      </c>
-      <c r="DG32" s="2">
+        <v>102159.18535761915</v>
+      </c>
+      <c r="FS32" s="2">
         <f t="shared" si="150"/>
-        <v>203525.87377807073</v>
-      </c>
-      <c r="DH32" s="2">
+        <v>101137.59350404296</v>
+      </c>
+      <c r="FT32" s="2">
         <f t="shared" si="150"/>
-        <v>201490.61504029002</v>
-      </c>
-      <c r="DI32" s="2">
+        <v>100126.21756900253</v>
+      </c>
+      <c r="FU32" s="2">
         <f t="shared" si="150"/>
-        <v>199475.70888988712</v>
-      </c>
-      <c r="DJ32" s="2">
+        <v>99124.955393312499</v>
+      </c>
+      <c r="FV32" s="2">
         <f t="shared" si="150"/>
-        <v>197480.95180098823</v>
-      </c>
-      <c r="DK32" s="2">
+        <v>98133.70583937937</v>
+      </c>
+      <c r="FW32" s="2">
         <f t="shared" si="150"/>
-        <v>195506.14228297834</v>
-      </c>
-      <c r="DL32" s="2">
+        <v>97152.368780985576</v>
+      </c>
+      <c r="FX32" s="2">
         <f t="shared" si="150"/>
-        <v>193551.08086014856</v>
-      </c>
-      <c r="DM32" s="2">
+        <v>96180.845093175725</v>
+      </c>
+      <c r="FY32" s="2">
         <f t="shared" si="150"/>
-        <v>191615.57005154708</v>
-      </c>
-      <c r="DN32" s="2">
+        <v>95219.036642243969</v>
+      </c>
+      <c r="FZ32" s="2">
         <f t="shared" si="150"/>
-        <v>189699.41435103162</v>
-      </c>
-      <c r="DO32" s="2">
+        <v>94266.846275821532</v>
+      </c>
+      <c r="GA32" s="2">
         <f t="shared" si="150"/>
-        <v>187802.4202075213</v>
-      </c>
-      <c r="DP32" s="2">
+        <v>93324.177813063317</v>
+      </c>
+      <c r="GB32" s="2">
         <f t="shared" si="150"/>
-        <v>185924.39600544609</v>
-      </c>
-      <c r="DQ32" s="2">
+        <v>92390.936034932689</v>
+      </c>
+      <c r="GC32" s="2">
         <f t="shared" si="150"/>
-        <v>184065.15204539162</v>
-      </c>
-      <c r="DR32" s="2">
+        <v>91467.026674583365</v>
+      </c>
+      <c r="GD32" s="2">
         <f t="shared" si="150"/>
-        <v>182224.5005249377</v>
-      </c>
-      <c r="DS32" s="2">
+        <v>90552.356407837535</v>
+      </c>
+      <c r="GE32" s="2">
         <f t="shared" si="150"/>
-        <v>180402.25551968833</v>
-      </c>
-      <c r="DT32" s="2">
+        <v>89646.832843759155</v>
+      </c>
+      <c r="GF32" s="2">
         <f t="shared" si="150"/>
-        <v>178598.23296449144</v>
-      </c>
-      <c r="DU32" s="2">
+        <v>88750.364515321562</v>
+      </c>
+      <c r="GG32" s="2">
         <f t="shared" si="150"/>
-        <v>176812.25063484654</v>
-      </c>
-      <c r="DV32" s="2">
+        <v>87862.860870168341</v>
+      </c>
+      <c r="GH32" s="2">
         <f t="shared" si="150"/>
-        <v>175044.12812849807</v>
-      </c>
-      <c r="DW32" s="2">
+        <v>86984.232261466663</v>
+      </c>
+      <c r="GI32" s="2">
         <f t="shared" si="150"/>
-        <v>173293.68684721307</v>
-      </c>
-      <c r="DX32" s="2">
+        <v>86114.389938851993</v>
+      </c>
+      <c r="GJ32" s="2">
         <f t="shared" si="150"/>
-        <v>171560.74997874093</v>
-      </c>
-      <c r="DY32" s="2">
-        <f t="shared" si="150"/>
-        <v>169845.14247895352</v>
-      </c>
-      <c r="DZ32" s="2">
-        <f t="shared" si="150"/>
-        <v>168146.691054164</v>
-      </c>
-      <c r="EA32" s="2">
-        <f t="shared" si="150"/>
-        <v>166465.22414362236</v>
-      </c>
-      <c r="EB32" s="2">
-        <f t="shared" si="150"/>
-        <v>164800.57190218614</v>
-      </c>
-      <c r="EC32" s="2">
-        <f t="shared" si="150"/>
-        <v>163152.56618316428</v>
-      </c>
-      <c r="ED32" s="2">
-        <f t="shared" si="150"/>
-        <v>161521.04052133264</v>
-      </c>
-      <c r="EE32" s="2">
-        <f t="shared" si="150"/>
-        <v>159905.83011611932</v>
-      </c>
-      <c r="EF32" s="2">
-        <f t="shared" si="150"/>
-        <v>158306.77181495813</v>
-      </c>
-      <c r="EG32" s="2">
-        <f t="shared" si="150"/>
-        <v>156723.70409680856</v>
-      </c>
-      <c r="EH32" s="2">
-        <f t="shared" si="150"/>
-        <v>155156.46705584048</v>
-      </c>
-      <c r="EI32" s="2">
-        <f t="shared" si="150"/>
-        <v>153604.90238528207</v>
-      </c>
-      <c r="EJ32" s="2">
-        <f t="shared" si="150"/>
-        <v>152068.85336142924</v>
-      </c>
-      <c r="EK32" s="2">
-        <f t="shared" si="150"/>
-        <v>150548.16482781494</v>
-      </c>
-      <c r="EL32" s="2">
-        <f t="shared" si="150"/>
-        <v>149042.68317953678</v>
-      </c>
-      <c r="EM32" s="2">
-        <f t="shared" si="150"/>
-        <v>147552.25634774141</v>
-      </c>
-      <c r="EN32" s="2">
-        <f t="shared" si="150"/>
-        <v>146076.73378426398</v>
-      </c>
-      <c r="EO32" s="2">
-        <f t="shared" si="150"/>
-        <v>144615.96644642134</v>
-      </c>
-      <c r="EP32" s="2">
-        <f t="shared" ref="EP32:GJ32" si="151">+EO32*(1+$CE$37)</f>
-        <v>143169.80678195713</v>
-      </c>
-      <c r="EQ32" s="2">
-        <f t="shared" si="151"/>
-        <v>141738.10871413755</v>
-      </c>
-      <c r="ER32" s="2">
-        <f t="shared" si="151"/>
-        <v>140320.72762699617</v>
-      </c>
-      <c r="ES32" s="2">
-        <f t="shared" si="151"/>
-        <v>138917.5203507262</v>
-      </c>
-      <c r="ET32" s="2">
-        <f t="shared" si="151"/>
-        <v>137528.34514721893</v>
-      </c>
-      <c r="EU32" s="2">
-        <f t="shared" si="151"/>
-        <v>136153.06169574676</v>
-      </c>
-      <c r="EV32" s="2">
-        <f t="shared" si="151"/>
-        <v>134791.5310787893</v>
-      </c>
-      <c r="EW32" s="2">
-        <f t="shared" si="151"/>
-        <v>133443.61576800141</v>
-      </c>
-      <c r="EX32" s="2">
-        <f t="shared" si="151"/>
-        <v>132109.17961032139</v>
-      </c>
-      <c r="EY32" s="2">
-        <f t="shared" si="151"/>
-        <v>130788.08781421818</v>
-      </c>
-      <c r="EZ32" s="2">
-        <f t="shared" si="151"/>
-        <v>129480.20693607599</v>
-      </c>
-      <c r="FA32" s="2">
-        <f t="shared" si="151"/>
-        <v>128185.40486671524</v>
-      </c>
-      <c r="FB32" s="2">
-        <f t="shared" si="151"/>
-        <v>126903.55081804808</v>
-      </c>
-      <c r="FC32" s="2">
-        <f t="shared" si="151"/>
-        <v>125634.51530986759</v>
-      </c>
-      <c r="FD32" s="2">
-        <f t="shared" si="151"/>
-        <v>124378.17015676892</v>
-      </c>
-      <c r="FE32" s="2">
-        <f t="shared" si="151"/>
-        <v>123134.38845520123</v>
-      </c>
-      <c r="FF32" s="2">
-        <f t="shared" si="151"/>
-        <v>121903.04457064922</v>
-      </c>
-      <c r="FG32" s="2">
-        <f t="shared" si="151"/>
-        <v>120684.01412494273</v>
-      </c>
-      <c r="FH32" s="2">
-        <f t="shared" si="151"/>
-        <v>119477.1739836933</v>
-      </c>
-      <c r="FI32" s="2">
-        <f t="shared" si="151"/>
-        <v>118282.40224385637</v>
-      </c>
-      <c r="FJ32" s="2">
-        <f t="shared" si="151"/>
-        <v>117099.5782214178</v>
-      </c>
-      <c r="FK32" s="2">
-        <f t="shared" si="151"/>
-        <v>115928.58243920363</v>
-      </c>
-      <c r="FL32" s="2">
-        <f t="shared" si="151"/>
-        <v>114769.2966148116</v>
-      </c>
-      <c r="FM32" s="2">
-        <f t="shared" si="151"/>
-        <v>113621.60364866348</v>
-      </c>
-      <c r="FN32" s="2">
-        <f t="shared" si="151"/>
-        <v>112485.38761217686</v>
-      </c>
-      <c r="FO32" s="2">
-        <f t="shared" si="151"/>
-        <v>111360.53373605509</v>
-      </c>
-      <c r="FP32" s="2">
-        <f t="shared" si="151"/>
-        <v>110246.92839869454</v>
-      </c>
-      <c r="FQ32" s="2">
-        <f t="shared" si="151"/>
-        <v>109144.45911470758</v>
-      </c>
-      <c r="FR32" s="2">
-        <f t="shared" si="151"/>
-        <v>108053.0145235605</v>
-      </c>
-      <c r="FS32" s="2">
-        <f t="shared" si="151"/>
-        <v>106972.48437832489</v>
-      </c>
-      <c r="FT32" s="2">
-        <f t="shared" si="151"/>
-        <v>105902.75953454165</v>
-      </c>
-      <c r="FU32" s="2">
-        <f t="shared" si="151"/>
-        <v>104843.73193919624</v>
-      </c>
-      <c r="FV32" s="2">
-        <f t="shared" si="151"/>
-        <v>103795.29461980428</v>
-      </c>
-      <c r="FW32" s="2">
-        <f t="shared" si="151"/>
-        <v>102757.34167360624</v>
-      </c>
-      <c r="FX32" s="2">
-        <f t="shared" si="151"/>
-        <v>101729.76825687017</v>
-      </c>
-      <c r="FY32" s="2">
-        <f t="shared" si="151"/>
-        <v>100712.47057430146</v>
-      </c>
-      <c r="FZ32" s="2">
-        <f t="shared" si="151"/>
-        <v>99705.345868558448</v>
-      </c>
-      <c r="GA32" s="2">
-        <f t="shared" si="151"/>
-        <v>98708.292409872869</v>
-      </c>
-      <c r="GB32" s="2">
-        <f t="shared" si="151"/>
-        <v>97721.209485774132</v>
-      </c>
-      <c r="GC32" s="2">
-        <f t="shared" si="151"/>
-        <v>96743.997390916396</v>
-      </c>
-      <c r="GD32" s="2">
-        <f t="shared" si="151"/>
-        <v>95776.557417007236</v>
-      </c>
-      <c r="GE32" s="2">
-        <f t="shared" si="151"/>
-        <v>94818.791842837163</v>
-      </c>
-      <c r="GF32" s="2">
-        <f t="shared" si="151"/>
-        <v>93870.603924408788</v>
-      </c>
-      <c r="GG32" s="2">
-        <f t="shared" si="151"/>
-        <v>92931.897885164697</v>
-      </c>
-      <c r="GH32" s="2">
-        <f t="shared" si="151"/>
-        <v>92002.578906313051</v>
-      </c>
-      <c r="GI32" s="2">
-        <f t="shared" si="151"/>
-        <v>91082.553117249918</v>
-      </c>
-      <c r="GJ32" s="2">
-        <f t="shared" si="151"/>
-        <v>90171.727586077424</v>
+        <v>85253.246039463469</v>
       </c>
     </row>
     <row r="33" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -7076,19 +7080,19 @@
         <v>36</v>
       </c>
       <c r="C33" s="12">
-        <f t="shared" ref="C33" si="152">+C32/C34</f>
+        <f t="shared" ref="C33" si="151">+C32/C34</f>
         <v>0.97255857987156114</v>
       </c>
       <c r="D33" s="12">
-        <f t="shared" ref="D33:F33" si="153">+D32/D34</f>
+        <f t="shared" ref="D33:F33" si="152">+D32/D34</f>
         <v>0.68176083107937602</v>
       </c>
       <c r="E33" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>0.58452984598534197</v>
       </c>
       <c r="F33" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>0.70623460408563088</v>
       </c>
       <c r="G33" s="12"/>
@@ -7096,19 +7100,19 @@
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12">
-        <f t="shared" ref="K33:N33" si="154">+K32/K34</f>
+        <f t="shared" ref="K33:N33" si="153">+K32/K34</f>
         <v>1.2479223042091785</v>
       </c>
       <c r="L33" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>0.63846699811252383</v>
       </c>
       <c r="M33" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>0.64601300384622584</v>
       </c>
       <c r="N33" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>0.73438904632051849</v>
       </c>
       <c r="O33" s="12">
@@ -7124,11 +7128,11 @@
         <v>1.2956943963183782</v>
       </c>
       <c r="R33" s="12">
-        <f t="shared" ref="R33" si="155">+R32/R34</f>
+        <f t="shared" ref="R33" si="154">+R32/R34</f>
         <v>1.2354000701047909</v>
       </c>
       <c r="S33" s="12">
-        <f t="shared" ref="S33" si="156">+S32/S34</f>
+        <f t="shared" ref="S33" si="155">+S32/S34</f>
         <v>2.0963369432743812</v>
       </c>
       <c r="T33" s="12">
@@ -7136,141 +7140,141 @@
         <v>1.5246917147727936</v>
       </c>
       <c r="U33" s="12">
-        <f t="shared" ref="U33:Z33" si="157">+U32/U34</f>
+        <f t="shared" ref="U33:Z33" si="156">+U32/U34</f>
         <v>1.1955329791418789</v>
       </c>
       <c r="V33" s="12">
+        <f t="shared" si="156"/>
+        <v>1.2855442500262897</v>
+      </c>
+      <c r="W33" s="12">
+        <f t="shared" si="156"/>
+        <v>1.8800783518485347</v>
+      </c>
+      <c r="X33" s="12">
+        <f t="shared" si="156"/>
+        <v>1.5245739743359175</v>
+      </c>
+      <c r="Y33" s="12">
+        <f t="shared" si="156"/>
+        <v>1.2602852614896989</v>
+      </c>
+      <c r="Z33" s="12">
+        <f t="shared" si="156"/>
+        <v>1.4647405630279984</v>
+      </c>
+      <c r="AA33" s="12">
+        <f t="shared" ref="AA33:AB33" si="157">+AA32/AA34</f>
+        <v>2.1773628858750742</v>
+      </c>
+      <c r="AB33" s="12">
         <f t="shared" si="157"/>
-        <v>1.2855442500262897</v>
-      </c>
-      <c r="W33" s="12">
-        <f t="shared" si="157"/>
-        <v>1.8800783518485347</v>
-      </c>
-      <c r="X33" s="12">
-        <f t="shared" si="157"/>
-        <v>1.5245739743359175</v>
-      </c>
-      <c r="Y33" s="12">
-        <f t="shared" si="157"/>
-        <v>1.2602852614896989</v>
-      </c>
-      <c r="Z33" s="12">
-        <f t="shared" si="157"/>
-        <v>1.4647405630279984</v>
-      </c>
-      <c r="AA33" s="12">
-        <f t="shared" ref="AA33:AB33" si="158">+AA32/AA34</f>
-        <v>2.1773628858750742</v>
-      </c>
-      <c r="AB33" s="12">
+        <v>1.5283831076291186</v>
+      </c>
+      <c r="AC33" s="12">
+        <f t="shared" ref="AC33:AD33" si="158">+AC32/AC34</f>
+        <v>1.3974299876043894</v>
+      </c>
+      <c r="AD33" s="12">
         <f t="shared" si="158"/>
-        <v>1.5283831076291186</v>
-      </c>
-      <c r="AC33" s="12">
-        <f t="shared" ref="AC33:AD33" si="159">+AC32/AC34</f>
-        <v>1.3974299876043894</v>
-      </c>
-      <c r="AD33" s="12">
+        <v>0.96674815403651804</v>
+      </c>
+      <c r="AE33" s="12">
+        <f t="shared" ref="AE33:AH33" si="159">+AE32/AE34</f>
+        <v>2.3978828931549452</v>
+      </c>
+      <c r="AF33" s="12">
         <f t="shared" si="159"/>
-        <v>0.96674815403651804</v>
-      </c>
-      <c r="AE33" s="12">
-        <f t="shared" ref="AE33:AH33" si="160">+AE32/AE34</f>
-        <v>2.3978828931549452</v>
-      </c>
-      <c r="AF33" s="12">
-        <f t="shared" si="160"/>
         <v>1.6736020276730077</v>
       </c>
       <c r="AG33" s="12">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>1.5062119789860184</v>
       </c>
       <c r="AH33" s="12">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>1.7529053892302517</v>
       </c>
       <c r="AI33" s="12"/>
       <c r="AJ33" s="12"/>
       <c r="AN33" s="12">
-        <f t="shared" ref="AN33:AO33" si="161">+AN32/AN34</f>
+        <f t="shared" ref="AN33:AO33" si="160">+AN32/AN34</f>
         <v>1.4348197733151276</v>
       </c>
       <c r="AO33" s="12">
+        <f t="shared" si="160"/>
+        <v>-0.33563552296933274</v>
+      </c>
+      <c r="AP33" s="12">
+        <f t="shared" ref="AP33:AR33" si="161">+AP32/AP34</f>
+        <v>0.26535096811642273</v>
+      </c>
+      <c r="AQ33" s="12">
         <f t="shared" si="161"/>
-        <v>-0.33563552296933274</v>
-      </c>
-      <c r="AP33" s="12">
-        <f t="shared" ref="AP33:AR33" si="162">+AP32/AP34</f>
-        <v>0.26535096811642273</v>
-      </c>
-      <c r="AQ33" s="12">
+        <v>0.12931058200767059</v>
+      </c>
+      <c r="AR33" s="12">
+        <f t="shared" si="161"/>
+        <v>0.38599471742346592</v>
+      </c>
+      <c r="AS33" s="12">
+        <f t="shared" ref="AS33:AT33" si="162">+AS32/AS34</f>
+        <v>1.5581596209061837</v>
+      </c>
+      <c r="AT33" s="12">
         <f t="shared" si="162"/>
-        <v>0.12931058200767059</v>
-      </c>
-      <c r="AR33" s="12">
-        <f t="shared" si="162"/>
-        <v>0.38599471742346592</v>
-      </c>
-      <c r="AS33" s="12">
-        <f t="shared" ref="AS33:AT33" si="163">+AS32/AS34</f>
-        <v>1.5581596209061837</v>
-      </c>
-      <c r="AT33" s="12">
+        <v>2.266599508162721</v>
+      </c>
+      <c r="AU33" s="12">
+        <f t="shared" ref="AU33:AV33" si="163">+AU32/AU34</f>
+        <v>3.9312171930029729</v>
+      </c>
+      <c r="AV33" s="12">
         <f t="shared" si="163"/>
-        <v>2.266599508162721</v>
-      </c>
-      <c r="AU33" s="12">
-        <f t="shared" ref="AU33:AV33" si="164">+AU32/AU34</f>
-        <v>3.9312171930029729</v>
-      </c>
-      <c r="AV33" s="12">
+        <v>6.7827685090656757</v>
+      </c>
+      <c r="AW33" s="12">
+        <f t="shared" ref="AW33:AY33" si="164">+AW32/AW34</f>
+        <v>9.0793325284866118</v>
+      </c>
+      <c r="AX33" s="12">
         <f t="shared" si="164"/>
-        <v>6.7827685090656757</v>
-      </c>
-      <c r="AW33" s="12">
-        <f t="shared" ref="AW33:AY33" si="165">+AW32/AW34</f>
-        <v>9.0793325284866118</v>
-      </c>
-      <c r="AX33" s="12">
+        <v>15.15390737872981</v>
+      </c>
+      <c r="AY33" s="12">
+        <f t="shared" si="164"/>
+        <v>27.675373273759003</v>
+      </c>
+      <c r="AZ33" s="12">
+        <f t="shared" ref="AZ33:BE33" si="165">+AZ32/AZ34</f>
+        <v>6.3064763445557777</v>
+      </c>
+      <c r="BA33" s="12">
         <f t="shared" si="165"/>
-        <v>15.15390737872981</v>
-      </c>
-      <c r="AY33" s="12">
+        <v>5.6790982137298718</v>
+      </c>
+      <c r="BB33" s="12">
         <f t="shared" si="165"/>
-        <v>27.675373273759003</v>
-      </c>
-      <c r="AZ33" s="12">
-        <f t="shared" ref="AZ33:BE33" si="166">+AZ32/AZ34</f>
-        <v>6.3064763445557777</v>
-      </c>
-      <c r="BA33" s="12">
+        <v>6.4530744220284548</v>
+      </c>
+      <c r="BC33" s="12">
+        <f t="shared" si="165"/>
+        <v>9.216876236067618</v>
+      </c>
+      <c r="BD33" s="12">
+        <f t="shared" si="165"/>
+        <v>8.3063028961611227</v>
+      </c>
+      <c r="BE33" s="12">
+        <f t="shared" si="165"/>
+        <v>9.2067470826545037</v>
+      </c>
+      <c r="BF33" s="12">
+        <f t="shared" ref="BF33:BG33" si="166">+BF32/BF34</f>
+        <v>2.9764851126245446</v>
+      </c>
+      <c r="BG33" s="12">
         <f t="shared" si="166"/>
-        <v>5.6790982137298718</v>
-      </c>
-      <c r="BB33" s="12">
-        <f t="shared" si="166"/>
-        <v>6.4530744220284548</v>
-      </c>
-      <c r="BC33" s="12">
-        <f t="shared" si="166"/>
-        <v>9.216876236067618</v>
-      </c>
-      <c r="BD33" s="12">
-        <f t="shared" si="166"/>
-        <v>8.3063028961611227</v>
-      </c>
-      <c r="BE33" s="12">
-        <f t="shared" si="166"/>
-        <v>9.2067470826545037</v>
-      </c>
-      <c r="BF33" s="12">
-        <f t="shared" ref="BF33:BG33" si="167">+BF32/BF34</f>
-        <v>2.9764851126245446</v>
-      </c>
-      <c r="BG33" s="12">
-        <f t="shared" si="167"/>
         <v>2.9714474637107351</v>
       </c>
       <c r="BH33" s="12">
@@ -7290,72 +7294,72 @@
         <v>6.1340548534195198</v>
       </c>
       <c r="BL33" s="12">
-        <f t="shared" ref="BL33:CB33" si="168">+BL32/BL34</f>
+        <f t="shared" ref="BL33:CB33" si="167">+BL32/BL34</f>
         <v>6.0835556272062066</v>
       </c>
       <c r="BM33" s="12">
-        <f t="shared" si="168"/>
-        <v>7.8199803215110135</v>
+        <f t="shared" si="167"/>
+        <v>7.3428742184316196</v>
       </c>
       <c r="BN33" s="12">
-        <f t="shared" si="168"/>
-        <v>8.5179727655085493</v>
+        <f t="shared" si="167"/>
+        <v>8.0140698400688581</v>
       </c>
       <c r="BO33" s="12">
-        <f t="shared" si="168"/>
-        <v>9.2763075538082855</v>
+        <f t="shared" si="167"/>
+        <v>8.7439960526372769</v>
       </c>
       <c r="BP33" s="12">
-        <f t="shared" si="168"/>
-        <v>10.100343187768683</v>
+        <f t="shared" si="167"/>
+        <v>9.5379090957271409</v>
       </c>
       <c r="BQ33" s="12">
-        <f t="shared" si="168"/>
-        <v>10.712233065816346</v>
+        <f t="shared" si="167"/>
+        <v>10.117853370111799</v>
       </c>
       <c r="BR33" s="12">
-        <f t="shared" si="168"/>
-        <v>11.293229967338938</v>
+        <f t="shared" si="167"/>
+        <v>10.668335339286186</v>
       </c>
       <c r="BS33" s="12">
-        <f t="shared" si="168"/>
-        <v>11.904492570778126</v>
+        <f t="shared" si="167"/>
+        <v>11.247458028412042</v>
       </c>
       <c r="BT33" s="12">
-        <f t="shared" si="168"/>
-        <v>12.54756959536047</v>
+        <f t="shared" si="167"/>
+        <v>11.856680894357037</v>
       </c>
       <c r="BU33" s="12">
-        <f t="shared" si="168"/>
-        <v>13.224088532292599</v>
+        <f t="shared" si="167"/>
+        <v>12.497537139689769</v>
       </c>
       <c r="BV33" s="12">
-        <f t="shared" si="168"/>
-        <v>13.869897221839908</v>
+        <f t="shared" si="167"/>
+        <v>13.105775001360145</v>
       </c>
       <c r="BW33" s="12">
-        <f t="shared" si="168"/>
-        <v>14.531994547747843</v>
+        <f t="shared" si="167"/>
+        <v>13.732797789197292</v>
       </c>
       <c r="BX33" s="12">
-        <f t="shared" si="168"/>
-        <v>15.225463444488113</v>
+        <f t="shared" si="167"/>
+        <v>14.389563683881372</v>
       </c>
       <c r="BY33" s="12">
-        <f t="shared" si="168"/>
-        <v>15.951790974377547</v>
+        <f t="shared" si="167"/>
+        <v>15.077483335046654</v>
       </c>
       <c r="BZ33" s="12">
-        <f t="shared" si="168"/>
-        <v>16.712535004298537</v>
+        <f t="shared" si="167"/>
+        <v>15.798034576679541</v>
       </c>
       <c r="CA33" s="12">
-        <f t="shared" si="168"/>
-        <v>17.509327598167886</v>
+        <f t="shared" si="167"/>
+        <v>16.552765646593507</v>
       </c>
       <c r="CB33" s="12">
-        <f t="shared" si="168"/>
-        <v>18.343878573046482</v>
+        <f t="shared" si="167"/>
+        <v>17.343298561215963</v>
       </c>
     </row>
     <row r="34" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7539,63 +7543,63 @@
         <v>15150.865</v>
       </c>
       <c r="BN34" s="2">
-        <f t="shared" ref="BL34:CB34" si="169">+BM34</f>
+        <f t="shared" ref="BN34:CB34" si="168">+BM34</f>
         <v>15150.865</v>
       </c>
       <c r="BO34" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>15150.865</v>
       </c>
       <c r="BP34" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>15150.865</v>
       </c>
       <c r="BQ34" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>15150.865</v>
       </c>
       <c r="BR34" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>15150.865</v>
       </c>
       <c r="BS34" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>15150.865</v>
       </c>
       <c r="BT34" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>15150.865</v>
       </c>
       <c r="BU34" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>15150.865</v>
       </c>
       <c r="BV34" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>15150.865</v>
       </c>
       <c r="BW34" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>15150.865</v>
       </c>
       <c r="BX34" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>15150.865</v>
       </c>
       <c r="BY34" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>15150.865</v>
       </c>
       <c r="BZ34" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>15150.865</v>
       </c>
       <c r="CA34" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>15150.865</v>
       </c>
       <c r="CB34" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>15150.865</v>
       </c>
     </row>
@@ -7611,15 +7615,15 @@
         <v>0.21368126422635836</v>
       </c>
       <c r="P36" s="9">
-        <f t="shared" ref="P36" si="170">P20/L20-1</f>
+        <f t="shared" ref="P36" si="169">P20/L20-1</f>
         <v>0.53626121105070901</v>
       </c>
       <c r="Q36" s="9">
-        <f t="shared" ref="Q36" si="171">Q20/M20-1</f>
+        <f t="shared" ref="Q36" si="170">Q20/M20-1</f>
         <v>0.36439641450950822</v>
       </c>
       <c r="R36" s="9">
-        <f t="shared" ref="R36" si="172">R20/N20-1</f>
+        <f t="shared" ref="R36" si="171">R20/N20-1</f>
         <v>0.28844786546724777</v>
       </c>
       <c r="S36" s="9">
@@ -7639,129 +7643,129 @@
         <v>8.1405950095969182E-2</v>
       </c>
       <c r="W36" s="9">
-        <f t="shared" ref="W36:Z36" si="173">W20/S20-1</f>
+        <f t="shared" ref="W36:Z36" si="172">W20/S20-1</f>
         <v>-5.4790431239662762E-2</v>
       </c>
       <c r="X36" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>-2.5103312156911084E-2</v>
       </c>
       <c r="Y36" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>-1.4006919080509661E-2</v>
       </c>
       <c r="Z36" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>-7.1883389168682088E-3</v>
       </c>
       <c r="AA36" s="9">
-        <f t="shared" ref="AA36" si="174">AA20/W20-1</f>
+        <f t="shared" ref="AA36" si="173">AA20/W20-1</f>
         <v>2.0665107465387411E-2</v>
       </c>
       <c r="AB36" s="9">
-        <f t="shared" ref="AB36" si="175">AB20/X20-1</f>
+        <f t="shared" ref="AB36" si="174">AB20/X20-1</f>
         <v>-4.3053270909781061E-2</v>
       </c>
       <c r="AC36" s="9">
-        <f t="shared" ref="AC36" si="176">AC20/Y20-1</f>
+        <f t="shared" ref="AC36" si="175">AC20/Y20-1</f>
         <v>4.8657041211780383E-2</v>
       </c>
       <c r="AD36" s="9">
-        <f t="shared" ref="AD36:AH36" si="177">AD20/Z20-1</f>
+        <f t="shared" ref="AD36:AH36" si="176">AD20/Z20-1</f>
         <v>6.0694093722764686E-2</v>
       </c>
       <c r="AE36" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>3.9514948776918191E-2</v>
       </c>
       <c r="AF36" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>3.6298855134265562E-2</v>
       </c>
       <c r="AG36" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>2.1291138650221031E-2</v>
       </c>
       <c r="AH36" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>2.0522279574423319E-2</v>
       </c>
       <c r="AI36" s="9"/>
       <c r="AJ36" s="9"/>
       <c r="AN36" s="9">
-        <f t="shared" ref="AN36:AT36" si="178">+AN20/AM20-1</f>
+        <f t="shared" ref="AN36:AT36" si="177">+AN20/AM20-1</f>
         <v>0.30143462667101395</v>
       </c>
       <c r="AO36" s="9">
+        <f t="shared" si="177"/>
+        <v>-0.32819741951647252</v>
+      </c>
+      <c r="AP36" s="9">
+        <f t="shared" si="177"/>
+        <v>7.0669401454409808E-2</v>
+      </c>
+      <c r="AQ36" s="9">
+        <f t="shared" si="177"/>
+        <v>8.0982236154649945E-2</v>
+      </c>
+      <c r="AR36" s="9">
+        <f t="shared" si="177"/>
+        <v>0.33381665861124543</v>
+      </c>
+      <c r="AS36" s="9">
+        <f t="shared" si="177"/>
+        <v>0.68269114627370464</v>
+      </c>
+      <c r="AT36" s="9">
+        <f t="shared" si="177"/>
+        <v>0.38647620414902017</v>
+      </c>
+      <c r="AU36" s="9">
+        <f t="shared" ref="AU36:AV36" si="178">+AU20/AT20-1</f>
+        <v>0.24286823712140815</v>
+      </c>
+      <c r="AV36" s="9">
         <f t="shared" si="178"/>
-        <v>-0.32819741951647252</v>
-      </c>
-      <c r="AP36" s="9">
-        <f t="shared" si="178"/>
-        <v>7.0669401454409808E-2</v>
-      </c>
-      <c r="AQ36" s="9">
-        <f t="shared" si="178"/>
-        <v>8.0982236154649945E-2</v>
-      </c>
-      <c r="AR36" s="9">
-        <f t="shared" si="178"/>
-        <v>0.33381665861124543</v>
-      </c>
-      <c r="AS36" s="9">
-        <f t="shared" si="178"/>
-        <v>0.68269114627370464</v>
-      </c>
-      <c r="AT36" s="9">
-        <f t="shared" si="178"/>
-        <v>0.38647620414902017</v>
-      </c>
-      <c r="AU36" s="9">
-        <f t="shared" ref="AU36:AV36" si="179">+AU20/AT20-1</f>
-        <v>0.24286823712140815</v>
-      </c>
-      <c r="AV36" s="9">
+        <v>0.56173456635841035</v>
+      </c>
+      <c r="AW36" s="9">
+        <f t="shared" ref="AW36:BB36" si="179">+AW20/AV20-1</f>
+        <v>0.14440799125123371</v>
+      </c>
+      <c r="AX36" s="9">
         <f t="shared" si="179"/>
-        <v>0.56173456635841035</v>
-      </c>
-      <c r="AW36" s="9">
-        <f t="shared" ref="AW36:BB36" si="180">+AW20/AV20-1</f>
-        <v>0.14440799125123371</v>
-      </c>
-      <c r="AX36" s="9">
+        <v>0.52021908868430256</v>
+      </c>
+      <c r="AY36" s="9">
+        <f t="shared" si="179"/>
+        <v>0.65962437715599842</v>
+      </c>
+      <c r="AZ36" s="9">
+        <f t="shared" si="179"/>
+        <v>0.44581474193756976</v>
+      </c>
+      <c r="BA36" s="9">
+        <f t="shared" si="179"/>
+        <v>9.2020855163953197E-2</v>
+      </c>
+      <c r="BB36" s="9">
+        <f t="shared" si="179"/>
+        <v>6.9539523725937524E-2</v>
+      </c>
+      <c r="BC36" s="9">
+        <f t="shared" ref="BC36:BF36" si="180">+BC20/BB20-1</f>
+        <v>0.27856341803659834</v>
+      </c>
+      <c r="BD36" s="9">
         <f t="shared" si="180"/>
-        <v>0.52021908868430256</v>
-      </c>
-      <c r="AY36" s="9">
+        <v>-7.7342061913013738E-2</v>
+      </c>
+      <c r="BE36" s="9">
         <f t="shared" si="180"/>
-        <v>0.65962437715599842</v>
-      </c>
-      <c r="AZ36" s="9">
+        <v>6.304518199398057E-2</v>
+      </c>
+      <c r="BF36" s="9">
         <f t="shared" si="180"/>
-        <v>0.44581474193756976</v>
-      </c>
-      <c r="BA36" s="9">
-        <f t="shared" si="180"/>
-        <v>9.2020855163953197E-2</v>
-      </c>
-      <c r="BB36" s="9">
-        <f t="shared" si="180"/>
-        <v>6.9539523725937524E-2</v>
-      </c>
-      <c r="BC36" s="9">
-        <f t="shared" ref="BC36:BF36" si="181">+BC20/BB20-1</f>
-        <v>0.27856341803659834</v>
-      </c>
-      <c r="BD36" s="9">
-        <f t="shared" si="181"/>
-        <v>-7.7342061913013738E-2</v>
-      </c>
-      <c r="BE36" s="9">
-        <f t="shared" si="181"/>
-        <v>6.304518199398057E-2</v>
-      </c>
-      <c r="BF36" s="9">
-        <f t="shared" si="181"/>
         <v>0.15861957650261305</v>
       </c>
       <c r="BG36" s="9">
@@ -7773,84 +7777,84 @@
         <v>5.5120803769784787E-2</v>
       </c>
       <c r="BI36" s="9">
-        <f t="shared" ref="BI36:CB36" si="182">+BI20/BH20-1</f>
+        <f t="shared" ref="BI36:CB36" si="181">+BI20/BH20-1</f>
         <v>0.33259384733074704</v>
       </c>
       <c r="BJ36" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>7.7937876041846099E-2</v>
       </c>
       <c r="BK36" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>-2.800460530319937E-2</v>
       </c>
       <c r="BL36" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>2.021994077514111E-2</v>
       </c>
       <c r="BM36" s="9">
-        <f t="shared" si="182"/>
-        <v>0.18183817868205532</v>
+        <f t="shared" si="181"/>
+        <v>0.11765159195963926</v>
       </c>
       <c r="BN36" s="9">
-        <f t="shared" si="182"/>
-        <v>6.5532833889594855E-2</v>
+        <f t="shared" si="181"/>
+        <v>6.6070808352805876E-2</v>
       </c>
       <c r="BO36" s="9">
-        <f t="shared" si="182"/>
-        <v>6.5941156702147508E-2</v>
+        <f t="shared" si="181"/>
+        <v>6.6485316846670361E-2</v>
       </c>
       <c r="BP36" s="9">
-        <f t="shared" si="182"/>
-        <v>6.63550282420311E-2</v>
+        <f t="shared" si="181"/>
+        <v>6.6905452919508779E-2</v>
       </c>
       <c r="BQ36" s="9">
-        <f t="shared" si="182"/>
-        <v>5.3624914879700558E-2</v>
+        <f t="shared" si="181"/>
+        <v>5.3447771782809683E-2</v>
       </c>
       <c r="BR36" s="9">
-        <f t="shared" si="182"/>
-        <v>4.7772715357199402E-2</v>
+        <f t="shared" si="181"/>
+        <v>4.7573033802885023E-2</v>
       </c>
       <c r="BS36" s="9">
-        <f t="shared" si="182"/>
-        <v>4.7798090944179528E-2</v>
+        <f t="shared" si="181"/>
+        <v>4.7593868549967722E-2</v>
       </c>
       <c r="BT36" s="9">
-        <f t="shared" si="182"/>
-        <v>4.7823569753398854E-2</v>
+        <f t="shared" si="181"/>
+        <v>4.7614782229041364E-2</v>
       </c>
       <c r="BU36" s="9">
-        <f t="shared" si="182"/>
-        <v>4.7849152384963789E-2</v>
+        <f t="shared" si="181"/>
+        <v>4.7635775550880277E-2</v>
       </c>
       <c r="BV36" s="9">
-        <f t="shared" si="182"/>
-        <v>4.3000794555535959E-2</v>
+        <f t="shared" si="181"/>
+        <v>4.2505849062257406E-2</v>
       </c>
       <c r="BW36" s="9">
-        <f t="shared" si="182"/>
-        <v>4.1985443126984823E-2</v>
+        <f t="shared" si="181"/>
+        <v>4.1760944585279347E-2</v>
       </c>
       <c r="BX36" s="9">
-        <f t="shared" si="182"/>
-        <v>4.2023743521381052E-2</v>
+        <f t="shared" si="181"/>
+        <v>4.1799225996251632E-2</v>
       </c>
       <c r="BY36" s="9">
-        <f t="shared" si="182"/>
-        <v>4.2062137496592378E-2</v>
+        <f t="shared" si="181"/>
+        <v>4.183761544036968E-2</v>
       </c>
       <c r="BZ36" s="9">
-        <f t="shared" si="182"/>
-        <v>4.2100622598074899E-2</v>
+        <f t="shared" si="181"/>
+        <v>4.1876110527089283E-2</v>
       </c>
       <c r="CA36" s="9">
-        <f t="shared" si="182"/>
-        <v>4.2139196345322594E-2</v>
+        <f t="shared" si="181"/>
+        <v>4.1914708836016112E-2</v>
       </c>
       <c r="CB36" s="9">
-        <f t="shared" si="182"/>
-        <v>4.2177856232462396E-2</v>
+        <f t="shared" si="181"/>
+        <v>4.1953407917453944E-2</v>
       </c>
       <c r="CD36" s="4" t="s">
         <v>93</v>
@@ -7867,88 +7871,88 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9">
-        <f t="shared" ref="O37:X37" si="183">+O10/K10-1</f>
+        <f t="shared" ref="O37:X37" si="182">+O10/K10-1</f>
         <v>0.1722751398395197</v>
       </c>
       <c r="P37" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.65520336993301576</v>
       </c>
       <c r="Q37" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.49784238019532134</v>
       </c>
       <c r="R37" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.46982302223566785</v>
       </c>
       <c r="S37" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>9.1940180191167231E-2</v>
       </c>
       <c r="T37" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>5.4904251324627618E-2</v>
       </c>
       <c r="U37" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>2.7672479150871787E-2</v>
       </c>
       <c r="V37" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>9.6686220026757308E-2</v>
       </c>
       <c r="W37" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>-8.1713854917071505E-2</v>
       </c>
       <c r="X37" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>1.510777140597197E-2</v>
       </c>
       <c r="AU37" s="9"/>
       <c r="AV37" s="9">
-        <f t="shared" ref="AV37" si="184">+AV10/AU10-1</f>
+        <f t="shared" ref="AV37" si="183">+AV10/AU10-1</f>
         <v>53.8130081300813</v>
       </c>
       <c r="AW37" s="9">
-        <f t="shared" ref="AW37:BD37" si="185">+AW10/AV10-1</f>
+        <f t="shared" ref="AW37:BD37" si="184">+AW10/AV10-1</f>
         <v>0.93310590329279153</v>
       </c>
       <c r="AX37" s="9">
+        <f t="shared" si="184"/>
+        <v>0.93194199340136574</v>
+      </c>
+      <c r="AY37" s="9">
+        <f t="shared" si="184"/>
+        <v>0.82683982683982693</v>
+      </c>
+      <c r="AZ37" s="9">
+        <f t="shared" si="184"/>
+        <v>0.71077003347971646</v>
+      </c>
+      <c r="BA37" s="9">
+        <f t="shared" si="184"/>
+        <v>0.15995272708788688</v>
+      </c>
+      <c r="BB37" s="9">
+        <f t="shared" si="184"/>
+        <v>0.11735448460215392</v>
+      </c>
+      <c r="BC37" s="9">
+        <f t="shared" si="184"/>
+        <v>0.52014393426870997</v>
+      </c>
+      <c r="BD37" s="9">
+        <f t="shared" si="184"/>
+        <v>-0.11829774059764842</v>
+      </c>
+      <c r="BE37" s="9">
+        <f t="shared" ref="BE37:BI37" si="185">+BE10/BD10-1</f>
+        <v>3.3789319678127372E-2</v>
+      </c>
+      <c r="BF37" s="9">
         <f t="shared" si="185"/>
-        <v>0.93194199340136574</v>
-      </c>
-      <c r="AY37" s="9">
-        <f t="shared" si="185"/>
-        <v>0.82683982683982693</v>
-      </c>
-      <c r="AZ37" s="9">
-        <f t="shared" si="185"/>
-        <v>0.71077003347971646</v>
-      </c>
-      <c r="BA37" s="9">
-        <f t="shared" si="185"/>
-        <v>0.15995272708788688</v>
-      </c>
-      <c r="BB37" s="9">
-        <f t="shared" si="185"/>
-        <v>0.11735448460215392</v>
-      </c>
-      <c r="BC37" s="9">
-        <f t="shared" si="185"/>
-        <v>0.52014393426870997</v>
-      </c>
-      <c r="BD37" s="9">
-        <f t="shared" si="185"/>
-        <v>-0.11829774059764842</v>
-      </c>
-      <c r="BE37" s="9">
-        <f t="shared" ref="BE37:BI37" si="186">+BE10/BD10-1</f>
-        <v>3.3789319678127372E-2</v>
-      </c>
-      <c r="BF37" s="9">
-        <f t="shared" si="186"/>
         <v>0.16677870633106662</v>
       </c>
       <c r="BG37" s="9">
@@ -7960,7 +7964,7 @@
         <v>-3.2307681502447672E-2</v>
       </c>
       <c r="BI37" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>0.39331983364905176</v>
       </c>
       <c r="BJ37" s="9">
@@ -7969,74 +7973,74 @@
       </c>
       <c r="BK37" s="9">
         <f>+BK10/BJ10-1</f>
-        <v>2.0100000000000007E-2</v>
+        <v>-2.3874757286278081E-2</v>
       </c>
       <c r="BL37" s="9">
-        <f t="shared" ref="BL37:CB37" si="187">+BL10/BK10-1</f>
-        <v>2.0100000000000007E-2</v>
+        <f t="shared" ref="BL37:CB37" si="186">+BL10/BK10-1</f>
+        <v>2.9912804175826757E-3</v>
       </c>
       <c r="BM37" s="9">
-        <f t="shared" si="187"/>
-        <v>6.6800000000000193E-2</v>
+        <f t="shared" si="186"/>
+        <v>0.13387662109590526</v>
       </c>
       <c r="BN37" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>5.6640000000000024E-2</v>
       </c>
       <c r="BO37" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>5.6640000000000024E-2</v>
       </c>
       <c r="BP37" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>5.6640000000000246E-2</v>
       </c>
       <c r="BQ37" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>5.6639999999999802E-2</v>
       </c>
       <c r="BR37" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>4.6479999999999855E-2</v>
       </c>
       <c r="BS37" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>4.6480000000000299E-2</v>
       </c>
       <c r="BT37" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>4.6479999999999855E-2</v>
       </c>
       <c r="BU37" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>4.6480000000000077E-2</v>
       </c>
       <c r="BV37" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>3.6320000000000352E-2</v>
       </c>
       <c r="BW37" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>3.6319999999999908E-2</v>
       </c>
       <c r="BX37" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>3.632000000000013E-2</v>
       </c>
       <c r="BY37" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>3.6319999999999908E-2</v>
       </c>
       <c r="BZ37" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>3.632000000000013E-2</v>
       </c>
       <c r="CA37" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>3.6319999999999908E-2</v>
       </c>
       <c r="CB37" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>3.632000000000013E-2</v>
       </c>
       <c r="CD37" s="4" t="s">
@@ -8058,35 +8062,35 @@
         <v>0.23955957530475813</v>
       </c>
       <c r="P38" s="9">
-        <f t="shared" ref="P38:W38" si="188">+P19/L19-1</f>
+        <f t="shared" ref="P38:W38" si="187">+P19/L19-1</f>
         <v>0.26618219958046141</v>
       </c>
       <c r="Q38" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.32912739434478566</v>
       </c>
       <c r="R38" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.25623754209911342</v>
       </c>
       <c r="S38" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.23824630416851722</v>
       </c>
       <c r="T38" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.17277084196201398</v>
       </c>
       <c r="U38" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.12112547180601618</v>
       </c>
       <c r="V38" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>4.984406631285232E-2</v>
       </c>
       <c r="W38" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>6.4050010248001721E-2</v>
       </c>
       <c r="X38" s="9">
@@ -8094,43 +8098,43 @@
         <v>5.4790373845921003E-2</v>
       </c>
       <c r="Y38" s="9">
-        <f t="shared" ref="Y38:Z38" si="189">+Y19/U19-1</f>
+        <f t="shared" ref="Y38:Z38" si="188">+Y19/U19-1</f>
         <v>8.2075086716996593E-2</v>
       </c>
       <c r="Z38" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.16291432145090678</v>
       </c>
       <c r="AA38" s="9">
-        <f t="shared" ref="AA38" si="190">+AA19/W19-1</f>
+        <f t="shared" ref="AA38" si="189">+AA19/W19-1</f>
         <v>0.11321390734855052</v>
       </c>
       <c r="AB38" s="9">
-        <f t="shared" ref="AB38" si="191">+AB19/X19-1</f>
+        <f t="shared" ref="AB38" si="190">+AB19/X19-1</f>
         <v>0.14157937532883724</v>
       </c>
       <c r="AC38" s="9">
-        <f t="shared" ref="AC38" si="192">+AC19/Y19-1</f>
+        <f t="shared" ref="AC38" si="191">+AC19/Y19-1</f>
         <v>0.1414227124876255</v>
       </c>
       <c r="AD38" s="9">
-        <f t="shared" ref="AD38:AE38" si="193">+AD19/Z19-1</f>
+        <f t="shared" ref="AD38:AE38" si="192">+AD19/Z19-1</f>
         <v>0.11911804248453883</v>
       </c>
       <c r="AE38" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="192"/>
         <v>0.13942120517368162</v>
       </c>
       <c r="AF38" s="9">
-        <f t="shared" ref="AF38" si="194">+AF19/AB19-1</f>
+        <f t="shared" ref="AF38" si="193">+AF19/AB19-1</f>
         <v>0.1100000000000001</v>
       </c>
       <c r="AG38" s="9">
-        <f t="shared" ref="AG38" si="195">+AG19/AC19-1</f>
+        <f t="shared" ref="AG38" si="194">+AG19/AC19-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AH38" s="9">
-        <f t="shared" ref="AH38" si="196">+AH19/AD19-1</f>
+        <f t="shared" ref="AH38" si="195">+AH19/AD19-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AI38" s="9"/>
@@ -8140,15 +8144,15 @@
         <v>0.16461205595250084</v>
       </c>
       <c r="BH38" s="9">
-        <f t="shared" ref="BH38:BJ38" si="197">+BH19/BG19-1</f>
+        <f t="shared" ref="BH38:BJ38" si="196">+BH19/BG19-1</f>
         <v>0.16152167807997242</v>
       </c>
       <c r="BI38" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>0.27259708376729663</v>
       </c>
       <c r="BJ38" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>0.14181951041286078</v>
       </c>
       <c r="BK38" s="9">
@@ -8156,71 +8160,71 @@
         <v>9.0504166186691215E-2</v>
       </c>
       <c r="BL38" s="9">
-        <f t="shared" ref="BL38:CB38" si="198">+BL19/BK19-1</f>
+        <f t="shared" ref="BL38:CB38" si="197">+BL19/BK19-1</f>
         <v>0.12874413145539898</v>
       </c>
       <c r="BM38" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="BN38" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BO38" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BP38" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BQ38" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BR38" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BS38" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BT38" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BU38" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV38" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW38" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BX38" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BY38" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BZ38" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CA38" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CB38" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CD38" s="4" t="s">
@@ -8228,7 +8232,7 @@
       </c>
       <c r="CE38" s="8">
         <f>NPV(CE36,BK32:GJ32)+Main!O5-Main!O6</f>
-        <v>2528526.0037264777</v>
+        <v>2400459.1071151011</v>
       </c>
     </row>
     <row r="39" spans="2:83" x14ac:dyDescent="0.2">
@@ -8238,39 +8242,39 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5">
-        <f t="shared" ref="E39" si="199">+E24/E20</f>
+        <f t="shared" ref="E39" si="198">+E24/E20</f>
         <v>0.38338496198254013</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" ref="K39" si="200">+K24/K20</f>
+        <f t="shared" ref="K39" si="199">+K24/K20</f>
         <v>0.38354806739345887</v>
       </c>
       <c r="L39" s="5">
-        <f t="shared" ref="L39:N39" si="201">+L24/L20</f>
+        <f t="shared" ref="L39:N39" si="200">+L24/L20</f>
         <v>0.38361943305952362</v>
       </c>
       <c r="M39" s="5">
+        <f t="shared" si="200"/>
+        <v>0.37999497361146017</v>
+      </c>
+      <c r="N39" s="5">
+        <f t="shared" si="200"/>
+        <v>0.38160375900336951</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" ref="O39:Q39" si="201">+O24/O20</f>
+        <v>0.39777815665969724</v>
+      </c>
+      <c r="P39" s="5">
         <f t="shared" si="201"/>
-        <v>0.37999497361146017</v>
-      </c>
-      <c r="N39" s="5">
+        <v>0.42506474370423292</v>
+      </c>
+      <c r="Q39" s="5">
         <f t="shared" si="201"/>
-        <v>0.38160375900336951</v>
-      </c>
-      <c r="O39" s="5">
-        <f t="shared" ref="O39:Q39" si="202">+O24/O20</f>
-        <v>0.39777815665969724</v>
-      </c>
-      <c r="P39" s="5">
-        <f t="shared" si="202"/>
-        <v>0.42506474370423292</v>
-      </c>
-      <c r="Q39" s="5">
-        <f t="shared" si="202"/>
         <v>0.43292727853230839</v>
       </c>
       <c r="R39" s="5">
-        <f t="shared" ref="R39" si="203">+R24/R20</f>
+        <f t="shared" ref="R39" si="202">+R24/R20</f>
         <v>0.42195297504798462</v>
       </c>
       <c r="S39" s="5">
@@ -8286,117 +8290,117 @@
         <v>0.43256307332537758</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" ref="V39:X39" si="204">+V24/V20</f>
+        <f t="shared" ref="V39:X39" si="203">+V24/V20</f>
         <v>0.4225922392563175</v>
       </c>
       <c r="W39" s="5">
+        <f t="shared" si="203"/>
+        <v>0.42962254809908323</v>
+      </c>
+      <c r="X39" s="5">
+        <f t="shared" si="203"/>
+        <v>0.44261672782487665</v>
+      </c>
+      <c r="Y39" s="5">
+        <f t="shared" ref="Y39:Z39" si="204">+Y24/Y20</f>
+        <v>0.44516302553883397</v>
+      </c>
+      <c r="Z39" s="5">
         <f t="shared" si="204"/>
-        <v>0.42962254809908323</v>
-      </c>
-      <c r="X39" s="5">
-        <f t="shared" si="204"/>
-        <v>0.44261672782487665</v>
-      </c>
-      <c r="Y39" s="5">
-        <f t="shared" ref="Y39:Z39" si="205">+Y24/Y20</f>
-        <v>0.44516302553883397</v>
-      </c>
-      <c r="Z39" s="5">
+        <v>0.45170841806520817</v>
+      </c>
+      <c r="AA39" s="5">
+        <f t="shared" ref="AA39:AD39" si="205">+AA24/AA20</f>
+        <v>0.45874973865774621</v>
+      </c>
+      <c r="AB39" s="5">
         <f t="shared" si="205"/>
-        <v>0.45170841806520817</v>
-      </c>
-      <c r="AA39" s="5">
-        <f t="shared" ref="AA39:AD39" si="206">+AA24/AA20</f>
-        <v>0.45874973865774621</v>
-      </c>
-      <c r="AB39" s="5">
-        <f t="shared" si="206"/>
         <v>0.46578074554009236</v>
       </c>
       <c r="AC39" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="205"/>
         <v>0.46257155181458898</v>
       </c>
       <c r="AD39" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="205"/>
         <v>0.4622247972190035</v>
       </c>
       <c r="AE39" s="5">
-        <f t="shared" ref="AE39:AG39" si="207">+AE24/AE20</f>
+        <f t="shared" ref="AE39" si="206">+AE24/AE20</f>
         <v>0.46882542236524538</v>
       </c>
       <c r="AF39" s="5">
-        <f t="shared" ref="AF39:AH39" si="208">+AF24/AF20</f>
+        <f t="shared" ref="AF39:AH39" si="207">+AF24/AF20</f>
         <v>0.47</v>
       </c>
       <c r="AG39" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.47</v>
       </c>
       <c r="AH39" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.46999999999999992</v>
       </c>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
       <c r="AN39" s="5">
-        <f t="shared" ref="AN39:AO39" si="209">+AN24/AN20</f>
+        <f t="shared" ref="AN39:AO39" si="208">+AN24/AN20</f>
         <v>0.27132656895903795</v>
       </c>
       <c r="AO39" s="5">
+        <f t="shared" si="208"/>
+        <v>0.23028155882901361</v>
+      </c>
+      <c r="AP39" s="5">
+        <f t="shared" ref="AP39:AS39" si="209">+AP24/AP20</f>
+        <v>0.27917102055033088</v>
+      </c>
+      <c r="AQ39" s="5">
         <f t="shared" si="209"/>
-        <v>0.23028155882901361</v>
-      </c>
-      <c r="AP39" s="5">
-        <f t="shared" ref="AP39:AS39" si="210">+AP24/AP20</f>
-        <v>0.27917102055033088</v>
-      </c>
-      <c r="AQ39" s="5">
+        <v>0.27517319155791847</v>
+      </c>
+      <c r="AR39" s="5">
+        <f t="shared" si="209"/>
+        <v>0.27285904094697427</v>
+      </c>
+      <c r="AS39" s="5">
+        <f t="shared" si="209"/>
+        <v>0.29021606489124974</v>
+      </c>
+      <c r="AT39" s="5">
+        <f t="shared" ref="AT39:AV39" si="210">+AT24/AT20</f>
+        <v>0.28982655966865128</v>
+      </c>
+      <c r="AU39" s="5">
         <f t="shared" si="210"/>
-        <v>0.27517319155791847</v>
-      </c>
-      <c r="AR39" s="5">
+        <v>0.33966508372906773</v>
+      </c>
+      <c r="AV39" s="5">
         <f t="shared" si="210"/>
-        <v>0.27285904094697427</v>
-      </c>
-      <c r="AS39" s="5">
-        <f t="shared" si="210"/>
-        <v>0.29021606489124974</v>
-      </c>
-      <c r="AT39" s="5">
-        <f t="shared" ref="AT39:AV39" si="211">+AT24/AT20</f>
-        <v>0.28982655966865128</v>
-      </c>
-      <c r="AU39" s="5">
+        <v>0.35200448107545812</v>
+      </c>
+      <c r="AW39" s="5">
+        <f t="shared" ref="AW39:AX39" si="211">+AW24/AW20</f>
+        <v>0.40139843841044165</v>
+      </c>
+      <c r="AX39" s="5">
         <f t="shared" si="211"/>
-        <v>0.33966508372906773</v>
-      </c>
-      <c r="AV39" s="5">
-        <f t="shared" si="211"/>
-        <v>0.35200448107545812</v>
-      </c>
-      <c r="AW39" s="5">
-        <f t="shared" ref="AW39:AX39" si="212">+AW24/AW20</f>
-        <v>0.40139843841044165</v>
-      </c>
-      <c r="AX39" s="5">
+        <v>0.39377539287083174</v>
+      </c>
+      <c r="AY39" s="5">
+        <f t="shared" ref="AY39:BB39" si="212">+AY24/AY20</f>
+        <v>0.40478895878945764</v>
+      </c>
+      <c r="AZ39" s="5">
         <f t="shared" si="212"/>
-        <v>0.39377539287083174</v>
-      </c>
-      <c r="AY39" s="5">
-        <f t="shared" ref="AY39:BB39" si="213">+AY24/AY20</f>
-        <v>0.40478895878945764</v>
-      </c>
-      <c r="AZ39" s="5">
-        <f t="shared" si="213"/>
         <v>0.43871239808827661</v>
       </c>
       <c r="BA39" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>0.37624480720847231</v>
       </c>
       <c r="BB39" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>0.38588035777783858</v>
       </c>
       <c r="BC39" s="5">
@@ -8412,23 +8416,23 @@
         <v>0.38469860491899105</v>
       </c>
       <c r="BF39" s="5">
-        <f t="shared" ref="BF39:BJ39" si="214">+BF24/BF20</f>
+        <f t="shared" ref="BF39:BJ39" si="213">+BF24/BF20</f>
         <v>0.38343718820007905</v>
       </c>
       <c r="BG39" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.37817768109034722</v>
       </c>
       <c r="BH39" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.38233247727810865</v>
       </c>
       <c r="BI39" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.41779359625167778</v>
       </c>
       <c r="BJ39" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.43309630561360085</v>
       </c>
       <c r="BK39" s="5">
@@ -8436,79 +8440,79 @@
         <v>0.44131129577207562</v>
       </c>
       <c r="BL39" s="5">
-        <f t="shared" ref="BL39:BU39" si="215">+BL24/BL20</f>
+        <f t="shared" ref="BL39:BU39" si="214">+BL24/BL20</f>
         <v>0.46206349815233932</v>
       </c>
       <c r="BM39" s="5">
+        <f t="shared" si="214"/>
+        <v>0.45362947589520725</v>
+      </c>
+      <c r="BN39" s="5">
+        <f t="shared" si="214"/>
+        <v>0.45660936466674518</v>
+      </c>
+      <c r="BO39" s="5">
+        <f t="shared" si="214"/>
+        <v>0.45964534856197958</v>
+      </c>
+      <c r="BP39" s="5">
+        <f t="shared" si="214"/>
+        <v>0.46273626694683956</v>
+      </c>
+      <c r="BQ39" s="5">
+        <f t="shared" si="214"/>
+        <v>0.46240002701949035</v>
+      </c>
+      <c r="BR39" s="5">
+        <f t="shared" si="214"/>
+        <v>0.46263726241610775</v>
+      </c>
+      <c r="BS39" s="5">
+        <f t="shared" si="214"/>
+        <v>0.46287300142953525</v>
+      </c>
+      <c r="BT39" s="5">
+        <f t="shared" si="214"/>
+        <v>0.46310722350746308</v>
+      </c>
+      <c r="BU39" s="5">
+        <f t="shared" si="214"/>
+        <v>0.46333990801899477</v>
+      </c>
+      <c r="BV39" s="5">
+        <f t="shared" ref="BV39:CB39" si="215">+BV24/BV20</f>
+        <v>0.46408277662667069</v>
+      </c>
+      <c r="BW39" s="5">
         <f t="shared" si="215"/>
-        <v>0.44854438338192931</v>
-      </c>
-      <c r="BN39" s="5">
+        <v>0.46490594413818304</v>
+      </c>
+      <c r="BX39" s="5">
         <f t="shared" si="215"/>
-        <v>0.45140855975745009</v>
-      </c>
-      <c r="BO39" s="5">
+        <v>0.46573173659229478</v>
+      </c>
+      <c r="BY39" s="5">
         <f t="shared" si="215"/>
-        <v>0.45432923675100334</v>
-      </c>
-      <c r="BP39" s="5">
+        <v>0.46656010281888677</v>
+      </c>
+      <c r="BZ39" s="5">
         <f t="shared" si="215"/>
-        <v>0.45730545426054175</v>
-      </c>
-      <c r="BQ39" s="5">
+        <v>0.4673909909530668</v>
+      </c>
+      <c r="CA39" s="5">
         <f t="shared" si="215"/>
-        <v>0.45697068238485461</v>
-      </c>
-      <c r="BR39" s="5">
+        <v>0.46822434844661281</v>
+      </c>
+      <c r="CB39" s="5">
         <f t="shared" si="215"/>
-        <v>0.45717681612790029</v>
-      </c>
-      <c r="BS39" s="5">
-        <f t="shared" si="215"/>
-        <v>0.45738102962408528</v>
-      </c>
-      <c r="BT39" s="5">
-        <f t="shared" si="215"/>
-        <v>0.457583299380595</v>
-      </c>
-      <c r="BU39" s="5">
-        <f t="shared" si="215"/>
-        <v>0.45778360188240302</v>
-      </c>
-      <c r="BV39" s="5">
-        <f t="shared" ref="BV39:CB39" si="216">+BV24/BV20</f>
-        <v>0.4584397926755906</v>
-      </c>
-      <c r="BW39" s="5">
-        <f t="shared" si="216"/>
-        <v>0.45919695422920942</v>
-      </c>
-      <c r="BX39" s="5">
-        <f t="shared" si="216"/>
-        <v>0.4599562654769131</v>
-      </c>
-      <c r="BY39" s="5">
-        <f t="shared" si="216"/>
-        <v>0.46071767793319518</v>
-      </c>
-      <c r="BZ39" s="5">
-        <f t="shared" si="216"/>
-        <v>0.46148114254667588</v>
-      </c>
-      <c r="CA39" s="5">
-        <f t="shared" si="216"/>
-        <v>0.46224660971172371</v>
-      </c>
-      <c r="CB39" s="5">
-        <f t="shared" si="216"/>
-        <v>0.46301402928039481</v>
+        <v>0.46906012207980208</v>
       </c>
       <c r="CD39" s="4" t="s">
         <v>96</v>
       </c>
       <c r="CE39" s="6">
         <f>CE38/Main!O3</f>
-        <v>166.88839045122288</v>
+        <v>158.43568788298469</v>
       </c>
     </row>
     <row r="40" spans="2:83" x14ac:dyDescent="0.2">
@@ -8525,157 +8529,157 @@
         <v>0.64396382225717652</v>
       </c>
       <c r="L40" s="5">
-        <f t="shared" ref="L40:U40" si="217">(L19-L22)/L19</f>
+        <f t="shared" ref="L40:U40" si="216">(L19-L22)/L19</f>
         <v>0.65373089601438417</v>
       </c>
       <c r="M40" s="5">
+        <f t="shared" si="216"/>
+        <v>0.67224080267558528</v>
+      </c>
+      <c r="N40" s="5">
+        <f t="shared" si="216"/>
+        <v>0.66925561894288266</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="216"/>
+        <v>0.6839667533785927</v>
+      </c>
+      <c r="P40" s="5">
+        <f t="shared" si="216"/>
+        <v>0.70072776758771671</v>
+      </c>
+      <c r="Q40" s="5">
+        <f t="shared" si="216"/>
+        <v>0.69804414960539862</v>
+      </c>
+      <c r="R40" s="5">
+        <f t="shared" si="216"/>
+        <v>0.704765552333534</v>
+      </c>
+      <c r="S40" s="5">
+        <f t="shared" si="216"/>
+        <v>0.72366263578602175</v>
+      </c>
+      <c r="T40" s="5">
+        <f t="shared" si="216"/>
+        <v>0.72609858231168967</v>
+      </c>
+      <c r="U40" s="5">
+        <f t="shared" si="216"/>
+        <v>0.71490512140379514</v>
+      </c>
+      <c r="V40" s="5">
+        <f t="shared" ref="V40:X40" si="217">(V19-V22)/V19</f>
+        <v>0.70481550969355844</v>
+      </c>
+      <c r="W40" s="5">
         <f t="shared" si="217"/>
-        <v>0.67224080267558528</v>
-      </c>
-      <c r="N40" s="5">
+        <v>0.70832129442357705</v>
+      </c>
+      <c r="X40" s="5">
         <f t="shared" si="217"/>
-        <v>0.66925561894288266</v>
-      </c>
-      <c r="O40" s="5">
-        <f t="shared" si="217"/>
-        <v>0.6839667533785927</v>
-      </c>
-      <c r="P40" s="5">
-        <f t="shared" si="217"/>
-        <v>0.70072776758771671</v>
-      </c>
-      <c r="Q40" s="5">
-        <f t="shared" si="217"/>
-        <v>0.69804414960539862</v>
-      </c>
-      <c r="R40" s="5">
-        <f t="shared" si="217"/>
-        <v>0.704765552333534</v>
-      </c>
-      <c r="S40" s="5">
-        <f t="shared" si="217"/>
-        <v>0.72366263578602175</v>
-      </c>
-      <c r="T40" s="5">
-        <f t="shared" si="217"/>
-        <v>0.72609858231168967</v>
-      </c>
-      <c r="U40" s="5">
-        <f t="shared" si="217"/>
-        <v>0.71490512140379514</v>
-      </c>
-      <c r="V40" s="5">
-        <f t="shared" ref="V40:X40" si="218">(V19-V22)/V19</f>
-        <v>0.70481550969355844</v>
-      </c>
-      <c r="W40" s="5">
+        <v>0.70990577318601422</v>
+      </c>
+      <c r="Y40" s="5">
+        <f t="shared" ref="Y40:Z40" si="218">(Y19-Y22)/Y19</f>
+        <v>0.70546363079243857</v>
+      </c>
+      <c r="Z40" s="5">
         <f t="shared" si="218"/>
-        <v>0.70832129442357705</v>
-      </c>
-      <c r="X40" s="5">
-        <f t="shared" si="218"/>
-        <v>0.70990577318601422</v>
-      </c>
-      <c r="Y40" s="5">
-        <f t="shared" ref="Y40:Z40" si="219">(Y19-Y22)/Y19</f>
-        <v>0.70546363079243857</v>
-      </c>
-      <c r="Z40" s="5">
+        <v>0.70937528009321504</v>
+      </c>
+      <c r="AA40" s="5">
+        <f t="shared" ref="AA40:AD40" si="219">(AA19-AA22)/AA19</f>
+        <v>0.728338452221309</v>
+      </c>
+      <c r="AB40" s="5">
         <f t="shared" si="219"/>
-        <v>0.70937528009321504</v>
-      </c>
-      <c r="AA40" s="5">
-        <f t="shared" ref="AA40:AD40" si="220">(AA19-AA22)/AA19</f>
-        <v>0.728338452221309</v>
-      </c>
-      <c r="AB40" s="5">
-        <f t="shared" si="220"/>
         <v>0.74617672937528801</v>
       </c>
       <c r="AC40" s="5">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>0.73997439392062114</v>
       </c>
       <c r="AD40" s="5">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>0.74030914624379307</v>
       </c>
       <c r="AE40" s="5">
-        <f t="shared" ref="AE40:AG40" si="221">(AE19-AE22)/AE19</f>
+        <f t="shared" ref="AE40" si="220">(AE19-AE22)/AE19</f>
         <v>0.75026575550493546</v>
       </c>
       <c r="AF40" s="5">
-        <f t="shared" ref="AF40:AH40" si="222">(AF19-AF22)/AF19</f>
+        <f t="shared" ref="AF40:AH40" si="221">(AF19-AF22)/AF19</f>
         <v>1</v>
       </c>
       <c r="AG40" s="5">
-        <f t="shared" si="222"/>
+        <f t="shared" si="221"/>
         <v>1</v>
       </c>
       <c r="AH40" s="5">
-        <f t="shared" si="222"/>
+        <f t="shared" si="221"/>
         <v>1</v>
       </c>
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
       <c r="AN40" s="5">
-        <f t="shared" ref="AN40:AO40" si="223">(AN19-AN22)/AN19</f>
+        <f t="shared" ref="AN40:AO40" si="222">(AN19-AN22)/AN19</f>
         <v>1</v>
       </c>
       <c r="AO40" s="5">
+        <f t="shared" si="222"/>
+        <v>1</v>
+      </c>
+      <c r="AP40" s="5">
+        <f t="shared" ref="AP40:AS40" si="223">(AP19-AP22)/AP19</f>
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="5">
         <f t="shared" si="223"/>
         <v>1</v>
       </c>
-      <c r="AP40" s="5">
-        <f t="shared" ref="AP40:AS40" si="224">(AP19-AP22)/AP19</f>
+      <c r="AR40" s="5">
+        <f t="shared" si="223"/>
         <v>1</v>
       </c>
-      <c r="AQ40" s="5">
+      <c r="AS40" s="5">
+        <f t="shared" si="223"/>
+        <v>1</v>
+      </c>
+      <c r="AT40" s="5">
+        <f t="shared" ref="AT40:AV40" si="224">(AT19-AT22)/AT19</f>
+        <v>1</v>
+      </c>
+      <c r="AU40" s="5">
         <f t="shared" si="224"/>
         <v>1</v>
       </c>
-      <c r="AR40" s="5">
+      <c r="AV40" s="5">
         <f t="shared" si="224"/>
         <v>1</v>
       </c>
-      <c r="AS40" s="5">
-        <f t="shared" si="224"/>
+      <c r="AW40" s="5">
+        <f t="shared" ref="AW40:AX40" si="225">(AW19-AW22)/AW19</f>
         <v>1</v>
       </c>
-      <c r="AT40" s="5">
-        <f t="shared" ref="AT40:AV40" si="225">(AT19-AT22)/AT19</f>
-        <v>1</v>
-      </c>
-      <c r="AU40" s="5">
+      <c r="AX40" s="5">
         <f t="shared" si="225"/>
         <v>1</v>
       </c>
-      <c r="AV40" s="5">
-        <f t="shared" si="225"/>
+      <c r="AY40" s="5">
+        <f t="shared" ref="AY40:BB40" si="226">(AY19-AY22)/AY19</f>
         <v>1</v>
       </c>
-      <c r="AW40" s="5">
-        <f t="shared" ref="AW40:AX40" si="226">(AW19-AW22)/AW19</f>
-        <v>1</v>
-      </c>
-      <c r="AX40" s="5">
+      <c r="AZ40" s="5">
         <f t="shared" si="226"/>
         <v>1</v>
       </c>
-      <c r="AY40" s="5">
-        <f t="shared" ref="AY40:BB40" si="227">(AY19-AY22)/AY19</f>
+      <c r="BA40" s="5">
+        <f t="shared" si="226"/>
         <v>1</v>
       </c>
-      <c r="AZ40" s="5">
-        <f t="shared" si="227"/>
-        <v>1</v>
-      </c>
-      <c r="BA40" s="5">
-        <f t="shared" si="227"/>
-        <v>1</v>
-      </c>
       <c r="BB40" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>1</v>
       </c>
       <c r="BC40" s="5">
@@ -8691,23 +8695,23 @@
         <v>1</v>
       </c>
       <c r="BF40" s="5">
-        <f t="shared" ref="BF40:BJ40" si="228">(BF19-BF22)/BF19</f>
+        <f t="shared" ref="BF40:BJ40" si="227">(BF19-BF22)/BF19</f>
         <v>0.60772869075173597</v>
       </c>
       <c r="BG40" s="5">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>0.63738091637683347</v>
       </c>
       <c r="BH40" s="5">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>0.66015101919357233</v>
       </c>
       <c r="BI40" s="5">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>0.69725977347460721</v>
       </c>
       <c r="BJ40" s="5">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>0.71745446633132381</v>
       </c>
       <c r="BK40" s="5">
@@ -8715,79 +8719,79 @@
         <v>0.70827464788732397</v>
       </c>
       <c r="BL40" s="5">
-        <f t="shared" ref="BL40:BU40" si="229">(BL19-BL22)/BL19</f>
+        <f t="shared" ref="BL40:BU40" si="228">(BL19-BL22)/BL19</f>
         <v>0.7388035645582256</v>
       </c>
       <c r="BM40" s="5">
+        <f t="shared" si="228"/>
+        <v>0.73</v>
+      </c>
+      <c r="BN40" s="5">
+        <f t="shared" si="228"/>
+        <v>0.73000000000000009</v>
+      </c>
+      <c r="BO40" s="5">
+        <f t="shared" si="228"/>
+        <v>0.73</v>
+      </c>
+      <c r="BP40" s="5">
+        <f t="shared" si="228"/>
+        <v>0.73</v>
+      </c>
+      <c r="BQ40" s="5">
+        <f t="shared" si="228"/>
+        <v>0.73</v>
+      </c>
+      <c r="BR40" s="5">
+        <f t="shared" si="228"/>
+        <v>0.73</v>
+      </c>
+      <c r="BS40" s="5">
+        <f t="shared" si="228"/>
+        <v>0.73</v>
+      </c>
+      <c r="BT40" s="5">
+        <f t="shared" si="228"/>
+        <v>0.73</v>
+      </c>
+      <c r="BU40" s="5">
+        <f t="shared" si="228"/>
+        <v>0.73</v>
+      </c>
+      <c r="BV40" s="5">
+        <f t="shared" ref="BV40:CB40" si="229">(BV19-BV22)/BV19</f>
+        <v>0.73</v>
+      </c>
+      <c r="BW40" s="5">
+        <f t="shared" si="229"/>
+        <v>0.73000000000000009</v>
+      </c>
+      <c r="BX40" s="5">
         <f t="shared" si="229"/>
         <v>0.73</v>
       </c>
-      <c r="BN40" s="5">
-        <f t="shared" si="229"/>
-        <v>0.73000000000000009</v>
-      </c>
-      <c r="BO40" s="5">
+      <c r="BY40" s="5">
         <f t="shared" si="229"/>
         <v>0.73</v>
       </c>
-      <c r="BP40" s="5">
+      <c r="BZ40" s="5">
         <f t="shared" si="229"/>
         <v>0.73</v>
       </c>
-      <c r="BQ40" s="5">
+      <c r="CA40" s="5">
         <f t="shared" si="229"/>
         <v>0.73</v>
       </c>
-      <c r="BR40" s="5">
+      <c r="CB40" s="5">
         <f t="shared" si="229"/>
         <v>0.73</v>
       </c>
-      <c r="BS40" s="5">
-        <f t="shared" si="229"/>
-        <v>0.73</v>
-      </c>
-      <c r="BT40" s="5">
-        <f t="shared" si="229"/>
-        <v>0.73</v>
-      </c>
-      <c r="BU40" s="5">
-        <f t="shared" si="229"/>
-        <v>0.73</v>
-      </c>
-      <c r="BV40" s="5">
-        <f t="shared" ref="BV40:CB40" si="230">(BV19-BV22)/BV19</f>
-        <v>0.73</v>
-      </c>
-      <c r="BW40" s="5">
-        <f t="shared" si="230"/>
-        <v>0.73000000000000009</v>
-      </c>
-      <c r="BX40" s="5">
-        <f t="shared" si="230"/>
-        <v>0.73</v>
-      </c>
-      <c r="BY40" s="5">
-        <f t="shared" si="230"/>
-        <v>0.73</v>
-      </c>
-      <c r="BZ40" s="5">
-        <f t="shared" si="230"/>
-        <v>0.73</v>
-      </c>
-      <c r="CA40" s="5">
-        <f t="shared" si="230"/>
-        <v>0.73</v>
-      </c>
-      <c r="CB40" s="5">
-        <f t="shared" si="230"/>
-        <v>0.73</v>
-      </c>
       <c r="CD40" s="4" t="s">
         <v>97</v>
       </c>
       <c r="CE40" s="5">
         <f>CE39/Main!O2-1</f>
-        <v>-0.29878827541502995</v>
+        <v>-0.21952863111830201</v>
       </c>
     </row>
     <row r="41" spans="2:83" x14ac:dyDescent="0.2">
@@ -8804,157 +8808,157 @@
         <v>0.3416894215210356</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" ref="L41:V41" si="231">(L18-L21)/L18</f>
+        <f t="shared" ref="L41:V41" si="230">(L18-L21)/L18</f>
         <v>0.30343600578227509</v>
       </c>
       <c r="M41" s="5">
+        <f t="shared" si="230"/>
+        <v>0.29736293494379851</v>
+      </c>
+      <c r="N41" s="5">
+        <f t="shared" si="230"/>
+        <v>0.2981515085046561</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" si="230"/>
+        <v>0.35063441961579467</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" si="230"/>
+        <v>0.3609647372838215</v>
+      </c>
+      <c r="Q41" s="5">
+        <f t="shared" si="230"/>
+        <v>0.36043347720022517</v>
+      </c>
+      <c r="R41" s="5">
+        <f t="shared" si="230"/>
+        <v>0.34253184395310604</v>
+      </c>
+      <c r="S41" s="5">
+        <f t="shared" si="230"/>
+        <v>0.38418446983117716</v>
+      </c>
+      <c r="T41" s="5">
+        <f t="shared" si="230"/>
+        <v>0.36364692668190091</v>
+      </c>
+      <c r="U41" s="5">
+        <f t="shared" si="230"/>
+        <v>0.34519769552521506</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" si="230"/>
+        <v>0.34627526142224979</v>
+      </c>
+      <c r="W41" s="5">
+        <f t="shared" ref="W41:X41" si="231">(W18-W21)/W18</f>
+        <v>0.36957920073038136</v>
+      </c>
+      <c r="X41" s="5">
         <f t="shared" si="231"/>
-        <v>0.29736293494379851</v>
-      </c>
-      <c r="N41" s="5">
-        <f t="shared" si="231"/>
-        <v>0.2981515085046561</v>
-      </c>
-      <c r="O41" s="5">
-        <f t="shared" si="231"/>
-        <v>0.35063441961579467</v>
-      </c>
-      <c r="P41" s="5">
-        <f t="shared" si="231"/>
-        <v>0.3609647372838215</v>
-      </c>
-      <c r="Q41" s="5">
-        <f t="shared" si="231"/>
-        <v>0.36043347720022517</v>
-      </c>
-      <c r="R41" s="5">
-        <f t="shared" si="231"/>
-        <v>0.34253184395310604</v>
-      </c>
-      <c r="S41" s="5">
-        <f t="shared" si="231"/>
-        <v>0.38418446983117716</v>
-      </c>
-      <c r="T41" s="5">
-        <f t="shared" si="231"/>
-        <v>0.36364692668190091</v>
-      </c>
-      <c r="U41" s="5">
-        <f t="shared" si="231"/>
-        <v>0.34519769552521506</v>
-      </c>
-      <c r="V41" s="5">
-        <f t="shared" si="231"/>
-        <v>0.34627526142224979</v>
-      </c>
-      <c r="W41" s="5">
-        <f t="shared" ref="W41:X41" si="232">(W18-W21)/W18</f>
-        <v>0.36957920073038136</v>
-      </c>
-      <c r="X41" s="5">
+        <v>0.36702782399329087</v>
+      </c>
+      <c r="Y41" s="5">
+        <f t="shared" ref="Y41:Z41" si="232">(Y18-Y21)/Y18</f>
+        <v>0.35402086359434837</v>
+      </c>
+      <c r="Z41" s="5">
         <f t="shared" si="232"/>
-        <v>0.36702782399329087</v>
-      </c>
-      <c r="Y41" s="5">
-        <f t="shared" ref="Y41:Z41" si="233">(Y18-Y21)/Y18</f>
-        <v>0.35402086359434837</v>
-      </c>
-      <c r="Z41" s="5">
+        <v>0.36612884020004766</v>
+      </c>
+      <c r="AA41" s="5">
+        <f t="shared" ref="AA41:AD41" si="233">(AA18-AA21)/AA18</f>
+        <v>0.39414045491301913</v>
+      </c>
+      <c r="AB41" s="5">
         <f t="shared" si="233"/>
-        <v>0.36612884020004766</v>
-      </c>
-      <c r="AA41" s="5">
-        <f t="shared" ref="AA41:AD41" si="234">(AA18-AA21)/AA18</f>
-        <v>0.39414045491301913</v>
-      </c>
-      <c r="AB41" s="5">
-        <f t="shared" si="234"/>
         <v>0.36572675896301171</v>
       </c>
       <c r="AC41" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="233"/>
         <v>0.35346956013254499</v>
       </c>
       <c r="AD41" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="233"/>
         <v>0.36296063352297092</v>
       </c>
       <c r="AE41" s="5">
-        <f t="shared" ref="AE41:AG41" si="235">(AE18-AE21)/AE18</f>
+        <f t="shared" ref="AE41" si="234">(AE18-AE21)/AE18</f>
         <v>0.39315026541445486</v>
       </c>
       <c r="AF41" s="5">
-        <f t="shared" ref="AF41:AH41" si="236">(AF18-AF21)/AF18</f>
+        <f t="shared" ref="AF41:AH41" si="235">(AF18-AF21)/AF18</f>
         <v>1</v>
       </c>
       <c r="AG41" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="235"/>
         <v>1</v>
       </c>
       <c r="AH41" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="235"/>
         <v>1</v>
       </c>
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
       <c r="AN41" s="5">
-        <f t="shared" ref="AN41:AO41" si="237">(AN18-AN21)/AN18</f>
+        <f t="shared" ref="AN41:AO41" si="236">(AN18-AN21)/AN18</f>
         <v>1</v>
       </c>
       <c r="AO41" s="5">
+        <f t="shared" si="236"/>
+        <v>1</v>
+      </c>
+      <c r="AP41" s="5">
+        <f t="shared" ref="AP41:AS41" si="237">(AP18-AP21)/AP18</f>
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="5">
         <f t="shared" si="237"/>
         <v>1</v>
       </c>
-      <c r="AP41" s="5">
-        <f t="shared" ref="AP41:AS41" si="238">(AP18-AP21)/AP18</f>
+      <c r="AR41" s="5">
+        <f t="shared" si="237"/>
         <v>1</v>
       </c>
-      <c r="AQ41" s="5">
+      <c r="AS41" s="5">
+        <f t="shared" si="237"/>
+        <v>1</v>
+      </c>
+      <c r="AT41" s="5">
+        <f t="shared" ref="AT41:AV41" si="238">(AT18-AT21)/AT18</f>
+        <v>1</v>
+      </c>
+      <c r="AU41" s="5">
         <f t="shared" si="238"/>
         <v>1</v>
       </c>
-      <c r="AR41" s="5">
+      <c r="AV41" s="5">
         <f t="shared" si="238"/>
         <v>1</v>
       </c>
-      <c r="AS41" s="5">
-        <f t="shared" si="238"/>
+      <c r="AW41" s="5">
+        <f t="shared" ref="AW41:AX41" si="239">(AW18-AW21)/AW18</f>
         <v>1</v>
       </c>
-      <c r="AT41" s="5">
-        <f t="shared" ref="AT41:AV41" si="239">(AT18-AT21)/AT18</f>
-        <v>1</v>
-      </c>
-      <c r="AU41" s="5">
+      <c r="AX41" s="5">
         <f t="shared" si="239"/>
         <v>1</v>
       </c>
-      <c r="AV41" s="5">
-        <f t="shared" si="239"/>
+      <c r="AY41" s="5">
+        <f t="shared" ref="AY41:BB41" si="240">(AY18-AY21)/AY18</f>
         <v>1</v>
       </c>
-      <c r="AW41" s="5">
-        <f t="shared" ref="AW41:AX41" si="240">(AW18-AW21)/AW18</f>
-        <v>1</v>
-      </c>
-      <c r="AX41" s="5">
+      <c r="AZ41" s="5">
         <f t="shared" si="240"/>
         <v>1</v>
       </c>
-      <c r="AY41" s="5">
-        <f t="shared" ref="AY41:BB41" si="241">(AY18-AY21)/AY18</f>
+      <c r="BA41" s="5">
+        <f t="shared" si="240"/>
         <v>1</v>
       </c>
-      <c r="AZ41" s="5">
-        <f t="shared" si="241"/>
-        <v>1</v>
-      </c>
-      <c r="BA41" s="5">
-        <f t="shared" si="241"/>
-        <v>1</v>
-      </c>
       <c r="BB41" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>1</v>
       </c>
       <c r="BC41" s="5">
@@ -8970,23 +8974,23 @@
         <v>1</v>
       </c>
       <c r="BF41" s="5">
-        <f t="shared" ref="BF41:BJ41" si="242">(BF18-BF21)/BF18</f>
+        <f t="shared" ref="BF41:BJ41" si="241">(BF18-BF21)/BF18</f>
         <v>0.34396294836770025</v>
       </c>
       <c r="BG41" s="5">
-        <f t="shared" si="242"/>
+        <f t="shared" si="241"/>
         <v>0.32207795851002652</v>
       </c>
       <c r="BH41" s="5">
-        <f t="shared" si="242"/>
+        <f t="shared" si="241"/>
         <v>0.31466339293399231</v>
       </c>
       <c r="BI41" s="5">
-        <f t="shared" si="242"/>
+        <f t="shared" si="241"/>
         <v>0.35349303276483562</v>
       </c>
       <c r="BJ41" s="5">
-        <f t="shared" si="242"/>
+        <f t="shared" si="241"/>
         <v>0.36283479707399452</v>
       </c>
       <c r="BK41" s="5">
@@ -8994,71 +8998,71 @@
         <v>0.36500662562691849</v>
       </c>
       <c r="BL41" s="5">
-        <f t="shared" ref="BL41:BU41" si="243">(BL18-BL21)/BL18</f>
+        <f t="shared" ref="BL41:BU41" si="242">(BL18-BL21)/BL18</f>
         <v>0.37180617636485724</v>
       </c>
       <c r="BM41" s="5">
+        <f t="shared" si="242"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="BN41" s="5">
+        <f t="shared" si="242"/>
+        <v>0.36</v>
+      </c>
+      <c r="BO41" s="5">
+        <f t="shared" si="242"/>
+        <v>0.36</v>
+      </c>
+      <c r="BP41" s="5">
+        <f t="shared" si="242"/>
+        <v>0.35999999999999993</v>
+      </c>
+      <c r="BQ41" s="5">
+        <f t="shared" si="242"/>
+        <v>0.36</v>
+      </c>
+      <c r="BR41" s="5">
+        <f t="shared" si="242"/>
+        <v>0.35999999999999993</v>
+      </c>
+      <c r="BS41" s="5">
+        <f t="shared" si="242"/>
+        <v>0.35999999999999993</v>
+      </c>
+      <c r="BT41" s="5">
+        <f t="shared" si="242"/>
+        <v>0.36</v>
+      </c>
+      <c r="BU41" s="5">
+        <f t="shared" si="242"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="BV41" s="5">
+        <f t="shared" ref="BV41:CB41" si="243">(BV18-BV21)/BV18</f>
+        <v>0.36</v>
+      </c>
+      <c r="BW41" s="5">
+        <f t="shared" si="243"/>
+        <v>0.35999999999999993</v>
+      </c>
+      <c r="BX41" s="5">
         <f t="shared" si="243"/>
         <v>0.36</v>
       </c>
-      <c r="BN41" s="5">
-        <f t="shared" si="243"/>
-        <v>0.35999999999999993</v>
-      </c>
-      <c r="BO41" s="5">
-        <f t="shared" si="243"/>
-        <v>0.35999999999999993</v>
-      </c>
-      <c r="BP41" s="5">
-        <f t="shared" si="243"/>
-        <v>0.35999999999999993</v>
-      </c>
-      <c r="BQ41" s="5">
-        <f t="shared" si="243"/>
-        <v>0.36000000000000004</v>
-      </c>
-      <c r="BR41" s="5">
-        <f t="shared" si="243"/>
-        <v>0.36000000000000004</v>
-      </c>
-      <c r="BS41" s="5">
-        <f t="shared" si="243"/>
-        <v>0.35999999999999993</v>
-      </c>
-      <c r="BT41" s="5">
-        <f t="shared" si="243"/>
-        <v>0.36000000000000004</v>
-      </c>
-      <c r="BU41" s="5">
+      <c r="BY41" s="5">
         <f t="shared" si="243"/>
         <v>0.36</v>
       </c>
-      <c r="BV41" s="5">
-        <f t="shared" ref="BV41:CB41" si="244">(BV18-BV21)/BV18</f>
+      <c r="BZ41" s="5">
+        <f t="shared" si="243"/>
         <v>0.36</v>
       </c>
-      <c r="BW41" s="5">
-        <f t="shared" si="244"/>
+      <c r="CA41" s="5">
+        <f t="shared" si="243"/>
         <v>0.36</v>
       </c>
-      <c r="BX41" s="5">
-        <f t="shared" si="244"/>
-        <v>0.36</v>
-      </c>
-      <c r="BY41" s="5">
-        <f t="shared" si="244"/>
-        <v>0.36</v>
-      </c>
-      <c r="BZ41" s="5">
-        <f t="shared" si="244"/>
-        <v>0.35999999999999993</v>
-      </c>
-      <c r="CA41" s="5">
-        <f t="shared" si="244"/>
-        <v>0.35999999999999993</v>
-      </c>
       <c r="CB41" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="243"/>
         <v>0.36</v>
       </c>
     </row>
@@ -9069,39 +9073,39 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5">
-        <f t="shared" ref="E42" si="245">+E28/E20</f>
+        <f t="shared" ref="E42" si="244">+E28/E20</f>
         <v>0.23677837228949591</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" ref="K42" si="246">+K28/K20</f>
+        <f t="shared" ref="K42" si="245">+K28/K20</f>
         <v>0.2784717759940753</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" ref="L42:N42" si="247">+L28/L20</f>
+        <f t="shared" ref="L42:N42" si="246">+L28/L20</f>
         <v>0.22041397287054346</v>
       </c>
       <c r="M42" s="5">
+        <f t="shared" si="246"/>
+        <v>0.21933484124989527</v>
+      </c>
+      <c r="N42" s="5">
+        <f t="shared" si="246"/>
+        <v>0.2283687285542057</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" ref="O42:Q42" si="247">+O28/O20</f>
+        <v>0.30091799100853384</v>
+      </c>
+      <c r="P42" s="5">
         <f t="shared" si="247"/>
-        <v>0.21933484124989527</v>
-      </c>
-      <c r="N42" s="5">
+        <v>0.30700794784782998</v>
+      </c>
+      <c r="Q42" s="5">
         <f t="shared" si="247"/>
-        <v>0.2283687285542057</v>
-      </c>
-      <c r="O42" s="5">
-        <f t="shared" ref="O42:Q42" si="248">+O28/O20</f>
-        <v>0.30091799100853384</v>
-      </c>
-      <c r="P42" s="5">
-        <f t="shared" si="248"/>
-        <v>0.30700794784782998</v>
-      </c>
-      <c r="Q42" s="5">
-        <f t="shared" si="248"/>
         <v>0.29626445956234498</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" ref="R42" si="249">+R28/R20</f>
+        <f t="shared" ref="R42" si="248">+R28/R20</f>
         <v>0.28534069097888676</v>
       </c>
       <c r="S42" s="5">
@@ -9117,117 +9121,117 @@
         <v>0.27816150146457891</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" ref="V42:X42" si="250">+V28/V20</f>
+        <f t="shared" ref="V42:X42" si="249">+V28/V20</f>
         <v>0.27615202005635303</v>
       </c>
       <c r="W42" s="5">
+        <f t="shared" si="249"/>
+        <v>0.30742441572630896</v>
+      </c>
+      <c r="X42" s="5">
+        <f t="shared" si="249"/>
+        <v>0.29859968788223878</v>
+      </c>
+      <c r="Y42" s="5">
+        <f t="shared" ref="Y42:Z42" si="250">+Y28/Y20</f>
+        <v>0.28115945572576012</v>
+      </c>
+      <c r="Z42" s="5">
         <f t="shared" si="250"/>
-        <v>0.30742441572630896</v>
-      </c>
-      <c r="X42" s="5">
-        <f t="shared" si="250"/>
-        <v>0.29859968788223878</v>
-      </c>
-      <c r="Y42" s="5">
-        <f t="shared" ref="Y42:Z42" si="251">+Y28/Y20</f>
-        <v>0.28115945572576012</v>
-      </c>
-      <c r="Z42" s="5">
+        <v>0.30133634271156895</v>
+      </c>
+      <c r="AA42" s="5">
+        <f t="shared" ref="AA42:AD42" si="251">+AA28/AA20</f>
+        <v>0.33763746602550698</v>
+      </c>
+      <c r="AB42" s="5">
         <f t="shared" si="251"/>
-        <v>0.30133634271156895</v>
-      </c>
-      <c r="AA42" s="5">
-        <f t="shared" ref="AA42:AD42" si="252">+AA28/AA20</f>
-        <v>0.33763746602550698</v>
-      </c>
-      <c r="AB42" s="5">
-        <f t="shared" si="252"/>
         <v>0.30742785362467356</v>
       </c>
       <c r="AC42" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="251"/>
         <v>0.29555708406682446</v>
       </c>
       <c r="AD42" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="251"/>
         <v>0.31171389444854103</v>
       </c>
       <c r="AE42" s="5">
-        <f t="shared" ref="AE42:AG42" si="253">+AE28/AE20</f>
+        <f t="shared" ref="AE42" si="252">+AE28/AE20</f>
         <v>0.34458567980691873</v>
       </c>
       <c r="AF42" s="5">
-        <f t="shared" ref="AF42:AH42" si="254">+AF28/AF20</f>
+        <f t="shared" ref="AF42:AH42" si="253">+AF28/AF20</f>
         <v>0.31719379826497812</v>
       </c>
       <c r="AG42" s="5">
-        <f t="shared" si="254"/>
+        <f t="shared" si="253"/>
         <v>0.30646732902383006</v>
       </c>
       <c r="AH42" s="5">
-        <f t="shared" si="254"/>
+        <f t="shared" si="253"/>
         <v>0.32251580902944293</v>
       </c>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
       <c r="AN42" s="5">
-        <f t="shared" ref="AN42:AO42" si="255">+AN28/AN20</f>
+        <f t="shared" ref="AN42:AO42" si="254">+AN28/AN20</f>
         <v>7.7665038206188156E-2</v>
       </c>
       <c r="AO42" s="5">
+        <f t="shared" si="254"/>
+        <v>-6.2092112623531606E-2</v>
+      </c>
+      <c r="AP42" s="5">
+        <f t="shared" ref="AP42:AS42" si="255">+AP28/AP20</f>
+        <v>8.3594566353187051E-3</v>
+      </c>
+      <c r="AQ42" s="5">
         <f t="shared" si="255"/>
-        <v>-6.2092112623531606E-2</v>
-      </c>
-      <c r="AP42" s="5">
-        <f t="shared" ref="AP42:AS42" si="256">+AP28/AP20</f>
-        <v>8.3594566353187051E-3</v>
-      </c>
-      <c r="AQ42" s="5">
+        <v>4.0277106492669565E-3</v>
+      </c>
+      <c r="AR42" s="5">
+        <f t="shared" si="255"/>
+        <v>4.2154849619519263E-2</v>
+      </c>
+      <c r="AS42" s="5">
+        <f t="shared" si="255"/>
+        <v>0.11844088722991888</v>
+      </c>
+      <c r="AT42" s="5">
+        <f t="shared" ref="AT42:AV42" si="256">+AT28/AT20</f>
+        <v>0.1269997411338338</v>
+      </c>
+      <c r="AU42" s="5">
         <f t="shared" si="256"/>
-        <v>4.0277106492669565E-3</v>
-      </c>
-      <c r="AR42" s="5">
+        <v>0.1836624177289011</v>
+      </c>
+      <c r="AV42" s="5">
         <f t="shared" si="256"/>
-        <v>4.2154849619519263E-2</v>
-      </c>
-      <c r="AS42" s="5">
-        <f t="shared" si="256"/>
-        <v>0.11844088722991888</v>
-      </c>
-      <c r="AT42" s="5">
-        <f t="shared" ref="AT42:AV42" si="257">+AT28/AT20</f>
-        <v>0.1269997411338338</v>
-      </c>
-      <c r="AU42" s="5">
+        <v>0.22210663892667573</v>
+      </c>
+      <c r="AW42" s="5">
+        <f t="shared" ref="AW42:AX42" si="257">+AW28/AW20</f>
+        <v>0.2736277823097541</v>
+      </c>
+      <c r="AX42" s="5">
         <f t="shared" si="257"/>
-        <v>0.1836624177289011</v>
-      </c>
-      <c r="AV42" s="5">
-        <f t="shared" si="257"/>
-        <v>0.22210663892667573</v>
-      </c>
-      <c r="AW42" s="5">
-        <f t="shared" ref="AW42:AX42" si="258">+AW28/AW20</f>
-        <v>0.2736277823097541</v>
-      </c>
-      <c r="AX42" s="5">
+        <v>0.28187044844768111</v>
+      </c>
+      <c r="AY42" s="5">
+        <f t="shared" ref="AY42:BB42" si="258">+AY28/AY20</f>
+        <v>0.31215068961376086</v>
+      </c>
+      <c r="AZ42" s="5">
         <f t="shared" si="258"/>
-        <v>0.28187044844768111</v>
-      </c>
-      <c r="AY42" s="5">
-        <f t="shared" ref="AY42:BB42" si="259">+AY28/AY20</f>
-        <v>0.31215068961376086</v>
-      </c>
-      <c r="AZ42" s="5">
-        <f t="shared" si="259"/>
         <v>0.35295959311984054</v>
       </c>
       <c r="BA42" s="5">
-        <f t="shared" si="259"/>
+        <f t="shared" si="258"/>
         <v>0.28669475162366159</v>
       </c>
       <c r="BB42" s="5">
-        <f t="shared" si="259"/>
+        <f t="shared" si="258"/>
         <v>0.28722339232473537</v>
       </c>
       <c r="BC42" s="5">
@@ -9243,23 +9247,23 @@
         <v>0.26760428208729942</v>
       </c>
       <c r="BF42" s="5">
-        <f t="shared" ref="BF42:BJ42" si="260">+BF28/BF20</f>
+        <f t="shared" ref="BF42:BJ42" si="259">+BF28/BF20</f>
         <v>0.26694026619477024</v>
       </c>
       <c r="BG42" s="5">
-        <f t="shared" si="260"/>
+        <f t="shared" si="259"/>
         <v>0.24572017188496928</v>
       </c>
       <c r="BH42" s="5">
-        <f t="shared" si="260"/>
+        <f t="shared" si="259"/>
         <v>0.24147314354406862</v>
       </c>
       <c r="BI42" s="5">
-        <f t="shared" si="260"/>
+        <f t="shared" si="259"/>
         <v>0.29782377527561593</v>
       </c>
       <c r="BJ42" s="5">
-        <f t="shared" si="260"/>
+        <f t="shared" si="259"/>
         <v>0.30288744395528594</v>
       </c>
       <c r="BK42" s="5">
@@ -9267,72 +9271,72 @@
         <v>0.29821412265024722</v>
       </c>
       <c r="BL42" s="5">
-        <f t="shared" ref="BL42:BU42" si="261">+BL28/BL20</f>
+        <f t="shared" ref="BL42:BU42" si="260">+BL28/BL20</f>
         <v>0.31510222870075566</v>
       </c>
       <c r="BM42" s="5">
+        <f t="shared" si="260"/>
+        <v>0.318193613213058</v>
+      </c>
+      <c r="BN42" s="5">
+        <f t="shared" si="260"/>
+        <v>0.32575601283530864</v>
+      </c>
+      <c r="BO42" s="5">
+        <f t="shared" si="260"/>
+        <v>0.33326859469828157</v>
+      </c>
+      <c r="BP42" s="5">
+        <f t="shared" si="260"/>
+        <v>0.34073102634804647</v>
+      </c>
+      <c r="BQ42" s="5">
+        <f t="shared" si="260"/>
+        <v>0.3431103942699843</v>
+      </c>
+      <c r="BR42" s="5">
+        <f t="shared" si="260"/>
+        <v>0.34534871281880053</v>
+      </c>
+      <c r="BS42" s="5">
+        <f t="shared" si="260"/>
+        <v>0.34755426034865977</v>
+      </c>
+      <c r="BT42" s="5">
+        <f t="shared" si="260"/>
+        <v>0.34972747235449292</v>
+      </c>
+      <c r="BU42" s="5">
+        <f t="shared" si="260"/>
+        <v>0.35186877805863043</v>
+      </c>
+      <c r="BV42" s="5">
+        <f t="shared" ref="BV42:CB42" si="261">+BV28/BV20</f>
+        <v>0.35394884887705413</v>
+      </c>
+      <c r="BW42" s="5">
         <f t="shared" si="261"/>
-        <v>0.32046415187008748</v>
-      </c>
-      <c r="BN42" s="5">
+        <v>0.35601537171682562</v>
+      </c>
+      <c r="BX42" s="5">
         <f t="shared" si="261"/>
-        <v>0.32759948108680048</v>
-      </c>
-      <c r="BO42" s="5">
+        <v>0.35807443872211797</v>
+      </c>
+      <c r="BY42" s="5">
         <f t="shared" si="261"/>
-        <v>0.33469472388041854</v>
-      </c>
-      <c r="BP42" s="5">
+        <v>0.3601260336675135</v>
+      </c>
+      <c r="BZ42" s="5">
         <f t="shared" si="261"/>
-        <v>0.34174961685820315</v>
-      </c>
-      <c r="BQ42" s="5">
+        <v>0.36217013972301637</v>
+      </c>
+      <c r="CA42" s="5">
         <f t="shared" si="261"/>
-        <v>0.34400589686818112</v>
-      </c>
-      <c r="BR42" s="5">
+        <v>0.36420673947358395</v>
+      </c>
+      <c r="CB42" s="5">
         <f t="shared" si="261"/>
-        <v>0.34612818184226019</v>
-      </c>
-      <c r="BS42" s="5">
-        <f t="shared" si="261"/>
-        <v>0.34821868784968824</v>
-      </c>
-      <c r="BT42" s="5">
-        <f t="shared" si="261"/>
-        <v>0.35027781850265421</v>
-      </c>
-      <c r="BU42" s="5">
-        <f t="shared" si="261"/>
-        <v>0.35230597177436823</v>
-      </c>
-      <c r="BV42" s="5">
-        <f t="shared" ref="BV42:CB42" si="262">+BV28/BV20</f>
-        <v>0.35427691995450838</v>
-      </c>
-      <c r="BW42" s="5">
-        <f t="shared" si="262"/>
-        <v>0.35623221550815265</v>
-      </c>
-      <c r="BX42" s="5">
-        <f t="shared" si="262"/>
-        <v>0.3581796202305253</v>
-      </c>
-      <c r="BY42" s="5">
-        <f t="shared" si="262"/>
-        <v>0.36011912355560438</v>
-      </c>
-      <c r="BZ42" s="5">
-        <f t="shared" si="262"/>
-        <v>0.36205071446518139</v>
-      </c>
-      <c r="CA42" s="5">
-        <f t="shared" si="262"/>
-        <v>0.36397438150737965</v>
-      </c>
-      <c r="CB42" s="5">
-        <f t="shared" si="262"/>
-        <v>0.36589011281531808</v>
+        <v>0.3662358149388944</v>
       </c>
     </row>
     <row r="43" spans="2:83" x14ac:dyDescent="0.2">
@@ -9350,189 +9354,189 @@
         <v>0.14206343082027933</v>
       </c>
       <c r="L43" s="5">
-        <f t="shared" ref="L43:U43" si="263">L31/L30</f>
+        <f t="shared" ref="L43:U43" si="262">L31/L30</f>
         <v>0.14358583936048724</v>
       </c>
       <c r="M43" s="5">
+        <f t="shared" si="262"/>
+        <v>0.14341173783968944</v>
+      </c>
+      <c r="N43" s="5">
+        <f t="shared" si="262"/>
+        <v>0.14952016643178309</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="262"/>
+        <v>0.14366121683194855</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="262"/>
+        <v>0.1564028417407447</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" si="262"/>
+        <v>0.10771882309491568</v>
+      </c>
+      <c r="R43" s="5">
+        <f t="shared" si="262"/>
+        <v>0.11600997935306263</v>
+      </c>
+      <c r="S43" s="5">
+        <f t="shared" si="262"/>
+        <v>0.16030164157028201</v>
+      </c>
+      <c r="T43" s="5">
+        <f t="shared" si="262"/>
+        <v>0.17017817445834302</v>
+      </c>
+      <c r="U43" s="5">
+        <f t="shared" si="262"/>
+        <v>0.15711436746726784</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" ref="V43:X43" si="263">V31/V30</f>
+        <v>0.15963012531938192</v>
+      </c>
+      <c r="W43" s="5">
         <f t="shared" si="263"/>
-        <v>0.14341173783968944</v>
-      </c>
-      <c r="N43" s="5">
+        <v>0.15790360160570419</v>
+      </c>
+      <c r="X43" s="5">
         <f t="shared" si="263"/>
-        <v>0.14952016643178309</v>
-      </c>
-      <c r="O43" s="5">
-        <f t="shared" si="263"/>
-        <v>0.14366121683194855</v>
-      </c>
-      <c r="P43" s="5">
-        <f t="shared" si="263"/>
-        <v>0.1564028417407447</v>
-      </c>
-      <c r="Q43" s="5">
-        <f t="shared" si="263"/>
-        <v>0.10771882309491568</v>
-      </c>
-      <c r="R43" s="5">
-        <f t="shared" si="263"/>
-        <v>0.11600997935306263</v>
-      </c>
-      <c r="S43" s="5">
-        <f t="shared" si="263"/>
-        <v>0.16030164157028201</v>
-      </c>
-      <c r="T43" s="5">
-        <f t="shared" si="263"/>
-        <v>0.17017817445834302</v>
-      </c>
-      <c r="U43" s="5">
-        <f t="shared" si="263"/>
-        <v>0.15711436746726784</v>
-      </c>
-      <c r="V43" s="5">
-        <f t="shared" ref="V43:X43" si="264">V31/V30</f>
-        <v>0.15963012531938192</v>
-      </c>
-      <c r="W43" s="5">
+        <v>0.14875625396377987</v>
+      </c>
+      <c r="Y43" s="5">
+        <f t="shared" ref="Y43:Z43" si="264">Y31/Y30</f>
+        <v>0.12545638499098227</v>
+      </c>
+      <c r="Z43" s="5">
         <f t="shared" si="264"/>
-        <v>0.15790360160570419</v>
-      </c>
-      <c r="X43" s="5">
-        <f t="shared" si="264"/>
-        <v>0.14875625396377987</v>
-      </c>
-      <c r="Y43" s="5">
-        <f t="shared" ref="Y43:Z43" si="265">Y31/Y30</f>
-        <v>0.12545638499098227</v>
-      </c>
-      <c r="Z43" s="5">
+        <v>0.14971479368842136</v>
+      </c>
+      <c r="AA43" s="5">
+        <f t="shared" ref="AA43:AD43" si="265">AA31/AA30</f>
+        <v>0.15889194752374575</v>
+      </c>
+      <c r="AB43" s="5">
         <f t="shared" si="265"/>
-        <v>0.14971479368842136</v>
-      </c>
-      <c r="AA43" s="5">
-        <f t="shared" ref="AA43:AD43" si="266">AA31/AA30</f>
-        <v>0.15889194752374575</v>
-      </c>
-      <c r="AB43" s="5">
-        <f t="shared" si="266"/>
         <v>0.1576021099151757</v>
       </c>
       <c r="AC43" s="5">
-        <f t="shared" si="266"/>
+        <f t="shared" si="265"/>
         <v>0.15870400878638111</v>
       </c>
       <c r="AD43" s="5">
-        <f t="shared" si="266"/>
+        <f t="shared" si="265"/>
         <v>0.50233029381965555</v>
       </c>
       <c r="AE43" s="5">
-        <f t="shared" ref="AE43:AG43" si="267">AE31/AE30</f>
+        <f t="shared" ref="AE43" si="266">AE31/AE30</f>
         <v>0.14686267142588766</v>
       </c>
       <c r="AF43" s="5">
-        <f t="shared" ref="AF43:AH43" si="268">AF31/AF30</f>
+        <f t="shared" ref="AF43:AH43" si="267">AF31/AF30</f>
         <v>0.15</v>
       </c>
       <c r="AG43" s="5">
-        <f t="shared" si="268"/>
+        <f t="shared" si="267"/>
         <v>0.15</v>
       </c>
       <c r="AH43" s="5">
-        <f t="shared" si="268"/>
+        <f t="shared" si="267"/>
         <v>0.15</v>
       </c>
       <c r="AI43" s="5"/>
       <c r="AJ43" s="5"/>
       <c r="AN43" s="5">
-        <f t="shared" ref="AN43:AO43" si="269">AN31/AN30</f>
+        <f t="shared" ref="AN43:AO43" si="268">AN31/AN30</f>
         <v>0.37181044957472659</v>
       </c>
       <c r="AO43" s="5">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="AP43" s="5">
+        <f t="shared" ref="AP43:AS43" si="269">AP31/AP30</f>
+        <v>0.1864406779661017</v>
+      </c>
+      <c r="AQ43" s="5">
         <f t="shared" si="269"/>
-        <v>0</v>
-      </c>
-      <c r="AP43" s="5">
-        <f t="shared" ref="AP43:AS43" si="270">AP31/AP30</f>
-        <v>0.1864406779661017</v>
-      </c>
-      <c r="AQ43" s="5">
+        <v>0.20338983050847459</v>
+      </c>
+      <c r="AR43" s="5">
+        <f t="shared" si="269"/>
+        <v>0.26354679802955666</v>
+      </c>
+      <c r="AS43" s="5">
+        <f t="shared" si="269"/>
+        <v>0.26446280991735538</v>
+      </c>
+      <c r="AT43" s="5">
+        <f t="shared" ref="AT43:AV43" si="270">AT31/AT30</f>
+        <v>0.29418026969481903</v>
+      </c>
+      <c r="AU43" s="5">
         <f t="shared" si="270"/>
-        <v>0.20338983050847459</v>
-      </c>
-      <c r="AR43" s="5">
+        <v>0.30191693290734822</v>
+      </c>
+      <c r="AV43" s="5">
         <f t="shared" si="270"/>
-        <v>0.26354679802955666</v>
-      </c>
-      <c r="AS43" s="5">
-        <f t="shared" si="270"/>
-        <v>0.26446280991735538</v>
-      </c>
-      <c r="AT43" s="5">
-        <f t="shared" ref="AT43:AV43" si="271">AT31/AT30</f>
-        <v>0.29418026969481903</v>
-      </c>
-      <c r="AU43" s="5">
+        <v>0.3160836034424947</v>
+      </c>
+      <c r="AW43" s="5">
+        <f t="shared" ref="AW43:AX43" si="271">AW31/AW30</f>
+        <v>0.31750372948781702</v>
+      </c>
+      <c r="AX43" s="5">
         <f t="shared" si="271"/>
-        <v>0.30191693290734822</v>
-      </c>
-      <c r="AV43" s="5">
-        <f t="shared" si="271"/>
-        <v>0.3160836034424947</v>
-      </c>
-      <c r="AW43" s="5">
-        <f t="shared" ref="AW43:AX43" si="272">AW31/AW30</f>
-        <v>0.31750372948781702</v>
-      </c>
-      <c r="AX43" s="5">
+        <v>0.24417475728155341</v>
+      </c>
+      <c r="AY43" s="5">
+        <f t="shared" ref="AY43:BB43" si="272">AY31/AY30</f>
+        <v>0.24215757930127174</v>
+      </c>
+      <c r="AZ43" s="5">
         <f t="shared" si="272"/>
-        <v>0.24417475728155341</v>
-      </c>
-      <c r="AY43" s="5">
-        <f t="shared" ref="AY43:BB43" si="273">AY31/AY30</f>
-        <v>0.24215757930127174</v>
-      </c>
-      <c r="AZ43" s="5">
+        <v>0.25160052364471064</v>
+      </c>
+      <c r="BA43" s="5">
+        <f t="shared" si="272"/>
+        <v>0.26154919748778788</v>
+      </c>
+      <c r="BB43" s="5">
+        <f t="shared" si="272"/>
+        <v>0.26126058747639436</v>
+      </c>
+      <c r="BC43" s="5">
+        <f t="shared" ref="BC43:BD43" si="273">BC31/BC30</f>
+        <v>0.26368337585327173</v>
+      </c>
+      <c r="BD43" s="5">
         <f t="shared" si="273"/>
-        <v>0.25160052364471064</v>
-      </c>
-      <c r="BA43" s="5">
-        <f t="shared" si="273"/>
-        <v>0.26154919748778788</v>
-      </c>
-      <c r="BB43" s="5">
-        <f t="shared" si="273"/>
-        <v>0.26126058747639436</v>
-      </c>
-      <c r="BC43" s="5">
-        <f t="shared" ref="BC43:BD43" si="274">BC31/BC30</f>
-        <v>0.26368337585327173</v>
-      </c>
-      <c r="BD43" s="5">
-        <f t="shared" si="274"/>
         <v>0.25557257381216192</v>
       </c>
       <c r="BE43" s="5">
-        <f t="shared" ref="BE43" si="275">BE31/BE30</f>
+        <f t="shared" ref="BE43" si="274">BE31/BE30</f>
         <v>0.24556476150353415</v>
       </c>
       <c r="BF43" s="5">
-        <f t="shared" ref="BF43:BJ43" si="276">BF31/BF30</f>
+        <f t="shared" ref="BF43:BJ43" si="275">BF31/BF30</f>
         <v>0.18342180705869443</v>
       </c>
       <c r="BG43" s="5">
-        <f t="shared" si="276"/>
+        <f t="shared" si="275"/>
         <v>0.15943836804235059</v>
       </c>
       <c r="BH43" s="5">
-        <f t="shared" si="276"/>
+        <f t="shared" si="275"/>
         <v>0.14428164731484103</v>
       </c>
       <c r="BI43" s="5">
-        <f t="shared" si="276"/>
+        <f t="shared" si="275"/>
         <v>0.13302260844085087</v>
       </c>
       <c r="BJ43" s="5">
-        <f t="shared" si="276"/>
+        <f t="shared" si="275"/>
         <v>0.16204461684424407</v>
       </c>
       <c r="BK43" s="5">
@@ -9540,622 +9544,978 @@
         <v>0.14719174228036858</v>
       </c>
       <c r="BL43" s="5">
-        <f t="shared" ref="BL43:BU43" si="277">BL31/BL30</f>
+        <f t="shared" ref="BL43:BU43" si="276">BL31/BL30</f>
         <v>0.24091185164189982</v>
       </c>
       <c r="BM43" s="5">
+        <f t="shared" si="276"/>
+        <v>0.2</v>
+      </c>
+      <c r="BN43" s="5">
+        <f t="shared" si="276"/>
+        <v>0.2</v>
+      </c>
+      <c r="BO43" s="5">
+        <f t="shared" si="276"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="BP43" s="5">
+        <f t="shared" si="276"/>
+        <v>0.2</v>
+      </c>
+      <c r="BQ43" s="5">
+        <f t="shared" si="276"/>
+        <v>0.2</v>
+      </c>
+      <c r="BR43" s="5">
+        <f t="shared" si="276"/>
+        <v>0.2</v>
+      </c>
+      <c r="BS43" s="5">
+        <f t="shared" si="276"/>
+        <v>0.2</v>
+      </c>
+      <c r="BT43" s="5">
+        <f t="shared" si="276"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="BU43" s="5">
+        <f t="shared" si="276"/>
+        <v>0.2</v>
+      </c>
+      <c r="BV43" s="5">
+        <f t="shared" ref="BV43:CB43" si="277">BV31/BV30</f>
+        <v>0.2</v>
+      </c>
+      <c r="BW43" s="5">
         <f t="shared" si="277"/>
         <v>0.2</v>
       </c>
-      <c r="BN43" s="5">
+      <c r="BX43" s="5">
         <f t="shared" si="277"/>
         <v>0.2</v>
       </c>
-      <c r="BO43" s="5">
+      <c r="BY43" s="5">
         <f t="shared" si="277"/>
         <v>0.2</v>
       </c>
-      <c r="BP43" s="5">
+      <c r="BZ43" s="5">
         <f t="shared" si="277"/>
         <v>0.2</v>
       </c>
-      <c r="BQ43" s="5">
+      <c r="CA43" s="5">
         <f t="shared" si="277"/>
         <v>0.2</v>
       </c>
-      <c r="BR43" s="5">
+      <c r="CB43" s="5">
         <f t="shared" si="277"/>
-        <v>0.2</v>
-      </c>
-      <c r="BS43" s="5">
-        <f t="shared" si="277"/>
-        <v>0.2</v>
-      </c>
-      <c r="BT43" s="5">
-        <f t="shared" si="277"/>
-        <v>0.2</v>
-      </c>
-      <c r="BU43" s="5">
-        <f t="shared" si="277"/>
-        <v>0.2</v>
-      </c>
-      <c r="BV43" s="5">
-        <f t="shared" ref="BV43:CB43" si="278">BV31/BV30</f>
-        <v>0.2</v>
-      </c>
-      <c r="BW43" s="5">
+        <v>0.20000000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5">
+        <f t="shared" ref="V44:AD44" si="278">+V33/R33-1</f>
+        <v>4.058942615831751E-2</v>
+      </c>
+      <c r="W44" s="5">
         <f t="shared" si="278"/>
-        <v>0.2</v>
-      </c>
-      <c r="BX43" s="5">
+        <v>-0.10316022532525748</v>
+      </c>
+      <c r="X44" s="5">
         <f t="shared" si="278"/>
-        <v>0.2</v>
-      </c>
-      <c r="BY43" s="5">
+        <v>-7.7222454700431875E-5</v>
+      </c>
+      <c r="Y44" s="5">
         <f t="shared" si="278"/>
-        <v>0.2</v>
-      </c>
-      <c r="BZ43" s="5">
+        <v>5.4161853731795384E-2</v>
+      </c>
+      <c r="Z44" s="5">
         <f t="shared" si="278"/>
-        <v>0.2</v>
-      </c>
-      <c r="CA43" s="5">
+        <v>0.13939334487945021</v>
+      </c>
+      <c r="AA44" s="5">
         <f t="shared" si="278"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="CB43" s="5">
+        <v>0.15812348125504605</v>
+      </c>
+      <c r="AB44" s="5">
         <f t="shared" si="278"/>
-        <v>0.20000000000000004</v>
-      </c>
+        <v>2.4984903043883122E-3</v>
+      </c>
+      <c r="AC44" s="5">
+        <f t="shared" si="278"/>
+        <v>0.10882038400780858</v>
+      </c>
+      <c r="AD44" s="5">
+        <f t="shared" si="278"/>
+        <v>-0.33998676732349176</v>
+      </c>
+      <c r="AE44" s="5">
+        <f>+AE33/AA33-1</f>
+        <v>0.10127848174065157</v>
+      </c>
+      <c r="AF44" s="5">
+        <f t="shared" ref="AF44:AH44" si="279">+AF33/AB33-1</f>
+        <v>9.5014737678668748E-2</v>
+      </c>
+      <c r="AG44" s="5">
+        <f t="shared" si="279"/>
+        <v>7.7844323040550778E-2</v>
+      </c>
+      <c r="AH44" s="5">
+        <f t="shared" si="279"/>
+        <v>0.81319755503152202</v>
+      </c>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="5"/>
+      <c r="BG44" s="5"/>
+      <c r="BH44" s="5"/>
+      <c r="BI44" s="5"/>
+      <c r="BJ44" s="5"/>
+      <c r="BK44" s="5"/>
+      <c r="BL44" s="5"/>
+      <c r="BM44" s="5"/>
+      <c r="BN44" s="5"/>
+      <c r="BO44" s="5"/>
+      <c r="BP44" s="5"/>
+      <c r="BQ44" s="5"/>
+      <c r="BR44" s="5"/>
+      <c r="BS44" s="5"/>
+      <c r="BT44" s="5"/>
+      <c r="BU44" s="5"/>
+      <c r="BV44" s="5"/>
+      <c r="BW44" s="5"/>
+      <c r="BX44" s="5"/>
+      <c r="BY44" s="5"/>
+      <c r="BZ44" s="5"/>
+      <c r="CA44" s="5"/>
+      <c r="CB44" s="5"/>
     </row>
-    <row r="45" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
+    <row r="46" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AP45" s="2">
+      <c r="AP46" s="2">
         <v>10211</v>
       </c>
-      <c r="AQ45" s="2">
+      <c r="AQ46" s="2">
         <v>10912</v>
       </c>
-      <c r="AR45" s="2">
+      <c r="AR46" s="2">
         <v>11695</v>
       </c>
-      <c r="AS45" s="2">
+      <c r="AS46" s="2">
         <v>14800</v>
       </c>
-      <c r="AT45" s="2">
+      <c r="AT46" s="2">
         <v>17787</v>
       </c>
     </row>
-    <row r="46" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:83" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="47" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>128</v>
       </c>
-      <c r="W47" s="2">
-        <f>W48-W60</f>
+      <c r="W48" s="2">
+        <f>W49-W61</f>
         <v>54340</v>
       </c>
-      <c r="X47" s="2">
-        <f>X48-X60</f>
+      <c r="X48" s="2">
+        <f>X49-X61</f>
         <v>56718</v>
       </c>
-      <c r="AE47" s="2">
-        <f>AE48-AE60</f>
+      <c r="AD48" s="2">
+        <f>AD49-AD61</f>
+        <v>50021</v>
+      </c>
+      <c r="AE48" s="2">
+        <f>AE49-AE61</f>
         <v>44569</v>
-      </c>
-    </row>
-    <row r="48" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W48" s="2">
-        <f>20535+30820+114095</f>
-        <v>165450</v>
-      </c>
-      <c r="X48" s="2">
-        <f>24687+31185+110461</f>
-        <v>166333</v>
-      </c>
-      <c r="AE48" s="2">
-        <f>30299+23476+87593</f>
-        <v>141368</v>
       </c>
     </row>
     <row r="49" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="W49" s="2">
-        <v>23752</v>
+        <f>20535+30820+114095</f>
+        <v>165450</v>
       </c>
       <c r="X49" s="2">
-        <v>17936</v>
+        <f>24687+31185+110461</f>
+        <v>166333</v>
+      </c>
+      <c r="AD49" s="2">
+        <f>29943+35228+91479</f>
+        <v>156650</v>
       </c>
       <c r="AE49" s="2">
-        <v>29639</v>
+        <f>30299+23476+87593</f>
+        <v>141368</v>
       </c>
     </row>
     <row r="50" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W50" s="2">
-        <v>6820</v>
+        <v>23752</v>
       </c>
       <c r="X50" s="2">
-        <v>7482</v>
+        <v>17936</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>33410</v>
       </c>
       <c r="AE50" s="2">
-        <v>29667</v>
+        <v>29639</v>
       </c>
     </row>
     <row r="51" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W51" s="2">
-        <v>30428</v>
+        <v>6820</v>
       </c>
       <c r="X51" s="2">
-        <v>17963</v>
+        <v>7482</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>32833</v>
       </c>
       <c r="AE51" s="2">
-        <v>6911</v>
+        <v>29667</v>
       </c>
     </row>
     <row r="52" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W52" s="2">
-        <v>16422</v>
+        <v>30428</v>
       </c>
       <c r="X52" s="2">
-        <v>13660</v>
+        <v>17963</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>7286</v>
       </c>
       <c r="AE52" s="2">
-        <v>13248</v>
+        <v>6911</v>
       </c>
     </row>
     <row r="53" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W53" s="2">
-        <v>42951</v>
+        <v>16422</v>
       </c>
       <c r="X53" s="2">
-        <v>43398</v>
+        <v>13660</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>14287</v>
       </c>
       <c r="AE53" s="2">
-        <v>46069</v>
+        <v>13248</v>
       </c>
     </row>
     <row r="54" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W54" s="2">
-        <v>60924</v>
+        <v>42951</v>
       </c>
       <c r="X54" s="2">
-        <v>65388</v>
+        <v>43398</v>
+      </c>
+      <c r="AD54" s="2">
+        <v>45680</v>
       </c>
       <c r="AE54" s="2">
-        <v>77183</v>
+        <v>46069</v>
       </c>
     </row>
     <row r="55" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="W55" s="2">
+        <v>60924</v>
+      </c>
+      <c r="X55" s="2">
+        <v>65388</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>74834</v>
+      </c>
+      <c r="AE55" s="2">
+        <v>77183</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="W55" s="2">
-        <f>SUM(W48:W54)</f>
+      <c r="W56" s="2">
+        <f>SUM(W49:W55)</f>
         <v>346747</v>
       </c>
-      <c r="X55" s="2">
-        <f>SUM(X48:X54)</f>
+      <c r="X56" s="2">
+        <f>SUM(X49:X55)</f>
         <v>332160</v>
       </c>
-      <c r="AE55" s="2">
-        <f>SUM(AE48:AE54)</f>
+      <c r="AD56" s="2">
+        <f>SUM(AD49:AD55)</f>
+        <v>364980</v>
+      </c>
+      <c r="AE56" s="2">
+        <f>SUM(AE49:AE55)</f>
         <v>344085</v>
-      </c>
-    </row>
-    <row r="57" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="W57" s="2">
-        <v>57918</v>
-      </c>
-      <c r="X57" s="2">
-        <v>42945</v>
-      </c>
-      <c r="AE57" s="2">
-        <v>61910</v>
       </c>
     </row>
     <row r="58" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W58" s="2">
-        <v>59893</v>
+        <v>57918</v>
       </c>
       <c r="X58" s="2">
-        <v>56425</v>
+        <v>42945</v>
+      </c>
+      <c r="AD58" s="2">
+        <v>68960</v>
       </c>
       <c r="AE58" s="2">
-        <v>61151</v>
+        <v>61910</v>
       </c>
     </row>
     <row r="59" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W59" s="2">
-        <v>7992</v>
+        <v>59893</v>
       </c>
       <c r="X59" s="2">
-        <v>8131</v>
+        <v>56425</v>
+      </c>
+      <c r="AD59" s="2">
+        <v>78304</v>
       </c>
       <c r="AE59" s="2">
-        <v>8461</v>
+        <v>61151</v>
       </c>
     </row>
     <row r="60" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="W60" s="2">
-        <f>1743+9740+99627</f>
-        <v>111110</v>
+        <v>7992</v>
       </c>
       <c r="X60" s="2">
-        <f>1996+10578+97041</f>
-        <v>109615</v>
+        <v>8131</v>
+      </c>
+      <c r="AD60" s="2">
+        <v>8249</v>
       </c>
       <c r="AE60" s="2">
-        <f>1995+83956+10848</f>
-        <v>96799</v>
+        <v>8461</v>
       </c>
     </row>
     <row r="61" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="W61" s="2">
-        <v>53107</v>
+        <f>1743+9740+99627</f>
+        <v>111110</v>
       </c>
       <c r="X61" s="2">
-        <v>52886</v>
+        <f>1996+10578+97041</f>
+        <v>109615</v>
+      </c>
+      <c r="AD61">
+        <f>9967+10912+85750</f>
+        <v>106629</v>
       </c>
       <c r="AE61" s="2">
-        <v>49006</v>
+        <f>1995+83956+10848</f>
+        <v>96799</v>
       </c>
     </row>
     <row r="62" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W62" s="2">
-        <v>56727</v>
+        <v>53107</v>
       </c>
       <c r="X62" s="2">
-        <v>62158</v>
+        <v>52886</v>
+      </c>
+      <c r="AD62" s="2">
+        <v>45888</v>
       </c>
       <c r="AE62" s="2">
-        <v>66758</v>
+        <v>49006</v>
       </c>
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="W63" s="2">
+        <v>56727</v>
+      </c>
+      <c r="X63" s="2">
+        <v>62158</v>
+      </c>
+      <c r="AD63" s="2">
+        <v>56950</v>
+      </c>
+      <c r="AE63" s="2">
+        <v>66758</v>
+      </c>
+    </row>
+    <row r="64" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="W63" s="2">
-        <f>SUM(W57:W62)</f>
+      <c r="W64" s="2">
+        <f>SUM(W58:W63)</f>
         <v>346747</v>
       </c>
-      <c r="X63" s="2">
-        <f>SUM(X57:X62)</f>
+      <c r="X64" s="2">
+        <f>SUM(X58:X63)</f>
         <v>332160</v>
       </c>
-      <c r="AE63" s="2">
-        <f>SUM(AE57:AE62)</f>
+      <c r="AD64" s="2">
+        <f>SUM(AD58:AD63)</f>
+        <v>364980</v>
+      </c>
+      <c r="AE64" s="2">
+        <f>SUM(AE58:AE63)</f>
         <v>344085</v>
       </c>
     </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B65" s="2" t="s">
+    <row r="66" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="W65" s="2">
+      <c r="W66" s="2">
         <f>W32</f>
         <v>29998</v>
       </c>
-      <c r="X65" s="2">
+      <c r="X66" s="2">
         <f>X32</f>
         <v>24160</v>
       </c>
-      <c r="AE65" s="2">
+      <c r="AA66" s="2">
+        <f>AA32</f>
+        <v>33916</v>
+      </c>
+      <c r="AB66" s="2">
+        <f>AB32</f>
+        <v>23636</v>
+      </c>
+      <c r="AC66" s="2">
+        <f>AC32</f>
+        <v>21448</v>
+      </c>
+      <c r="AD66" s="2">
+        <f>AD32</f>
+        <v>14736</v>
+      </c>
+      <c r="AE66" s="2">
         <f>AE32</f>
         <v>36330</v>
       </c>
+      <c r="BD66" s="2">
+        <f t="shared" ref="BD66:BL67" si="280">BD32</f>
+        <v>45687</v>
+      </c>
+      <c r="BE66" s="2">
+        <f t="shared" si="280"/>
+        <v>48351</v>
+      </c>
+      <c r="BF66" s="2">
+        <f t="shared" si="280"/>
+        <v>59531</v>
+      </c>
+      <c r="BG66" s="2">
+        <f t="shared" si="280"/>
+        <v>55256</v>
+      </c>
+      <c r="BH66" s="2">
+        <f t="shared" si="280"/>
+        <v>57411</v>
+      </c>
+      <c r="BI66" s="2">
+        <f t="shared" si="280"/>
+        <v>94680</v>
+      </c>
+      <c r="BJ66" s="2">
+        <f t="shared" si="280"/>
+        <v>99803</v>
+      </c>
+      <c r="BK66" s="2">
+        <f t="shared" si="280"/>
+        <v>96995</v>
+      </c>
+      <c r="BL66" s="2">
+        <f t="shared" si="280"/>
+        <v>93736</v>
+      </c>
     </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
+    <row r="67" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="W66" s="2">
+      <c r="W67" s="2">
         <v>29998</v>
       </c>
-      <c r="X66" s="2">
-        <f>54158-W66</f>
+      <c r="X67" s="2">
+        <f>54158-W67</f>
         <v>24160</v>
       </c>
-      <c r="AE66" s="2">
+      <c r="AE67" s="2">
         <v>36330</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
+    <row r="68" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="W67" s="2">
+      <c r="W68" s="2">
         <v>2916</v>
       </c>
-      <c r="X67" s="2">
-        <f>5814-W67</f>
+      <c r="X68" s="2">
+        <f>5814-W68</f>
         <v>2898</v>
       </c>
-      <c r="AE67" s="2">
+      <c r="AE68" s="2">
         <v>3080</v>
       </c>
     </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B68" s="2" t="s">
+    <row r="69" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="W68" s="2">
+      <c r="W69" s="2">
         <v>2905</v>
       </c>
-      <c r="X68" s="2">
-        <f>5591-W68</f>
+      <c r="X69" s="2">
+        <f>5591-W69</f>
         <v>2686</v>
       </c>
-      <c r="AE68" s="2">
+      <c r="AE69" s="2">
         <v>3286</v>
       </c>
     </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
+    <row r="70" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="W69" s="2">
+      <c r="W70" s="2">
         <v>-317</v>
       </c>
-      <c r="X69" s="2">
-        <f>-1732-W69</f>
+      <c r="X70" s="2">
+        <f>-1732-W70</f>
         <v>-1415</v>
       </c>
-      <c r="AE69" s="2">
+      <c r="AE70" s="2">
         <v>-2009</v>
       </c>
     </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B70" s="2" t="s">
+    <row r="71" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="W70" s="2">
+      <c r="W71" s="2">
         <f>4275-1807+2320-4099-6075+131+3758</f>
         <v>-1497</v>
       </c>
-      <c r="X70" s="2">
-        <f>9596-2548+14785-4092-20764+1757-W70</f>
+      <c r="X71" s="2">
+        <f>9596-2548+14785-4092-20764+1757-W71</f>
         <v>231</v>
       </c>
-      <c r="AE70" s="2">
+      <c r="AE71" s="2">
         <f>3597+3166+215+939-6671-11998</f>
         <v>-10752</v>
       </c>
     </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
+    <row r="72" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="W71" s="2">
-        <f>SUM(W66:W70)</f>
+      <c r="W72" s="2">
+        <f>SUM(W67:W71)</f>
         <v>34005</v>
       </c>
-      <c r="X71" s="2">
-        <f>SUM(X66:X70)</f>
+      <c r="X72" s="2">
+        <f>SUM(X67:X71)</f>
         <v>28560</v>
       </c>
-      <c r="AE71" s="2">
-        <f>SUM(AE66:AE70)</f>
+      <c r="Y72" s="2">
+        <v>26380</v>
+      </c>
+      <c r="Z72" s="2">
+        <v>21598</v>
+      </c>
+      <c r="AA72" s="2">
+        <v>39895</v>
+      </c>
+      <c r="AB72" s="2">
+        <v>22690</v>
+      </c>
+      <c r="AC72" s="2">
+        <v>28858</v>
+      </c>
+      <c r="AD72" s="2">
+        <v>26811</v>
+      </c>
+      <c r="AE72" s="2">
+        <f>SUM(AE67:AE71)</f>
         <v>29935</v>
       </c>
+      <c r="BD72" s="2">
+        <v>66231</v>
+      </c>
+      <c r="BE72" s="2">
+        <v>64225</v>
+      </c>
+      <c r="BF72" s="2">
+        <v>77434</v>
+      </c>
+      <c r="BG72" s="2">
+        <v>69391</v>
+      </c>
+      <c r="BH72" s="2">
+        <v>80674</v>
+      </c>
+      <c r="BI72" s="2">
+        <v>104038</v>
+      </c>
+      <c r="BJ72" s="2">
+        <v>122151</v>
+      </c>
+      <c r="BK72" s="2">
+        <v>110543</v>
+      </c>
+      <c r="BL72" s="2">
+        <v>118254</v>
+      </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B73" s="2" t="s">
+    <row r="74" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="W73" s="2">
+      <c r="W74" s="2">
         <f>-5153+7127+509</f>
         <v>2483</v>
       </c>
-      <c r="X73" s="2">
-        <f>-11197+17124+1897-W73</f>
+      <c r="X74" s="2">
+        <f>-11197+17124+1897-W74</f>
         <v>5341</v>
       </c>
-      <c r="AE73" s="2">
+      <c r="AE74" s="2">
         <f>-6124+15967+3492</f>
         <v>13335</v>
       </c>
     </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B74" s="2" t="s">
+    <row r="75" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="W74" s="2">
+      <c r="W75" s="2">
         <v>-3787</v>
       </c>
-      <c r="X74" s="2">
-        <f>-6703-W74</f>
+      <c r="X75" s="2">
+        <f>-6703-W75</f>
         <v>-2916</v>
       </c>
-      <c r="AE74" s="2">
+      <c r="Y75" s="2">
+        <v>-2093</v>
+      </c>
+      <c r="Z75" s="2">
+        <v>-2163</v>
+      </c>
+      <c r="AA75" s="2">
+        <v>-2392</v>
+      </c>
+      <c r="AB75" s="2">
+        <v>-1996</v>
+      </c>
+      <c r="AC75" s="2">
+        <v>-2151</v>
+      </c>
+      <c r="AD75" s="2">
+        <v>-2908</v>
+      </c>
+      <c r="AE75" s="2">
         <v>-2940</v>
       </c>
+      <c r="BD75" s="2">
+        <v>-12734</v>
+      </c>
+      <c r="BE75" s="2">
+        <v>-12451</v>
+      </c>
+      <c r="BF75" s="2">
+        <v>-13313</v>
+      </c>
+      <c r="BG75" s="2">
+        <v>-10495</v>
+      </c>
+      <c r="BH75" s="2">
+        <v>-7309</v>
+      </c>
+      <c r="BI75" s="2">
+        <v>-11085</v>
+      </c>
+      <c r="BJ75" s="2">
+        <v>-10708</v>
+      </c>
+      <c r="BK75" s="2">
+        <v>-10959</v>
+      </c>
+      <c r="BL75" s="2">
+        <v>-9447</v>
+      </c>
     </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B75" s="2" t="s">
+    <row r="76" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="W75" s="2">
+      <c r="W76" s="2">
         <v>-141</v>
       </c>
-      <c r="X75" s="2">
-        <f>-247-W75</f>
+      <c r="X76" s="2">
+        <f>-247-W76</f>
         <v>-106</v>
       </c>
-      <c r="AE75" s="2">
+      <c r="AE76" s="2">
         <v>-603</v>
       </c>
     </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B76" s="2" t="s">
+    <row r="77" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="W76" s="2">
-        <f>SUM(W73:W75)</f>
+      <c r="W77" s="2">
+        <f>SUM(W74:W76)</f>
         <v>-1445</v>
       </c>
-      <c r="X76" s="2">
-        <f>SUM(X73:X75)</f>
+      <c r="X77" s="2">
+        <f>SUM(X74:X76)</f>
         <v>2319</v>
       </c>
-      <c r="AE76" s="2">
-        <f>SUM(AE73:AE75)</f>
+      <c r="AE77" s="2">
+        <f>SUM(AE74:AE76)</f>
         <v>9792</v>
       </c>
     </row>
-    <row r="78" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B78" s="2" t="s">
+    <row r="79" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="W78" s="2">
+      <c r="W79" s="2">
         <v>-2316</v>
       </c>
-      <c r="X78" s="2">
-        <f>-2734-W78</f>
+      <c r="X79" s="2">
+        <f>-2734-W79</f>
         <v>-418</v>
       </c>
-      <c r="AE78" s="2">
+      <c r="AE79" s="2">
         <v>-2921</v>
       </c>
     </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B79" s="2" t="s">
+    <row r="80" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="W79" s="2">
+      <c r="W80" s="2">
         <v>-3768</v>
       </c>
-      <c r="X79" s="2">
-        <f>-7418-W79</f>
+      <c r="X80" s="2">
+        <f>-7418-W80</f>
         <v>-3650</v>
       </c>
-      <c r="AE79" s="2">
+      <c r="AE80" s="2">
         <v>-3856</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B80" s="2" t="s">
+    <row r="81" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="W80" s="2">
+      <c r="W81" s="2">
         <v>-19475</v>
       </c>
-      <c r="X80" s="2">
-        <f>-39069-W80</f>
+      <c r="X81" s="2">
+        <f>-39069-W81</f>
         <v>-19594</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AE81" s="2">
         <v>-23606</v>
       </c>
     </row>
-    <row r="81" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B81" s="2" t="s">
+    <row r="82" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="W81" s="2">
+      <c r="W82" s="2">
         <f>-1401-8214</f>
         <v>-9615</v>
       </c>
-      <c r="X81" s="2">
-        <f>-3651-7960-W81</f>
+      <c r="X82" s="2">
+        <f>-3651-7960-W82</f>
         <v>-1996</v>
       </c>
-      <c r="AE81" s="2">
+      <c r="AE82" s="2">
         <f>-1009-7944</f>
         <v>-8953</v>
       </c>
     </row>
-    <row r="82" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B82" s="2" t="s">
+    <row r="83" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="W82" s="2">
+      <c r="W83" s="2">
         <v>-389</v>
       </c>
-      <c r="X82" s="2">
-        <f>-455-W82</f>
+      <c r="X83" s="2">
+        <f>-455-W83</f>
         <v>-66</v>
       </c>
-      <c r="AE82" s="2">
+      <c r="AE83" s="2">
         <v>-35</v>
       </c>
     </row>
-    <row r="83" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B83" s="2" t="s">
+    <row r="84" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="W83" s="2">
-        <f>SUM(W78:W82)</f>
+      <c r="W84" s="2">
+        <f>SUM(W79:W83)</f>
         <v>-35563</v>
       </c>
-      <c r="X83" s="2">
-        <f>SUM(X78:X82)</f>
+      <c r="X84" s="2">
+        <f>SUM(X79:X83)</f>
         <v>-25724</v>
       </c>
-      <c r="AE83" s="2">
-        <f>SUM(AE78:AE82)</f>
+      <c r="AE84" s="2">
+        <f>SUM(AE79:AE83)</f>
         <v>-39371</v>
       </c>
     </row>
-    <row r="84" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="AE84" s="2"/>
+    <row r="85" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="AE85" s="2"/>
     </row>
-    <row r="85" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B85" s="2" t="s">
+    <row r="86" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="W85" s="2">
-        <f>W83+W76+W71</f>
+      <c r="W86" s="2">
+        <f>W84+W77+W72</f>
         <v>-3003</v>
       </c>
-      <c r="X85" s="2">
-        <f>X83+X76+X71</f>
+      <c r="X86" s="2">
+        <f>X84+X77+X72</f>
         <v>5155</v>
       </c>
-      <c r="AE85" s="2">
-        <f>AE83+AE76+AE71</f>
+      <c r="AE86" s="2">
+        <f>AE84+AE77+AE72</f>
         <v>356</v>
       </c>
+    </row>
+    <row r="88" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD88" s="2">
+        <f>+BD75+BD72</f>
+        <v>53497</v>
+      </c>
+      <c r="BE88" s="2">
+        <f>+BE75+BE72</f>
+        <v>51774</v>
+      </c>
+      <c r="BF88" s="2">
+        <f>+BF75+BF72</f>
+        <v>64121</v>
+      </c>
+      <c r="BG88" s="2">
+        <f>+BG75+BG72</f>
+        <v>58896</v>
+      </c>
+      <c r="BH88" s="2">
+        <f>+BH75+BH72</f>
+        <v>73365</v>
+      </c>
+      <c r="BI88" s="2">
+        <f>+BI75+BI72</f>
+        <v>92953</v>
+      </c>
+      <c r="BJ88" s="2">
+        <f>+BJ75+BJ72</f>
+        <v>111443</v>
+      </c>
+      <c r="BK88" s="2">
+        <f>+BK75+BK72</f>
+        <v>99584</v>
+      </c>
+      <c r="BL88" s="2">
+        <f>+BL75+BL72</f>
+        <v>108807</v>
+      </c>
+    </row>
+    <row r="89" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="BL89" s="5"/>
+    </row>
+    <row r="90" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="BL90" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6A922C-CB87-43AE-A755-D55D78045052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22F063F-E307-B84D-9F7B-6BEEBD1DC32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36855" yWindow="1245" windowWidth="27570" windowHeight="16515" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" activeTab="1" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1141,16 +1141,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDB42F4-D3F6-42E5-97CD-AE20E0C5C6C6}">
   <dimension ref="N2:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="15" max="15" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N2" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N3" t="s">
         <v>1</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N4" t="s">
         <v>2</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>3075653</v>
       </c>
     </row>
-    <row r="5" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N5" t="s">
         <v>3</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N6" t="s">
         <v>4</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N7" t="s">
         <v>5</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>3031084</v>
       </c>
     </row>
-    <row r="10" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="14:16" x14ac:dyDescent="0.15">
       <c r="N10" t="s">
         <v>157</v>
       </c>
@@ -1227,31 +1227,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EB6088-6F7F-4776-A4C2-8340505BB8E8}">
   <dimension ref="A1:GJ90"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BC54" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="BD12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BL67" sqref="BL67"/>
+      <selection pane="bottomRight" activeCell="BL34" sqref="BL34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
-    <col min="63" max="63" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.5703125" customWidth="1"/>
-    <col min="83" max="83" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" customWidth="1"/>
+    <col min="21" max="21" width="9.1640625" customWidth="1"/>
+    <col min="63" max="63" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.5" customWidth="1"/>
+    <col min="83" max="83" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:80" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:80" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="C2" s="11">
         <v>43099</v>
@@ -1456,7 +1456,7 @@
         <v>51409</v>
       </c>
     </row>
-    <row r="3" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>88</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="17" t="s">
         <v>144</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>37784</v>
       </c>
     </row>
-    <row r="5" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="17" t="s">
         <v>145</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>23945</v>
       </c>
     </row>
-    <row r="6" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="17" t="s">
         <v>146</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>17812</v>
       </c>
     </row>
-    <row r="7" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="17" t="s">
         <v>147</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>7176</v>
       </c>
     </row>
-    <row r="8" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="17" t="s">
         <v>148</v>
       </c>
@@ -1753,8 +1753,8 @@
         <v>8119</v>
       </c>
     </row>
-    <row r="9" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>437770.16326981765</v>
       </c>
     </row>
-    <row r="11" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>84</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>241785.14150532632</v>
       </c>
     </row>
-    <row r="12" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>85</v>
       </c>
@@ -2336,10 +2336,10 @@
         <v>1810.5751269259611</v>
       </c>
     </row>
-    <row r="13" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>75417.751177415732</v>
       </c>
     </row>
-    <row r="15" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>49997.361373441694</v>
       </c>
     </row>
-    <row r="16" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
@@ -2977,10 +2977,10 @@
         <v>69309.67099813481</v>
       </c>
     </row>
-    <row r="17" spans="2:192" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:192" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>632494.94681880996</v>
       </c>
     </row>
-    <row r="19" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>264351.99044591124</v>
       </c>
     </row>
-    <row r="20" spans="2:192" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:192" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8" t="s">
         <v>7</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>896846.93726472114</v>
       </c>
     </row>
-    <row r="21" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>404796.76596403838</v>
       </c>
     </row>
-    <row r="22" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>71375.037420396038</v>
       </c>
     </row>
-    <row r="23" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>476171.80338443443</v>
       </c>
     </row>
-    <row r="24" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>420675.13388028671</v>
       </c>
     </row>
-    <row r="25" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>50339.640994528985</v>
       </c>
     </row>
-    <row r="26" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>41878.023941161075</v>
       </c>
     </row>
-    <row r="27" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>92217.66493569006</v>
       </c>
     </row>
-    <row r="28" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>328457.46894459665</v>
       </c>
     </row>
-    <row r="29" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>328457.46894459665</v>
       </c>
     </row>
-    <row r="31" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>65691.493788919339</v>
       </c>
     </row>
-    <row r="32" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>85253.246039463469</v>
       </c>
     </row>
-    <row r="33" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
         <v>36</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>17.343298561215963</v>
       </c>
     </row>
-    <row r="34" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>15150.865</v>
       </c>
     </row>
-    <row r="36" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="8" t="s">
         <v>41</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="8" t="s">
         <v>42</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="38" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="8" t="s">
         <v>72</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>2400459.1071151011</v>
       </c>
     </row>
-    <row r="39" spans="2:83" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:83" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>31</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>158.43568788298469</v>
       </c>
     </row>
-    <row r="40" spans="2:83" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:83" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
         <v>73</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>-0.21952863111830201</v>
       </c>
     </row>
-    <row r="41" spans="2:83" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:83" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
         <v>74</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="42" spans="2:83" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:83" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>0.3662358149388944</v>
       </c>
     </row>
-    <row r="43" spans="2:83" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:83" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>70</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="2:83" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:83" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>160</v>
       </c>
@@ -9726,7 +9726,7 @@
       <c r="CA44" s="5"/>
       <c r="CB44" s="5"/>
     </row>
-    <row r="46" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
         <v>109</v>
       </c>
@@ -9746,8 +9746,8 @@
         <v>17787</v>
       </c>
     </row>
-    <row r="47" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:83" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="2:83" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>128</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>44569</v>
       </c>
     </row>
-    <row r="49" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>141368</v>
       </c>
     </row>
-    <row r="50" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
         <v>115</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>29639</v>
       </c>
     </row>
-    <row r="51" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
         <v>116</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>29667</v>
       </c>
     </row>
-    <row r="52" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
         <v>117</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>6911</v>
       </c>
     </row>
-    <row r="53" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
         <v>118</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>13248</v>
       </c>
     </row>
-    <row r="54" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="2" t="s">
         <v>119</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>46069</v>
       </c>
     </row>
-    <row r="55" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="2" t="s">
         <v>120</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>77183</v>
       </c>
     </row>
-    <row r="56" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="s">
         <v>121</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>344085</v>
       </c>
     </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B58" s="2" t="s">
         <v>122</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>61910</v>
       </c>
     </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
         <v>123</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>61151</v>
       </c>
     </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B60" s="2" t="s">
         <v>124</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>8461</v>
       </c>
     </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B61" s="2" t="s">
         <v>4</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>96799</v>
       </c>
     </row>
-    <row r="62" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B62" s="2" t="s">
         <v>127</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>49006</v>
       </c>
     </row>
-    <row r="63" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B63" s="2" t="s">
         <v>126</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>66758</v>
       </c>
     </row>
-    <row r="64" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B64" s="2" t="s">
         <v>125</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>344085</v>
       </c>
     </row>
-    <row r="66" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:64" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
         <v>129</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>36330</v>
       </c>
       <c r="BD66" s="2">
-        <f t="shared" ref="BD66:BL67" si="280">BD32</f>
+        <f t="shared" ref="BD66:BL66" si="280">BD32</f>
         <v>45687</v>
       </c>
       <c r="BE66" s="2">
@@ -10108,7 +10108,7 @@
         <v>93736</v>
       </c>
     </row>
-    <row r="67" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B67" s="2" t="s">
         <v>130</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>36330</v>
       </c>
     </row>
-    <row r="68" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
         <v>132</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="69" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2" t="s">
         <v>133</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="70" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2" t="s">
         <v>134</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>-2009</v>
       </c>
     </row>
-    <row r="71" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2" t="s">
         <v>135</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>-10752</v>
       </c>
     </row>
-    <row r="72" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
         <v>131</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>118254</v>
       </c>
     </row>
-    <row r="74" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:64" x14ac:dyDescent="0.15">
       <c r="B74" s="2" t="s">
         <v>136</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>13335</v>
       </c>
     </row>
-    <row r="75" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:64" x14ac:dyDescent="0.15">
       <c r="B75" s="2" t="s">
         <v>137</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>-9447</v>
       </c>
     </row>
-    <row r="76" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:64" x14ac:dyDescent="0.15">
       <c r="B76" s="2" t="s">
         <v>134</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>-603</v>
       </c>
     </row>
-    <row r="77" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:64" x14ac:dyDescent="0.15">
       <c r="B77" s="2" t="s">
         <v>138</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>9792</v>
       </c>
     </row>
-    <row r="79" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:64" x14ac:dyDescent="0.15">
       <c r="B79" s="2" t="s">
         <v>139</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>-2921</v>
       </c>
     </row>
-    <row r="80" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:64" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="s">
         <v>140</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>-3856</v>
       </c>
     </row>
-    <row r="81" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:64" x14ac:dyDescent="0.15">
       <c r="B81" s="2" t="s">
         <v>141</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>-23606</v>
       </c>
     </row>
-    <row r="82" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:64" x14ac:dyDescent="0.15">
       <c r="B82" s="2" t="s">
         <v>4</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>-8953</v>
       </c>
     </row>
-    <row r="83" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:64" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
         <v>134</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="84" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:64" x14ac:dyDescent="0.15">
       <c r="B84" s="2" t="s">
         <v>142</v>
       </c>
@@ -10450,10 +10450,10 @@
         <v>-39371</v>
       </c>
     </row>
-    <row r="85" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:64" x14ac:dyDescent="0.15">
       <c r="AE85" s="2"/>
     </row>
-    <row r="86" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:64" x14ac:dyDescent="0.15">
       <c r="B86" s="2" t="s">
         <v>143</v>
       </c>
@@ -10470,51 +10470,51 @@
         <v>356</v>
       </c>
     </row>
-    <row r="88" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:64" x14ac:dyDescent="0.15">
       <c r="B88" s="2" t="s">
         <v>161</v>
       </c>
       <c r="BD88" s="2">
-        <f>+BD75+BD72</f>
+        <f t="shared" ref="BD88:BL88" si="281">+BD75+BD72</f>
         <v>53497</v>
       </c>
       <c r="BE88" s="2">
-        <f>+BE75+BE72</f>
+        <f t="shared" si="281"/>
         <v>51774</v>
       </c>
       <c r="BF88" s="2">
-        <f>+BF75+BF72</f>
+        <f t="shared" si="281"/>
         <v>64121</v>
       </c>
       <c r="BG88" s="2">
-        <f>+BG75+BG72</f>
+        <f t="shared" si="281"/>
         <v>58896</v>
       </c>
       <c r="BH88" s="2">
-        <f>+BH75+BH72</f>
+        <f t="shared" si="281"/>
         <v>73365</v>
       </c>
       <c r="BI88" s="2">
-        <f>+BI75+BI72</f>
+        <f t="shared" si="281"/>
         <v>92953</v>
       </c>
       <c r="BJ88" s="2">
-        <f>+BJ75+BJ72</f>
+        <f t="shared" si="281"/>
         <v>111443</v>
       </c>
       <c r="BK88" s="2">
-        <f>+BK75+BK72</f>
+        <f t="shared" si="281"/>
         <v>99584</v>
       </c>
       <c r="BL88" s="2">
-        <f>+BL75+BL72</f>
+        <f t="shared" si="281"/>
         <v>108807</v>
       </c>
     </row>
-    <row r="89" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:64" x14ac:dyDescent="0.15">
       <c r="BL89" s="5"/>
     </row>
-    <row r="90" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:64" x14ac:dyDescent="0.15">
       <c r="BL90" s="5"/>
     </row>
   </sheetData>
@@ -10538,14 +10538,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>77</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>79</v>
       </c>

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22F063F-E307-B84D-9F7B-6BEEBD1DC32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7B9381-1E25-44F3-98B7-D27041CC8385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" activeTab="1" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
+    <workbookView xWindow="7830" yWindow="2700" windowWidth="20760" windowHeight="10725" activeTab="1" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1145,12 +1145,12 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="15" max="15" width="9.83203125" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="14:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N2" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="14:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N3" t="s">
         <v>1</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="14:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N4" t="s">
         <v>2</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>3075653</v>
       </c>
     </row>
-    <row r="5" spans="14:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N5" t="s">
         <v>3</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="14:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N6" t="s">
         <v>4</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="14:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N7" t="s">
         <v>5</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>3031084</v>
       </c>
     </row>
-    <row r="10" spans="14:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N10" t="s">
         <v>157</v>
       </c>
@@ -1227,31 +1227,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EB6088-6F7F-4776-A4C2-8340505BB8E8}">
   <dimension ref="A1:GJ90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BD12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AI12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BL34" sqref="BL34"/>
+      <selection pane="bottomRight" activeCell="AR20" sqref="AR20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" customWidth="1"/>
-    <col min="19" max="19" width="9.1640625" customWidth="1"/>
-    <col min="21" max="21" width="9.1640625" customWidth="1"/>
-    <col min="63" max="63" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.5" customWidth="1"/>
-    <col min="83" max="83" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="63" max="63" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.42578125" customWidth="1"/>
+    <col min="83" max="83" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:80" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:80" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="C2" s="11">
         <v>43099</v>
@@ -1456,7 +1456,7 @@
         <v>51409</v>
       </c>
     </row>
-    <row r="3" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>88</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>144</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>37784</v>
       </c>
     </row>
-    <row r="5" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
         <v>145</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>23945</v>
       </c>
     </row>
-    <row r="6" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
         <v>146</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>17812</v>
       </c>
     </row>
-    <row r="7" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
         <v>147</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>7176</v>
       </c>
     </row>
-    <row r="8" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
         <v>148</v>
       </c>
@@ -1753,8 +1753,8 @@
         <v>8119</v>
       </c>
     </row>
-    <row r="9" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>437770.16326981765</v>
       </c>
     </row>
-    <row r="11" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>84</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>241785.14150532632</v>
       </c>
     </row>
-    <row r="12" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>85</v>
       </c>
@@ -2336,10 +2336,10 @@
         <v>1810.5751269259611</v>
       </c>
     </row>
-    <row r="13" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>75417.751177415732</v>
       </c>
     </row>
-    <row r="15" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>49997.361373441694</v>
       </c>
     </row>
-    <row r="16" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
@@ -2977,10 +2977,10 @@
         <v>69309.67099813481</v>
       </c>
     </row>
-    <row r="17" spans="2:192" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:192" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>632494.94681880996</v>
       </c>
     </row>
-    <row r="19" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>264351.99044591124</v>
       </c>
     </row>
-    <row r="20" spans="2:192" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:192" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>7</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>896846.93726472114</v>
       </c>
     </row>
-    <row r="21" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>404796.76596403838</v>
       </c>
     </row>
-    <row r="22" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>71375.037420396038</v>
       </c>
     </row>
-    <row r="23" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>476171.80338443443</v>
       </c>
     </row>
-    <row r="24" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>420675.13388028671</v>
       </c>
     </row>
-    <row r="25" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>50339.640994528985</v>
       </c>
     </row>
-    <row r="26" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>41878.023941161075</v>
       </c>
     </row>
-    <row r="27" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>92217.66493569006</v>
       </c>
     </row>
-    <row r="28" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>328457.46894459665</v>
       </c>
     </row>
-    <row r="29" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>328457.46894459665</v>
       </c>
     </row>
-    <row r="31" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>65691.493788919339</v>
       </c>
     </row>
-    <row r="32" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>85253.246039463469</v>
       </c>
     </row>
-    <row r="33" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>36</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>17.343298561215963</v>
       </c>
     </row>
-    <row r="34" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>15150.865</v>
       </c>
     </row>
-    <row r="36" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>41</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
         <v>42</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="38" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
         <v>72</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>2400459.1071151011</v>
       </c>
     </row>
-    <row r="39" spans="2:83" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>31</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>158.43568788298469</v>
       </c>
     </row>
-    <row r="40" spans="2:83" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>73</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>-0.21952863111830201</v>
       </c>
     </row>
-    <row r="41" spans="2:83" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>74</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="42" spans="2:83" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>0.3662358149388944</v>
       </c>
     </row>
-    <row r="43" spans="2:83" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>70</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="2:83" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>160</v>
       </c>
@@ -9726,7 +9726,7 @@
       <c r="CA44" s="5"/>
       <c r="CB44" s="5"/>
     </row>
-    <row r="46" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>109</v>
       </c>
@@ -9746,8 +9746,8 @@
         <v>17787</v>
       </c>
     </row>
-    <row r="47" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:83" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>128</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>44569</v>
       </c>
     </row>
-    <row r="49" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>141368</v>
       </c>
     </row>
-    <row r="50" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>115</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>29639</v>
       </c>
     </row>
-    <row r="51" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>116</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>29667</v>
       </c>
     </row>
-    <row r="52" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>117</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>6911</v>
       </c>
     </row>
-    <row r="53" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>118</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>13248</v>
       </c>
     </row>
-    <row r="54" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>119</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>46069</v>
       </c>
     </row>
-    <row r="55" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>120</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>77183</v>
       </c>
     </row>
-    <row r="56" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>121</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>344085</v>
       </c>
     </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>122</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>61910</v>
       </c>
     </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>123</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>61151</v>
       </c>
     </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>124</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>8461</v>
       </c>
     </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>4</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>96799</v>
       </c>
     </row>
-    <row r="62" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>127</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>49006</v>
       </c>
     </row>
-    <row r="63" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>126</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>66758</v>
       </c>
     </row>
-    <row r="64" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>125</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>344085</v>
       </c>
     </row>
-    <row r="66" spans="2:64" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:64" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>129</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>93736</v>
       </c>
     </row>
-    <row r="67" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>130</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>36330</v>
       </c>
     </row>
-    <row r="68" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>132</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="69" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>133</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="70" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>134</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>-2009</v>
       </c>
     </row>
-    <row r="71" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>135</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>-10752</v>
       </c>
     </row>
-    <row r="72" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>131</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>118254</v>
       </c>
     </row>
-    <row r="74" spans="2:64" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:64" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>136</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>13335</v>
       </c>
     </row>
-    <row r="75" spans="2:64" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:64" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>137</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>-9447</v>
       </c>
     </row>
-    <row r="76" spans="2:64" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:64" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>134</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>-603</v>
       </c>
     </row>
-    <row r="77" spans="2:64" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:64" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>138</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>9792</v>
       </c>
     </row>
-    <row r="79" spans="2:64" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:64" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>139</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>-2921</v>
       </c>
     </row>
-    <row r="80" spans="2:64" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:64" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>140</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>-3856</v>
       </c>
     </row>
-    <row r="81" spans="2:64" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:64" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
         <v>141</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>-23606</v>
       </c>
     </row>
-    <row r="82" spans="2:64" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:64" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>4</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>-8953</v>
       </c>
     </row>
-    <row r="83" spans="2:64" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:64" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>134</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="84" spans="2:64" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:64" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>142</v>
       </c>
@@ -10450,10 +10450,10 @@
         <v>-39371</v>
       </c>
     </row>
-    <row r="85" spans="2:64" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:64" x14ac:dyDescent="0.2">
       <c r="AE85" s="2"/>
     </row>
-    <row r="86" spans="2:64" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:64" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>143</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="88" spans="2:64" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:64" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>161</v>
       </c>
@@ -10511,10 +10511,10 @@
         <v>108807</v>
       </c>
     </row>
-    <row r="89" spans="2:64" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:64" x14ac:dyDescent="0.2">
       <c r="BL89" s="5"/>
     </row>
-    <row r="90" spans="2:64" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:64" x14ac:dyDescent="0.2">
       <c r="BL90" s="5"/>
     </row>
   </sheetData>
@@ -10538,14 +10538,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>77</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>79</v>
       </c>

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7B9381-1E25-44F3-98B7-D27041CC8385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751F99CB-AF3A-42E6-B450-0DC3082144FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="2700" windowWidth="20760" windowHeight="10725" activeTab="1" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
+    <workbookView xWindow="-30765" yWindow="1905" windowWidth="26790" windowHeight="16290" activeTab="1" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="163">
   <si>
     <t>Price</t>
   </si>
@@ -586,6 +586,9 @@
   </si>
   <si>
     <t>FCF</t>
+  </si>
+  <si>
+    <t>TTM</t>
   </si>
 </sst>
 </file>
@@ -685,7 +688,7 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1228,10 +1231,10 @@
   <dimension ref="A1:GJ90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AI12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AR20" sqref="AR20"/>
+      <selection pane="bottomRight" activeCell="AD89" sqref="AD89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1683,74 +1686,89 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>144</v>
       </c>
       <c r="T4" s="7">
         <v>40882</v>
       </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
+      <c r="W4" s="7">
+        <v>49278</v>
+      </c>
       <c r="X4" s="7">
         <v>37784</v>
       </c>
+      <c r="AA4" s="7">
+        <v>50430</v>
+      </c>
     </row>
-    <row r="5" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
         <v>145</v>
       </c>
       <c r="T5" s="7">
         <v>23287</v>
       </c>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
+      <c r="W5" s="7">
+        <v>27681</v>
+      </c>
       <c r="X5" s="7">
         <v>23945</v>
       </c>
+      <c r="AA5" s="7">
+        <v>30397</v>
+      </c>
     </row>
-    <row r="6" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
         <v>146</v>
       </c>
       <c r="T6" s="7">
         <v>18343</v>
       </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
+      <c r="W6" s="7">
+        <v>23905</v>
+      </c>
       <c r="X6" s="7">
         <v>17812</v>
       </c>
+      <c r="AA6" s="7">
+        <v>20819</v>
+      </c>
     </row>
-    <row r="7" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
         <v>147</v>
       </c>
       <c r="T7" s="7">
         <v>7724</v>
       </c>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="W7" s="7">
+        <v>6755</v>
+      </c>
       <c r="X7" s="7">
         <v>7176</v>
       </c>
+      <c r="AA7" s="7">
+        <v>7767</v>
+      </c>
     </row>
-    <row r="8" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
         <v>148</v>
       </c>
       <c r="T8" s="7">
         <v>7042</v>
       </c>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="W8" s="7">
+        <v>9535</v>
+      </c>
       <c r="X8" s="7">
         <v>8119</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>10162</v>
       </c>
     </row>
     <row r="9" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -9759,6 +9777,26 @@
         <f>X49-X61</f>
         <v>56718</v>
       </c>
+      <c r="Y48" s="2">
+        <f>Y49-Y61</f>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="2">
+        <f>Z49-Z61</f>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="2">
+        <f>AA49-AA61</f>
+        <v>64535</v>
+      </c>
+      <c r="AB48" s="2">
+        <f>AB49-AB61</f>
+        <v>57747</v>
+      </c>
+      <c r="AC48" s="2">
+        <f>AC49-AC61</f>
+        <v>51737</v>
+      </c>
       <c r="AD48" s="2">
         <f>AD49-AD61</f>
         <v>50021</v>
@@ -9780,6 +9818,18 @@
         <f>24687+31185+110461</f>
         <v>166333</v>
       </c>
+      <c r="AA49" s="2">
+        <f>40760+32340+99475</f>
+        <v>172575</v>
+      </c>
+      <c r="AB49" s="2">
+        <f>32695+34455+95187</f>
+        <v>162337</v>
+      </c>
+      <c r="AC49" s="2">
+        <f>25565+36236+91240</f>
+        <v>153041</v>
+      </c>
       <c r="AD49" s="2">
         <f>29943+35228+91479</f>
         <v>156650</v>
@@ -9799,6 +9849,15 @@
       <c r="X50" s="2">
         <v>17936</v>
       </c>
+      <c r="AA50" s="2">
+        <v>23194</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>21837</v>
+      </c>
+      <c r="AC50" s="2">
+        <v>22795</v>
+      </c>
       <c r="AD50" s="2">
         <v>33410</v>
       </c>
@@ -9816,6 +9875,15 @@
       <c r="X51" s="2">
         <v>7482</v>
       </c>
+      <c r="AA51" s="2">
+        <v>26908</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>19313</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>20377</v>
+      </c>
       <c r="AD51" s="2">
         <v>32833</v>
       </c>
@@ -9833,6 +9901,15 @@
       <c r="X52" s="2">
         <v>17963</v>
       </c>
+      <c r="AA52" s="2">
+        <v>6511</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>6232</v>
+      </c>
+      <c r="AC52" s="2">
+        <v>6165</v>
+      </c>
       <c r="AD52" s="2">
         <v>7286</v>
       </c>
@@ -9850,6 +9927,15 @@
       <c r="X53" s="2">
         <v>13660</v>
       </c>
+      <c r="AA53" s="2">
+        <v>13979</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>13884</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>14297</v>
+      </c>
       <c r="AD53" s="2">
         <v>14287</v>
       </c>
@@ -9867,6 +9953,15 @@
       <c r="X54" s="2">
         <v>43398</v>
       </c>
+      <c r="AA54" s="2">
+        <v>43666</v>
+      </c>
+      <c r="AB54" s="2">
+        <v>43546</v>
+      </c>
+      <c r="AC54" s="2">
+        <v>44502</v>
+      </c>
       <c r="AD54" s="2">
         <v>45680</v>
       </c>
@@ -9884,6 +9979,15 @@
       <c r="X55" s="2">
         <v>65388</v>
       </c>
+      <c r="AA55" s="2">
+        <v>66681</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>70262</v>
+      </c>
+      <c r="AC55" s="2">
+        <v>70435</v>
+      </c>
       <c r="AD55" s="2">
         <v>74834</v>
       </c>
@@ -9903,6 +10007,26 @@
         <f>SUM(X49:X55)</f>
         <v>332160</v>
       </c>
+      <c r="Y56" s="2">
+        <f>SUM(Y49:Y55)</f>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="2">
+        <f>SUM(Z49:Z55)</f>
+        <v>0</v>
+      </c>
+      <c r="AA56" s="2">
+        <f>SUM(AA49:AA55)</f>
+        <v>353514</v>
+      </c>
+      <c r="AB56" s="2">
+        <f>SUM(AB49:AB55)</f>
+        <v>337411</v>
+      </c>
+      <c r="AC56" s="2">
+        <f>SUM(AC49:AC55)</f>
+        <v>331612</v>
+      </c>
       <c r="AD56" s="2">
         <f>SUM(AD49:AD55)</f>
         <v>364980</v>
@@ -9922,6 +10046,15 @@
       <c r="X58" s="2">
         <v>42945</v>
       </c>
+      <c r="AA58" s="2">
+        <v>58146</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>45753</v>
+      </c>
+      <c r="AC58" s="2">
+        <v>47574</v>
+      </c>
       <c r="AD58" s="2">
         <v>68960</v>
       </c>
@@ -9939,6 +10072,15 @@
       <c r="X59" s="2">
         <v>56425</v>
       </c>
+      <c r="AA59" s="2">
+        <v>54611</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>57298</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>60889</v>
+      </c>
       <c r="AD59" s="2">
         <v>78304</v>
       </c>
@@ -9956,6 +10098,15 @@
       <c r="X60" s="2">
         <v>8131</v>
       </c>
+      <c r="AA60" s="2">
+        <v>8264</v>
+      </c>
+      <c r="AB60" s="2">
+        <v>8012</v>
+      </c>
+      <c r="AC60" s="2">
+        <v>8053</v>
+      </c>
       <c r="AD60" s="2">
         <v>8249</v>
       </c>
@@ -9975,6 +10126,18 @@
         <f>1996+10578+97041</f>
         <v>109615</v>
       </c>
+      <c r="AA61" s="2">
+        <f>1998+10954+95088</f>
+        <v>108040</v>
+      </c>
+      <c r="AB61" s="2">
+        <f>1997+10762+91831</f>
+        <v>104590</v>
+      </c>
+      <c r="AC61">
+        <f>2994+12114+86196</f>
+        <v>101304</v>
+      </c>
       <c r="AD61">
         <f>9967+10912+85750</f>
         <v>106629</v>
@@ -9994,6 +10157,15 @@
       <c r="X62" s="2">
         <v>52886</v>
       </c>
+      <c r="AA62" s="2">
+        <v>50353</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>47564</v>
+      </c>
+      <c r="AC62" s="2">
+        <v>47084</v>
+      </c>
       <c r="AD62" s="2">
         <v>45888</v>
       </c>
@@ -10011,6 +10183,15 @@
       <c r="X63" s="2">
         <v>62158</v>
       </c>
+      <c r="AA63" s="2">
+        <v>74100</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>74194</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>66708</v>
+      </c>
       <c r="AD63" s="2">
         <v>56950</v>
       </c>
@@ -10030,6 +10211,26 @@
         <f>SUM(X58:X63)</f>
         <v>332160</v>
       </c>
+      <c r="Y64" s="2">
+        <f>SUM(Y58:Y63)</f>
+        <v>0</v>
+      </c>
+      <c r="Z64" s="2">
+        <f>SUM(Z58:Z63)</f>
+        <v>0</v>
+      </c>
+      <c r="AA64" s="2">
+        <f>SUM(AA58:AA63)</f>
+        <v>353514</v>
+      </c>
+      <c r="AB64" s="2">
+        <f>SUM(AB58:AB63)</f>
+        <v>337411</v>
+      </c>
+      <c r="AC64" s="2">
+        <f>SUM(AC58:AC63)</f>
+        <v>331612</v>
+      </c>
       <c r="AD64" s="2">
         <f>SUM(AD58:AD63)</f>
         <v>364980</v>
@@ -10119,6 +10320,21 @@
         <f>54158-W67</f>
         <v>24160</v>
       </c>
+      <c r="AA67" s="2">
+        <v>33916</v>
+      </c>
+      <c r="AB67" s="2">
+        <f>57552-AA67</f>
+        <v>23636</v>
+      </c>
+      <c r="AC67" s="2">
+        <f>79000-AB67-AA67</f>
+        <v>21448</v>
+      </c>
+      <c r="AD67" s="2">
+        <f>93736-AC67-AB67-AA67</f>
+        <v>14736</v>
+      </c>
       <c r="AE67" s="2">
         <v>36330</v>
       </c>
@@ -10134,6 +10350,21 @@
         <f>5814-W68</f>
         <v>2898</v>
       </c>
+      <c r="AA68" s="2">
+        <v>2848</v>
+      </c>
+      <c r="AB68" s="2">
+        <f>5684-AA68</f>
+        <v>2836</v>
+      </c>
+      <c r="AC68" s="2">
+        <f>8534-AB68-AA68</f>
+        <v>2850</v>
+      </c>
+      <c r="AD68" s="2">
+        <f>11445-AC68-AB68-AA68</f>
+        <v>2911</v>
+      </c>
       <c r="AE68" s="2">
         <v>3080</v>
       </c>
@@ -10149,6 +10380,21 @@
         <f>5591-W69</f>
         <v>2686</v>
       </c>
+      <c r="AA69" s="2">
+        <v>2997</v>
+      </c>
+      <c r="AB69" s="2">
+        <f>5961-AA69</f>
+        <v>2964</v>
+      </c>
+      <c r="AC69" s="2">
+        <f>8830-AB69-AA69</f>
+        <v>2869</v>
+      </c>
+      <c r="AD69" s="2">
+        <f>11688-AC69-AB69-AA69</f>
+        <v>2858</v>
+      </c>
       <c r="AE69" s="2">
         <v>3286</v>
       </c>
@@ -10164,6 +10410,21 @@
         <f>-1732-W70</f>
         <v>-1415</v>
       </c>
+      <c r="AA70" s="2">
+        <v>-989</v>
+      </c>
+      <c r="AB70" s="2">
+        <f>-1971-AA70</f>
+        <v>-982</v>
+      </c>
+      <c r="AC70" s="2">
+        <f>-1964-AB70-AA70</f>
+        <v>7</v>
+      </c>
+      <c r="AD70" s="2">
+        <f>-2266-AC70-AB70-AA70</f>
+        <v>-302</v>
+      </c>
       <c r="AE70" s="2">
         <v>-2009</v>
       </c>
@@ -10180,6 +10441,22 @@
         <f>9596-2548+14785-4092-20764+1757-W71</f>
         <v>231</v>
       </c>
+      <c r="AA71" s="2">
+        <f>6555+4569-137-1457-4542-3865</f>
+        <v>1123</v>
+      </c>
+      <c r="AB71" s="2">
+        <f>7727+12164+53-4438-16710-3437-AA71</f>
+        <v>-5764</v>
+      </c>
+      <c r="AC71" s="2">
+        <f>6697+11100+41-5626-15171+2-AB71-AA71</f>
+        <v>1684</v>
+      </c>
+      <c r="AD71" s="2">
+        <f>-3788-1356-1046-11731+6020+15552-AC71-AB71-AA71</f>
+        <v>6608</v>
+      </c>
       <c r="AE71" s="2">
         <f>3597+3166+215+939-6671-11998</f>
         <v>-10752</v>
@@ -10204,15 +10481,19 @@
         <v>21598</v>
       </c>
       <c r="AA72" s="2">
+        <f>SUM(AA67:AA71)</f>
         <v>39895</v>
       </c>
       <c r="AB72" s="2">
+        <f>SUM(AB67:AB71)</f>
         <v>22690</v>
       </c>
       <c r="AC72" s="2">
+        <f>SUM(AC67:AC71)</f>
         <v>28858</v>
       </c>
       <c r="AD72" s="2">
+        <f>SUM(AD67:AD71)</f>
         <v>26811</v>
       </c>
       <c r="AE72" s="2">
@@ -10259,6 +10540,22 @@
         <f>-11197+17124+1897-W74</f>
         <v>5341</v>
       </c>
+      <c r="AA74" s="2">
+        <f>-9780+13046+1337</f>
+        <v>4603</v>
+      </c>
+      <c r="AB74" s="2">
+        <f>-25042+27462+4314-AA74</f>
+        <v>2131</v>
+      </c>
+      <c r="AC74" s="2">
+        <f>-38074+39838+7382-AB74-AA74</f>
+        <v>2412</v>
+      </c>
+      <c r="AD74" s="2">
+        <f>-48656+51211+11135-AC74-AB74-AA74</f>
+        <v>4544</v>
+      </c>
       <c r="AE74" s="2">
         <f>-6124+15967+3492</f>
         <v>13335</v>
@@ -10285,12 +10582,15 @@
         <v>-2392</v>
       </c>
       <c r="AB75" s="2">
+        <f>-4388-AA75</f>
         <v>-1996</v>
       </c>
       <c r="AC75" s="2">
+        <f>-6539-AB75-AA75</f>
         <v>-2151</v>
       </c>
       <c r="AD75" s="2">
+        <f>-9447-AC75-AB75-AA75</f>
         <v>-2908</v>
       </c>
       <c r="AE75" s="2">
@@ -10335,6 +10635,21 @@
         <f>-247-W76</f>
         <v>-106</v>
       </c>
+      <c r="AA76" s="2">
+        <v>-284</v>
+      </c>
+      <c r="AB76" s="2">
+        <f>-729-AA76</f>
+        <v>-445</v>
+      </c>
+      <c r="AC76" s="2">
+        <f>-1117-AB76-AA76</f>
+        <v>-388</v>
+      </c>
+      <c r="AD76" s="2">
+        <f>-1308-AC76-AB76-AA76</f>
+        <v>-191</v>
+      </c>
       <c r="AE76" s="2">
         <v>-603</v>
       </c>
@@ -10351,6 +10666,22 @@
         <f>SUM(X74:X76)</f>
         <v>2319</v>
       </c>
+      <c r="AA77" s="2">
+        <f>SUM(AA74:AA76)</f>
+        <v>1927</v>
+      </c>
+      <c r="AB77" s="2">
+        <f>SUM(AB74:AB76)</f>
+        <v>-310</v>
+      </c>
+      <c r="AC77" s="2">
+        <f>SUM(AC74:AC76)</f>
+        <v>-127</v>
+      </c>
+      <c r="AD77" s="2">
+        <f>SUM(AD74:AD76)</f>
+        <v>1445</v>
+      </c>
       <c r="AE77" s="2">
         <f>SUM(AE74:AE76)</f>
         <v>9792</v>
@@ -10367,6 +10698,21 @@
         <f>-2734-W79</f>
         <v>-418</v>
       </c>
+      <c r="AA79" s="2">
+        <v>-2591</v>
+      </c>
+      <c r="AB79" s="2">
+        <f>-2875-AA79</f>
+        <v>-284</v>
+      </c>
+      <c r="AC79" s="2">
+        <f>-5163-AB79-AA79</f>
+        <v>-2288</v>
+      </c>
+      <c r="AD79" s="2">
+        <f>-5441-AC79-AB79-AA79</f>
+        <v>-278</v>
+      </c>
       <c r="AE79" s="2">
         <v>-2921</v>
       </c>
@@ -10382,6 +10728,21 @@
         <f>-7418-W80</f>
         <v>-3650</v>
       </c>
+      <c r="AA80" s="2">
+        <v>-3825</v>
+      </c>
+      <c r="AB80" s="2">
+        <f>-7535-AA80</f>
+        <v>-3710</v>
+      </c>
+      <c r="AC80" s="2">
+        <f>-11430-AB80-AA80</f>
+        <v>-3895</v>
+      </c>
+      <c r="AD80" s="2">
+        <f>-15234-AC80-AB80-AA80</f>
+        <v>-3804</v>
+      </c>
       <c r="AE80" s="2">
         <v>-3856</v>
       </c>
@@ -10397,6 +10758,21 @@
         <f>-39069-W81</f>
         <v>-19594</v>
       </c>
+      <c r="AA81" s="2">
+        <v>-20139</v>
+      </c>
+      <c r="AB81" s="2">
+        <f>-43344-AA81</f>
+        <v>-23205</v>
+      </c>
+      <c r="AC81" s="2">
+        <f>-69866-AB81-AA81</f>
+        <v>-26522</v>
+      </c>
+      <c r="AD81" s="2">
+        <f>-94949-AC81-AB81-AA81</f>
+        <v>-25083</v>
+      </c>
       <c r="AE81" s="2">
         <v>-23606</v>
       </c>
@@ -10413,6 +10789,21 @@
         <f>-3651-7960-W82</f>
         <v>-1996</v>
       </c>
+      <c r="AA82" s="2">
+        <v>-3984</v>
+      </c>
+      <c r="AB82" s="2">
+        <f>-3150-AA82-3982</f>
+        <v>-3148</v>
+      </c>
+      <c r="AC82" s="2">
+        <f>-7400-2985-AB82-AA82</f>
+        <v>-3253</v>
+      </c>
+      <c r="AD82" s="2">
+        <f>-9958+3960-AC82-AB82-AA82</f>
+        <v>4387</v>
+      </c>
       <c r="AE82" s="2">
         <f>-1009-7944</f>
         <v>-8953</v>
@@ -10429,6 +10820,21 @@
         <f>-455-W83</f>
         <v>-66</v>
       </c>
+      <c r="AA83" s="2">
+        <v>-46</v>
+      </c>
+      <c r="AB83" s="2">
+        <f>-132-AA83</f>
+        <v>-86</v>
+      </c>
+      <c r="AC83" s="2">
+        <f>-191-AB83-AA83</f>
+        <v>-59</v>
+      </c>
+      <c r="AD83" s="2">
+        <f>-361-AC83-AB83-AA83</f>
+        <v>-170</v>
+      </c>
       <c r="AE83" s="2">
         <v>-35</v>
       </c>
@@ -10444,6 +10850,22 @@
       <c r="X84" s="2">
         <f>SUM(X79:X83)</f>
         <v>-25724</v>
+      </c>
+      <c r="AA84" s="2">
+        <f>SUM(AA79:AA83)</f>
+        <v>-30585</v>
+      </c>
+      <c r="AB84" s="2">
+        <f>SUM(AB79:AB83)</f>
+        <v>-30433</v>
+      </c>
+      <c r="AC84" s="2">
+        <f>SUM(AC79:AC83)</f>
+        <v>-36017</v>
+      </c>
+      <c r="AD84" s="2">
+        <f>SUM(AD79:AD83)</f>
+        <v>-24948</v>
       </c>
       <c r="AE84" s="2">
         <f>SUM(AE79:AE83)</f>
@@ -10465,6 +10887,22 @@
         <f>X84+X77+X72</f>
         <v>5155</v>
       </c>
+      <c r="AA86" s="2">
+        <f>AA84+AA77+AA72</f>
+        <v>11237</v>
+      </c>
+      <c r="AB86" s="2">
+        <f>AB84+AB77+AB72</f>
+        <v>-8053</v>
+      </c>
+      <c r="AC86" s="2">
+        <f>AC84+AC77+AC72</f>
+        <v>-7286</v>
+      </c>
+      <c r="AD86" s="2">
+        <f>AD84+AD77+AD72</f>
+        <v>3308</v>
+      </c>
       <c r="AE86" s="2">
         <f>AE84+AE77+AE72</f>
         <v>356</v>
@@ -10474,6 +10912,26 @@
       <c r="B88" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="AA88" s="2">
+        <f>+AA72+AA75</f>
+        <v>37503</v>
+      </c>
+      <c r="AB88" s="2">
+        <f>+AB72+AB75</f>
+        <v>20694</v>
+      </c>
+      <c r="AC88" s="2">
+        <f>+AC72+AC75</f>
+        <v>26707</v>
+      </c>
+      <c r="AD88" s="2">
+        <f>+AD72+AD75</f>
+        <v>23903</v>
+      </c>
+      <c r="AE88" s="2">
+        <f>+AE72+AE75</f>
+        <v>26995</v>
+      </c>
       <c r="BD88" s="2">
         <f t="shared" ref="BD88:BL88" si="281">+BD75+BD72</f>
         <v>53497</v>
@@ -10512,6 +10970,17 @@
       </c>
     </row>
     <row r="89" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD89" s="2">
+        <f>SUM(AA88:AD88)</f>
+        <v>108807</v>
+      </c>
+      <c r="AE89" s="2">
+        <f>SUM(AB88:AE88)</f>
+        <v>98299</v>
+      </c>
       <c r="BL89" s="5"/>
     </row>
     <row r="90" spans="2:64" x14ac:dyDescent="0.2">

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751F99CB-AF3A-42E6-B450-0DC3082144FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967C1AC7-DC35-4D5A-B9AA-B049CCB9747C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30765" yWindow="1905" windowWidth="26790" windowHeight="16290" activeTab="1" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
+    <workbookView xWindow="-25425" yWindow="2895" windowWidth="28905" windowHeight="17280" activeTab="1" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1231,10 +1231,10 @@
   <dimension ref="A1:GJ90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD89" sqref="AD89"/>
+      <selection pane="bottomRight" activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1690,85 +1690,240 @@
       <c r="B4" s="17" t="s">
         <v>144</v>
       </c>
+      <c r="R4" s="7">
+        <f>153306-Q4-P4-O4</f>
+        <v>153306</v>
+      </c>
       <c r="T4" s="7">
         <v>40882</v>
       </c>
+      <c r="U4" s="7">
+        <v>37472</v>
+      </c>
+      <c r="V4" s="7">
+        <f>169658-U4-T4-S4</f>
+        <v>91304</v>
+      </c>
       <c r="W4" s="7">
         <v>49278</v>
       </c>
       <c r="X4" s="7">
         <v>37784</v>
       </c>
+      <c r="Y4" s="7">
+        <v>35383</v>
+      </c>
+      <c r="Z4" s="7">
+        <f>162560-Y4-X4-W4</f>
+        <v>40115</v>
+      </c>
       <c r="AA4" s="7">
         <v>50430</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>37273</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>37678</v>
+      </c>
+      <c r="AD4" s="7">
+        <f>167045-AC4-AB4-AA4</f>
+        <v>41664</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>52648</v>
       </c>
     </row>
     <row r="5" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
         <v>145</v>
       </c>
+      <c r="R5" s="7">
+        <f>89307-Q5-P5-O5</f>
+        <v>89307</v>
+      </c>
       <c r="T5" s="7">
         <v>23287</v>
       </c>
+      <c r="U5" s="7">
+        <v>19287</v>
+      </c>
+      <c r="V5" s="7">
+        <f>95118-U5-T5-S5</f>
+        <v>52544</v>
+      </c>
       <c r="W5" s="7">
         <v>27681</v>
       </c>
       <c r="X5" s="7">
         <v>23945</v>
       </c>
+      <c r="Y5" s="7">
+        <v>20205</v>
+      </c>
+      <c r="Z5" s="7">
+        <f>94294-Y5-X5-W5</f>
+        <v>22463</v>
+      </c>
       <c r="AA5" s="7">
         <v>30397</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>24123</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>21884</v>
+      </c>
+      <c r="AD5" s="7">
+        <f>101328-AC5-AB5-AA5</f>
+        <v>24924</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>33861</v>
       </c>
     </row>
     <row r="6" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
         <v>146</v>
       </c>
+      <c r="R6" s="7">
+        <f>68366-Q6-P6-O6</f>
+        <v>68366</v>
+      </c>
       <c r="T6" s="7">
         <v>18343</v>
       </c>
+      <c r="U6" s="7">
+        <v>14604</v>
+      </c>
+      <c r="V6" s="7">
+        <f>74200-U6-T6-S6</f>
+        <v>41253</v>
+      </c>
       <c r="W6" s="7">
         <v>23905</v>
       </c>
       <c r="X6" s="7">
         <v>17812</v>
       </c>
+      <c r="Y6" s="7">
+        <v>15758</v>
+      </c>
+      <c r="Z6" s="7">
+        <f>72559-Y6-X6-W6</f>
+        <v>15084</v>
+      </c>
       <c r="AA6" s="7">
         <v>20819</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>16372</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>14728</v>
+      </c>
+      <c r="AD6" s="7">
+        <f>66952-AC6-AB6-AA6</f>
+        <v>15033</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>18513</v>
       </c>
     </row>
     <row r="7" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
         <v>147</v>
       </c>
+      <c r="R7" s="7">
+        <f>28482-Q7-P7-O7</f>
+        <v>28482</v>
+      </c>
       <c r="T7" s="7">
         <v>7724</v>
       </c>
+      <c r="U7" s="7">
+        <v>5446</v>
+      </c>
+      <c r="V7" s="7">
+        <f>25977-U7-T7-S7</f>
+        <v>12807</v>
+      </c>
       <c r="W7" s="7">
         <v>6755</v>
       </c>
       <c r="X7" s="7">
         <v>7176</v>
       </c>
+      <c r="Y7" s="7">
+        <v>4821</v>
+      </c>
+      <c r="Z7" s="7">
+        <f>24257-Y7-X7-W7</f>
+        <v>5505</v>
+      </c>
       <c r="AA7" s="7">
         <v>7767</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>6262</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>5097</v>
+      </c>
+      <c r="AD7" s="7">
+        <f>25052-AC7-AB7-AA7</f>
+        <v>5926</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>8987</v>
       </c>
     </row>
     <row r="8" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
         <v>148</v>
       </c>
+      <c r="R8" s="7">
+        <f>26356-Q8-P8-O8</f>
+        <v>26356</v>
+      </c>
       <c r="T8" s="7">
         <v>7042</v>
       </c>
+      <c r="U8" s="7">
+        <v>6150</v>
+      </c>
+      <c r="V8" s="7">
+        <f>29375-U8-T8-S8</f>
+        <v>16183</v>
+      </c>
       <c r="W8" s="7">
         <v>9535</v>
       </c>
       <c r="X8" s="7">
         <v>8119</v>
       </c>
+      <c r="Y8" s="7">
+        <v>5630</v>
+      </c>
+      <c r="Z8" s="7">
+        <f>29615-Y8-X8-W8</f>
+        <v>6331</v>
+      </c>
       <c r="AA8" s="7">
         <v>10162</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>6723</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>6390</v>
+      </c>
+      <c r="AD8" s="7">
+        <f>30658-AC8-AB8-AA8</f>
+        <v>7383</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>10291</v>
       </c>
     </row>
     <row r="9" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1831,8 +1986,25 @@
       <c r="X10" s="7">
         <v>51334</v>
       </c>
+      <c r="Y10" s="7">
+        <v>39669</v>
+      </c>
+      <c r="Z10" s="7">
+        <f>200583-Y10-X10-W10</f>
+        <v>43805</v>
+      </c>
       <c r="AA10" s="7">
         <v>69702</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>45963</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>39296</v>
+      </c>
+      <c r="AD10" s="7">
+        <f>201183-AC10-AB10-AA10</f>
+        <v>46222</v>
       </c>
       <c r="AE10" s="7">
         <v>69138</v>
@@ -2416,8 +2588,25 @@
       <c r="X14" s="7">
         <v>7168</v>
       </c>
+      <c r="Y14" s="7">
+        <v>6840</v>
+      </c>
+      <c r="Z14" s="7">
+        <f>29357-Y14-X14-W14</f>
+        <v>7614</v>
+      </c>
       <c r="AA14" s="7">
         <v>7780</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>7451</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>7009</v>
+      </c>
+      <c r="AD14" s="7">
+        <f>29984-AC14-AB14-AA14</f>
+        <v>7744</v>
       </c>
       <c r="AE14" s="7">
         <v>8987</v>
@@ -2625,8 +2814,25 @@
       <c r="X15" s="7">
         <v>6670</v>
       </c>
+      <c r="Y15" s="7">
+        <v>5791</v>
+      </c>
+      <c r="Z15" s="7">
+        <f>28300-Y15-X15-W15</f>
+        <v>6443</v>
+      </c>
       <c r="AA15" s="7">
         <v>7023</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>5559</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>7162</v>
+      </c>
+      <c r="AD15" s="7">
+        <f>26694-AC15-AB15-AA15</f>
+        <v>6950</v>
       </c>
       <c r="AE15" s="7">
         <v>8088</v>
@@ -2833,8 +3039,25 @@
       <c r="X16" s="7">
         <v>8757</v>
       </c>
+      <c r="Y16" s="7">
+        <v>8284</v>
+      </c>
+      <c r="Z16" s="7">
+        <f>39845-Y16-X16-W16</f>
+        <v>9322</v>
+      </c>
       <c r="AA16" s="7">
         <v>11953</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>7913</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>8097</v>
+      </c>
+      <c r="AD16" s="7">
+        <f>37005-AC16-AB16-AA16</f>
+        <v>9042</v>
       </c>
       <c r="AE16" s="7">
         <v>11747</v>
@@ -9770,39 +9993,39 @@
         <v>128</v>
       </c>
       <c r="W48" s="2">
-        <f>W49-W61</f>
+        <f t="shared" ref="W48:AE48" si="280">W49-W61</f>
         <v>54340</v>
       </c>
       <c r="X48" s="2">
-        <f>X49-X61</f>
+        <f t="shared" si="280"/>
         <v>56718</v>
       </c>
       <c r="Y48" s="2">
-        <f>Y49-Y61</f>
-        <v>0</v>
+        <f t="shared" si="280"/>
+        <v>57263</v>
       </c>
       <c r="Z48" s="2">
-        <f>Z49-Z61</f>
-        <v>0</v>
+        <f t="shared" si="280"/>
+        <v>51011</v>
       </c>
       <c r="AA48" s="2">
-        <f>AA49-AA61</f>
+        <f t="shared" si="280"/>
         <v>64535</v>
       </c>
       <c r="AB48" s="2">
-        <f>AB49-AB61</f>
+        <f t="shared" si="280"/>
         <v>57747</v>
       </c>
       <c r="AC48" s="2">
-        <f>AC49-AC61</f>
+        <f t="shared" si="280"/>
         <v>51737</v>
       </c>
       <c r="AD48" s="2">
-        <f>AD49-AD61</f>
+        <f t="shared" si="280"/>
         <v>50021</v>
       </c>
       <c r="AE48" s="2">
-        <f>AE49-AE61</f>
+        <f t="shared" si="280"/>
         <v>44569</v>
       </c>
     </row>
@@ -9818,6 +10041,14 @@
         <f>24687+31185+110461</f>
         <v>166333</v>
       </c>
+      <c r="Y49" s="2">
+        <f>28408+34074+104061</f>
+        <v>166543</v>
+      </c>
+      <c r="Z49" s="2">
+        <f>29965+31590+100544</f>
+        <v>162099</v>
+      </c>
       <c r="AA49" s="2">
         <f>40760+32340+99475</f>
         <v>172575</v>
@@ -9849,6 +10080,12 @@
       <c r="X50" s="2">
         <v>17936</v>
       </c>
+      <c r="Y50" s="2">
+        <v>19549</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>29508</v>
+      </c>
       <c r="AA50" s="2">
         <v>23194</v>
       </c>
@@ -9875,6 +10112,12 @@
       <c r="X51" s="2">
         <v>7482</v>
       </c>
+      <c r="Y51" s="2">
+        <v>7351</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>31477</v>
+      </c>
       <c r="AA51" s="2">
         <v>26908</v>
       </c>
@@ -9901,6 +10144,12 @@
       <c r="X52" s="2">
         <v>17963</v>
       </c>
+      <c r="Y52" s="2">
+        <v>19637</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>6331</v>
+      </c>
       <c r="AA52" s="2">
         <v>6511</v>
       </c>
@@ -9927,6 +10176,12 @@
       <c r="X53" s="2">
         <v>13660</v>
       </c>
+      <c r="Y53" s="2">
+        <v>13640</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>14695</v>
+      </c>
       <c r="AA53" s="2">
         <v>13979</v>
       </c>
@@ -9953,6 +10208,12 @@
       <c r="X54" s="2">
         <v>43398</v>
       </c>
+      <c r="Y54" s="2">
+        <v>43550</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>43715</v>
+      </c>
       <c r="AA54" s="2">
         <v>43666</v>
       </c>
@@ -9979,6 +10240,12 @@
       <c r="X55" s="2">
         <v>65388</v>
       </c>
+      <c r="Y55" s="2">
+        <v>64768</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>64758</v>
+      </c>
       <c r="AA55" s="2">
         <v>66681</v>
       </c>
@@ -10000,39 +10267,39 @@
         <v>121</v>
       </c>
       <c r="W56" s="2">
-        <f>SUM(W49:W55)</f>
+        <f t="shared" ref="W56:AE56" si="281">SUM(W49:W55)</f>
         <v>346747</v>
       </c>
       <c r="X56" s="2">
-        <f>SUM(X49:X55)</f>
+        <f t="shared" si="281"/>
         <v>332160</v>
       </c>
       <c r="Y56" s="2">
-        <f>SUM(Y49:Y55)</f>
-        <v>0</v>
+        <f t="shared" si="281"/>
+        <v>335038</v>
       </c>
       <c r="Z56" s="2">
-        <f>SUM(Z49:Z55)</f>
-        <v>0</v>
+        <f t="shared" si="281"/>
+        <v>352583</v>
       </c>
       <c r="AA56" s="2">
-        <f>SUM(AA49:AA55)</f>
+        <f t="shared" si="281"/>
         <v>353514</v>
       </c>
       <c r="AB56" s="2">
-        <f>SUM(AB49:AB55)</f>
+        <f t="shared" si="281"/>
         <v>337411</v>
       </c>
       <c r="AC56" s="2">
-        <f>SUM(AC49:AC55)</f>
+        <f t="shared" si="281"/>
         <v>331612</v>
       </c>
       <c r="AD56" s="2">
-        <f>SUM(AD49:AD55)</f>
+        <f t="shared" si="281"/>
         <v>364980</v>
       </c>
       <c r="AE56" s="2">
-        <f>SUM(AE49:AE55)</f>
+        <f t="shared" si="281"/>
         <v>344085</v>
       </c>
     </row>
@@ -10046,6 +10313,12 @@
       <c r="X58" s="2">
         <v>42945</v>
       </c>
+      <c r="Y58" s="2">
+        <v>46699</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>62611</v>
+      </c>
       <c r="AA58" s="2">
         <v>58146</v>
       </c>
@@ -10072,6 +10345,12 @@
       <c r="X59" s="2">
         <v>56425</v>
       </c>
+      <c r="Y59" s="2">
+        <v>58897</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>58829</v>
+      </c>
       <c r="AA59" s="2">
         <v>54611</v>
       </c>
@@ -10098,6 +10377,12 @@
       <c r="X60" s="2">
         <v>8131</v>
       </c>
+      <c r="Y60" s="2">
+        <v>8158</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>8061</v>
+      </c>
       <c r="AA60" s="2">
         <v>8264</v>
       </c>
@@ -10126,6 +10411,14 @@
         <f>1996+10578+97041</f>
         <v>109615</v>
       </c>
+      <c r="Y61" s="2">
+        <f>3993+98071+7216</f>
+        <v>109280</v>
+      </c>
+      <c r="Z61" s="2">
+        <f>5985+9822+95281</f>
+        <v>111088</v>
+      </c>
       <c r="AA61" s="2">
         <f>1998+10954+95088</f>
         <v>108040</v>
@@ -10134,11 +10427,11 @@
         <f>1997+10762+91831</f>
         <v>104590</v>
       </c>
-      <c r="AC61">
+      <c r="AC61" s="2">
         <f>2994+12114+86196</f>
         <v>101304</v>
       </c>
-      <c r="AD61">
+      <c r="AD61" s="2">
         <f>9967+10912+85750</f>
         <v>106629</v>
       </c>
@@ -10157,6 +10450,12 @@
       <c r="X62" s="2">
         <v>52886</v>
       </c>
+      <c r="Y62" s="2">
+        <v>51730</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>49848</v>
+      </c>
       <c r="AA62" s="2">
         <v>50353</v>
       </c>
@@ -10183,6 +10482,12 @@
       <c r="X63" s="2">
         <v>62158</v>
       </c>
+      <c r="Y63" s="2">
+        <v>60274</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>62146</v>
+      </c>
       <c r="AA63" s="2">
         <v>74100</v>
       </c>
@@ -10204,39 +10509,39 @@
         <v>125</v>
       </c>
       <c r="W64" s="2">
-        <f>SUM(W58:W63)</f>
+        <f t="shared" ref="W64:AE64" si="282">SUM(W58:W63)</f>
         <v>346747</v>
       </c>
       <c r="X64" s="2">
-        <f>SUM(X58:X63)</f>
+        <f t="shared" si="282"/>
         <v>332160</v>
       </c>
       <c r="Y64" s="2">
-        <f>SUM(Y58:Y63)</f>
-        <v>0</v>
+        <f t="shared" si="282"/>
+        <v>335038</v>
       </c>
       <c r="Z64" s="2">
-        <f>SUM(Z58:Z63)</f>
-        <v>0</v>
+        <f t="shared" si="282"/>
+        <v>352583</v>
       </c>
       <c r="AA64" s="2">
-        <f>SUM(AA58:AA63)</f>
+        <f t="shared" si="282"/>
         <v>353514</v>
       </c>
       <c r="AB64" s="2">
-        <f>SUM(AB58:AB63)</f>
+        <f t="shared" si="282"/>
         <v>337411</v>
       </c>
       <c r="AC64" s="2">
-        <f>SUM(AC58:AC63)</f>
+        <f t="shared" si="282"/>
         <v>331612</v>
       </c>
       <c r="AD64" s="2">
-        <f>SUM(AD58:AD63)</f>
+        <f t="shared" si="282"/>
         <v>364980</v>
       </c>
       <c r="AE64" s="2">
-        <f>SUM(AE58:AE63)</f>
+        <f t="shared" si="282"/>
         <v>344085</v>
       </c>
     </row>
@@ -10245,67 +10550,75 @@
         <v>129</v>
       </c>
       <c r="W66" s="2">
-        <f>W32</f>
+        <f t="shared" ref="W66:AE66" si="283">W32</f>
         <v>29998</v>
       </c>
       <c r="X66" s="2">
-        <f>X32</f>
+        <f t="shared" si="283"/>
         <v>24160</v>
       </c>
+      <c r="Y66" s="2">
+        <f t="shared" si="283"/>
+        <v>19881</v>
+      </c>
+      <c r="Z66" s="2">
+        <f t="shared" si="283"/>
+        <v>22956</v>
+      </c>
       <c r="AA66" s="2">
-        <f>AA32</f>
+        <f t="shared" si="283"/>
         <v>33916</v>
       </c>
       <c r="AB66" s="2">
-        <f>AB32</f>
+        <f t="shared" si="283"/>
         <v>23636</v>
       </c>
       <c r="AC66" s="2">
-        <f>AC32</f>
+        <f t="shared" si="283"/>
         <v>21448</v>
       </c>
       <c r="AD66" s="2">
-        <f>AD32</f>
+        <f t="shared" si="283"/>
         <v>14736</v>
       </c>
       <c r="AE66" s="2">
-        <f>AE32</f>
+        <f t="shared" si="283"/>
         <v>36330</v>
       </c>
       <c r="BD66" s="2">
-        <f t="shared" ref="BD66:BL66" si="280">BD32</f>
+        <f t="shared" ref="BD66:BL66" si="284">BD32</f>
         <v>45687</v>
       </c>
       <c r="BE66" s="2">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>48351</v>
       </c>
       <c r="BF66" s="2">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>59531</v>
       </c>
       <c r="BG66" s="2">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>55256</v>
       </c>
       <c r="BH66" s="2">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>57411</v>
       </c>
       <c r="BI66" s="2">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>94680</v>
       </c>
       <c r="BJ66" s="2">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>99803</v>
       </c>
       <c r="BK66" s="2">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>96995</v>
       </c>
       <c r="BL66" s="2">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>93736</v>
       </c>
     </row>
@@ -10320,6 +10633,14 @@
         <f>54158-W67</f>
         <v>24160</v>
       </c>
+      <c r="Y67" s="2">
+        <f>74039-X67-W67</f>
+        <v>19881</v>
+      </c>
+      <c r="Z67" s="2">
+        <f>96995-Y67-X67-W67</f>
+        <v>22956</v>
+      </c>
       <c r="AA67" s="2">
         <v>33916</v>
       </c>
@@ -10350,6 +10671,14 @@
         <f>5814-W68</f>
         <v>2898</v>
       </c>
+      <c r="Y68" s="2">
+        <f>8866-X68-W68</f>
+        <v>3052</v>
+      </c>
+      <c r="Z68" s="2">
+        <f>11519-Y68-X68-W68</f>
+        <v>2653</v>
+      </c>
       <c r="AA68" s="2">
         <v>2848</v>
       </c>
@@ -10380,6 +10709,14 @@
         <f>5591-W69</f>
         <v>2686</v>
       </c>
+      <c r="Y69" s="2">
+        <f>8208-X69-W69</f>
+        <v>2617</v>
+      </c>
+      <c r="Z69" s="2">
+        <f>10833-Y69-X69-W69</f>
+        <v>2625</v>
+      </c>
       <c r="AA69" s="2">
         <v>2997</v>
       </c>
@@ -10410,6 +10747,14 @@
         <f>-1732-W70</f>
         <v>-1415</v>
       </c>
+      <c r="Y70" s="2">
+        <f>-1651-X70-W70</f>
+        <v>81</v>
+      </c>
+      <c r="Z70" s="2">
+        <f>-2227-Y70-X70-W70</f>
+        <v>-576</v>
+      </c>
       <c r="AA70" s="2">
         <v>-989</v>
       </c>
@@ -10441,6 +10786,14 @@
         <f>9596-2548+14785-4092-20764+1757-W71</f>
         <v>231</v>
       </c>
+      <c r="Y71" s="2">
+        <f>7609-2570+13111-4863-16790+2986-X71-W71</f>
+        <v>749</v>
+      </c>
+      <c r="Z71" s="2">
+        <f>-1688+1271-1618-5684-1889+3031-Y71-X71-W71</f>
+        <v>-6060</v>
+      </c>
       <c r="AA71" s="2">
         <f>6555+4569-137-1457-4542-3865</f>
         <v>1123</v>
@@ -10467,37 +10820,39 @@
         <v>131</v>
       </c>
       <c r="W72" s="2">
-        <f>SUM(W67:W71)</f>
+        <f t="shared" ref="W72:AE72" si="285">SUM(W67:W71)</f>
         <v>34005</v>
       </c>
       <c r="X72" s="2">
-        <f>SUM(X67:X71)</f>
+        <f t="shared" si="285"/>
         <v>28560</v>
       </c>
       <c r="Y72" s="2">
+        <f t="shared" si="285"/>
         <v>26380</v>
       </c>
       <c r="Z72" s="2">
+        <f t="shared" si="285"/>
         <v>21598</v>
       </c>
       <c r="AA72" s="2">
-        <f>SUM(AA67:AA71)</f>
+        <f t="shared" si="285"/>
         <v>39895</v>
       </c>
       <c r="AB72" s="2">
-        <f>SUM(AB67:AB71)</f>
+        <f t="shared" si="285"/>
         <v>22690</v>
       </c>
       <c r="AC72" s="2">
-        <f>SUM(AC67:AC71)</f>
+        <f t="shared" si="285"/>
         <v>28858</v>
       </c>
       <c r="AD72" s="2">
-        <f>SUM(AD67:AD71)</f>
+        <f t="shared" si="285"/>
         <v>26811</v>
       </c>
       <c r="AE72" s="2">
-        <f>SUM(AE67:AE71)</f>
+        <f t="shared" si="285"/>
         <v>29935</v>
       </c>
       <c r="BD72" s="2">
@@ -10540,6 +10895,14 @@
         <f>-11197+17124+1897-W74</f>
         <v>5341</v>
       </c>
+      <c r="Y74" s="2">
+        <f>-20956+27857+3959-X74-W74</f>
+        <v>3036</v>
+      </c>
+      <c r="Z74" s="2">
+        <f>-29513+39686+5828-Y74-X74-W74</f>
+        <v>5141</v>
+      </c>
       <c r="AA74" s="2">
         <f>-9780+13046+1337</f>
         <v>4603</v>
@@ -10573,9 +10936,11 @@
         <v>-2916</v>
       </c>
       <c r="Y75" s="2">
+        <f>-8796-X75-W75</f>
         <v>-2093</v>
       </c>
       <c r="Z75" s="2">
+        <f>-10959-Y75-X75-W75</f>
         <v>-2163</v>
       </c>
       <c r="AA75" s="2">
@@ -10635,6 +11000,14 @@
         <f>-247-W76</f>
         <v>-106</v>
       </c>
+      <c r="Y76" s="2">
+        <f>-753-X76-W76</f>
+        <v>-506</v>
+      </c>
+      <c r="Z76" s="2">
+        <f>-1337-Y76-X76-W76</f>
+        <v>-584</v>
+      </c>
       <c r="AA76" s="2">
         <v>-284</v>
       </c>
@@ -10659,31 +11032,39 @@
         <v>138</v>
       </c>
       <c r="W77" s="2">
-        <f>SUM(W74:W76)</f>
+        <f t="shared" ref="W77:AE77" si="286">SUM(W74:W76)</f>
         <v>-1445</v>
       </c>
       <c r="X77" s="2">
-        <f>SUM(X74:X76)</f>
+        <f t="shared" si="286"/>
         <v>2319</v>
       </c>
+      <c r="Y77" s="2">
+        <f t="shared" si="286"/>
+        <v>437</v>
+      </c>
+      <c r="Z77" s="2">
+        <f t="shared" si="286"/>
+        <v>2394</v>
+      </c>
       <c r="AA77" s="2">
-        <f>SUM(AA74:AA76)</f>
+        <f t="shared" si="286"/>
         <v>1927</v>
       </c>
       <c r="AB77" s="2">
-        <f>SUM(AB74:AB76)</f>
+        <f t="shared" si="286"/>
         <v>-310</v>
       </c>
       <c r="AC77" s="2">
-        <f>SUM(AC74:AC76)</f>
+        <f t="shared" si="286"/>
         <v>-127</v>
       </c>
       <c r="AD77" s="2">
-        <f>SUM(AD74:AD76)</f>
+        <f t="shared" si="286"/>
         <v>1445</v>
       </c>
       <c r="AE77" s="2">
-        <f>SUM(AE74:AE76)</f>
+        <f t="shared" si="286"/>
         <v>9792</v>
       </c>
     </row>
@@ -10698,6 +11079,14 @@
         <f>-2734-W79</f>
         <v>-418</v>
       </c>
+      <c r="Y79" s="2">
+        <f>-5119-X79-W79</f>
+        <v>-2385</v>
+      </c>
+      <c r="Z79" s="2">
+        <f>-5431-Y79-X79-W79</f>
+        <v>-312</v>
+      </c>
       <c r="AA79" s="2">
         <v>-2591</v>
       </c>
@@ -10728,6 +11117,14 @@
         <f>-7418-W80</f>
         <v>-3650</v>
       </c>
+      <c r="Y80" s="2">
+        <f>-11267-X80-W80</f>
+        <v>-3849</v>
+      </c>
+      <c r="Z80" s="2">
+        <f>-15025-Y80-X80-W80</f>
+        <v>-3758</v>
+      </c>
       <c r="AA80" s="2">
         <v>-3825</v>
       </c>
@@ -10758,6 +11155,14 @@
         <f>-39069-W81</f>
         <v>-19594</v>
       </c>
+      <c r="Y81" s="2">
+        <f>-56547-X81-W81</f>
+        <v>-17478</v>
+      </c>
+      <c r="Z81" s="2">
+        <f>-77550-Y81-X81-W81</f>
+        <v>-21003</v>
+      </c>
       <c r="AA81" s="2">
         <v>-20139</v>
       </c>
@@ -10789,6 +11194,14 @@
         <f>-3651-7960-W82</f>
         <v>-1996</v>
       </c>
+      <c r="Y82" s="2">
+        <f>5228-11151-5971-X82-W82</f>
+        <v>-283</v>
+      </c>
+      <c r="Z82" s="2">
+        <f>5228-11151-3978-Y82-X82-W82</f>
+        <v>1993</v>
+      </c>
       <c r="AA82" s="2">
         <v>-3984</v>
       </c>
@@ -10820,6 +11233,14 @@
         <f>-455-W83</f>
         <v>-66</v>
       </c>
+      <c r="Y83" s="2">
+        <f>-508-X83-W83</f>
+        <v>-53</v>
+      </c>
+      <c r="Z83" s="2">
+        <f>-581-Y83-X83-W83</f>
+        <v>-73</v>
+      </c>
       <c r="AA83" s="2">
         <v>-46</v>
       </c>
@@ -10844,31 +11265,39 @@
         <v>142</v>
       </c>
       <c r="W84" s="2">
-        <f>SUM(W79:W83)</f>
+        <f t="shared" ref="W84:AE84" si="287">SUM(W79:W83)</f>
         <v>-35563</v>
       </c>
       <c r="X84" s="2">
-        <f>SUM(X79:X83)</f>
+        <f t="shared" si="287"/>
         <v>-25724</v>
       </c>
+      <c r="Y84" s="2">
+        <f t="shared" si="287"/>
+        <v>-24048</v>
+      </c>
+      <c r="Z84" s="2">
+        <f t="shared" si="287"/>
+        <v>-23153</v>
+      </c>
       <c r="AA84" s="2">
-        <f>SUM(AA79:AA83)</f>
+        <f t="shared" si="287"/>
         <v>-30585</v>
       </c>
       <c r="AB84" s="2">
-        <f>SUM(AB79:AB83)</f>
+        <f t="shared" si="287"/>
         <v>-30433</v>
       </c>
       <c r="AC84" s="2">
-        <f>SUM(AC79:AC83)</f>
+        <f t="shared" si="287"/>
         <v>-36017</v>
       </c>
       <c r="AD84" s="2">
-        <f>SUM(AD79:AD83)</f>
+        <f t="shared" si="287"/>
         <v>-24948</v>
       </c>
       <c r="AE84" s="2">
-        <f>SUM(AE79:AE83)</f>
+        <f t="shared" si="287"/>
         <v>-39371</v>
       </c>
     </row>
@@ -10884,8 +11313,16 @@
         <v>-3003</v>
       </c>
       <c r="X86" s="2">
-        <f>X84+X77+X72</f>
+        <f t="shared" ref="X86:Z86" si="288">X84+X77+X72</f>
         <v>5155</v>
+      </c>
+      <c r="Y86" s="2">
+        <f t="shared" si="288"/>
+        <v>2769</v>
+      </c>
+      <c r="Z86" s="2">
+        <f t="shared" si="288"/>
+        <v>839</v>
       </c>
       <c r="AA86" s="2">
         <f>AA84+AA77+AA72</f>
@@ -10912,6 +11349,22 @@
       <c r="B88" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="W88" s="2">
+        <f t="shared" ref="W88:Z88" si="289">+W72+W75</f>
+        <v>30218</v>
+      </c>
+      <c r="X88" s="2">
+        <f t="shared" si="289"/>
+        <v>25644</v>
+      </c>
+      <c r="Y88" s="2">
+        <f t="shared" si="289"/>
+        <v>24287</v>
+      </c>
+      <c r="Z88" s="2">
+        <f t="shared" si="289"/>
+        <v>19435</v>
+      </c>
       <c r="AA88" s="2">
         <f>+AA72+AA75</f>
         <v>37503</v>
@@ -10933,45 +11386,61 @@
         <v>26995</v>
       </c>
       <c r="BD88" s="2">
-        <f t="shared" ref="BD88:BL88" si="281">+BD75+BD72</f>
+        <f t="shared" ref="BD88:BL88" si="290">+BD75+BD72</f>
         <v>53497</v>
       </c>
       <c r="BE88" s="2">
-        <f t="shared" si="281"/>
+        <f t="shared" si="290"/>
         <v>51774</v>
       </c>
       <c r="BF88" s="2">
-        <f t="shared" si="281"/>
+        <f t="shared" si="290"/>
         <v>64121</v>
       </c>
       <c r="BG88" s="2">
-        <f t="shared" si="281"/>
+        <f t="shared" si="290"/>
         <v>58896</v>
       </c>
       <c r="BH88" s="2">
-        <f t="shared" si="281"/>
+        <f t="shared" si="290"/>
         <v>73365</v>
       </c>
       <c r="BI88" s="2">
-        <f t="shared" si="281"/>
+        <f t="shared" si="290"/>
         <v>92953</v>
       </c>
       <c r="BJ88" s="2">
-        <f t="shared" si="281"/>
+        <f t="shared" si="290"/>
         <v>111443</v>
       </c>
       <c r="BK88" s="2">
-        <f t="shared" si="281"/>
+        <f t="shared" si="290"/>
         <v>99584</v>
       </c>
       <c r="BL88" s="2">
-        <f t="shared" si="281"/>
+        <f t="shared" si="290"/>
         <v>108807</v>
       </c>
     </row>
     <row r="89" spans="2:64" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>162</v>
+      </c>
+      <c r="Z89" s="2">
+        <f t="shared" ref="Z89:AC89" si="291">SUM(W88:Z88)</f>
+        <v>99584</v>
+      </c>
+      <c r="AA89" s="2">
+        <f t="shared" si="291"/>
+        <v>106869</v>
+      </c>
+      <c r="AB89" s="2">
+        <f t="shared" si="291"/>
+        <v>101919</v>
+      </c>
+      <c r="AC89" s="2">
+        <f t="shared" si="291"/>
+        <v>104339</v>
       </c>
       <c r="AD89" s="2">
         <f>SUM(AA88:AD88)</f>

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967C1AC7-DC35-4D5A-B9AA-B049CCB9747C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60245A70-3B95-4074-97AB-FE4BEC7924EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25425" yWindow="2895" windowWidth="28905" windowHeight="17280" activeTab="1" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
+    <workbookView xWindow="-32535" yWindow="1245" windowWidth="25965" windowHeight="16125" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1144,16 +1144,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDB42F4-D3F6-42E5-97CD-AE20E0C5C6C6}">
   <dimension ref="N2:P10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N2" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N3" t="s">
         <v>1</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N4" t="s">
         <v>2</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>3075653</v>
       </c>
     </row>
-    <row r="5" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N5" t="s">
         <v>3</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N6" t="s">
         <v>4</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N7" t="s">
         <v>5</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>3031084</v>
       </c>
     </row>
-    <row r="10" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N10" t="s">
         <v>157</v>
       </c>
@@ -1230,31 +1230,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EB6088-6F7F-4776-A4C2-8340505BB8E8}">
   <dimension ref="A1:GJ90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
-    <col min="63" max="63" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.42578125" customWidth="1"/>
-    <col min="83" max="83" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" customWidth="1"/>
+    <col min="21" max="21" width="9.1796875" customWidth="1"/>
+    <col min="63" max="63" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.453125" customWidth="1"/>
+    <col min="83" max="83" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:80" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:80" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="C2" s="11">
         <v>43099</v>
@@ -1459,7 +1459,7 @@
         <v>51409</v>
       </c>
     </row>
-    <row r="3" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>88</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>144</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>52648</v>
       </c>
     </row>
-    <row r="5" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>145</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>33861</v>
       </c>
     </row>
-    <row r="6" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>146</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>18513</v>
       </c>
     </row>
-    <row r="7" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>147</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>8987</v>
       </c>
     </row>
-    <row r="8" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>148</v>
       </c>
@@ -1926,8 +1926,8 @@
         <v>10291</v>
       </c>
     </row>
-    <row r="9" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>437770.16326981765</v>
       </c>
     </row>
-    <row r="11" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>84</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>241785.14150532632</v>
       </c>
     </row>
-    <row r="12" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:80" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>85</v>
       </c>
@@ -2526,10 +2526,10 @@
         <v>1810.5751269259611</v>
       </c>
     </row>
-    <row r="13" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>75417.751177415732</v>
       </c>
     </row>
-    <row r="15" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>49997.361373441694</v>
       </c>
     </row>
-    <row r="16" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
@@ -3218,10 +3218,10 @@
         <v>69309.67099813481</v>
       </c>
     </row>
-    <row r="17" spans="2:192" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:192" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>632494.94681880996</v>
       </c>
     </row>
-    <row r="19" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>264351.99044591124</v>
       </c>
     </row>
-    <row r="20" spans="2:192" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:192" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>7</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>896846.93726472114</v>
       </c>
     </row>
-    <row r="21" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>404796.76596403838</v>
       </c>
     </row>
-    <row r="22" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>71375.037420396038</v>
       </c>
     </row>
-    <row r="23" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>476171.80338443443</v>
       </c>
     </row>
-    <row r="24" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>420675.13388028671</v>
       </c>
     </row>
-    <row r="25" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>50339.640994528985</v>
       </c>
     </row>
-    <row r="26" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>41878.023941161075</v>
       </c>
     </row>
-    <row r="27" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>92217.66493569006</v>
       </c>
     </row>
-    <row r="28" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>328457.46894459665</v>
       </c>
     </row>
-    <row r="29" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>328457.46894459665</v>
       </c>
     </row>
-    <row r="31" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>65691.493788919339</v>
       </c>
     </row>
-    <row r="32" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:192" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>85253.246039463469</v>
       </c>
     </row>
-    <row r="33" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:83" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>36</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>17.343298561215963</v>
       </c>
     </row>
-    <row r="34" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>15150.865</v>
       </c>
     </row>
-    <row r="36" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:83" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>41</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:83" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>42</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="38" spans="2:83" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:83" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>72</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>2400459.1071151011</v>
       </c>
     </row>
-    <row r="39" spans="2:83" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:83" ht="13" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>31</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>158.43568788298469</v>
       </c>
     </row>
-    <row r="40" spans="2:83" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:83" ht="13" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>73</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>-0.21952863111830201</v>
       </c>
     </row>
-    <row r="41" spans="2:83" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>74</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="42" spans="2:83" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>0.3662358149388944</v>
       </c>
     </row>
-    <row r="43" spans="2:83" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>70</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="2:83" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>160</v>
       </c>
@@ -9967,7 +9967,7 @@
       <c r="CA44" s="5"/>
       <c r="CB44" s="5"/>
     </row>
-    <row r="46" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>109</v>
       </c>
@@ -9987,8 +9987,8 @@
         <v>17787</v>
       </c>
     </row>
-    <row r="47" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:83" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>128</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>44569</v>
       </c>
     </row>
-    <row r="49" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>141368</v>
       </c>
     </row>
-    <row r="50" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>115</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>29639</v>
       </c>
     </row>
-    <row r="51" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>116</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>29667</v>
       </c>
     </row>
-    <row r="52" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>117</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>6911</v>
       </c>
     </row>
-    <row r="53" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>118</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>13248</v>
       </c>
     </row>
-    <row r="54" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>119</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>46069</v>
       </c>
     </row>
-    <row r="55" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>120</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>77183</v>
       </c>
     </row>
-    <row r="56" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>121</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>344085</v>
       </c>
     </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>122</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>61910</v>
       </c>
     </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>123</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>61151</v>
       </c>
     </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>124</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>8461</v>
       </c>
     </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>4</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>96799</v>
       </c>
     </row>
-    <row r="62" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>127</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>49006</v>
       </c>
     </row>
-    <row r="63" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>126</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>66758</v>
       </c>
     </row>
-    <row r="64" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>125</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>344085</v>
       </c>
     </row>
-    <row r="66" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>129</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>93736</v>
       </c>
     </row>
-    <row r="67" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>130</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>36330</v>
       </c>
     </row>
-    <row r="68" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>132</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="69" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>133</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="70" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>134</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>-2009</v>
       </c>
     </row>
-    <row r="71" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>135</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>-10752</v>
       </c>
     </row>
-    <row r="72" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>131</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>118254</v>
       </c>
     </row>
-    <row r="74" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>136</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>13335</v>
       </c>
     </row>
-    <row r="75" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>137</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>-9447</v>
       </c>
     </row>
-    <row r="76" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>134</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>-603</v>
       </c>
     </row>
-    <row r="77" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>138</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>9792</v>
       </c>
     </row>
-    <row r="79" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>139</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>-2921</v>
       </c>
     </row>
-    <row r="80" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>140</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>-3856</v>
       </c>
     </row>
-    <row r="81" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>141</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>-23606</v>
       </c>
     </row>
-    <row r="82" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>4</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>-8953</v>
       </c>
     </row>
-    <row r="83" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>134</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="84" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>142</v>
       </c>
@@ -11301,10 +11301,10 @@
         <v>-39371</v>
       </c>
     </row>
-    <row r="85" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:64" x14ac:dyDescent="0.25">
       <c r="AE85" s="2"/>
     </row>
-    <row r="86" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>143</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="88" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>161</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>108807</v>
       </c>
     </row>
-    <row r="89" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>162</v>
       </c>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="BL89" s="5"/>
     </row>
-    <row r="90" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:64" x14ac:dyDescent="0.25">
       <c r="BL90" s="5"/>
     </row>
   </sheetData>
@@ -11476,14 +11476,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>77</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>79</v>
       </c>

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60245A70-3B95-4074-97AB-FE4BEC7924EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148B7C68-A4F4-4E4F-B1BC-FCDA432C3229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32535" yWindow="1245" windowWidth="25965" windowHeight="16125" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
+    <workbookView xWindow="55520" yWindow="1350" windowWidth="16200" windowHeight="14240" activeTab="1" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -579,9 +579,6 @@
     <t>Kevan</t>
   </si>
   <si>
-    <t>Q424</t>
-  </si>
-  <si>
     <t>EPS y/y</t>
   </si>
   <si>
@@ -589,6 +586,9 @@
   </si>
   <si>
     <t>TTM</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -715,16 +715,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>27704</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>34054</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>27704</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>59120</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>34054</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>14670</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -739,8 +739,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19136825" y="0"/>
-          <a:ext cx="0" cy="17466879"/>
+          <a:off x="20042904" y="114300"/>
+          <a:ext cx="0" cy="17096170"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -789,8 +789,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="39363663" y="0"/>
-          <a:ext cx="0" cy="16047983"/>
+          <a:off x="39837504" y="0"/>
+          <a:ext cx="0" cy="15567792"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDB42F4-D3F6-42E5-97CD-AE20E0C5C6C6}">
   <dimension ref="N2:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1166,10 +1166,10 @@
         <v>1</v>
       </c>
       <c r="O3" s="2">
-        <v>15151</v>
+        <v>15056</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="14:16" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="O4" s="2">
         <f>+O2*O3</f>
-        <v>3075653</v>
+        <v>3056368</v>
       </c>
     </row>
     <row r="5" spans="14:16" x14ac:dyDescent="0.25">
@@ -1186,10 +1186,10 @@
         <v>3</v>
       </c>
       <c r="O5" s="2">
-        <v>141368</v>
+        <v>132922</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="14:16" x14ac:dyDescent="0.25">
@@ -1197,10 +1197,10 @@
         <v>4</v>
       </c>
       <c r="O6" s="2">
-        <v>96799</v>
+        <v>98186</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="14:16" x14ac:dyDescent="0.25">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="O7" s="2">
         <f>+O4-O5+O6</f>
-        <v>3031084</v>
+        <v>3021632</v>
       </c>
     </row>
     <row r="10" spans="14:16" x14ac:dyDescent="0.25">
@@ -1230,11 +1230,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EB6088-6F7F-4776-A4C2-8340505BB8E8}">
   <dimension ref="A1:GJ90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AA40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE9" sqref="AE9"/>
+      <selection pane="bottomRight" activeCell="AF49" sqref="AF49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1690,9 +1690,14 @@
       <c r="B4" s="17" t="s">
         <v>144</v>
       </c>
+      <c r="O4" s="7">
+        <v>46310</v>
+      </c>
       <c r="R4" s="7">
-        <f>153306-Q4-P4-O4</f>
-        <v>153306</v>
+        <v>36820</v>
+      </c>
+      <c r="S4" s="7">
+        <v>51496</v>
       </c>
       <c r="T4" s="7">
         <v>40882</v>
@@ -1701,8 +1706,7 @@
         <v>37472</v>
       </c>
       <c r="V4" s="7">
-        <f>169658-U4-T4-S4</f>
-        <v>91304</v>
+        <v>39808</v>
       </c>
       <c r="W4" s="7">
         <v>49278</v>
@@ -1732,15 +1736,23 @@
       </c>
       <c r="AE4" s="7">
         <v>52648</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>40315</v>
       </c>
     </row>
     <row r="5" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>145</v>
       </c>
+      <c r="O5" s="7">
+        <v>27306</v>
+      </c>
       <c r="R5" s="7">
-        <f>89307-Q5-P5-O5</f>
-        <v>89307</v>
+        <v>20794</v>
+      </c>
+      <c r="S5" s="7">
+        <v>29749</v>
       </c>
       <c r="T5" s="7">
         <v>23287</v>
@@ -1749,8 +1761,7 @@
         <v>19287</v>
       </c>
       <c r="V5" s="7">
-        <f>95118-U5-T5-S5</f>
-        <v>52544</v>
+        <v>22795</v>
       </c>
       <c r="W5" s="7">
         <v>27681</v>
@@ -1780,15 +1791,23 @@
       </c>
       <c r="AE5" s="7">
         <v>33861</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>24454</v>
       </c>
     </row>
     <row r="6" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>146</v>
       </c>
+      <c r="O6" s="7">
+        <v>21313</v>
+      </c>
       <c r="R6" s="7">
-        <f>68366-Q6-P6-O6</f>
-        <v>68366</v>
+        <v>14563</v>
+      </c>
+      <c r="S6" s="7">
+        <v>25783</v>
       </c>
       <c r="T6" s="7">
         <v>18343</v>
@@ -1797,8 +1816,7 @@
         <v>14604</v>
       </c>
       <c r="V6" s="7">
-        <f>74200-U6-T6-S6</f>
-        <v>41253</v>
+        <v>15470</v>
       </c>
       <c r="W6" s="7">
         <v>23905</v>
@@ -1828,15 +1846,23 @@
       </c>
       <c r="AE6" s="7">
         <v>18513</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>16002</v>
       </c>
     </row>
     <row r="7" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>147</v>
       </c>
+      <c r="O7" s="7">
+        <v>8285</v>
+      </c>
       <c r="R7" s="7">
-        <f>28482-Q7-P7-O7</f>
-        <v>28482</v>
+        <v>5991</v>
+      </c>
+      <c r="S7" s="7">
+        <v>7107</v>
       </c>
       <c r="T7" s="7">
         <v>7724</v>
@@ -1845,8 +1871,7 @@
         <v>5446</v>
       </c>
       <c r="V7" s="7">
-        <f>25977-U7-T7-S7</f>
-        <v>12807</v>
+        <v>5700</v>
       </c>
       <c r="W7" s="7">
         <v>6755</v>
@@ -1876,15 +1901,23 @@
       </c>
       <c r="AE7" s="7">
         <v>8987</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>7298</v>
       </c>
     </row>
     <row r="8" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>148</v>
       </c>
+      <c r="O8" s="7">
+        <v>8225</v>
+      </c>
       <c r="R8" s="7">
-        <f>26356-Q8-P8-O8</f>
-        <v>26356</v>
+        <v>5192</v>
+      </c>
+      <c r="S8" s="7">
+        <v>9810</v>
       </c>
       <c r="T8" s="7">
         <v>7042</v>
@@ -1893,8 +1926,7 @@
         <v>6150</v>
       </c>
       <c r="V8" s="7">
-        <f>29375-U8-T8-S8</f>
-        <v>16183</v>
+        <v>6373</v>
       </c>
       <c r="W8" s="7">
         <v>9535</v>
@@ -1924,6 +1956,9 @@
       </c>
       <c r="AE8" s="7">
         <v>10291</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>7290</v>
       </c>
     </row>
     <row r="9" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2009,6 +2044,9 @@
       <c r="AE10" s="7">
         <v>69138</v>
       </c>
+      <c r="AF10" s="7">
+        <v>46841</v>
+      </c>
       <c r="AO10" s="7">
         <v>0</v>
       </c>
@@ -2085,11 +2123,11 @@
         <v>201183</v>
       </c>
       <c r="BM10" s="7">
-        <f t="shared" ref="BM10:CB10" si="1">+BM11*BM12/1000</f>
+        <f>+BM11*BM12/1000</f>
         <v>228116.70026193751</v>
       </c>
       <c r="BN10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="BM10:CB10" si="1">+BN11*BN12/1000</f>
         <v>241037.23016477365</v>
       </c>
       <c r="BO10" s="7">
@@ -2611,6 +2649,9 @@
       <c r="AE14" s="7">
         <v>8987</v>
       </c>
+      <c r="AF14" s="7">
+        <v>7949</v>
+      </c>
       <c r="AN14" s="7">
         <f>2747+948+2381</f>
         <v>6076</v>
@@ -2837,6 +2878,9 @@
       <c r="AE15" s="7">
         <v>8088</v>
       </c>
+      <c r="AF15" s="7">
+        <v>6402</v>
+      </c>
       <c r="AN15" s="7">
         <v>0</v>
       </c>
@@ -3061,6 +3105,9 @@
       </c>
       <c r="AE16" s="7">
         <v>11747</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>7522</v>
       </c>
       <c r="AN16" s="7">
         <v>809</v>
@@ -3317,8 +3364,7 @@
         <v>97960</v>
       </c>
       <c r="AF18" s="2">
-        <f>+AB18*1.01</f>
-        <v>67554.86</v>
+        <v>68714</v>
       </c>
       <c r="AG18" s="2">
         <f t="shared" ref="AG18:AH18" si="18">+AC18*1.01</f>
@@ -3574,8 +3620,7 @@
         <v>26340</v>
       </c>
       <c r="AF19" s="2">
-        <f>+AB19*1.11</f>
-        <v>26492.370000000003</v>
+        <v>26645</v>
       </c>
       <c r="AG19" s="2">
         <f t="shared" ref="AG19:AH19" si="22">+AC19*1.05</f>
@@ -3846,7 +3891,7 @@
       </c>
       <c r="AF20" s="8">
         <f t="shared" si="32"/>
-        <v>94047.23000000001</v>
+        <v>95359</v>
       </c>
       <c r="AG20" s="8">
         <f t="shared" ref="AG20:AH20" si="33">+AG19+AG18</f>
@@ -4094,6 +4139,9 @@
       <c r="AE21" s="2">
         <v>59447</v>
       </c>
+      <c r="AF21" s="2">
+        <v>44030</v>
+      </c>
       <c r="BF21" s="7">
         <v>148164</v>
       </c>
@@ -4252,6 +4300,9 @@
       <c r="AE22" s="2">
         <v>6578</v>
       </c>
+      <c r="AF22" s="2">
+        <v>6462</v>
+      </c>
       <c r="BF22" s="7">
         <v>15592</v>
       </c>
@@ -4409,7 +4460,7 @@
         <v>52051</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" ref="W23:AE23" si="47">+W21+W22</f>
+        <f t="shared" ref="W23:AF23" si="47">+W21+W22</f>
         <v>66822</v>
       </c>
       <c r="X23" s="2">
@@ -4443,6 +4494,10 @@
       <c r="AE23" s="2">
         <f t="shared" si="47"/>
         <v>66025</v>
+      </c>
+      <c r="AF23" s="2">
+        <f t="shared" si="47"/>
+        <v>50492</v>
       </c>
       <c r="AN23" s="2">
         <v>5817</v>
@@ -4660,7 +4715,7 @@
         <v>38095</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" ref="W24:AE24" si="57">+W20-W23</f>
+        <f t="shared" ref="W24:AF24" si="57">+W20-W23</f>
         <v>50332</v>
       </c>
       <c r="X24" s="2">
@@ -4696,8 +4751,8 @@
         <v>58275</v>
       </c>
       <c r="AF24" s="2">
-        <f>+AF20*0.47</f>
-        <v>44202.198100000001</v>
+        <f t="shared" si="57"/>
+        <v>44867</v>
       </c>
       <c r="AG24" s="2">
         <f>+AG20*0.47</f>
@@ -4953,8 +5008,7 @@
         <v>8268</v>
       </c>
       <c r="AF25" s="2">
-        <f>+AB25</f>
-        <v>7903</v>
+        <v>8550</v>
       </c>
       <c r="AG25" s="2">
         <f t="shared" ref="AG25:AG26" si="66">+AC25</f>
@@ -5190,8 +5244,7 @@
         <v>7175</v>
       </c>
       <c r="AF26" s="2">
-        <f t="shared" ref="AF26" si="72">+AB26</f>
-        <v>6468</v>
+        <v>6728</v>
       </c>
       <c r="AG26" s="2">
         <f t="shared" si="66"/>
@@ -5282,67 +5335,67 @@
         <v>26097</v>
       </c>
       <c r="BM26" s="2">
-        <f t="shared" ref="BM26:CB26" si="73">+BL26*1.03</f>
+        <f t="shared" ref="BM26:CB26" si="72">+BL26*1.03</f>
         <v>26879.91</v>
       </c>
       <c r="BN26" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>27686.3073</v>
       </c>
       <c r="BO26" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>28516.896519000002</v>
       </c>
       <c r="BP26" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>29372.403414570002</v>
       </c>
       <c r="BQ26" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>30253.575517007102</v>
       </c>
       <c r="BR26" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>31161.182782517317</v>
       </c>
       <c r="BS26" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>32096.018265992836</v>
       </c>
       <c r="BT26" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>33058.898813972621</v>
       </c>
       <c r="BU26" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>34050.665778391798</v>
       </c>
       <c r="BV26" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>35072.185751743556</v>
       </c>
       <c r="BW26" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>36124.351324295865</v>
       </c>
       <c r="BX26" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>37208.081864024745</v>
       </c>
       <c r="BY26" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>38324.324319945488</v>
       </c>
       <c r="BZ26" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>39474.054049543854</v>
       </c>
       <c r="CA26" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>40658.275671030169</v>
       </c>
       <c r="CB26" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>41878.023941161075</v>
       </c>
     </row>
@@ -5351,35 +5404,35 @@
         <v>28</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ref="C27" si="74">+C25+C26</f>
+        <f t="shared" ref="C27" si="73">+C25+C26</f>
         <v>7638</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ref="D27:F27" si="75">+D25+D26</f>
+        <f t="shared" ref="D27:F27" si="74">+D25+D26</f>
         <v>7528</v>
       </c>
       <c r="E27" s="2">
+        <f t="shared" si="74"/>
+        <v>7809</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="74"/>
+        <v>7966</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" ref="K27:N27" si="75">+K25+K26</f>
+        <v>9648</v>
+      </c>
+      <c r="L27" s="2">
         <f t="shared" si="75"/>
-        <v>7809</v>
-      </c>
-      <c r="F27" s="2">
+        <v>9517</v>
+      </c>
+      <c r="M27" s="2">
         <f t="shared" si="75"/>
-        <v>7966</v>
-      </c>
-      <c r="K27" s="2">
-        <f t="shared" ref="K27:N27" si="76">+K25+K26</f>
-        <v>9648</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" si="76"/>
-        <v>9517</v>
-      </c>
-      <c r="M27" s="2">
-        <f t="shared" si="76"/>
         <v>9589</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>9914</v>
       </c>
       <c r="O27" s="2">
@@ -5395,11 +5448,11 @@
         <v>11129</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" ref="R27" si="77">+R25+R26</f>
+        <f t="shared" ref="R27" si="76">+R25+R26</f>
         <v>11388</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" ref="S27" si="78">+S25+S26</f>
+        <f t="shared" ref="S27" si="77">+S25+S26</f>
         <v>12755</v>
       </c>
       <c r="T27" s="2">
@@ -5407,139 +5460,139 @@
         <v>12580</v>
       </c>
       <c r="U27" s="2">
-        <f t="shared" ref="U27" si="79">+U25+U26</f>
+        <f t="shared" ref="U27" si="78">+U25+U26</f>
         <v>12809</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" ref="V27:Z27" si="80">+V25+V26</f>
+        <f t="shared" ref="V27:Z27" si="79">+V25+V26</f>
         <v>13201</v>
       </c>
       <c r="W27" s="2">
+        <f t="shared" si="79"/>
+        <v>14316</v>
+      </c>
+      <c r="X27" s="2">
+        <f t="shared" si="79"/>
+        <v>13658</v>
+      </c>
+      <c r="Y27" s="2">
+        <f t="shared" si="79"/>
+        <v>13415</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="79"/>
+        <v>13458</v>
+      </c>
+      <c r="AA27" s="2">
+        <f t="shared" ref="AA27:AB27" si="80">+AA25+AA26</f>
+        <v>14482</v>
+      </c>
+      <c r="AB27" s="2">
         <f t="shared" si="80"/>
-        <v>14316</v>
-      </c>
-      <c r="X27" s="2">
-        <f t="shared" si="80"/>
-        <v>13658</v>
-      </c>
-      <c r="Y27" s="2">
-        <f t="shared" si="80"/>
-        <v>13415</v>
-      </c>
-      <c r="Z27" s="2">
-        <f t="shared" si="80"/>
-        <v>13458</v>
-      </c>
-      <c r="AA27" s="2">
-        <f t="shared" ref="AA27:AB27" si="81">+AA25+AA26</f>
-        <v>14482</v>
-      </c>
-      <c r="AB27" s="2">
+        <v>14371</v>
+      </c>
+      <c r="AC27" s="2">
+        <f t="shared" ref="AC27:AD27" si="81">+AC25+AC26</f>
+        <v>14326</v>
+      </c>
+      <c r="AD27" s="2">
         <f t="shared" si="81"/>
-        <v>14371</v>
-      </c>
-      <c r="AC27" s="2">
-        <f t="shared" ref="AC27:AD27" si="82">+AC25+AC26</f>
+        <v>14288</v>
+      </c>
+      <c r="AE27" s="2">
+        <f t="shared" ref="AE27:AH27" si="82">+AE25+AE26</f>
+        <v>15443</v>
+      </c>
+      <c r="AF27" s="2">
+        <f t="shared" si="82"/>
+        <v>15278</v>
+      </c>
+      <c r="AG27" s="2">
+        <f t="shared" si="82"/>
         <v>14326</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AH27" s="2">
         <f t="shared" si="82"/>
         <v>14288</v>
       </c>
-      <c r="AE27" s="2">
-        <f t="shared" ref="AE27:AH27" si="83">+AE25+AE26</f>
-        <v>15443</v>
-      </c>
-      <c r="AF27" s="2">
+      <c r="AN27" s="2">
+        <f t="shared" ref="AN27:AO27" si="83">+AN25+AN26</f>
+        <v>1546</v>
+      </c>
+      <c r="AO27" s="2">
         <f t="shared" si="83"/>
-        <v>14371</v>
-      </c>
-      <c r="AG27" s="2">
-        <f t="shared" si="83"/>
-        <v>14326</v>
-      </c>
-      <c r="AH27" s="2">
-        <f t="shared" si="83"/>
-        <v>14288</v>
-      </c>
-      <c r="AN27" s="2">
-        <f t="shared" ref="AN27:AO27" si="84">+AN25+AN26</f>
-        <v>1546</v>
-      </c>
-      <c r="AO27" s="2">
+        <v>1568</v>
+      </c>
+      <c r="AP27" s="2">
+        <f t="shared" ref="AP27:AR27" si="84">+AP25+AP26</f>
+        <v>1555</v>
+      </c>
+      <c r="AQ27" s="2">
         <f t="shared" si="84"/>
-        <v>1568</v>
-      </c>
-      <c r="AP27" s="2">
-        <f t="shared" ref="AP27:AR27" si="85">+AP25+AP26</f>
-        <v>1555</v>
-      </c>
-      <c r="AQ27" s="2">
+        <v>1683</v>
+      </c>
+      <c r="AR27" s="2">
+        <f t="shared" si="84"/>
+        <v>1910</v>
+      </c>
+      <c r="AS27" s="2">
+        <f t="shared" ref="AS27:AT27" si="85">+AS25+AS26</f>
+        <v>2393</v>
+      </c>
+      <c r="AT27" s="2">
         <f t="shared" si="85"/>
-        <v>1683</v>
-      </c>
-      <c r="AR27" s="2">
-        <f t="shared" si="85"/>
-        <v>1910</v>
-      </c>
-      <c r="AS27" s="2">
-        <f t="shared" ref="AS27:AT27" si="86">+AS25+AS26</f>
-        <v>2393</v>
-      </c>
-      <c r="AT27" s="2">
+        <v>3145</v>
+      </c>
+      <c r="AU27" s="2">
+        <f t="shared" ref="AU27:AV27" si="86">+AU25+AU26</f>
+        <v>3745</v>
+      </c>
+      <c r="AV27" s="2">
         <f t="shared" si="86"/>
-        <v>3145</v>
-      </c>
-      <c r="AU27" s="2">
-        <f t="shared" ref="AU27:AV27" si="87">+AU25+AU26</f>
-        <v>3745</v>
-      </c>
-      <c r="AV27" s="2">
+        <v>4870</v>
+      </c>
+      <c r="AW27" s="2">
+        <f t="shared" ref="AW27:AY27" si="87">+AW25+AW26</f>
+        <v>5482</v>
+      </c>
+      <c r="AX27" s="2">
         <f t="shared" si="87"/>
-        <v>4870</v>
-      </c>
-      <c r="AW27" s="2">
-        <f t="shared" ref="AW27:AY27" si="88">+AW25+AW26</f>
-        <v>5482</v>
-      </c>
-      <c r="AX27" s="2">
+        <v>7299</v>
+      </c>
+      <c r="AY27" s="2">
+        <f t="shared" si="87"/>
+        <v>10028</v>
+      </c>
+      <c r="AZ27" s="2">
+        <f t="shared" ref="AZ27:BE27" si="88">+AZ25+AZ26</f>
+        <v>13421</v>
+      </c>
+      <c r="BA27" s="2">
         <f t="shared" si="88"/>
-        <v>7299</v>
-      </c>
-      <c r="AY27" s="2">
+        <v>15305</v>
+      </c>
+      <c r="BB27" s="2">
         <f t="shared" si="88"/>
-        <v>10028</v>
-      </c>
-      <c r="AZ27" s="2">
-        <f t="shared" ref="AZ27:BE27" si="89">+AZ25+AZ26</f>
-        <v>13421</v>
-      </c>
-      <c r="BA27" s="2">
+        <v>18034</v>
+      </c>
+      <c r="BC27" s="2">
+        <f t="shared" si="88"/>
+        <v>22396</v>
+      </c>
+      <c r="BD27" s="2">
+        <f t="shared" si="88"/>
+        <v>24239</v>
+      </c>
+      <c r="BE27" s="2">
+        <f t="shared" si="88"/>
+        <v>26842</v>
+      </c>
+      <c r="BF27" s="2">
+        <f t="shared" ref="BF27:BG27" si="89">+BF25+BF26</f>
+        <v>30941</v>
+      </c>
+      <c r="BG27" s="2">
         <f t="shared" si="89"/>
-        <v>15305</v>
-      </c>
-      <c r="BB27" s="2">
-        <f t="shared" si="89"/>
-        <v>18034</v>
-      </c>
-      <c r="BC27" s="2">
-        <f t="shared" si="89"/>
-        <v>22396</v>
-      </c>
-      <c r="BD27" s="2">
-        <f t="shared" si="89"/>
-        <v>24239</v>
-      </c>
-      <c r="BE27" s="2">
-        <f t="shared" si="89"/>
-        <v>26842</v>
-      </c>
-      <c r="BF27" s="2">
-        <f t="shared" ref="BF27:BG27" si="90">+BF25+BF26</f>
-        <v>30941</v>
-      </c>
-      <c r="BG27" s="2">
-        <f t="shared" si="90"/>
         <v>34462</v>
       </c>
       <c r="BH27" s="2">
@@ -5555,75 +5608,75 @@
         <v>51345</v>
       </c>
       <c r="BK27" s="2">
-        <f t="shared" ref="BK27:CB27" si="91">+BK25+BK26</f>
+        <f t="shared" ref="BK27:CB27" si="90">+BK25+BK26</f>
         <v>54847</v>
       </c>
       <c r="BL27" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>57467</v>
       </c>
       <c r="BM27" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>59191.01</v>
       </c>
       <c r="BN27" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>60966.740300000005</v>
       </c>
       <c r="BO27" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>62795.742509000011</v>
       </c>
       <c r="BP27" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>64679.614784270016</v>
       </c>
       <c r="BQ27" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>66620.003227798108</v>
       </c>
       <c r="BR27" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>68618.603324632059</v>
       </c>
       <c r="BS27" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>70677.161424371021</v>
       </c>
       <c r="BT27" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>72797.476267102145</v>
       </c>
       <c r="BU27" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>74981.400555115208</v>
       </c>
       <c r="BV27" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>77230.842571768677</v>
       </c>
       <c r="BW27" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>79547.767848921736</v>
       </c>
       <c r="BX27" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>81934.2008843894</v>
       </c>
       <c r="BY27" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>84392.226910921076</v>
       </c>
       <c r="BZ27" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>86923.993718248705</v>
       </c>
       <c r="CA27" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>89531.713529796165</v>
       </c>
       <c r="CB27" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>92217.66493569006</v>
       </c>
     </row>
@@ -5632,35 +5685,35 @@
         <v>29</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ref="C28" si="92">+C24-C27</f>
+        <f t="shared" ref="C28" si="91">+C24-C27</f>
         <v>26274</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" ref="D28:F28" si="93">+D24-D27</f>
+        <f t="shared" ref="D28:F28" si="92">+D24-D27</f>
         <v>15894</v>
       </c>
       <c r="E28" s="2">
+        <f t="shared" si="92"/>
+        <v>12612</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="92"/>
+        <v>16118</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" ref="K28:N28" si="93">+K24-K27</f>
+        <v>25569</v>
+      </c>
+      <c r="L28" s="2">
         <f t="shared" si="93"/>
-        <v>12612</v>
-      </c>
-      <c r="F28" s="2">
+        <v>12853</v>
+      </c>
+      <c r="M28" s="2">
         <f t="shared" si="93"/>
-        <v>16118</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" ref="K28:N28" si="94">+K24-K27</f>
-        <v>25569</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="94"/>
-        <v>12853</v>
-      </c>
-      <c r="M28" s="2">
-        <f t="shared" si="94"/>
         <v>13091</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>14775</v>
       </c>
       <c r="O28" s="2">
@@ -5676,11 +5729,11 @@
         <v>24126</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" ref="R28" si="95">+R24-R27</f>
+        <f t="shared" ref="R28" si="94">+R24-R27</f>
         <v>23786</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" ref="S28" si="96">+S24-S27</f>
+        <f t="shared" ref="S28" si="95">+S24-S27</f>
         <v>41488</v>
       </c>
       <c r="T28" s="2">
@@ -5688,139 +5741,139 @@
         <v>29979</v>
       </c>
       <c r="U28" s="2">
-        <f t="shared" ref="U28" si="97">+U24-U27</f>
+        <f t="shared" ref="U28" si="96">+U24-U27</f>
         <v>23076</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" ref="V28:Z28" si="98">+V24-V27</f>
+        <f t="shared" ref="V28:Z28" si="97">+V24-V27</f>
         <v>24894</v>
       </c>
       <c r="W28" s="2">
+        <f t="shared" si="97"/>
+        <v>36016</v>
+      </c>
+      <c r="X28" s="2">
+        <f t="shared" si="97"/>
+        <v>28318</v>
+      </c>
+      <c r="Y28" s="2">
+        <f t="shared" si="97"/>
+        <v>22998</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" si="97"/>
+        <v>26969</v>
+      </c>
+      <c r="AA28" s="2">
+        <f t="shared" ref="AA28:AB28" si="98">+AA24-AA27</f>
+        <v>40373</v>
+      </c>
+      <c r="AB28" s="2">
         <f t="shared" si="98"/>
-        <v>36016</v>
-      </c>
-      <c r="X28" s="2">
-        <f t="shared" si="98"/>
-        <v>28318</v>
-      </c>
-      <c r="Y28" s="2">
-        <f t="shared" si="98"/>
-        <v>22998</v>
-      </c>
-      <c r="Z28" s="2">
-        <f t="shared" si="98"/>
-        <v>26969</v>
-      </c>
-      <c r="AA28" s="2">
-        <f t="shared" ref="AA28:AB28" si="99">+AA24-AA27</f>
-        <v>40373</v>
-      </c>
-      <c r="AB28" s="2">
+        <v>27900</v>
+      </c>
+      <c r="AC28" s="2">
+        <f t="shared" ref="AC28:AD28" si="99">+AC24-AC27</f>
+        <v>25352</v>
+      </c>
+      <c r="AD28" s="2">
         <f t="shared" si="99"/>
-        <v>27900</v>
-      </c>
-      <c r="AC28" s="2">
-        <f t="shared" ref="AC28:AD28" si="100">+AC24-AC27</f>
-        <v>25352</v>
-      </c>
-      <c r="AD28" s="2">
+        <v>29591</v>
+      </c>
+      <c r="AE28" s="2">
+        <f t="shared" ref="AE28:AH28" si="100">+AE24-AE27</f>
+        <v>42832</v>
+      </c>
+      <c r="AF28" s="2">
         <f t="shared" si="100"/>
-        <v>29591</v>
-      </c>
-      <c r="AE28" s="2">
-        <f t="shared" ref="AE28:AH28" si="101">+AE24-AE27</f>
-        <v>42832</v>
-      </c>
-      <c r="AF28" s="2">
+        <v>29589</v>
+      </c>
+      <c r="AG28" s="2">
+        <f t="shared" si="100"/>
+        <v>26847.546300000002</v>
+      </c>
+      <c r="AH28" s="2">
+        <f t="shared" si="100"/>
+        <v>31244.744599999998</v>
+      </c>
+      <c r="AN28" s="2">
+        <f t="shared" ref="AN28:AO28" si="101">+AN24-AN27</f>
+        <v>620</v>
+      </c>
+      <c r="AO28" s="2">
         <f t="shared" si="101"/>
-        <v>29831.198100000001</v>
-      </c>
-      <c r="AG28" s="2">
-        <f t="shared" si="101"/>
-        <v>26847.546300000002</v>
-      </c>
-      <c r="AH28" s="2">
-        <f t="shared" si="101"/>
-        <v>31244.744599999998</v>
-      </c>
-      <c r="AN28" s="2">
-        <f t="shared" ref="AN28:AO28" si="102">+AN24-AN27</f>
-        <v>620</v>
-      </c>
-      <c r="AO28" s="2">
+        <v>-333</v>
+      </c>
+      <c r="AP28" s="2">
+        <f t="shared" ref="AP28:AR28" si="102">+AP24-AP27</f>
+        <v>48</v>
+      </c>
+      <c r="AQ28" s="2">
         <f t="shared" si="102"/>
-        <v>-333</v>
-      </c>
-      <c r="AP28" s="2">
-        <f t="shared" ref="AP28:AR28" si="103">+AP24-AP27</f>
-        <v>48</v>
-      </c>
-      <c r="AQ28" s="2">
+        <v>25</v>
+      </c>
+      <c r="AR28" s="2">
+        <f t="shared" si="102"/>
+        <v>349</v>
+      </c>
+      <c r="AS28" s="2">
+        <f t="shared" ref="AS28:AT28" si="103">+AS24-AS27</f>
+        <v>1650</v>
+      </c>
+      <c r="AT28" s="2">
         <f t="shared" si="103"/>
-        <v>25</v>
-      </c>
-      <c r="AR28" s="2">
-        <f t="shared" si="103"/>
-        <v>349</v>
-      </c>
-      <c r="AS28" s="2">
-        <f t="shared" ref="AS28:AT28" si="104">+AS24-AS27</f>
-        <v>1650</v>
-      </c>
-      <c r="AT28" s="2">
+        <v>2453</v>
+      </c>
+      <c r="AU28" s="2">
+        <f t="shared" ref="AU28:AV28" si="104">+AU24-AU27</f>
+        <v>4409</v>
+      </c>
+      <c r="AV28" s="2">
         <f t="shared" si="104"/>
-        <v>2453</v>
-      </c>
-      <c r="AU28" s="2">
-        <f t="shared" ref="AU28:AV28" si="105">+AU24-AU27</f>
-        <v>4409</v>
-      </c>
-      <c r="AV28" s="2">
+        <v>8327</v>
+      </c>
+      <c r="AW28" s="2">
+        <f t="shared" ref="AW28:AY28" si="105">+AW24-AW27</f>
+        <v>11740</v>
+      </c>
+      <c r="AX28" s="2">
         <f t="shared" si="105"/>
-        <v>8327</v>
-      </c>
-      <c r="AW28" s="2">
-        <f t="shared" ref="AW28:AY28" si="106">+AW24-AW27</f>
-        <v>11740</v>
-      </c>
-      <c r="AX28" s="2">
+        <v>18385</v>
+      </c>
+      <c r="AY28" s="2">
+        <f t="shared" si="105"/>
+        <v>33790</v>
+      </c>
+      <c r="AZ28" s="2">
+        <f t="shared" ref="AZ28:BE28" si="106">+AZ24-AZ27</f>
+        <v>55241</v>
+      </c>
+      <c r="BA28" s="2">
         <f t="shared" si="106"/>
-        <v>18385</v>
-      </c>
-      <c r="AY28" s="2">
+        <v>48999</v>
+      </c>
+      <c r="BB28" s="2">
         <f t="shared" si="106"/>
-        <v>33790</v>
-      </c>
-      <c r="AZ28" s="2">
-        <f t="shared" ref="AZ28:BE28" si="107">+AZ24-AZ27</f>
-        <v>55241</v>
-      </c>
-      <c r="BA28" s="2">
+        <v>52503</v>
+      </c>
+      <c r="BC28" s="2">
+        <f t="shared" si="106"/>
+        <v>71230</v>
+      </c>
+      <c r="BD28" s="2">
+        <f t="shared" si="106"/>
+        <v>60024</v>
+      </c>
+      <c r="BE28" s="2">
+        <f t="shared" si="106"/>
+        <v>61344</v>
+      </c>
+      <c r="BF28" s="2">
+        <f t="shared" ref="BF28:BG28" si="107">+BF24-BF27</f>
+        <v>70898</v>
+      </c>
+      <c r="BG28" s="2">
         <f t="shared" si="107"/>
-        <v>48999</v>
-      </c>
-      <c r="BB28" s="2">
-        <f t="shared" si="107"/>
-        <v>52503</v>
-      </c>
-      <c r="BC28" s="2">
-        <f t="shared" si="107"/>
-        <v>71230</v>
-      </c>
-      <c r="BD28" s="2">
-        <f t="shared" si="107"/>
-        <v>60024</v>
-      </c>
-      <c r="BE28" s="2">
-        <f t="shared" si="107"/>
-        <v>61344</v>
-      </c>
-      <c r="BF28" s="2">
-        <f t="shared" ref="BF28:BG28" si="108">+BF24-BF27</f>
-        <v>70898</v>
-      </c>
-      <c r="BG28" s="2">
-        <f t="shared" si="108"/>
         <v>63930</v>
       </c>
       <c r="BH28" s="2">
@@ -5836,75 +5889,75 @@
         <v>119437</v>
       </c>
       <c r="BK28" s="2">
-        <f t="shared" ref="BK28:CB28" si="109">+BK24-BK27</f>
+        <f t="shared" ref="BK28:CB28" si="108">+BK24-BK27</f>
         <v>114301</v>
       </c>
       <c r="BL28" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>123216</v>
       </c>
       <c r="BM28" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>139063.61999429748</v>
       </c>
       <c r="BN28" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>151775.11280931855</v>
       </c>
       <c r="BO28" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>165598.87969255034</v>
       </c>
       <c r="BP28" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>180634.46636454249</v>
       </c>
       <c r="BQ28" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>191617.78812544863</v>
       </c>
       <c r="BR28" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>202043.13562531775</v>
       </c>
       <c r="BS28" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>213010.89772704628</v>
       </c>
       <c r="BT28" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>224548.71447310344</v>
       </c>
       <c r="BU28" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>236685.62254490727</v>
       </c>
       <c r="BV28" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>248204.78470747796</v>
       </c>
       <c r="BW28" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>260079.70672053329</v>
       </c>
       <c r="BX28" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>272517.92097923666</v>
       </c>
       <c r="BY28" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>285546.14318630204</v>
       </c>
       <c r="BZ28" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>299192.36142075481</v>
       </c>
       <c r="CA28" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>313485.89711021993</v>
       </c>
       <c r="CB28" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>328457.46894459665</v>
       </c>
     </row>
@@ -5988,6 +6041,9 @@
       <c r="AE29" s="2">
         <v>-248</v>
       </c>
+      <c r="AF29" s="2">
+        <v>-279</v>
+      </c>
       <c r="AN29" s="2">
         <v>203</v>
       </c>
@@ -6053,11 +6109,11 @@
         <v>803</v>
       </c>
       <c r="BI29" s="7">
-        <f t="shared" ref="BI29" si="110">SUM(O29:R29)</f>
+        <f t="shared" ref="BI29" si="109">SUM(O29:R29)</f>
         <v>258</v>
       </c>
       <c r="BJ29" s="7">
-        <f t="shared" ref="BJ29" si="111">SUM(S29:V29)</f>
+        <f t="shared" ref="BJ29" si="110">SUM(S29:V29)</f>
         <v>-334</v>
       </c>
       <c r="BK29" s="2">
@@ -6065,7 +6121,7 @@
         <v>-565</v>
       </c>
       <c r="BL29" s="2">
-        <f t="shared" ref="BL29:BL31" si="112">SUM(AA29:AD29)</f>
+        <f t="shared" ref="BL29:BL31" si="111">SUM(AA29:AD29)</f>
         <v>269</v>
       </c>
     </row>
@@ -6074,35 +6130,35 @@
         <v>34</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ref="C30" si="113">+C28+C29</f>
+        <f t="shared" ref="C30" si="112">+C28+C29</f>
         <v>27030</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" ref="D30:F30" si="114">+D28+D29</f>
+        <f t="shared" ref="D30:F30" si="113">+D28+D29</f>
         <v>16168</v>
       </c>
       <c r="E30" s="2">
+        <f t="shared" si="113"/>
+        <v>13284</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="113"/>
+        <v>16421</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" ref="K30:N30" si="114">+K28+K29</f>
+        <v>25918</v>
+      </c>
+      <c r="L30" s="2">
         <f t="shared" si="114"/>
-        <v>13284</v>
-      </c>
-      <c r="F30" s="2">
+        <v>13135</v>
+      </c>
+      <c r="M30" s="2">
         <f t="shared" si="114"/>
-        <v>16421</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" ref="K30:N30" si="115">+K28+K29</f>
-        <v>25918</v>
-      </c>
-      <c r="L30" s="2">
-        <f t="shared" si="115"/>
-        <v>13135</v>
-      </c>
-      <c r="M30" s="2">
-        <f t="shared" si="115"/>
         <v>13137</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>14901</v>
       </c>
       <c r="O30" s="2">
@@ -6118,11 +6174,11 @@
         <v>24369</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" ref="R30" si="116">+R28+R29</f>
+        <f t="shared" ref="R30" si="115">+R28+R29</f>
         <v>23248</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" ref="S30" si="117">+S28+S29</f>
+        <f t="shared" ref="S30" si="116">+S28+S29</f>
         <v>41241</v>
       </c>
       <c r="T30" s="2">
@@ -6130,139 +6186,139 @@
         <v>30139</v>
       </c>
       <c r="U30" s="2">
-        <f t="shared" ref="U30:Z30" si="118">+U28+U29</f>
+        <f t="shared" ref="U30:Z30" si="117">+U28+U29</f>
         <v>23066</v>
       </c>
       <c r="V30" s="2">
+        <f t="shared" si="117"/>
+        <v>24657</v>
+      </c>
+      <c r="W30" s="2">
+        <f t="shared" si="117"/>
+        <v>35623</v>
+      </c>
+      <c r="X30" s="2">
+        <f t="shared" si="117"/>
+        <v>28382</v>
+      </c>
+      <c r="Y30" s="2">
+        <f t="shared" si="117"/>
+        <v>22733</v>
+      </c>
+      <c r="Z30" s="2">
+        <f t="shared" si="117"/>
+        <v>26998</v>
+      </c>
+      <c r="AA30" s="2">
+        <f t="shared" ref="AA30:AB30" si="118">+AA28+AA29</f>
+        <v>40323</v>
+      </c>
+      <c r="AB30" s="2">
         <f t="shared" si="118"/>
-        <v>24657</v>
-      </c>
-      <c r="W30" s="2">
-        <f t="shared" si="118"/>
-        <v>35623</v>
-      </c>
-      <c r="X30" s="2">
-        <f t="shared" si="118"/>
-        <v>28382</v>
-      </c>
-      <c r="Y30" s="2">
-        <f t="shared" si="118"/>
-        <v>22733</v>
-      </c>
-      <c r="Z30" s="2">
-        <f t="shared" si="118"/>
-        <v>26998</v>
-      </c>
-      <c r="AA30" s="2">
-        <f t="shared" ref="AA30:AB30" si="119">+AA28+AA29</f>
-        <v>40323</v>
-      </c>
-      <c r="AB30" s="2">
+        <v>28058</v>
+      </c>
+      <c r="AC30" s="2">
+        <f t="shared" ref="AC30:AD30" si="119">+AC28+AC29</f>
+        <v>25494</v>
+      </c>
+      <c r="AD30" s="2">
         <f t="shared" si="119"/>
-        <v>28058</v>
-      </c>
-      <c r="AC30" s="2">
-        <f t="shared" ref="AC30:AD30" si="120">+AC28+AC29</f>
-        <v>25494</v>
-      </c>
-      <c r="AD30" s="2">
+        <v>29610</v>
+      </c>
+      <c r="AE30" s="2">
+        <f t="shared" ref="AE30:AH30" si="120">+AE28+AE29</f>
+        <v>42584</v>
+      </c>
+      <c r="AF30" s="2">
         <f t="shared" si="120"/>
-        <v>29610</v>
-      </c>
-      <c r="AE30" s="2">
-        <f t="shared" ref="AE30:AH30" si="121">+AE28+AE29</f>
-        <v>42584</v>
-      </c>
-      <c r="AF30" s="2">
+        <v>29310</v>
+      </c>
+      <c r="AG30" s="2">
+        <f t="shared" si="120"/>
+        <v>26847.546300000002</v>
+      </c>
+      <c r="AH30" s="2">
+        <f t="shared" si="120"/>
+        <v>31244.744599999998</v>
+      </c>
+      <c r="AN30" s="2">
+        <f t="shared" ref="AN30:AO30" si="121">+AN28+AN29</f>
+        <v>823</v>
+      </c>
+      <c r="AO30" s="2">
         <f t="shared" si="121"/>
-        <v>29831.198100000001</v>
-      </c>
-      <c r="AG30" s="2">
-        <f t="shared" si="121"/>
-        <v>26847.546300000002</v>
-      </c>
-      <c r="AH30" s="2">
-        <f t="shared" si="121"/>
-        <v>31244.744599999998</v>
-      </c>
-      <c r="AN30" s="2">
-        <f t="shared" ref="AN30:AO30" si="122">+AN28+AN29</f>
-        <v>823</v>
-      </c>
-      <c r="AO30" s="2">
+        <v>-116</v>
+      </c>
+      <c r="AP30" s="2">
+        <f t="shared" ref="AP30:AR30" si="122">+AP28+AP29</f>
+        <v>118</v>
+      </c>
+      <c r="AQ30" s="2">
         <f t="shared" si="122"/>
-        <v>-116</v>
-      </c>
-      <c r="AP30" s="2">
-        <f t="shared" ref="AP30:AR30" si="123">+AP28+AP29</f>
         <v>118</v>
       </c>
-      <c r="AQ30" s="2">
+      <c r="AR30" s="2">
+        <f t="shared" si="122"/>
+        <v>406</v>
+      </c>
+      <c r="AS30" s="2">
+        <f t="shared" ref="AS30:AT30" si="123">+AS28+AS29</f>
+        <v>1815</v>
+      </c>
+      <c r="AT30" s="2">
         <f t="shared" si="123"/>
-        <v>118</v>
-      </c>
-      <c r="AR30" s="2">
-        <f t="shared" si="123"/>
-        <v>406</v>
-      </c>
-      <c r="AS30" s="2">
-        <f t="shared" ref="AS30:AT30" si="124">+AS28+AS29</f>
-        <v>1815</v>
-      </c>
-      <c r="AT30" s="2">
+        <v>2818</v>
+      </c>
+      <c r="AU30" s="2">
+        <f t="shared" ref="AU30:AV30" si="124">+AU28+AU29</f>
+        <v>5008</v>
+      </c>
+      <c r="AV30" s="2">
         <f t="shared" si="124"/>
-        <v>2818</v>
-      </c>
-      <c r="AU30" s="2">
-        <f t="shared" ref="AU30:AV30" si="125">+AU28+AU29</f>
-        <v>5008</v>
-      </c>
-      <c r="AV30" s="2">
+        <v>8947</v>
+      </c>
+      <c r="AW30" s="2">
+        <f t="shared" ref="AW30:AY30" si="125">+AW28+AW29</f>
+        <v>12066</v>
+      </c>
+      <c r="AX30" s="2">
         <f t="shared" si="125"/>
-        <v>8947</v>
-      </c>
-      <c r="AW30" s="2">
-        <f t="shared" ref="AW30:AY30" si="126">+AW28+AW29</f>
-        <v>12066</v>
-      </c>
-      <c r="AX30" s="2">
+        <v>18540</v>
+      </c>
+      <c r="AY30" s="2">
+        <f t="shared" si="125"/>
+        <v>34205</v>
+      </c>
+      <c r="AZ30" s="2">
+        <f t="shared" ref="AZ30:BE30" si="126">+AZ28+AZ29</f>
+        <v>55763</v>
+      </c>
+      <c r="BA30" s="2">
         <f t="shared" si="126"/>
-        <v>18540</v>
-      </c>
-      <c r="AY30" s="2">
+        <v>50155</v>
+      </c>
+      <c r="BB30" s="2">
         <f t="shared" si="126"/>
-        <v>34205</v>
-      </c>
-      <c r="AZ30" s="2">
-        <f t="shared" ref="AZ30:BE30" si="127">+AZ28+AZ29</f>
-        <v>55763</v>
-      </c>
-      <c r="BA30" s="2">
+        <v>53483</v>
+      </c>
+      <c r="BC30" s="2">
+        <f t="shared" si="126"/>
+        <v>72515</v>
+      </c>
+      <c r="BD30" s="2">
+        <f t="shared" si="126"/>
+        <v>61372</v>
+      </c>
+      <c r="BE30" s="2">
+        <f t="shared" si="126"/>
+        <v>64089</v>
+      </c>
+      <c r="BF30" s="2">
+        <f t="shared" ref="BF30:BG30" si="127">+BF28+BF29</f>
+        <v>72903</v>
+      </c>
+      <c r="BG30" s="2">
         <f t="shared" si="127"/>
-        <v>50155</v>
-      </c>
-      <c r="BB30" s="2">
-        <f t="shared" si="127"/>
-        <v>53483</v>
-      </c>
-      <c r="BC30" s="2">
-        <f t="shared" si="127"/>
-        <v>72515</v>
-      </c>
-      <c r="BD30" s="2">
-        <f t="shared" si="127"/>
-        <v>61372</v>
-      </c>
-      <c r="BE30" s="2">
-        <f t="shared" si="127"/>
-        <v>64089</v>
-      </c>
-      <c r="BF30" s="2">
-        <f t="shared" ref="BF30:BG30" si="128">+BF28+BF29</f>
-        <v>72903</v>
-      </c>
-      <c r="BG30" s="2">
-        <f t="shared" si="128"/>
         <v>65737</v>
       </c>
       <c r="BH30" s="2">
@@ -6278,75 +6334,75 @@
         <v>119103</v>
       </c>
       <c r="BK30" s="2">
-        <f t="shared" ref="BK30:CB30" si="129">+BK28+BK29</f>
+        <f t="shared" ref="BK30:CB30" si="128">+BK28+BK29</f>
         <v>113736</v>
       </c>
       <c r="BL30" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>123485</v>
       </c>
       <c r="BM30" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>139063.61999429748</v>
       </c>
       <c r="BN30" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>151775.11280931855</v>
       </c>
       <c r="BO30" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>165598.87969255034</v>
       </c>
       <c r="BP30" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>180634.46636454249</v>
       </c>
       <c r="BQ30" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>191617.78812544863</v>
       </c>
       <c r="BR30" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>202043.13562531775</v>
       </c>
       <c r="BS30" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>213010.89772704628</v>
       </c>
       <c r="BT30" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>224548.71447310344</v>
       </c>
       <c r="BU30" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>236685.62254490727</v>
       </c>
       <c r="BV30" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>248204.78470747796</v>
       </c>
       <c r="BW30" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>260079.70672053329</v>
       </c>
       <c r="BX30" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>272517.92097923666</v>
       </c>
       <c r="BY30" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>285546.14318630204</v>
       </c>
       <c r="BZ30" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>299192.36142075481</v>
       </c>
       <c r="CA30" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>313485.89711021993</v>
       </c>
       <c r="CB30" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>328457.46894459665</v>
       </c>
     </row>
@@ -6431,8 +6487,7 @@
         <v>6254</v>
       </c>
       <c r="AF31" s="2">
-        <f>+AF30*0.15</f>
-        <v>4474.6797150000002</v>
+        <v>4530</v>
       </c>
       <c r="AG31" s="2">
         <f>+AG30*0.15</f>
@@ -6507,11 +6562,11 @@
         <v>9680</v>
       </c>
       <c r="BI31" s="7">
-        <f t="shared" ref="BI31" si="130">SUM(O31:R31)</f>
+        <f t="shared" ref="BI31" si="129">SUM(O31:R31)</f>
         <v>14527</v>
       </c>
       <c r="BJ31" s="7">
-        <f t="shared" ref="BJ31" si="131">SUM(S31:V31)</f>
+        <f t="shared" ref="BJ31" si="130">SUM(S31:V31)</f>
         <v>19300</v>
       </c>
       <c r="BK31" s="2">
@@ -6519,71 +6574,71 @@
         <v>16741</v>
       </c>
       <c r="BL31" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>29749</v>
       </c>
       <c r="BM31" s="2">
-        <f t="shared" ref="BM31:CB31" si="132">+BM30*0.2</f>
+        <f t="shared" ref="BM31:CB31" si="131">+BM30*0.2</f>
         <v>27812.723998859496</v>
       </c>
       <c r="BN31" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>30355.022561863712</v>
       </c>
       <c r="BO31" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>33119.775938510073</v>
       </c>
       <c r="BP31" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>36126.893272908499</v>
       </c>
       <c r="BQ31" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>38323.557625089728</v>
       </c>
       <c r="BR31" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>40408.627125063555</v>
       </c>
       <c r="BS31" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>42602.179545409257</v>
       </c>
       <c r="BT31" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>44909.742894620693</v>
       </c>
       <c r="BU31" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>47337.124508981455</v>
       </c>
       <c r="BV31" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>49640.956941495591</v>
       </c>
       <c r="BW31" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>52015.941344106657</v>
       </c>
       <c r="BX31" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>54503.584195847332</v>
       </c>
       <c r="BY31" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>57109.228637260414</v>
       </c>
       <c r="BZ31" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>59838.472284150965</v>
       </c>
       <c r="CA31" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>62697.179422043992</v>
       </c>
       <c r="CB31" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>65691.493788919339</v>
       </c>
     </row>
@@ -6592,35 +6647,35 @@
         <v>32</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ref="C32" si="133">+C30-C31</f>
+        <f t="shared" ref="C32" si="132">+C30-C31</f>
         <v>20065</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" ref="D32:F32" si="134">+D30-D31</f>
+        <f t="shared" ref="D32:F32" si="133">+D30-D31</f>
         <v>13822</v>
       </c>
       <c r="E32" s="2">
+        <f t="shared" si="133"/>
+        <v>11519</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="133"/>
+        <v>14125</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" ref="K32:N32" si="134">+K30-K31</f>
+        <v>22236</v>
+      </c>
+      <c r="L32" s="2">
         <f t="shared" si="134"/>
-        <v>11519</v>
-      </c>
-      <c r="F32" s="2">
+        <v>11249</v>
+      </c>
+      <c r="M32" s="2">
         <f t="shared" si="134"/>
-        <v>14125</v>
-      </c>
-      <c r="K32" s="2">
-        <f t="shared" ref="K32:N32" si="135">+K30-K31</f>
-        <v>22236</v>
-      </c>
-      <c r="L32" s="2">
-        <f t="shared" si="135"/>
-        <v>11249</v>
-      </c>
-      <c r="M32" s="2">
-        <f t="shared" si="135"/>
         <v>11253</v>
       </c>
       <c r="N32" s="2">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>12673</v>
       </c>
       <c r="O32" s="2">
@@ -6636,11 +6691,11 @@
         <v>21744</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" ref="R32" si="136">+R30-R31</f>
+        <f t="shared" ref="R32" si="135">+R30-R31</f>
         <v>20551</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" ref="S32" si="137">+S30-S31</f>
+        <f t="shared" ref="S32" si="136">+S30-S31</f>
         <v>34630</v>
       </c>
       <c r="T32" s="2">
@@ -6648,139 +6703,139 @@
         <v>25010</v>
       </c>
       <c r="U32" s="2">
-        <f t="shared" ref="U32:AA32" si="138">+U30-U31</f>
+        <f t="shared" ref="U32:AA32" si="137">+U30-U31</f>
         <v>19442</v>
       </c>
       <c r="V32" s="2">
+        <f t="shared" si="137"/>
+        <v>20721</v>
+      </c>
+      <c r="W32" s="2">
+        <f t="shared" si="137"/>
+        <v>29998</v>
+      </c>
+      <c r="X32" s="2">
+        <f t="shared" si="137"/>
+        <v>24160</v>
+      </c>
+      <c r="Y32" s="2">
+        <f t="shared" si="137"/>
+        <v>19881</v>
+      </c>
+      <c r="Z32" s="2">
+        <f t="shared" si="137"/>
+        <v>22956</v>
+      </c>
+      <c r="AA32" s="2">
+        <f t="shared" si="137"/>
+        <v>33916</v>
+      </c>
+      <c r="AB32" s="2">
+        <f t="shared" ref="AB32:AC32" si="138">+AB30-AB31</f>
+        <v>23636</v>
+      </c>
+      <c r="AC32" s="2">
         <f t="shared" si="138"/>
-        <v>20721</v>
-      </c>
-      <c r="W32" s="2">
-        <f t="shared" si="138"/>
-        <v>29998</v>
-      </c>
-      <c r="X32" s="2">
-        <f t="shared" si="138"/>
-        <v>24160</v>
-      </c>
-      <c r="Y32" s="2">
-        <f t="shared" si="138"/>
-        <v>19881</v>
-      </c>
-      <c r="Z32" s="2">
-        <f t="shared" si="138"/>
-        <v>22956</v>
-      </c>
-      <c r="AA32" s="2">
-        <f t="shared" si="138"/>
-        <v>33916</v>
-      </c>
-      <c r="AB32" s="2">
-        <f t="shared" ref="AB32:AC32" si="139">+AB30-AB31</f>
-        <v>23636</v>
-      </c>
-      <c r="AC32" s="2">
+        <v>21448</v>
+      </c>
+      <c r="AD32" s="2">
+        <f t="shared" ref="AD32:AH32" si="139">+AD30-AD31</f>
+        <v>14736</v>
+      </c>
+      <c r="AE32" s="2">
         <f t="shared" si="139"/>
-        <v>21448</v>
-      </c>
-      <c r="AD32" s="2">
-        <f t="shared" ref="AD32:AH32" si="140">+AD30-AD31</f>
-        <v>14736</v>
-      </c>
-      <c r="AE32" s="2">
+        <v>36330</v>
+      </c>
+      <c r="AF32" s="2">
+        <f t="shared" si="139"/>
+        <v>24780</v>
+      </c>
+      <c r="AG32" s="2">
+        <f t="shared" si="139"/>
+        <v>22820.414355000001</v>
+      </c>
+      <c r="AH32" s="2">
+        <f t="shared" si="139"/>
+        <v>26558.032909999998</v>
+      </c>
+      <c r="AN32" s="2">
+        <f t="shared" ref="AN32:AO32" si="140">+AN30-AN31</f>
+        <v>517</v>
+      </c>
+      <c r="AO32" s="2">
         <f t="shared" si="140"/>
-        <v>36330</v>
-      </c>
-      <c r="AF32" s="2">
-        <f t="shared" si="140"/>
-        <v>25356.518385000003</v>
-      </c>
-      <c r="AG32" s="2">
-        <f t="shared" si="140"/>
-        <v>22820.414355000001</v>
-      </c>
-      <c r="AH32" s="2">
-        <f t="shared" si="140"/>
-        <v>26558.032909999998</v>
-      </c>
-      <c r="AN32" s="2">
-        <f t="shared" ref="AN32:AO32" si="141">+AN30-AN31</f>
-        <v>517</v>
-      </c>
-      <c r="AO32" s="2">
+        <v>-116</v>
+      </c>
+      <c r="AP32" s="2">
+        <f t="shared" ref="AP32:AR32" si="141">+AP30-AP31</f>
+        <v>96</v>
+      </c>
+      <c r="AQ32" s="2">
         <f t="shared" si="141"/>
-        <v>-116</v>
-      </c>
-      <c r="AP32" s="2">
-        <f t="shared" ref="AP32:AR32" si="142">+AP30-AP31</f>
-        <v>96</v>
-      </c>
-      <c r="AQ32" s="2">
+        <v>94</v>
+      </c>
+      <c r="AR32" s="2">
+        <f t="shared" si="141"/>
+        <v>299</v>
+      </c>
+      <c r="AS32" s="2">
+        <f t="shared" ref="AS32:AT32" si="142">+AS30-AS31</f>
+        <v>1335</v>
+      </c>
+      <c r="AT32" s="2">
         <f t="shared" si="142"/>
-        <v>94</v>
-      </c>
-      <c r="AR32" s="2">
-        <f t="shared" si="142"/>
-        <v>299</v>
-      </c>
-      <c r="AS32" s="2">
-        <f t="shared" ref="AS32:AT32" si="143">+AS30-AS31</f>
-        <v>1335</v>
-      </c>
-      <c r="AT32" s="2">
+        <v>1989</v>
+      </c>
+      <c r="AU32" s="2">
+        <f t="shared" ref="AU32:AV32" si="143">+AU30-AU31</f>
+        <v>3496</v>
+      </c>
+      <c r="AV32" s="2">
         <f t="shared" si="143"/>
-        <v>1989</v>
-      </c>
-      <c r="AU32" s="2">
-        <f t="shared" ref="AU32:AV32" si="144">+AU30-AU31</f>
-        <v>3496</v>
-      </c>
-      <c r="AV32" s="2">
+        <v>6119</v>
+      </c>
+      <c r="AW32" s="2">
+        <f t="shared" ref="AW32:AY32" si="144">+AW30-AW31</f>
+        <v>8235</v>
+      </c>
+      <c r="AX32" s="2">
         <f t="shared" si="144"/>
-        <v>6119</v>
-      </c>
-      <c r="AW32" s="2">
-        <f t="shared" ref="AW32:AY32" si="145">+AW30-AW31</f>
-        <v>8235</v>
-      </c>
-      <c r="AX32" s="2">
+        <v>14013</v>
+      </c>
+      <c r="AY32" s="2">
+        <f t="shared" si="144"/>
+        <v>25922</v>
+      </c>
+      <c r="AZ32" s="2">
+        <f t="shared" ref="AZ32:BE32" si="145">+AZ30-AZ31</f>
+        <v>41733</v>
+      </c>
+      <c r="BA32" s="2">
         <f t="shared" si="145"/>
-        <v>14013</v>
-      </c>
-      <c r="AY32" s="2">
+        <v>37037</v>
+      </c>
+      <c r="BB32" s="2">
         <f t="shared" si="145"/>
-        <v>25922</v>
-      </c>
-      <c r="AZ32" s="2">
-        <f t="shared" ref="AZ32:BE32" si="146">+AZ30-AZ31</f>
-        <v>41733</v>
-      </c>
-      <c r="BA32" s="2">
+        <v>39510</v>
+      </c>
+      <c r="BC32" s="2">
+        <f t="shared" si="145"/>
+        <v>53394</v>
+      </c>
+      <c r="BD32" s="2">
+        <f t="shared" si="145"/>
+        <v>45687</v>
+      </c>
+      <c r="BE32" s="2">
+        <f t="shared" si="145"/>
+        <v>48351</v>
+      </c>
+      <c r="BF32" s="2">
+        <f t="shared" ref="BF32:BG32" si="146">+BF30-BF31</f>
+        <v>59531</v>
+      </c>
+      <c r="BG32" s="2">
         <f t="shared" si="146"/>
-        <v>37037</v>
-      </c>
-      <c r="BB32" s="2">
-        <f t="shared" si="146"/>
-        <v>39510</v>
-      </c>
-      <c r="BC32" s="2">
-        <f t="shared" si="146"/>
-        <v>53394</v>
-      </c>
-      <c r="BD32" s="2">
-        <f t="shared" si="146"/>
-        <v>45687</v>
-      </c>
-      <c r="BE32" s="2">
-        <f t="shared" si="146"/>
-        <v>48351</v>
-      </c>
-      <c r="BF32" s="2">
-        <f t="shared" ref="BF32:BG32" si="147">+BF30-BF31</f>
-        <v>59531</v>
-      </c>
-      <c r="BG32" s="2">
-        <f t="shared" si="147"/>
         <v>55256</v>
       </c>
       <c r="BH32" s="2">
@@ -6800,71 +6855,71 @@
         <v>96995</v>
       </c>
       <c r="BL32" s="2">
-        <f t="shared" ref="BL32:CB32" si="148">+BL30-BL31</f>
+        <f t="shared" ref="BL32:CB32" si="147">+BL30-BL31</f>
         <v>93736</v>
       </c>
       <c r="BM32" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>111250.89599543798</v>
       </c>
       <c r="BN32" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>121420.09024745485</v>
       </c>
       <c r="BO32" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>132479.10375404026</v>
       </c>
       <c r="BP32" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>144507.573091634</v>
       </c>
       <c r="BQ32" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>153294.23050035891</v>
       </c>
       <c r="BR32" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>161634.50850025419</v>
       </c>
       <c r="BS32" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>170408.71818163703</v>
       </c>
       <c r="BT32" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>179638.97157848274</v>
       </c>
       <c r="BU32" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>189348.49803592582</v>
       </c>
       <c r="BV32" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>198563.82776598237</v>
       </c>
       <c r="BW32" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>208063.76537642663</v>
       </c>
       <c r="BX32" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>218014.33678338933</v>
       </c>
       <c r="BY32" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>228436.91454904163</v>
       </c>
       <c r="BZ32" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>239353.88913660386</v>
       </c>
       <c r="CA32" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>250788.71768817594</v>
       </c>
       <c r="CB32" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>262765.9751556773</v>
       </c>
       <c r="CC32" s="2">
@@ -6872,447 +6927,447 @@
         <v>260138.31540412051</v>
       </c>
       <c r="CD32" s="2">
-        <f t="shared" ref="CD32:EO32" si="149">+CC32*(1+$CE$37)</f>
+        <f t="shared" ref="CD32:EO32" si="148">+CC32*(1+$CE$37)</f>
         <v>257536.93225007929</v>
       </c>
       <c r="CE32" s="2">
+        <f t="shared" si="148"/>
+        <v>254961.56292757849</v>
+      </c>
+      <c r="CF32" s="2">
+        <f t="shared" si="148"/>
+        <v>252411.94729830269</v>
+      </c>
+      <c r="CG32" s="2">
+        <f t="shared" si="148"/>
+        <v>249887.82782531966</v>
+      </c>
+      <c r="CH32" s="2">
+        <f t="shared" si="148"/>
+        <v>247388.94954706647</v>
+      </c>
+      <c r="CI32" s="2">
+        <f t="shared" si="148"/>
+        <v>244915.06005159579</v>
+      </c>
+      <c r="CJ32" s="2">
+        <f t="shared" si="148"/>
+        <v>242465.90945107985</v>
+      </c>
+      <c r="CK32" s="2">
+        <f t="shared" si="148"/>
+        <v>240041.25035656904</v>
+      </c>
+      <c r="CL32" s="2">
+        <f t="shared" si="148"/>
+        <v>237640.83785300335</v>
+      </c>
+      <c r="CM32" s="2">
+        <f t="shared" si="148"/>
+        <v>235264.42947447332</v>
+      </c>
+      <c r="CN32" s="2">
+        <f t="shared" si="148"/>
+        <v>232911.78517972858</v>
+      </c>
+      <c r="CO32" s="2">
+        <f t="shared" si="148"/>
+        <v>230582.6673279313</v>
+      </c>
+      <c r="CP32" s="2">
+        <f t="shared" si="148"/>
+        <v>228276.84065465198</v>
+      </c>
+      <c r="CQ32" s="2">
+        <f t="shared" si="148"/>
+        <v>225994.07224810545</v>
+      </c>
+      <c r="CR32" s="2">
+        <f t="shared" si="148"/>
+        <v>223734.1315256244</v>
+      </c>
+      <c r="CS32" s="2">
+        <f t="shared" si="148"/>
+        <v>221496.79021036814</v>
+      </c>
+      <c r="CT32" s="2">
+        <f t="shared" si="148"/>
+        <v>219281.82230826447</v>
+      </c>
+      <c r="CU32" s="2">
+        <f t="shared" si="148"/>
+        <v>217089.00408518183</v>
+      </c>
+      <c r="CV32" s="2">
+        <f t="shared" si="148"/>
+        <v>214918.11404433002</v>
+      </c>
+      <c r="CW32" s="2">
+        <f t="shared" si="148"/>
+        <v>212768.93290388671</v>
+      </c>
+      <c r="CX32" s="2">
+        <f t="shared" si="148"/>
+        <v>210641.24357484785</v>
+      </c>
+      <c r="CY32" s="2">
+        <f t="shared" si="148"/>
+        <v>208534.83113909938</v>
+      </c>
+      <c r="CZ32" s="2">
+        <f t="shared" si="148"/>
+        <v>206449.48282770839</v>
+      </c>
+      <c r="DA32" s="2">
+        <f t="shared" si="148"/>
+        <v>204384.98799943129</v>
+      </c>
+      <c r="DB32" s="2">
+        <f t="shared" si="148"/>
+        <v>202341.13811943698</v>
+      </c>
+      <c r="DC32" s="2">
+        <f t="shared" si="148"/>
+        <v>200317.72673824261</v>
+      </c>
+      <c r="DD32" s="2">
+        <f t="shared" si="148"/>
+        <v>198314.54947086019</v>
+      </c>
+      <c r="DE32" s="2">
+        <f t="shared" si="148"/>
+        <v>196331.40397615157</v>
+      </c>
+      <c r="DF32" s="2">
+        <f t="shared" si="148"/>
+        <v>194368.08993639005</v>
+      </c>
+      <c r="DG32" s="2">
+        <f t="shared" si="148"/>
+        <v>192424.40903702614</v>
+      </c>
+      <c r="DH32" s="2">
+        <f t="shared" si="148"/>
+        <v>190500.16494665589</v>
+      </c>
+      <c r="DI32" s="2">
+        <f t="shared" si="148"/>
+        <v>188595.16329718934</v>
+      </c>
+      <c r="DJ32" s="2">
+        <f t="shared" si="148"/>
+        <v>186709.21166421744</v>
+      </c>
+      <c r="DK32" s="2">
+        <f t="shared" si="148"/>
+        <v>184842.11954757525</v>
+      </c>
+      <c r="DL32" s="2">
+        <f t="shared" si="148"/>
+        <v>182993.69835209948</v>
+      </c>
+      <c r="DM32" s="2">
+        <f t="shared" si="148"/>
+        <v>181163.76136857847</v>
+      </c>
+      <c r="DN32" s="2">
+        <f t="shared" si="148"/>
+        <v>179352.1237548927</v>
+      </c>
+      <c r="DO32" s="2">
+        <f t="shared" si="148"/>
+        <v>177558.60251734377</v>
+      </c>
+      <c r="DP32" s="2">
+        <f t="shared" si="148"/>
+        <v>175783.01649217034</v>
+      </c>
+      <c r="DQ32" s="2">
+        <f t="shared" si="148"/>
+        <v>174025.18632724864</v>
+      </c>
+      <c r="DR32" s="2">
+        <f t="shared" si="148"/>
+        <v>172284.93446397615</v>
+      </c>
+      <c r="DS32" s="2">
+        <f t="shared" si="148"/>
+        <v>170562.08511933638</v>
+      </c>
+      <c r="DT32" s="2">
+        <f t="shared" si="148"/>
+        <v>168856.46426814303</v>
+      </c>
+      <c r="DU32" s="2">
+        <f t="shared" si="148"/>
+        <v>167167.89962546161</v>
+      </c>
+      <c r="DV32" s="2">
+        <f t="shared" si="148"/>
+        <v>165496.22062920697</v>
+      </c>
+      <c r="DW32" s="2">
+        <f t="shared" si="148"/>
+        <v>163841.25842291489</v>
+      </c>
+      <c r="DX32" s="2">
+        <f t="shared" si="148"/>
+        <v>162202.84583868575</v>
+      </c>
+      <c r="DY32" s="2">
+        <f t="shared" si="148"/>
+        <v>160580.81738029889</v>
+      </c>
+      <c r="DZ32" s="2">
+        <f t="shared" si="148"/>
+        <v>158975.00920649589</v>
+      </c>
+      <c r="EA32" s="2">
+        <f t="shared" si="148"/>
+        <v>157385.25911443093</v>
+      </c>
+      <c r="EB32" s="2">
+        <f t="shared" si="148"/>
+        <v>155811.40652328663</v>
+      </c>
+      <c r="EC32" s="2">
+        <f t="shared" si="148"/>
+        <v>154253.29245805377</v>
+      </c>
+      <c r="ED32" s="2">
+        <f t="shared" si="148"/>
+        <v>152710.75953347323</v>
+      </c>
+      <c r="EE32" s="2">
+        <f t="shared" si="148"/>
+        <v>151183.6519381385</v>
+      </c>
+      <c r="EF32" s="2">
+        <f t="shared" si="148"/>
+        <v>149671.81541875712</v>
+      </c>
+      <c r="EG32" s="2">
+        <f t="shared" si="148"/>
+        <v>148175.09726456954</v>
+      </c>
+      <c r="EH32" s="2">
+        <f t="shared" si="148"/>
+        <v>146693.34629192384</v>
+      </c>
+      <c r="EI32" s="2">
+        <f t="shared" si="148"/>
+        <v>145226.41282900461</v>
+      </c>
+      <c r="EJ32" s="2">
+        <f t="shared" si="148"/>
+        <v>143774.14870071455</v>
+      </c>
+      <c r="EK32" s="2">
+        <f t="shared" si="148"/>
+        <v>142336.4072137074</v>
+      </c>
+      <c r="EL32" s="2">
+        <f t="shared" si="148"/>
+        <v>140913.04314157032</v>
+      </c>
+      <c r="EM32" s="2">
+        <f t="shared" si="148"/>
+        <v>139503.9127101546</v>
+      </c>
+      <c r="EN32" s="2">
+        <f t="shared" si="148"/>
+        <v>138108.87358305306</v>
+      </c>
+      <c r="EO32" s="2">
+        <f t="shared" si="148"/>
+        <v>136727.78484722253</v>
+      </c>
+      <c r="EP32" s="2">
+        <f t="shared" ref="EP32:GJ32" si="149">+EO32*(1+$CE$37)</f>
+        <v>135360.50699875029</v>
+      </c>
+      <c r="EQ32" s="2">
         <f t="shared" si="149"/>
-        <v>254961.56292757849</v>
-      </c>
-      <c r="CF32" s="2">
+        <v>134006.90192876279</v>
+      </c>
+      <c r="ER32" s="2">
         <f t="shared" si="149"/>
-        <v>252411.94729830269</v>
-      </c>
-      <c r="CG32" s="2">
+        <v>132666.83290947517</v>
+      </c>
+      <c r="ES32" s="2">
         <f t="shared" si="149"/>
-        <v>249887.82782531966</v>
-      </c>
-      <c r="CH32" s="2">
+        <v>131340.16458038043</v>
+      </c>
+      <c r="ET32" s="2">
         <f t="shared" si="149"/>
-        <v>247388.94954706647</v>
-      </c>
-      <c r="CI32" s="2">
+        <v>130026.76293457662</v>
+      </c>
+      <c r="EU32" s="2">
         <f t="shared" si="149"/>
-        <v>244915.06005159579</v>
-      </c>
-      <c r="CJ32" s="2">
+        <v>128726.49530523086</v>
+      </c>
+      <c r="EV32" s="2">
         <f t="shared" si="149"/>
-        <v>242465.90945107985</v>
-      </c>
-      <c r="CK32" s="2">
+        <v>127439.23035217855</v>
+      </c>
+      <c r="EW32" s="2">
         <f t="shared" si="149"/>
-        <v>240041.25035656904</v>
-      </c>
-      <c r="CL32" s="2">
+        <v>126164.83804865676</v>
+      </c>
+      <c r="EX32" s="2">
         <f t="shared" si="149"/>
-        <v>237640.83785300335</v>
-      </c>
-      <c r="CM32" s="2">
+        <v>124903.18966817019</v>
+      </c>
+      <c r="EY32" s="2">
         <f t="shared" si="149"/>
-        <v>235264.42947447332</v>
-      </c>
-      <c r="CN32" s="2">
+        <v>123654.15777148849</v>
+      </c>
+      <c r="EZ32" s="2">
         <f t="shared" si="149"/>
-        <v>232911.78517972858</v>
-      </c>
-      <c r="CO32" s="2">
+        <v>122417.6161937736</v>
+      </c>
+      <c r="FA32" s="2">
         <f t="shared" si="149"/>
-        <v>230582.6673279313</v>
-      </c>
-      <c r="CP32" s="2">
+        <v>121193.44003183587</v>
+      </c>
+      <c r="FB32" s="2">
         <f t="shared" si="149"/>
-        <v>228276.84065465198</v>
-      </c>
-      <c r="CQ32" s="2">
+        <v>119981.5056315175</v>
+      </c>
+      <c r="FC32" s="2">
         <f t="shared" si="149"/>
-        <v>225994.07224810545</v>
-      </c>
-      <c r="CR32" s="2">
+        <v>118781.69057520233</v>
+      </c>
+      <c r="FD32" s="2">
         <f t="shared" si="149"/>
-        <v>223734.1315256244</v>
-      </c>
-      <c r="CS32" s="2">
+        <v>117593.8736694503</v>
+      </c>
+      <c r="FE32" s="2">
         <f t="shared" si="149"/>
-        <v>221496.79021036814</v>
-      </c>
-      <c r="CT32" s="2">
+        <v>116417.9349327558</v>
+      </c>
+      <c r="FF32" s="2">
         <f t="shared" si="149"/>
-        <v>219281.82230826447</v>
-      </c>
-      <c r="CU32" s="2">
+        <v>115253.75558342824</v>
+      </c>
+      <c r="FG32" s="2">
         <f t="shared" si="149"/>
-        <v>217089.00408518183</v>
-      </c>
-      <c r="CV32" s="2">
+        <v>114101.21802759396</v>
+      </c>
+      <c r="FH32" s="2">
         <f t="shared" si="149"/>
-        <v>214918.11404433002</v>
-      </c>
-      <c r="CW32" s="2">
+        <v>112960.20584731802</v>
+      </c>
+      <c r="FI32" s="2">
         <f t="shared" si="149"/>
-        <v>212768.93290388671</v>
-      </c>
-      <c r="CX32" s="2">
+        <v>111830.60378884485</v>
+      </c>
+      <c r="FJ32" s="2">
         <f t="shared" si="149"/>
-        <v>210641.24357484785</v>
-      </c>
-      <c r="CY32" s="2">
+        <v>110712.29775095639</v>
+      </c>
+      <c r="FK32" s="2">
         <f t="shared" si="149"/>
-        <v>208534.83113909938</v>
-      </c>
-      <c r="CZ32" s="2">
+        <v>109605.17477344682</v>
+      </c>
+      <c r="FL32" s="2">
         <f t="shared" si="149"/>
-        <v>206449.48282770839</v>
-      </c>
-      <c r="DA32" s="2">
+        <v>108509.12302571235</v>
+      </c>
+      <c r="FM32" s="2">
         <f t="shared" si="149"/>
-        <v>204384.98799943129</v>
-      </c>
-      <c r="DB32" s="2">
+        <v>107424.03179545523</v>
+      </c>
+      <c r="FN32" s="2">
         <f t="shared" si="149"/>
-        <v>202341.13811943698</v>
-      </c>
-      <c r="DC32" s="2">
+        <v>106349.79147750068</v>
+      </c>
+      <c r="FO32" s="2">
         <f t="shared" si="149"/>
-        <v>200317.72673824261</v>
-      </c>
-      <c r="DD32" s="2">
+        <v>105286.29356272567</v>
+      </c>
+      <c r="FP32" s="2">
         <f t="shared" si="149"/>
-        <v>198314.54947086019</v>
-      </c>
-      <c r="DE32" s="2">
+        <v>104233.43062709841</v>
+      </c>
+      <c r="FQ32" s="2">
         <f t="shared" si="149"/>
-        <v>196331.40397615157</v>
-      </c>
-      <c r="DF32" s="2">
+        <v>103191.09632082742</v>
+      </c>
+      <c r="FR32" s="2">
         <f t="shared" si="149"/>
-        <v>194368.08993639005</v>
-      </c>
-      <c r="DG32" s="2">
+        <v>102159.18535761915</v>
+      </c>
+      <c r="FS32" s="2">
         <f t="shared" si="149"/>
-        <v>192424.40903702614</v>
-      </c>
-      <c r="DH32" s="2">
+        <v>101137.59350404296</v>
+      </c>
+      <c r="FT32" s="2">
         <f t="shared" si="149"/>
-        <v>190500.16494665589</v>
-      </c>
-      <c r="DI32" s="2">
+        <v>100126.21756900253</v>
+      </c>
+      <c r="FU32" s="2">
         <f t="shared" si="149"/>
-        <v>188595.16329718934</v>
-      </c>
-      <c r="DJ32" s="2">
+        <v>99124.955393312499</v>
+      </c>
+      <c r="FV32" s="2">
         <f t="shared" si="149"/>
-        <v>186709.21166421744</v>
-      </c>
-      <c r="DK32" s="2">
+        <v>98133.70583937937</v>
+      </c>
+      <c r="FW32" s="2">
         <f t="shared" si="149"/>
-        <v>184842.11954757525</v>
-      </c>
-      <c r="DL32" s="2">
+        <v>97152.368780985576</v>
+      </c>
+      <c r="FX32" s="2">
         <f t="shared" si="149"/>
-        <v>182993.69835209948</v>
-      </c>
-      <c r="DM32" s="2">
+        <v>96180.845093175725</v>
+      </c>
+      <c r="FY32" s="2">
         <f t="shared" si="149"/>
-        <v>181163.76136857847</v>
-      </c>
-      <c r="DN32" s="2">
+        <v>95219.036642243969</v>
+      </c>
+      <c r="FZ32" s="2">
         <f t="shared" si="149"/>
-        <v>179352.1237548927</v>
-      </c>
-      <c r="DO32" s="2">
+        <v>94266.846275821532</v>
+      </c>
+      <c r="GA32" s="2">
         <f t="shared" si="149"/>
-        <v>177558.60251734377</v>
-      </c>
-      <c r="DP32" s="2">
+        <v>93324.177813063317</v>
+      </c>
+      <c r="GB32" s="2">
         <f t="shared" si="149"/>
-        <v>175783.01649217034</v>
-      </c>
-      <c r="DQ32" s="2">
+        <v>92390.936034932689</v>
+      </c>
+      <c r="GC32" s="2">
         <f t="shared" si="149"/>
-        <v>174025.18632724864</v>
-      </c>
-      <c r="DR32" s="2">
+        <v>91467.026674583365</v>
+      </c>
+      <c r="GD32" s="2">
         <f t="shared" si="149"/>
-        <v>172284.93446397615</v>
-      </c>
-      <c r="DS32" s="2">
+        <v>90552.356407837535</v>
+      </c>
+      <c r="GE32" s="2">
         <f t="shared" si="149"/>
-        <v>170562.08511933638</v>
-      </c>
-      <c r="DT32" s="2">
+        <v>89646.832843759155</v>
+      </c>
+      <c r="GF32" s="2">
         <f t="shared" si="149"/>
-        <v>168856.46426814303</v>
-      </c>
-      <c r="DU32" s="2">
+        <v>88750.364515321562</v>
+      </c>
+      <c r="GG32" s="2">
         <f t="shared" si="149"/>
-        <v>167167.89962546161</v>
-      </c>
-      <c r="DV32" s="2">
+        <v>87862.860870168341</v>
+      </c>
+      <c r="GH32" s="2">
         <f t="shared" si="149"/>
-        <v>165496.22062920697</v>
-      </c>
-      <c r="DW32" s="2">
+        <v>86984.232261466663</v>
+      </c>
+      <c r="GI32" s="2">
         <f t="shared" si="149"/>
-        <v>163841.25842291489</v>
-      </c>
-      <c r="DX32" s="2">
+        <v>86114.389938851993</v>
+      </c>
+      <c r="GJ32" s="2">
         <f t="shared" si="149"/>
-        <v>162202.84583868575</v>
-      </c>
-      <c r="DY32" s="2">
-        <f t="shared" si="149"/>
-        <v>160580.81738029889</v>
-      </c>
-      <c r="DZ32" s="2">
-        <f t="shared" si="149"/>
-        <v>158975.00920649589</v>
-      </c>
-      <c r="EA32" s="2">
-        <f t="shared" si="149"/>
-        <v>157385.25911443093</v>
-      </c>
-      <c r="EB32" s="2">
-        <f t="shared" si="149"/>
-        <v>155811.40652328663</v>
-      </c>
-      <c r="EC32" s="2">
-        <f t="shared" si="149"/>
-        <v>154253.29245805377</v>
-      </c>
-      <c r="ED32" s="2">
-        <f t="shared" si="149"/>
-        <v>152710.75953347323</v>
-      </c>
-      <c r="EE32" s="2">
-        <f t="shared" si="149"/>
-        <v>151183.6519381385</v>
-      </c>
-      <c r="EF32" s="2">
-        <f t="shared" si="149"/>
-        <v>149671.81541875712</v>
-      </c>
-      <c r="EG32" s="2">
-        <f t="shared" si="149"/>
-        <v>148175.09726456954</v>
-      </c>
-      <c r="EH32" s="2">
-        <f t="shared" si="149"/>
-        <v>146693.34629192384</v>
-      </c>
-      <c r="EI32" s="2">
-        <f t="shared" si="149"/>
-        <v>145226.41282900461</v>
-      </c>
-      <c r="EJ32" s="2">
-        <f t="shared" si="149"/>
-        <v>143774.14870071455</v>
-      </c>
-      <c r="EK32" s="2">
-        <f t="shared" si="149"/>
-        <v>142336.4072137074</v>
-      </c>
-      <c r="EL32" s="2">
-        <f t="shared" si="149"/>
-        <v>140913.04314157032</v>
-      </c>
-      <c r="EM32" s="2">
-        <f t="shared" si="149"/>
-        <v>139503.9127101546</v>
-      </c>
-      <c r="EN32" s="2">
-        <f t="shared" si="149"/>
-        <v>138108.87358305306</v>
-      </c>
-      <c r="EO32" s="2">
-        <f t="shared" si="149"/>
-        <v>136727.78484722253</v>
-      </c>
-      <c r="EP32" s="2">
-        <f t="shared" ref="EP32:GJ32" si="150">+EO32*(1+$CE$37)</f>
-        <v>135360.50699875029</v>
-      </c>
-      <c r="EQ32" s="2">
-        <f t="shared" si="150"/>
-        <v>134006.90192876279</v>
-      </c>
-      <c r="ER32" s="2">
-        <f t="shared" si="150"/>
-        <v>132666.83290947517</v>
-      </c>
-      <c r="ES32" s="2">
-        <f t="shared" si="150"/>
-        <v>131340.16458038043</v>
-      </c>
-      <c r="ET32" s="2">
-        <f t="shared" si="150"/>
-        <v>130026.76293457662</v>
-      </c>
-      <c r="EU32" s="2">
-        <f t="shared" si="150"/>
-        <v>128726.49530523086</v>
-      </c>
-      <c r="EV32" s="2">
-        <f t="shared" si="150"/>
-        <v>127439.23035217855</v>
-      </c>
-      <c r="EW32" s="2">
-        <f t="shared" si="150"/>
-        <v>126164.83804865676</v>
-      </c>
-      <c r="EX32" s="2">
-        <f t="shared" si="150"/>
-        <v>124903.18966817019</v>
-      </c>
-      <c r="EY32" s="2">
-        <f t="shared" si="150"/>
-        <v>123654.15777148849</v>
-      </c>
-      <c r="EZ32" s="2">
-        <f t="shared" si="150"/>
-        <v>122417.6161937736</v>
-      </c>
-      <c r="FA32" s="2">
-        <f t="shared" si="150"/>
-        <v>121193.44003183587</v>
-      </c>
-      <c r="FB32" s="2">
-        <f t="shared" si="150"/>
-        <v>119981.5056315175</v>
-      </c>
-      <c r="FC32" s="2">
-        <f t="shared" si="150"/>
-        <v>118781.69057520233</v>
-      </c>
-      <c r="FD32" s="2">
-        <f t="shared" si="150"/>
-        <v>117593.8736694503</v>
-      </c>
-      <c r="FE32" s="2">
-        <f t="shared" si="150"/>
-        <v>116417.9349327558</v>
-      </c>
-      <c r="FF32" s="2">
-        <f t="shared" si="150"/>
-        <v>115253.75558342824</v>
-      </c>
-      <c r="FG32" s="2">
-        <f t="shared" si="150"/>
-        <v>114101.21802759396</v>
-      </c>
-      <c r="FH32" s="2">
-        <f t="shared" si="150"/>
-        <v>112960.20584731802</v>
-      </c>
-      <c r="FI32" s="2">
-        <f t="shared" si="150"/>
-        <v>111830.60378884485</v>
-      </c>
-      <c r="FJ32" s="2">
-        <f t="shared" si="150"/>
-        <v>110712.29775095639</v>
-      </c>
-      <c r="FK32" s="2">
-        <f t="shared" si="150"/>
-        <v>109605.17477344682</v>
-      </c>
-      <c r="FL32" s="2">
-        <f t="shared" si="150"/>
-        <v>108509.12302571235</v>
-      </c>
-      <c r="FM32" s="2">
-        <f t="shared" si="150"/>
-        <v>107424.03179545523</v>
-      </c>
-      <c r="FN32" s="2">
-        <f t="shared" si="150"/>
-        <v>106349.79147750068</v>
-      </c>
-      <c r="FO32" s="2">
-        <f t="shared" si="150"/>
-        <v>105286.29356272567</v>
-      </c>
-      <c r="FP32" s="2">
-        <f t="shared" si="150"/>
-        <v>104233.43062709841</v>
-      </c>
-      <c r="FQ32" s="2">
-        <f t="shared" si="150"/>
-        <v>103191.09632082742</v>
-      </c>
-      <c r="FR32" s="2">
-        <f t="shared" si="150"/>
-        <v>102159.18535761915</v>
-      </c>
-      <c r="FS32" s="2">
-        <f t="shared" si="150"/>
-        <v>101137.59350404296</v>
-      </c>
-      <c r="FT32" s="2">
-        <f t="shared" si="150"/>
-        <v>100126.21756900253</v>
-      </c>
-      <c r="FU32" s="2">
-        <f t="shared" si="150"/>
-        <v>99124.955393312499</v>
-      </c>
-      <c r="FV32" s="2">
-        <f t="shared" si="150"/>
-        <v>98133.70583937937</v>
-      </c>
-      <c r="FW32" s="2">
-        <f t="shared" si="150"/>
-        <v>97152.368780985576</v>
-      </c>
-      <c r="FX32" s="2">
-        <f t="shared" si="150"/>
-        <v>96180.845093175725</v>
-      </c>
-      <c r="FY32" s="2">
-        <f t="shared" si="150"/>
-        <v>95219.036642243969</v>
-      </c>
-      <c r="FZ32" s="2">
-        <f t="shared" si="150"/>
-        <v>94266.846275821532</v>
-      </c>
-      <c r="GA32" s="2">
-        <f t="shared" si="150"/>
-        <v>93324.177813063317</v>
-      </c>
-      <c r="GB32" s="2">
-        <f t="shared" si="150"/>
-        <v>92390.936034932689</v>
-      </c>
-      <c r="GC32" s="2">
-        <f t="shared" si="150"/>
-        <v>91467.026674583365</v>
-      </c>
-      <c r="GD32" s="2">
-        <f t="shared" si="150"/>
-        <v>90552.356407837535</v>
-      </c>
-      <c r="GE32" s="2">
-        <f t="shared" si="150"/>
-        <v>89646.832843759155</v>
-      </c>
-      <c r="GF32" s="2">
-        <f t="shared" si="150"/>
-        <v>88750.364515321562</v>
-      </c>
-      <c r="GG32" s="2">
-        <f t="shared" si="150"/>
-        <v>87862.860870168341</v>
-      </c>
-      <c r="GH32" s="2">
-        <f t="shared" si="150"/>
-        <v>86984.232261466663</v>
-      </c>
-      <c r="GI32" s="2">
-        <f t="shared" si="150"/>
-        <v>86114.389938851993</v>
-      </c>
-      <c r="GJ32" s="2">
-        <f t="shared" si="150"/>
         <v>85253.246039463469</v>
       </c>
     </row>
@@ -7321,19 +7376,19 @@
         <v>36</v>
       </c>
       <c r="C33" s="12">
-        <f t="shared" ref="C33" si="151">+C32/C34</f>
+        <f t="shared" ref="C33" si="150">+C32/C34</f>
         <v>0.97255857987156114</v>
       </c>
       <c r="D33" s="12">
-        <f t="shared" ref="D33:F33" si="152">+D32/D34</f>
+        <f t="shared" ref="D33:F33" si="151">+D32/D34</f>
         <v>0.68176083107937602</v>
       </c>
       <c r="E33" s="12">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>0.58452984598534197</v>
       </c>
       <c r="F33" s="12">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>0.70623460408563088</v>
       </c>
       <c r="G33" s="12"/>
@@ -7341,19 +7396,19 @@
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12">
-        <f t="shared" ref="K33:N33" si="153">+K32/K34</f>
+        <f t="shared" ref="K33:N33" si="152">+K32/K34</f>
         <v>1.2479223042091785</v>
       </c>
       <c r="L33" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>0.63846699811252383</v>
       </c>
       <c r="M33" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>0.64601300384622584</v>
       </c>
       <c r="N33" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>0.73438904632051849</v>
       </c>
       <c r="O33" s="12">
@@ -7369,11 +7424,11 @@
         <v>1.2956943963183782</v>
       </c>
       <c r="R33" s="12">
-        <f t="shared" ref="R33" si="154">+R32/R34</f>
+        <f t="shared" ref="R33" si="153">+R32/R34</f>
         <v>1.2354000701047909</v>
       </c>
       <c r="S33" s="12">
-        <f t="shared" ref="S33" si="155">+S32/S34</f>
+        <f t="shared" ref="S33" si="154">+S32/S34</f>
         <v>2.0963369432743812</v>
       </c>
       <c r="T33" s="12">
@@ -7381,141 +7436,141 @@
         <v>1.5246917147727936</v>
       </c>
       <c r="U33" s="12">
-        <f t="shared" ref="U33:Z33" si="156">+U32/U34</f>
+        <f t="shared" ref="U33:Z33" si="155">+U32/U34</f>
         <v>1.1955329791418789</v>
       </c>
       <c r="V33" s="12">
+        <f t="shared" si="155"/>
+        <v>1.2855442500262897</v>
+      </c>
+      <c r="W33" s="12">
+        <f t="shared" si="155"/>
+        <v>1.8800783518485347</v>
+      </c>
+      <c r="X33" s="12">
+        <f t="shared" si="155"/>
+        <v>1.5245739743359175</v>
+      </c>
+      <c r="Y33" s="12">
+        <f t="shared" si="155"/>
+        <v>1.2602852614896989</v>
+      </c>
+      <c r="Z33" s="12">
+        <f t="shared" si="155"/>
+        <v>1.4647405630279984</v>
+      </c>
+      <c r="AA33" s="12">
+        <f t="shared" ref="AA33:AB33" si="156">+AA32/AA34</f>
+        <v>2.1773628858750742</v>
+      </c>
+      <c r="AB33" s="12">
         <f t="shared" si="156"/>
-        <v>1.2855442500262897</v>
-      </c>
-      <c r="W33" s="12">
-        <f t="shared" si="156"/>
-        <v>1.8800783518485347</v>
-      </c>
-      <c r="X33" s="12">
-        <f t="shared" si="156"/>
-        <v>1.5245739743359175</v>
-      </c>
-      <c r="Y33" s="12">
-        <f t="shared" si="156"/>
-        <v>1.2602852614896989</v>
-      </c>
-      <c r="Z33" s="12">
-        <f t="shared" si="156"/>
-        <v>1.4647405630279984</v>
-      </c>
-      <c r="AA33" s="12">
-        <f t="shared" ref="AA33:AB33" si="157">+AA32/AA34</f>
-        <v>2.1773628858750742</v>
-      </c>
-      <c r="AB33" s="12">
+        <v>1.5283831076291186</v>
+      </c>
+      <c r="AC33" s="12">
+        <f t="shared" ref="AC33:AD33" si="157">+AC32/AC34</f>
+        <v>1.3974299876043894</v>
+      </c>
+      <c r="AD33" s="12">
         <f t="shared" si="157"/>
-        <v>1.5283831076291186</v>
-      </c>
-      <c r="AC33" s="12">
-        <f t="shared" ref="AC33:AD33" si="158">+AC32/AC34</f>
-        <v>1.3974299876043894</v>
-      </c>
-      <c r="AD33" s="12">
+        <v>0.96674815403651804</v>
+      </c>
+      <c r="AE33" s="12">
+        <f t="shared" ref="AE33:AH33" si="158">+AE32/AE34</f>
+        <v>2.3978828931549452</v>
+      </c>
+      <c r="AF33" s="12">
         <f t="shared" si="158"/>
-        <v>0.96674815403651804</v>
-      </c>
-      <c r="AE33" s="12">
-        <f t="shared" ref="AE33:AH33" si="159">+AE32/AE34</f>
-        <v>2.3978828931549452</v>
-      </c>
-      <c r="AF33" s="12">
-        <f t="shared" si="159"/>
-        <v>1.6736020276730077</v>
+        <v>1.6458409340565736</v>
       </c>
       <c r="AG33" s="12">
-        <f t="shared" si="159"/>
-        <v>1.5062119789860184</v>
+        <f t="shared" si="158"/>
+        <v>1.5156889458269265</v>
       </c>
       <c r="AH33" s="12">
-        <f t="shared" si="159"/>
-        <v>1.7529053892302517</v>
+        <f t="shared" si="158"/>
+        <v>1.7639345315294437</v>
       </c>
       <c r="AI33" s="12"/>
       <c r="AJ33" s="12"/>
       <c r="AN33" s="12">
-        <f t="shared" ref="AN33:AO33" si="160">+AN32/AN34</f>
+        <f t="shared" ref="AN33:AO33" si="159">+AN32/AN34</f>
         <v>1.4348197733151276</v>
       </c>
       <c r="AO33" s="12">
+        <f t="shared" si="159"/>
+        <v>-0.33563552296933274</v>
+      </c>
+      <c r="AP33" s="12">
+        <f t="shared" ref="AP33:AR33" si="160">+AP32/AP34</f>
+        <v>0.26535096811642273</v>
+      </c>
+      <c r="AQ33" s="12">
         <f t="shared" si="160"/>
-        <v>-0.33563552296933274</v>
-      </c>
-      <c r="AP33" s="12">
-        <f t="shared" ref="AP33:AR33" si="161">+AP32/AP34</f>
-        <v>0.26535096811642273</v>
-      </c>
-      <c r="AQ33" s="12">
+        <v>0.12931058200767059</v>
+      </c>
+      <c r="AR33" s="12">
+        <f t="shared" si="160"/>
+        <v>0.38599471742346592</v>
+      </c>
+      <c r="AS33" s="12">
+        <f t="shared" ref="AS33:AT33" si="161">+AS32/AS34</f>
+        <v>1.5581596209061837</v>
+      </c>
+      <c r="AT33" s="12">
         <f t="shared" si="161"/>
-        <v>0.12931058200767059</v>
-      </c>
-      <c r="AR33" s="12">
-        <f t="shared" si="161"/>
-        <v>0.38599471742346592</v>
-      </c>
-      <c r="AS33" s="12">
-        <f t="shared" ref="AS33:AT33" si="162">+AS32/AS34</f>
-        <v>1.5581596209061837</v>
-      </c>
-      <c r="AT33" s="12">
+        <v>2.266599508162721</v>
+      </c>
+      <c r="AU33" s="12">
+        <f t="shared" ref="AU33:AV33" si="162">+AU32/AU34</f>
+        <v>3.9312171930029729</v>
+      </c>
+      <c r="AV33" s="12">
         <f t="shared" si="162"/>
-        <v>2.266599508162721</v>
-      </c>
-      <c r="AU33" s="12">
-        <f t="shared" ref="AU33:AV33" si="163">+AU32/AU34</f>
-        <v>3.9312171930029729</v>
-      </c>
-      <c r="AV33" s="12">
+        <v>6.7827685090656757</v>
+      </c>
+      <c r="AW33" s="12">
+        <f t="shared" ref="AW33:AY33" si="163">+AW32/AW34</f>
+        <v>9.0793325284866118</v>
+      </c>
+      <c r="AX33" s="12">
         <f t="shared" si="163"/>
-        <v>6.7827685090656757</v>
-      </c>
-      <c r="AW33" s="12">
-        <f t="shared" ref="AW33:AY33" si="164">+AW32/AW34</f>
-        <v>9.0793325284866118</v>
-      </c>
-      <c r="AX33" s="12">
+        <v>15.15390737872981</v>
+      </c>
+      <c r="AY33" s="12">
+        <f t="shared" si="163"/>
+        <v>27.675373273759003</v>
+      </c>
+      <c r="AZ33" s="12">
+        <f t="shared" ref="AZ33:BE33" si="164">+AZ32/AZ34</f>
+        <v>6.3064763445557777</v>
+      </c>
+      <c r="BA33" s="12">
         <f t="shared" si="164"/>
-        <v>15.15390737872981</v>
-      </c>
-      <c r="AY33" s="12">
+        <v>5.6790982137298718</v>
+      </c>
+      <c r="BB33" s="12">
         <f t="shared" si="164"/>
-        <v>27.675373273759003</v>
-      </c>
-      <c r="AZ33" s="12">
-        <f t="shared" ref="AZ33:BE33" si="165">+AZ32/AZ34</f>
-        <v>6.3064763445557777</v>
-      </c>
-      <c r="BA33" s="12">
+        <v>6.4530744220284548</v>
+      </c>
+      <c r="BC33" s="12">
+        <f t="shared" si="164"/>
+        <v>9.216876236067618</v>
+      </c>
+      <c r="BD33" s="12">
+        <f t="shared" si="164"/>
+        <v>8.3063028961611227</v>
+      </c>
+      <c r="BE33" s="12">
+        <f t="shared" si="164"/>
+        <v>9.2067470826545037</v>
+      </c>
+      <c r="BF33" s="12">
+        <f t="shared" ref="BF33:BG33" si="165">+BF32/BF34</f>
+        <v>2.9764851126245446</v>
+      </c>
+      <c r="BG33" s="12">
         <f t="shared" si="165"/>
-        <v>5.6790982137298718</v>
-      </c>
-      <c r="BB33" s="12">
-        <f t="shared" si="165"/>
-        <v>6.4530744220284548</v>
-      </c>
-      <c r="BC33" s="12">
-        <f t="shared" si="165"/>
-        <v>9.216876236067618</v>
-      </c>
-      <c r="BD33" s="12">
-        <f t="shared" si="165"/>
-        <v>8.3063028961611227</v>
-      </c>
-      <c r="BE33" s="12">
-        <f t="shared" si="165"/>
-        <v>9.2067470826545037</v>
-      </c>
-      <c r="BF33" s="12">
-        <f t="shared" ref="BF33:BG33" si="166">+BF32/BF34</f>
-        <v>2.9764851126245446</v>
-      </c>
-      <c r="BG33" s="12">
-        <f t="shared" si="166"/>
         <v>2.9714474637107351</v>
       </c>
       <c r="BH33" s="12">
@@ -7535,72 +7590,72 @@
         <v>6.1340548534195198</v>
       </c>
       <c r="BL33" s="12">
-        <f t="shared" ref="BL33:CB33" si="167">+BL32/BL34</f>
+        <f t="shared" ref="BL33:CB33" si="166">+BL32/BL34</f>
         <v>6.0835556272062066</v>
       </c>
       <c r="BM33" s="12">
-        <f t="shared" si="167"/>
-        <v>7.3428742184316196</v>
+        <f t="shared" si="166"/>
+        <v>7.3774703879303285</v>
       </c>
       <c r="BN33" s="12">
-        <f t="shared" si="167"/>
-        <v>8.0140698400688581</v>
+        <f t="shared" si="166"/>
+        <v>8.0518283676309341</v>
       </c>
       <c r="BO33" s="12">
-        <f t="shared" si="167"/>
-        <v>8.7439960526372769</v>
+        <f t="shared" si="166"/>
+        <v>8.7851936491824745</v>
       </c>
       <c r="BP33" s="12">
-        <f t="shared" si="167"/>
-        <v>9.5379090957271409</v>
+        <f t="shared" si="166"/>
+        <v>9.5828472371038202</v>
       </c>
       <c r="BQ33" s="12">
-        <f t="shared" si="167"/>
-        <v>10.117853370111799</v>
+        <f t="shared" si="166"/>
+        <v>10.165523936124877</v>
       </c>
       <c r="BR33" s="12">
-        <f t="shared" si="167"/>
-        <v>10.668335339286186</v>
+        <f t="shared" si="166"/>
+        <v>10.718599517411498</v>
       </c>
       <c r="BS33" s="12">
-        <f t="shared" si="167"/>
-        <v>11.247458028412042</v>
+        <f t="shared" si="166"/>
+        <v>11.300450760250458</v>
       </c>
       <c r="BT33" s="12">
-        <f t="shared" si="167"/>
-        <v>11.856680894357037</v>
+        <f t="shared" si="166"/>
+        <v>11.912543997783709</v>
       </c>
       <c r="BU33" s="12">
-        <f t="shared" si="167"/>
-        <v>12.497537139689769</v>
+        <f t="shared" si="166"/>
+        <v>12.556419656309188</v>
       </c>
       <c r="BV33" s="12">
-        <f t="shared" si="167"/>
-        <v>13.105775001360145</v>
+        <f t="shared" si="166"/>
+        <v>13.167523248690989</v>
       </c>
       <c r="BW33" s="12">
-        <f t="shared" si="167"/>
-        <v>13.732797789197292</v>
+        <f t="shared" si="166"/>
+        <v>13.797500272975919</v>
       </c>
       <c r="BX33" s="12">
-        <f t="shared" si="167"/>
-        <v>14.389563683881372</v>
+        <f t="shared" si="166"/>
+        <v>14.457360539637175</v>
       </c>
       <c r="BY33" s="12">
-        <f t="shared" si="167"/>
-        <v>15.077483335046654</v>
+        <f t="shared" si="166"/>
+        <v>15.148521344626593</v>
       </c>
       <c r="BZ33" s="12">
-        <f t="shared" si="167"/>
-        <v>15.798034576679541</v>
+        <f t="shared" si="166"/>
+        <v>15.872467484789194</v>
       </c>
       <c r="CA33" s="12">
-        <f t="shared" si="167"/>
-        <v>16.552765646593507</v>
+        <f t="shared" si="166"/>
+        <v>16.630754492506799</v>
       </c>
       <c r="CB33" s="12">
-        <f t="shared" si="167"/>
-        <v>17.343298561215963</v>
+        <f t="shared" si="166"/>
+        <v>17.425012026385289</v>
       </c>
     </row>
     <row r="34" spans="2:83" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7687,16 +7742,15 @@
         <v>15150.865</v>
       </c>
       <c r="AF34" s="2">
-        <f>+AE34</f>
-        <v>15150.865</v>
+        <v>15056.133</v>
       </c>
       <c r="AG34" s="2">
         <f>+AF34</f>
-        <v>15150.865</v>
+        <v>15056.133</v>
       </c>
       <c r="AH34" s="2">
         <f>+AG34</f>
-        <v>15150.865</v>
+        <v>15056.133</v>
       </c>
       <c r="AN34" s="2">
         <v>360.32400000000001</v>
@@ -7781,67 +7835,67 @@
       </c>
       <c r="BM34" s="2">
         <f>AVERAGE(AE34:AH34)</f>
-        <v>15150.865</v>
+        <v>15079.816000000001</v>
       </c>
       <c r="BN34" s="2">
-        <f t="shared" ref="BN34:CB34" si="168">+BM34</f>
-        <v>15150.865</v>
+        <f t="shared" ref="BN34:CB34" si="167">+BM34</f>
+        <v>15079.816000000001</v>
       </c>
       <c r="BO34" s="2">
-        <f t="shared" si="168"/>
-        <v>15150.865</v>
+        <f t="shared" si="167"/>
+        <v>15079.816000000001</v>
       </c>
       <c r="BP34" s="2">
-        <f t="shared" si="168"/>
-        <v>15150.865</v>
+        <f t="shared" si="167"/>
+        <v>15079.816000000001</v>
       </c>
       <c r="BQ34" s="2">
-        <f t="shared" si="168"/>
-        <v>15150.865</v>
+        <f t="shared" si="167"/>
+        <v>15079.816000000001</v>
       </c>
       <c r="BR34" s="2">
-        <f t="shared" si="168"/>
-        <v>15150.865</v>
+        <f t="shared" si="167"/>
+        <v>15079.816000000001</v>
       </c>
       <c r="BS34" s="2">
-        <f t="shared" si="168"/>
-        <v>15150.865</v>
+        <f t="shared" si="167"/>
+        <v>15079.816000000001</v>
       </c>
       <c r="BT34" s="2">
-        <f t="shared" si="168"/>
-        <v>15150.865</v>
+        <f t="shared" si="167"/>
+        <v>15079.816000000001</v>
       </c>
       <c r="BU34" s="2">
-        <f t="shared" si="168"/>
-        <v>15150.865</v>
+        <f t="shared" si="167"/>
+        <v>15079.816000000001</v>
       </c>
       <c r="BV34" s="2">
-        <f t="shared" si="168"/>
-        <v>15150.865</v>
+        <f t="shared" si="167"/>
+        <v>15079.816000000001</v>
       </c>
       <c r="BW34" s="2">
-        <f t="shared" si="168"/>
-        <v>15150.865</v>
+        <f t="shared" si="167"/>
+        <v>15079.816000000001</v>
       </c>
       <c r="BX34" s="2">
-        <f t="shared" si="168"/>
-        <v>15150.865</v>
+        <f t="shared" si="167"/>
+        <v>15079.816000000001</v>
       </c>
       <c r="BY34" s="2">
-        <f t="shared" si="168"/>
-        <v>15150.865</v>
+        <f t="shared" si="167"/>
+        <v>15079.816000000001</v>
       </c>
       <c r="BZ34" s="2">
-        <f t="shared" si="168"/>
-        <v>15150.865</v>
+        <f t="shared" si="167"/>
+        <v>15079.816000000001</v>
       </c>
       <c r="CA34" s="2">
-        <f t="shared" si="168"/>
-        <v>15150.865</v>
+        <f t="shared" si="167"/>
+        <v>15079.816000000001</v>
       </c>
       <c r="CB34" s="2">
-        <f t="shared" si="168"/>
-        <v>15150.865</v>
+        <f t="shared" si="167"/>
+        <v>15079.816000000001</v>
       </c>
     </row>
     <row r="36" spans="2:83" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -7856,15 +7910,15 @@
         <v>0.21368126422635836</v>
       </c>
       <c r="P36" s="9">
-        <f t="shared" ref="P36" si="169">P20/L20-1</f>
+        <f t="shared" ref="P36" si="168">P20/L20-1</f>
         <v>0.53626121105070901</v>
       </c>
       <c r="Q36" s="9">
-        <f t="shared" ref="Q36" si="170">Q20/M20-1</f>
+        <f t="shared" ref="Q36" si="169">Q20/M20-1</f>
         <v>0.36439641450950822</v>
       </c>
       <c r="R36" s="9">
-        <f t="shared" ref="R36" si="171">R20/N20-1</f>
+        <f t="shared" ref="R36" si="170">R20/N20-1</f>
         <v>0.28844786546724777</v>
       </c>
       <c r="S36" s="9">
@@ -7884,129 +7938,129 @@
         <v>8.1405950095969182E-2</v>
       </c>
       <c r="W36" s="9">
-        <f t="shared" ref="W36:Z36" si="172">W20/S20-1</f>
+        <f t="shared" ref="W36:Z36" si="171">W20/S20-1</f>
         <v>-5.4790431239662762E-2</v>
       </c>
       <c r="X36" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>-2.5103312156911084E-2</v>
       </c>
       <c r="Y36" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>-1.4006919080509661E-2</v>
       </c>
       <c r="Z36" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>-7.1883389168682088E-3</v>
       </c>
       <c r="AA36" s="9">
-        <f t="shared" ref="AA36" si="173">AA20/W20-1</f>
+        <f t="shared" ref="AA36" si="172">AA20/W20-1</f>
         <v>2.0665107465387411E-2</v>
       </c>
       <c r="AB36" s="9">
-        <f t="shared" ref="AB36" si="174">AB20/X20-1</f>
+        <f t="shared" ref="AB36" si="173">AB20/X20-1</f>
         <v>-4.3053270909781061E-2</v>
       </c>
       <c r="AC36" s="9">
-        <f t="shared" ref="AC36" si="175">AC20/Y20-1</f>
+        <f t="shared" ref="AC36" si="174">AC20/Y20-1</f>
         <v>4.8657041211780383E-2</v>
       </c>
       <c r="AD36" s="9">
-        <f t="shared" ref="AD36:AH36" si="176">AD20/Z20-1</f>
+        <f t="shared" ref="AD36:AH36" si="175">AD20/Z20-1</f>
         <v>6.0694093722764686E-2</v>
       </c>
       <c r="AE36" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>3.9514948776918191E-2</v>
       </c>
       <c r="AF36" s="9">
-        <f t="shared" si="176"/>
-        <v>3.6298855134265562E-2</v>
+        <f t="shared" si="175"/>
+        <v>5.075314314678292E-2</v>
       </c>
       <c r="AG36" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>2.1291138650221031E-2</v>
       </c>
       <c r="AH36" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>2.0522279574423319E-2</v>
       </c>
       <c r="AI36" s="9"/>
       <c r="AJ36" s="9"/>
       <c r="AN36" s="9">
-        <f t="shared" ref="AN36:AT36" si="177">+AN20/AM20-1</f>
+        <f t="shared" ref="AN36:AT36" si="176">+AN20/AM20-1</f>
         <v>0.30143462667101395</v>
       </c>
       <c r="AO36" s="9">
+        <f t="shared" si="176"/>
+        <v>-0.32819741951647252</v>
+      </c>
+      <c r="AP36" s="9">
+        <f t="shared" si="176"/>
+        <v>7.0669401454409808E-2</v>
+      </c>
+      <c r="AQ36" s="9">
+        <f t="shared" si="176"/>
+        <v>8.0982236154649945E-2</v>
+      </c>
+      <c r="AR36" s="9">
+        <f t="shared" si="176"/>
+        <v>0.33381665861124543</v>
+      </c>
+      <c r="AS36" s="9">
+        <f t="shared" si="176"/>
+        <v>0.68269114627370464</v>
+      </c>
+      <c r="AT36" s="9">
+        <f t="shared" si="176"/>
+        <v>0.38647620414902017</v>
+      </c>
+      <c r="AU36" s="9">
+        <f t="shared" ref="AU36:AV36" si="177">+AU20/AT20-1</f>
+        <v>0.24286823712140815</v>
+      </c>
+      <c r="AV36" s="9">
         <f t="shared" si="177"/>
-        <v>-0.32819741951647252</v>
-      </c>
-      <c r="AP36" s="9">
-        <f t="shared" si="177"/>
-        <v>7.0669401454409808E-2</v>
-      </c>
-      <c r="AQ36" s="9">
-        <f t="shared" si="177"/>
-        <v>8.0982236154649945E-2</v>
-      </c>
-      <c r="AR36" s="9">
-        <f t="shared" si="177"/>
-        <v>0.33381665861124543</v>
-      </c>
-      <c r="AS36" s="9">
-        <f t="shared" si="177"/>
-        <v>0.68269114627370464</v>
-      </c>
-      <c r="AT36" s="9">
-        <f t="shared" si="177"/>
-        <v>0.38647620414902017</v>
-      </c>
-      <c r="AU36" s="9">
-        <f t="shared" ref="AU36:AV36" si="178">+AU20/AT20-1</f>
-        <v>0.24286823712140815</v>
-      </c>
-      <c r="AV36" s="9">
+        <v>0.56173456635841035</v>
+      </c>
+      <c r="AW36" s="9">
+        <f t="shared" ref="AW36:BB36" si="178">+AW20/AV20-1</f>
+        <v>0.14440799125123371</v>
+      </c>
+      <c r="AX36" s="9">
         <f t="shared" si="178"/>
-        <v>0.56173456635841035</v>
-      </c>
-      <c r="AW36" s="9">
-        <f t="shared" ref="AW36:BB36" si="179">+AW20/AV20-1</f>
-        <v>0.14440799125123371</v>
-      </c>
-      <c r="AX36" s="9">
+        <v>0.52021908868430256</v>
+      </c>
+      <c r="AY36" s="9">
+        <f t="shared" si="178"/>
+        <v>0.65962437715599842</v>
+      </c>
+      <c r="AZ36" s="9">
+        <f t="shared" si="178"/>
+        <v>0.44581474193756976</v>
+      </c>
+      <c r="BA36" s="9">
+        <f t="shared" si="178"/>
+        <v>9.2020855163953197E-2</v>
+      </c>
+      <c r="BB36" s="9">
+        <f t="shared" si="178"/>
+        <v>6.9539523725937524E-2</v>
+      </c>
+      <c r="BC36" s="9">
+        <f t="shared" ref="BC36:BF36" si="179">+BC20/BB20-1</f>
+        <v>0.27856341803659834</v>
+      </c>
+      <c r="BD36" s="9">
         <f t="shared" si="179"/>
-        <v>0.52021908868430256</v>
-      </c>
-      <c r="AY36" s="9">
+        <v>-7.7342061913013738E-2</v>
+      </c>
+      <c r="BE36" s="9">
         <f t="shared" si="179"/>
-        <v>0.65962437715599842</v>
-      </c>
-      <c r="AZ36" s="9">
+        <v>6.304518199398057E-2</v>
+      </c>
+      <c r="BF36" s="9">
         <f t="shared" si="179"/>
-        <v>0.44581474193756976</v>
-      </c>
-      <c r="BA36" s="9">
-        <f t="shared" si="179"/>
-        <v>9.2020855163953197E-2</v>
-      </c>
-      <c r="BB36" s="9">
-        <f t="shared" si="179"/>
-        <v>6.9539523725937524E-2</v>
-      </c>
-      <c r="BC36" s="9">
-        <f t="shared" ref="BC36:BF36" si="180">+BC20/BB20-1</f>
-        <v>0.27856341803659834</v>
-      </c>
-      <c r="BD36" s="9">
-        <f t="shared" si="180"/>
-        <v>-7.7342061913013738E-2</v>
-      </c>
-      <c r="BE36" s="9">
-        <f t="shared" si="180"/>
-        <v>6.304518199398057E-2</v>
-      </c>
-      <c r="BF36" s="9">
-        <f t="shared" si="180"/>
         <v>0.15861957650261305</v>
       </c>
       <c r="BG36" s="9">
@@ -8018,83 +8072,83 @@
         <v>5.5120803769784787E-2</v>
       </c>
       <c r="BI36" s="9">
-        <f t="shared" ref="BI36:CB36" si="181">+BI20/BH20-1</f>
+        <f t="shared" ref="BI36:CB36" si="180">+BI20/BH20-1</f>
         <v>0.33259384733074704</v>
       </c>
       <c r="BJ36" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>7.7937876041846099E-2</v>
       </c>
       <c r="BK36" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-2.800460530319937E-2</v>
       </c>
       <c r="BL36" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>2.021994077514111E-2</v>
       </c>
       <c r="BM36" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.11765159195963926</v>
       </c>
       <c r="BN36" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>6.6070808352805876E-2</v>
       </c>
       <c r="BO36" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>6.6485316846670361E-2</v>
       </c>
       <c r="BP36" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>6.6905452919508779E-2</v>
       </c>
       <c r="BQ36" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>5.3447771782809683E-2</v>
       </c>
       <c r="BR36" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>4.7573033802885023E-2</v>
       </c>
       <c r="BS36" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>4.7593868549967722E-2</v>
       </c>
       <c r="BT36" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>4.7614782229041364E-2</v>
       </c>
       <c r="BU36" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>4.7635775550880277E-2</v>
       </c>
       <c r="BV36" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>4.2505849062257406E-2</v>
       </c>
       <c r="BW36" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>4.1760944585279347E-2</v>
       </c>
       <c r="BX36" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>4.1799225996251632E-2</v>
       </c>
       <c r="BY36" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>4.183761544036968E-2</v>
       </c>
       <c r="BZ36" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>4.1876110527089283E-2</v>
       </c>
       <c r="CA36" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>4.1914708836016112E-2</v>
       </c>
       <c r="CB36" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>4.1953407917453944E-2</v>
       </c>
       <c r="CD36" s="4" t="s">
@@ -8112,88 +8166,88 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9">
-        <f t="shared" ref="O37:X37" si="182">+O10/K10-1</f>
+        <f t="shared" ref="O37:X37" si="181">+O10/K10-1</f>
         <v>0.1722751398395197</v>
       </c>
       <c r="P37" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.65520336993301576</v>
       </c>
       <c r="Q37" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.49784238019532134</v>
       </c>
       <c r="R37" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.46982302223566785</v>
       </c>
       <c r="S37" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>9.1940180191167231E-2</v>
       </c>
       <c r="T37" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>5.4904251324627618E-2</v>
       </c>
       <c r="U37" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>2.7672479150871787E-2</v>
       </c>
       <c r="V37" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>9.6686220026757308E-2</v>
       </c>
       <c r="W37" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>-8.1713854917071505E-2</v>
       </c>
       <c r="X37" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>1.510777140597197E-2</v>
       </c>
       <c r="AU37" s="9"/>
       <c r="AV37" s="9">
-        <f t="shared" ref="AV37" si="183">+AV10/AU10-1</f>
+        <f t="shared" ref="AV37" si="182">+AV10/AU10-1</f>
         <v>53.8130081300813</v>
       </c>
       <c r="AW37" s="9">
-        <f t="shared" ref="AW37:BD37" si="184">+AW10/AV10-1</f>
+        <f t="shared" ref="AW37:BD37" si="183">+AW10/AV10-1</f>
         <v>0.93310590329279153</v>
       </c>
       <c r="AX37" s="9">
+        <f t="shared" si="183"/>
+        <v>0.93194199340136574</v>
+      </c>
+      <c r="AY37" s="9">
+        <f t="shared" si="183"/>
+        <v>0.82683982683982693</v>
+      </c>
+      <c r="AZ37" s="9">
+        <f t="shared" si="183"/>
+        <v>0.71077003347971646</v>
+      </c>
+      <c r="BA37" s="9">
+        <f t="shared" si="183"/>
+        <v>0.15995272708788688</v>
+      </c>
+      <c r="BB37" s="9">
+        <f t="shared" si="183"/>
+        <v>0.11735448460215392</v>
+      </c>
+      <c r="BC37" s="9">
+        <f t="shared" si="183"/>
+        <v>0.52014393426870997</v>
+      </c>
+      <c r="BD37" s="9">
+        <f t="shared" si="183"/>
+        <v>-0.11829774059764842</v>
+      </c>
+      <c r="BE37" s="9">
+        <f t="shared" ref="BE37:BI37" si="184">+BE10/BD10-1</f>
+        <v>3.3789319678127372E-2</v>
+      </c>
+      <c r="BF37" s="9">
         <f t="shared" si="184"/>
-        <v>0.93194199340136574</v>
-      </c>
-      <c r="AY37" s="9">
-        <f t="shared" si="184"/>
-        <v>0.82683982683982693</v>
-      </c>
-      <c r="AZ37" s="9">
-        <f t="shared" si="184"/>
-        <v>0.71077003347971646</v>
-      </c>
-      <c r="BA37" s="9">
-        <f t="shared" si="184"/>
-        <v>0.15995272708788688</v>
-      </c>
-      <c r="BB37" s="9">
-        <f t="shared" si="184"/>
-        <v>0.11735448460215392</v>
-      </c>
-      <c r="BC37" s="9">
-        <f t="shared" si="184"/>
-        <v>0.52014393426870997</v>
-      </c>
-      <c r="BD37" s="9">
-        <f t="shared" si="184"/>
-        <v>-0.11829774059764842</v>
-      </c>
-      <c r="BE37" s="9">
-        <f t="shared" ref="BE37:BI37" si="185">+BE10/BD10-1</f>
-        <v>3.3789319678127372E-2</v>
-      </c>
-      <c r="BF37" s="9">
-        <f t="shared" si="185"/>
         <v>0.16677870633106662</v>
       </c>
       <c r="BG37" s="9">
@@ -8205,7 +8259,7 @@
         <v>-3.2307681502447672E-2</v>
       </c>
       <c r="BI37" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>0.39331983364905176</v>
       </c>
       <c r="BJ37" s="9">
@@ -8217,71 +8271,71 @@
         <v>-2.3874757286278081E-2</v>
       </c>
       <c r="BL37" s="9">
-        <f t="shared" ref="BL37:CB37" si="186">+BL10/BK10-1</f>
+        <f t="shared" ref="BL37:CB37" si="185">+BL10/BK10-1</f>
         <v>2.9912804175826757E-3</v>
       </c>
       <c r="BM37" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>0.13387662109590526</v>
       </c>
       <c r="BN37" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>5.6640000000000024E-2</v>
       </c>
       <c r="BO37" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>5.6640000000000024E-2</v>
       </c>
       <c r="BP37" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>5.6640000000000246E-2</v>
       </c>
       <c r="BQ37" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>5.6639999999999802E-2</v>
       </c>
       <c r="BR37" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>4.6479999999999855E-2</v>
       </c>
       <c r="BS37" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>4.6480000000000299E-2</v>
       </c>
       <c r="BT37" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>4.6479999999999855E-2</v>
       </c>
       <c r="BU37" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>4.6480000000000077E-2</v>
       </c>
       <c r="BV37" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>3.6320000000000352E-2</v>
       </c>
       <c r="BW37" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>3.6319999999999908E-2</v>
       </c>
       <c r="BX37" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>3.632000000000013E-2</v>
       </c>
       <c r="BY37" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>3.6319999999999908E-2</v>
       </c>
       <c r="BZ37" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>3.632000000000013E-2</v>
       </c>
       <c r="CA37" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>3.6319999999999908E-2</v>
       </c>
       <c r="CB37" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>3.632000000000013E-2</v>
       </c>
       <c r="CD37" s="4" t="s">
@@ -8303,35 +8357,35 @@
         <v>0.23955957530475813</v>
       </c>
       <c r="P38" s="9">
-        <f t="shared" ref="P38:W38" si="187">+P19/L19-1</f>
+        <f t="shared" ref="P38:W38" si="186">+P19/L19-1</f>
         <v>0.26618219958046141</v>
       </c>
       <c r="Q38" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>0.32912739434478566</v>
       </c>
       <c r="R38" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>0.25623754209911342</v>
       </c>
       <c r="S38" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>0.23824630416851722</v>
       </c>
       <c r="T38" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>0.17277084196201398</v>
       </c>
       <c r="U38" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>0.12112547180601618</v>
       </c>
       <c r="V38" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>4.984406631285232E-2</v>
       </c>
       <c r="W38" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>6.4050010248001721E-2</v>
       </c>
       <c r="X38" s="9">
@@ -8339,43 +8393,43 @@
         <v>5.4790373845921003E-2</v>
       </c>
       <c r="Y38" s="9">
-        <f t="shared" ref="Y38:Z38" si="188">+Y19/U19-1</f>
+        <f t="shared" ref="Y38:Z38" si="187">+Y19/U19-1</f>
         <v>8.2075086716996593E-2</v>
       </c>
       <c r="Z38" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.16291432145090678</v>
       </c>
       <c r="AA38" s="9">
-        <f t="shared" ref="AA38" si="189">+AA19/W19-1</f>
+        <f t="shared" ref="AA38" si="188">+AA19/W19-1</f>
         <v>0.11321390734855052</v>
       </c>
       <c r="AB38" s="9">
-        <f t="shared" ref="AB38" si="190">+AB19/X19-1</f>
+        <f t="shared" ref="AB38" si="189">+AB19/X19-1</f>
         <v>0.14157937532883724</v>
       </c>
       <c r="AC38" s="9">
-        <f t="shared" ref="AC38" si="191">+AC19/Y19-1</f>
+        <f t="shared" ref="AC38" si="190">+AC19/Y19-1</f>
         <v>0.1414227124876255</v>
       </c>
       <c r="AD38" s="9">
-        <f t="shared" ref="AD38:AE38" si="192">+AD19/Z19-1</f>
+        <f t="shared" ref="AD38:AE38" si="191">+AD19/Z19-1</f>
         <v>0.11911804248453883</v>
       </c>
       <c r="AE38" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>0.13942120517368162</v>
       </c>
       <c r="AF38" s="9">
-        <f t="shared" ref="AF38" si="193">+AF19/AB19-1</f>
-        <v>0.1100000000000001</v>
+        <f t="shared" ref="AF38" si="192">+AF19/AB19-1</f>
+        <v>0.11639502241588806</v>
       </c>
       <c r="AG38" s="9">
-        <f t="shared" ref="AG38" si="194">+AG19/AC19-1</f>
+        <f t="shared" ref="AG38" si="193">+AG19/AC19-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AH38" s="9">
-        <f t="shared" ref="AH38" si="195">+AH19/AD19-1</f>
+        <f t="shared" ref="AH38" si="194">+AH19/AD19-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AI38" s="9"/>
@@ -8385,15 +8439,15 @@
         <v>0.16461205595250084</v>
       </c>
       <c r="BH38" s="9">
-        <f t="shared" ref="BH38:BJ38" si="196">+BH19/BG19-1</f>
+        <f t="shared" ref="BH38:BJ38" si="195">+BH19/BG19-1</f>
         <v>0.16152167807997242</v>
       </c>
       <c r="BI38" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>0.27259708376729663</v>
       </c>
       <c r="BJ38" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>0.14181951041286078</v>
       </c>
       <c r="BK38" s="9">
@@ -8401,71 +8455,71 @@
         <v>9.0504166186691215E-2</v>
       </c>
       <c r="BL38" s="9">
-        <f t="shared" ref="BL38:CB38" si="197">+BL19/BK19-1</f>
+        <f t="shared" ref="BL38:CB38" si="196">+BL19/BK19-1</f>
         <v>0.12874413145539898</v>
       </c>
       <c r="BM38" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="BN38" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BO38" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BP38" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BQ38" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BR38" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BS38" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BT38" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BU38" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV38" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW38" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BX38" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BY38" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BZ38" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CA38" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CB38" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CD38" s="4" t="s">
@@ -8473,7 +8527,7 @@
       </c>
       <c r="CE38" s="8">
         <f>NPV(CE36,BK32:GJ32)+Main!O5-Main!O6</f>
-        <v>2400459.1071151011</v>
+        <v>2390626.1071151011</v>
       </c>
     </row>
     <row r="39" spans="2:83" ht="13" x14ac:dyDescent="0.3">
@@ -8483,39 +8537,39 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5">
-        <f t="shared" ref="E39" si="198">+E24/E20</f>
+        <f t="shared" ref="E39" si="197">+E24/E20</f>
         <v>0.38338496198254013</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" ref="K39" si="199">+K24/K20</f>
+        <f t="shared" ref="K39" si="198">+K24/K20</f>
         <v>0.38354806739345887</v>
       </c>
       <c r="L39" s="5">
-        <f t="shared" ref="L39:N39" si="200">+L24/L20</f>
+        <f t="shared" ref="L39:N39" si="199">+L24/L20</f>
         <v>0.38361943305952362</v>
       </c>
       <c r="M39" s="5">
+        <f t="shared" si="199"/>
+        <v>0.37999497361146017</v>
+      </c>
+      <c r="N39" s="5">
+        <f t="shared" si="199"/>
+        <v>0.38160375900336951</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" ref="O39:Q39" si="200">+O24/O20</f>
+        <v>0.39777815665969724</v>
+      </c>
+      <c r="P39" s="5">
         <f t="shared" si="200"/>
-        <v>0.37999497361146017</v>
-      </c>
-      <c r="N39" s="5">
+        <v>0.42506474370423292</v>
+      </c>
+      <c r="Q39" s="5">
         <f t="shared" si="200"/>
-        <v>0.38160375900336951</v>
-      </c>
-      <c r="O39" s="5">
-        <f t="shared" ref="O39:Q39" si="201">+O24/O20</f>
-        <v>0.39777815665969724</v>
-      </c>
-      <c r="P39" s="5">
-        <f t="shared" si="201"/>
-        <v>0.42506474370423292</v>
-      </c>
-      <c r="Q39" s="5">
-        <f t="shared" si="201"/>
         <v>0.43292727853230839</v>
       </c>
       <c r="R39" s="5">
-        <f t="shared" ref="R39" si="202">+R24/R20</f>
+        <f t="shared" ref="R39" si="201">+R24/R20</f>
         <v>0.42195297504798462</v>
       </c>
       <c r="S39" s="5">
@@ -8531,117 +8585,117 @@
         <v>0.43256307332537758</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" ref="V39:X39" si="203">+V24/V20</f>
+        <f t="shared" ref="V39:X39" si="202">+V24/V20</f>
         <v>0.4225922392563175</v>
       </c>
       <c r="W39" s="5">
+        <f t="shared" si="202"/>
+        <v>0.42962254809908323</v>
+      </c>
+      <c r="X39" s="5">
+        <f t="shared" si="202"/>
+        <v>0.44261672782487665</v>
+      </c>
+      <c r="Y39" s="5">
+        <f t="shared" ref="Y39:Z39" si="203">+Y24/Y20</f>
+        <v>0.44516302553883397</v>
+      </c>
+      <c r="Z39" s="5">
         <f t="shared" si="203"/>
-        <v>0.42962254809908323</v>
-      </c>
-      <c r="X39" s="5">
-        <f t="shared" si="203"/>
-        <v>0.44261672782487665</v>
-      </c>
-      <c r="Y39" s="5">
-        <f t="shared" ref="Y39:Z39" si="204">+Y24/Y20</f>
-        <v>0.44516302553883397</v>
-      </c>
-      <c r="Z39" s="5">
+        <v>0.45170841806520817</v>
+      </c>
+      <c r="AA39" s="5">
+        <f t="shared" ref="AA39:AD39" si="204">+AA24/AA20</f>
+        <v>0.45874973865774621</v>
+      </c>
+      <c r="AB39" s="5">
         <f t="shared" si="204"/>
-        <v>0.45170841806520817</v>
-      </c>
-      <c r="AA39" s="5">
-        <f t="shared" ref="AA39:AD39" si="205">+AA24/AA20</f>
-        <v>0.45874973865774621</v>
-      </c>
-      <c r="AB39" s="5">
-        <f t="shared" si="205"/>
         <v>0.46578074554009236</v>
       </c>
       <c r="AC39" s="5">
-        <f t="shared" si="205"/>
+        <f t="shared" si="204"/>
         <v>0.46257155181458898</v>
       </c>
       <c r="AD39" s="5">
-        <f t="shared" si="205"/>
+        <f t="shared" si="204"/>
         <v>0.4622247972190035</v>
       </c>
       <c r="AE39" s="5">
-        <f t="shared" ref="AE39" si="206">+AE24/AE20</f>
+        <f t="shared" ref="AE39" si="205">+AE24/AE20</f>
         <v>0.46882542236524538</v>
       </c>
       <c r="AF39" s="5">
-        <f t="shared" ref="AF39:AH39" si="207">+AF24/AF20</f>
+        <f t="shared" ref="AF39:AH39" si="206">+AF24/AF20</f>
+        <v>0.47050619238876246</v>
+      </c>
+      <c r="AG39" s="5">
+        <f t="shared" si="206"/>
         <v>0.47</v>
       </c>
-      <c r="AG39" s="5">
-        <f t="shared" si="207"/>
-        <v>0.47</v>
-      </c>
       <c r="AH39" s="5">
-        <f t="shared" si="207"/>
+        <f t="shared" si="206"/>
         <v>0.46999999999999992</v>
       </c>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
       <c r="AN39" s="5">
-        <f t="shared" ref="AN39:AO39" si="208">+AN24/AN20</f>
+        <f t="shared" ref="AN39:AO39" si="207">+AN24/AN20</f>
         <v>0.27132656895903795</v>
       </c>
       <c r="AO39" s="5">
+        <f t="shared" si="207"/>
+        <v>0.23028155882901361</v>
+      </c>
+      <c r="AP39" s="5">
+        <f t="shared" ref="AP39:AS39" si="208">+AP24/AP20</f>
+        <v>0.27917102055033088</v>
+      </c>
+      <c r="AQ39" s="5">
         <f t="shared" si="208"/>
-        <v>0.23028155882901361</v>
-      </c>
-      <c r="AP39" s="5">
-        <f t="shared" ref="AP39:AS39" si="209">+AP24/AP20</f>
-        <v>0.27917102055033088</v>
-      </c>
-      <c r="AQ39" s="5">
+        <v>0.27517319155791847</v>
+      </c>
+      <c r="AR39" s="5">
+        <f t="shared" si="208"/>
+        <v>0.27285904094697427</v>
+      </c>
+      <c r="AS39" s="5">
+        <f t="shared" si="208"/>
+        <v>0.29021606489124974</v>
+      </c>
+      <c r="AT39" s="5">
+        <f t="shared" ref="AT39:AV39" si="209">+AT24/AT20</f>
+        <v>0.28982655966865128</v>
+      </c>
+      <c r="AU39" s="5">
         <f t="shared" si="209"/>
-        <v>0.27517319155791847</v>
-      </c>
-      <c r="AR39" s="5">
+        <v>0.33966508372906773</v>
+      </c>
+      <c r="AV39" s="5">
         <f t="shared" si="209"/>
-        <v>0.27285904094697427</v>
-      </c>
-      <c r="AS39" s="5">
-        <f t="shared" si="209"/>
-        <v>0.29021606489124974</v>
-      </c>
-      <c r="AT39" s="5">
-        <f t="shared" ref="AT39:AV39" si="210">+AT24/AT20</f>
-        <v>0.28982655966865128</v>
-      </c>
-      <c r="AU39" s="5">
+        <v>0.35200448107545812</v>
+      </c>
+      <c r="AW39" s="5">
+        <f t="shared" ref="AW39:AX39" si="210">+AW24/AW20</f>
+        <v>0.40139843841044165</v>
+      </c>
+      <c r="AX39" s="5">
         <f t="shared" si="210"/>
-        <v>0.33966508372906773</v>
-      </c>
-      <c r="AV39" s="5">
-        <f t="shared" si="210"/>
-        <v>0.35200448107545812</v>
-      </c>
-      <c r="AW39" s="5">
-        <f t="shared" ref="AW39:AX39" si="211">+AW24/AW20</f>
-        <v>0.40139843841044165</v>
-      </c>
-      <c r="AX39" s="5">
+        <v>0.39377539287083174</v>
+      </c>
+      <c r="AY39" s="5">
+        <f t="shared" ref="AY39:BB39" si="211">+AY24/AY20</f>
+        <v>0.40478895878945764</v>
+      </c>
+      <c r="AZ39" s="5">
         <f t="shared" si="211"/>
-        <v>0.39377539287083174</v>
-      </c>
-      <c r="AY39" s="5">
-        <f t="shared" ref="AY39:BB39" si="212">+AY24/AY20</f>
-        <v>0.40478895878945764</v>
-      </c>
-      <c r="AZ39" s="5">
-        <f t="shared" si="212"/>
         <v>0.43871239808827661</v>
       </c>
       <c r="BA39" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.37624480720847231</v>
       </c>
       <c r="BB39" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.38588035777783858</v>
       </c>
       <c r="BC39" s="5">
@@ -8657,23 +8711,23 @@
         <v>0.38469860491899105</v>
       </c>
       <c r="BF39" s="5">
-        <f t="shared" ref="BF39:BJ39" si="213">+BF24/BF20</f>
+        <f t="shared" ref="BF39:BJ39" si="212">+BF24/BF20</f>
         <v>0.38343718820007905</v>
       </c>
       <c r="BG39" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>0.37817768109034722</v>
       </c>
       <c r="BH39" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>0.38233247727810865</v>
       </c>
       <c r="BI39" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>0.41779359625167778</v>
       </c>
       <c r="BJ39" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>0.43309630561360085</v>
       </c>
       <c r="BK39" s="5">
@@ -8681,71 +8735,71 @@
         <v>0.44131129577207562</v>
       </c>
       <c r="BL39" s="5">
-        <f t="shared" ref="BL39:BU39" si="214">+BL24/BL20</f>
+        <f t="shared" ref="BL39:BU39" si="213">+BL24/BL20</f>
         <v>0.46206349815233932</v>
       </c>
       <c r="BM39" s="5">
+        <f t="shared" si="213"/>
+        <v>0.45362947589520725</v>
+      </c>
+      <c r="BN39" s="5">
+        <f t="shared" si="213"/>
+        <v>0.45660936466674518</v>
+      </c>
+      <c r="BO39" s="5">
+        <f t="shared" si="213"/>
+        <v>0.45964534856197958</v>
+      </c>
+      <c r="BP39" s="5">
+        <f t="shared" si="213"/>
+        <v>0.46273626694683956</v>
+      </c>
+      <c r="BQ39" s="5">
+        <f t="shared" si="213"/>
+        <v>0.46240002701949035</v>
+      </c>
+      <c r="BR39" s="5">
+        <f t="shared" si="213"/>
+        <v>0.46263726241610775</v>
+      </c>
+      <c r="BS39" s="5">
+        <f t="shared" si="213"/>
+        <v>0.46287300142953525</v>
+      </c>
+      <c r="BT39" s="5">
+        <f t="shared" si="213"/>
+        <v>0.46310722350746308</v>
+      </c>
+      <c r="BU39" s="5">
+        <f t="shared" si="213"/>
+        <v>0.46333990801899477</v>
+      </c>
+      <c r="BV39" s="5">
+        <f t="shared" ref="BV39:CB39" si="214">+BV24/BV20</f>
+        <v>0.46408277662667069</v>
+      </c>
+      <c r="BW39" s="5">
         <f t="shared" si="214"/>
-        <v>0.45362947589520725</v>
-      </c>
-      <c r="BN39" s="5">
+        <v>0.46490594413818304</v>
+      </c>
+      <c r="BX39" s="5">
         <f t="shared" si="214"/>
-        <v>0.45660936466674518</v>
-      </c>
-      <c r="BO39" s="5">
+        <v>0.46573173659229478</v>
+      </c>
+      <c r="BY39" s="5">
         <f t="shared" si="214"/>
-        <v>0.45964534856197958</v>
-      </c>
-      <c r="BP39" s="5">
+        <v>0.46656010281888677</v>
+      </c>
+      <c r="BZ39" s="5">
         <f t="shared" si="214"/>
-        <v>0.46273626694683956</v>
-      </c>
-      <c r="BQ39" s="5">
+        <v>0.4673909909530668</v>
+      </c>
+      <c r="CA39" s="5">
         <f t="shared" si="214"/>
-        <v>0.46240002701949035</v>
-      </c>
-      <c r="BR39" s="5">
+        <v>0.46822434844661281</v>
+      </c>
+      <c r="CB39" s="5">
         <f t="shared" si="214"/>
-        <v>0.46263726241610775</v>
-      </c>
-      <c r="BS39" s="5">
-        <f t="shared" si="214"/>
-        <v>0.46287300142953525</v>
-      </c>
-      <c r="BT39" s="5">
-        <f t="shared" si="214"/>
-        <v>0.46310722350746308</v>
-      </c>
-      <c r="BU39" s="5">
-        <f t="shared" si="214"/>
-        <v>0.46333990801899477</v>
-      </c>
-      <c r="BV39" s="5">
-        <f t="shared" ref="BV39:CB39" si="215">+BV24/BV20</f>
-        <v>0.46408277662667069</v>
-      </c>
-      <c r="BW39" s="5">
-        <f t="shared" si="215"/>
-        <v>0.46490594413818304</v>
-      </c>
-      <c r="BX39" s="5">
-        <f t="shared" si="215"/>
-        <v>0.46573173659229478</v>
-      </c>
-      <c r="BY39" s="5">
-        <f t="shared" si="215"/>
-        <v>0.46656010281888677</v>
-      </c>
-      <c r="BZ39" s="5">
-        <f t="shared" si="215"/>
-        <v>0.4673909909530668</v>
-      </c>
-      <c r="CA39" s="5">
-        <f t="shared" si="215"/>
-        <v>0.46822434844661281</v>
-      </c>
-      <c r="CB39" s="5">
-        <f t="shared" si="215"/>
         <v>0.46906012207980208</v>
       </c>
       <c r="CD39" s="4" t="s">
@@ -8753,7 +8807,7 @@
       </c>
       <c r="CE39" s="6">
         <f>CE38/Main!O3</f>
-        <v>158.43568788298469</v>
+        <v>158.7822866043505</v>
       </c>
     </row>
     <row r="40" spans="2:83" ht="13" x14ac:dyDescent="0.3">
@@ -8770,157 +8824,157 @@
         <v>0.64396382225717652</v>
       </c>
       <c r="L40" s="5">
-        <f t="shared" ref="L40:U40" si="216">(L19-L22)/L19</f>
+        <f t="shared" ref="L40:U40" si="215">(L19-L22)/L19</f>
         <v>0.65373089601438417</v>
       </c>
       <c r="M40" s="5">
+        <f t="shared" si="215"/>
+        <v>0.67224080267558528</v>
+      </c>
+      <c r="N40" s="5">
+        <f t="shared" si="215"/>
+        <v>0.66925561894288266</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="215"/>
+        <v>0.6839667533785927</v>
+      </c>
+      <c r="P40" s="5">
+        <f t="shared" si="215"/>
+        <v>0.70072776758771671</v>
+      </c>
+      <c r="Q40" s="5">
+        <f t="shared" si="215"/>
+        <v>0.69804414960539862</v>
+      </c>
+      <c r="R40" s="5">
+        <f t="shared" si="215"/>
+        <v>0.704765552333534</v>
+      </c>
+      <c r="S40" s="5">
+        <f t="shared" si="215"/>
+        <v>0.72366263578602175</v>
+      </c>
+      <c r="T40" s="5">
+        <f t="shared" si="215"/>
+        <v>0.72609858231168967</v>
+      </c>
+      <c r="U40" s="5">
+        <f t="shared" si="215"/>
+        <v>0.71490512140379514</v>
+      </c>
+      <c r="V40" s="5">
+        <f t="shared" ref="V40:X40" si="216">(V19-V22)/V19</f>
+        <v>0.70481550969355844</v>
+      </c>
+      <c r="W40" s="5">
         <f t="shared" si="216"/>
-        <v>0.67224080267558528</v>
-      </c>
-      <c r="N40" s="5">
+        <v>0.70832129442357705</v>
+      </c>
+      <c r="X40" s="5">
         <f t="shared" si="216"/>
-        <v>0.66925561894288266</v>
-      </c>
-      <c r="O40" s="5">
-        <f t="shared" si="216"/>
-        <v>0.6839667533785927</v>
-      </c>
-      <c r="P40" s="5">
-        <f t="shared" si="216"/>
-        <v>0.70072776758771671</v>
-      </c>
-      <c r="Q40" s="5">
-        <f t="shared" si="216"/>
-        <v>0.69804414960539862</v>
-      </c>
-      <c r="R40" s="5">
-        <f t="shared" si="216"/>
-        <v>0.704765552333534</v>
-      </c>
-      <c r="S40" s="5">
-        <f t="shared" si="216"/>
-        <v>0.72366263578602175</v>
-      </c>
-      <c r="T40" s="5">
-        <f t="shared" si="216"/>
-        <v>0.72609858231168967</v>
-      </c>
-      <c r="U40" s="5">
-        <f t="shared" si="216"/>
-        <v>0.71490512140379514</v>
-      </c>
-      <c r="V40" s="5">
-        <f t="shared" ref="V40:X40" si="217">(V19-V22)/V19</f>
-        <v>0.70481550969355844</v>
-      </c>
-      <c r="W40" s="5">
+        <v>0.70990577318601422</v>
+      </c>
+      <c r="Y40" s="5">
+        <f t="shared" ref="Y40:Z40" si="217">(Y19-Y22)/Y19</f>
+        <v>0.70546363079243857</v>
+      </c>
+      <c r="Z40" s="5">
         <f t="shared" si="217"/>
-        <v>0.70832129442357705</v>
-      </c>
-      <c r="X40" s="5">
-        <f t="shared" si="217"/>
-        <v>0.70990577318601422</v>
-      </c>
-      <c r="Y40" s="5">
-        <f t="shared" ref="Y40:Z40" si="218">(Y19-Y22)/Y19</f>
-        <v>0.70546363079243857</v>
-      </c>
-      <c r="Z40" s="5">
+        <v>0.70937528009321504</v>
+      </c>
+      <c r="AA40" s="5">
+        <f t="shared" ref="AA40:AD40" si="218">(AA19-AA22)/AA19</f>
+        <v>0.728338452221309</v>
+      </c>
+      <c r="AB40" s="5">
         <f t="shared" si="218"/>
-        <v>0.70937528009321504</v>
-      </c>
-      <c r="AA40" s="5">
-        <f t="shared" ref="AA40:AD40" si="219">(AA19-AA22)/AA19</f>
-        <v>0.728338452221309</v>
-      </c>
-      <c r="AB40" s="5">
-        <f t="shared" si="219"/>
         <v>0.74617672937528801</v>
       </c>
       <c r="AC40" s="5">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>0.73997439392062114</v>
       </c>
       <c r="AD40" s="5">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>0.74030914624379307</v>
       </c>
       <c r="AE40" s="5">
-        <f t="shared" ref="AE40" si="220">(AE19-AE22)/AE19</f>
+        <f t="shared" ref="AE40" si="219">(AE19-AE22)/AE19</f>
         <v>0.75026575550493546</v>
       </c>
       <c r="AF40" s="5">
-        <f t="shared" ref="AF40:AH40" si="221">(AF19-AF22)/AF19</f>
+        <f t="shared" ref="AF40:AH40" si="220">(AF19-AF22)/AF19</f>
+        <v>0.75747795083505343</v>
+      </c>
+      <c r="AG40" s="5">
+        <f t="shared" si="220"/>
         <v>1</v>
       </c>
-      <c r="AG40" s="5">
-        <f t="shared" si="221"/>
-        <v>1</v>
-      </c>
       <c r="AH40" s="5">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>1</v>
       </c>
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
       <c r="AN40" s="5">
-        <f t="shared" ref="AN40:AO40" si="222">(AN19-AN22)/AN19</f>
+        <f t="shared" ref="AN40:AO40" si="221">(AN19-AN22)/AN19</f>
         <v>1</v>
       </c>
       <c r="AO40" s="5">
+        <f t="shared" si="221"/>
+        <v>1</v>
+      </c>
+      <c r="AP40" s="5">
+        <f t="shared" ref="AP40:AS40" si="222">(AP19-AP22)/AP19</f>
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="5">
         <f t="shared" si="222"/>
         <v>1</v>
       </c>
-      <c r="AP40" s="5">
-        <f t="shared" ref="AP40:AS40" si="223">(AP19-AP22)/AP19</f>
+      <c r="AR40" s="5">
+        <f t="shared" si="222"/>
         <v>1</v>
       </c>
-      <c r="AQ40" s="5">
+      <c r="AS40" s="5">
+        <f t="shared" si="222"/>
+        <v>1</v>
+      </c>
+      <c r="AT40" s="5">
+        <f t="shared" ref="AT40:AV40" si="223">(AT19-AT22)/AT19</f>
+        <v>1</v>
+      </c>
+      <c r="AU40" s="5">
         <f t="shared" si="223"/>
         <v>1</v>
       </c>
-      <c r="AR40" s="5">
+      <c r="AV40" s="5">
         <f t="shared" si="223"/>
         <v>1</v>
       </c>
-      <c r="AS40" s="5">
-        <f t="shared" si="223"/>
+      <c r="AW40" s="5">
+        <f t="shared" ref="AW40:AX40" si="224">(AW19-AW22)/AW19</f>
         <v>1</v>
       </c>
-      <c r="AT40" s="5">
-        <f t="shared" ref="AT40:AV40" si="224">(AT19-AT22)/AT19</f>
-        <v>1</v>
-      </c>
-      <c r="AU40" s="5">
+      <c r="AX40" s="5">
         <f t="shared" si="224"/>
         <v>1</v>
       </c>
-      <c r="AV40" s="5">
-        <f t="shared" si="224"/>
+      <c r="AY40" s="5">
+        <f t="shared" ref="AY40:BB40" si="225">(AY19-AY22)/AY19</f>
         <v>1</v>
       </c>
-      <c r="AW40" s="5">
-        <f t="shared" ref="AW40:AX40" si="225">(AW19-AW22)/AW19</f>
-        <v>1</v>
-      </c>
-      <c r="AX40" s="5">
+      <c r="AZ40" s="5">
         <f t="shared" si="225"/>
         <v>1</v>
       </c>
-      <c r="AY40" s="5">
-        <f t="shared" ref="AY40:BB40" si="226">(AY19-AY22)/AY19</f>
+      <c r="BA40" s="5">
+        <f t="shared" si="225"/>
         <v>1</v>
       </c>
-      <c r="AZ40" s="5">
-        <f t="shared" si="226"/>
-        <v>1</v>
-      </c>
-      <c r="BA40" s="5">
-        <f t="shared" si="226"/>
-        <v>1</v>
-      </c>
       <c r="BB40" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>1</v>
       </c>
       <c r="BC40" s="5">
@@ -8936,23 +8990,23 @@
         <v>1</v>
       </c>
       <c r="BF40" s="5">
-        <f t="shared" ref="BF40:BJ40" si="227">(BF19-BF22)/BF19</f>
+        <f t="shared" ref="BF40:BJ40" si="226">(BF19-BF22)/BF19</f>
         <v>0.60772869075173597</v>
       </c>
       <c r="BG40" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>0.63738091637683347</v>
       </c>
       <c r="BH40" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>0.66015101919357233</v>
       </c>
       <c r="BI40" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>0.69725977347460721</v>
       </c>
       <c r="BJ40" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>0.71745446633132381</v>
       </c>
       <c r="BK40" s="5">
@@ -8960,79 +9014,79 @@
         <v>0.70827464788732397</v>
       </c>
       <c r="BL40" s="5">
-        <f t="shared" ref="BL40:BU40" si="228">(BL19-BL22)/BL19</f>
+        <f t="shared" ref="BL40:BU40" si="227">(BL19-BL22)/BL19</f>
         <v>0.7388035645582256</v>
       </c>
       <c r="BM40" s="5">
+        <f t="shared" si="227"/>
+        <v>0.73</v>
+      </c>
+      <c r="BN40" s="5">
+        <f t="shared" si="227"/>
+        <v>0.73000000000000009</v>
+      </c>
+      <c r="BO40" s="5">
+        <f t="shared" si="227"/>
+        <v>0.73</v>
+      </c>
+      <c r="BP40" s="5">
+        <f t="shared" si="227"/>
+        <v>0.73</v>
+      </c>
+      <c r="BQ40" s="5">
+        <f t="shared" si="227"/>
+        <v>0.73</v>
+      </c>
+      <c r="BR40" s="5">
+        <f t="shared" si="227"/>
+        <v>0.73</v>
+      </c>
+      <c r="BS40" s="5">
+        <f t="shared" si="227"/>
+        <v>0.73</v>
+      </c>
+      <c r="BT40" s="5">
+        <f t="shared" si="227"/>
+        <v>0.73</v>
+      </c>
+      <c r="BU40" s="5">
+        <f t="shared" si="227"/>
+        <v>0.73</v>
+      </c>
+      <c r="BV40" s="5">
+        <f t="shared" ref="BV40:CB40" si="228">(BV19-BV22)/BV19</f>
+        <v>0.73</v>
+      </c>
+      <c r="BW40" s="5">
+        <f t="shared" si="228"/>
+        <v>0.73000000000000009</v>
+      </c>
+      <c r="BX40" s="5">
         <f t="shared" si="228"/>
         <v>0.73</v>
       </c>
-      <c r="BN40" s="5">
-        <f t="shared" si="228"/>
-        <v>0.73000000000000009</v>
-      </c>
-      <c r="BO40" s="5">
+      <c r="BY40" s="5">
         <f t="shared" si="228"/>
         <v>0.73</v>
       </c>
-      <c r="BP40" s="5">
+      <c r="BZ40" s="5">
         <f t="shared" si="228"/>
         <v>0.73</v>
       </c>
-      <c r="BQ40" s="5">
+      <c r="CA40" s="5">
         <f t="shared" si="228"/>
         <v>0.73</v>
       </c>
-      <c r="BR40" s="5">
+      <c r="CB40" s="5">
         <f t="shared" si="228"/>
         <v>0.73</v>
       </c>
-      <c r="BS40" s="5">
-        <f t="shared" si="228"/>
-        <v>0.73</v>
-      </c>
-      <c r="BT40" s="5">
-        <f t="shared" si="228"/>
-        <v>0.73</v>
-      </c>
-      <c r="BU40" s="5">
-        <f t="shared" si="228"/>
-        <v>0.73</v>
-      </c>
-      <c r="BV40" s="5">
-        <f t="shared" ref="BV40:CB40" si="229">(BV19-BV22)/BV19</f>
-        <v>0.73</v>
-      </c>
-      <c r="BW40" s="5">
-        <f t="shared" si="229"/>
-        <v>0.73000000000000009</v>
-      </c>
-      <c r="BX40" s="5">
-        <f t="shared" si="229"/>
-        <v>0.73</v>
-      </c>
-      <c r="BY40" s="5">
-        <f t="shared" si="229"/>
-        <v>0.73</v>
-      </c>
-      <c r="BZ40" s="5">
-        <f t="shared" si="229"/>
-        <v>0.73</v>
-      </c>
-      <c r="CA40" s="5">
-        <f t="shared" si="229"/>
-        <v>0.73</v>
-      </c>
-      <c r="CB40" s="5">
-        <f t="shared" si="229"/>
-        <v>0.73</v>
-      </c>
       <c r="CD40" s="4" t="s">
         <v>97</v>
       </c>
       <c r="CE40" s="5">
         <f>CE39/Main!O2-1</f>
-        <v>-0.21952863111830201</v>
+        <v>-0.21782124825443105</v>
       </c>
     </row>
     <row r="41" spans="2:83" x14ac:dyDescent="0.25">
@@ -9049,157 +9103,157 @@
         <v>0.3416894215210356</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" ref="L41:V41" si="230">(L18-L21)/L18</f>
+        <f t="shared" ref="L41:V41" si="229">(L18-L21)/L18</f>
         <v>0.30343600578227509</v>
       </c>
       <c r="M41" s="5">
+        <f t="shared" si="229"/>
+        <v>0.29736293494379851</v>
+      </c>
+      <c r="N41" s="5">
+        <f t="shared" si="229"/>
+        <v>0.2981515085046561</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" si="229"/>
+        <v>0.35063441961579467</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" si="229"/>
+        <v>0.3609647372838215</v>
+      </c>
+      <c r="Q41" s="5">
+        <f t="shared" si="229"/>
+        <v>0.36043347720022517</v>
+      </c>
+      <c r="R41" s="5">
+        <f t="shared" si="229"/>
+        <v>0.34253184395310604</v>
+      </c>
+      <c r="S41" s="5">
+        <f t="shared" si="229"/>
+        <v>0.38418446983117716</v>
+      </c>
+      <c r="T41" s="5">
+        <f t="shared" si="229"/>
+        <v>0.36364692668190091</v>
+      </c>
+      <c r="U41" s="5">
+        <f t="shared" si="229"/>
+        <v>0.34519769552521506</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" si="229"/>
+        <v>0.34627526142224979</v>
+      </c>
+      <c r="W41" s="5">
+        <f t="shared" ref="W41:X41" si="230">(W18-W21)/W18</f>
+        <v>0.36957920073038136</v>
+      </c>
+      <c r="X41" s="5">
         <f t="shared" si="230"/>
-        <v>0.29736293494379851</v>
-      </c>
-      <c r="N41" s="5">
-        <f t="shared" si="230"/>
-        <v>0.2981515085046561</v>
-      </c>
-      <c r="O41" s="5">
-        <f t="shared" si="230"/>
-        <v>0.35063441961579467</v>
-      </c>
-      <c r="P41" s="5">
-        <f t="shared" si="230"/>
-        <v>0.3609647372838215</v>
-      </c>
-      <c r="Q41" s="5">
-        <f t="shared" si="230"/>
-        <v>0.36043347720022517</v>
-      </c>
-      <c r="R41" s="5">
-        <f t="shared" si="230"/>
-        <v>0.34253184395310604</v>
-      </c>
-      <c r="S41" s="5">
-        <f t="shared" si="230"/>
-        <v>0.38418446983117716</v>
-      </c>
-      <c r="T41" s="5">
-        <f t="shared" si="230"/>
-        <v>0.36364692668190091</v>
-      </c>
-      <c r="U41" s="5">
-        <f t="shared" si="230"/>
-        <v>0.34519769552521506</v>
-      </c>
-      <c r="V41" s="5">
-        <f t="shared" si="230"/>
-        <v>0.34627526142224979</v>
-      </c>
-      <c r="W41" s="5">
-        <f t="shared" ref="W41:X41" si="231">(W18-W21)/W18</f>
-        <v>0.36957920073038136</v>
-      </c>
-      <c r="X41" s="5">
+        <v>0.36702782399329087</v>
+      </c>
+      <c r="Y41" s="5">
+        <f t="shared" ref="Y41:Z41" si="231">(Y18-Y21)/Y18</f>
+        <v>0.35402086359434837</v>
+      </c>
+      <c r="Z41" s="5">
         <f t="shared" si="231"/>
-        <v>0.36702782399329087</v>
-      </c>
-      <c r="Y41" s="5">
-        <f t="shared" ref="Y41:Z41" si="232">(Y18-Y21)/Y18</f>
-        <v>0.35402086359434837</v>
-      </c>
-      <c r="Z41" s="5">
+        <v>0.36612884020004766</v>
+      </c>
+      <c r="AA41" s="5">
+        <f t="shared" ref="AA41:AD41" si="232">(AA18-AA21)/AA18</f>
+        <v>0.39414045491301913</v>
+      </c>
+      <c r="AB41" s="5">
         <f t="shared" si="232"/>
-        <v>0.36612884020004766</v>
-      </c>
-      <c r="AA41" s="5">
-        <f t="shared" ref="AA41:AD41" si="233">(AA18-AA21)/AA18</f>
-        <v>0.39414045491301913</v>
-      </c>
-      <c r="AB41" s="5">
-        <f t="shared" si="233"/>
         <v>0.36572675896301171</v>
       </c>
       <c r="AC41" s="5">
-        <f t="shared" si="233"/>
+        <f t="shared" si="232"/>
         <v>0.35346956013254499</v>
       </c>
       <c r="AD41" s="5">
-        <f t="shared" si="233"/>
+        <f t="shared" si="232"/>
         <v>0.36296063352297092</v>
       </c>
       <c r="AE41" s="5">
-        <f t="shared" ref="AE41" si="234">(AE18-AE21)/AE18</f>
+        <f t="shared" ref="AE41" si="233">(AE18-AE21)/AE18</f>
         <v>0.39315026541445486</v>
       </c>
       <c r="AF41" s="5">
-        <f t="shared" ref="AF41:AH41" si="235">(AF18-AF21)/AF18</f>
+        <f t="shared" ref="AF41:AH41" si="234">(AF18-AF21)/AF18</f>
+        <v>0.35922810489856505</v>
+      </c>
+      <c r="AG41" s="5">
+        <f t="shared" si="234"/>
         <v>1</v>
       </c>
-      <c r="AG41" s="5">
-        <f t="shared" si="235"/>
-        <v>1</v>
-      </c>
       <c r="AH41" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="234"/>
         <v>1</v>
       </c>
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
       <c r="AN41" s="5">
-        <f t="shared" ref="AN41:AO41" si="236">(AN18-AN21)/AN18</f>
+        <f t="shared" ref="AN41:AO41" si="235">(AN18-AN21)/AN18</f>
         <v>1</v>
       </c>
       <c r="AO41" s="5">
+        <f t="shared" si="235"/>
+        <v>1</v>
+      </c>
+      <c r="AP41" s="5">
+        <f t="shared" ref="AP41:AS41" si="236">(AP18-AP21)/AP18</f>
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="5">
         <f t="shared" si="236"/>
         <v>1</v>
       </c>
-      <c r="AP41" s="5">
-        <f t="shared" ref="AP41:AS41" si="237">(AP18-AP21)/AP18</f>
+      <c r="AR41" s="5">
+        <f t="shared" si="236"/>
         <v>1</v>
       </c>
-      <c r="AQ41" s="5">
+      <c r="AS41" s="5">
+        <f t="shared" si="236"/>
+        <v>1</v>
+      </c>
+      <c r="AT41" s="5">
+        <f t="shared" ref="AT41:AV41" si="237">(AT18-AT21)/AT18</f>
+        <v>1</v>
+      </c>
+      <c r="AU41" s="5">
         <f t="shared" si="237"/>
         <v>1</v>
       </c>
-      <c r="AR41" s="5">
+      <c r="AV41" s="5">
         <f t="shared" si="237"/>
         <v>1</v>
       </c>
-      <c r="AS41" s="5">
-        <f t="shared" si="237"/>
+      <c r="AW41" s="5">
+        <f t="shared" ref="AW41:AX41" si="238">(AW18-AW21)/AW18</f>
         <v>1</v>
       </c>
-      <c r="AT41" s="5">
-        <f t="shared" ref="AT41:AV41" si="238">(AT18-AT21)/AT18</f>
-        <v>1</v>
-      </c>
-      <c r="AU41" s="5">
+      <c r="AX41" s="5">
         <f t="shared" si="238"/>
         <v>1</v>
       </c>
-      <c r="AV41" s="5">
-        <f t="shared" si="238"/>
+      <c r="AY41" s="5">
+        <f t="shared" ref="AY41:BB41" si="239">(AY18-AY21)/AY18</f>
         <v>1</v>
       </c>
-      <c r="AW41" s="5">
-        <f t="shared" ref="AW41:AX41" si="239">(AW18-AW21)/AW18</f>
-        <v>1</v>
-      </c>
-      <c r="AX41" s="5">
+      <c r="AZ41" s="5">
         <f t="shared" si="239"/>
         <v>1</v>
       </c>
-      <c r="AY41" s="5">
-        <f t="shared" ref="AY41:BB41" si="240">(AY18-AY21)/AY18</f>
+      <c r="BA41" s="5">
+        <f t="shared" si="239"/>
         <v>1</v>
       </c>
-      <c r="AZ41" s="5">
-        <f t="shared" si="240"/>
-        <v>1</v>
-      </c>
-      <c r="BA41" s="5">
-        <f t="shared" si="240"/>
-        <v>1</v>
-      </c>
       <c r="BB41" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>1</v>
       </c>
       <c r="BC41" s="5">
@@ -9215,23 +9269,23 @@
         <v>1</v>
       </c>
       <c r="BF41" s="5">
-        <f t="shared" ref="BF41:BJ41" si="241">(BF18-BF21)/BF18</f>
+        <f t="shared" ref="BF41:BJ41" si="240">(BF18-BF21)/BF18</f>
         <v>0.34396294836770025</v>
       </c>
       <c r="BG41" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>0.32207795851002652</v>
       </c>
       <c r="BH41" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>0.31466339293399231</v>
       </c>
       <c r="BI41" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>0.35349303276483562</v>
       </c>
       <c r="BJ41" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>0.36283479707399452</v>
       </c>
       <c r="BK41" s="5">
@@ -9239,71 +9293,71 @@
         <v>0.36500662562691849</v>
       </c>
       <c r="BL41" s="5">
-        <f t="shared" ref="BL41:BU41" si="242">(BL18-BL21)/BL18</f>
+        <f t="shared" ref="BL41:BU41" si="241">(BL18-BL21)/BL18</f>
         <v>0.37180617636485724</v>
       </c>
       <c r="BM41" s="5">
+        <f t="shared" si="241"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="BN41" s="5">
+        <f t="shared" si="241"/>
+        <v>0.36</v>
+      </c>
+      <c r="BO41" s="5">
+        <f t="shared" si="241"/>
+        <v>0.36</v>
+      </c>
+      <c r="BP41" s="5">
+        <f t="shared" si="241"/>
+        <v>0.35999999999999993</v>
+      </c>
+      <c r="BQ41" s="5">
+        <f t="shared" si="241"/>
+        <v>0.36</v>
+      </c>
+      <c r="BR41" s="5">
+        <f t="shared" si="241"/>
+        <v>0.35999999999999993</v>
+      </c>
+      <c r="BS41" s="5">
+        <f t="shared" si="241"/>
+        <v>0.35999999999999993</v>
+      </c>
+      <c r="BT41" s="5">
+        <f t="shared" si="241"/>
+        <v>0.36</v>
+      </c>
+      <c r="BU41" s="5">
+        <f t="shared" si="241"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="BV41" s="5">
+        <f t="shared" ref="BV41:CB41" si="242">(BV18-BV21)/BV18</f>
+        <v>0.36</v>
+      </c>
+      <c r="BW41" s="5">
         <f t="shared" si="242"/>
-        <v>0.36000000000000004</v>
-      </c>
-      <c r="BN41" s="5">
+        <v>0.35999999999999993</v>
+      </c>
+      <c r="BX41" s="5">
         <f t="shared" si="242"/>
         <v>0.36</v>
       </c>
-      <c r="BO41" s="5">
+      <c r="BY41" s="5">
         <f t="shared" si="242"/>
         <v>0.36</v>
       </c>
-      <c r="BP41" s="5">
-        <f t="shared" si="242"/>
-        <v>0.35999999999999993</v>
-      </c>
-      <c r="BQ41" s="5">
+      <c r="BZ41" s="5">
         <f t="shared" si="242"/>
         <v>0.36</v>
       </c>
-      <c r="BR41" s="5">
-        <f t="shared" si="242"/>
-        <v>0.35999999999999993</v>
-      </c>
-      <c r="BS41" s="5">
-        <f t="shared" si="242"/>
-        <v>0.35999999999999993</v>
-      </c>
-      <c r="BT41" s="5">
+      <c r="CA41" s="5">
         <f t="shared" si="242"/>
         <v>0.36</v>
       </c>
-      <c r="BU41" s="5">
+      <c r="CB41" s="5">
         <f t="shared" si="242"/>
-        <v>0.36000000000000004</v>
-      </c>
-      <c r="BV41" s="5">
-        <f t="shared" ref="BV41:CB41" si="243">(BV18-BV21)/BV18</f>
-        <v>0.36</v>
-      </c>
-      <c r="BW41" s="5">
-        <f t="shared" si="243"/>
-        <v>0.35999999999999993</v>
-      </c>
-      <c r="BX41" s="5">
-        <f t="shared" si="243"/>
-        <v>0.36</v>
-      </c>
-      <c r="BY41" s="5">
-        <f t="shared" si="243"/>
-        <v>0.36</v>
-      </c>
-      <c r="BZ41" s="5">
-        <f t="shared" si="243"/>
-        <v>0.36</v>
-      </c>
-      <c r="CA41" s="5">
-        <f t="shared" si="243"/>
-        <v>0.36</v>
-      </c>
-      <c r="CB41" s="5">
-        <f t="shared" si="243"/>
         <v>0.36</v>
       </c>
     </row>
@@ -9314,39 +9368,39 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5">
-        <f t="shared" ref="E42" si="244">+E28/E20</f>
+        <f t="shared" ref="E42" si="243">+E28/E20</f>
         <v>0.23677837228949591</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" ref="K42" si="245">+K28/K20</f>
+        <f t="shared" ref="K42" si="244">+K28/K20</f>
         <v>0.2784717759940753</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" ref="L42:N42" si="246">+L28/L20</f>
+        <f t="shared" ref="L42:N42" si="245">+L28/L20</f>
         <v>0.22041397287054346</v>
       </c>
       <c r="M42" s="5">
+        <f t="shared" si="245"/>
+        <v>0.21933484124989527</v>
+      </c>
+      <c r="N42" s="5">
+        <f t="shared" si="245"/>
+        <v>0.2283687285542057</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" ref="O42:Q42" si="246">+O28/O20</f>
+        <v>0.30091799100853384</v>
+      </c>
+      <c r="P42" s="5">
         <f t="shared" si="246"/>
-        <v>0.21933484124989527</v>
-      </c>
-      <c r="N42" s="5">
+        <v>0.30700794784782998</v>
+      </c>
+      <c r="Q42" s="5">
         <f t="shared" si="246"/>
-        <v>0.2283687285542057</v>
-      </c>
-      <c r="O42" s="5">
-        <f t="shared" ref="O42:Q42" si="247">+O28/O20</f>
-        <v>0.30091799100853384</v>
-      </c>
-      <c r="P42" s="5">
-        <f t="shared" si="247"/>
-        <v>0.30700794784782998</v>
-      </c>
-      <c r="Q42" s="5">
-        <f t="shared" si="247"/>
         <v>0.29626445956234498</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" ref="R42" si="248">+R28/R20</f>
+        <f t="shared" ref="R42" si="247">+R28/R20</f>
         <v>0.28534069097888676</v>
       </c>
       <c r="S42" s="5">
@@ -9362,117 +9416,117 @@
         <v>0.27816150146457891</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" ref="V42:X42" si="249">+V28/V20</f>
+        <f t="shared" ref="V42:X42" si="248">+V28/V20</f>
         <v>0.27615202005635303</v>
       </c>
       <c r="W42" s="5">
+        <f t="shared" si="248"/>
+        <v>0.30742441572630896</v>
+      </c>
+      <c r="X42" s="5">
+        <f t="shared" si="248"/>
+        <v>0.29859968788223878</v>
+      </c>
+      <c r="Y42" s="5">
+        <f t="shared" ref="Y42:Z42" si="249">+Y28/Y20</f>
+        <v>0.28115945572576012</v>
+      </c>
+      <c r="Z42" s="5">
         <f t="shared" si="249"/>
-        <v>0.30742441572630896</v>
-      </c>
-      <c r="X42" s="5">
-        <f t="shared" si="249"/>
-        <v>0.29859968788223878</v>
-      </c>
-      <c r="Y42" s="5">
-        <f t="shared" ref="Y42:Z42" si="250">+Y28/Y20</f>
-        <v>0.28115945572576012</v>
-      </c>
-      <c r="Z42" s="5">
+        <v>0.30133634271156895</v>
+      </c>
+      <c r="AA42" s="5">
+        <f t="shared" ref="AA42:AD42" si="250">+AA28/AA20</f>
+        <v>0.33763746602550698</v>
+      </c>
+      <c r="AB42" s="5">
         <f t="shared" si="250"/>
-        <v>0.30133634271156895</v>
-      </c>
-      <c r="AA42" s="5">
-        <f t="shared" ref="AA42:AD42" si="251">+AA28/AA20</f>
-        <v>0.33763746602550698</v>
-      </c>
-      <c r="AB42" s="5">
-        <f t="shared" si="251"/>
         <v>0.30742785362467356</v>
       </c>
       <c r="AC42" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="250"/>
         <v>0.29555708406682446</v>
       </c>
       <c r="AD42" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="250"/>
         <v>0.31171389444854103</v>
       </c>
       <c r="AE42" s="5">
-        <f t="shared" ref="AE42" si="252">+AE28/AE20</f>
+        <f t="shared" ref="AE42" si="251">+AE28/AE20</f>
         <v>0.34458567980691873</v>
       </c>
       <c r="AF42" s="5">
-        <f t="shared" ref="AF42:AH42" si="253">+AF28/AF20</f>
-        <v>0.31719379826497812</v>
+        <f t="shared" ref="AF42:AH42" si="252">+AF28/AF20</f>
+        <v>0.31029058610094484</v>
       </c>
       <c r="AG42" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="252"/>
         <v>0.30646732902383006</v>
       </c>
       <c r="AH42" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="252"/>
         <v>0.32251580902944293</v>
       </c>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
       <c r="AN42" s="5">
-        <f t="shared" ref="AN42:AO42" si="254">+AN28/AN20</f>
+        <f t="shared" ref="AN42:AO42" si="253">+AN28/AN20</f>
         <v>7.7665038206188156E-2</v>
       </c>
       <c r="AO42" s="5">
+        <f t="shared" si="253"/>
+        <v>-6.2092112623531606E-2</v>
+      </c>
+      <c r="AP42" s="5">
+        <f t="shared" ref="AP42:AS42" si="254">+AP28/AP20</f>
+        <v>8.3594566353187051E-3</v>
+      </c>
+      <c r="AQ42" s="5">
         <f t="shared" si="254"/>
-        <v>-6.2092112623531606E-2</v>
-      </c>
-      <c r="AP42" s="5">
-        <f t="shared" ref="AP42:AS42" si="255">+AP28/AP20</f>
-        <v>8.3594566353187051E-3</v>
-      </c>
-      <c r="AQ42" s="5">
+        <v>4.0277106492669565E-3</v>
+      </c>
+      <c r="AR42" s="5">
+        <f t="shared" si="254"/>
+        <v>4.2154849619519263E-2</v>
+      </c>
+      <c r="AS42" s="5">
+        <f t="shared" si="254"/>
+        <v>0.11844088722991888</v>
+      </c>
+      <c r="AT42" s="5">
+        <f t="shared" ref="AT42:AV42" si="255">+AT28/AT20</f>
+        <v>0.1269997411338338</v>
+      </c>
+      <c r="AU42" s="5">
         <f t="shared" si="255"/>
-        <v>4.0277106492669565E-3</v>
-      </c>
-      <c r="AR42" s="5">
+        <v>0.1836624177289011</v>
+      </c>
+      <c r="AV42" s="5">
         <f t="shared" si="255"/>
-        <v>4.2154849619519263E-2</v>
-      </c>
-      <c r="AS42" s="5">
-        <f t="shared" si="255"/>
-        <v>0.11844088722991888</v>
-      </c>
-      <c r="AT42" s="5">
-        <f t="shared" ref="AT42:AV42" si="256">+AT28/AT20</f>
-        <v>0.1269997411338338</v>
-      </c>
-      <c r="AU42" s="5">
+        <v>0.22210663892667573</v>
+      </c>
+      <c r="AW42" s="5">
+        <f t="shared" ref="AW42:AX42" si="256">+AW28/AW20</f>
+        <v>0.2736277823097541</v>
+      </c>
+      <c r="AX42" s="5">
         <f t="shared" si="256"/>
-        <v>0.1836624177289011</v>
-      </c>
-      <c r="AV42" s="5">
-        <f t="shared" si="256"/>
-        <v>0.22210663892667573</v>
-      </c>
-      <c r="AW42" s="5">
-        <f t="shared" ref="AW42:AX42" si="257">+AW28/AW20</f>
-        <v>0.2736277823097541</v>
-      </c>
-      <c r="AX42" s="5">
+        <v>0.28187044844768111</v>
+      </c>
+      <c r="AY42" s="5">
+        <f t="shared" ref="AY42:BB42" si="257">+AY28/AY20</f>
+        <v>0.31215068961376086</v>
+      </c>
+      <c r="AZ42" s="5">
         <f t="shared" si="257"/>
-        <v>0.28187044844768111</v>
-      </c>
-      <c r="AY42" s="5">
-        <f t="shared" ref="AY42:BB42" si="258">+AY28/AY20</f>
-        <v>0.31215068961376086</v>
-      </c>
-      <c r="AZ42" s="5">
-        <f t="shared" si="258"/>
         <v>0.35295959311984054</v>
       </c>
       <c r="BA42" s="5">
-        <f t="shared" si="258"/>
+        <f t="shared" si="257"/>
         <v>0.28669475162366159</v>
       </c>
       <c r="BB42" s="5">
-        <f t="shared" si="258"/>
+        <f t="shared" si="257"/>
         <v>0.28722339232473537</v>
       </c>
       <c r="BC42" s="5">
@@ -9488,23 +9542,23 @@
         <v>0.26760428208729942</v>
       </c>
       <c r="BF42" s="5">
-        <f t="shared" ref="BF42:BJ42" si="259">+BF28/BF20</f>
+        <f t="shared" ref="BF42:BJ42" si="258">+BF28/BF20</f>
         <v>0.26694026619477024</v>
       </c>
       <c r="BG42" s="5">
-        <f t="shared" si="259"/>
+        <f t="shared" si="258"/>
         <v>0.24572017188496928</v>
       </c>
       <c r="BH42" s="5">
-        <f t="shared" si="259"/>
+        <f t="shared" si="258"/>
         <v>0.24147314354406862</v>
       </c>
       <c r="BI42" s="5">
-        <f t="shared" si="259"/>
+        <f t="shared" si="258"/>
         <v>0.29782377527561593</v>
       </c>
       <c r="BJ42" s="5">
-        <f t="shared" si="259"/>
+        <f t="shared" si="258"/>
         <v>0.30288744395528594</v>
       </c>
       <c r="BK42" s="5">
@@ -9512,71 +9566,71 @@
         <v>0.29821412265024722</v>
       </c>
       <c r="BL42" s="5">
-        <f t="shared" ref="BL42:BU42" si="260">+BL28/BL20</f>
+        <f t="shared" ref="BL42:BU42" si="259">+BL28/BL20</f>
         <v>0.31510222870075566</v>
       </c>
       <c r="BM42" s="5">
+        <f t="shared" si="259"/>
+        <v>0.318193613213058</v>
+      </c>
+      <c r="BN42" s="5">
+        <f t="shared" si="259"/>
+        <v>0.32575601283530864</v>
+      </c>
+      <c r="BO42" s="5">
+        <f t="shared" si="259"/>
+        <v>0.33326859469828157</v>
+      </c>
+      <c r="BP42" s="5">
+        <f t="shared" si="259"/>
+        <v>0.34073102634804647</v>
+      </c>
+      <c r="BQ42" s="5">
+        <f t="shared" si="259"/>
+        <v>0.3431103942699843</v>
+      </c>
+      <c r="BR42" s="5">
+        <f t="shared" si="259"/>
+        <v>0.34534871281880053</v>
+      </c>
+      <c r="BS42" s="5">
+        <f t="shared" si="259"/>
+        <v>0.34755426034865977</v>
+      </c>
+      <c r="BT42" s="5">
+        <f t="shared" si="259"/>
+        <v>0.34972747235449292</v>
+      </c>
+      <c r="BU42" s="5">
+        <f t="shared" si="259"/>
+        <v>0.35186877805863043</v>
+      </c>
+      <c r="BV42" s="5">
+        <f t="shared" ref="BV42:CB42" si="260">+BV28/BV20</f>
+        <v>0.35394884887705413</v>
+      </c>
+      <c r="BW42" s="5">
         <f t="shared" si="260"/>
-        <v>0.318193613213058</v>
-      </c>
-      <c r="BN42" s="5">
+        <v>0.35601537171682562</v>
+      </c>
+      <c r="BX42" s="5">
         <f t="shared" si="260"/>
-        <v>0.32575601283530864</v>
-      </c>
-      <c r="BO42" s="5">
+        <v>0.35807443872211797</v>
+      </c>
+      <c r="BY42" s="5">
         <f t="shared" si="260"/>
-        <v>0.33326859469828157</v>
-      </c>
-      <c r="BP42" s="5">
+        <v>0.3601260336675135</v>
+      </c>
+      <c r="BZ42" s="5">
         <f t="shared" si="260"/>
-        <v>0.34073102634804647</v>
-      </c>
-      <c r="BQ42" s="5">
+        <v>0.36217013972301637</v>
+      </c>
+      <c r="CA42" s="5">
         <f t="shared" si="260"/>
-        <v>0.3431103942699843</v>
-      </c>
-      <c r="BR42" s="5">
+        <v>0.36420673947358395</v>
+      </c>
+      <c r="CB42" s="5">
         <f t="shared" si="260"/>
-        <v>0.34534871281880053</v>
-      </c>
-      <c r="BS42" s="5">
-        <f t="shared" si="260"/>
-        <v>0.34755426034865977</v>
-      </c>
-      <c r="BT42" s="5">
-        <f t="shared" si="260"/>
-        <v>0.34972747235449292</v>
-      </c>
-      <c r="BU42" s="5">
-        <f t="shared" si="260"/>
-        <v>0.35186877805863043</v>
-      </c>
-      <c r="BV42" s="5">
-        <f t="shared" ref="BV42:CB42" si="261">+BV28/BV20</f>
-        <v>0.35394884887705413</v>
-      </c>
-      <c r="BW42" s="5">
-        <f t="shared" si="261"/>
-        <v>0.35601537171682562</v>
-      </c>
-      <c r="BX42" s="5">
-        <f t="shared" si="261"/>
-        <v>0.35807443872211797</v>
-      </c>
-      <c r="BY42" s="5">
-        <f t="shared" si="261"/>
-        <v>0.3601260336675135</v>
-      </c>
-      <c r="BZ42" s="5">
-        <f t="shared" si="261"/>
-        <v>0.36217013972301637</v>
-      </c>
-      <c r="CA42" s="5">
-        <f t="shared" si="261"/>
-        <v>0.36420673947358395</v>
-      </c>
-      <c r="CB42" s="5">
-        <f t="shared" si="261"/>
         <v>0.3662358149388944</v>
       </c>
     </row>
@@ -9595,189 +9649,189 @@
         <v>0.14206343082027933</v>
       </c>
       <c r="L43" s="5">
-        <f t="shared" ref="L43:U43" si="262">L31/L30</f>
+        <f t="shared" ref="L43:U43" si="261">L31/L30</f>
         <v>0.14358583936048724</v>
       </c>
       <c r="M43" s="5">
+        <f t="shared" si="261"/>
+        <v>0.14341173783968944</v>
+      </c>
+      <c r="N43" s="5">
+        <f t="shared" si="261"/>
+        <v>0.14952016643178309</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="261"/>
+        <v>0.14366121683194855</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="261"/>
+        <v>0.1564028417407447</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" si="261"/>
+        <v>0.10771882309491568</v>
+      </c>
+      <c r="R43" s="5">
+        <f t="shared" si="261"/>
+        <v>0.11600997935306263</v>
+      </c>
+      <c r="S43" s="5">
+        <f t="shared" si="261"/>
+        <v>0.16030164157028201</v>
+      </c>
+      <c r="T43" s="5">
+        <f t="shared" si="261"/>
+        <v>0.17017817445834302</v>
+      </c>
+      <c r="U43" s="5">
+        <f t="shared" si="261"/>
+        <v>0.15711436746726784</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" ref="V43:X43" si="262">V31/V30</f>
+        <v>0.15963012531938192</v>
+      </c>
+      <c r="W43" s="5">
         <f t="shared" si="262"/>
-        <v>0.14341173783968944</v>
-      </c>
-      <c r="N43" s="5">
+        <v>0.15790360160570419</v>
+      </c>
+      <c r="X43" s="5">
         <f t="shared" si="262"/>
-        <v>0.14952016643178309</v>
-      </c>
-      <c r="O43" s="5">
-        <f t="shared" si="262"/>
-        <v>0.14366121683194855</v>
-      </c>
-      <c r="P43" s="5">
-        <f t="shared" si="262"/>
-        <v>0.1564028417407447</v>
-      </c>
-      <c r="Q43" s="5">
-        <f t="shared" si="262"/>
-        <v>0.10771882309491568</v>
-      </c>
-      <c r="R43" s="5">
-        <f t="shared" si="262"/>
-        <v>0.11600997935306263</v>
-      </c>
-      <c r="S43" s="5">
-        <f t="shared" si="262"/>
-        <v>0.16030164157028201</v>
-      </c>
-      <c r="T43" s="5">
-        <f t="shared" si="262"/>
-        <v>0.17017817445834302</v>
-      </c>
-      <c r="U43" s="5">
-        <f t="shared" si="262"/>
-        <v>0.15711436746726784</v>
-      </c>
-      <c r="V43" s="5">
-        <f t="shared" ref="V43:X43" si="263">V31/V30</f>
-        <v>0.15963012531938192</v>
-      </c>
-      <c r="W43" s="5">
+        <v>0.14875625396377987</v>
+      </c>
+      <c r="Y43" s="5">
+        <f t="shared" ref="Y43:Z43" si="263">Y31/Y30</f>
+        <v>0.12545638499098227</v>
+      </c>
+      <c r="Z43" s="5">
         <f t="shared" si="263"/>
-        <v>0.15790360160570419</v>
-      </c>
-      <c r="X43" s="5">
-        <f t="shared" si="263"/>
-        <v>0.14875625396377987</v>
-      </c>
-      <c r="Y43" s="5">
-        <f t="shared" ref="Y43:Z43" si="264">Y31/Y30</f>
-        <v>0.12545638499098227</v>
-      </c>
-      <c r="Z43" s="5">
+        <v>0.14971479368842136</v>
+      </c>
+      <c r="AA43" s="5">
+        <f t="shared" ref="AA43:AD43" si="264">AA31/AA30</f>
+        <v>0.15889194752374575</v>
+      </c>
+      <c r="AB43" s="5">
         <f t="shared" si="264"/>
-        <v>0.14971479368842136</v>
-      </c>
-      <c r="AA43" s="5">
-        <f t="shared" ref="AA43:AD43" si="265">AA31/AA30</f>
-        <v>0.15889194752374575</v>
-      </c>
-      <c r="AB43" s="5">
-        <f t="shared" si="265"/>
         <v>0.1576021099151757</v>
       </c>
       <c r="AC43" s="5">
-        <f t="shared" si="265"/>
+        <f t="shared" si="264"/>
         <v>0.15870400878638111</v>
       </c>
       <c r="AD43" s="5">
-        <f t="shared" si="265"/>
+        <f t="shared" si="264"/>
         <v>0.50233029381965555</v>
       </c>
       <c r="AE43" s="5">
-        <f t="shared" ref="AE43" si="266">AE31/AE30</f>
+        <f t="shared" ref="AE43" si="265">AE31/AE30</f>
         <v>0.14686267142588766</v>
       </c>
       <c r="AF43" s="5">
-        <f t="shared" ref="AF43:AH43" si="267">AF31/AF30</f>
+        <f t="shared" ref="AF43:AH43" si="266">AF31/AF30</f>
+        <v>0.15455475946775846</v>
+      </c>
+      <c r="AG43" s="5">
+        <f t="shared" si="266"/>
         <v>0.15</v>
       </c>
-      <c r="AG43" s="5">
-        <f t="shared" si="267"/>
-        <v>0.15</v>
-      </c>
       <c r="AH43" s="5">
-        <f t="shared" si="267"/>
+        <f t="shared" si="266"/>
         <v>0.15</v>
       </c>
       <c r="AI43" s="5"/>
       <c r="AJ43" s="5"/>
       <c r="AN43" s="5">
-        <f t="shared" ref="AN43:AO43" si="268">AN31/AN30</f>
+        <f t="shared" ref="AN43:AO43" si="267">AN31/AN30</f>
         <v>0.37181044957472659</v>
       </c>
       <c r="AO43" s="5">
+        <f t="shared" si="267"/>
+        <v>0</v>
+      </c>
+      <c r="AP43" s="5">
+        <f t="shared" ref="AP43:AS43" si="268">AP31/AP30</f>
+        <v>0.1864406779661017</v>
+      </c>
+      <c r="AQ43" s="5">
         <f t="shared" si="268"/>
-        <v>0</v>
-      </c>
-      <c r="AP43" s="5">
-        <f t="shared" ref="AP43:AS43" si="269">AP31/AP30</f>
-        <v>0.1864406779661017</v>
-      </c>
-      <c r="AQ43" s="5">
+        <v>0.20338983050847459</v>
+      </c>
+      <c r="AR43" s="5">
+        <f t="shared" si="268"/>
+        <v>0.26354679802955666</v>
+      </c>
+      <c r="AS43" s="5">
+        <f t="shared" si="268"/>
+        <v>0.26446280991735538</v>
+      </c>
+      <c r="AT43" s="5">
+        <f t="shared" ref="AT43:AV43" si="269">AT31/AT30</f>
+        <v>0.29418026969481903</v>
+      </c>
+      <c r="AU43" s="5">
         <f t="shared" si="269"/>
-        <v>0.20338983050847459</v>
-      </c>
-      <c r="AR43" s="5">
+        <v>0.30191693290734822</v>
+      </c>
+      <c r="AV43" s="5">
         <f t="shared" si="269"/>
-        <v>0.26354679802955666</v>
-      </c>
-      <c r="AS43" s="5">
-        <f t="shared" si="269"/>
-        <v>0.26446280991735538</v>
-      </c>
-      <c r="AT43" s="5">
-        <f t="shared" ref="AT43:AV43" si="270">AT31/AT30</f>
-        <v>0.29418026969481903</v>
-      </c>
-      <c r="AU43" s="5">
+        <v>0.3160836034424947</v>
+      </c>
+      <c r="AW43" s="5">
+        <f t="shared" ref="AW43:AX43" si="270">AW31/AW30</f>
+        <v>0.31750372948781702</v>
+      </c>
+      <c r="AX43" s="5">
         <f t="shared" si="270"/>
-        <v>0.30191693290734822</v>
-      </c>
-      <c r="AV43" s="5">
-        <f t="shared" si="270"/>
-        <v>0.3160836034424947</v>
-      </c>
-      <c r="AW43" s="5">
-        <f t="shared" ref="AW43:AX43" si="271">AW31/AW30</f>
-        <v>0.31750372948781702</v>
-      </c>
-      <c r="AX43" s="5">
+        <v>0.24417475728155341</v>
+      </c>
+      <c r="AY43" s="5">
+        <f t="shared" ref="AY43:BB43" si="271">AY31/AY30</f>
+        <v>0.24215757930127174</v>
+      </c>
+      <c r="AZ43" s="5">
         <f t="shared" si="271"/>
-        <v>0.24417475728155341</v>
-      </c>
-      <c r="AY43" s="5">
-        <f t="shared" ref="AY43:BB43" si="272">AY31/AY30</f>
-        <v>0.24215757930127174</v>
-      </c>
-      <c r="AZ43" s="5">
+        <v>0.25160052364471064</v>
+      </c>
+      <c r="BA43" s="5">
+        <f t="shared" si="271"/>
+        <v>0.26154919748778788</v>
+      </c>
+      <c r="BB43" s="5">
+        <f t="shared" si="271"/>
+        <v>0.26126058747639436</v>
+      </c>
+      <c r="BC43" s="5">
+        <f t="shared" ref="BC43:BD43" si="272">BC31/BC30</f>
+        <v>0.26368337585327173</v>
+      </c>
+      <c r="BD43" s="5">
         <f t="shared" si="272"/>
-        <v>0.25160052364471064</v>
-      </c>
-      <c r="BA43" s="5">
-        <f t="shared" si="272"/>
-        <v>0.26154919748778788</v>
-      </c>
-      <c r="BB43" s="5">
-        <f t="shared" si="272"/>
-        <v>0.26126058747639436</v>
-      </c>
-      <c r="BC43" s="5">
-        <f t="shared" ref="BC43:BD43" si="273">BC31/BC30</f>
-        <v>0.26368337585327173</v>
-      </c>
-      <c r="BD43" s="5">
-        <f t="shared" si="273"/>
         <v>0.25557257381216192</v>
       </c>
       <c r="BE43" s="5">
-        <f t="shared" ref="BE43" si="274">BE31/BE30</f>
+        <f t="shared" ref="BE43" si="273">BE31/BE30</f>
         <v>0.24556476150353415</v>
       </c>
       <c r="BF43" s="5">
-        <f t="shared" ref="BF43:BJ43" si="275">BF31/BF30</f>
+        <f t="shared" ref="BF43:BJ43" si="274">BF31/BF30</f>
         <v>0.18342180705869443</v>
       </c>
       <c r="BG43" s="5">
-        <f t="shared" si="275"/>
+        <f t="shared" si="274"/>
         <v>0.15943836804235059</v>
       </c>
       <c r="BH43" s="5">
-        <f t="shared" si="275"/>
+        <f t="shared" si="274"/>
         <v>0.14428164731484103</v>
       </c>
       <c r="BI43" s="5">
-        <f t="shared" si="275"/>
+        <f t="shared" si="274"/>
         <v>0.13302260844085087</v>
       </c>
       <c r="BJ43" s="5">
-        <f t="shared" si="275"/>
+        <f t="shared" si="274"/>
         <v>0.16204461684424407</v>
       </c>
       <c r="BK43" s="5">
@@ -9785,77 +9839,77 @@
         <v>0.14719174228036858</v>
       </c>
       <c r="BL43" s="5">
-        <f t="shared" ref="BL43:BU43" si="276">BL31/BL30</f>
+        <f t="shared" ref="BL43:BU43" si="275">BL31/BL30</f>
         <v>0.24091185164189982</v>
       </c>
       <c r="BM43" s="5">
+        <f t="shared" si="275"/>
+        <v>0.2</v>
+      </c>
+      <c r="BN43" s="5">
+        <f t="shared" si="275"/>
+        <v>0.2</v>
+      </c>
+      <c r="BO43" s="5">
+        <f t="shared" si="275"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="BP43" s="5">
+        <f t="shared" si="275"/>
+        <v>0.2</v>
+      </c>
+      <c r="BQ43" s="5">
+        <f t="shared" si="275"/>
+        <v>0.2</v>
+      </c>
+      <c r="BR43" s="5">
+        <f t="shared" si="275"/>
+        <v>0.2</v>
+      </c>
+      <c r="BS43" s="5">
+        <f t="shared" si="275"/>
+        <v>0.2</v>
+      </c>
+      <c r="BT43" s="5">
+        <f t="shared" si="275"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="BU43" s="5">
+        <f t="shared" si="275"/>
+        <v>0.2</v>
+      </c>
+      <c r="BV43" s="5">
+        <f t="shared" ref="BV43:CB43" si="276">BV31/BV30</f>
+        <v>0.2</v>
+      </c>
+      <c r="BW43" s="5">
         <f t="shared" si="276"/>
         <v>0.2</v>
       </c>
-      <c r="BN43" s="5">
+      <c r="BX43" s="5">
         <f t="shared" si="276"/>
         <v>0.2</v>
       </c>
-      <c r="BO43" s="5">
-        <f t="shared" si="276"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="BP43" s="5">
+      <c r="BY43" s="5">
         <f t="shared" si="276"/>
         <v>0.2</v>
       </c>
-      <c r="BQ43" s="5">
+      <c r="BZ43" s="5">
         <f t="shared" si="276"/>
         <v>0.2</v>
       </c>
-      <c r="BR43" s="5">
+      <c r="CA43" s="5">
         <f t="shared" si="276"/>
         <v>0.2</v>
       </c>
-      <c r="BS43" s="5">
+      <c r="CB43" s="5">
         <f t="shared" si="276"/>
-        <v>0.2</v>
-      </c>
-      <c r="BT43" s="5">
-        <f t="shared" si="276"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="BU43" s="5">
-        <f t="shared" si="276"/>
-        <v>0.2</v>
-      </c>
-      <c r="BV43" s="5">
-        <f t="shared" ref="BV43:CB43" si="277">BV31/BV30</f>
-        <v>0.2</v>
-      </c>
-      <c r="BW43" s="5">
-        <f t="shared" si="277"/>
-        <v>0.2</v>
-      </c>
-      <c r="BX43" s="5">
-        <f t="shared" si="277"/>
-        <v>0.2</v>
-      </c>
-      <c r="BY43" s="5">
-        <f t="shared" si="277"/>
-        <v>0.2</v>
-      </c>
-      <c r="BZ43" s="5">
-        <f t="shared" si="277"/>
-        <v>0.2</v>
-      </c>
-      <c r="CA43" s="5">
-        <f t="shared" si="277"/>
-        <v>0.2</v>
-      </c>
-      <c r="CB43" s="5">
-        <f t="shared" si="277"/>
         <v>0.20000000000000004</v>
       </c>
     </row>
     <row r="44" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -9872,39 +9926,39 @@
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5">
-        <f t="shared" ref="V44:AD44" si="278">+V33/R33-1</f>
+        <f t="shared" ref="V44:AD44" si="277">+V33/R33-1</f>
         <v>4.058942615831751E-2</v>
       </c>
       <c r="W44" s="5">
-        <f t="shared" si="278"/>
+        <f t="shared" si="277"/>
         <v>-0.10316022532525748</v>
       </c>
       <c r="X44" s="5">
-        <f t="shared" si="278"/>
+        <f t="shared" si="277"/>
         <v>-7.7222454700431875E-5</v>
       </c>
       <c r="Y44" s="5">
-        <f t="shared" si="278"/>
+        <f t="shared" si="277"/>
         <v>5.4161853731795384E-2</v>
       </c>
       <c r="Z44" s="5">
-        <f t="shared" si="278"/>
+        <f t="shared" si="277"/>
         <v>0.13939334487945021</v>
       </c>
       <c r="AA44" s="5">
-        <f t="shared" si="278"/>
+        <f t="shared" si="277"/>
         <v>0.15812348125504605</v>
       </c>
       <c r="AB44" s="5">
-        <f t="shared" si="278"/>
+        <f t="shared" si="277"/>
         <v>2.4984903043883122E-3</v>
       </c>
       <c r="AC44" s="5">
-        <f t="shared" si="278"/>
+        <f t="shared" si="277"/>
         <v>0.10882038400780858</v>
       </c>
       <c r="AD44" s="5">
-        <f t="shared" si="278"/>
+        <f t="shared" si="277"/>
         <v>-0.33998676732349176</v>
       </c>
       <c r="AE44" s="5">
@@ -9912,16 +9966,16 @@
         <v>0.10127848174065157</v>
       </c>
       <c r="AF44" s="5">
-        <f t="shared" ref="AF44:AH44" si="279">+AF33/AB33-1</f>
-        <v>9.5014737678668748E-2</v>
+        <f t="shared" ref="AF44:AH44" si="278">+AF33/AB33-1</f>
+        <v>7.6851036785966498E-2</v>
       </c>
       <c r="AG44" s="5">
-        <f t="shared" si="279"/>
-        <v>7.7844323040550778E-2</v>
+        <f t="shared" si="278"/>
+        <v>8.4626034414266416E-2</v>
       </c>
       <c r="AH44" s="5">
-        <f t="shared" si="279"/>
-        <v>0.81319755503152202</v>
+        <f t="shared" si="278"/>
+        <v>0.82460605087725125</v>
       </c>
       <c r="AI44" s="5"/>
       <c r="AJ44" s="5"/>
@@ -9992,8 +10046,28 @@
       <c r="B48" t="s">
         <v>128</v>
       </c>
+      <c r="R48" s="2">
+        <f t="shared" ref="R48:W48" si="279">R49-R61</f>
+        <v>65797</v>
+      </c>
+      <c r="S48" s="2">
+        <f t="shared" si="279"/>
+        <v>79798</v>
+      </c>
+      <c r="T48" s="2">
+        <f t="shared" si="279"/>
+        <v>72749</v>
+      </c>
+      <c r="U48" s="2">
+        <f t="shared" si="279"/>
+        <v>59617</v>
+      </c>
+      <c r="V48" s="2">
+        <f t="shared" si="279"/>
+        <v>49040</v>
+      </c>
       <c r="W48" s="2">
-        <f t="shared" ref="W48:AE48" si="280">W49-W61</f>
+        <f t="shared" ref="W48:AF48" si="280">W49-W61</f>
         <v>54340</v>
       </c>
       <c r="X48" s="2">
@@ -10028,10 +10102,34 @@
         <f t="shared" si="280"/>
         <v>44569</v>
       </c>
+      <c r="AF48" s="2">
+        <f t="shared" si="280"/>
+        <v>34736</v>
+      </c>
     </row>
-    <row r="49" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="R49" s="2">
+        <f>34940+27699+127877</f>
+        <v>190516</v>
+      </c>
+      <c r="S49" s="2">
+        <f>37119+26794+138683</f>
+        <v>202596</v>
+      </c>
+      <c r="T49" s="2">
+        <f>28098+23413+141219</f>
+        <v>192730</v>
+      </c>
+      <c r="U49" s="2">
+        <f>27502+20729+131077</f>
+        <v>179308</v>
+      </c>
+      <c r="V49" s="2">
+        <f>23646+24658+120805</f>
+        <v>169109</v>
       </c>
       <c r="W49" s="2">
         <f>20535+30820+114095</f>
@@ -10069,11 +10167,30 @@
         <f>30299+23476+87593</f>
         <v>141368</v>
       </c>
+      <c r="AF49" s="2">
+        <f>28162+20336+84424</f>
+        <v>132922</v>
+      </c>
     </row>
-    <row r="50" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="R50" s="2">
+        <v>26278</v>
+      </c>
+      <c r="S50" s="2">
+        <v>30213</v>
+      </c>
+      <c r="T50" s="2">
+        <v>20815</v>
+      </c>
+      <c r="U50" s="2">
+        <v>21803</v>
+      </c>
+      <c r="V50" s="2">
+        <v>28184</v>
+      </c>
       <c r="W50" s="2">
         <v>23752</v>
       </c>
@@ -10101,11 +10218,29 @@
       <c r="AE50" s="2">
         <v>29639</v>
       </c>
+      <c r="AF50" s="2">
+        <v>26136</v>
+      </c>
     </row>
-    <row r="51" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="R51" s="2">
+        <v>6580</v>
+      </c>
+      <c r="S51" s="2">
+        <v>5876</v>
+      </c>
+      <c r="T51" s="2">
+        <v>5460</v>
+      </c>
+      <c r="U51" s="2">
+        <v>5433</v>
+      </c>
+      <c r="V51" s="2">
+        <v>4946</v>
+      </c>
       <c r="W51" s="2">
         <v>6820</v>
       </c>
@@ -10133,11 +10268,29 @@
       <c r="AE51" s="2">
         <v>29667</v>
       </c>
+      <c r="AF51" s="2">
+        <v>23662</v>
+      </c>
     </row>
-    <row r="52" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="R52" s="2">
+        <v>25228</v>
+      </c>
+      <c r="S52" s="2">
+        <v>35040</v>
+      </c>
+      <c r="T52" s="2">
+        <v>24585</v>
+      </c>
+      <c r="U52" s="2">
+        <v>20439</v>
+      </c>
+      <c r="V52" s="2">
+        <v>32748</v>
+      </c>
       <c r="W52" s="2">
         <v>30428</v>
       </c>
@@ -10165,11 +10318,29 @@
       <c r="AE52" s="2">
         <v>6911</v>
       </c>
+      <c r="AF52" s="2">
+        <v>6269</v>
+      </c>
     </row>
-    <row r="53" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="R53" s="2">
+        <v>14111</v>
+      </c>
+      <c r="S53" s="2">
+        <v>18112</v>
+      </c>
+      <c r="T53" s="2">
+        <v>15809</v>
+      </c>
+      <c r="U53" s="2">
+        <v>16386</v>
+      </c>
+      <c r="V53" s="2">
+        <v>21223</v>
+      </c>
       <c r="W53" s="2">
         <v>16422</v>
       </c>
@@ -10197,11 +10368,29 @@
       <c r="AE53" s="2">
         <v>13248</v>
       </c>
+      <c r="AF53" s="2">
+        <v>14109</v>
+      </c>
     </row>
-    <row r="54" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="R54" s="2">
+        <v>39440</v>
+      </c>
+      <c r="S54" s="2">
+        <v>39245</v>
+      </c>
+      <c r="T54" s="2">
+        <v>39304</v>
+      </c>
+      <c r="U54" s="2">
+        <v>40335</v>
+      </c>
+      <c r="V54" s="2">
+        <v>42117</v>
+      </c>
       <c r="W54" s="2">
         <v>42951</v>
       </c>
@@ -10229,11 +10418,29 @@
       <c r="AE54" s="2">
         <v>46069</v>
       </c>
+      <c r="AF54" s="2">
+        <v>46876</v>
+      </c>
     </row>
-    <row r="55" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="R55" s="2">
+        <v>48849</v>
+      </c>
+      <c r="S55" s="2">
+        <v>50109</v>
+      </c>
+      <c r="T55" s="2">
+        <v>51959</v>
+      </c>
+      <c r="U55" s="2">
+        <v>52605</v>
+      </c>
+      <c r="V55" s="2">
+        <v>54428</v>
+      </c>
       <c r="W55" s="2">
         <v>60924</v>
       </c>
@@ -10261,52 +10468,97 @@
       <c r="AE55" s="2">
         <v>77183</v>
       </c>
+      <c r="AF55" s="2">
+        <v>81259</v>
+      </c>
     </row>
-    <row r="56" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="R56" s="2">
+        <f t="shared" ref="R56:V56" si="281">SUM(R49:R55)</f>
+        <v>351002</v>
+      </c>
+      <c r="S56" s="2">
+        <f t="shared" si="281"/>
+        <v>381191</v>
+      </c>
+      <c r="T56" s="2">
+        <f t="shared" si="281"/>
+        <v>350662</v>
+      </c>
+      <c r="U56" s="2">
+        <f t="shared" si="281"/>
+        <v>336309</v>
+      </c>
+      <c r="V56" s="2">
+        <f t="shared" ref="V56:AF56" si="282">SUM(V49:V55)</f>
+        <v>352755</v>
+      </c>
       <c r="W56" s="2">
-        <f t="shared" ref="W56:AE56" si="281">SUM(W49:W55)</f>
+        <f t="shared" si="282"/>
         <v>346747</v>
       </c>
       <c r="X56" s="2">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>332160</v>
       </c>
       <c r="Y56" s="2">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>335038</v>
       </c>
       <c r="Z56" s="2">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>352583</v>
       </c>
       <c r="AA56" s="2">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>353514</v>
       </c>
       <c r="AB56" s="2">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>337411</v>
       </c>
       <c r="AC56" s="2">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>331612</v>
       </c>
       <c r="AD56" s="2">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>364980</v>
       </c>
       <c r="AE56" s="2">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>344085</v>
       </c>
+      <c r="AF56" s="2">
+        <f t="shared" si="282"/>
+        <v>331233</v>
+      </c>
     </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF57" s="2"/>
+    </row>
+    <row r="58" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="R58" s="2">
+        <v>54763</v>
+      </c>
+      <c r="S58" s="2">
+        <v>74362</v>
+      </c>
+      <c r="T58" s="2">
+        <v>52682</v>
+      </c>
+      <c r="U58" s="2">
+        <v>48343</v>
+      </c>
+      <c r="V58" s="2">
+        <v>64115</v>
+      </c>
       <c r="W58" s="2">
         <v>57918</v>
       </c>
@@ -10334,11 +10586,29 @@
       <c r="AE58" s="2">
         <v>61910</v>
       </c>
+      <c r="AF58" s="2">
+        <v>54126</v>
+      </c>
     </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="R59" s="2">
+        <v>47493</v>
+      </c>
+      <c r="S59" s="2">
+        <v>49167</v>
+      </c>
+      <c r="T59" s="2">
+        <v>50248</v>
+      </c>
+      <c r="U59" s="2">
+        <v>48811</v>
+      </c>
+      <c r="V59" s="2">
+        <v>60845</v>
+      </c>
       <c r="W59" s="2">
         <v>59893</v>
       </c>
@@ -10366,11 +10636,29 @@
       <c r="AE59" s="2">
         <v>61151</v>
       </c>
+      <c r="AF59" s="2">
+        <v>61849</v>
+      </c>
     </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="R60" s="2">
+        <v>7612</v>
+      </c>
+      <c r="S60" s="2">
+        <v>7876</v>
+      </c>
+      <c r="T60" s="2">
+        <v>7920</v>
+      </c>
+      <c r="U60" s="2">
+        <v>7728</v>
+      </c>
+      <c r="V60" s="2">
+        <v>7912</v>
+      </c>
       <c r="W60" s="2">
         <v>7992</v>
       </c>
@@ -10398,10 +10686,33 @@
       <c r="AE60" s="2">
         <v>8461</v>
       </c>
+      <c r="AF60" s="2">
+        <v>8976</v>
+      </c>
     </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="R61">
+        <f>6000+9613+109106</f>
+        <v>124719</v>
+      </c>
+      <c r="S61">
+        <f>5000+106629+11169</f>
+        <v>122798</v>
+      </c>
+      <c r="T61" s="2">
+        <f>6999+9659+103323</f>
+        <v>119981</v>
+      </c>
+      <c r="U61" s="2">
+        <f>10982+14009+94700</f>
+        <v>119691</v>
+      </c>
+      <c r="V61" s="2">
+        <f>9982+11128+98959</f>
+        <v>120069</v>
       </c>
       <c r="W61" s="2">
         <f>1743+9740+99627</f>
@@ -10439,11 +10750,30 @@
         <f>1995+83956+10848</f>
         <v>96799</v>
       </c>
+      <c r="AF61" s="2">
+        <f>5982+13638+78566</f>
+        <v>98186</v>
+      </c>
     </row>
-    <row r="62" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="R62" s="2">
+        <v>53325</v>
+      </c>
+      <c r="S62" s="2">
+        <v>55056</v>
+      </c>
+      <c r="T62" s="2">
+        <v>52432</v>
+      </c>
+      <c r="U62" s="2">
+        <v>53629</v>
+      </c>
+      <c r="V62" s="2">
+        <v>49142</v>
+      </c>
       <c r="W62" s="2">
         <v>53107</v>
       </c>
@@ -10471,11 +10801,29 @@
       <c r="AE62" s="2">
         <v>49006</v>
       </c>
+      <c r="AF62" s="2">
+        <v>41300</v>
+      </c>
     </row>
-    <row r="63" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="R63" s="2">
+        <v>63090</v>
+      </c>
+      <c r="S63" s="2">
+        <v>71932</v>
+      </c>
+      <c r="T63" s="2">
+        <v>67399</v>
+      </c>
+      <c r="U63" s="2">
+        <v>58107</v>
+      </c>
+      <c r="V63" s="2">
+        <v>50672</v>
+      </c>
       <c r="W63" s="2">
         <v>56727</v>
       </c>
@@ -10503,122 +10851,173 @@
       <c r="AE63" s="2">
         <v>66758</v>
       </c>
+      <c r="AF63" s="2">
+        <v>66796</v>
+      </c>
     </row>
-    <row r="64" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="R64" s="2">
+        <f t="shared" ref="R64:V64" si="283">SUM(R58:R63)</f>
+        <v>351002</v>
+      </c>
+      <c r="S64" s="2">
+        <f t="shared" si="283"/>
+        <v>381191</v>
+      </c>
+      <c r="T64" s="2">
+        <f t="shared" si="283"/>
+        <v>350662</v>
+      </c>
+      <c r="U64" s="2">
+        <f t="shared" si="283"/>
+        <v>336309</v>
+      </c>
+      <c r="V64" s="2">
+        <f t="shared" ref="V64:AF64" si="284">SUM(V58:V63)</f>
+        <v>352755</v>
+      </c>
       <c r="W64" s="2">
-        <f t="shared" ref="W64:AE64" si="282">SUM(W58:W63)</f>
+        <f t="shared" si="284"/>
         <v>346747</v>
       </c>
       <c r="X64" s="2">
-        <f t="shared" si="282"/>
+        <f t="shared" si="284"/>
         <v>332160</v>
       </c>
       <c r="Y64" s="2">
-        <f t="shared" si="282"/>
+        <f t="shared" si="284"/>
         <v>335038</v>
       </c>
       <c r="Z64" s="2">
-        <f t="shared" si="282"/>
+        <f t="shared" si="284"/>
         <v>352583</v>
       </c>
       <c r="AA64" s="2">
-        <f t="shared" si="282"/>
+        <f t="shared" si="284"/>
         <v>353514</v>
       </c>
       <c r="AB64" s="2">
-        <f t="shared" si="282"/>
+        <f t="shared" si="284"/>
         <v>337411</v>
       </c>
       <c r="AC64" s="2">
-        <f t="shared" si="282"/>
+        <f t="shared" si="284"/>
         <v>331612</v>
       </c>
       <c r="AD64" s="2">
-        <f t="shared" si="282"/>
+        <f t="shared" si="284"/>
         <v>364980</v>
       </c>
       <c r="AE64" s="2">
-        <f t="shared" si="282"/>
+        <f t="shared" si="284"/>
         <v>344085</v>
+      </c>
+      <c r="AF64" s="2">
+        <f t="shared" si="284"/>
+        <v>331233</v>
       </c>
     </row>
     <row r="66" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="O66" s="2">
+        <f t="shared" ref="O66" si="285">O32</f>
+        <v>28755</v>
+      </c>
+      <c r="S66" s="2">
+        <f t="shared" ref="S66:V66" si="286">S32</f>
+        <v>34630</v>
+      </c>
+      <c r="T66" s="2">
+        <f t="shared" si="286"/>
+        <v>25010</v>
+      </c>
+      <c r="U66" s="2">
+        <f t="shared" si="286"/>
+        <v>19442</v>
+      </c>
+      <c r="V66" s="2">
+        <f>V32</f>
+        <v>20721</v>
+      </c>
       <c r="W66" s="2">
-        <f t="shared" ref="W66:AE66" si="283">W32</f>
+        <f t="shared" ref="V66:AF66" si="287">W32</f>
         <v>29998</v>
       </c>
       <c r="X66" s="2">
-        <f t="shared" si="283"/>
+        <f t="shared" si="287"/>
         <v>24160</v>
       </c>
       <c r="Y66" s="2">
-        <f t="shared" si="283"/>
+        <f t="shared" si="287"/>
         <v>19881</v>
       </c>
       <c r="Z66" s="2">
-        <f t="shared" si="283"/>
+        <f t="shared" si="287"/>
         <v>22956</v>
       </c>
       <c r="AA66" s="2">
-        <f t="shared" si="283"/>
+        <f t="shared" si="287"/>
         <v>33916</v>
       </c>
       <c r="AB66" s="2">
-        <f t="shared" si="283"/>
+        <f t="shared" si="287"/>
         <v>23636</v>
       </c>
       <c r="AC66" s="2">
-        <f t="shared" si="283"/>
+        <f t="shared" si="287"/>
         <v>21448</v>
       </c>
       <c r="AD66" s="2">
-        <f t="shared" si="283"/>
+        <f t="shared" si="287"/>
         <v>14736</v>
       </c>
       <c r="AE66" s="2">
-        <f t="shared" si="283"/>
+        <f t="shared" si="287"/>
         <v>36330</v>
       </c>
+      <c r="AF66" s="2">
+        <f t="shared" si="287"/>
+        <v>24780</v>
+      </c>
       <c r="BD66" s="2">
-        <f t="shared" ref="BD66:BL66" si="284">BD32</f>
+        <f t="shared" ref="BD66:BL66" si="288">BD32</f>
         <v>45687</v>
       </c>
       <c r="BE66" s="2">
-        <f t="shared" si="284"/>
+        <f t="shared" si="288"/>
         <v>48351</v>
       </c>
       <c r="BF66" s="2">
-        <f t="shared" si="284"/>
+        <f t="shared" si="288"/>
         <v>59531</v>
       </c>
       <c r="BG66" s="2">
-        <f t="shared" si="284"/>
+        <f t="shared" si="288"/>
         <v>55256</v>
       </c>
       <c r="BH66" s="2">
-        <f t="shared" si="284"/>
+        <f t="shared" si="288"/>
         <v>57411</v>
       </c>
       <c r="BI66" s="2">
-        <f t="shared" si="284"/>
+        <f t="shared" si="288"/>
         <v>94680</v>
       </c>
       <c r="BJ66" s="2">
-        <f t="shared" si="284"/>
+        <f t="shared" si="288"/>
         <v>99803</v>
       </c>
       <c r="BK66" s="2">
-        <f t="shared" si="284"/>
+        <f t="shared" si="288"/>
         <v>96995</v>
       </c>
       <c r="BL66" s="2">
-        <f t="shared" si="284"/>
+        <f t="shared" si="288"/>
         <v>93736</v>
       </c>
     </row>
@@ -10626,6 +11025,24 @@
       <c r="B67" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="O67" s="2">
+        <v>28755</v>
+      </c>
+      <c r="S67" s="2">
+        <v>34630</v>
+      </c>
+      <c r="T67" s="2">
+        <f>59640-S67</f>
+        <v>25010</v>
+      </c>
+      <c r="U67" s="2">
+        <f>79082-T67-S67</f>
+        <v>19442</v>
+      </c>
+      <c r="V67" s="2">
+        <f>99803-U67-T67-S67</f>
+        <v>20721</v>
+      </c>
       <c r="W67" s="2">
         <v>29998</v>
       </c>
@@ -10658,12 +11075,34 @@
       </c>
       <c r="AE67" s="2">
         <v>36330</v>
+      </c>
+      <c r="AF67" s="2">
+        <f>61110-AE67</f>
+        <v>24780</v>
       </c>
     </row>
     <row r="68" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="O68" s="2">
+        <v>2666</v>
+      </c>
+      <c r="S68" s="2">
+        <v>2697</v>
+      </c>
+      <c r="T68" s="2">
+        <f>5434-S68</f>
+        <v>2737</v>
+      </c>
+      <c r="U68" s="2">
+        <f>8239-T68-S68</f>
+        <v>2805</v>
+      </c>
+      <c r="V68" s="2">
+        <f>11104-U68-T68-S68</f>
+        <v>2865</v>
+      </c>
       <c r="W68" s="2">
         <v>2916</v>
       </c>
@@ -10696,12 +11135,34 @@
       </c>
       <c r="AE68" s="2">
         <v>3080</v>
+      </c>
+      <c r="AF68" s="2">
+        <f>5741-AE68</f>
+        <v>2661</v>
       </c>
     </row>
     <row r="69" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="O69" s="2">
+        <v>2020</v>
+      </c>
+      <c r="S69" s="2">
+        <v>2265</v>
+      </c>
+      <c r="T69" s="2">
+        <f>4517-S69</f>
+        <v>2252</v>
+      </c>
+      <c r="U69" s="2">
+        <f>6760-T69-S69</f>
+        <v>2243</v>
+      </c>
+      <c r="V69" s="2">
+        <f>9038-U69-T69-S69</f>
+        <v>2278</v>
+      </c>
       <c r="W69" s="2">
         <v>2905</v>
       </c>
@@ -10734,12 +11195,36 @@
       </c>
       <c r="AE69" s="2">
         <v>3286</v>
+      </c>
+      <c r="AF69" s="2">
+        <f>6512-AE69</f>
+        <v>3226</v>
       </c>
     </row>
     <row r="70" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="O70" s="2">
+        <f>-58+25</f>
+        <v>-33</v>
+      </c>
+      <c r="S70" s="2">
+        <f>682+167</f>
+        <v>849</v>
+      </c>
+      <c r="T70" s="2">
+        <f>1088-20-S70</f>
+        <v>219</v>
+      </c>
+      <c r="U70" s="2">
+        <f>2756-61-T70-S70</f>
+        <v>1627</v>
+      </c>
+      <c r="V70" s="2">
+        <f>895+111-U70-T70-S70</f>
+        <v>-1689</v>
+      </c>
       <c r="W70" s="2">
         <v>-317</v>
       </c>
@@ -10772,12 +11257,36 @@
       </c>
       <c r="AE70" s="2">
         <v>-2009</v>
+      </c>
+      <c r="AF70" s="2">
+        <f>-2217-AE70</f>
+        <v>-208</v>
       </c>
     </row>
     <row r="71" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="O71" s="2">
+        <f>-10945-950-10194-3526+21670+1341+7959</f>
+        <v>5355</v>
+      </c>
+      <c r="S71" s="2">
+        <f>-3934+681-9812-4921+19813+462+4236</f>
+        <v>6525</v>
+      </c>
+      <c r="T71" s="2">
+        <f>5542+1065+643-3542-1750+627+1888-S71</f>
+        <v>-2052</v>
+      </c>
+      <c r="U71" s="2">
+        <f>4561+1049+4789-3289-6108+260-14-T71-S71</f>
+        <v>-3225</v>
+      </c>
+      <c r="V71" s="2">
+        <f>-1823+1484-7520-6499+9448+478+5632-U71-T71-S71</f>
+        <v>-48</v>
+      </c>
       <c r="W71" s="2">
         <f>4275-1807+2320-4099-6075+131+3758</f>
         <v>-1497</v>
@@ -10813,47 +11322,87 @@
       <c r="AE71" s="2">
         <f>3597+3166+215+939-6671-11998</f>
         <v>-10752</v>
+      </c>
+      <c r="AF71" s="2">
+        <f>7266+9171+858-4371-14604-15579-AE71</f>
+        <v>-6507</v>
       </c>
     </row>
     <row r="72" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="O72" s="2">
+        <f t="shared" ref="O72:S72" si="289">SUM(O67:O71)</f>
+        <v>38763</v>
+      </c>
+      <c r="P72" s="2">
+        <f t="shared" si="289"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="2">
+        <f t="shared" si="289"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="2">
+        <f t="shared" si="289"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="2">
+        <f t="shared" ref="S72:W72" si="290">SUM(S67:S71)</f>
+        <v>46966</v>
+      </c>
+      <c r="T72" s="2">
+        <f t="shared" si="290"/>
+        <v>28166</v>
+      </c>
+      <c r="U72" s="2">
+        <f t="shared" si="290"/>
+        <v>22892</v>
+      </c>
+      <c r="V72" s="2">
+        <f>SUM(V67:V71)</f>
+        <v>24127</v>
+      </c>
       <c r="W72" s="2">
-        <f t="shared" ref="W72:AE72" si="285">SUM(W67:W71)</f>
+        <f t="shared" ref="W72:AF72" si="291">SUM(W67:W71)</f>
         <v>34005</v>
       </c>
       <c r="X72" s="2">
-        <f t="shared" si="285"/>
+        <f t="shared" si="291"/>
         <v>28560</v>
       </c>
       <c r="Y72" s="2">
-        <f t="shared" si="285"/>
+        <f t="shared" si="291"/>
         <v>26380</v>
       </c>
       <c r="Z72" s="2">
-        <f t="shared" si="285"/>
+        <f t="shared" si="291"/>
         <v>21598</v>
       </c>
       <c r="AA72" s="2">
-        <f t="shared" si="285"/>
+        <f t="shared" si="291"/>
         <v>39895</v>
       </c>
       <c r="AB72" s="2">
-        <f t="shared" si="285"/>
+        <f t="shared" si="291"/>
         <v>22690</v>
       </c>
       <c r="AC72" s="2">
-        <f t="shared" si="285"/>
+        <f t="shared" si="291"/>
         <v>28858</v>
       </c>
       <c r="AD72" s="2">
-        <f t="shared" si="285"/>
+        <f t="shared" si="291"/>
         <v>26811</v>
       </c>
       <c r="AE72" s="2">
-        <f t="shared" si="285"/>
+        <f t="shared" si="291"/>
         <v>29935</v>
+      </c>
+      <c r="AF72" s="2">
+        <f t="shared" si="291"/>
+        <v>23952</v>
       </c>
       <c r="BD72" s="2">
         <v>66231</v>
@@ -10887,6 +11436,29 @@
       <c r="B74" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="O74" s="2">
+        <f>-39800+25177+9344</f>
+        <v>-5279</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2">
+        <f>-34913+11309+10675</f>
+        <v>-12929</v>
+      </c>
+      <c r="T74" s="2">
+        <f>-61987+18000+24668-S74</f>
+        <v>-6390</v>
+      </c>
+      <c r="U74" s="2">
+        <f>-70178+24203+33609-T74-S74</f>
+        <v>6953</v>
+      </c>
+      <c r="V74" s="2">
+        <f>-76923+29917+37446-U74-T74-S74</f>
+        <v>2806</v>
+      </c>
       <c r="W74" s="2">
         <f>-5153+7127+509</f>
         <v>2483</v>
@@ -10922,12 +11494,37 @@
       <c r="AE74" s="2">
         <f>-6124+15967+3492</f>
         <v>13335</v>
+      </c>
+      <c r="AF74" s="2">
+        <f>-12442+26587+5210-AE74</f>
+        <v>6020</v>
       </c>
     </row>
     <row r="75" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="O75" s="2">
+        <v>-3500</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2">
+        <v>-2803</v>
+      </c>
+      <c r="T75" s="2">
+        <f>-5317-S75</f>
+        <v>-2514</v>
+      </c>
+      <c r="U75" s="2">
+        <f>-7419-T75-S75</f>
+        <v>-2102</v>
+      </c>
+      <c r="V75" s="2">
+        <f>-10708-U75-T75-S75</f>
+        <v>-3289</v>
+      </c>
       <c r="W75" s="2">
         <v>-3787</v>
       </c>
@@ -10960,6 +11557,10 @@
       </c>
       <c r="AE75" s="2">
         <v>-2940</v>
+      </c>
+      <c r="AF75" s="2">
+        <f>-6011-AE75</f>
+        <v>-3071</v>
       </c>
       <c r="BD75" s="2">
         <v>-12734</v>
@@ -10993,6 +11594,27 @@
       <c r="B76" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="O76" s="2">
+        <v>195</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2">
+        <v>-374</v>
+      </c>
+      <c r="T76" s="2">
+        <f>-167-568-S76</f>
+        <v>-361</v>
+      </c>
+      <c r="U76" s="2">
+        <f>-169-1183-T76-S76</f>
+        <v>-617</v>
+      </c>
+      <c r="V76" s="2">
+        <f>-306-1780-U76-T76-S76</f>
+        <v>-734</v>
+      </c>
       <c r="W76" s="2">
         <v>-141</v>
       </c>
@@ -11025,53 +11647,114 @@
       </c>
       <c r="AE76" s="2">
         <v>-603</v>
+      </c>
+      <c r="AF76" s="2">
+        <f>-635-AE76</f>
+        <v>-32</v>
       </c>
     </row>
     <row r="77" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="O77" s="2">
+        <f t="shared" ref="O77:S77" si="292">SUM(O74:O76)</f>
+        <v>-8584</v>
+      </c>
+      <c r="P77" s="2">
+        <f t="shared" si="292"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="2">
+        <f t="shared" si="292"/>
+        <v>0</v>
+      </c>
+      <c r="R77" s="2">
+        <f t="shared" si="292"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="2">
+        <f t="shared" ref="S77:W77" si="293">SUM(S74:S76)</f>
+        <v>-16106</v>
+      </c>
+      <c r="T77" s="2">
+        <f t="shared" si="293"/>
+        <v>-9265</v>
+      </c>
+      <c r="U77" s="2">
+        <f t="shared" si="293"/>
+        <v>4234</v>
+      </c>
+      <c r="V77" s="2">
+        <f t="shared" si="293"/>
+        <v>-1217</v>
+      </c>
       <c r="W77" s="2">
-        <f t="shared" ref="W77:AE77" si="286">SUM(W74:W76)</f>
+        <f t="shared" ref="W77:AF77" si="294">SUM(W74:W76)</f>
         <v>-1445</v>
       </c>
       <c r="X77" s="2">
-        <f t="shared" si="286"/>
+        <f t="shared" si="294"/>
         <v>2319</v>
       </c>
       <c r="Y77" s="2">
-        <f t="shared" si="286"/>
+        <f t="shared" si="294"/>
         <v>437</v>
       </c>
       <c r="Z77" s="2">
-        <f t="shared" si="286"/>
+        <f t="shared" si="294"/>
         <v>2394</v>
       </c>
       <c r="AA77" s="2">
-        <f t="shared" si="286"/>
+        <f t="shared" si="294"/>
         <v>1927</v>
       </c>
       <c r="AB77" s="2">
-        <f t="shared" si="286"/>
+        <f t="shared" si="294"/>
         <v>-310</v>
       </c>
       <c r="AC77" s="2">
-        <f t="shared" si="286"/>
+        <f t="shared" si="294"/>
         <v>-127</v>
       </c>
       <c r="AD77" s="2">
-        <f t="shared" si="286"/>
+        <f t="shared" si="294"/>
         <v>1445</v>
       </c>
       <c r="AE77" s="2">
-        <f t="shared" si="286"/>
+        <f t="shared" si="294"/>
         <v>9792</v>
+      </c>
+      <c r="AF77" s="2">
+        <f t="shared" si="294"/>
+        <v>2917</v>
       </c>
     </row>
     <row r="79" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="O79" s="2">
+        <v>-2861</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2">
+        <v>-2888</v>
+      </c>
+      <c r="T79" s="2">
+        <f>-3218-S79</f>
+        <v>-330</v>
+      </c>
+      <c r="U79" s="2">
+        <f>-5915-T79-S79</f>
+        <v>-2697</v>
+      </c>
+      <c r="V79" s="2">
+        <f>-6223-U79-T79-S79</f>
+        <v>-308</v>
+      </c>
       <c r="W79" s="2">
         <v>-2316</v>
       </c>
@@ -11104,12 +11787,37 @@
       </c>
       <c r="AE79" s="2">
         <v>-2921</v>
+      </c>
+      <c r="AF79" s="2">
+        <f>-3205-AE79</f>
+        <v>-284</v>
       </c>
     </row>
     <row r="80" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="O80" s="2">
+        <v>-3613</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2">
+        <v>-3732</v>
+      </c>
+      <c r="T80" s="2">
+        <f>-7327-S80</f>
+        <v>-3595</v>
+      </c>
+      <c r="U80" s="2">
+        <f>-11138-T80-S80</f>
+        <v>-3811</v>
+      </c>
+      <c r="V80" s="2">
+        <f>-14841-U80-T80-S80</f>
+        <v>-3703</v>
+      </c>
       <c r="W80" s="2">
         <v>-3768</v>
       </c>
@@ -11142,12 +11850,37 @@
       </c>
       <c r="AE80" s="2">
         <v>-3856</v>
+      </c>
+      <c r="AF80" s="2">
+        <f>-7614-AE80</f>
+        <v>-3758</v>
       </c>
     </row>
     <row r="81" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="O81" s="2">
+        <v>-24775</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2">
+        <v>-20478</v>
+      </c>
+      <c r="T81" s="2">
+        <f>-43109-S81</f>
+        <v>-22631</v>
+      </c>
+      <c r="U81" s="2">
+        <f>-64974-T81-S81</f>
+        <v>-21865</v>
+      </c>
+      <c r="V81" s="2">
+        <f>-89402-U81-T81-S81</f>
+        <v>-24428</v>
+      </c>
       <c r="W81" s="2">
         <v>-19475</v>
       </c>
@@ -11180,12 +11913,37 @@
       </c>
       <c r="AE81" s="2">
         <v>-23606</v>
+      </c>
+      <c r="AF81" s="2">
+        <f>-49504-AE81</f>
+        <v>-25898</v>
       </c>
     </row>
     <row r="82" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="O82" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="T82" s="2">
+        <f>-3750+999-S82</f>
+        <v>-1751</v>
+      </c>
+      <c r="U82" s="2">
+        <f>-6750+4970-T82-S82</f>
+        <v>971</v>
+      </c>
+      <c r="V82" s="2">
+        <f>5465-9543+3955-U82-T82-S82</f>
+        <v>1657</v>
+      </c>
       <c r="W82" s="2">
         <f>-1401-8214</f>
         <v>-9615</v>
@@ -11220,12 +11978,37 @@
       <c r="AE82" s="2">
         <f>-1009-7944</f>
         <v>-8953</v>
+      </c>
+      <c r="AF82" s="2">
+        <f>-4009-3968-AE82</f>
+        <v>976</v>
       </c>
     </row>
     <row r="83" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="O83" s="2">
+        <v>0</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2">
+        <v>-61</v>
+      </c>
+      <c r="T83" s="2">
+        <f>-105-S83</f>
+        <v>-44</v>
+      </c>
+      <c r="U83" s="2">
+        <f>-148-T83-S83</f>
+        <v>-43</v>
+      </c>
+      <c r="V83" s="2">
+        <f>-160-U83-T83-S83</f>
+        <v>-12</v>
+      </c>
       <c r="W83" s="2">
         <v>-389</v>
       </c>
@@ -11258,47 +12041,87 @@
       </c>
       <c r="AE83" s="2">
         <v>-35</v>
+      </c>
+      <c r="AF83" s="2">
+        <f>-77-AE83</f>
+        <v>-42</v>
       </c>
     </row>
     <row r="84" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="O84" s="2">
+        <f t="shared" ref="O84:S84" si="295">SUM(O79:O83)</f>
+        <v>-32249</v>
+      </c>
+      <c r="P84" s="2">
+        <f t="shared" si="295"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="2">
+        <f t="shared" si="295"/>
+        <v>0</v>
+      </c>
+      <c r="R84" s="2">
+        <f t="shared" si="295"/>
+        <v>0</v>
+      </c>
+      <c r="S84" s="2">
+        <f t="shared" ref="S84:W84" si="296">SUM(S79:S83)</f>
+        <v>-28159</v>
+      </c>
+      <c r="T84" s="2">
+        <f t="shared" si="296"/>
+        <v>-28351</v>
+      </c>
+      <c r="U84" s="2">
+        <f t="shared" si="296"/>
+        <v>-27445</v>
+      </c>
+      <c r="V84" s="2">
+        <f t="shared" si="296"/>
+        <v>-26794</v>
+      </c>
       <c r="W84" s="2">
-        <f t="shared" ref="W84:AE84" si="287">SUM(W79:W83)</f>
+        <f t="shared" ref="W84:AF84" si="297">SUM(W79:W83)</f>
         <v>-35563</v>
       </c>
       <c r="X84" s="2">
-        <f t="shared" si="287"/>
+        <f t="shared" si="297"/>
         <v>-25724</v>
       </c>
       <c r="Y84" s="2">
-        <f t="shared" si="287"/>
+        <f t="shared" si="297"/>
         <v>-24048</v>
       </c>
       <c r="Z84" s="2">
-        <f t="shared" si="287"/>
+        <f t="shared" si="297"/>
         <v>-23153</v>
       </c>
       <c r="AA84" s="2">
-        <f t="shared" si="287"/>
+        <f t="shared" si="297"/>
         <v>-30585</v>
       </c>
       <c r="AB84" s="2">
-        <f t="shared" si="287"/>
+        <f t="shared" si="297"/>
         <v>-30433</v>
       </c>
       <c r="AC84" s="2">
-        <f t="shared" si="287"/>
+        <f t="shared" si="297"/>
         <v>-36017</v>
       </c>
       <c r="AD84" s="2">
-        <f t="shared" si="287"/>
+        <f t="shared" si="297"/>
         <v>-24948</v>
       </c>
       <c r="AE84" s="2">
-        <f t="shared" si="287"/>
+        <f t="shared" si="297"/>
         <v>-39371</v>
+      </c>
+      <c r="AF84" s="2">
+        <f t="shared" si="297"/>
+        <v>-29006</v>
       </c>
     </row>
     <row r="85" spans="2:64" x14ac:dyDescent="0.25">
@@ -11308,20 +12131,40 @@
       <c r="B86" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="O86" s="2">
+        <f t="shared" ref="O86" si="298">O84+O77+O72</f>
+        <v>-2070</v>
+      </c>
+      <c r="S86" s="2">
+        <f t="shared" ref="S86:W86" si="299">S84+S77+S72</f>
+        <v>2701</v>
+      </c>
+      <c r="T86" s="2">
+        <f t="shared" si="299"/>
+        <v>-9450</v>
+      </c>
+      <c r="U86" s="2">
+        <f t="shared" si="299"/>
+        <v>-319</v>
+      </c>
+      <c r="V86" s="2">
+        <f t="shared" si="299"/>
+        <v>-3884</v>
+      </c>
       <c r="W86" s="2">
         <f>W84+W77+W72</f>
         <v>-3003</v>
       </c>
       <c r="X86" s="2">
-        <f t="shared" ref="X86:Z86" si="288">X84+X77+X72</f>
+        <f t="shared" ref="X86:Z86" si="300">X84+X77+X72</f>
         <v>5155</v>
       </c>
       <c r="Y86" s="2">
-        <f t="shared" si="288"/>
+        <f t="shared" si="300"/>
         <v>2769</v>
       </c>
       <c r="Z86" s="2">
-        <f t="shared" si="288"/>
+        <f t="shared" si="300"/>
         <v>839</v>
       </c>
       <c r="AA86" s="2">
@@ -11344,25 +12187,49 @@
         <f>AE84+AE77+AE72</f>
         <v>356</v>
       </c>
+      <c r="AF86" s="2">
+        <f>-1781-AE86</f>
+        <v>-2137</v>
+      </c>
     </row>
     <row r="88" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="O88" s="2">
+        <f t="shared" ref="O88" si="301">+O72+O75</f>
+        <v>35263</v>
+      </c>
+      <c r="S88" s="2">
+        <f t="shared" ref="S88:W88" si="302">+S72+S75</f>
+        <v>44163</v>
+      </c>
+      <c r="T88" s="2">
+        <f t="shared" si="302"/>
+        <v>25652</v>
+      </c>
+      <c r="U88" s="2">
+        <f t="shared" si="302"/>
+        <v>20790</v>
+      </c>
+      <c r="V88" s="2">
+        <f t="shared" si="302"/>
+        <v>20838</v>
       </c>
       <c r="W88" s="2">
-        <f t="shared" ref="W88:Z88" si="289">+W72+W75</f>
+        <f t="shared" ref="W88:Z88" si="303">+W72+W75</f>
         <v>30218</v>
       </c>
       <c r="X88" s="2">
-        <f t="shared" si="289"/>
+        <f t="shared" si="303"/>
         <v>25644</v>
       </c>
       <c r="Y88" s="2">
-        <f t="shared" si="289"/>
+        <f t="shared" si="303"/>
         <v>24287</v>
       </c>
       <c r="Z88" s="2">
-        <f t="shared" si="289"/>
+        <f t="shared" si="303"/>
         <v>19435</v>
       </c>
       <c r="AA88" s="2">
@@ -11385,61 +12252,81 @@
         <f>+AE72+AE75</f>
         <v>26995</v>
       </c>
+      <c r="AF88" s="2">
+        <f>+AF72+AF75</f>
+        <v>20881</v>
+      </c>
       <c r="BD88" s="2">
-        <f t="shared" ref="BD88:BL88" si="290">+BD75+BD72</f>
+        <f t="shared" ref="BD88:BL88" si="304">+BD75+BD72</f>
         <v>53497</v>
       </c>
       <c r="BE88" s="2">
-        <f t="shared" si="290"/>
+        <f t="shared" si="304"/>
         <v>51774</v>
       </c>
       <c r="BF88" s="2">
-        <f t="shared" si="290"/>
+        <f t="shared" si="304"/>
         <v>64121</v>
       </c>
       <c r="BG88" s="2">
-        <f t="shared" si="290"/>
+        <f t="shared" si="304"/>
         <v>58896</v>
       </c>
       <c r="BH88" s="2">
-        <f t="shared" si="290"/>
+        <f t="shared" si="304"/>
         <v>73365</v>
       </c>
       <c r="BI88" s="2">
-        <f t="shared" si="290"/>
+        <f t="shared" si="304"/>
         <v>92953</v>
       </c>
       <c r="BJ88" s="2">
-        <f t="shared" si="290"/>
+        <f t="shared" si="304"/>
         <v>111443</v>
       </c>
       <c r="BK88" s="2">
-        <f t="shared" si="290"/>
+        <f t="shared" si="304"/>
         <v>99584</v>
       </c>
       <c r="BL88" s="2">
-        <f t="shared" si="290"/>
+        <f t="shared" si="304"/>
         <v>108807</v>
       </c>
     </row>
     <row r="89" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="V89" s="2">
+        <f t="shared" ref="V89" si="305">SUM(S88:V88)</f>
+        <v>111443</v>
+      </c>
+      <c r="W89" s="2">
+        <f t="shared" ref="W89" si="306">SUM(T88:W88)</f>
+        <v>97498</v>
+      </c>
+      <c r="X89" s="2">
+        <f t="shared" ref="X89" si="307">SUM(U88:X88)</f>
+        <v>97490</v>
+      </c>
+      <c r="Y89" s="2">
+        <f t="shared" ref="Y89" si="308">SUM(V88:Y88)</f>
+        <v>100987</v>
       </c>
       <c r="Z89" s="2">
-        <f t="shared" ref="Z89:AC89" si="291">SUM(W88:Z88)</f>
+        <f t="shared" ref="Z89:AC89" si="309">SUM(W88:Z88)</f>
         <v>99584</v>
       </c>
       <c r="AA89" s="2">
-        <f t="shared" si="291"/>
+        <f t="shared" si="309"/>
         <v>106869</v>
       </c>
       <c r="AB89" s="2">
-        <f t="shared" si="291"/>
+        <f t="shared" si="309"/>
         <v>101919</v>
       </c>
       <c r="AC89" s="2">
-        <f t="shared" si="291"/>
+        <f t="shared" si="309"/>
         <v>104339</v>
       </c>
       <c r="AD89" s="2">
@@ -11450,9 +12337,41 @@
         <f>SUM(AB88:AE88)</f>
         <v>98299</v>
       </c>
+      <c r="AF89" s="2">
+        <f>SUM(AC88:AF88)</f>
+        <v>98486</v>
+      </c>
       <c r="BL89" s="5"/>
     </row>
     <row r="90" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="Z90" s="5">
+        <f t="shared" ref="Z90" si="310">+Z89/V89-1</f>
+        <v>-0.1064131439390541</v>
+      </c>
+      <c r="AA90" s="5">
+        <f t="shared" ref="AA90" si="311">+AA89/W89-1</f>
+        <v>9.6114792098299429E-2</v>
+      </c>
+      <c r="AB90" s="5">
+        <f t="shared" ref="AB90" si="312">+AB89/X89-1</f>
+        <v>4.5430300543645608E-2</v>
+      </c>
+      <c r="AC90" s="5">
+        <f t="shared" ref="AC90" si="313">+AC89/Y89-1</f>
+        <v>3.319239109984462E-2</v>
+      </c>
+      <c r="AD90" s="5">
+        <f t="shared" ref="AD90:AE90" si="314">+AD89/Z89-1</f>
+        <v>9.2615279562981989E-2</v>
+      </c>
+      <c r="AE90" s="5">
+        <f t="shared" si="314"/>
+        <v>-8.0191636489533868E-2</v>
+      </c>
+      <c r="AF90" s="5">
+        <f>+AF89/AB89-1</f>
+        <v>-3.3683611495403221E-2</v>
+      </c>
       <c r="BL90" s="5"/>
     </row>
   </sheetData>
